--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="15360" windowHeight="7590" tabRatio="789"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="15360" windowHeight="7590" tabRatio="789" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA TOTAL" sheetId="27" r:id="rId1"/>
@@ -1427,7 +1427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1515,6 +1515,43 @@
       <bottom style="double">
         <color rgb="FF0000FD"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0000FD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0000FD"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF0000FD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0000FD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0000FD"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF0000FD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -3336,8 +3373,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3352,14 +3387,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3423,6 +3451,25 @@
     <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5731,7 +5778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -6197,8 +6244,8 @@
       <c r="V8" s="67"/>
       <c r="W8" s="67"/>
       <c r="X8" s="67"/>
-      <c r="Y8" s="166"/>
-      <c r="Z8" s="166"/>
+      <c r="Y8" s="164"/>
+      <c r="Z8" s="164"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="57"/>
       <c r="AC8" s="57"/>
@@ -6247,7 +6294,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="69"/>
       <c r="P9" s="69"/>
-      <c r="Q9" s="167"/>
+      <c r="Q9" s="165"/>
       <c r="R9" s="45"/>
       <c r="S9" s="45"/>
       <c r="T9" s="45"/>
@@ -6289,7 +6336,7 @@
       <c r="BE9" s="57"/>
     </row>
     <row r="10" spans="2:57" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="198"/>
+      <c r="B10" s="191"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="5"/>
@@ -6304,7 +6351,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="69"/>
       <c r="P10" s="69"/>
-      <c r="Q10" s="167"/>
+      <c r="Q10" s="165"/>
       <c r="R10" s="45"/>
       <c r="S10" s="45"/>
       <c r="T10" s="45"/>
@@ -6539,10 +6586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DF91"/>
+  <dimension ref="A1:JX91"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:IV55"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AV49" sqref="AV49:AZ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6579,12 +6626,11 @@
     <col min="38" max="43" width="14.28515625" customWidth="1"/>
     <col min="44" max="44" width="12.28515625" customWidth="1"/>
     <col min="45" max="47" width="11.42578125" customWidth="1"/>
-    <col min="48" max="51" width="11.42578125" style="160" customWidth="1"/>
-    <col min="52" max="52" width="11.42578125" customWidth="1"/>
+    <col min="48" max="52" width="11.42578125" style="11" customWidth="1"/>
     <col min="53" max="53" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:110" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:284" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="28"/>
       <c r="B1" s="211" t="s">
         <v>12</v>
@@ -6630,8 +6676,13 @@
       <c r="AO1" s="25"/>
       <c r="AP1" s="25"/>
       <c r="AQ1" s="25"/>
-    </row>
-    <row r="2" spans="1:110" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV1" s="160"/>
+      <c r="AW1" s="160"/>
+      <c r="AX1" s="160"/>
+      <c r="AY1" s="160"/>
+      <c r="AZ1"/>
+    </row>
+    <row r="2" spans="1:284" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="58" t="s">
         <v>24</v>
@@ -6677,8 +6728,13 @@
       <c r="AO2" s="25"/>
       <c r="AP2" s="25"/>
       <c r="AQ2" s="25"/>
-    </row>
-    <row r="3" spans="1:110" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AV2" s="160"/>
+      <c r="AW2" s="160"/>
+      <c r="AX2" s="160"/>
+      <c r="AY2" s="160"/>
+      <c r="AZ2"/>
+    </row>
+    <row r="3" spans="1:284" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="213" t="s">
         <v>13</v>
@@ -6729,7 +6785,7 @@
       <c r="AX3" s="161"/>
       <c r="AY3" s="161"/>
     </row>
-    <row r="4" spans="1:110" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:284" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="214" t="s">
         <v>162</v>
@@ -6780,7 +6836,7 @@
       <c r="AX4" s="160"/>
       <c r="AY4" s="160"/>
     </row>
-    <row r="5" spans="1:110" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:284" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="30" t="s">
         <v>22</v>
@@ -6831,7 +6887,7 @@
       <c r="AX5" s="160"/>
       <c r="AY5" s="160"/>
     </row>
-    <row r="6" spans="1:110" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:284" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="30" t="s">
         <v>23</v>
@@ -6945,7 +7001,7 @@
       <c r="DE6"/>
       <c r="DF6"/>
     </row>
-    <row r="7" spans="1:110" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:284" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="89"/>
@@ -6973,75 +7029,75 @@
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="19"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="10"/>
-      <c r="AV7" s="161"/>
-      <c r="AW7" s="161"/>
-      <c r="AX7" s="161"/>
-      <c r="AY7" s="161"/>
-      <c r="AZ7" s="10"/>
-      <c r="BA7" s="10"/>
-      <c r="BB7" s="10"/>
-      <c r="BC7" s="10"/>
-      <c r="BD7" s="10"/>
-      <c r="BE7" s="10"/>
-      <c r="BF7" s="10"/>
-      <c r="BG7" s="10"/>
-      <c r="BH7" s="10"/>
-      <c r="BI7" s="10"/>
-      <c r="BJ7" s="10"/>
-      <c r="BK7" s="10"/>
-      <c r="BL7" s="10"/>
-      <c r="BM7" s="10"/>
-      <c r="BN7" s="10"/>
-      <c r="BO7" s="10"/>
-      <c r="BP7" s="10"/>
-      <c r="BQ7" s="10"/>
-      <c r="BR7" s="10"/>
-      <c r="BS7" s="10"/>
-      <c r="BT7" s="10"/>
-      <c r="BU7" s="10"/>
-      <c r="BV7" s="10"/>
-      <c r="BW7" s="10"/>
-      <c r="BX7" s="10"/>
-      <c r="BY7" s="10"/>
-      <c r="BZ7" s="10"/>
-      <c r="CA7" s="10"/>
-      <c r="CB7" s="10"/>
-      <c r="CC7" s="10"/>
-      <c r="CD7" s="10"/>
-      <c r="CE7" s="10"/>
-      <c r="CF7" s="10"/>
-      <c r="CG7" s="10"/>
-      <c r="CH7" s="10"/>
-      <c r="CI7" s="10"/>
-      <c r="CJ7" s="10"/>
-      <c r="CK7" s="10"/>
-      <c r="CL7" s="10"/>
-      <c r="CM7" s="10"/>
-      <c r="CN7" s="10"/>
-      <c r="CO7" s="10"/>
-      <c r="CP7" s="10"/>
-      <c r="CQ7" s="10"/>
-      <c r="CR7" s="10"/>
-      <c r="CS7" s="10"/>
-      <c r="CT7" s="10"/>
-      <c r="CU7" s="10"/>
-      <c r="CV7" s="10"/>
-      <c r="CW7" s="10"/>
-      <c r="CX7" s="10"/>
-      <c r="CY7" s="10"/>
-      <c r="CZ7" s="10"/>
-      <c r="DA7" s="10"/>
-      <c r="DB7" s="10"/>
-      <c r="DC7" s="10"/>
-      <c r="DD7" s="10"/>
-      <c r="DE7" s="10"/>
-      <c r="DF7" s="10"/>
-    </row>
-    <row r="8" spans="1:110" s="46" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AR7" s="163"/>
+      <c r="AS7" s="163"/>
+      <c r="AT7" s="163"/>
+      <c r="AU7" s="163"/>
+      <c r="AV7" s="163"/>
+      <c r="AW7" s="163"/>
+      <c r="AX7" s="163"/>
+      <c r="AY7" s="163"/>
+      <c r="AZ7" s="163"/>
+      <c r="BA7" s="163"/>
+      <c r="BB7" s="163"/>
+      <c r="BC7" s="163"/>
+      <c r="BD7" s="163"/>
+      <c r="BE7" s="163"/>
+      <c r="BF7" s="163"/>
+      <c r="BG7" s="163"/>
+      <c r="BH7" s="163"/>
+      <c r="BI7" s="163"/>
+      <c r="BJ7" s="163"/>
+      <c r="BK7" s="163"/>
+      <c r="BL7" s="163"/>
+      <c r="BM7" s="163"/>
+      <c r="BN7" s="163"/>
+      <c r="BO7" s="163"/>
+      <c r="BP7" s="163"/>
+      <c r="BQ7" s="163"/>
+      <c r="BR7" s="163"/>
+      <c r="BS7" s="163"/>
+      <c r="BT7" s="163"/>
+      <c r="BU7" s="163"/>
+      <c r="BV7" s="163"/>
+      <c r="BW7" s="163"/>
+      <c r="BX7" s="163"/>
+      <c r="BY7" s="163"/>
+      <c r="BZ7" s="163"/>
+      <c r="CA7" s="163"/>
+      <c r="CB7" s="163"/>
+      <c r="CC7" s="163"/>
+      <c r="CD7" s="163"/>
+      <c r="CE7" s="163"/>
+      <c r="CF7" s="163"/>
+      <c r="CG7" s="163"/>
+      <c r="CH7" s="163"/>
+      <c r="CI7" s="163"/>
+      <c r="CJ7" s="163"/>
+      <c r="CK7" s="163"/>
+      <c r="CL7" s="163"/>
+      <c r="CM7" s="163"/>
+      <c r="CN7" s="163"/>
+      <c r="CO7" s="163"/>
+      <c r="CP7" s="163"/>
+      <c r="CQ7" s="163"/>
+      <c r="CR7" s="163"/>
+      <c r="CS7" s="163"/>
+      <c r="CT7" s="163"/>
+      <c r="CU7" s="163"/>
+      <c r="CV7" s="163"/>
+      <c r="CW7" s="163"/>
+      <c r="CX7" s="163"/>
+      <c r="CY7" s="163"/>
+      <c r="CZ7" s="163"/>
+      <c r="DA7" s="163"/>
+      <c r="DB7" s="163"/>
+      <c r="DC7" s="163"/>
+      <c r="DD7" s="163"/>
+      <c r="DE7" s="163"/>
+      <c r="DF7" s="163"/>
+    </row>
+    <row r="8" spans="1:284" s="46" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>17</v>
       </c>
@@ -7153,22 +7209,22 @@
       <c r="AK8" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="AL8" s="50" t="s">
+      <c r="AL8" s="206" t="s">
         <v>54</v>
       </c>
-      <c r="AM8" s="170"/>
-      <c r="AN8" s="170"/>
-      <c r="AO8" s="170"/>
-      <c r="AP8" s="170"/>
-      <c r="AQ8" s="170"/>
+      <c r="AM8" s="207"/>
+      <c r="AN8" s="202"/>
+      <c r="AO8" s="202"/>
+      <c r="AP8" s="202"/>
+      <c r="AQ8" s="202"/>
       <c r="AR8" s="11"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
-      <c r="AV8" s="160"/>
-      <c r="AW8" s="160"/>
-      <c r="AX8" s="160"/>
-      <c r="AY8" s="160"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
       <c r="AZ8" s="11"/>
       <c r="BA8" s="11"/>
       <c r="BB8" s="11"/>
@@ -7228,8 +7284,182 @@
       <c r="DD8" s="11"/>
       <c r="DE8" s="11"/>
       <c r="DF8" s="11"/>
-    </row>
-    <row r="9" spans="1:110" s="124" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="DG8" s="205"/>
+      <c r="DH8" s="205"/>
+      <c r="DI8" s="205"/>
+      <c r="DJ8" s="205"/>
+      <c r="DK8" s="205"/>
+      <c r="DL8" s="205"/>
+      <c r="DM8" s="205"/>
+      <c r="DN8" s="205"/>
+      <c r="DO8" s="205"/>
+      <c r="DP8" s="205"/>
+      <c r="DQ8" s="205"/>
+      <c r="DR8" s="204"/>
+      <c r="DS8" s="203"/>
+      <c r="DT8" s="203"/>
+      <c r="DU8" s="203"/>
+      <c r="DV8" s="203"/>
+      <c r="DW8" s="203"/>
+      <c r="DX8" s="203"/>
+      <c r="DY8" s="203"/>
+      <c r="DZ8" s="203"/>
+      <c r="EA8" s="203"/>
+      <c r="EB8" s="203"/>
+      <c r="EC8" s="203"/>
+      <c r="ED8" s="203"/>
+      <c r="EE8" s="203"/>
+      <c r="EF8" s="203"/>
+      <c r="EG8" s="203"/>
+      <c r="EH8" s="203"/>
+      <c r="EI8" s="203"/>
+      <c r="EJ8" s="203"/>
+      <c r="EK8" s="203"/>
+      <c r="EL8" s="203"/>
+      <c r="EM8" s="203"/>
+      <c r="EN8" s="203"/>
+      <c r="EO8" s="203"/>
+      <c r="EP8" s="203"/>
+      <c r="EQ8" s="203"/>
+      <c r="ER8" s="203"/>
+      <c r="ES8" s="203"/>
+      <c r="ET8" s="203"/>
+      <c r="EU8" s="203"/>
+      <c r="EV8" s="203"/>
+      <c r="EW8" s="203"/>
+      <c r="EX8" s="203"/>
+      <c r="EY8" s="203"/>
+      <c r="EZ8" s="203"/>
+      <c r="FA8" s="203"/>
+      <c r="FB8" s="203"/>
+      <c r="FC8" s="203"/>
+      <c r="FD8" s="203"/>
+      <c r="FE8" s="203"/>
+      <c r="FF8" s="203"/>
+      <c r="FG8" s="203"/>
+      <c r="FH8" s="203"/>
+      <c r="FI8" s="203"/>
+      <c r="FJ8" s="203"/>
+      <c r="FK8" s="203"/>
+      <c r="FL8" s="203"/>
+      <c r="FM8" s="203"/>
+      <c r="FN8" s="203"/>
+      <c r="FO8" s="203"/>
+      <c r="FP8" s="203"/>
+      <c r="FQ8" s="203"/>
+      <c r="FR8" s="203"/>
+      <c r="FS8" s="203"/>
+      <c r="FT8" s="203"/>
+      <c r="FU8" s="203"/>
+      <c r="FV8" s="203"/>
+      <c r="FW8" s="203"/>
+      <c r="FX8" s="203"/>
+      <c r="FY8" s="203"/>
+      <c r="FZ8" s="203"/>
+      <c r="GA8" s="203"/>
+      <c r="GB8" s="203"/>
+      <c r="GC8" s="203"/>
+      <c r="GD8" s="203"/>
+      <c r="GE8" s="203"/>
+      <c r="GF8" s="203"/>
+      <c r="GG8" s="203"/>
+      <c r="GH8" s="203"/>
+      <c r="GI8" s="203"/>
+      <c r="GJ8" s="203"/>
+      <c r="GK8" s="203"/>
+      <c r="GL8" s="203"/>
+      <c r="GM8" s="203"/>
+      <c r="GN8" s="203"/>
+      <c r="GO8" s="203"/>
+      <c r="GP8" s="203"/>
+      <c r="GQ8" s="203"/>
+      <c r="GR8" s="203"/>
+      <c r="GS8" s="203"/>
+      <c r="GT8" s="203"/>
+      <c r="GU8" s="203"/>
+      <c r="GV8" s="203"/>
+      <c r="GW8" s="203"/>
+      <c r="GX8" s="203"/>
+      <c r="GY8" s="203"/>
+      <c r="GZ8" s="203"/>
+      <c r="HA8" s="203"/>
+      <c r="HB8" s="203"/>
+      <c r="HC8" s="203"/>
+      <c r="HD8" s="203"/>
+      <c r="HE8" s="203"/>
+      <c r="HF8" s="203"/>
+      <c r="HG8" s="203"/>
+      <c r="HH8" s="203"/>
+      <c r="HI8" s="203"/>
+      <c r="HJ8" s="203"/>
+      <c r="HK8" s="203"/>
+      <c r="HL8" s="203"/>
+      <c r="HM8" s="203"/>
+      <c r="HN8" s="203"/>
+      <c r="HO8" s="203"/>
+      <c r="HP8" s="203"/>
+      <c r="HQ8" s="203"/>
+      <c r="HR8" s="203"/>
+      <c r="HS8" s="203"/>
+      <c r="HT8" s="203"/>
+      <c r="HU8" s="203"/>
+      <c r="HV8" s="203"/>
+      <c r="HW8" s="203"/>
+      <c r="HX8" s="203"/>
+      <c r="HY8" s="203"/>
+      <c r="HZ8" s="203"/>
+      <c r="IA8" s="203"/>
+      <c r="IB8" s="203"/>
+      <c r="IC8" s="203"/>
+      <c r="ID8" s="203"/>
+      <c r="IE8" s="203"/>
+      <c r="IF8" s="203"/>
+      <c r="IG8" s="203"/>
+      <c r="IH8" s="203"/>
+      <c r="II8" s="203"/>
+      <c r="IJ8" s="203"/>
+      <c r="IK8" s="203"/>
+      <c r="IL8" s="203"/>
+      <c r="IM8" s="203"/>
+      <c r="IN8" s="203"/>
+      <c r="IO8" s="203"/>
+      <c r="IP8" s="203"/>
+      <c r="IQ8" s="203"/>
+      <c r="IR8" s="203"/>
+      <c r="IS8" s="203"/>
+      <c r="IT8" s="203"/>
+      <c r="IU8" s="203"/>
+      <c r="IV8" s="203"/>
+      <c r="IW8" s="203"/>
+      <c r="IX8" s="203"/>
+      <c r="IY8" s="203"/>
+      <c r="IZ8" s="203"/>
+      <c r="JA8" s="203"/>
+      <c r="JB8" s="203"/>
+      <c r="JC8" s="203"/>
+      <c r="JD8" s="203"/>
+      <c r="JE8" s="203"/>
+      <c r="JF8" s="203"/>
+      <c r="JG8" s="203"/>
+      <c r="JH8" s="203"/>
+      <c r="JI8" s="203"/>
+      <c r="JJ8" s="203"/>
+      <c r="JK8" s="203"/>
+      <c r="JL8" s="203"/>
+      <c r="JM8" s="203"/>
+      <c r="JN8" s="203"/>
+      <c r="JO8" s="203"/>
+      <c r="JP8" s="203"/>
+      <c r="JQ8" s="203"/>
+      <c r="JR8" s="203"/>
+      <c r="JS8" s="203"/>
+      <c r="JT8" s="203"/>
+      <c r="JU8" s="203"/>
+      <c r="JV8" s="203"/>
+      <c r="JW8" s="203"/>
+      <c r="JX8" s="203"/>
+    </row>
+    <row r="9" spans="1:284" s="124" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="6"/>
       <c r="C9" s="95"/>
@@ -7263,7 +7493,7 @@
       <c r="AK9" s="152"/>
       <c r="AL9" s="153"/>
       <c r="AM9" s="153"/>
-      <c r="AN9" s="194"/>
+      <c r="AN9" s="187"/>
       <c r="AO9" s="153"/>
       <c r="AP9" s="153"/>
       <c r="AQ9" s="153"/>
@@ -7275,7 +7505,7 @@
       <c r="AZ9" s="129"/>
       <c r="BA9" s="152"/>
     </row>
-    <row r="10" spans="1:110" s="171" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:284" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="6"/>
       <c r="C10" s="95"/>
@@ -7314,20 +7544,254 @@
       <c r="AJ10" s="152"/>
       <c r="AK10" s="152"/>
       <c r="AL10" s="153"/>
-      <c r="AM10" s="172"/>
-      <c r="AN10" s="194"/>
-      <c r="AO10" s="172"/>
-      <c r="AP10" s="172"/>
-      <c r="AQ10" s="172"/>
-      <c r="AR10" s="174"/>
-      <c r="AV10" s="174"/>
-      <c r="AW10" s="174"/>
-      <c r="AX10" s="174"/>
-      <c r="AY10" s="174"/>
-      <c r="AZ10" s="175"/>
-      <c r="BA10" s="173"/>
-    </row>
-    <row r="11" spans="1:110" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AM10" s="153"/>
+      <c r="AN10" s="187"/>
+      <c r="AO10" s="153"/>
+      <c r="AP10" s="153"/>
+      <c r="AQ10" s="153"/>
+      <c r="AR10" s="128"/>
+      <c r="AS10" s="124"/>
+      <c r="AT10" s="124"/>
+      <c r="AU10" s="124"/>
+      <c r="AV10" s="128"/>
+      <c r="AW10" s="128"/>
+      <c r="AX10" s="128"/>
+      <c r="AY10" s="128"/>
+      <c r="AZ10" s="129"/>
+      <c r="BA10" s="152"/>
+      <c r="BB10" s="124"/>
+      <c r="BC10" s="124"/>
+      <c r="BD10" s="124"/>
+      <c r="BE10" s="124"/>
+      <c r="BF10" s="124"/>
+      <c r="BG10" s="124"/>
+      <c r="BH10" s="124"/>
+      <c r="BI10" s="124"/>
+      <c r="BJ10" s="124"/>
+      <c r="BK10" s="124"/>
+      <c r="BL10" s="124"/>
+      <c r="BM10" s="124"/>
+      <c r="BN10" s="124"/>
+      <c r="BO10" s="124"/>
+      <c r="BP10" s="124"/>
+      <c r="BQ10" s="124"/>
+      <c r="BR10" s="124"/>
+      <c r="BS10" s="124"/>
+      <c r="BT10" s="124"/>
+      <c r="BU10" s="124"/>
+      <c r="BV10" s="124"/>
+      <c r="BW10" s="124"/>
+      <c r="BX10" s="124"/>
+      <c r="BY10" s="124"/>
+      <c r="BZ10" s="124"/>
+      <c r="CA10" s="124"/>
+      <c r="CB10" s="124"/>
+      <c r="CC10" s="124"/>
+      <c r="CD10" s="124"/>
+      <c r="CE10" s="124"/>
+      <c r="CF10" s="124"/>
+      <c r="CG10" s="124"/>
+      <c r="CH10" s="124"/>
+      <c r="CI10" s="124"/>
+      <c r="CJ10" s="124"/>
+      <c r="CK10" s="124"/>
+      <c r="CL10" s="124"/>
+      <c r="CM10" s="124"/>
+      <c r="CN10" s="124"/>
+      <c r="CO10" s="124"/>
+      <c r="CP10" s="124"/>
+      <c r="CQ10" s="124"/>
+      <c r="CR10" s="124"/>
+      <c r="CS10" s="124"/>
+      <c r="CT10" s="124"/>
+      <c r="CU10" s="124"/>
+      <c r="CV10" s="124"/>
+      <c r="CW10" s="124"/>
+      <c r="CX10" s="124"/>
+      <c r="CY10" s="124"/>
+      <c r="CZ10" s="124"/>
+      <c r="DA10" s="124"/>
+      <c r="DB10" s="124"/>
+      <c r="DC10" s="124"/>
+      <c r="DD10" s="124"/>
+      <c r="DE10" s="124"/>
+      <c r="DF10" s="124"/>
+      <c r="DG10" s="124"/>
+      <c r="DH10" s="124"/>
+      <c r="DI10" s="124"/>
+      <c r="DJ10" s="124"/>
+      <c r="DK10" s="124"/>
+      <c r="DL10" s="124"/>
+      <c r="DM10" s="124"/>
+      <c r="DN10" s="124"/>
+      <c r="DO10" s="124"/>
+      <c r="DP10" s="124"/>
+      <c r="DQ10" s="124"/>
+      <c r="DR10" s="124"/>
+      <c r="DS10" s="124"/>
+      <c r="DT10" s="124"/>
+      <c r="DU10" s="124"/>
+      <c r="DV10" s="124"/>
+      <c r="DW10" s="124"/>
+      <c r="DX10" s="124"/>
+      <c r="DY10" s="124"/>
+      <c r="DZ10" s="124"/>
+      <c r="EA10" s="124"/>
+      <c r="EB10" s="124"/>
+      <c r="EC10" s="124"/>
+      <c r="ED10" s="124"/>
+      <c r="EE10" s="124"/>
+      <c r="EF10" s="124"/>
+      <c r="EG10" s="124"/>
+      <c r="EH10" s="124"/>
+      <c r="EI10" s="124"/>
+      <c r="EJ10" s="124"/>
+      <c r="EK10" s="124"/>
+      <c r="EL10" s="124"/>
+      <c r="EM10" s="124"/>
+      <c r="EN10" s="124"/>
+      <c r="EO10" s="124"/>
+      <c r="EP10" s="124"/>
+      <c r="EQ10" s="124"/>
+      <c r="ER10" s="124"/>
+      <c r="ES10" s="124"/>
+      <c r="ET10" s="124"/>
+      <c r="EU10" s="124"/>
+      <c r="EV10" s="124"/>
+      <c r="EW10" s="124"/>
+      <c r="EX10" s="124"/>
+      <c r="EY10" s="124"/>
+      <c r="EZ10" s="124"/>
+      <c r="FA10" s="124"/>
+      <c r="FB10" s="124"/>
+      <c r="FC10" s="124"/>
+      <c r="FD10" s="124"/>
+      <c r="FE10" s="124"/>
+      <c r="FF10" s="124"/>
+      <c r="FG10" s="124"/>
+      <c r="FH10" s="124"/>
+      <c r="FI10" s="124"/>
+      <c r="FJ10" s="124"/>
+      <c r="FK10" s="124"/>
+      <c r="FL10" s="124"/>
+      <c r="FM10" s="124"/>
+      <c r="FN10" s="124"/>
+      <c r="FO10" s="124"/>
+      <c r="FP10" s="124"/>
+      <c r="FQ10" s="124"/>
+      <c r="FR10" s="124"/>
+      <c r="FS10" s="124"/>
+      <c r="FT10" s="124"/>
+      <c r="FU10" s="124"/>
+      <c r="FV10" s="124"/>
+      <c r="FW10" s="124"/>
+      <c r="FX10" s="124"/>
+      <c r="FY10" s="124"/>
+      <c r="FZ10" s="124"/>
+      <c r="GA10" s="124"/>
+      <c r="GB10" s="124"/>
+      <c r="GC10" s="124"/>
+      <c r="GD10" s="124"/>
+      <c r="GE10" s="124"/>
+      <c r="GF10" s="124"/>
+      <c r="GG10" s="124"/>
+      <c r="GH10" s="124"/>
+      <c r="GI10" s="124"/>
+      <c r="GJ10" s="124"/>
+      <c r="GK10" s="124"/>
+      <c r="GL10" s="124"/>
+      <c r="GM10" s="124"/>
+      <c r="GN10" s="124"/>
+      <c r="GO10" s="124"/>
+      <c r="GP10" s="124"/>
+      <c r="GQ10" s="124"/>
+      <c r="GR10" s="124"/>
+      <c r="GS10" s="124"/>
+      <c r="GT10" s="124"/>
+      <c r="GU10" s="124"/>
+      <c r="GV10" s="124"/>
+      <c r="GW10" s="124"/>
+      <c r="GX10" s="124"/>
+      <c r="GY10" s="124"/>
+      <c r="GZ10" s="124"/>
+      <c r="HA10" s="124"/>
+      <c r="HB10" s="124"/>
+      <c r="HC10" s="124"/>
+      <c r="HD10" s="124"/>
+      <c r="HE10" s="124"/>
+      <c r="HF10" s="124"/>
+      <c r="HG10" s="124"/>
+      <c r="HH10" s="124"/>
+      <c r="HI10" s="124"/>
+      <c r="HJ10" s="124"/>
+      <c r="HK10" s="124"/>
+      <c r="HL10" s="124"/>
+      <c r="HM10" s="124"/>
+      <c r="HN10" s="124"/>
+      <c r="HO10" s="124"/>
+      <c r="HP10" s="124"/>
+      <c r="HQ10" s="124"/>
+      <c r="HR10" s="124"/>
+      <c r="HS10" s="124"/>
+      <c r="HT10" s="124"/>
+      <c r="HU10" s="124"/>
+      <c r="HV10" s="124"/>
+      <c r="HW10" s="124"/>
+      <c r="HX10" s="124"/>
+      <c r="HY10" s="124"/>
+      <c r="HZ10" s="124"/>
+      <c r="IA10" s="124"/>
+      <c r="IB10" s="124"/>
+      <c r="IC10" s="124"/>
+      <c r="ID10" s="124"/>
+      <c r="IE10" s="124"/>
+      <c r="IF10" s="124"/>
+      <c r="IG10" s="124"/>
+      <c r="IH10" s="124"/>
+      <c r="II10" s="124"/>
+      <c r="IJ10" s="124"/>
+      <c r="IK10" s="124"/>
+      <c r="IL10" s="124"/>
+      <c r="IM10" s="124"/>
+      <c r="IN10" s="124"/>
+      <c r="IO10" s="124"/>
+      <c r="IP10" s="124"/>
+      <c r="IQ10" s="124"/>
+      <c r="IR10" s="124"/>
+      <c r="IS10" s="124"/>
+      <c r="IT10" s="124"/>
+      <c r="IU10" s="124"/>
+      <c r="IV10" s="124"/>
+      <c r="IW10" s="124"/>
+      <c r="IX10" s="124"/>
+      <c r="IY10" s="124"/>
+      <c r="IZ10" s="124"/>
+      <c r="JA10" s="124"/>
+      <c r="JB10" s="124"/>
+      <c r="JC10" s="124"/>
+      <c r="JD10" s="124"/>
+      <c r="JE10" s="124"/>
+      <c r="JF10" s="124"/>
+      <c r="JG10" s="124"/>
+      <c r="JH10" s="124"/>
+      <c r="JI10" s="124"/>
+      <c r="JJ10" s="124"/>
+      <c r="JK10" s="124"/>
+      <c r="JL10" s="124"/>
+      <c r="JM10" s="124"/>
+      <c r="JN10" s="124"/>
+      <c r="JO10" s="124"/>
+      <c r="JP10" s="124"/>
+      <c r="JQ10" s="124"/>
+      <c r="JR10" s="124"/>
+      <c r="JS10" s="124"/>
+      <c r="JT10" s="124"/>
+      <c r="JU10" s="124"/>
+      <c r="JV10" s="124"/>
+      <c r="JW10" s="124"/>
+      <c r="JX10" s="124"/>
+    </row>
+    <row r="11" spans="1:284" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
       <c r="B11" s="6"/>
       <c r="C11" s="95"/>
@@ -7361,7 +7825,7 @@
       <c r="AK11" s="152"/>
       <c r="AL11" s="153"/>
       <c r="AM11" s="153"/>
-      <c r="AN11" s="194"/>
+      <c r="AN11" s="187"/>
       <c r="AO11" s="153"/>
       <c r="AP11" s="153"/>
       <c r="AQ11" s="153"/>
@@ -7373,7 +7837,7 @@
       <c r="AZ11" s="129"/>
       <c r="BA11" s="152"/>
     </row>
-    <row r="12" spans="1:110" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:284" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="51"/>
       <c r="B12" s="6"/>
       <c r="C12" s="95"/>
@@ -7406,8 +7870,8 @@
       <c r="AJ12" s="152"/>
       <c r="AK12" s="152"/>
       <c r="AL12" s="153"/>
-      <c r="AM12" s="153"/>
-      <c r="AN12" s="194"/>
+      <c r="AM12" s="208"/>
+      <c r="AN12" s="187"/>
       <c r="AO12" s="153"/>
       <c r="AP12" s="153"/>
       <c r="AQ12" s="153"/>
@@ -7419,7 +7883,7 @@
       <c r="AZ12" s="129"/>
       <c r="BA12" s="152"/>
     </row>
-    <row r="13" spans="1:110" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:284" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="51"/>
       <c r="B13" s="6"/>
       <c r="C13" s="95"/>
@@ -7453,7 +7917,7 @@
       <c r="AK13" s="152"/>
       <c r="AL13" s="153"/>
       <c r="AM13" s="153"/>
-      <c r="AN13" s="194"/>
+      <c r="AN13" s="187"/>
       <c r="AO13" s="153"/>
       <c r="AP13" s="153"/>
       <c r="AQ13" s="153"/>
@@ -7465,7 +7929,7 @@
       <c r="AZ13" s="129"/>
       <c r="BA13" s="152"/>
     </row>
-    <row r="14" spans="1:110" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:284" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="51"/>
       <c r="B14" s="6"/>
       <c r="C14" s="95"/>
@@ -7499,7 +7963,7 @@
       <c r="AK14" s="152"/>
       <c r="AL14" s="153"/>
       <c r="AM14" s="153"/>
-      <c r="AN14" s="194"/>
+      <c r="AN14" s="187"/>
       <c r="AO14" s="153"/>
       <c r="AP14" s="153"/>
       <c r="AQ14" s="153"/>
@@ -7511,7 +7975,7 @@
       <c r="AZ14" s="129"/>
       <c r="BA14" s="152"/>
     </row>
-    <row r="15" spans="1:110" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:284" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="6"/>
       <c r="C15" s="95"/>
@@ -7545,7 +8009,7 @@
       <c r="AK15" s="152"/>
       <c r="AL15" s="153"/>
       <c r="AM15" s="153"/>
-      <c r="AN15" s="194"/>
+      <c r="AN15" s="187"/>
       <c r="AO15" s="153"/>
       <c r="AP15" s="153"/>
       <c r="AQ15" s="153"/>
@@ -7557,7 +8021,7 @@
       <c r="AZ15" s="129"/>
       <c r="BA15" s="152"/>
     </row>
-    <row r="16" spans="1:110" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:284" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="51"/>
       <c r="B16" s="6"/>
       <c r="C16" s="95"/>
@@ -7591,7 +8055,7 @@
       <c r="AK16" s="152"/>
       <c r="AL16" s="153"/>
       <c r="AM16" s="153"/>
-      <c r="AN16" s="194"/>
+      <c r="AN16" s="187"/>
       <c r="AO16" s="153"/>
       <c r="AP16" s="153"/>
       <c r="AQ16" s="153"/>
@@ -7637,7 +8101,7 @@
       <c r="AK17" s="152"/>
       <c r="AL17" s="153"/>
       <c r="AM17" s="153"/>
-      <c r="AN17" s="194"/>
+      <c r="AN17" s="187"/>
       <c r="AO17" s="153"/>
       <c r="AP17" s="153"/>
       <c r="AQ17" s="153"/>
@@ -7683,7 +8147,7 @@
       <c r="AK18" s="152"/>
       <c r="AL18" s="153"/>
       <c r="AM18" s="153"/>
-      <c r="AN18" s="194"/>
+      <c r="AN18" s="187"/>
       <c r="AO18" s="153"/>
       <c r="AP18" s="153"/>
       <c r="AQ18" s="153"/>
@@ -7730,7 +8194,7 @@
       <c r="AK19" s="152"/>
       <c r="AL19" s="153"/>
       <c r="AM19" s="153"/>
-      <c r="AN19" s="194"/>
+      <c r="AN19" s="187"/>
       <c r="AO19" s="153"/>
       <c r="AP19" s="153"/>
       <c r="AQ19" s="153"/>
@@ -7776,7 +8240,7 @@
       <c r="AK20" s="152"/>
       <c r="AL20" s="153"/>
       <c r="AM20" s="153"/>
-      <c r="AN20" s="194"/>
+      <c r="AN20" s="187"/>
       <c r="AO20" s="153"/>
       <c r="AP20" s="153"/>
       <c r="AQ20" s="153"/>
@@ -7798,8 +8262,8 @@
       <c r="H21" s="126"/>
       <c r="J21" s="120"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="168"/>
-      <c r="N21" s="168"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="166"/>
       <c r="R21" s="153"/>
       <c r="S21" s="153"/>
       <c r="T21" s="153"/>
@@ -7822,7 +8286,7 @@
       <c r="AK21" s="152"/>
       <c r="AL21" s="153"/>
       <c r="AM21" s="153"/>
-      <c r="AN21" s="194"/>
+      <c r="AN21" s="187"/>
       <c r="AO21" s="153"/>
       <c r="AP21" s="153"/>
       <c r="AQ21" s="153"/>
@@ -7844,8 +8308,8 @@
       <c r="H22" s="126"/>
       <c r="J22" s="120"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="168"/>
-      <c r="N22" s="168"/>
+      <c r="M22" s="166"/>
+      <c r="N22" s="166"/>
       <c r="R22" s="153"/>
       <c r="S22" s="153"/>
       <c r="T22" s="153"/>
@@ -7868,7 +8332,7 @@
       <c r="AK22" s="152"/>
       <c r="AL22" s="153"/>
       <c r="AM22" s="153"/>
-      <c r="AN22" s="194"/>
+      <c r="AN22" s="187"/>
       <c r="AO22" s="153"/>
       <c r="AP22" s="153"/>
       <c r="AQ22" s="153"/>
@@ -7890,8 +8354,8 @@
       <c r="H23" s="126"/>
       <c r="J23" s="120"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="168"/>
-      <c r="N23" s="168"/>
+      <c r="M23" s="166"/>
+      <c r="N23" s="166"/>
       <c r="R23" s="153"/>
       <c r="S23" s="153"/>
       <c r="T23" s="153"/>
@@ -7914,7 +8378,7 @@
       <c r="AK23" s="152"/>
       <c r="AL23" s="153"/>
       <c r="AM23" s="153"/>
-      <c r="AN23" s="194"/>
+      <c r="AN23" s="187"/>
       <c r="AO23" s="153"/>
       <c r="AP23" s="153"/>
       <c r="AQ23" s="153"/>
@@ -7936,8 +8400,8 @@
       <c r="H24" s="126"/>
       <c r="J24" s="120"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="168"/>
-      <c r="N24" s="168"/>
+      <c r="M24" s="166"/>
+      <c r="N24" s="166"/>
       <c r="R24" s="153"/>
       <c r="S24" s="153"/>
       <c r="T24" s="153"/>
@@ -7960,7 +8424,7 @@
       <c r="AK24" s="152"/>
       <c r="AL24" s="153"/>
       <c r="AM24" s="153"/>
-      <c r="AN24" s="194"/>
+      <c r="AN24" s="187"/>
       <c r="AO24" s="153"/>
       <c r="AP24" s="153"/>
       <c r="AQ24" s="153"/>
@@ -7982,8 +8446,8 @@
       <c r="H25" s="126"/>
       <c r="J25" s="120"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="168"/>
-      <c r="N25" s="168"/>
+      <c r="M25" s="166"/>
+      <c r="N25" s="166"/>
       <c r="R25" s="153"/>
       <c r="S25" s="153"/>
       <c r="T25" s="153"/>
@@ -8006,7 +8470,7 @@
       <c r="AK25" s="152"/>
       <c r="AL25" s="153"/>
       <c r="AM25" s="153"/>
-      <c r="AN25" s="194"/>
+      <c r="AN25" s="187"/>
       <c r="AO25" s="153"/>
       <c r="AP25" s="153"/>
       <c r="AQ25" s="153"/>
@@ -8028,8 +8492,8 @@
       <c r="H26" s="126"/>
       <c r="J26" s="120"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="168"/>
-      <c r="N26" s="168"/>
+      <c r="M26" s="166"/>
+      <c r="N26" s="166"/>
       <c r="R26" s="153"/>
       <c r="S26" s="153"/>
       <c r="T26" s="153"/>
@@ -8052,7 +8516,7 @@
       <c r="AK26" s="152"/>
       <c r="AL26" s="153"/>
       <c r="AM26" s="153"/>
-      <c r="AN26" s="194"/>
+      <c r="AN26" s="187"/>
       <c r="AO26" s="153"/>
       <c r="AP26" s="153"/>
       <c r="AQ26" s="153"/>
@@ -8074,8 +8538,8 @@
       <c r="H27" s="126"/>
       <c r="J27" s="120"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="168"/>
-      <c r="N27" s="168"/>
+      <c r="M27" s="166"/>
+      <c r="N27" s="166"/>
       <c r="R27" s="153"/>
       <c r="S27" s="153"/>
       <c r="T27" s="153"/>
@@ -8098,7 +8562,7 @@
       <c r="AK27" s="152"/>
       <c r="AL27" s="153"/>
       <c r="AM27" s="153"/>
-      <c r="AN27" s="194"/>
+      <c r="AN27" s="187"/>
       <c r="AO27" s="153"/>
       <c r="AP27" s="153"/>
       <c r="AQ27" s="153"/>
@@ -8111,7 +8575,7 @@
       <c r="BA27" s="152"/>
     </row>
     <row r="28" spans="1:55" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="205"/>
+      <c r="A28" s="198"/>
       <c r="B28" s="6"/>
       <c r="C28" s="95"/>
       <c r="D28" s="123"/>
@@ -8120,8 +8584,8 @@
       <c r="H28" s="126"/>
       <c r="J28" s="120"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="168"/>
-      <c r="N28" s="168"/>
+      <c r="M28" s="166"/>
+      <c r="N28" s="166"/>
       <c r="R28" s="153"/>
       <c r="S28" s="153"/>
       <c r="T28" s="153"/>
@@ -8144,7 +8608,7 @@
       <c r="AK28" s="152"/>
       <c r="AL28" s="153"/>
       <c r="AM28" s="153"/>
-      <c r="AN28" s="194"/>
+      <c r="AN28" s="187"/>
       <c r="AO28" s="153"/>
       <c r="AP28" s="153"/>
       <c r="AQ28" s="153"/>
@@ -8166,8 +8630,8 @@
       <c r="H29" s="126"/>
       <c r="J29" s="120"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="168"/>
-      <c r="N29" s="168"/>
+      <c r="M29" s="166"/>
+      <c r="N29" s="166"/>
       <c r="R29" s="153"/>
       <c r="S29" s="153"/>
       <c r="T29" s="153"/>
@@ -8190,7 +8654,7 @@
       <c r="AK29" s="152"/>
       <c r="AL29" s="153"/>
       <c r="AM29" s="153"/>
-      <c r="AN29" s="194"/>
+      <c r="AN29" s="187"/>
       <c r="AO29" s="153"/>
       <c r="AP29" s="153"/>
       <c r="AQ29" s="153"/>
@@ -8212,8 +8676,8 @@
       <c r="H30" s="126"/>
       <c r="J30" s="120"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="168"/>
-      <c r="N30" s="168"/>
+      <c r="M30" s="166"/>
+      <c r="N30" s="166"/>
       <c r="R30" s="153"/>
       <c r="S30" s="153"/>
       <c r="T30" s="153"/>
@@ -8236,7 +8700,7 @@
       <c r="AK30" s="152"/>
       <c r="AL30" s="153"/>
       <c r="AM30" s="153"/>
-      <c r="AN30" s="194"/>
+      <c r="AN30" s="187"/>
       <c r="AO30" s="153"/>
       <c r="AP30" s="153"/>
       <c r="AQ30" s="153"/>
@@ -8258,8 +8722,8 @@
       <c r="H31" s="126"/>
       <c r="J31" s="120"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="168"/>
-      <c r="N31" s="168"/>
+      <c r="M31" s="166"/>
+      <c r="N31" s="166"/>
       <c r="R31" s="153"/>
       <c r="S31" s="153"/>
       <c r="T31" s="153"/>
@@ -8282,7 +8746,7 @@
       <c r="AK31" s="152"/>
       <c r="AL31" s="153"/>
       <c r="AM31" s="153"/>
-      <c r="AN31" s="194"/>
+      <c r="AN31" s="187"/>
       <c r="AO31" s="153"/>
       <c r="AP31" s="153"/>
       <c r="AQ31" s="153"/>
@@ -8304,8 +8768,8 @@
       <c r="H32" s="126"/>
       <c r="J32" s="120"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="168"/>
-      <c r="N32" s="168"/>
+      <c r="M32" s="166"/>
+      <c r="N32" s="166"/>
       <c r="R32" s="153"/>
       <c r="S32" s="153"/>
       <c r="T32" s="153"/>
@@ -8328,7 +8792,7 @@
       <c r="AK32" s="152"/>
       <c r="AL32" s="153"/>
       <c r="AM32" s="153"/>
-      <c r="AN32" s="194"/>
+      <c r="AN32" s="187"/>
       <c r="AO32" s="153"/>
       <c r="AP32" s="153"/>
       <c r="AQ32" s="153"/>
@@ -8350,8 +8814,8 @@
       <c r="H33" s="126"/>
       <c r="J33" s="120"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="168"/>
-      <c r="N33" s="168"/>
+      <c r="M33" s="166"/>
+      <c r="N33" s="166"/>
       <c r="R33" s="153"/>
       <c r="S33" s="153"/>
       <c r="T33" s="153"/>
@@ -8374,7 +8838,7 @@
       <c r="AK33" s="152"/>
       <c r="AL33" s="153"/>
       <c r="AM33" s="153"/>
-      <c r="AN33" s="194"/>
+      <c r="AN33" s="187"/>
       <c r="AO33" s="153"/>
       <c r="AP33" s="153"/>
       <c r="AQ33" s="153"/>
@@ -8398,8 +8862,8 @@
       <c r="H34" s="126"/>
       <c r="J34" s="120"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="168"/>
-      <c r="N34" s="168"/>
+      <c r="M34" s="166"/>
+      <c r="N34" s="166"/>
       <c r="R34" s="153"/>
       <c r="S34" s="153"/>
       <c r="T34" s="153"/>
@@ -8422,7 +8886,7 @@
       <c r="AK34" s="152"/>
       <c r="AL34" s="153"/>
       <c r="AM34" s="153"/>
-      <c r="AN34" s="194"/>
+      <c r="AN34" s="187"/>
       <c r="AO34" s="153"/>
       <c r="AP34" s="153"/>
       <c r="AQ34" s="153"/>
@@ -8468,7 +8932,7 @@
       <c r="AK35" s="152"/>
       <c r="AL35" s="153"/>
       <c r="AM35" s="153"/>
-      <c r="AN35" s="194"/>
+      <c r="AN35" s="187"/>
       <c r="AO35" s="153"/>
       <c r="AP35" s="153"/>
       <c r="AQ35" s="153"/>
@@ -8514,7 +8978,7 @@
       <c r="AK36" s="152"/>
       <c r="AL36" s="153"/>
       <c r="AM36" s="153"/>
-      <c r="AN36" s="194"/>
+      <c r="AN36" s="187"/>
       <c r="AO36" s="153"/>
       <c r="AP36" s="153"/>
       <c r="AQ36" s="153"/>
@@ -8560,7 +9024,7 @@
       <c r="AK37" s="152"/>
       <c r="AL37" s="153"/>
       <c r="AM37" s="153"/>
-      <c r="AN37" s="194"/>
+      <c r="AN37" s="187"/>
       <c r="AO37" s="153"/>
       <c r="AP37" s="153"/>
       <c r="AQ37" s="153"/>
@@ -8606,7 +9070,7 @@
       <c r="AK38" s="152"/>
       <c r="AL38" s="153"/>
       <c r="AM38" s="153"/>
-      <c r="AN38" s="194"/>
+      <c r="AN38" s="187"/>
       <c r="AO38" s="153"/>
       <c r="AP38" s="153"/>
       <c r="AQ38" s="153"/>
@@ -8652,7 +9116,7 @@
       <c r="AK39" s="152"/>
       <c r="AL39" s="153"/>
       <c r="AM39" s="153"/>
-      <c r="AN39" s="194"/>
+      <c r="AN39" s="187"/>
       <c r="AO39" s="153"/>
       <c r="AP39" s="153"/>
       <c r="AQ39" s="153"/>
@@ -8664,24 +9128,18 @@
       <c r="AZ39" s="129"/>
       <c r="BA39" s="152"/>
     </row>
-    <row r="40" spans="1:56" s="171" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="51"/>
       <c r="B40" s="6"/>
       <c r="C40" s="95"/>
       <c r="D40" s="123"/>
-      <c r="E40" s="124"/>
       <c r="F40" s="121"/>
       <c r="G40" s="125"/>
       <c r="H40" s="126"/>
-      <c r="I40" s="124"/>
       <c r="J40" s="120"/>
-      <c r="K40" s="124"/>
       <c r="L40" s="6"/>
       <c r="M40" s="127"/>
       <c r="N40" s="127"/>
-      <c r="O40" s="124"/>
-      <c r="P40" s="124"/>
-      <c r="Q40" s="124"/>
       <c r="R40" s="153"/>
       <c r="S40" s="153"/>
       <c r="T40" s="153"/>
@@ -8703,18 +9161,18 @@
       <c r="AJ40" s="152"/>
       <c r="AK40" s="152"/>
       <c r="AL40" s="153"/>
-      <c r="AM40" s="172"/>
-      <c r="AN40" s="194"/>
-      <c r="AO40" s="172"/>
-      <c r="AP40" s="172"/>
-      <c r="AQ40" s="172"/>
-      <c r="AR40" s="174"/>
-      <c r="AV40" s="174"/>
-      <c r="AW40" s="174"/>
-      <c r="AX40" s="174"/>
-      <c r="AY40" s="174"/>
-      <c r="AZ40" s="175"/>
-      <c r="BA40" s="173"/>
+      <c r="AM40" s="153"/>
+      <c r="AN40" s="187"/>
+      <c r="AO40" s="153"/>
+      <c r="AP40" s="153"/>
+      <c r="AQ40" s="153"/>
+      <c r="AR40" s="128"/>
+      <c r="AV40" s="128"/>
+      <c r="AW40" s="128"/>
+      <c r="AX40" s="128"/>
+      <c r="AY40" s="128"/>
+      <c r="AZ40" s="129"/>
+      <c r="BA40" s="152"/>
     </row>
     <row r="41" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="51"/>
@@ -8750,7 +9208,7 @@
       <c r="AK41" s="152"/>
       <c r="AL41" s="153"/>
       <c r="AM41" s="153"/>
-      <c r="AN41" s="194"/>
+      <c r="AN41" s="187"/>
       <c r="AO41" s="153"/>
       <c r="AP41" s="153"/>
       <c r="AQ41" s="153"/>
@@ -8796,7 +9254,7 @@
       <c r="AK42" s="152"/>
       <c r="AL42" s="153"/>
       <c r="AM42" s="153"/>
-      <c r="AN42" s="194"/>
+      <c r="AN42" s="187"/>
       <c r="AO42" s="153"/>
       <c r="AP42" s="153"/>
       <c r="AQ42" s="153"/>
@@ -8808,24 +9266,18 @@
       <c r="AZ42" s="129"/>
       <c r="BA42" s="152"/>
     </row>
-    <row r="43" spans="1:56" s="171" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="51"/>
       <c r="B43" s="6"/>
       <c r="C43" s="95"/>
       <c r="D43" s="123"/>
-      <c r="E43" s="124"/>
       <c r="F43" s="121"/>
       <c r="G43" s="125"/>
       <c r="H43" s="126"/>
-      <c r="I43" s="124"/>
       <c r="J43" s="120"/>
-      <c r="K43" s="124"/>
       <c r="L43" s="6"/>
       <c r="M43" s="127"/>
       <c r="N43" s="127"/>
-      <c r="O43" s="124"/>
-      <c r="P43" s="124"/>
-      <c r="Q43" s="124"/>
       <c r="R43" s="153"/>
       <c r="S43" s="153"/>
       <c r="T43" s="153"/>
@@ -8847,18 +9299,18 @@
       <c r="AJ43" s="152"/>
       <c r="AK43" s="152"/>
       <c r="AL43" s="153"/>
-      <c r="AM43" s="172"/>
-      <c r="AN43" s="194"/>
-      <c r="AO43" s="172"/>
-      <c r="AP43" s="172"/>
-      <c r="AQ43" s="172"/>
-      <c r="AR43" s="174"/>
-      <c r="AV43" s="174"/>
-      <c r="AW43" s="174"/>
-      <c r="AX43" s="174"/>
-      <c r="AY43" s="174"/>
-      <c r="AZ43" s="175"/>
-      <c r="BA43" s="173"/>
+      <c r="AM43" s="153"/>
+      <c r="AN43" s="187"/>
+      <c r="AO43" s="153"/>
+      <c r="AP43" s="153"/>
+      <c r="AQ43" s="153"/>
+      <c r="AR43" s="128"/>
+      <c r="AV43" s="128"/>
+      <c r="AW43" s="128"/>
+      <c r="AX43" s="128"/>
+      <c r="AY43" s="128"/>
+      <c r="AZ43" s="129"/>
+      <c r="BA43" s="152"/>
     </row>
     <row r="44" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="51"/>
@@ -8894,7 +9346,7 @@
       <c r="AK44" s="152"/>
       <c r="AL44" s="153"/>
       <c r="AM44" s="153"/>
-      <c r="AN44" s="194"/>
+      <c r="AN44" s="187"/>
       <c r="AO44" s="153"/>
       <c r="AP44" s="153"/>
       <c r="AQ44" s="153"/>
@@ -8940,7 +9392,7 @@
       <c r="AK45" s="152"/>
       <c r="AL45" s="153"/>
       <c r="AM45" s="153"/>
-      <c r="AN45" s="194"/>
+      <c r="AN45" s="187"/>
       <c r="AO45" s="153"/>
       <c r="AP45" s="153"/>
       <c r="AQ45" s="153"/>
@@ -8986,7 +9438,7 @@
       <c r="AK46" s="152"/>
       <c r="AL46" s="153"/>
       <c r="AM46" s="153"/>
-      <c r="AN46" s="194"/>
+      <c r="AN46" s="187"/>
       <c r="AO46" s="153"/>
       <c r="AP46" s="153"/>
       <c r="AQ46" s="153"/>
@@ -9032,7 +9484,7 @@
       <c r="AK47" s="152"/>
       <c r="AL47" s="153"/>
       <c r="AM47" s="153"/>
-      <c r="AN47" s="194"/>
+      <c r="AN47" s="187"/>
       <c r="AO47" s="153"/>
       <c r="AP47" s="153"/>
       <c r="AQ47" s="153"/>
@@ -9078,7 +9530,7 @@
       <c r="AK48" s="152"/>
       <c r="AL48" s="153"/>
       <c r="AM48" s="153"/>
-      <c r="AN48" s="194"/>
+      <c r="AN48" s="187"/>
       <c r="AO48" s="153"/>
       <c r="AP48" s="153"/>
       <c r="AQ48" s="153"/>
@@ -9124,15 +9576,15 @@
       <c r="AK49" s="152"/>
       <c r="AL49" s="153"/>
       <c r="AM49" s="153"/>
-      <c r="AN49" s="194"/>
+      <c r="AN49" s="187"/>
       <c r="AO49" s="153"/>
       <c r="AP49" s="153"/>
       <c r="AQ49" s="153"/>
       <c r="AR49" s="128"/>
-      <c r="AV49" s="162"/>
-      <c r="AW49" s="162"/>
-      <c r="AX49" s="162"/>
-      <c r="AY49" s="162"/>
+      <c r="AV49" s="128"/>
+      <c r="AW49" s="128"/>
+      <c r="AX49" s="128"/>
+      <c r="AY49" s="128"/>
       <c r="AZ49" s="129"/>
       <c r="BA49" s="152"/>
     </row>
@@ -9170,15 +9622,15 @@
       <c r="AK50" s="152"/>
       <c r="AL50" s="153"/>
       <c r="AM50" s="153"/>
-      <c r="AN50" s="194"/>
+      <c r="AN50" s="187"/>
       <c r="AO50" s="153"/>
       <c r="AP50" s="153"/>
       <c r="AQ50" s="153"/>
       <c r="AR50" s="128"/>
-      <c r="AV50" s="162"/>
-      <c r="AW50" s="162"/>
-      <c r="AX50" s="162"/>
-      <c r="AY50" s="162"/>
+      <c r="AV50" s="128"/>
+      <c r="AW50" s="128"/>
+      <c r="AX50" s="128"/>
+      <c r="AY50" s="128"/>
       <c r="AZ50" s="129"/>
       <c r="BA50" s="152"/>
     </row>
@@ -9216,15 +9668,15 @@
       <c r="AK51" s="152"/>
       <c r="AL51" s="153"/>
       <c r="AM51" s="153"/>
-      <c r="AN51" s="194"/>
+      <c r="AN51" s="187"/>
       <c r="AO51" s="153"/>
       <c r="AP51" s="153"/>
       <c r="AQ51" s="153"/>
       <c r="AR51" s="128"/>
-      <c r="AV51" s="162"/>
-      <c r="AW51" s="162"/>
-      <c r="AX51" s="162"/>
-      <c r="AY51" s="162"/>
+      <c r="AV51" s="128"/>
+      <c r="AW51" s="128"/>
+      <c r="AX51" s="128"/>
+      <c r="AY51" s="128"/>
       <c r="AZ51" s="129"/>
       <c r="BA51" s="152"/>
     </row>
@@ -9267,10 +9719,10 @@
       <c r="AP52" s="153"/>
       <c r="AQ52" s="153"/>
       <c r="AR52" s="128"/>
-      <c r="AV52" s="162"/>
-      <c r="AW52" s="162"/>
-      <c r="AX52" s="162"/>
-      <c r="AY52" s="162"/>
+      <c r="AV52" s="128"/>
+      <c r="AW52" s="128"/>
+      <c r="AX52" s="128"/>
+      <c r="AY52" s="128"/>
       <c r="AZ52" s="129"/>
     </row>
     <row r="53" spans="1:53" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -9309,60 +9761,52 @@
       <c r="AP53" s="128"/>
       <c r="AQ53" s="128"/>
       <c r="AR53" s="128"/>
-      <c r="AV53" s="163"/>
-      <c r="AW53" s="163"/>
-      <c r="AX53" s="163"/>
-      <c r="AY53" s="163"/>
     </row>
     <row r="54" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="199"/>
-      <c r="B54" s="200"/>
-      <c r="C54" s="201"/>
-      <c r="D54" s="202"/>
-      <c r="E54" s="202"/>
-      <c r="F54" s="201"/>
-      <c r="G54" s="201"/>
-      <c r="H54" s="202"/>
-      <c r="I54" s="202"/>
-      <c r="J54" s="202"/>
-      <c r="K54" s="202"/>
-      <c r="L54" s="202"/>
-      <c r="M54" s="203"/>
-      <c r="N54" s="203"/>
-      <c r="O54" s="203"/>
-      <c r="P54" s="203"/>
-      <c r="Q54" s="203"/>
-      <c r="R54" s="203"/>
-      <c r="S54" s="203"/>
-      <c r="T54" s="203"/>
-      <c r="U54" s="203"/>
-      <c r="V54" s="203"/>
-      <c r="W54" s="203"/>
-      <c r="X54" s="203"/>
-      <c r="Y54" s="203"/>
-      <c r="Z54" s="203"/>
-      <c r="AA54" s="203"/>
-      <c r="AB54" s="203"/>
-      <c r="AC54" s="203"/>
-      <c r="AD54" s="203"/>
-      <c r="AE54" s="203"/>
-      <c r="AF54" s="203"/>
-      <c r="AG54" s="203"/>
-      <c r="AH54" s="203"/>
-      <c r="AI54" s="203"/>
-      <c r="AJ54" s="203"/>
-      <c r="AK54" s="203"/>
-      <c r="AL54" s="203"/>
+      <c r="A54" s="192"/>
+      <c r="B54" s="193"/>
+      <c r="C54" s="194"/>
+      <c r="D54" s="195"/>
+      <c r="E54" s="195"/>
+      <c r="F54" s="194"/>
+      <c r="G54" s="194"/>
+      <c r="H54" s="195"/>
+      <c r="I54" s="195"/>
+      <c r="J54" s="195"/>
+      <c r="K54" s="195"/>
+      <c r="L54" s="195"/>
+      <c r="M54" s="196"/>
+      <c r="N54" s="196"/>
+      <c r="O54" s="196"/>
+      <c r="P54" s="196"/>
+      <c r="Q54" s="196"/>
+      <c r="R54" s="196"/>
+      <c r="S54" s="196"/>
+      <c r="T54" s="196"/>
+      <c r="U54" s="196"/>
+      <c r="V54" s="196"/>
+      <c r="W54" s="196"/>
+      <c r="X54" s="196"/>
+      <c r="Y54" s="196"/>
+      <c r="Z54" s="196"/>
+      <c r="AA54" s="196"/>
+      <c r="AB54" s="196"/>
+      <c r="AC54" s="196"/>
+      <c r="AD54" s="196"/>
+      <c r="AE54" s="196"/>
+      <c r="AF54" s="196"/>
+      <c r="AG54" s="196"/>
+      <c r="AH54" s="196"/>
+      <c r="AI54" s="196"/>
+      <c r="AJ54" s="196"/>
+      <c r="AK54" s="196"/>
+      <c r="AL54" s="196"/>
       <c r="AM54" s="49"/>
       <c r="AN54" s="49"/>
       <c r="AO54" s="49"/>
       <c r="AP54" s="49"/>
       <c r="AQ54" s="49"/>
       <c r="AR54" s="61"/>
-      <c r="AV54" s="160"/>
-      <c r="AW54" s="160"/>
-      <c r="AX54" s="160"/>
-      <c r="AY54" s="160"/>
     </row>
     <row r="55" spans="1:53" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="51"/>
@@ -9403,10 +9847,6 @@
       <c r="AP55" s="153"/>
       <c r="AQ55" s="153"/>
       <c r="AR55" s="128"/>
-      <c r="AV55" s="163"/>
-      <c r="AW55" s="163"/>
-      <c r="AX55" s="163"/>
-      <c r="AY55" s="163"/>
     </row>
     <row r="56" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="47"/>
@@ -9453,10 +9893,6 @@
       <c r="AP56" s="49"/>
       <c r="AQ56" s="49"/>
       <c r="AR56" s="61"/>
-      <c r="AV56" s="160"/>
-      <c r="AW56" s="160"/>
-      <c r="AX56" s="160"/>
-      <c r="AY56" s="160"/>
     </row>
     <row r="57" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="47"/>
@@ -9502,10 +9938,6 @@
       <c r="AO57" s="49"/>
       <c r="AP57" s="49"/>
       <c r="AQ57" s="49"/>
-      <c r="AV57" s="160"/>
-      <c r="AW57" s="160"/>
-      <c r="AX57" s="160"/>
-      <c r="AY57" s="160"/>
     </row>
     <row r="58" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="47"/>
@@ -9551,10 +9983,6 @@
       <c r="AO58" s="49"/>
       <c r="AP58" s="49"/>
       <c r="AQ58" s="49"/>
-      <c r="AV58" s="160"/>
-      <c r="AW58" s="160"/>
-      <c r="AX58" s="160"/>
-      <c r="AY58" s="160"/>
     </row>
     <row r="59" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="47"/>
@@ -9600,10 +10028,6 @@
       <c r="AO59" s="49"/>
       <c r="AP59" s="49"/>
       <c r="AQ59" s="49"/>
-      <c r="AV59" s="160"/>
-      <c r="AW59" s="160"/>
-      <c r="AX59" s="160"/>
-      <c r="AY59" s="160"/>
     </row>
     <row r="60" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="47"/>
@@ -9649,10 +10073,6 @@
       <c r="AO60" s="49"/>
       <c r="AP60" s="49"/>
       <c r="AQ60" s="49"/>
-      <c r="AV60" s="160"/>
-      <c r="AW60" s="160"/>
-      <c r="AX60" s="160"/>
-      <c r="AY60" s="160"/>
     </row>
     <row r="61" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="47"/>
@@ -9698,10 +10118,6 @@
       <c r="AO61" s="49"/>
       <c r="AP61" s="49"/>
       <c r="AQ61" s="49"/>
-      <c r="AV61" s="160"/>
-      <c r="AW61" s="160"/>
-      <c r="AX61" s="160"/>
-      <c r="AY61" s="160"/>
     </row>
     <row r="62" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="47"/>
@@ -9747,10 +10163,6 @@
       <c r="AO62" s="49"/>
       <c r="AP62" s="49"/>
       <c r="AQ62" s="49"/>
-      <c r="AV62" s="160"/>
-      <c r="AW62" s="160"/>
-      <c r="AX62" s="160"/>
-      <c r="AY62" s="160"/>
     </row>
     <row r="63" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="40"/>
@@ -9796,10 +10208,6 @@
       <c r="AO63" s="49"/>
       <c r="AP63" s="49"/>
       <c r="AQ63" s="49"/>
-      <c r="AV63" s="160"/>
-      <c r="AW63" s="160"/>
-      <c r="AX63" s="160"/>
-      <c r="AY63" s="160"/>
     </row>
     <row r="64" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
@@ -9845,12 +10253,8 @@
       <c r="AO64" s="49"/>
       <c r="AP64" s="49"/>
       <c r="AQ64" s="49"/>
-      <c r="AV64" s="160"/>
-      <c r="AW64" s="160"/>
-      <c r="AX64" s="160"/>
-      <c r="AY64" s="160"/>
-    </row>
-    <row r="65" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="26"/>
       <c r="C65" s="90"/>
@@ -9894,12 +10298,8 @@
       <c r="AO65" s="49"/>
       <c r="AP65" s="49"/>
       <c r="AQ65" s="49"/>
-      <c r="AV65" s="160"/>
-      <c r="AW65" s="160"/>
-      <c r="AX65" s="160"/>
-      <c r="AY65" s="160"/>
-    </row>
-    <row r="66" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="26"/>
       <c r="C66" s="90"/>
@@ -9943,12 +10343,8 @@
       <c r="AO66" s="49"/>
       <c r="AP66" s="49"/>
       <c r="AQ66" s="49"/>
-      <c r="AV66" s="160"/>
-      <c r="AW66" s="160"/>
-      <c r="AX66" s="160"/>
-      <c r="AY66" s="160"/>
-    </row>
-    <row r="67" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="36"/>
       <c r="B67" s="31"/>
       <c r="C67" s="88"/>
@@ -9992,12 +10388,8 @@
       <c r="AO67" s="49"/>
       <c r="AP67" s="49"/>
       <c r="AQ67" s="49"/>
-      <c r="AV67" s="160"/>
-      <c r="AW67" s="160"/>
-      <c r="AX67" s="160"/>
-      <c r="AY67" s="160"/>
-    </row>
-    <row r="68" spans="1:51" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:43" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="91"/>
@@ -10041,12 +10433,8 @@
       <c r="AO68" s="49"/>
       <c r="AP68" s="49"/>
       <c r="AQ68" s="49"/>
-      <c r="AV68" s="160"/>
-      <c r="AW68" s="160"/>
-      <c r="AX68" s="160"/>
-      <c r="AY68" s="160"/>
-    </row>
-    <row r="69" spans="1:51" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:43" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="21"/>
       <c r="B69" s="20"/>
       <c r="C69" s="92"/>
@@ -10090,12 +10478,8 @@
       <c r="AO69" s="20"/>
       <c r="AP69" s="20"/>
       <c r="AQ69" s="20"/>
-      <c r="AV69" s="160"/>
-      <c r="AW69" s="160"/>
-      <c r="AX69" s="160"/>
-      <c r="AY69" s="160"/>
-    </row>
-    <row r="70" spans="1:51" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:43" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="32"/>
       <c r="B70" s="25"/>
       <c r="C70" s="86"/>
@@ -10139,12 +10523,8 @@
       <c r="AO70" s="25"/>
       <c r="AP70" s="25"/>
       <c r="AQ70" s="25"/>
-      <c r="AV70" s="160"/>
-      <c r="AW70" s="160"/>
-      <c r="AX70" s="160"/>
-      <c r="AY70" s="160"/>
-    </row>
-    <row r="71" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="26"/>
       <c r="C71" s="90"/>
@@ -10188,12 +10568,8 @@
       <c r="AO71" s="41"/>
       <c r="AP71" s="41"/>
       <c r="AQ71" s="41"/>
-      <c r="AV71" s="160"/>
-      <c r="AW71" s="160"/>
-      <c r="AX71" s="160"/>
-      <c r="AY71" s="160"/>
-    </row>
-    <row r="72" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="26"/>
       <c r="C72" s="90"/>
@@ -10237,12 +10613,8 @@
       <c r="AO72" s="41"/>
       <c r="AP72" s="41"/>
       <c r="AQ72" s="41"/>
-      <c r="AV72" s="160"/>
-      <c r="AW72" s="160"/>
-      <c r="AX72" s="160"/>
-      <c r="AY72" s="160"/>
-    </row>
-    <row r="73" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="36"/>
       <c r="B73" s="31"/>
       <c r="C73" s="88"/>
@@ -10286,12 +10658,8 @@
       <c r="AO73" s="31"/>
       <c r="AP73" s="31"/>
       <c r="AQ73" s="31"/>
-      <c r="AV73" s="160"/>
-      <c r="AW73" s="160"/>
-      <c r="AX73" s="160"/>
-      <c r="AY73" s="160"/>
-    </row>
-    <row r="74" spans="1:51" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:43" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="91"/>
@@ -10335,12 +10703,8 @@
       <c r="AO74" s="37"/>
       <c r="AP74" s="37"/>
       <c r="AQ74" s="37"/>
-      <c r="AV74" s="160"/>
-      <c r="AW74" s="160"/>
-      <c r="AX74" s="160"/>
-      <c r="AY74" s="160"/>
-    </row>
-    <row r="75" spans="1:51" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:43" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="93"/>
@@ -10384,12 +10748,8 @@
       <c r="AO75" s="23"/>
       <c r="AP75" s="23"/>
       <c r="AQ75" s="23"/>
-      <c r="AV75" s="160"/>
-      <c r="AW75" s="160"/>
-      <c r="AX75" s="160"/>
-      <c r="AY75" s="160"/>
-    </row>
-    <row r="76" spans="1:51" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:43" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
       <c r="B76" s="25"/>
       <c r="C76" s="86"/>
@@ -10433,12 +10793,8 @@
       <c r="AO76" s="25"/>
       <c r="AP76" s="25"/>
       <c r="AQ76" s="25"/>
-      <c r="AV76" s="160"/>
-      <c r="AW76" s="160"/>
-      <c r="AX76" s="160"/>
-      <c r="AY76" s="160"/>
-    </row>
-    <row r="77" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="26"/>
       <c r="C77" s="90"/>
@@ -10482,12 +10838,8 @@
       <c r="AO77" s="41"/>
       <c r="AP77" s="41"/>
       <c r="AQ77" s="41"/>
-      <c r="AV77" s="160"/>
-      <c r="AW77" s="160"/>
-      <c r="AX77" s="160"/>
-      <c r="AY77" s="160"/>
-    </row>
-    <row r="78" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="26"/>
       <c r="C78" s="90"/>
@@ -10531,12 +10883,8 @@
       <c r="AO78" s="41"/>
       <c r="AP78" s="41"/>
       <c r="AQ78" s="41"/>
-      <c r="AV78" s="160"/>
-      <c r="AW78" s="160"/>
-      <c r="AX78" s="160"/>
-      <c r="AY78" s="160"/>
-    </row>
-    <row r="79" spans="1:51" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="36"/>
       <c r="B79" s="31"/>
       <c r="C79" s="88"/>
@@ -10580,12 +10928,8 @@
       <c r="AO79" s="31"/>
       <c r="AP79" s="31"/>
       <c r="AQ79" s="31"/>
-      <c r="AV79" s="160"/>
-      <c r="AW79" s="160"/>
-      <c r="AX79" s="160"/>
-      <c r="AY79" s="160"/>
-    </row>
-    <row r="80" spans="1:51" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:43" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="91"/>
@@ -10629,12 +10973,8 @@
       <c r="AO80" s="37"/>
       <c r="AP80" s="37"/>
       <c r="AQ80" s="37"/>
-      <c r="AV80" s="160"/>
-      <c r="AW80" s="160"/>
-      <c r="AX80" s="160"/>
-      <c r="AY80" s="160"/>
-    </row>
-    <row r="81" spans="1:51" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:43" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="93"/>
@@ -10678,12 +11018,8 @@
       <c r="AO81" s="23"/>
       <c r="AP81" s="23"/>
       <c r="AQ81" s="23"/>
-      <c r="AV81" s="160"/>
-      <c r="AW81" s="160"/>
-      <c r="AX81" s="160"/>
-      <c r="AY81" s="160"/>
-    </row>
-    <row r="82" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
       <c r="B82" s="25"/>
       <c r="C82" s="86"/>
@@ -10728,7 +11064,7 @@
       <c r="AP82" s="25"/>
       <c r="AQ82" s="25"/>
     </row>
-    <row r="83" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="26"/>
       <c r="C83" s="90"/>
@@ -10773,7 +11109,7 @@
       <c r="AP83" s="41"/>
       <c r="AQ83" s="41"/>
     </row>
-    <row r="84" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="26"/>
       <c r="C84" s="90"/>
@@ -10818,7 +11154,7 @@
       <c r="AP84" s="41"/>
       <c r="AQ84" s="41"/>
     </row>
-    <row r="85" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A85" s="36"/>
       <c r="B85" s="31"/>
       <c r="C85" s="88"/>
@@ -10863,7 +11199,7 @@
       <c r="AP85" s="31"/>
       <c r="AQ85" s="31"/>
     </row>
-    <row r="86" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="91"/>
@@ -10908,7 +11244,7 @@
       <c r="AP86" s="37"/>
       <c r="AQ86" s="37"/>
     </row>
-    <row r="87" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="22"/>
       <c r="B87" s="22"/>
       <c r="C87" s="93"/>
@@ -10953,7 +11289,7 @@
       <c r="AP87" s="23"/>
       <c r="AQ87" s="23"/>
     </row>
-    <row r="88" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A88" s="35"/>
       <c r="B88" s="31"/>
       <c r="C88" s="88"/>
@@ -10998,7 +11334,7 @@
       <c r="AP88" s="31"/>
       <c r="AQ88" s="31"/>
     </row>
-    <row r="89" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A89" s="36"/>
       <c r="B89" s="26"/>
       <c r="C89" s="91"/>
@@ -11043,7 +11379,7 @@
       <c r="AP89" s="37"/>
       <c r="AQ89" s="37"/>
     </row>
-    <row r="91" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.2">
       <c r="X91" s="9"/>
       <c r="AE91" s="9"/>
       <c r="AF91" s="9"/>
@@ -11064,8 +11400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CN94"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:IV51"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11227,17 +11563,17 @@
       <c r="AJ3" s="25"/>
       <c r="AK3" s="25"/>
       <c r="AL3" s="25"/>
-      <c r="AM3" s="165"/>
-      <c r="AN3" s="165"/>
-      <c r="AO3" s="165"/>
-      <c r="AP3" s="165"/>
-      <c r="AQ3" s="165"/>
-      <c r="AR3" s="165"/>
-      <c r="AS3" s="165"/>
-      <c r="AT3" s="165"/>
-      <c r="AU3" s="165"/>
-      <c r="AV3" s="165"/>
-      <c r="AW3" s="165"/>
+      <c r="AM3" s="163"/>
+      <c r="AN3" s="163"/>
+      <c r="AO3" s="163"/>
+      <c r="AP3" s="163"/>
+      <c r="AQ3" s="163"/>
+      <c r="AR3" s="163"/>
+      <c r="AS3" s="163"/>
+      <c r="AT3" s="163"/>
+      <c r="AU3" s="163"/>
+      <c r="AV3" s="163"/>
+      <c r="AW3" s="163"/>
     </row>
     <row r="4" spans="1:92" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
@@ -11436,17 +11772,17 @@
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="19"/>
-      <c r="AM7" s="165"/>
-      <c r="AN7" s="165"/>
-      <c r="AO7" s="165"/>
-      <c r="AP7" s="165"/>
-      <c r="AQ7" s="165"/>
-      <c r="AR7" s="165"/>
-      <c r="AS7" s="165"/>
-      <c r="AT7" s="165"/>
-      <c r="AU7" s="165"/>
-      <c r="AV7" s="165"/>
-      <c r="AW7" s="165"/>
+      <c r="AM7" s="163"/>
+      <c r="AN7" s="163"/>
+      <c r="AO7" s="163"/>
+      <c r="AP7" s="163"/>
+      <c r="AQ7" s="163"/>
+      <c r="AR7" s="163"/>
+      <c r="AS7" s="163"/>
+      <c r="AT7" s="163"/>
+      <c r="AU7" s="163"/>
+      <c r="AV7" s="163"/>
+      <c r="AW7" s="163"/>
       <c r="AX7" s="10"/>
       <c r="AY7" s="10"/>
       <c r="AZ7" s="10"/>
@@ -12140,8 +12476,8 @@
       <c r="H22" s="126"/>
       <c r="J22" s="120"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="168"/>
-      <c r="N22" s="168"/>
+      <c r="M22" s="166"/>
+      <c r="N22" s="166"/>
       <c r="O22" s="121"/>
       <c r="R22" s="153"/>
       <c r="S22" s="153"/>
@@ -12177,8 +12513,8 @@
       <c r="H23" s="126"/>
       <c r="J23" s="120"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="168"/>
-      <c r="N23" s="168"/>
+      <c r="M23" s="166"/>
+      <c r="N23" s="166"/>
       <c r="O23" s="121"/>
       <c r="R23" s="153"/>
       <c r="S23" s="153"/>
@@ -12213,8 +12549,8 @@
       <c r="H24" s="126"/>
       <c r="J24" s="120"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="168"/>
-      <c r="N24" s="168"/>
+      <c r="M24" s="166"/>
+      <c r="N24" s="166"/>
       <c r="O24" s="121"/>
       <c r="R24" s="153"/>
       <c r="S24" s="153"/>
@@ -12249,8 +12585,8 @@
       <c r="H25" s="126"/>
       <c r="J25" s="120"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="168"/>
-      <c r="N25" s="168"/>
+      <c r="M25" s="166"/>
+      <c r="N25" s="166"/>
       <c r="O25" s="121"/>
       <c r="R25" s="153"/>
       <c r="S25" s="153"/>
@@ -12285,8 +12621,8 @@
       <c r="H26" s="126"/>
       <c r="J26" s="120"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="168"/>
-      <c r="N26" s="168"/>
+      <c r="M26" s="166"/>
+      <c r="N26" s="166"/>
       <c r="O26" s="121"/>
       <c r="R26" s="153"/>
       <c r="S26" s="153"/>
@@ -12321,8 +12657,8 @@
       <c r="H27" s="126"/>
       <c r="J27" s="120"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="168"/>
-      <c r="N27" s="168"/>
+      <c r="M27" s="166"/>
+      <c r="N27" s="166"/>
       <c r="O27" s="121"/>
       <c r="R27" s="153"/>
       <c r="S27" s="153"/>
@@ -12357,8 +12693,8 @@
       <c r="H28" s="126"/>
       <c r="J28" s="120"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="168"/>
-      <c r="N28" s="168"/>
+      <c r="M28" s="166"/>
+      <c r="N28" s="166"/>
       <c r="O28" s="121"/>
       <c r="R28" s="153"/>
       <c r="S28" s="153"/>
@@ -12393,8 +12729,8 @@
       <c r="H29" s="126"/>
       <c r="J29" s="120"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="168"/>
-      <c r="N29" s="168"/>
+      <c r="M29" s="166"/>
+      <c r="N29" s="166"/>
       <c r="O29" s="121"/>
       <c r="R29" s="153"/>
       <c r="S29" s="153"/>
@@ -12429,8 +12765,8 @@
       <c r="H30" s="126"/>
       <c r="J30" s="120"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="168"/>
-      <c r="N30" s="168"/>
+      <c r="M30" s="166"/>
+      <c r="N30" s="166"/>
       <c r="O30" s="121"/>
       <c r="R30" s="153"/>
       <c r="S30" s="153"/>
@@ -12465,8 +12801,8 @@
       <c r="H31" s="126"/>
       <c r="J31" s="120"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="168"/>
-      <c r="N31" s="168"/>
+      <c r="M31" s="166"/>
+      <c r="N31" s="166"/>
       <c r="O31" s="121"/>
       <c r="R31" s="153"/>
       <c r="S31" s="153"/>
@@ -12501,8 +12837,8 @@
       <c r="H32" s="126"/>
       <c r="J32" s="120"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="168"/>
-      <c r="N32" s="168"/>
+      <c r="M32" s="166"/>
+      <c r="N32" s="166"/>
       <c r="O32" s="121"/>
       <c r="R32" s="153"/>
       <c r="S32" s="153"/>
@@ -12537,8 +12873,8 @@
       <c r="H33" s="126"/>
       <c r="J33" s="120"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="168"/>
-      <c r="N33" s="168"/>
+      <c r="M33" s="166"/>
+      <c r="N33" s="166"/>
       <c r="O33" s="121"/>
       <c r="R33" s="153"/>
       <c r="S33" s="153"/>
@@ -15058,7 +15394,7 @@
       <c r="D13" s="6"/>
       <c r="G13" s="156"/>
       <c r="H13" s="146"/>
-      <c r="I13" s="206"/>
+      <c r="I13" s="199"/>
       <c r="J13" s="149"/>
       <c r="K13" s="149"/>
       <c r="L13" s="149"/>
@@ -15111,7 +15447,7 @@
     <row r="18" spans="2:13" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" s="51"/>
-      <c r="D18" s="204"/>
+      <c r="D18" s="197"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="156"/>
@@ -15126,106 +15462,106 @@
       <c r="C19" s="51"/>
       <c r="D19" s="6"/>
       <c r="E19" s="81"/>
-      <c r="F19" s="207"/>
-      <c r="G19" s="164"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="162"/>
       <c r="H19" s="146"/>
       <c r="I19" s="146"/>
       <c r="J19" s="150"/>
       <c r="K19" s="149"/>
       <c r="L19" s="149"/>
-      <c r="M19" s="169"/>
+      <c r="M19" s="167"/>
     </row>
     <row r="20" spans="2:13" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="51"/>
       <c r="D20" s="6"/>
       <c r="E20" s="81"/>
-      <c r="F20" s="207"/>
-      <c r="G20" s="164"/>
+      <c r="F20" s="200"/>
+      <c r="G20" s="162"/>
       <c r="H20" s="146"/>
       <c r="I20" s="146"/>
       <c r="J20" s="150"/>
       <c r="K20" s="149"/>
       <c r="L20" s="149"/>
-      <c r="M20" s="169"/>
+      <c r="M20" s="167"/>
     </row>
     <row r="21" spans="2:13" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B21" s="6"/>
       <c r="C21" s="51"/>
       <c r="D21" s="6"/>
       <c r="E21" s="81"/>
-      <c r="F21" s="207"/>
-      <c r="G21" s="164"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="162"/>
       <c r="H21" s="146"/>
       <c r="I21" s="146"/>
       <c r="J21" s="150"/>
       <c r="K21" s="149"/>
       <c r="L21" s="149"/>
-      <c r="M21" s="169"/>
+      <c r="M21" s="167"/>
     </row>
     <row r="22" spans="2:13" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
       <c r="C22" s="51"/>
       <c r="D22" s="6"/>
       <c r="E22" s="81"/>
-      <c r="F22" s="207"/>
-      <c r="G22" s="164"/>
+      <c r="F22" s="200"/>
+      <c r="G22" s="162"/>
       <c r="H22" s="146"/>
       <c r="I22" s="146"/>
       <c r="J22" s="150"/>
       <c r="K22" s="149"/>
       <c r="L22" s="149"/>
-      <c r="M22" s="169"/>
+      <c r="M22" s="167"/>
     </row>
     <row r="23" spans="2:13" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
       <c r="C23" s="51"/>
-      <c r="D23" s="204"/>
+      <c r="D23" s="197"/>
       <c r="E23" s="81"/>
-      <c r="F23" s="207"/>
-      <c r="G23" s="164"/>
+      <c r="F23" s="200"/>
+      <c r="G23" s="162"/>
       <c r="H23" s="146"/>
       <c r="I23" s="146"/>
       <c r="J23" s="150"/>
       <c r="K23" s="149"/>
       <c r="L23" s="149"/>
-      <c r="M23" s="169"/>
+      <c r="M23" s="167"/>
     </row>
     <row r="24" spans="2:13" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B24" s="6"/>
       <c r="C24" s="51"/>
       <c r="D24" s="6"/>
       <c r="E24" s="81"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="164"/>
+      <c r="F24" s="200"/>
+      <c r="G24" s="162"/>
       <c r="H24" s="146"/>
       <c r="I24" s="146"/>
       <c r="J24" s="150"/>
       <c r="K24" s="149"/>
       <c r="L24" s="149"/>
-      <c r="M24" s="169"/>
+      <c r="M24" s="167"/>
     </row>
     <row r="25" spans="2:13" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B25" s="6"/>
       <c r="C25" s="51"/>
       <c r="D25" s="6"/>
       <c r="E25" s="81"/>
-      <c r="F25" s="207"/>
-      <c r="G25" s="164"/>
+      <c r="F25" s="200"/>
+      <c r="G25" s="162"/>
       <c r="H25" s="146"/>
       <c r="I25" s="146"/>
       <c r="J25" s="150"/>
       <c r="K25" s="149"/>
       <c r="L25" s="149"/>
-      <c r="M25" s="169"/>
+      <c r="M25" s="167"/>
     </row>
     <row r="26" spans="2:13" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B26" s="6"/>
       <c r="C26" s="51"/>
       <c r="D26" s="6"/>
       <c r="E26" s="81"/>
-      <c r="F26" s="208"/>
-      <c r="G26" s="164"/>
+      <c r="F26" s="201"/>
+      <c r="G26" s="162"/>
       <c r="H26" s="146"/>
       <c r="I26" s="146"/>
       <c r="J26" s="149"/>
@@ -15237,8 +15573,8 @@
       <c r="C27" s="51"/>
       <c r="D27" s="6"/>
       <c r="E27" s="81"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="164"/>
+      <c r="F27" s="200"/>
+      <c r="G27" s="162"/>
       <c r="H27" s="146"/>
       <c r="I27" s="146"/>
       <c r="J27" s="150"/>
@@ -15248,9 +15584,9 @@
     <row r="28" spans="2:13" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
       <c r="C28" s="51"/>
-      <c r="D28" s="204"/>
+      <c r="D28" s="197"/>
       <c r="E28" s="81"/>
-      <c r="F28" s="207"/>
+      <c r="F28" s="200"/>
       <c r="G28" s="156"/>
       <c r="H28" s="146"/>
       <c r="I28" s="146"/>
@@ -15327,10 +15663,10 @@
     <row r="35" spans="2:12" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B35" s="6"/>
       <c r="C35" s="51"/>
-      <c r="D35" s="204"/>
+      <c r="D35" s="197"/>
       <c r="E35" s="81"/>
-      <c r="F35" s="207"/>
-      <c r="G35" s="164"/>
+      <c r="F35" s="200"/>
+      <c r="G35" s="162"/>
       <c r="H35" s="146"/>
       <c r="I35" s="146"/>
       <c r="J35" s="149"/>
@@ -15863,8 +16199,8 @@
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="98"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="179"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="172"/>
       <c r="N16" s="119"/>
       <c r="O16" s="119"/>
       <c r="P16" s="112"/>
@@ -15879,8 +16215,8 @@
       <c r="D17" s="103"/>
       <c r="E17" s="112"/>
       <c r="F17" s="57"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="177"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="170"/>
       <c r="N17" s="119"/>
       <c r="O17" s="119"/>
       <c r="P17" s="112"/>
@@ -15896,8 +16232,8 @@
       <c r="D18" s="103"/>
       <c r="E18" s="112"/>
       <c r="F18" s="57"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="177"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="170"/>
       <c r="N18" s="119"/>
       <c r="O18" s="119"/>
       <c r="P18" s="112"/>
@@ -15913,8 +16249,8 @@
       <c r="D19" s="103"/>
       <c r="E19" s="112"/>
       <c r="F19" s="57"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="177"/>
+      <c r="G19" s="169"/>
+      <c r="H19" s="170"/>
       <c r="N19" s="119"/>
       <c r="O19" s="119"/>
       <c r="P19" s="112"/>
@@ -15930,8 +16266,8 @@
       <c r="D20" s="103"/>
       <c r="E20" s="112"/>
       <c r="F20" s="57"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="177"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="170"/>
       <c r="N20" s="119"/>
       <c r="O20" s="119"/>
       <c r="P20" s="112"/>
@@ -15947,8 +16283,8 @@
       <c r="D21" s="103"/>
       <c r="E21" s="112"/>
       <c r="F21" s="57"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="177"/>
+      <c r="G21" s="169"/>
+      <c r="H21" s="170"/>
       <c r="N21" s="119"/>
       <c r="O21" s="119"/>
       <c r="P21" s="112"/>
@@ -15964,8 +16300,8 @@
       <c r="D22" s="103"/>
       <c r="E22" s="112"/>
       <c r="F22" s="57"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="177"/>
+      <c r="G22" s="169"/>
+      <c r="H22" s="170"/>
       <c r="N22" s="119"/>
       <c r="O22" s="119"/>
       <c r="P22" s="112"/>
@@ -15981,8 +16317,8 @@
       <c r="D23" s="103"/>
       <c r="E23" s="112"/>
       <c r="F23" s="57"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="177"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="170"/>
       <c r="N23" s="119"/>
       <c r="O23" s="119"/>
       <c r="P23" s="112"/>
@@ -15998,8 +16334,8 @@
       </c>
       <c r="E24" s="112"/>
       <c r="F24" s="57"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="177"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="170"/>
       <c r="N24" s="119"/>
       <c r="O24" s="119"/>
       <c r="P24" s="112"/>
@@ -16018,8 +16354,8 @@
       </c>
       <c r="E25" s="112"/>
       <c r="F25" s="57"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="177"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="170"/>
       <c r="N25" s="119"/>
       <c r="O25" s="119"/>
       <c r="P25" s="112"/>
@@ -16037,8 +16373,8 @@
         <v>#REF!</v>
       </c>
       <c r="E26" s="113"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="177"/>
+      <c r="G26" s="169"/>
+      <c r="H26" s="170"/>
       <c r="N26" s="119"/>
       <c r="O26" s="119"/>
       <c r="P26" s="112"/>
@@ -16056,8 +16392,8 @@
         <v>#REF!</v>
       </c>
       <c r="E27" s="115"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="177"/>
+      <c r="G27" s="169"/>
+      <c r="H27" s="170"/>
       <c r="N27" s="119"/>
       <c r="O27" s="119"/>
       <c r="P27" s="112"/>
@@ -16076,8 +16412,8 @@
       </c>
       <c r="E28" s="116"/>
       <c r="F28" s="96"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="179"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="172"/>
       <c r="N28" s="119"/>
       <c r="O28" s="119"/>
       <c r="P28" s="112"/>
@@ -16347,14 +16683,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="184" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="180" t="s">
+    <row r="9" spans="1:12" s="177" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="173" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="173" t="s">
         <v>238</v>
       </c>
-      <c r="C9" s="180" t="s">
+      <c r="C9" s="173" t="s">
         <v>271</v>
       </c>
       <c r="D9" s="159">
@@ -16362,19 +16698,19 @@
       </c>
       <c r="E9" s="159"/>
       <c r="F9" s="71"/>
-      <c r="G9" s="181" t="s">
+      <c r="G9" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="182" t="s">
+      <c r="H9" s="175" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="183">
+      <c r="I9" s="176">
         <v>1106394299</v>
       </c>
-      <c r="J9" s="182" t="s">
+      <c r="J9" s="175" t="s">
         <v>101</v>
       </c>
-      <c r="K9" s="182" t="s">
+      <c r="K9" s="175" t="s">
         <v>100</v>
       </c>
     </row>
@@ -16409,14 +16745,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="184" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="180" t="s">
+    <row r="11" spans="1:12" s="177" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="173" t="s">
         <v>247</v>
       </c>
-      <c r="C11" s="180" t="s">
+      <c r="C11" s="173" t="s">
         <v>274</v>
       </c>
       <c r="D11" s="159">
@@ -16424,30 +16760,30 @@
       </c>
       <c r="E11" s="159"/>
       <c r="F11" s="71"/>
-      <c r="G11" s="181" t="s">
+      <c r="G11" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="182" t="s">
+      <c r="H11" s="175" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="183">
+      <c r="I11" s="176">
         <v>2984760999</v>
       </c>
-      <c r="J11" s="182" t="s">
+      <c r="J11" s="175" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="182" t="s">
+      <c r="K11" s="175" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="184" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="180" t="s">
+    <row r="12" spans="1:12" s="177" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="173" t="s">
         <v>217</v>
       </c>
-      <c r="B12" s="180" t="s">
+      <c r="B12" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="180" t="s">
+      <c r="C12" s="173" t="s">
         <v>275</v>
       </c>
       <c r="D12" s="159">
@@ -16455,30 +16791,30 @@
       </c>
       <c r="E12" s="159"/>
       <c r="F12" s="71"/>
-      <c r="G12" s="181" t="s">
+      <c r="G12" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="182" t="s">
+      <c r="H12" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="I12" s="183">
+      <c r="I12" s="176">
         <v>2635475015</v>
       </c>
-      <c r="J12" s="182" t="s">
+      <c r="J12" s="175" t="s">
         <v>114</v>
       </c>
-      <c r="K12" s="182" t="s">
+      <c r="K12" s="175" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="184" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="180" t="s">
+    <row r="13" spans="1:12" s="177" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="173" t="s">
         <v>218</v>
       </c>
-      <c r="B13" s="180" t="s">
+      <c r="B13" s="173" t="s">
         <v>248</v>
       </c>
-      <c r="C13" s="180" t="s">
+      <c r="C13" s="173" t="s">
         <v>276</v>
       </c>
       <c r="D13" s="159">
@@ -16486,17 +16822,17 @@
       </c>
       <c r="E13" s="159"/>
       <c r="F13" s="71"/>
-      <c r="G13" s="181" t="s">
+      <c r="G13" s="174" t="s">
         <v>202</v>
       </c>
-      <c r="H13" s="182" t="s">
+      <c r="H13" s="175" t="s">
         <v>203</v>
       </c>
-      <c r="I13" s="183"/>
-      <c r="J13" s="182" t="s">
+      <c r="I13" s="176"/>
+      <c r="J13" s="175" t="s">
         <v>117</v>
       </c>
-      <c r="K13" s="182" t="s">
+      <c r="K13" s="175" t="s">
         <v>116</v>
       </c>
     </row>
@@ -16590,7 +16926,7 @@
       <c r="K16" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="L16" s="197" t="s">
+      <c r="L16" s="190" t="s">
         <v>301</v>
       </c>
     </row>
@@ -16755,7 +17091,7 @@
       <c r="C22" s="73" t="s">
         <v>284</v>
       </c>
-      <c r="D22" s="195">
+      <c r="D22" s="188">
         <v>10079.072731407088</v>
       </c>
       <c r="E22" s="83"/>
@@ -17127,7 +17463,7 @@
       <c r="G34" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="H34" s="196" t="s">
+      <c r="H34" s="189" t="s">
         <v>149</v>
       </c>
       <c r="I34" s="74"/>
@@ -17137,7 +17473,7 @@
       <c r="K34" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="L34" s="184" t="s">
+      <c r="L34" s="177" t="s">
         <v>300</v>
       </c>
     </row>
@@ -17313,14 +17649,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="184" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="180" t="s">
+    <row r="41" spans="1:12" s="177" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="173" t="s">
         <v>213</v>
       </c>
-      <c r="B41" s="180" t="s">
+      <c r="B41" s="173" t="s">
         <v>238</v>
       </c>
-      <c r="C41" s="180" t="s">
+      <c r="C41" s="173" t="s">
         <v>271</v>
       </c>
       <c r="D41" s="159">
@@ -17328,30 +17664,30 @@
       </c>
       <c r="E41" s="159"/>
       <c r="F41" s="71"/>
-      <c r="G41" s="181" t="s">
+      <c r="G41" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="H41" s="182" t="s">
+      <c r="H41" s="175" t="s">
         <v>102</v>
       </c>
-      <c r="I41" s="183">
+      <c r="I41" s="176">
         <v>1106394299</v>
       </c>
-      <c r="J41" s="182" t="s">
+      <c r="J41" s="175" t="s">
         <v>101</v>
       </c>
-      <c r="K41" s="182" t="s">
+      <c r="K41" s="175" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="184" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="180" t="s">
+    <row r="42" spans="1:12" s="177" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="173" t="s">
         <v>217</v>
       </c>
-      <c r="B42" s="180" t="s">
+      <c r="B42" s="173" t="s">
         <v>215</v>
       </c>
-      <c r="C42" s="180" t="s">
+      <c r="C42" s="173" t="s">
         <v>275</v>
       </c>
       <c r="D42" s="159">
@@ -17359,30 +17695,30 @@
       </c>
       <c r="E42" s="159"/>
       <c r="F42" s="71"/>
-      <c r="G42" s="181" t="s">
+      <c r="G42" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="H42" s="182" t="s">
+      <c r="H42" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="I42" s="183">
+      <c r="I42" s="176">
         <v>2635475015</v>
       </c>
-      <c r="J42" s="182" t="s">
+      <c r="J42" s="175" t="s">
         <v>114</v>
       </c>
-      <c r="K42" s="182" t="s">
+      <c r="K42" s="175" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="184" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="180" t="s">
+    <row r="43" spans="1:12" s="177" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="173" t="s">
         <v>218</v>
       </c>
-      <c r="B43" s="180" t="s">
+      <c r="B43" s="173" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="180" t="s">
+      <c r="C43" s="173" t="s">
         <v>276</v>
       </c>
       <c r="D43" s="159">
@@ -17390,28 +17726,28 @@
       </c>
       <c r="E43" s="159"/>
       <c r="F43" s="71"/>
-      <c r="G43" s="181" t="s">
+      <c r="G43" s="174" t="s">
         <v>202</v>
       </c>
-      <c r="H43" s="185" t="s">
+      <c r="H43" s="178" t="s">
         <v>203</v>
       </c>
-      <c r="I43" s="183"/>
-      <c r="J43" s="185" t="s">
+      <c r="I43" s="176"/>
+      <c r="J43" s="178" t="s">
         <v>117</v>
       </c>
-      <c r="K43" s="185" t="s">
+      <c r="K43" s="178" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="184" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="180" t="s">
+    <row r="44" spans="1:12" s="177" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="173" t="s">
         <v>216</v>
       </c>
-      <c r="B44" s="180" t="s">
+      <c r="B44" s="173" t="s">
         <v>247</v>
       </c>
-      <c r="C44" s="180" t="s">
+      <c r="C44" s="173" t="s">
         <v>274</v>
       </c>
       <c r="D44" s="159">
@@ -17419,19 +17755,19 @@
       </c>
       <c r="E44" s="159"/>
       <c r="F44" s="71"/>
-      <c r="G44" s="181" t="s">
+      <c r="G44" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="185" t="s">
+      <c r="H44" s="178" t="s">
         <v>112</v>
       </c>
-      <c r="I44" s="183">
+      <c r="I44" s="176">
         <v>2984760999</v>
       </c>
-      <c r="J44" s="185" t="s">
+      <c r="J44" s="178" t="s">
         <v>111</v>
       </c>
-      <c r="K44" s="185" t="s">
+      <c r="K44" s="178" t="s">
         <v>110</v>
       </c>
     </row>
@@ -17470,63 +17806,63 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="193" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="186" t="s">
+    <row r="46" spans="1:12" s="186" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="179" t="s">
         <v>215</v>
       </c>
-      <c r="B46" s="186" t="s">
+      <c r="B46" s="179" t="s">
         <v>246</v>
       </c>
-      <c r="C46" s="186" t="s">
+      <c r="C46" s="179" t="s">
         <v>273</v>
       </c>
-      <c r="D46" s="187">
+      <c r="D46" s="180">
         <v>5761.4423368937851</v>
       </c>
-      <c r="E46" s="187"/>
-      <c r="F46" s="188"/>
-      <c r="G46" s="189" t="s">
+      <c r="E46" s="180"/>
+      <c r="F46" s="181"/>
+      <c r="G46" s="182" t="s">
         <v>81</v>
       </c>
-      <c r="H46" s="190" t="s">
+      <c r="H46" s="183" t="s">
         <v>109</v>
       </c>
-      <c r="I46" s="191"/>
-      <c r="J46" s="190" t="s">
+      <c r="I46" s="184"/>
+      <c r="J46" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="K46" s="190" t="s">
+      <c r="K46" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="L46" s="192" t="s">
+      <c r="L46" s="185" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="184" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="180"/>
-      <c r="B47" s="180"/>
-      <c r="C47" s="180"/>
+    <row r="47" spans="1:12" s="177" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="173"/>
+      <c r="B47" s="173"/>
+      <c r="C47" s="173"/>
       <c r="D47" s="159"/>
       <c r="E47" s="159"/>
       <c r="F47" s="71"/>
-      <c r="G47" s="181"/>
-      <c r="H47" s="185"/>
-      <c r="I47" s="183"/>
-      <c r="J47" s="185"/>
-      <c r="K47" s="185"/>
-    </row>
-    <row r="48" spans="1:12" s="184" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="180"/>
-      <c r="B48" s="180"/>
-      <c r="C48" s="180"/>
+      <c r="G47" s="174"/>
+      <c r="H47" s="178"/>
+      <c r="I47" s="176"/>
+      <c r="J47" s="178"/>
+      <c r="K47" s="178"/>
+    </row>
+    <row r="48" spans="1:12" s="177" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="173"/>
+      <c r="B48" s="173"/>
+      <c r="C48" s="173"/>
       <c r="D48" s="159"/>
       <c r="E48" s="159"/>
       <c r="F48" s="71"/>
-      <c r="G48" s="181"/>
-      <c r="H48" s="185"/>
-      <c r="I48" s="183"/>
-      <c r="J48" s="185"/>
-      <c r="K48" s="185"/>
+      <c r="G48" s="174"/>
+      <c r="H48" s="178"/>
+      <c r="I48" s="176"/>
+      <c r="J48" s="178"/>
+      <c r="K48" s="178"/>
     </row>
     <row r="49" spans="1:11" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="73"/>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="15360" windowHeight="7590" tabRatio="789" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="15360" windowHeight="7590" tabRatio="789" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA TOTAL" sheetId="27" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="_TC2">[2]FOR!$B$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">DETALLE!$A$1:$K$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">FACT!$A$1:$E$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'OPERADORA ABORDO'!$A$1:$AL$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'OPERADORA ABORDO'!$A$1:$AM$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'OPERADORA DESCANSO'!$A$1:$AL$54</definedName>
     <definedName name="LICS">[3]FOR!$F$59:$F$71</definedName>
     <definedName name="LIIMP">[3]FOR!$F$36:$F$40</definedName>
@@ -48,7 +48,7 @@
     <definedName name="TCF">[2]FOR!$B$8</definedName>
     <definedName name="VSDF">[2]FOR!$B$7</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="303">
   <si>
     <t>SUBTOTAL</t>
   </si>
@@ -1041,6 +1041,9 @@
   </si>
   <si>
     <t>NO SE BORRARON BIEN LAS TRANSFERENCIAS DE MAS</t>
+  </si>
+  <si>
+    <t>PRESTAMO</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1552,6 +1555,19 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0000FD"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0000FD"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF0000FD"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -3044,7 +3060,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3471,10 +3487,10 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1113" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3492,6 +3508,9 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1487">
@@ -5079,6 +5098,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1">
+        <row r="2">
+          <cell r="B2">
+            <v>51.95</v>
+          </cell>
+        </row>
         <row r="9">
           <cell r="B9">
             <v>1370</v>
@@ -5778,9 +5802,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BE12"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="R11" sqref="R11:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6393,75 +6417,75 @@
       <c r="BE10" s="57"/>
     </row>
     <row r="11" spans="2:57" s="131" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="209" t="s">
+      <c r="B11" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="209" t="s">
+      <c r="C11" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="209" t="s">
+      <c r="D11" s="210" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="209" t="s">
+      <c r="E11" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="209" t="s">
+      <c r="F11" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="209" t="s">
+      <c r="G11" s="210" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="209" t="s">
+      <c r="H11" s="210" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="209" t="s">
+      <c r="I11" s="210" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="209" t="s">
+      <c r="J11" s="210" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="209" t="s">
+      <c r="K11" s="210" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="209" t="s">
+      <c r="L11" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="209" t="s">
+      <c r="M11" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="N11" s="209" t="s">
+      <c r="N11" s="210" t="s">
         <v>79</v>
       </c>
-      <c r="O11" s="209" t="s">
+      <c r="O11" s="210" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="209" t="s">
+      <c r="P11" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="209" t="s">
+      <c r="Q11" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="209" t="s">
+      <c r="R11" s="210" t="s">
         <v>200</v>
       </c>
       <c r="S11" s="132"/>
-      <c r="T11" s="209" t="s">
+      <c r="T11" s="210" t="s">
         <v>64</v>
       </c>
-      <c r="U11" s="209" t="s">
+      <c r="U11" s="210" t="s">
         <v>65</v>
       </c>
-      <c r="V11" s="209" t="s">
+      <c r="V11" s="210" t="s">
         <v>6</v>
       </c>
       <c r="W11" s="132"/>
-      <c r="X11" s="209" t="s">
+      <c r="X11" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="Y11" s="210" t="s">
+      <c r="Y11" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="Z11" s="209" t="s">
+      <c r="Z11" s="210" t="s">
         <v>1</v>
       </c>
       <c r="AB11" s="130"/>
@@ -6496,33 +6520,33 @@
       <c r="BE11" s="130"/>
     </row>
     <row r="12" spans="2:57" s="133" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="209"/>
-      <c r="C12" s="209"/>
-      <c r="D12" s="209"/>
-      <c r="E12" s="209"/>
-      <c r="F12" s="209"/>
-      <c r="G12" s="209"/>
-      <c r="H12" s="209"/>
-      <c r="I12" s="209"/>
-      <c r="J12" s="209"/>
-      <c r="K12" s="209"/>
-      <c r="L12" s="209"/>
-      <c r="M12" s="209"/>
-      <c r="N12" s="209" t="s">
+      <c r="B12" s="210"/>
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="210"/>
+      <c r="F12" s="210"/>
+      <c r="G12" s="210"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="210"/>
+      <c r="K12" s="210"/>
+      <c r="L12" s="210"/>
+      <c r="M12" s="210"/>
+      <c r="N12" s="210" t="s">
         <v>79</v>
       </c>
-      <c r="O12" s="209"/>
-      <c r="P12" s="209"/>
-      <c r="Q12" s="209"/>
-      <c r="R12" s="209"/>
+      <c r="O12" s="210"/>
+      <c r="P12" s="210"/>
+      <c r="Q12" s="210"/>
+      <c r="R12" s="210"/>
       <c r="S12" s="132"/>
-      <c r="T12" s="209"/>
-      <c r="U12" s="209"/>
-      <c r="V12" s="209"/>
+      <c r="T12" s="210"/>
+      <c r="U12" s="210"/>
+      <c r="V12" s="210"/>
       <c r="W12" s="132"/>
-      <c r="X12" s="209"/>
-      <c r="Y12" s="210"/>
-      <c r="Z12" s="209"/>
+      <c r="X12" s="210"/>
+      <c r="Y12" s="209"/>
+      <c r="Z12" s="210"/>
       <c r="AA12" s="134"/>
       <c r="AD12" s="135"/>
       <c r="AE12" s="135"/>
@@ -6555,6 +6579,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z12"/>
     <mergeCell ref="O11:O12"/>
@@ -6564,20 +6602,6 @@
     <mergeCell ref="U11:U12"/>
     <mergeCell ref="V11:V12"/>
     <mergeCell ref="X11:X12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="N11:N12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6586,10 +6610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JX91"/>
+  <dimension ref="A1:JY91"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AV49" sqref="AV49:AZ1048576"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1:AL1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6623,14 +6647,15 @@
     <col min="34" max="34" width="11.42578125" customWidth="1"/>
     <col min="35" max="35" width="14.140625" customWidth="1"/>
     <col min="36" max="37" width="10.140625" customWidth="1"/>
-    <col min="38" max="43" width="14.28515625" customWidth="1"/>
-    <col min="44" max="44" width="12.28515625" customWidth="1"/>
-    <col min="45" max="47" width="11.42578125" customWidth="1"/>
-    <col min="48" max="52" width="11.42578125" style="11" customWidth="1"/>
-    <col min="53" max="53" width="16.85546875" customWidth="1"/>
+    <col min="38" max="38" width="13.42578125" customWidth="1"/>
+    <col min="39" max="44" width="14.28515625" customWidth="1"/>
+    <col min="45" max="45" width="12.28515625" customWidth="1"/>
+    <col min="46" max="48" width="11.42578125" customWidth="1"/>
+    <col min="49" max="53" width="11.42578125" style="11" customWidth="1"/>
+    <col min="54" max="54" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:284" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:285" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="28"/>
       <c r="B1" s="211" t="s">
         <v>12</v>
@@ -6676,13 +6701,14 @@
       <c r="AO1" s="25"/>
       <c r="AP1" s="25"/>
       <c r="AQ1" s="25"/>
-      <c r="AV1" s="160"/>
+      <c r="AR1" s="25"/>
       <c r="AW1" s="160"/>
       <c r="AX1" s="160"/>
       <c r="AY1" s="160"/>
-      <c r="AZ1"/>
-    </row>
-    <row r="2" spans="1:284" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AZ1" s="160"/>
+      <c r="BA1"/>
+    </row>
+    <row r="2" spans="1:285" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="58" t="s">
         <v>24</v>
@@ -6728,13 +6754,14 @@
       <c r="AO2" s="25"/>
       <c r="AP2" s="25"/>
       <c r="AQ2" s="25"/>
-      <c r="AV2" s="160"/>
+      <c r="AR2" s="25"/>
       <c r="AW2" s="160"/>
       <c r="AX2" s="160"/>
       <c r="AY2" s="160"/>
-      <c r="AZ2"/>
-    </row>
-    <row r="3" spans="1:284" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AZ2" s="160"/>
+      <c r="BA2"/>
+    </row>
+    <row r="3" spans="1:285" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="213" t="s">
         <v>13</v>
@@ -6780,12 +6807,13 @@
       <c r="AO3" s="25"/>
       <c r="AP3" s="25"/>
       <c r="AQ3" s="25"/>
-      <c r="AV3" s="161"/>
+      <c r="AR3" s="25"/>
       <c r="AW3" s="161"/>
       <c r="AX3" s="161"/>
       <c r="AY3" s="161"/>
-    </row>
-    <row r="4" spans="1:284" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ3" s="161"/>
+    </row>
+    <row r="4" spans="1:285" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="214" t="s">
         <v>162</v>
@@ -6831,12 +6859,13 @@
       <c r="AO4" s="25"/>
       <c r="AP4" s="25"/>
       <c r="AQ4" s="25"/>
-      <c r="AV4" s="160"/>
+      <c r="AR4" s="25"/>
       <c r="AW4" s="160"/>
       <c r="AX4" s="160"/>
       <c r="AY4" s="160"/>
-    </row>
-    <row r="5" spans="1:284" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ4" s="160"/>
+    </row>
+    <row r="5" spans="1:285" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="30" t="s">
         <v>22</v>
@@ -6882,12 +6911,13 @@
       <c r="AO5" s="25"/>
       <c r="AP5" s="25"/>
       <c r="AQ5" s="25"/>
-      <c r="AV5" s="160"/>
+      <c r="AR5" s="25"/>
       <c r="AW5" s="160"/>
       <c r="AX5" s="160"/>
       <c r="AY5" s="160"/>
-    </row>
-    <row r="6" spans="1:284" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ5" s="160"/>
+    </row>
+    <row r="6" spans="1:285" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="30" t="s">
         <v>23</v>
@@ -6933,15 +6963,15 @@
       <c r="AO6" s="25"/>
       <c r="AP6" s="25"/>
       <c r="AQ6" s="25"/>
-      <c r="AR6"/>
+      <c r="AR6" s="25"/>
       <c r="AS6"/>
       <c r="AT6"/>
       <c r="AU6"/>
-      <c r="AV6" s="160"/>
+      <c r="AV6"/>
       <c r="AW6" s="160"/>
       <c r="AX6" s="160"/>
       <c r="AY6" s="160"/>
-      <c r="AZ6"/>
+      <c r="AZ6" s="160"/>
       <c r="BA6"/>
       <c r="BB6"/>
       <c r="BC6"/>
@@ -7000,8 +7030,9 @@
       <c r="DD6"/>
       <c r="DE6"/>
       <c r="DF6"/>
-    </row>
-    <row r="7" spans="1:284" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="DG6"/>
+    </row>
+    <row r="7" spans="1:285" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="89"/>
@@ -7029,7 +7060,6 @@
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="19"/>
-      <c r="AR7" s="163"/>
       <c r="AS7" s="163"/>
       <c r="AT7" s="163"/>
       <c r="AU7" s="163"/>
@@ -7096,8 +7126,9 @@
       <c r="DD7" s="163"/>
       <c r="DE7" s="163"/>
       <c r="DF7" s="163"/>
-    </row>
-    <row r="8" spans="1:284" s="46" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="DG7" s="163"/>
+    </row>
+    <row r="8" spans="1:285" s="46" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>17</v>
       </c>
@@ -7209,15 +7240,17 @@
       <c r="AK8" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="AL8" s="206" t="s">
+      <c r="AL8" s="218" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM8" s="206" t="s">
         <v>54</v>
       </c>
-      <c r="AM8" s="207"/>
-      <c r="AN8" s="202"/>
+      <c r="AN8" s="207"/>
       <c r="AO8" s="202"/>
       <c r="AP8" s="202"/>
       <c r="AQ8" s="202"/>
-      <c r="AR8" s="11"/>
+      <c r="AR8" s="202"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
@@ -7284,7 +7317,7 @@
       <c r="DD8" s="11"/>
       <c r="DE8" s="11"/>
       <c r="DF8" s="11"/>
-      <c r="DG8" s="205"/>
+      <c r="DG8" s="11"/>
       <c r="DH8" s="205"/>
       <c r="DI8" s="205"/>
       <c r="DJ8" s="205"/>
@@ -7295,8 +7328,8 @@
       <c r="DO8" s="205"/>
       <c r="DP8" s="205"/>
       <c r="DQ8" s="205"/>
-      <c r="DR8" s="204"/>
-      <c r="DS8" s="203"/>
+      <c r="DR8" s="205"/>
+      <c r="DS8" s="204"/>
       <c r="DT8" s="203"/>
       <c r="DU8" s="203"/>
       <c r="DV8" s="203"/>
@@ -7458,8 +7491,9 @@
       <c r="JV8" s="203"/>
       <c r="JW8" s="203"/>
       <c r="JX8" s="203"/>
-    </row>
-    <row r="9" spans="1:284" s="124" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="JY8" s="203"/>
+    </row>
+    <row r="9" spans="1:285" s="124" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="6"/>
       <c r="C9" s="95"/>
@@ -7491,21 +7525,22 @@
       <c r="AI9" s="153"/>
       <c r="AJ9" s="152"/>
       <c r="AK9" s="152"/>
-      <c r="AL9" s="153"/>
+      <c r="AL9" s="152"/>
       <c r="AM9" s="153"/>
-      <c r="AN9" s="187"/>
-      <c r="AO9" s="153"/>
+      <c r="AN9" s="153"/>
+      <c r="AO9" s="187"/>
       <c r="AP9" s="153"/>
       <c r="AQ9" s="153"/>
-      <c r="AR9" s="128"/>
-      <c r="AV9" s="128"/>
+      <c r="AR9" s="153"/>
+      <c r="AS9" s="128"/>
       <c r="AW9" s="128"/>
       <c r="AX9" s="128"/>
       <c r="AY9" s="128"/>
-      <c r="AZ9" s="129"/>
-      <c r="BA9" s="152"/>
-    </row>
-    <row r="10" spans="1:284" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ9" s="128"/>
+      <c r="BA9" s="129"/>
+      <c r="BB9" s="152"/>
+    </row>
+    <row r="10" spans="1:285" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="6"/>
       <c r="C10" s="95"/>
@@ -7543,23 +7578,23 @@
       <c r="AI10" s="153"/>
       <c r="AJ10" s="152"/>
       <c r="AK10" s="152"/>
-      <c r="AL10" s="153"/>
+      <c r="AL10" s="152"/>
       <c r="AM10" s="153"/>
-      <c r="AN10" s="187"/>
-      <c r="AO10" s="153"/>
+      <c r="AN10" s="153"/>
+      <c r="AO10" s="187"/>
       <c r="AP10" s="153"/>
       <c r="AQ10" s="153"/>
-      <c r="AR10" s="128"/>
-      <c r="AS10" s="124"/>
+      <c r="AR10" s="153"/>
+      <c r="AS10" s="128"/>
       <c r="AT10" s="124"/>
       <c r="AU10" s="124"/>
-      <c r="AV10" s="128"/>
+      <c r="AV10" s="124"/>
       <c r="AW10" s="128"/>
       <c r="AX10" s="128"/>
       <c r="AY10" s="128"/>
-      <c r="AZ10" s="129"/>
-      <c r="BA10" s="152"/>
-      <c r="BB10" s="124"/>
+      <c r="AZ10" s="128"/>
+      <c r="BA10" s="129"/>
+      <c r="BB10" s="152"/>
       <c r="BC10" s="124"/>
       <c r="BD10" s="124"/>
       <c r="BE10" s="124"/>
@@ -7790,8 +7825,9 @@
       <c r="JV10" s="124"/>
       <c r="JW10" s="124"/>
       <c r="JX10" s="124"/>
-    </row>
-    <row r="11" spans="1:284" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="JY10" s="124"/>
+    </row>
+    <row r="11" spans="1:285" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
       <c r="B11" s="6"/>
       <c r="C11" s="95"/>
@@ -7823,21 +7859,22 @@
       <c r="AI11" s="153"/>
       <c r="AJ11" s="152"/>
       <c r="AK11" s="152"/>
-      <c r="AL11" s="153"/>
+      <c r="AL11" s="152"/>
       <c r="AM11" s="153"/>
-      <c r="AN11" s="187"/>
-      <c r="AO11" s="153"/>
+      <c r="AN11" s="153"/>
+      <c r="AO11" s="187"/>
       <c r="AP11" s="153"/>
       <c r="AQ11" s="153"/>
-      <c r="AR11" s="128"/>
-      <c r="AV11" s="128"/>
+      <c r="AR11" s="153"/>
+      <c r="AS11" s="128"/>
       <c r="AW11" s="128"/>
       <c r="AX11" s="128"/>
       <c r="AY11" s="128"/>
-      <c r="AZ11" s="129"/>
-      <c r="BA11" s="152"/>
-    </row>
-    <row r="12" spans="1:284" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ11" s="128"/>
+      <c r="BA11" s="129"/>
+      <c r="BB11" s="152"/>
+    </row>
+    <row r="12" spans="1:285" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="51"/>
       <c r="B12" s="6"/>
       <c r="C12" s="95"/>
@@ -7869,21 +7906,22 @@
       <c r="AI12" s="153"/>
       <c r="AJ12" s="152"/>
       <c r="AK12" s="152"/>
-      <c r="AL12" s="153"/>
-      <c r="AM12" s="208"/>
-      <c r="AN12" s="187"/>
-      <c r="AO12" s="153"/>
+      <c r="AL12" s="152"/>
+      <c r="AM12" s="153"/>
+      <c r="AN12" s="208"/>
+      <c r="AO12" s="187"/>
       <c r="AP12" s="153"/>
       <c r="AQ12" s="153"/>
-      <c r="AR12" s="128"/>
-      <c r="AV12" s="128"/>
+      <c r="AR12" s="153"/>
+      <c r="AS12" s="128"/>
       <c r="AW12" s="128"/>
       <c r="AX12" s="128"/>
       <c r="AY12" s="128"/>
-      <c r="AZ12" s="129"/>
-      <c r="BA12" s="152"/>
-    </row>
-    <row r="13" spans="1:284" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ12" s="128"/>
+      <c r="BA12" s="129"/>
+      <c r="BB12" s="152"/>
+    </row>
+    <row r="13" spans="1:285" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="51"/>
       <c r="B13" s="6"/>
       <c r="C13" s="95"/>
@@ -7915,21 +7953,22 @@
       <c r="AI13" s="153"/>
       <c r="AJ13" s="152"/>
       <c r="AK13" s="152"/>
-      <c r="AL13" s="153"/>
+      <c r="AL13" s="152"/>
       <c r="AM13" s="153"/>
-      <c r="AN13" s="187"/>
-      <c r="AO13" s="153"/>
+      <c r="AN13" s="153"/>
+      <c r="AO13" s="187"/>
       <c r="AP13" s="153"/>
       <c r="AQ13" s="153"/>
-      <c r="AR13" s="128"/>
-      <c r="AV13" s="128"/>
+      <c r="AR13" s="153"/>
+      <c r="AS13" s="128"/>
       <c r="AW13" s="128"/>
       <c r="AX13" s="128"/>
       <c r="AY13" s="128"/>
-      <c r="AZ13" s="129"/>
-      <c r="BA13" s="152"/>
-    </row>
-    <row r="14" spans="1:284" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ13" s="128"/>
+      <c r="BA13" s="129"/>
+      <c r="BB13" s="152"/>
+    </row>
+    <row r="14" spans="1:285" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="51"/>
       <c r="B14" s="6"/>
       <c r="C14" s="95"/>
@@ -7961,21 +8000,22 @@
       <c r="AI14" s="153"/>
       <c r="AJ14" s="152"/>
       <c r="AK14" s="152"/>
-      <c r="AL14" s="153"/>
+      <c r="AL14" s="152"/>
       <c r="AM14" s="153"/>
-      <c r="AN14" s="187"/>
-      <c r="AO14" s="153"/>
+      <c r="AN14" s="153"/>
+      <c r="AO14" s="187"/>
       <c r="AP14" s="153"/>
       <c r="AQ14" s="153"/>
-      <c r="AR14" s="128"/>
-      <c r="AV14" s="128"/>
+      <c r="AR14" s="153"/>
+      <c r="AS14" s="128"/>
       <c r="AW14" s="128"/>
       <c r="AX14" s="128"/>
       <c r="AY14" s="128"/>
-      <c r="AZ14" s="129"/>
-      <c r="BA14" s="152"/>
-    </row>
-    <row r="15" spans="1:284" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ14" s="128"/>
+      <c r="BA14" s="129"/>
+      <c r="BB14" s="152"/>
+    </row>
+    <row r="15" spans="1:285" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="6"/>
       <c r="C15" s="95"/>
@@ -8007,21 +8047,22 @@
       <c r="AI15" s="153"/>
       <c r="AJ15" s="152"/>
       <c r="AK15" s="152"/>
-      <c r="AL15" s="153"/>
+      <c r="AL15" s="152"/>
       <c r="AM15" s="153"/>
-      <c r="AN15" s="187"/>
-      <c r="AO15" s="153"/>
+      <c r="AN15" s="153"/>
+      <c r="AO15" s="187"/>
       <c r="AP15" s="153"/>
       <c r="AQ15" s="153"/>
-      <c r="AR15" s="128"/>
-      <c r="AV15" s="128"/>
+      <c r="AR15" s="153"/>
+      <c r="AS15" s="128"/>
       <c r="AW15" s="128"/>
       <c r="AX15" s="128"/>
       <c r="AY15" s="128"/>
-      <c r="AZ15" s="129"/>
-      <c r="BA15" s="152"/>
-    </row>
-    <row r="16" spans="1:284" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ15" s="128"/>
+      <c r="BA15" s="129"/>
+      <c r="BB15" s="152"/>
+    </row>
+    <row r="16" spans="1:285" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="51"/>
       <c r="B16" s="6"/>
       <c r="C16" s="95"/>
@@ -8053,21 +8094,22 @@
       <c r="AI16" s="153"/>
       <c r="AJ16" s="152"/>
       <c r="AK16" s="152"/>
-      <c r="AL16" s="153"/>
+      <c r="AL16" s="152"/>
       <c r="AM16" s="153"/>
-      <c r="AN16" s="187"/>
-      <c r="AO16" s="153"/>
+      <c r="AN16" s="153"/>
+      <c r="AO16" s="187"/>
       <c r="AP16" s="153"/>
       <c r="AQ16" s="153"/>
-      <c r="AR16" s="128"/>
-      <c r="AV16" s="128"/>
+      <c r="AR16" s="153"/>
+      <c r="AS16" s="128"/>
       <c r="AW16" s="128"/>
       <c r="AX16" s="128"/>
       <c r="AY16" s="128"/>
-      <c r="AZ16" s="129"/>
-      <c r="BA16" s="152"/>
-    </row>
-    <row r="17" spans="1:55" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ16" s="128"/>
+      <c r="BA16" s="129"/>
+      <c r="BB16" s="152"/>
+    </row>
+    <row r="17" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="51"/>
       <c r="B17" s="6"/>
       <c r="C17" s="95"/>
@@ -8099,21 +8141,22 @@
       <c r="AI17" s="153"/>
       <c r="AJ17" s="152"/>
       <c r="AK17" s="152"/>
-      <c r="AL17" s="153"/>
+      <c r="AL17" s="152"/>
       <c r="AM17" s="153"/>
-      <c r="AN17" s="187"/>
-      <c r="AO17" s="153"/>
+      <c r="AN17" s="153"/>
+      <c r="AO17" s="187"/>
       <c r="AP17" s="153"/>
       <c r="AQ17" s="153"/>
-      <c r="AR17" s="128"/>
-      <c r="AV17" s="128"/>
+      <c r="AR17" s="153"/>
+      <c r="AS17" s="128"/>
       <c r="AW17" s="128"/>
       <c r="AX17" s="128"/>
       <c r="AY17" s="128"/>
-      <c r="AZ17" s="129"/>
-      <c r="BA17" s="152"/>
-    </row>
-    <row r="18" spans="1:55" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ17" s="128"/>
+      <c r="BA17" s="129"/>
+      <c r="BB17" s="152"/>
+    </row>
+    <row r="18" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="51"/>
       <c r="B18" s="6"/>
       <c r="C18" s="95"/>
@@ -8145,22 +8188,23 @@
       <c r="AI18" s="153"/>
       <c r="AJ18" s="152"/>
       <c r="AK18" s="152"/>
-      <c r="AL18" s="153"/>
+      <c r="AL18" s="152"/>
       <c r="AM18" s="153"/>
-      <c r="AN18" s="187"/>
-      <c r="AO18" s="153"/>
+      <c r="AN18" s="153"/>
+      <c r="AO18" s="187"/>
       <c r="AP18" s="153"/>
       <c r="AQ18" s="153"/>
-      <c r="AR18" s="128"/>
-      <c r="AV18" s="128"/>
+      <c r="AR18" s="153"/>
+      <c r="AS18" s="128"/>
       <c r="AW18" s="128"/>
       <c r="AX18" s="128"/>
       <c r="AY18" s="128"/>
-      <c r="AZ18" s="129"/>
-      <c r="BA18" s="152"/>
-      <c r="BC18" s="152"/>
-    </row>
-    <row r="19" spans="1:55" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ18" s="128"/>
+      <c r="BA18" s="129"/>
+      <c r="BB18" s="152"/>
+      <c r="BD18" s="152"/>
+    </row>
+    <row r="19" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="51"/>
       <c r="B19" s="6"/>
       <c r="C19" s="95"/>
@@ -8192,21 +8236,22 @@
       <c r="AI19" s="153"/>
       <c r="AJ19" s="152"/>
       <c r="AK19" s="152"/>
-      <c r="AL19" s="153"/>
+      <c r="AL19" s="152"/>
       <c r="AM19" s="153"/>
-      <c r="AN19" s="187"/>
-      <c r="AO19" s="153"/>
+      <c r="AN19" s="153"/>
+      <c r="AO19" s="187"/>
       <c r="AP19" s="153"/>
       <c r="AQ19" s="153"/>
-      <c r="AR19" s="128"/>
-      <c r="AV19" s="128"/>
+      <c r="AR19" s="153"/>
+      <c r="AS19" s="128"/>
       <c r="AW19" s="128"/>
       <c r="AX19" s="128"/>
       <c r="AY19" s="128"/>
-      <c r="AZ19" s="129"/>
-      <c r="BA19" s="152"/>
-    </row>
-    <row r="20" spans="1:55" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ19" s="128"/>
+      <c r="BA19" s="129"/>
+      <c r="BB19" s="152"/>
+    </row>
+    <row r="20" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="51"/>
       <c r="B20" s="6"/>
       <c r="C20" s="95"/>
@@ -8238,21 +8283,22 @@
       <c r="AI20" s="153"/>
       <c r="AJ20" s="152"/>
       <c r="AK20" s="152"/>
-      <c r="AL20" s="153"/>
+      <c r="AL20" s="152"/>
       <c r="AM20" s="153"/>
-      <c r="AN20" s="187"/>
-      <c r="AO20" s="153"/>
+      <c r="AN20" s="153"/>
+      <c r="AO20" s="187"/>
       <c r="AP20" s="153"/>
       <c r="AQ20" s="153"/>
-      <c r="AR20" s="128"/>
-      <c r="AV20" s="128"/>
+      <c r="AR20" s="153"/>
+      <c r="AS20" s="128"/>
       <c r="AW20" s="128"/>
       <c r="AX20" s="128"/>
       <c r="AY20" s="128"/>
-      <c r="AZ20" s="129"/>
-      <c r="BA20" s="152"/>
-    </row>
-    <row r="21" spans="1:55" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ20" s="128"/>
+      <c r="BA20" s="129"/>
+      <c r="BB20" s="152"/>
+    </row>
+    <row r="21" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="51"/>
       <c r="B21" s="6"/>
       <c r="C21" s="95"/>
@@ -8284,21 +8330,22 @@
       <c r="AI21" s="153"/>
       <c r="AJ21" s="152"/>
       <c r="AK21" s="152"/>
-      <c r="AL21" s="153"/>
+      <c r="AL21" s="152"/>
       <c r="AM21" s="153"/>
-      <c r="AN21" s="187"/>
-      <c r="AO21" s="153"/>
+      <c r="AN21" s="153"/>
+      <c r="AO21" s="187"/>
       <c r="AP21" s="153"/>
       <c r="AQ21" s="153"/>
-      <c r="AR21" s="128"/>
-      <c r="AV21" s="128"/>
+      <c r="AR21" s="153"/>
+      <c r="AS21" s="128"/>
       <c r="AW21" s="128"/>
       <c r="AX21" s="128"/>
       <c r="AY21" s="128"/>
-      <c r="AZ21" s="129"/>
-      <c r="BA21" s="152"/>
-    </row>
-    <row r="22" spans="1:55" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ21" s="128"/>
+      <c r="BA21" s="129"/>
+      <c r="BB21" s="152"/>
+    </row>
+    <row r="22" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="51"/>
       <c r="B22" s="6"/>
       <c r="C22" s="95"/>
@@ -8330,21 +8377,22 @@
       <c r="AI22" s="153"/>
       <c r="AJ22" s="152"/>
       <c r="AK22" s="152"/>
-      <c r="AL22" s="153"/>
+      <c r="AL22" s="152"/>
       <c r="AM22" s="153"/>
-      <c r="AN22" s="187"/>
-      <c r="AO22" s="153"/>
+      <c r="AN22" s="153"/>
+      <c r="AO22" s="187"/>
       <c r="AP22" s="153"/>
       <c r="AQ22" s="153"/>
-      <c r="AR22" s="128"/>
-      <c r="AV22" s="128"/>
+      <c r="AR22" s="153"/>
+      <c r="AS22" s="128"/>
       <c r="AW22" s="128"/>
       <c r="AX22" s="128"/>
       <c r="AY22" s="128"/>
-      <c r="AZ22" s="129"/>
-      <c r="BA22" s="152"/>
-    </row>
-    <row r="23" spans="1:55" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ22" s="128"/>
+      <c r="BA22" s="129"/>
+      <c r="BB22" s="152"/>
+    </row>
+    <row r="23" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="51"/>
       <c r="B23" s="6"/>
       <c r="C23" s="95"/>
@@ -8376,21 +8424,22 @@
       <c r="AI23" s="153"/>
       <c r="AJ23" s="152"/>
       <c r="AK23" s="152"/>
-      <c r="AL23" s="153"/>
+      <c r="AL23" s="152"/>
       <c r="AM23" s="153"/>
-      <c r="AN23" s="187"/>
-      <c r="AO23" s="153"/>
+      <c r="AN23" s="153"/>
+      <c r="AO23" s="187"/>
       <c r="AP23" s="153"/>
       <c r="AQ23" s="153"/>
-      <c r="AR23" s="128"/>
-      <c r="AV23" s="128"/>
+      <c r="AR23" s="153"/>
+      <c r="AS23" s="128"/>
       <c r="AW23" s="128"/>
       <c r="AX23" s="128"/>
       <c r="AY23" s="128"/>
-      <c r="AZ23" s="129"/>
-      <c r="BA23" s="152"/>
-    </row>
-    <row r="24" spans="1:55" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ23" s="128"/>
+      <c r="BA23" s="129"/>
+      <c r="BB23" s="152"/>
+    </row>
+    <row r="24" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="51"/>
       <c r="B24" s="6"/>
       <c r="C24" s="95"/>
@@ -8422,21 +8471,22 @@
       <c r="AI24" s="153"/>
       <c r="AJ24" s="152"/>
       <c r="AK24" s="152"/>
-      <c r="AL24" s="153"/>
+      <c r="AL24" s="152"/>
       <c r="AM24" s="153"/>
-      <c r="AN24" s="187"/>
-      <c r="AO24" s="153"/>
+      <c r="AN24" s="153"/>
+      <c r="AO24" s="187"/>
       <c r="AP24" s="153"/>
       <c r="AQ24" s="153"/>
-      <c r="AR24" s="128"/>
-      <c r="AV24" s="128"/>
+      <c r="AR24" s="153"/>
+      <c r="AS24" s="128"/>
       <c r="AW24" s="128"/>
       <c r="AX24" s="128"/>
       <c r="AY24" s="128"/>
-      <c r="AZ24" s="129"/>
-      <c r="BA24" s="152"/>
-    </row>
-    <row r="25" spans="1:55" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ24" s="128"/>
+      <c r="BA24" s="129"/>
+      <c r="BB24" s="152"/>
+    </row>
+    <row r="25" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
       <c r="B25" s="6"/>
       <c r="C25" s="95"/>
@@ -8468,21 +8518,22 @@
       <c r="AI25" s="153"/>
       <c r="AJ25" s="152"/>
       <c r="AK25" s="152"/>
-      <c r="AL25" s="153"/>
+      <c r="AL25" s="152"/>
       <c r="AM25" s="153"/>
-      <c r="AN25" s="187"/>
-      <c r="AO25" s="153"/>
+      <c r="AN25" s="153"/>
+      <c r="AO25" s="187"/>
       <c r="AP25" s="153"/>
       <c r="AQ25" s="153"/>
-      <c r="AR25" s="128"/>
-      <c r="AV25" s="128"/>
+      <c r="AR25" s="153"/>
+      <c r="AS25" s="128"/>
       <c r="AW25" s="128"/>
       <c r="AX25" s="128"/>
       <c r="AY25" s="128"/>
-      <c r="AZ25" s="129"/>
-      <c r="BA25" s="152"/>
-    </row>
-    <row r="26" spans="1:55" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ25" s="128"/>
+      <c r="BA25" s="129"/>
+      <c r="BB25" s="152"/>
+    </row>
+    <row r="26" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="51"/>
       <c r="B26" s="6"/>
       <c r="C26" s="95"/>
@@ -8514,21 +8565,22 @@
       <c r="AI26" s="153"/>
       <c r="AJ26" s="152"/>
       <c r="AK26" s="152"/>
-      <c r="AL26" s="153"/>
+      <c r="AL26" s="152"/>
       <c r="AM26" s="153"/>
-      <c r="AN26" s="187"/>
-      <c r="AO26" s="153"/>
+      <c r="AN26" s="153"/>
+      <c r="AO26" s="187"/>
       <c r="AP26" s="153"/>
       <c r="AQ26" s="153"/>
-      <c r="AR26" s="128"/>
-      <c r="AV26" s="128"/>
+      <c r="AR26" s="153"/>
+      <c r="AS26" s="128"/>
       <c r="AW26" s="128"/>
       <c r="AX26" s="128"/>
       <c r="AY26" s="128"/>
-      <c r="AZ26" s="129"/>
-      <c r="BA26" s="152"/>
-    </row>
-    <row r="27" spans="1:55" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ26" s="128"/>
+      <c r="BA26" s="129"/>
+      <c r="BB26" s="152"/>
+    </row>
+    <row r="27" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="51"/>
       <c r="B27" s="6"/>
       <c r="C27" s="95"/>
@@ -8560,21 +8612,22 @@
       <c r="AI27" s="153"/>
       <c r="AJ27" s="152"/>
       <c r="AK27" s="152"/>
-      <c r="AL27" s="153"/>
+      <c r="AL27" s="152"/>
       <c r="AM27" s="153"/>
-      <c r="AN27" s="187"/>
-      <c r="AO27" s="153"/>
+      <c r="AN27" s="153"/>
+      <c r="AO27" s="187"/>
       <c r="AP27" s="153"/>
       <c r="AQ27" s="153"/>
-      <c r="AR27" s="128"/>
-      <c r="AV27" s="128"/>
+      <c r="AR27" s="153"/>
+      <c r="AS27" s="128"/>
       <c r="AW27" s="128"/>
       <c r="AX27" s="128"/>
       <c r="AY27" s="128"/>
-      <c r="AZ27" s="129"/>
-      <c r="BA27" s="152"/>
-    </row>
-    <row r="28" spans="1:55" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ27" s="128"/>
+      <c r="BA27" s="129"/>
+      <c r="BB27" s="152"/>
+    </row>
+    <row r="28" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="198"/>
       <c r="B28" s="6"/>
       <c r="C28" s="95"/>
@@ -8606,21 +8659,22 @@
       <c r="AI28" s="153"/>
       <c r="AJ28" s="152"/>
       <c r="AK28" s="152"/>
-      <c r="AL28" s="153"/>
+      <c r="AL28" s="152"/>
       <c r="AM28" s="153"/>
-      <c r="AN28" s="187"/>
-      <c r="AO28" s="153"/>
+      <c r="AN28" s="153"/>
+      <c r="AO28" s="187"/>
       <c r="AP28" s="153"/>
       <c r="AQ28" s="153"/>
-      <c r="AR28" s="128"/>
-      <c r="AV28" s="128"/>
+      <c r="AR28" s="153"/>
+      <c r="AS28" s="128"/>
       <c r="AW28" s="128"/>
       <c r="AX28" s="128"/>
       <c r="AY28" s="128"/>
-      <c r="AZ28" s="129"/>
-      <c r="BA28" s="152"/>
-    </row>
-    <row r="29" spans="1:55" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ28" s="128"/>
+      <c r="BA28" s="129"/>
+      <c r="BB28" s="152"/>
+    </row>
+    <row r="29" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="51"/>
       <c r="B29" s="6"/>
       <c r="C29" s="95"/>
@@ -8652,21 +8706,22 @@
       <c r="AI29" s="153"/>
       <c r="AJ29" s="152"/>
       <c r="AK29" s="152"/>
-      <c r="AL29" s="153"/>
+      <c r="AL29" s="152"/>
       <c r="AM29" s="153"/>
-      <c r="AN29" s="187"/>
-      <c r="AO29" s="153"/>
+      <c r="AN29" s="153"/>
+      <c r="AO29" s="187"/>
       <c r="AP29" s="153"/>
       <c r="AQ29" s="153"/>
-      <c r="AR29" s="128"/>
-      <c r="AV29" s="128"/>
+      <c r="AR29" s="153"/>
+      <c r="AS29" s="128"/>
       <c r="AW29" s="128"/>
       <c r="AX29" s="128"/>
       <c r="AY29" s="128"/>
-      <c r="AZ29" s="129"/>
-      <c r="BA29" s="152"/>
-    </row>
-    <row r="30" spans="1:55" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ29" s="128"/>
+      <c r="BA29" s="129"/>
+      <c r="BB29" s="152"/>
+    </row>
+    <row r="30" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="51"/>
       <c r="B30" s="6"/>
       <c r="C30" s="95"/>
@@ -8698,21 +8753,22 @@
       <c r="AI30" s="153"/>
       <c r="AJ30" s="152"/>
       <c r="AK30" s="152"/>
-      <c r="AL30" s="153"/>
+      <c r="AL30" s="152"/>
       <c r="AM30" s="153"/>
-      <c r="AN30" s="187"/>
-      <c r="AO30" s="153"/>
+      <c r="AN30" s="153"/>
+      <c r="AO30" s="187"/>
       <c r="AP30" s="153"/>
       <c r="AQ30" s="153"/>
-      <c r="AR30" s="128"/>
-      <c r="AV30" s="128"/>
+      <c r="AR30" s="153"/>
+      <c r="AS30" s="128"/>
       <c r="AW30" s="128"/>
       <c r="AX30" s="128"/>
       <c r="AY30" s="128"/>
-      <c r="AZ30" s="129"/>
-      <c r="BA30" s="152"/>
-    </row>
-    <row r="31" spans="1:55" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ30" s="128"/>
+      <c r="BA30" s="129"/>
+      <c r="BB30" s="152"/>
+    </row>
+    <row r="31" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="51"/>
       <c r="B31" s="6"/>
       <c r="C31" s="95"/>
@@ -8744,21 +8800,22 @@
       <c r="AI31" s="153"/>
       <c r="AJ31" s="152"/>
       <c r="AK31" s="152"/>
-      <c r="AL31" s="153"/>
+      <c r="AL31" s="152"/>
       <c r="AM31" s="153"/>
-      <c r="AN31" s="187"/>
-      <c r="AO31" s="153"/>
+      <c r="AN31" s="153"/>
+      <c r="AO31" s="187"/>
       <c r="AP31" s="153"/>
       <c r="AQ31" s="153"/>
-      <c r="AR31" s="128"/>
-      <c r="AV31" s="128"/>
+      <c r="AR31" s="153"/>
+      <c r="AS31" s="128"/>
       <c r="AW31" s="128"/>
       <c r="AX31" s="128"/>
       <c r="AY31" s="128"/>
-      <c r="AZ31" s="129"/>
-      <c r="BA31" s="152"/>
-    </row>
-    <row r="32" spans="1:55" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ31" s="128"/>
+      <c r="BA31" s="129"/>
+      <c r="BB31" s="152"/>
+    </row>
+    <row r="32" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="51"/>
       <c r="B32" s="6"/>
       <c r="C32" s="95"/>
@@ -8790,21 +8847,22 @@
       <c r="AI32" s="153"/>
       <c r="AJ32" s="152"/>
       <c r="AK32" s="152"/>
-      <c r="AL32" s="153"/>
+      <c r="AL32" s="152"/>
       <c r="AM32" s="153"/>
-      <c r="AN32" s="187"/>
-      <c r="AO32" s="153"/>
+      <c r="AN32" s="153"/>
+      <c r="AO32" s="187"/>
       <c r="AP32" s="153"/>
       <c r="AQ32" s="153"/>
-      <c r="AR32" s="128"/>
-      <c r="AV32" s="128"/>
+      <c r="AR32" s="153"/>
+      <c r="AS32" s="128"/>
       <c r="AW32" s="128"/>
       <c r="AX32" s="128"/>
       <c r="AY32" s="128"/>
-      <c r="AZ32" s="129"/>
-      <c r="BA32" s="152"/>
-    </row>
-    <row r="33" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ32" s="128"/>
+      <c r="BA32" s="129"/>
+      <c r="BB32" s="152"/>
+    </row>
+    <row r="33" spans="1:57" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="51"/>
       <c r="B33" s="6"/>
       <c r="C33" s="95"/>
@@ -8836,23 +8894,24 @@
       <c r="AI33" s="153"/>
       <c r="AJ33" s="152"/>
       <c r="AK33" s="152"/>
-      <c r="AL33" s="153"/>
+      <c r="AL33" s="152"/>
       <c r="AM33" s="153"/>
-      <c r="AN33" s="187"/>
-      <c r="AO33" s="153"/>
+      <c r="AN33" s="153"/>
+      <c r="AO33" s="187"/>
       <c r="AP33" s="153"/>
       <c r="AQ33" s="153"/>
-      <c r="AR33" s="128"/>
-      <c r="AV33" s="128"/>
+      <c r="AR33" s="153"/>
+      <c r="AS33" s="128"/>
       <c r="AW33" s="128"/>
       <c r="AX33" s="128"/>
       <c r="AY33" s="128"/>
-      <c r="AZ33" s="129"/>
-      <c r="BA33" s="152"/>
-      <c r="BC33" s="152"/>
-      <c r="BD33" s="128"/>
-    </row>
-    <row r="34" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ33" s="128"/>
+      <c r="BA33" s="129"/>
+      <c r="BB33" s="152"/>
+      <c r="BD33" s="152"/>
+      <c r="BE33" s="128"/>
+    </row>
+    <row r="34" spans="1:57" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="51"/>
       <c r="B34" s="6"/>
       <c r="C34" s="95"/>
@@ -8884,21 +8943,22 @@
       <c r="AI34" s="153"/>
       <c r="AJ34" s="152"/>
       <c r="AK34" s="152"/>
-      <c r="AL34" s="153"/>
+      <c r="AL34" s="152"/>
       <c r="AM34" s="153"/>
-      <c r="AN34" s="187"/>
-      <c r="AO34" s="153"/>
+      <c r="AN34" s="153"/>
+      <c r="AO34" s="187"/>
       <c r="AP34" s="153"/>
       <c r="AQ34" s="153"/>
-      <c r="AR34" s="128"/>
-      <c r="AV34" s="128"/>
+      <c r="AR34" s="153"/>
+      <c r="AS34" s="128"/>
       <c r="AW34" s="128"/>
       <c r="AX34" s="128"/>
       <c r="AY34" s="128"/>
-      <c r="AZ34" s="129"/>
-      <c r="BA34" s="152"/>
-    </row>
-    <row r="35" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ34" s="128"/>
+      <c r="BA34" s="129"/>
+      <c r="BB34" s="152"/>
+    </row>
+    <row r="35" spans="1:57" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="6"/>
       <c r="C35" s="95"/>
@@ -8930,21 +8990,22 @@
       <c r="AI35" s="153"/>
       <c r="AJ35" s="152"/>
       <c r="AK35" s="152"/>
-      <c r="AL35" s="153"/>
+      <c r="AL35" s="152"/>
       <c r="AM35" s="153"/>
-      <c r="AN35" s="187"/>
-      <c r="AO35" s="153"/>
+      <c r="AN35" s="153"/>
+      <c r="AO35" s="187"/>
       <c r="AP35" s="153"/>
       <c r="AQ35" s="153"/>
-      <c r="AR35" s="128"/>
-      <c r="AV35" s="128"/>
+      <c r="AR35" s="153"/>
+      <c r="AS35" s="128"/>
       <c r="AW35" s="128"/>
       <c r="AX35" s="128"/>
       <c r="AY35" s="128"/>
-      <c r="AZ35" s="129"/>
-      <c r="BA35" s="152"/>
-    </row>
-    <row r="36" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ35" s="128"/>
+      <c r="BA35" s="129"/>
+      <c r="BB35" s="152"/>
+    </row>
+    <row r="36" spans="1:57" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="51"/>
       <c r="B36" s="6"/>
       <c r="C36" s="95"/>
@@ -8976,21 +9037,22 @@
       <c r="AI36" s="153"/>
       <c r="AJ36" s="152"/>
       <c r="AK36" s="152"/>
-      <c r="AL36" s="153"/>
+      <c r="AL36" s="152"/>
       <c r="AM36" s="153"/>
-      <c r="AN36" s="187"/>
-      <c r="AO36" s="153"/>
+      <c r="AN36" s="153"/>
+      <c r="AO36" s="187"/>
       <c r="AP36" s="153"/>
       <c r="AQ36" s="153"/>
-      <c r="AR36" s="128"/>
-      <c r="AV36" s="128"/>
+      <c r="AR36" s="153"/>
+      <c r="AS36" s="128"/>
       <c r="AW36" s="128"/>
       <c r="AX36" s="128"/>
       <c r="AY36" s="128"/>
-      <c r="AZ36" s="129"/>
-      <c r="BA36" s="152"/>
-    </row>
-    <row r="37" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ36" s="128"/>
+      <c r="BA36" s="129"/>
+      <c r="BB36" s="152"/>
+    </row>
+    <row r="37" spans="1:57" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="51"/>
       <c r="B37" s="6"/>
       <c r="C37" s="95"/>
@@ -9022,21 +9084,22 @@
       <c r="AI37" s="153"/>
       <c r="AJ37" s="152"/>
       <c r="AK37" s="152"/>
-      <c r="AL37" s="153"/>
+      <c r="AL37" s="152"/>
       <c r="AM37" s="153"/>
-      <c r="AN37" s="187"/>
-      <c r="AO37" s="153"/>
+      <c r="AN37" s="153"/>
+      <c r="AO37" s="187"/>
       <c r="AP37" s="153"/>
       <c r="AQ37" s="153"/>
-      <c r="AR37" s="128"/>
-      <c r="AV37" s="128"/>
+      <c r="AR37" s="153"/>
+      <c r="AS37" s="128"/>
       <c r="AW37" s="128"/>
       <c r="AX37" s="128"/>
       <c r="AY37" s="128"/>
-      <c r="AZ37" s="129"/>
-      <c r="BA37" s="152"/>
-    </row>
-    <row r="38" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ37" s="128"/>
+      <c r="BA37" s="129"/>
+      <c r="BB37" s="152"/>
+    </row>
+    <row r="38" spans="1:57" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="51"/>
       <c r="B38" s="6"/>
       <c r="C38" s="95"/>
@@ -9068,21 +9131,22 @@
       <c r="AI38" s="153"/>
       <c r="AJ38" s="152"/>
       <c r="AK38" s="152"/>
-      <c r="AL38" s="153"/>
+      <c r="AL38" s="152"/>
       <c r="AM38" s="153"/>
-      <c r="AN38" s="187"/>
-      <c r="AO38" s="153"/>
+      <c r="AN38" s="153"/>
+      <c r="AO38" s="187"/>
       <c r="AP38" s="153"/>
       <c r="AQ38" s="153"/>
-      <c r="AR38" s="128"/>
-      <c r="AV38" s="128"/>
+      <c r="AR38" s="153"/>
+      <c r="AS38" s="128"/>
       <c r="AW38" s="128"/>
       <c r="AX38" s="128"/>
       <c r="AY38" s="128"/>
-      <c r="AZ38" s="129"/>
-      <c r="BA38" s="152"/>
-    </row>
-    <row r="39" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ38" s="128"/>
+      <c r="BA38" s="129"/>
+      <c r="BB38" s="152"/>
+    </row>
+    <row r="39" spans="1:57" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="51"/>
       <c r="B39" s="6"/>
       <c r="C39" s="95"/>
@@ -9114,21 +9178,22 @@
       <c r="AI39" s="153"/>
       <c r="AJ39" s="152"/>
       <c r="AK39" s="152"/>
-      <c r="AL39" s="153"/>
+      <c r="AL39" s="152"/>
       <c r="AM39" s="153"/>
-      <c r="AN39" s="187"/>
-      <c r="AO39" s="153"/>
+      <c r="AN39" s="153"/>
+      <c r="AO39" s="187"/>
       <c r="AP39" s="153"/>
       <c r="AQ39" s="153"/>
-      <c r="AR39" s="128"/>
-      <c r="AV39" s="128"/>
+      <c r="AR39" s="153"/>
+      <c r="AS39" s="128"/>
       <c r="AW39" s="128"/>
       <c r="AX39" s="128"/>
       <c r="AY39" s="128"/>
-      <c r="AZ39" s="129"/>
-      <c r="BA39" s="152"/>
-    </row>
-    <row r="40" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ39" s="128"/>
+      <c r="BA39" s="129"/>
+      <c r="BB39" s="152"/>
+    </row>
+    <row r="40" spans="1:57" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="51"/>
       <c r="B40" s="6"/>
       <c r="C40" s="95"/>
@@ -9160,21 +9225,22 @@
       <c r="AI40" s="153"/>
       <c r="AJ40" s="152"/>
       <c r="AK40" s="152"/>
-      <c r="AL40" s="153"/>
+      <c r="AL40" s="152"/>
       <c r="AM40" s="153"/>
-      <c r="AN40" s="187"/>
-      <c r="AO40" s="153"/>
+      <c r="AN40" s="153"/>
+      <c r="AO40" s="187"/>
       <c r="AP40" s="153"/>
       <c r="AQ40" s="153"/>
-      <c r="AR40" s="128"/>
-      <c r="AV40" s="128"/>
+      <c r="AR40" s="153"/>
+      <c r="AS40" s="128"/>
       <c r="AW40" s="128"/>
       <c r="AX40" s="128"/>
       <c r="AY40" s="128"/>
-      <c r="AZ40" s="129"/>
-      <c r="BA40" s="152"/>
-    </row>
-    <row r="41" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ40" s="128"/>
+      <c r="BA40" s="129"/>
+      <c r="BB40" s="152"/>
+    </row>
+    <row r="41" spans="1:57" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="51"/>
       <c r="B41" s="6"/>
       <c r="C41" s="95"/>
@@ -9206,21 +9272,22 @@
       <c r="AI41" s="153"/>
       <c r="AJ41" s="152"/>
       <c r="AK41" s="152"/>
-      <c r="AL41" s="153"/>
+      <c r="AL41" s="152"/>
       <c r="AM41" s="153"/>
-      <c r="AN41" s="187"/>
-      <c r="AO41" s="153"/>
+      <c r="AN41" s="153"/>
+      <c r="AO41" s="187"/>
       <c r="AP41" s="153"/>
       <c r="AQ41" s="153"/>
-      <c r="AR41" s="128"/>
-      <c r="AV41" s="128"/>
+      <c r="AR41" s="153"/>
+      <c r="AS41" s="128"/>
       <c r="AW41" s="128"/>
       <c r="AX41" s="128"/>
       <c r="AY41" s="128"/>
-      <c r="AZ41" s="129"/>
-      <c r="BA41" s="152"/>
-    </row>
-    <row r="42" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ41" s="128"/>
+      <c r="BA41" s="129"/>
+      <c r="BB41" s="152"/>
+    </row>
+    <row r="42" spans="1:57" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="51"/>
       <c r="B42" s="6"/>
       <c r="C42" s="95"/>
@@ -9252,21 +9319,22 @@
       <c r="AI42" s="153"/>
       <c r="AJ42" s="152"/>
       <c r="AK42" s="152"/>
-      <c r="AL42" s="153"/>
+      <c r="AL42" s="152"/>
       <c r="AM42" s="153"/>
-      <c r="AN42" s="187"/>
-      <c r="AO42" s="153"/>
+      <c r="AN42" s="153"/>
+      <c r="AO42" s="187"/>
       <c r="AP42" s="153"/>
       <c r="AQ42" s="153"/>
-      <c r="AR42" s="128"/>
-      <c r="AV42" s="128"/>
+      <c r="AR42" s="153"/>
+      <c r="AS42" s="128"/>
       <c r="AW42" s="128"/>
       <c r="AX42" s="128"/>
       <c r="AY42" s="128"/>
-      <c r="AZ42" s="129"/>
-      <c r="BA42" s="152"/>
-    </row>
-    <row r="43" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ42" s="128"/>
+      <c r="BA42" s="129"/>
+      <c r="BB42" s="152"/>
+    </row>
+    <row r="43" spans="1:57" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="51"/>
       <c r="B43" s="6"/>
       <c r="C43" s="95"/>
@@ -9298,21 +9366,22 @@
       <c r="AI43" s="153"/>
       <c r="AJ43" s="152"/>
       <c r="AK43" s="152"/>
-      <c r="AL43" s="153"/>
+      <c r="AL43" s="152"/>
       <c r="AM43" s="153"/>
-      <c r="AN43" s="187"/>
-      <c r="AO43" s="153"/>
+      <c r="AN43" s="153"/>
+      <c r="AO43" s="187"/>
       <c r="AP43" s="153"/>
       <c r="AQ43" s="153"/>
-      <c r="AR43" s="128"/>
-      <c r="AV43" s="128"/>
+      <c r="AR43" s="153"/>
+      <c r="AS43" s="128"/>
       <c r="AW43" s="128"/>
       <c r="AX43" s="128"/>
       <c r="AY43" s="128"/>
-      <c r="AZ43" s="129"/>
-      <c r="BA43" s="152"/>
-    </row>
-    <row r="44" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ43" s="128"/>
+      <c r="BA43" s="129"/>
+      <c r="BB43" s="152"/>
+    </row>
+    <row r="44" spans="1:57" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="51"/>
       <c r="B44" s="6"/>
       <c r="C44" s="95"/>
@@ -9344,21 +9413,22 @@
       <c r="AI44" s="153"/>
       <c r="AJ44" s="152"/>
       <c r="AK44" s="152"/>
-      <c r="AL44" s="153"/>
+      <c r="AL44" s="152"/>
       <c r="AM44" s="153"/>
-      <c r="AN44" s="187"/>
-      <c r="AO44" s="153"/>
+      <c r="AN44" s="153"/>
+      <c r="AO44" s="187"/>
       <c r="AP44" s="153"/>
       <c r="AQ44" s="153"/>
-      <c r="AR44" s="128"/>
-      <c r="AV44" s="128"/>
+      <c r="AR44" s="153"/>
+      <c r="AS44" s="128"/>
       <c r="AW44" s="128"/>
       <c r="AX44" s="128"/>
       <c r="AY44" s="128"/>
-      <c r="AZ44" s="129"/>
-      <c r="BA44" s="152"/>
-    </row>
-    <row r="45" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ44" s="128"/>
+      <c r="BA44" s="129"/>
+      <c r="BB44" s="152"/>
+    </row>
+    <row r="45" spans="1:57" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="51"/>
       <c r="B45" s="6"/>
       <c r="C45" s="95"/>
@@ -9390,21 +9460,22 @@
       <c r="AI45" s="153"/>
       <c r="AJ45" s="152"/>
       <c r="AK45" s="152"/>
-      <c r="AL45" s="153"/>
+      <c r="AL45" s="152"/>
       <c r="AM45" s="153"/>
-      <c r="AN45" s="187"/>
-      <c r="AO45" s="153"/>
+      <c r="AN45" s="153"/>
+      <c r="AO45" s="187"/>
       <c r="AP45" s="153"/>
       <c r="AQ45" s="153"/>
-      <c r="AR45" s="128"/>
-      <c r="AV45" s="128"/>
+      <c r="AR45" s="153"/>
+      <c r="AS45" s="128"/>
       <c r="AW45" s="128"/>
       <c r="AX45" s="128"/>
       <c r="AY45" s="128"/>
-      <c r="AZ45" s="129"/>
-      <c r="BA45" s="152"/>
-    </row>
-    <row r="46" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ45" s="128"/>
+      <c r="BA45" s="129"/>
+      <c r="BB45" s="152"/>
+    </row>
+    <row r="46" spans="1:57" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="51"/>
       <c r="B46" s="6"/>
       <c r="C46" s="95"/>
@@ -9436,21 +9507,22 @@
       <c r="AI46" s="153"/>
       <c r="AJ46" s="152"/>
       <c r="AK46" s="152"/>
-      <c r="AL46" s="153"/>
+      <c r="AL46" s="152"/>
       <c r="AM46" s="153"/>
-      <c r="AN46" s="187"/>
-      <c r="AO46" s="153"/>
+      <c r="AN46" s="153"/>
+      <c r="AO46" s="187"/>
       <c r="AP46" s="153"/>
       <c r="AQ46" s="153"/>
-      <c r="AR46" s="128"/>
-      <c r="AV46" s="128"/>
+      <c r="AR46" s="153"/>
+      <c r="AS46" s="128"/>
       <c r="AW46" s="128"/>
       <c r="AX46" s="128"/>
       <c r="AY46" s="128"/>
-      <c r="AZ46" s="129"/>
-      <c r="BA46" s="152"/>
-    </row>
-    <row r="47" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ46" s="128"/>
+      <c r="BA46" s="129"/>
+      <c r="BB46" s="152"/>
+    </row>
+    <row r="47" spans="1:57" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="51"/>
       <c r="B47" s="6"/>
       <c r="C47" s="95"/>
@@ -9482,21 +9554,22 @@
       <c r="AI47" s="153"/>
       <c r="AJ47" s="152"/>
       <c r="AK47" s="152"/>
-      <c r="AL47" s="153"/>
+      <c r="AL47" s="152"/>
       <c r="AM47" s="153"/>
-      <c r="AN47" s="187"/>
-      <c r="AO47" s="153"/>
+      <c r="AN47" s="153"/>
+      <c r="AO47" s="187"/>
       <c r="AP47" s="153"/>
       <c r="AQ47" s="153"/>
-      <c r="AR47" s="128"/>
-      <c r="AV47" s="128"/>
+      <c r="AR47" s="153"/>
+      <c r="AS47" s="128"/>
       <c r="AW47" s="128"/>
       <c r="AX47" s="128"/>
       <c r="AY47" s="128"/>
-      <c r="AZ47" s="129"/>
-      <c r="BA47" s="152"/>
-    </row>
-    <row r="48" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ47" s="128"/>
+      <c r="BA47" s="129"/>
+      <c r="BB47" s="152"/>
+    </row>
+    <row r="48" spans="1:57" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="51"/>
       <c r="B48" s="6"/>
       <c r="C48" s="95"/>
@@ -9528,21 +9601,22 @@
       <c r="AI48" s="153"/>
       <c r="AJ48" s="152"/>
       <c r="AK48" s="152"/>
-      <c r="AL48" s="153"/>
+      <c r="AL48" s="152"/>
       <c r="AM48" s="153"/>
-      <c r="AN48" s="187"/>
-      <c r="AO48" s="153"/>
+      <c r="AN48" s="153"/>
+      <c r="AO48" s="187"/>
       <c r="AP48" s="153"/>
       <c r="AQ48" s="153"/>
-      <c r="AR48" s="128"/>
-      <c r="AV48" s="128"/>
+      <c r="AR48" s="153"/>
+      <c r="AS48" s="128"/>
       <c r="AW48" s="128"/>
       <c r="AX48" s="128"/>
       <c r="AY48" s="128"/>
-      <c r="AZ48" s="129"/>
-      <c r="BA48" s="152"/>
-    </row>
-    <row r="49" spans="1:53" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ48" s="128"/>
+      <c r="BA48" s="129"/>
+      <c r="BB48" s="152"/>
+    </row>
+    <row r="49" spans="1:54" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="51"/>
       <c r="B49" s="6"/>
       <c r="C49" s="95"/>
@@ -9574,21 +9648,22 @@
       <c r="AI49" s="153"/>
       <c r="AJ49" s="152"/>
       <c r="AK49" s="152"/>
-      <c r="AL49" s="153"/>
+      <c r="AL49" s="152"/>
       <c r="AM49" s="153"/>
-      <c r="AN49" s="187"/>
-      <c r="AO49" s="153"/>
+      <c r="AN49" s="153"/>
+      <c r="AO49" s="187"/>
       <c r="AP49" s="153"/>
       <c r="AQ49" s="153"/>
-      <c r="AR49" s="128"/>
-      <c r="AV49" s="128"/>
+      <c r="AR49" s="153"/>
+      <c r="AS49" s="128"/>
       <c r="AW49" s="128"/>
       <c r="AX49" s="128"/>
       <c r="AY49" s="128"/>
-      <c r="AZ49" s="129"/>
-      <c r="BA49" s="152"/>
-    </row>
-    <row r="50" spans="1:53" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ49" s="128"/>
+      <c r="BA49" s="129"/>
+      <c r="BB49" s="152"/>
+    </row>
+    <row r="50" spans="1:54" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="51"/>
       <c r="B50" s="6"/>
       <c r="C50" s="95"/>
@@ -9620,21 +9695,22 @@
       <c r="AI50" s="153"/>
       <c r="AJ50" s="152"/>
       <c r="AK50" s="152"/>
-      <c r="AL50" s="153"/>
+      <c r="AL50" s="152"/>
       <c r="AM50" s="153"/>
-      <c r="AN50" s="187"/>
-      <c r="AO50" s="153"/>
+      <c r="AN50" s="153"/>
+      <c r="AO50" s="187"/>
       <c r="AP50" s="153"/>
       <c r="AQ50" s="153"/>
-      <c r="AR50" s="128"/>
-      <c r="AV50" s="128"/>
+      <c r="AR50" s="153"/>
+      <c r="AS50" s="128"/>
       <c r="AW50" s="128"/>
       <c r="AX50" s="128"/>
       <c r="AY50" s="128"/>
-      <c r="AZ50" s="129"/>
-      <c r="BA50" s="152"/>
-    </row>
-    <row r="51" spans="1:53" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ50" s="128"/>
+      <c r="BA50" s="129"/>
+      <c r="BB50" s="152"/>
+    </row>
+    <row r="51" spans="1:54" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="51"/>
       <c r="B51" s="6"/>
       <c r="C51" s="95"/>
@@ -9666,21 +9742,22 @@
       <c r="AI51" s="153"/>
       <c r="AJ51" s="152"/>
       <c r="AK51" s="152"/>
-      <c r="AL51" s="153"/>
+      <c r="AL51" s="152"/>
       <c r="AM51" s="153"/>
-      <c r="AN51" s="187"/>
-      <c r="AO51" s="153"/>
+      <c r="AN51" s="153"/>
+      <c r="AO51" s="187"/>
       <c r="AP51" s="153"/>
       <c r="AQ51" s="153"/>
-      <c r="AR51" s="128"/>
-      <c r="AV51" s="128"/>
+      <c r="AR51" s="153"/>
+      <c r="AS51" s="128"/>
       <c r="AW51" s="128"/>
       <c r="AX51" s="128"/>
       <c r="AY51" s="128"/>
-      <c r="AZ51" s="129"/>
-      <c r="BA51" s="152"/>
-    </row>
-    <row r="52" spans="1:53" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ51" s="128"/>
+      <c r="BA51" s="129"/>
+      <c r="BB51" s="152"/>
+    </row>
+    <row r="52" spans="1:54" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="51"/>
       <c r="B52" s="6"/>
       <c r="C52" s="95"/>
@@ -9712,20 +9789,21 @@
       <c r="AI52" s="153"/>
       <c r="AJ52" s="152"/>
       <c r="AK52" s="152"/>
-      <c r="AL52" s="153"/>
+      <c r="AL52" s="152"/>
       <c r="AM52" s="153"/>
       <c r="AN52" s="153"/>
       <c r="AO52" s="153"/>
       <c r="AP52" s="153"/>
       <c r="AQ52" s="153"/>
-      <c r="AR52" s="128"/>
-      <c r="AV52" s="128"/>
+      <c r="AR52" s="153"/>
+      <c r="AS52" s="128"/>
       <c r="AW52" s="128"/>
       <c r="AX52" s="128"/>
       <c r="AY52" s="128"/>
-      <c r="AZ52" s="129"/>
-    </row>
-    <row r="53" spans="1:53" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ52" s="128"/>
+      <c r="BA52" s="129"/>
+    </row>
+    <row r="53" spans="1:54" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="51"/>
       <c r="B53" s="6"/>
       <c r="C53" s="95"/>
@@ -9754,15 +9832,15 @@
       <c r="AG53" s="128"/>
       <c r="AH53" s="128"/>
       <c r="AI53" s="128"/>
-      <c r="AL53" s="128"/>
       <c r="AM53" s="128"/>
       <c r="AN53" s="128"/>
       <c r="AO53" s="128"/>
       <c r="AP53" s="128"/>
       <c r="AQ53" s="128"/>
       <c r="AR53" s="128"/>
-    </row>
-    <row r="54" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS53" s="128"/>
+    </row>
+    <row r="54" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="192"/>
       <c r="B54" s="193"/>
       <c r="C54" s="194"/>
@@ -9801,14 +9879,15 @@
       <c r="AJ54" s="196"/>
       <c r="AK54" s="196"/>
       <c r="AL54" s="196"/>
-      <c r="AM54" s="49"/>
+      <c r="AM54" s="196"/>
       <c r="AN54" s="49"/>
       <c r="AO54" s="49"/>
       <c r="AP54" s="49"/>
       <c r="AQ54" s="49"/>
-      <c r="AR54" s="61"/>
-    </row>
-    <row r="55" spans="1:53" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AR54" s="49"/>
+      <c r="AS54" s="61"/>
+    </row>
+    <row r="55" spans="1:54" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="51"/>
       <c r="B55" s="6"/>
       <c r="C55" s="95"/>
@@ -9840,15 +9919,16 @@
       <c r="AI55" s="153"/>
       <c r="AJ55" s="152"/>
       <c r="AK55" s="152"/>
-      <c r="AL55" s="153"/>
+      <c r="AL55" s="152"/>
       <c r="AM55" s="153"/>
       <c r="AN55" s="153"/>
       <c r="AO55" s="153"/>
       <c r="AP55" s="153"/>
       <c r="AQ55" s="153"/>
-      <c r="AR55" s="128"/>
-    </row>
-    <row r="56" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR55" s="153"/>
+      <c r="AS55" s="128"/>
+    </row>
+    <row r="56" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="47"/>
       <c r="B56" s="39"/>
       <c r="C56" s="90"/>
@@ -9892,9 +9972,10 @@
       <c r="AO56" s="49"/>
       <c r="AP56" s="49"/>
       <c r="AQ56" s="49"/>
-      <c r="AR56" s="61"/>
-    </row>
-    <row r="57" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR56" s="49"/>
+      <c r="AS56" s="61"/>
+    </row>
+    <row r="57" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="47"/>
       <c r="B57" s="39"/>
       <c r="C57" s="90"/>
@@ -9938,8 +10019,9 @@
       <c r="AO57" s="49"/>
       <c r="AP57" s="49"/>
       <c r="AQ57" s="49"/>
-    </row>
-    <row r="58" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR57" s="49"/>
+    </row>
+    <row r="58" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="47"/>
       <c r="B58" s="39"/>
       <c r="C58" s="90"/>
@@ -9983,8 +10065,9 @@
       <c r="AO58" s="49"/>
       <c r="AP58" s="49"/>
       <c r="AQ58" s="49"/>
-    </row>
-    <row r="59" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR58" s="49"/>
+    </row>
+    <row r="59" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="47"/>
       <c r="B59" s="39"/>
       <c r="C59" s="90"/>
@@ -10028,8 +10111,9 @@
       <c r="AO59" s="49"/>
       <c r="AP59" s="49"/>
       <c r="AQ59" s="49"/>
-    </row>
-    <row r="60" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR59" s="49"/>
+    </row>
+    <row r="60" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="47"/>
       <c r="B60" s="39"/>
       <c r="C60" s="90"/>
@@ -10073,8 +10157,9 @@
       <c r="AO60" s="49"/>
       <c r="AP60" s="49"/>
       <c r="AQ60" s="49"/>
-    </row>
-    <row r="61" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR60" s="49"/>
+    </row>
+    <row r="61" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="47"/>
       <c r="B61" s="39"/>
       <c r="C61" s="90"/>
@@ -10118,8 +10203,9 @@
       <c r="AO61" s="49"/>
       <c r="AP61" s="49"/>
       <c r="AQ61" s="49"/>
-    </row>
-    <row r="62" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR61" s="49"/>
+    </row>
+    <row r="62" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="47"/>
       <c r="B62" s="39"/>
       <c r="C62" s="90"/>
@@ -10163,8 +10249,9 @@
       <c r="AO62" s="49"/>
       <c r="AP62" s="49"/>
       <c r="AQ62" s="49"/>
-    </row>
-    <row r="63" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR62" s="49"/>
+    </row>
+    <row r="63" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="40"/>
       <c r="B63" s="39"/>
       <c r="C63" s="90"/>
@@ -10208,8 +10295,9 @@
       <c r="AO63" s="49"/>
       <c r="AP63" s="49"/>
       <c r="AQ63" s="49"/>
-    </row>
-    <row r="64" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR63" s="49"/>
+    </row>
+    <row r="64" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="26"/>
       <c r="C64" s="90"/>
@@ -10253,8 +10341,9 @@
       <c r="AO64" s="49"/>
       <c r="AP64" s="49"/>
       <c r="AQ64" s="49"/>
-    </row>
-    <row r="65" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR64" s="49"/>
+    </row>
+    <row r="65" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="26"/>
       <c r="C65" s="90"/>
@@ -10298,8 +10387,9 @@
       <c r="AO65" s="49"/>
       <c r="AP65" s="49"/>
       <c r="AQ65" s="49"/>
-    </row>
-    <row r="66" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR65" s="49"/>
+    </row>
+    <row r="66" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="26"/>
       <c r="C66" s="90"/>
@@ -10343,8 +10433,9 @@
       <c r="AO66" s="49"/>
       <c r="AP66" s="49"/>
       <c r="AQ66" s="49"/>
-    </row>
-    <row r="67" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR66" s="49"/>
+    </row>
+    <row r="67" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="36"/>
       <c r="B67" s="31"/>
       <c r="C67" s="88"/>
@@ -10388,8 +10479,9 @@
       <c r="AO67" s="49"/>
       <c r="AP67" s="49"/>
       <c r="AQ67" s="49"/>
-    </row>
-    <row r="68" spans="1:43" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AR67" s="49"/>
+    </row>
+    <row r="68" spans="1:44" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="91"/>
@@ -10433,8 +10525,9 @@
       <c r="AO68" s="49"/>
       <c r="AP68" s="49"/>
       <c r="AQ68" s="49"/>
-    </row>
-    <row r="69" spans="1:43" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AR68" s="49"/>
+    </row>
+    <row r="69" spans="1:44" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="21"/>
       <c r="B69" s="20"/>
       <c r="C69" s="92"/>
@@ -10478,8 +10571,9 @@
       <c r="AO69" s="20"/>
       <c r="AP69" s="20"/>
       <c r="AQ69" s="20"/>
-    </row>
-    <row r="70" spans="1:43" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AR69" s="20"/>
+    </row>
+    <row r="70" spans="1:44" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="32"/>
       <c r="B70" s="25"/>
       <c r="C70" s="86"/>
@@ -10523,8 +10617,9 @@
       <c r="AO70" s="25"/>
       <c r="AP70" s="25"/>
       <c r="AQ70" s="25"/>
-    </row>
-    <row r="71" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR70" s="25"/>
+    </row>
+    <row r="71" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="26"/>
       <c r="C71" s="90"/>
@@ -10562,14 +10657,15 @@
       <c r="AI71" s="33"/>
       <c r="AJ71" s="33"/>
       <c r="AK71" s="41"/>
-      <c r="AL71" s="33"/>
-      <c r="AM71" s="41"/>
+      <c r="AL71" s="41"/>
+      <c r="AM71" s="33"/>
       <c r="AN71" s="41"/>
       <c r="AO71" s="41"/>
       <c r="AP71" s="41"/>
       <c r="AQ71" s="41"/>
-    </row>
-    <row r="72" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR71" s="41"/>
+    </row>
+    <row r="72" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="26"/>
       <c r="C72" s="90"/>
@@ -10607,14 +10703,15 @@
       <c r="AI72" s="33"/>
       <c r="AJ72" s="33"/>
       <c r="AK72" s="41"/>
-      <c r="AL72" s="33"/>
-      <c r="AM72" s="41"/>
+      <c r="AL72" s="41"/>
+      <c r="AM72" s="33"/>
       <c r="AN72" s="41"/>
       <c r="AO72" s="41"/>
       <c r="AP72" s="41"/>
       <c r="AQ72" s="41"/>
-    </row>
-    <row r="73" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR72" s="41"/>
+    </row>
+    <row r="73" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="36"/>
       <c r="B73" s="31"/>
       <c r="C73" s="88"/>
@@ -10658,8 +10755,9 @@
       <c r="AO73" s="31"/>
       <c r="AP73" s="31"/>
       <c r="AQ73" s="31"/>
-    </row>
-    <row r="74" spans="1:43" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AR73" s="31"/>
+    </row>
+    <row r="74" spans="1:44" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="91"/>
@@ -10703,8 +10801,9 @@
       <c r="AO74" s="37"/>
       <c r="AP74" s="37"/>
       <c r="AQ74" s="37"/>
-    </row>
-    <row r="75" spans="1:43" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AR74" s="37"/>
+    </row>
+    <row r="75" spans="1:44" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="93"/>
@@ -10748,8 +10847,9 @@
       <c r="AO75" s="23"/>
       <c r="AP75" s="23"/>
       <c r="AQ75" s="23"/>
-    </row>
-    <row r="76" spans="1:43" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AR75" s="23"/>
+    </row>
+    <row r="76" spans="1:44" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
       <c r="B76" s="25"/>
       <c r="C76" s="86"/>
@@ -10793,8 +10893,9 @@
       <c r="AO76" s="25"/>
       <c r="AP76" s="25"/>
       <c r="AQ76" s="25"/>
-    </row>
-    <row r="77" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR76" s="25"/>
+    </row>
+    <row r="77" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="26"/>
       <c r="C77" s="90"/>
@@ -10832,14 +10933,15 @@
       <c r="AI77" s="33"/>
       <c r="AJ77" s="33"/>
       <c r="AK77" s="41"/>
-      <c r="AL77" s="33"/>
-      <c r="AM77" s="41"/>
+      <c r="AL77" s="41"/>
+      <c r="AM77" s="33"/>
       <c r="AN77" s="41"/>
       <c r="AO77" s="41"/>
       <c r="AP77" s="41"/>
       <c r="AQ77" s="41"/>
-    </row>
-    <row r="78" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR77" s="41"/>
+    </row>
+    <row r="78" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="26"/>
       <c r="C78" s="90"/>
@@ -10877,14 +10979,15 @@
       <c r="AI78" s="33"/>
       <c r="AJ78" s="33"/>
       <c r="AK78" s="41"/>
-      <c r="AL78" s="33"/>
-      <c r="AM78" s="41"/>
+      <c r="AL78" s="41"/>
+      <c r="AM78" s="33"/>
       <c r="AN78" s="41"/>
       <c r="AO78" s="41"/>
       <c r="AP78" s="41"/>
       <c r="AQ78" s="41"/>
-    </row>
-    <row r="79" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR78" s="41"/>
+    </row>
+    <row r="79" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="36"/>
       <c r="B79" s="31"/>
       <c r="C79" s="88"/>
@@ -10928,8 +11031,9 @@
       <c r="AO79" s="31"/>
       <c r="AP79" s="31"/>
       <c r="AQ79" s="31"/>
-    </row>
-    <row r="80" spans="1:43" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AR79" s="31"/>
+    </row>
+    <row r="80" spans="1:44" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="91"/>
@@ -10973,8 +11077,9 @@
       <c r="AO80" s="37"/>
       <c r="AP80" s="37"/>
       <c r="AQ80" s="37"/>
-    </row>
-    <row r="81" spans="1:43" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AR80" s="37"/>
+    </row>
+    <row r="81" spans="1:44" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="93"/>
@@ -11018,8 +11123,9 @@
       <c r="AO81" s="23"/>
       <c r="AP81" s="23"/>
       <c r="AQ81" s="23"/>
-    </row>
-    <row r="82" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="AR81" s="23"/>
+    </row>
+    <row r="82" spans="1:44" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
       <c r="B82" s="25"/>
       <c r="C82" s="86"/>
@@ -11063,8 +11169,9 @@
       <c r="AO82" s="25"/>
       <c r="AP82" s="25"/>
       <c r="AQ82" s="25"/>
-    </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR82" s="25"/>
+    </row>
+    <row r="83" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="26"/>
       <c r="C83" s="90"/>
@@ -11102,14 +11209,15 @@
       <c r="AI83" s="33"/>
       <c r="AJ83" s="33"/>
       <c r="AK83" s="41"/>
-      <c r="AL83" s="33"/>
-      <c r="AM83" s="41"/>
+      <c r="AL83" s="41"/>
+      <c r="AM83" s="33"/>
       <c r="AN83" s="41"/>
       <c r="AO83" s="41"/>
       <c r="AP83" s="41"/>
       <c r="AQ83" s="41"/>
-    </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR83" s="41"/>
+    </row>
+    <row r="84" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="26"/>
       <c r="C84" s="90"/>
@@ -11147,14 +11255,15 @@
       <c r="AI84" s="33"/>
       <c r="AJ84" s="33"/>
       <c r="AK84" s="41"/>
-      <c r="AL84" s="33"/>
-      <c r="AM84" s="41"/>
+      <c r="AL84" s="41"/>
+      <c r="AM84" s="33"/>
       <c r="AN84" s="41"/>
       <c r="AO84" s="41"/>
       <c r="AP84" s="41"/>
       <c r="AQ84" s="41"/>
-    </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR84" s="41"/>
+    </row>
+    <row r="85" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A85" s="36"/>
       <c r="B85" s="31"/>
       <c r="C85" s="88"/>
@@ -11198,8 +11307,9 @@
       <c r="AO85" s="31"/>
       <c r="AP85" s="31"/>
       <c r="AQ85" s="31"/>
-    </row>
-    <row r="86" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="AR85" s="31"/>
+    </row>
+    <row r="86" spans="1:44" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="91"/>
@@ -11243,8 +11353,9 @@
       <c r="AO86" s="37"/>
       <c r="AP86" s="37"/>
       <c r="AQ86" s="37"/>
-    </row>
-    <row r="87" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="AR86" s="37"/>
+    </row>
+    <row r="87" spans="1:44" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="22"/>
       <c r="B87" s="22"/>
       <c r="C87" s="93"/>
@@ -11288,8 +11399,9 @@
       <c r="AO87" s="23"/>
       <c r="AP87" s="23"/>
       <c r="AQ87" s="23"/>
-    </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR87" s="23"/>
+    </row>
+    <row r="88" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A88" s="35"/>
       <c r="B88" s="31"/>
       <c r="C88" s="88"/>
@@ -11333,8 +11445,9 @@
       <c r="AO88" s="31"/>
       <c r="AP88" s="31"/>
       <c r="AQ88" s="31"/>
-    </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR88" s="31"/>
+    </row>
+    <row r="89" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A89" s="36"/>
       <c r="B89" s="26"/>
       <c r="C89" s="91"/>
@@ -11378,8 +11491,9 @@
       <c r="AO89" s="37"/>
       <c r="AP89" s="37"/>
       <c r="AQ89" s="37"/>
-    </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR89" s="37"/>
+    </row>
+    <row r="91" spans="1:44" x14ac:dyDescent="0.2">
       <c r="X91" s="9"/>
       <c r="AE91" s="9"/>
       <c r="AF91" s="9"/>
@@ -11400,7 +11514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CN94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="15360" windowHeight="7590" tabRatio="789" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="15360" windowHeight="7590" tabRatio="789"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA TOTAL" sheetId="27" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <definedName name="TCF">[2]FOR!$B$8</definedName>
     <definedName name="VSDF">[2]FOR!$B$7</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="309">
   <si>
     <t>SUBTOTAL</t>
   </si>
@@ -329,12 +329,6 @@
     <t>No. TRABAJADOR</t>
   </si>
   <si>
-    <t>COMISIÓN  OPERADORA (4%)</t>
-  </si>
-  <si>
-    <t>COMISIÓN ASIMILADOS (4%)</t>
-  </si>
-  <si>
     <t>SUELDO ORDINARIO REAL</t>
   </si>
   <si>
@@ -344,9 +338,6 @@
     <t>ABORDO</t>
   </si>
   <si>
-    <t>DIAS DESCANSO</t>
-  </si>
-  <si>
     <t>DIAS  ABORDO</t>
   </si>
   <si>
@@ -737,9 +728,6 @@
     <t>SUBSIDIO</t>
   </si>
   <si>
-    <t>RETENCIONES   OPERADORA</t>
-  </si>
-  <si>
     <t>137798103060017584</t>
   </si>
   <si>
@@ -1044,6 +1032,48 @@
   </si>
   <si>
     <t>PRESTAMO</t>
+  </si>
+  <si>
+    <t>RCV</t>
+  </si>
+  <si>
+    <t>3 % S/NÓM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL </t>
+  </si>
+  <si>
+    <t>COSTO SOCIAL REAL</t>
+  </si>
+  <si>
+    <t>DIAS  DESCANSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCUENTO SA </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RETENCIONES      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="9"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>(ISR, INFONAVIT)</t>
+    </r>
+  </si>
+  <si>
+    <t>COMISIÓN  OPERADORA 2%)</t>
+  </si>
+  <si>
+    <t>COMISIÓN ASIMILADOS (2%)</t>
+  </si>
+  <si>
+    <t>DESCUENTO ASIMILADOS</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1087,17 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;???_-;_-@_-"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1355,6 +1392,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="9"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1419,18 +1469,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1550,15 +1599,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF0000FD"/>
       </left>
       <right/>
@@ -1571,1949 +1611,1949 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1487">
+  <cellStyleXfs count="1488">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="200" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="200" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="200" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="200" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1095"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="1095" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1107"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="1107" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1107" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1113"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1113" applyFont="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="200" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="200" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="200" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="200" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1095"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="1095" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1107"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="1107" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1107" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1113"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1113" applyFont="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1113" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1113" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1113" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1113" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1113" applyFont="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1113" applyFont="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="1" xfId="189" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="189" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="6" borderId="1" xfId="189" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="189"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="189" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1113" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1113" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1113" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1113" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1113" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="189" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="36" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="189" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="6" borderId="1" xfId="189" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="189"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="189" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1113" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1113" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1113" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1113" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1113" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="37" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="189" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="189" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="189" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="189" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="189" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="1092" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="189" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1113" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1113" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1113" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="200" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1095" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="1107" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="1092" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="189" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="189" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="189" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="189" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="189" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="1092" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="189" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1113" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1113" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1113" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="200" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1095" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="1107" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="1092" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="36" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="37" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="29" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="30" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="189" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="189" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="189" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="189" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="189" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="189" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="189" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="42" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="189" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="189" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="189" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="1" xfId="189" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="189" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="189" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="189" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="189" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="15" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="189" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="189" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1113" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="189" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="1" xfId="189" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="189" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="189" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="14" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="189" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1113" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="1113" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="0" xfId="1318" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="0" xfId="1318" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1113" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1113" applyAlignment="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1113" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1113" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1113" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="1113" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1113" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="39" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1113" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1113" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="40" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1487">
+  <cellStyles count="1488">
     <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Millares 2" xfId="3"/>
@@ -3704,6 +3744,7 @@
     <cellStyle name="Moneda 4" xfId="188"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="189"/>
+    <cellStyle name="Normal 10 4" xfId="1487"/>
     <cellStyle name="Normal 100" xfId="190"/>
     <cellStyle name="Normal 100 2" xfId="191"/>
     <cellStyle name="Normal 101" xfId="192"/>
@@ -5085,6 +5126,74 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>624416</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>853888</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="10 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="8388" t="5798" r="7443" b="8713"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12075583" y="412750"/>
+          <a:ext cx="1139638" cy="970430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5802,9 +5911,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BE12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R11" sqref="R11:R12"/>
+      <selection pane="bottomLeft" activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5822,16 +5931,16 @@
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
     <col min="16" max="16" width="18.28515625" customWidth="1"/>
     <col min="17" max="17" width="13.140625" customWidth="1"/>
     <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" customWidth="1"/>
-    <col min="21" max="21" width="13" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.85546875" customWidth="1"/>
     <col min="22" max="22" width="15.42578125" customWidth="1"/>
-    <col min="23" max="23" width="3.7109375" customWidth="1"/>
+    <col min="23" max="23" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -5923,6 +6032,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
       <c r="AB2" s="57"/>
       <c r="AC2" s="57"/>
       <c r="AD2" s="57"/>
@@ -5980,7 +6090,7 @@
       <c r="X3" s="43"/>
       <c r="Y3" s="42"/>
       <c r="Z3" s="42"/>
-      <c r="AA3" s="1"/>
+      <c r="AA3" s="42"/>
       <c r="AB3" s="57"/>
       <c r="AC3" s="57"/>
       <c r="AD3" s="57"/>
@@ -6038,7 +6148,7 @@
       <c r="X4" s="43"/>
       <c r="Y4" s="42"/>
       <c r="Z4" s="42"/>
-      <c r="AA4" s="1"/>
+      <c r="AA4" s="42"/>
       <c r="AB4" s="57"/>
       <c r="AC4" s="57"/>
       <c r="AD4" s="57"/>
@@ -6096,7 +6206,7 @@
       <c r="X5" s="43"/>
       <c r="Y5" s="42"/>
       <c r="Z5" s="42"/>
-      <c r="AA5" s="1"/>
+      <c r="AA5" s="42"/>
       <c r="AB5" s="57"/>
       <c r="AC5" s="57"/>
       <c r="AD5" s="57"/>
@@ -6154,7 +6264,7 @@
       <c r="X6" s="43"/>
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
-      <c r="AA6" s="1"/>
+      <c r="AA6" s="42"/>
       <c r="AB6" s="57"/>
       <c r="AC6" s="57"/>
       <c r="AD6" s="57"/>
@@ -6212,7 +6322,7 @@
       <c r="X7" s="43"/>
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
-      <c r="AA7" s="1"/>
+      <c r="AA7" s="42"/>
       <c r="AB7" s="57"/>
       <c r="AC7" s="57"/>
       <c r="AD7" s="57"/>
@@ -6268,9 +6378,9 @@
       <c r="V8" s="67"/>
       <c r="W8" s="67"/>
       <c r="X8" s="67"/>
-      <c r="Y8" s="164"/>
-      <c r="Z8" s="164"/>
-      <c r="AA8" s="1"/>
+      <c r="Y8" s="162"/>
+      <c r="Z8" s="162"/>
+      <c r="AA8" s="162"/>
       <c r="AB8" s="57"/>
       <c r="AC8" s="57"/>
       <c r="AD8" s="57"/>
@@ -6318,7 +6428,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="69"/>
       <c r="P9" s="69"/>
-      <c r="Q9" s="165"/>
+      <c r="Q9" s="163"/>
       <c r="R9" s="45"/>
       <c r="S9" s="45"/>
       <c r="T9" s="45"/>
@@ -6328,6 +6438,7 @@
       <c r="X9" s="45"/>
       <c r="Y9" s="45"/>
       <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
       <c r="AB9" s="57"/>
       <c r="AC9" s="57"/>
       <c r="AD9" s="57"/>
@@ -6360,7 +6471,7 @@
       <c r="BE9" s="57"/>
     </row>
     <row r="10" spans="2:57" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="191"/>
+      <c r="B10" s="189"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="5"/>
@@ -6375,7 +6486,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="69"/>
       <c r="P10" s="69"/>
-      <c r="Q10" s="165"/>
+      <c r="Q10" s="163"/>
       <c r="R10" s="45"/>
       <c r="S10" s="45"/>
       <c r="T10" s="45"/>
@@ -6385,6 +6496,7 @@
       <c r="X10" s="45"/>
       <c r="Y10" s="45"/>
       <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
       <c r="AB10" s="57"/>
       <c r="AC10" s="57"/>
       <c r="AD10" s="57"/>
@@ -6436,60 +6548,61 @@
         <v>31</v>
       </c>
       <c r="H11" s="210" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I11" s="210" t="s">
-        <v>70</v>
+        <v>303</v>
       </c>
       <c r="J11" s="210" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="210" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L11" s="210" t="s">
         <v>5</v>
       </c>
       <c r="M11" s="210" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N11" s="210" t="s">
-        <v>79</v>
-      </c>
-      <c r="O11" s="210" t="s">
-        <v>66</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O11" s="206"/>
       <c r="P11" s="210" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="210" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="210" t="s">
+      <c r="S11" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="210" t="s">
-        <v>200</v>
-      </c>
-      <c r="S11" s="132"/>
       <c r="T11" s="210" t="s">
-        <v>64</v>
-      </c>
-      <c r="U11" s="210" t="s">
-        <v>65</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="U11" s="132"/>
       <c r="V11" s="210" t="s">
+        <v>306</v>
+      </c>
+      <c r="W11" s="210" t="s">
+        <v>307</v>
+      </c>
+      <c r="X11" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="W11" s="132"/>
-      <c r="X11" s="210" t="s">
+      <c r="Y11" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="Y11" s="209" t="s">
+      <c r="Z11" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="Z11" s="210" t="s">
+      <c r="AA11" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="AB11" s="130"/>
-      <c r="AC11" s="130"/>
       <c r="AD11" s="130"/>
       <c r="AE11" s="130"/>
       <c r="AF11" s="130"/>
@@ -6517,7 +6630,6 @@
       <c r="BB11" s="130"/>
       <c r="BC11" s="130"/>
       <c r="BD11" s="130"/>
-      <c r="BE11" s="130"/>
     </row>
     <row r="12" spans="2:57" s="133" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="210"/>
@@ -6532,22 +6644,26 @@
       <c r="K12" s="210"/>
       <c r="L12" s="210"/>
       <c r="M12" s="210"/>
-      <c r="N12" s="210" t="s">
-        <v>79</v>
-      </c>
-      <c r="O12" s="210"/>
-      <c r="P12" s="210"/>
+      <c r="N12" s="210"/>
+      <c r="O12" s="206" t="s">
+        <v>308</v>
+      </c>
+      <c r="P12" s="210" t="s">
+        <v>76</v>
+      </c>
       <c r="Q12" s="210"/>
       <c r="R12" s="210"/>
-      <c r="S12" s="132"/>
+      <c r="S12" s="210"/>
       <c r="T12" s="210"/>
-      <c r="U12" s="210"/>
+      <c r="U12" s="132"/>
       <c r="V12" s="210"/>
-      <c r="W12" s="132"/>
+      <c r="W12" s="210"/>
       <c r="X12" s="210"/>
-      <c r="Y12" s="209"/>
-      <c r="Z12" s="210"/>
-      <c r="AA12" s="134"/>
+      <c r="Y12" s="210"/>
+      <c r="Z12" s="209"/>
+      <c r="AA12" s="210"/>
+      <c r="AB12" s="134"/>
+      <c r="AC12" s="134"/>
       <c r="AD12" s="135"/>
       <c r="AE12" s="135"/>
       <c r="AF12" s="135"/>
@@ -6575,10 +6691,10 @@
       <c r="BB12" s="135"/>
       <c r="BC12" s="135"/>
       <c r="BD12" s="135"/>
-      <c r="BE12" s="135"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="AA11:AA12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="T11:T12"/>
@@ -6588,6 +6704,7 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="N11:N12"/>
+    <mergeCell ref="S11:S12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
@@ -6595,13 +6712,12 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="O11:O12"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="Q11:Q12"/>
     <mergeCell ref="R11:R12"/>
-    <mergeCell ref="U11:U12"/>
     <mergeCell ref="V11:V12"/>
     <mergeCell ref="X11:X12"/>
+    <mergeCell ref="W11:W12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6612,8 +6728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JY91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1:AL1048576"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6702,10 +6818,7 @@
       <c r="AP1" s="25"/>
       <c r="AQ1" s="25"/>
       <c r="AR1" s="25"/>
-      <c r="AW1" s="160"/>
-      <c r="AX1" s="160"/>
-      <c r="AY1" s="160"/>
-      <c r="AZ1" s="160"/>
+      <c r="AV1" s="11"/>
       <c r="BA1"/>
     </row>
     <row r="2" spans="1:285" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6755,10 +6868,7 @@
       <c r="AP2" s="25"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
-      <c r="AW2" s="160"/>
-      <c r="AX2" s="160"/>
-      <c r="AY2" s="160"/>
-      <c r="AZ2" s="160"/>
+      <c r="AV2" s="11"/>
       <c r="BA2"/>
     </row>
     <row r="3" spans="1:285" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6808,6 +6918,7 @@
       <c r="AP3" s="25"/>
       <c r="AQ3" s="25"/>
       <c r="AR3" s="25"/>
+      <c r="AV3" s="161"/>
       <c r="AW3" s="161"/>
       <c r="AX3" s="161"/>
       <c r="AY3" s="161"/>
@@ -6816,7 +6927,7 @@
     <row r="4" spans="1:285" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="214" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C4" s="215"/>
       <c r="D4" s="215"/>
@@ -6860,10 +6971,6 @@
       <c r="AP4" s="25"/>
       <c r="AQ4" s="25"/>
       <c r="AR4" s="25"/>
-      <c r="AW4" s="160"/>
-      <c r="AX4" s="160"/>
-      <c r="AY4" s="160"/>
-      <c r="AZ4" s="160"/>
     </row>
     <row r="5" spans="1:285" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
@@ -6912,10 +7019,6 @@
       <c r="AP5" s="25"/>
       <c r="AQ5" s="25"/>
       <c r="AR5" s="25"/>
-      <c r="AW5" s="160"/>
-      <c r="AX5" s="160"/>
-      <c r="AY5" s="160"/>
-      <c r="AZ5" s="160"/>
     </row>
     <row r="6" spans="1:285" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
@@ -6967,11 +7070,6 @@
       <c r="AS6"/>
       <c r="AT6"/>
       <c r="AU6"/>
-      <c r="AV6"/>
-      <c r="AW6" s="160"/>
-      <c r="AX6" s="160"/>
-      <c r="AY6" s="160"/>
-      <c r="AZ6" s="160"/>
       <c r="BA6"/>
       <c r="BB6"/>
       <c r="BC6"/>
@@ -7060,73 +7158,73 @@
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="19"/>
-      <c r="AS7" s="163"/>
-      <c r="AT7" s="163"/>
-      <c r="AU7" s="163"/>
-      <c r="AV7" s="163"/>
-      <c r="AW7" s="163"/>
-      <c r="AX7" s="163"/>
-      <c r="AY7" s="163"/>
-      <c r="AZ7" s="163"/>
-      <c r="BA7" s="163"/>
-      <c r="BB7" s="163"/>
-      <c r="BC7" s="163"/>
-      <c r="BD7" s="163"/>
-      <c r="BE7" s="163"/>
-      <c r="BF7" s="163"/>
-      <c r="BG7" s="163"/>
-      <c r="BH7" s="163"/>
-      <c r="BI7" s="163"/>
-      <c r="BJ7" s="163"/>
-      <c r="BK7" s="163"/>
-      <c r="BL7" s="163"/>
-      <c r="BM7" s="163"/>
-      <c r="BN7" s="163"/>
-      <c r="BO7" s="163"/>
-      <c r="BP7" s="163"/>
-      <c r="BQ7" s="163"/>
-      <c r="BR7" s="163"/>
-      <c r="BS7" s="163"/>
-      <c r="BT7" s="163"/>
-      <c r="BU7" s="163"/>
-      <c r="BV7" s="163"/>
-      <c r="BW7" s="163"/>
-      <c r="BX7" s="163"/>
-      <c r="BY7" s="163"/>
-      <c r="BZ7" s="163"/>
-      <c r="CA7" s="163"/>
-      <c r="CB7" s="163"/>
-      <c r="CC7" s="163"/>
-      <c r="CD7" s="163"/>
-      <c r="CE7" s="163"/>
-      <c r="CF7" s="163"/>
-      <c r="CG7" s="163"/>
-      <c r="CH7" s="163"/>
-      <c r="CI7" s="163"/>
-      <c r="CJ7" s="163"/>
-      <c r="CK7" s="163"/>
-      <c r="CL7" s="163"/>
-      <c r="CM7" s="163"/>
-      <c r="CN7" s="163"/>
-      <c r="CO7" s="163"/>
-      <c r="CP7" s="163"/>
-      <c r="CQ7" s="163"/>
-      <c r="CR7" s="163"/>
-      <c r="CS7" s="163"/>
-      <c r="CT7" s="163"/>
-      <c r="CU7" s="163"/>
-      <c r="CV7" s="163"/>
-      <c r="CW7" s="163"/>
-      <c r="CX7" s="163"/>
-      <c r="CY7" s="163"/>
-      <c r="CZ7" s="163"/>
-      <c r="DA7" s="163"/>
-      <c r="DB7" s="163"/>
-      <c r="DC7" s="163"/>
-      <c r="DD7" s="163"/>
-      <c r="DE7" s="163"/>
-      <c r="DF7" s="163"/>
-      <c r="DG7" s="163"/>
+      <c r="AS7" s="161"/>
+      <c r="AT7" s="161"/>
+      <c r="AU7" s="161"/>
+      <c r="AV7" s="161"/>
+      <c r="AW7" s="161"/>
+      <c r="AX7" s="161"/>
+      <c r="AY7" s="161"/>
+      <c r="AZ7" s="161"/>
+      <c r="BA7" s="161"/>
+      <c r="BB7" s="161"/>
+      <c r="BC7" s="161"/>
+      <c r="BD7" s="161"/>
+      <c r="BE7" s="161"/>
+      <c r="BF7" s="161"/>
+      <c r="BG7" s="161"/>
+      <c r="BH7" s="161"/>
+      <c r="BI7" s="161"/>
+      <c r="BJ7" s="161"/>
+      <c r="BK7" s="161"/>
+      <c r="BL7" s="161"/>
+      <c r="BM7" s="161"/>
+      <c r="BN7" s="161"/>
+      <c r="BO7" s="161"/>
+      <c r="BP7" s="161"/>
+      <c r="BQ7" s="161"/>
+      <c r="BR7" s="161"/>
+      <c r="BS7" s="161"/>
+      <c r="BT7" s="161"/>
+      <c r="BU7" s="161"/>
+      <c r="BV7" s="161"/>
+      <c r="BW7" s="161"/>
+      <c r="BX7" s="161"/>
+      <c r="BY7" s="161"/>
+      <c r="BZ7" s="161"/>
+      <c r="CA7" s="161"/>
+      <c r="CB7" s="161"/>
+      <c r="CC7" s="161"/>
+      <c r="CD7" s="161"/>
+      <c r="CE7" s="161"/>
+      <c r="CF7" s="161"/>
+      <c r="CG7" s="161"/>
+      <c r="CH7" s="161"/>
+      <c r="CI7" s="161"/>
+      <c r="CJ7" s="161"/>
+      <c r="CK7" s="161"/>
+      <c r="CL7" s="161"/>
+      <c r="CM7" s="161"/>
+      <c r="CN7" s="161"/>
+      <c r="CO7" s="161"/>
+      <c r="CP7" s="161"/>
+      <c r="CQ7" s="161"/>
+      <c r="CR7" s="161"/>
+      <c r="CS7" s="161"/>
+      <c r="CT7" s="161"/>
+      <c r="CU7" s="161"/>
+      <c r="CV7" s="161"/>
+      <c r="CW7" s="161"/>
+      <c r="CX7" s="161"/>
+      <c r="CY7" s="161"/>
+      <c r="CZ7" s="161"/>
+      <c r="DA7" s="161"/>
+      <c r="DB7" s="161"/>
+      <c r="DC7" s="161"/>
+      <c r="DD7" s="161"/>
+      <c r="DE7" s="161"/>
+      <c r="DF7" s="161"/>
+      <c r="DG7" s="161"/>
     </row>
     <row r="8" spans="1:285" s="46" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
@@ -7238,20 +7336,32 @@
         <v>53</v>
       </c>
       <c r="AK8" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="AL8" s="218" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL8" s="205" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM8" s="203" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN8" s="207" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO8" s="207" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP8" s="207" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ8" s="207" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR8" s="208" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS8" s="207" t="s">
         <v>302</v>
       </c>
-      <c r="AM8" s="206" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN8" s="207"/>
-      <c r="AO8" s="202"/>
-      <c r="AP8" s="202"/>
-      <c r="AQ8" s="202"/>
-      <c r="AR8" s="202"/>
-      <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
       <c r="AV8" s="11"/>
@@ -7318,180 +7428,180 @@
       <c r="DE8" s="11"/>
       <c r="DF8" s="11"/>
       <c r="DG8" s="11"/>
-      <c r="DH8" s="205"/>
-      <c r="DI8" s="205"/>
-      <c r="DJ8" s="205"/>
-      <c r="DK8" s="205"/>
-      <c r="DL8" s="205"/>
-      <c r="DM8" s="205"/>
-      <c r="DN8" s="205"/>
-      <c r="DO8" s="205"/>
-      <c r="DP8" s="205"/>
-      <c r="DQ8" s="205"/>
-      <c r="DR8" s="205"/>
-      <c r="DS8" s="204"/>
-      <c r="DT8" s="203"/>
-      <c r="DU8" s="203"/>
-      <c r="DV8" s="203"/>
-      <c r="DW8" s="203"/>
-      <c r="DX8" s="203"/>
-      <c r="DY8" s="203"/>
-      <c r="DZ8" s="203"/>
-      <c r="EA8" s="203"/>
-      <c r="EB8" s="203"/>
-      <c r="EC8" s="203"/>
-      <c r="ED8" s="203"/>
-      <c r="EE8" s="203"/>
-      <c r="EF8" s="203"/>
-      <c r="EG8" s="203"/>
-      <c r="EH8" s="203"/>
-      <c r="EI8" s="203"/>
-      <c r="EJ8" s="203"/>
-      <c r="EK8" s="203"/>
-      <c r="EL8" s="203"/>
-      <c r="EM8" s="203"/>
-      <c r="EN8" s="203"/>
-      <c r="EO8" s="203"/>
-      <c r="EP8" s="203"/>
-      <c r="EQ8" s="203"/>
-      <c r="ER8" s="203"/>
-      <c r="ES8" s="203"/>
-      <c r="ET8" s="203"/>
-      <c r="EU8" s="203"/>
-      <c r="EV8" s="203"/>
-      <c r="EW8" s="203"/>
-      <c r="EX8" s="203"/>
-      <c r="EY8" s="203"/>
-      <c r="EZ8" s="203"/>
-      <c r="FA8" s="203"/>
-      <c r="FB8" s="203"/>
-      <c r="FC8" s="203"/>
-      <c r="FD8" s="203"/>
-      <c r="FE8" s="203"/>
-      <c r="FF8" s="203"/>
-      <c r="FG8" s="203"/>
-      <c r="FH8" s="203"/>
-      <c r="FI8" s="203"/>
-      <c r="FJ8" s="203"/>
-      <c r="FK8" s="203"/>
-      <c r="FL8" s="203"/>
-      <c r="FM8" s="203"/>
-      <c r="FN8" s="203"/>
-      <c r="FO8" s="203"/>
-      <c r="FP8" s="203"/>
-      <c r="FQ8" s="203"/>
-      <c r="FR8" s="203"/>
-      <c r="FS8" s="203"/>
-      <c r="FT8" s="203"/>
-      <c r="FU8" s="203"/>
-      <c r="FV8" s="203"/>
-      <c r="FW8" s="203"/>
-      <c r="FX8" s="203"/>
-      <c r="FY8" s="203"/>
-      <c r="FZ8" s="203"/>
-      <c r="GA8" s="203"/>
-      <c r="GB8" s="203"/>
-      <c r="GC8" s="203"/>
-      <c r="GD8" s="203"/>
-      <c r="GE8" s="203"/>
-      <c r="GF8" s="203"/>
-      <c r="GG8" s="203"/>
-      <c r="GH8" s="203"/>
-      <c r="GI8" s="203"/>
-      <c r="GJ8" s="203"/>
-      <c r="GK8" s="203"/>
-      <c r="GL8" s="203"/>
-      <c r="GM8" s="203"/>
-      <c r="GN8" s="203"/>
-      <c r="GO8" s="203"/>
-      <c r="GP8" s="203"/>
-      <c r="GQ8" s="203"/>
-      <c r="GR8" s="203"/>
-      <c r="GS8" s="203"/>
-      <c r="GT8" s="203"/>
-      <c r="GU8" s="203"/>
-      <c r="GV8" s="203"/>
-      <c r="GW8" s="203"/>
-      <c r="GX8" s="203"/>
-      <c r="GY8" s="203"/>
-      <c r="GZ8" s="203"/>
-      <c r="HA8" s="203"/>
-      <c r="HB8" s="203"/>
-      <c r="HC8" s="203"/>
-      <c r="HD8" s="203"/>
-      <c r="HE8" s="203"/>
-      <c r="HF8" s="203"/>
-      <c r="HG8" s="203"/>
-      <c r="HH8" s="203"/>
-      <c r="HI8" s="203"/>
-      <c r="HJ8" s="203"/>
-      <c r="HK8" s="203"/>
-      <c r="HL8" s="203"/>
-      <c r="HM8" s="203"/>
-      <c r="HN8" s="203"/>
-      <c r="HO8" s="203"/>
-      <c r="HP8" s="203"/>
-      <c r="HQ8" s="203"/>
-      <c r="HR8" s="203"/>
-      <c r="HS8" s="203"/>
-      <c r="HT8" s="203"/>
-      <c r="HU8" s="203"/>
-      <c r="HV8" s="203"/>
-      <c r="HW8" s="203"/>
-      <c r="HX8" s="203"/>
-      <c r="HY8" s="203"/>
-      <c r="HZ8" s="203"/>
-      <c r="IA8" s="203"/>
-      <c r="IB8" s="203"/>
-      <c r="IC8" s="203"/>
-      <c r="ID8" s="203"/>
-      <c r="IE8" s="203"/>
-      <c r="IF8" s="203"/>
-      <c r="IG8" s="203"/>
-      <c r="IH8" s="203"/>
-      <c r="II8" s="203"/>
-      <c r="IJ8" s="203"/>
-      <c r="IK8" s="203"/>
-      <c r="IL8" s="203"/>
-      <c r="IM8" s="203"/>
-      <c r="IN8" s="203"/>
-      <c r="IO8" s="203"/>
-      <c r="IP8" s="203"/>
-      <c r="IQ8" s="203"/>
-      <c r="IR8" s="203"/>
-      <c r="IS8" s="203"/>
-      <c r="IT8" s="203"/>
-      <c r="IU8" s="203"/>
-      <c r="IV8" s="203"/>
-      <c r="IW8" s="203"/>
-      <c r="IX8" s="203"/>
-      <c r="IY8" s="203"/>
-      <c r="IZ8" s="203"/>
-      <c r="JA8" s="203"/>
-      <c r="JB8" s="203"/>
-      <c r="JC8" s="203"/>
-      <c r="JD8" s="203"/>
-      <c r="JE8" s="203"/>
-      <c r="JF8" s="203"/>
-      <c r="JG8" s="203"/>
-      <c r="JH8" s="203"/>
-      <c r="JI8" s="203"/>
-      <c r="JJ8" s="203"/>
-      <c r="JK8" s="203"/>
-      <c r="JL8" s="203"/>
-      <c r="JM8" s="203"/>
-      <c r="JN8" s="203"/>
-      <c r="JO8" s="203"/>
-      <c r="JP8" s="203"/>
-      <c r="JQ8" s="203"/>
-      <c r="JR8" s="203"/>
-      <c r="JS8" s="203"/>
-      <c r="JT8" s="203"/>
-      <c r="JU8" s="203"/>
-      <c r="JV8" s="203"/>
-      <c r="JW8" s="203"/>
-      <c r="JX8" s="203"/>
-      <c r="JY8" s="203"/>
+      <c r="DH8" s="202"/>
+      <c r="DI8" s="202"/>
+      <c r="DJ8" s="202"/>
+      <c r="DK8" s="202"/>
+      <c r="DL8" s="202"/>
+      <c r="DM8" s="202"/>
+      <c r="DN8" s="202"/>
+      <c r="DO8" s="202"/>
+      <c r="DP8" s="202"/>
+      <c r="DQ8" s="202"/>
+      <c r="DR8" s="202"/>
+      <c r="DS8" s="201"/>
+      <c r="DT8" s="200"/>
+      <c r="DU8" s="200"/>
+      <c r="DV8" s="200"/>
+      <c r="DW8" s="200"/>
+      <c r="DX8" s="200"/>
+      <c r="DY8" s="200"/>
+      <c r="DZ8" s="200"/>
+      <c r="EA8" s="200"/>
+      <c r="EB8" s="200"/>
+      <c r="EC8" s="200"/>
+      <c r="ED8" s="200"/>
+      <c r="EE8" s="200"/>
+      <c r="EF8" s="200"/>
+      <c r="EG8" s="200"/>
+      <c r="EH8" s="200"/>
+      <c r="EI8" s="200"/>
+      <c r="EJ8" s="200"/>
+      <c r="EK8" s="200"/>
+      <c r="EL8" s="200"/>
+      <c r="EM8" s="200"/>
+      <c r="EN8" s="200"/>
+      <c r="EO8" s="200"/>
+      <c r="EP8" s="200"/>
+      <c r="EQ8" s="200"/>
+      <c r="ER8" s="200"/>
+      <c r="ES8" s="200"/>
+      <c r="ET8" s="200"/>
+      <c r="EU8" s="200"/>
+      <c r="EV8" s="200"/>
+      <c r="EW8" s="200"/>
+      <c r="EX8" s="200"/>
+      <c r="EY8" s="200"/>
+      <c r="EZ8" s="200"/>
+      <c r="FA8" s="200"/>
+      <c r="FB8" s="200"/>
+      <c r="FC8" s="200"/>
+      <c r="FD8" s="200"/>
+      <c r="FE8" s="200"/>
+      <c r="FF8" s="200"/>
+      <c r="FG8" s="200"/>
+      <c r="FH8" s="200"/>
+      <c r="FI8" s="200"/>
+      <c r="FJ8" s="200"/>
+      <c r="FK8" s="200"/>
+      <c r="FL8" s="200"/>
+      <c r="FM8" s="200"/>
+      <c r="FN8" s="200"/>
+      <c r="FO8" s="200"/>
+      <c r="FP8" s="200"/>
+      <c r="FQ8" s="200"/>
+      <c r="FR8" s="200"/>
+      <c r="FS8" s="200"/>
+      <c r="FT8" s="200"/>
+      <c r="FU8" s="200"/>
+      <c r="FV8" s="200"/>
+      <c r="FW8" s="200"/>
+      <c r="FX8" s="200"/>
+      <c r="FY8" s="200"/>
+      <c r="FZ8" s="200"/>
+      <c r="GA8" s="200"/>
+      <c r="GB8" s="200"/>
+      <c r="GC8" s="200"/>
+      <c r="GD8" s="200"/>
+      <c r="GE8" s="200"/>
+      <c r="GF8" s="200"/>
+      <c r="GG8" s="200"/>
+      <c r="GH8" s="200"/>
+      <c r="GI8" s="200"/>
+      <c r="GJ8" s="200"/>
+      <c r="GK8" s="200"/>
+      <c r="GL8" s="200"/>
+      <c r="GM8" s="200"/>
+      <c r="GN8" s="200"/>
+      <c r="GO8" s="200"/>
+      <c r="GP8" s="200"/>
+      <c r="GQ8" s="200"/>
+      <c r="GR8" s="200"/>
+      <c r="GS8" s="200"/>
+      <c r="GT8" s="200"/>
+      <c r="GU8" s="200"/>
+      <c r="GV8" s="200"/>
+      <c r="GW8" s="200"/>
+      <c r="GX8" s="200"/>
+      <c r="GY8" s="200"/>
+      <c r="GZ8" s="200"/>
+      <c r="HA8" s="200"/>
+      <c r="HB8" s="200"/>
+      <c r="HC8" s="200"/>
+      <c r="HD8" s="200"/>
+      <c r="HE8" s="200"/>
+      <c r="HF8" s="200"/>
+      <c r="HG8" s="200"/>
+      <c r="HH8" s="200"/>
+      <c r="HI8" s="200"/>
+      <c r="HJ8" s="200"/>
+      <c r="HK8" s="200"/>
+      <c r="HL8" s="200"/>
+      <c r="HM8" s="200"/>
+      <c r="HN8" s="200"/>
+      <c r="HO8" s="200"/>
+      <c r="HP8" s="200"/>
+      <c r="HQ8" s="200"/>
+      <c r="HR8" s="200"/>
+      <c r="HS8" s="200"/>
+      <c r="HT8" s="200"/>
+      <c r="HU8" s="200"/>
+      <c r="HV8" s="200"/>
+      <c r="HW8" s="200"/>
+      <c r="HX8" s="200"/>
+      <c r="HY8" s="200"/>
+      <c r="HZ8" s="200"/>
+      <c r="IA8" s="200"/>
+      <c r="IB8" s="200"/>
+      <c r="IC8" s="200"/>
+      <c r="ID8" s="200"/>
+      <c r="IE8" s="200"/>
+      <c r="IF8" s="200"/>
+      <c r="IG8" s="200"/>
+      <c r="IH8" s="200"/>
+      <c r="II8" s="200"/>
+      <c r="IJ8" s="200"/>
+      <c r="IK8" s="200"/>
+      <c r="IL8" s="200"/>
+      <c r="IM8" s="200"/>
+      <c r="IN8" s="200"/>
+      <c r="IO8" s="200"/>
+      <c r="IP8" s="200"/>
+      <c r="IQ8" s="200"/>
+      <c r="IR8" s="200"/>
+      <c r="IS8" s="200"/>
+      <c r="IT8" s="200"/>
+      <c r="IU8" s="200"/>
+      <c r="IV8" s="200"/>
+      <c r="IW8" s="200"/>
+      <c r="IX8" s="200"/>
+      <c r="IY8" s="200"/>
+      <c r="IZ8" s="200"/>
+      <c r="JA8" s="200"/>
+      <c r="JB8" s="200"/>
+      <c r="JC8" s="200"/>
+      <c r="JD8" s="200"/>
+      <c r="JE8" s="200"/>
+      <c r="JF8" s="200"/>
+      <c r="JG8" s="200"/>
+      <c r="JH8" s="200"/>
+      <c r="JI8" s="200"/>
+      <c r="JJ8" s="200"/>
+      <c r="JK8" s="200"/>
+      <c r="JL8" s="200"/>
+      <c r="JM8" s="200"/>
+      <c r="JN8" s="200"/>
+      <c r="JO8" s="200"/>
+      <c r="JP8" s="200"/>
+      <c r="JQ8" s="200"/>
+      <c r="JR8" s="200"/>
+      <c r="JS8" s="200"/>
+      <c r="JT8" s="200"/>
+      <c r="JU8" s="200"/>
+      <c r="JV8" s="200"/>
+      <c r="JW8" s="200"/>
+      <c r="JX8" s="200"/>
+      <c r="JY8" s="200"/>
     </row>
     <row r="9" spans="1:285" s="124" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
@@ -7528,7 +7638,7 @@
       <c r="AL9" s="152"/>
       <c r="AM9" s="153"/>
       <c r="AN9" s="153"/>
-      <c r="AO9" s="187"/>
+      <c r="AO9" s="185"/>
       <c r="AP9" s="153"/>
       <c r="AQ9" s="153"/>
       <c r="AR9" s="153"/>
@@ -7540,7 +7650,7 @@
       <c r="BA9" s="129"/>
       <c r="BB9" s="152"/>
     </row>
-    <row r="10" spans="1:285" s="168" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:285" s="166" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="6"/>
       <c r="C10" s="95"/>
@@ -7581,7 +7691,7 @@
       <c r="AL10" s="152"/>
       <c r="AM10" s="153"/>
       <c r="AN10" s="153"/>
-      <c r="AO10" s="187"/>
+      <c r="AO10" s="185"/>
       <c r="AP10" s="153"/>
       <c r="AQ10" s="153"/>
       <c r="AR10" s="153"/>
@@ -7862,7 +7972,7 @@
       <c r="AL11" s="152"/>
       <c r="AM11" s="153"/>
       <c r="AN11" s="153"/>
-      <c r="AO11" s="187"/>
+      <c r="AO11" s="185"/>
       <c r="AP11" s="153"/>
       <c r="AQ11" s="153"/>
       <c r="AR11" s="153"/>
@@ -7908,8 +8018,8 @@
       <c r="AK12" s="152"/>
       <c r="AL12" s="152"/>
       <c r="AM12" s="153"/>
-      <c r="AN12" s="208"/>
-      <c r="AO12" s="187"/>
+      <c r="AN12" s="204"/>
+      <c r="AO12" s="185"/>
       <c r="AP12" s="153"/>
       <c r="AQ12" s="153"/>
       <c r="AR12" s="153"/>
@@ -7956,7 +8066,7 @@
       <c r="AL13" s="152"/>
       <c r="AM13" s="153"/>
       <c r="AN13" s="153"/>
-      <c r="AO13" s="187"/>
+      <c r="AO13" s="185"/>
       <c r="AP13" s="153"/>
       <c r="AQ13" s="153"/>
       <c r="AR13" s="153"/>
@@ -8003,7 +8113,7 @@
       <c r="AL14" s="152"/>
       <c r="AM14" s="153"/>
       <c r="AN14" s="153"/>
-      <c r="AO14" s="187"/>
+      <c r="AO14" s="185"/>
       <c r="AP14" s="153"/>
       <c r="AQ14" s="153"/>
       <c r="AR14" s="153"/>
@@ -8050,7 +8160,7 @@
       <c r="AL15" s="152"/>
       <c r="AM15" s="153"/>
       <c r="AN15" s="153"/>
-      <c r="AO15" s="187"/>
+      <c r="AO15" s="185"/>
       <c r="AP15" s="153"/>
       <c r="AQ15" s="153"/>
       <c r="AR15" s="153"/>
@@ -8097,7 +8207,7 @@
       <c r="AL16" s="152"/>
       <c r="AM16" s="153"/>
       <c r="AN16" s="153"/>
-      <c r="AO16" s="187"/>
+      <c r="AO16" s="185"/>
       <c r="AP16" s="153"/>
       <c r="AQ16" s="153"/>
       <c r="AR16" s="153"/>
@@ -8144,7 +8254,7 @@
       <c r="AL17" s="152"/>
       <c r="AM17" s="153"/>
       <c r="AN17" s="153"/>
-      <c r="AO17" s="187"/>
+      <c r="AO17" s="185"/>
       <c r="AP17" s="153"/>
       <c r="AQ17" s="153"/>
       <c r="AR17" s="153"/>
@@ -8191,7 +8301,7 @@
       <c r="AL18" s="152"/>
       <c r="AM18" s="153"/>
       <c r="AN18" s="153"/>
-      <c r="AO18" s="187"/>
+      <c r="AO18" s="185"/>
       <c r="AP18" s="153"/>
       <c r="AQ18" s="153"/>
       <c r="AR18" s="153"/>
@@ -8239,7 +8349,7 @@
       <c r="AL19" s="152"/>
       <c r="AM19" s="153"/>
       <c r="AN19" s="153"/>
-      <c r="AO19" s="187"/>
+      <c r="AO19" s="185"/>
       <c r="AP19" s="153"/>
       <c r="AQ19" s="153"/>
       <c r="AR19" s="153"/>
@@ -8286,7 +8396,7 @@
       <c r="AL20" s="152"/>
       <c r="AM20" s="153"/>
       <c r="AN20" s="153"/>
-      <c r="AO20" s="187"/>
+      <c r="AO20" s="185"/>
       <c r="AP20" s="153"/>
       <c r="AQ20" s="153"/>
       <c r="AR20" s="153"/>
@@ -8308,8 +8418,8 @@
       <c r="H21" s="126"/>
       <c r="J21" s="120"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="166"/>
-      <c r="N21" s="166"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="164"/>
       <c r="R21" s="153"/>
       <c r="S21" s="153"/>
       <c r="T21" s="153"/>
@@ -8333,7 +8443,7 @@
       <c r="AL21" s="152"/>
       <c r="AM21" s="153"/>
       <c r="AN21" s="153"/>
-      <c r="AO21" s="187"/>
+      <c r="AO21" s="185"/>
       <c r="AP21" s="153"/>
       <c r="AQ21" s="153"/>
       <c r="AR21" s="153"/>
@@ -8355,8 +8465,8 @@
       <c r="H22" s="126"/>
       <c r="J22" s="120"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="166"/>
-      <c r="N22" s="166"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
       <c r="R22" s="153"/>
       <c r="S22" s="153"/>
       <c r="T22" s="153"/>
@@ -8380,7 +8490,7 @@
       <c r="AL22" s="152"/>
       <c r="AM22" s="153"/>
       <c r="AN22" s="153"/>
-      <c r="AO22" s="187"/>
+      <c r="AO22" s="185"/>
       <c r="AP22" s="153"/>
       <c r="AQ22" s="153"/>
       <c r="AR22" s="153"/>
@@ -8402,8 +8512,8 @@
       <c r="H23" s="126"/>
       <c r="J23" s="120"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="166"/>
-      <c r="N23" s="166"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="164"/>
       <c r="R23" s="153"/>
       <c r="S23" s="153"/>
       <c r="T23" s="153"/>
@@ -8427,7 +8537,7 @@
       <c r="AL23" s="152"/>
       <c r="AM23" s="153"/>
       <c r="AN23" s="153"/>
-      <c r="AO23" s="187"/>
+      <c r="AO23" s="185"/>
       <c r="AP23" s="153"/>
       <c r="AQ23" s="153"/>
       <c r="AR23" s="153"/>
@@ -8449,8 +8559,8 @@
       <c r="H24" s="126"/>
       <c r="J24" s="120"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="166"/>
-      <c r="N24" s="166"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="164"/>
       <c r="R24" s="153"/>
       <c r="S24" s="153"/>
       <c r="T24" s="153"/>
@@ -8474,7 +8584,7 @@
       <c r="AL24" s="152"/>
       <c r="AM24" s="153"/>
       <c r="AN24" s="153"/>
-      <c r="AO24" s="187"/>
+      <c r="AO24" s="185"/>
       <c r="AP24" s="153"/>
       <c r="AQ24" s="153"/>
       <c r="AR24" s="153"/>
@@ -8496,8 +8606,8 @@
       <c r="H25" s="126"/>
       <c r="J25" s="120"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="166"/>
-      <c r="N25" s="166"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="164"/>
       <c r="R25" s="153"/>
       <c r="S25" s="153"/>
       <c r="T25" s="153"/>
@@ -8521,7 +8631,7 @@
       <c r="AL25" s="152"/>
       <c r="AM25" s="153"/>
       <c r="AN25" s="153"/>
-      <c r="AO25" s="187"/>
+      <c r="AO25" s="185"/>
       <c r="AP25" s="153"/>
       <c r="AQ25" s="153"/>
       <c r="AR25" s="153"/>
@@ -8543,8 +8653,8 @@
       <c r="H26" s="126"/>
       <c r="J26" s="120"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="166"/>
-      <c r="N26" s="166"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="164"/>
       <c r="R26" s="153"/>
       <c r="S26" s="153"/>
       <c r="T26" s="153"/>
@@ -8568,7 +8678,7 @@
       <c r="AL26" s="152"/>
       <c r="AM26" s="153"/>
       <c r="AN26" s="153"/>
-      <c r="AO26" s="187"/>
+      <c r="AO26" s="185"/>
       <c r="AP26" s="153"/>
       <c r="AQ26" s="153"/>
       <c r="AR26" s="153"/>
@@ -8590,8 +8700,8 @@
       <c r="H27" s="126"/>
       <c r="J27" s="120"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="166"/>
-      <c r="N27" s="166"/>
+      <c r="M27" s="164"/>
+      <c r="N27" s="164"/>
       <c r="R27" s="153"/>
       <c r="S27" s="153"/>
       <c r="T27" s="153"/>
@@ -8615,7 +8725,7 @@
       <c r="AL27" s="152"/>
       <c r="AM27" s="153"/>
       <c r="AN27" s="153"/>
-      <c r="AO27" s="187"/>
+      <c r="AO27" s="185"/>
       <c r="AP27" s="153"/>
       <c r="AQ27" s="153"/>
       <c r="AR27" s="153"/>
@@ -8628,7 +8738,7 @@
       <c r="BB27" s="152"/>
     </row>
     <row r="28" spans="1:56" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="198"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="6"/>
       <c r="C28" s="95"/>
       <c r="D28" s="123"/>
@@ -8637,8 +8747,8 @@
       <c r="H28" s="126"/>
       <c r="J28" s="120"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="166"/>
-      <c r="N28" s="166"/>
+      <c r="M28" s="164"/>
+      <c r="N28" s="164"/>
       <c r="R28" s="153"/>
       <c r="S28" s="153"/>
       <c r="T28" s="153"/>
@@ -8662,7 +8772,7 @@
       <c r="AL28" s="152"/>
       <c r="AM28" s="153"/>
       <c r="AN28" s="153"/>
-      <c r="AO28" s="187"/>
+      <c r="AO28" s="185"/>
       <c r="AP28" s="153"/>
       <c r="AQ28" s="153"/>
       <c r="AR28" s="153"/>
@@ -8684,8 +8794,8 @@
       <c r="H29" s="126"/>
       <c r="J29" s="120"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="166"/>
-      <c r="N29" s="166"/>
+      <c r="M29" s="164"/>
+      <c r="N29" s="164"/>
       <c r="R29" s="153"/>
       <c r="S29" s="153"/>
       <c r="T29" s="153"/>
@@ -8709,7 +8819,7 @@
       <c r="AL29" s="152"/>
       <c r="AM29" s="153"/>
       <c r="AN29" s="153"/>
-      <c r="AO29" s="187"/>
+      <c r="AO29" s="185"/>
       <c r="AP29" s="153"/>
       <c r="AQ29" s="153"/>
       <c r="AR29" s="153"/>
@@ -8731,8 +8841,8 @@
       <c r="H30" s="126"/>
       <c r="J30" s="120"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="166"/>
-      <c r="N30" s="166"/>
+      <c r="M30" s="164"/>
+      <c r="N30" s="164"/>
       <c r="R30" s="153"/>
       <c r="S30" s="153"/>
       <c r="T30" s="153"/>
@@ -8756,7 +8866,7 @@
       <c r="AL30" s="152"/>
       <c r="AM30" s="153"/>
       <c r="AN30" s="153"/>
-      <c r="AO30" s="187"/>
+      <c r="AO30" s="185"/>
       <c r="AP30" s="153"/>
       <c r="AQ30" s="153"/>
       <c r="AR30" s="153"/>
@@ -8778,8 +8888,8 @@
       <c r="H31" s="126"/>
       <c r="J31" s="120"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="166"/>
-      <c r="N31" s="166"/>
+      <c r="M31" s="164"/>
+      <c r="N31" s="164"/>
       <c r="R31" s="153"/>
       <c r="S31" s="153"/>
       <c r="T31" s="153"/>
@@ -8803,7 +8913,7 @@
       <c r="AL31" s="152"/>
       <c r="AM31" s="153"/>
       <c r="AN31" s="153"/>
-      <c r="AO31" s="187"/>
+      <c r="AO31" s="185"/>
       <c r="AP31" s="153"/>
       <c r="AQ31" s="153"/>
       <c r="AR31" s="153"/>
@@ -8825,8 +8935,8 @@
       <c r="H32" s="126"/>
       <c r="J32" s="120"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="166"/>
-      <c r="N32" s="166"/>
+      <c r="M32" s="164"/>
+      <c r="N32" s="164"/>
       <c r="R32" s="153"/>
       <c r="S32" s="153"/>
       <c r="T32" s="153"/>
@@ -8850,7 +8960,7 @@
       <c r="AL32" s="152"/>
       <c r="AM32" s="153"/>
       <c r="AN32" s="153"/>
-      <c r="AO32" s="187"/>
+      <c r="AO32" s="185"/>
       <c r="AP32" s="153"/>
       <c r="AQ32" s="153"/>
       <c r="AR32" s="153"/>
@@ -8872,8 +8982,8 @@
       <c r="H33" s="126"/>
       <c r="J33" s="120"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="166"/>
-      <c r="N33" s="166"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="164"/>
       <c r="R33" s="153"/>
       <c r="S33" s="153"/>
       <c r="T33" s="153"/>
@@ -8897,7 +9007,7 @@
       <c r="AL33" s="152"/>
       <c r="AM33" s="153"/>
       <c r="AN33" s="153"/>
-      <c r="AO33" s="187"/>
+      <c r="AO33" s="185"/>
       <c r="AP33" s="153"/>
       <c r="AQ33" s="153"/>
       <c r="AR33" s="153"/>
@@ -8921,8 +9031,8 @@
       <c r="H34" s="126"/>
       <c r="J34" s="120"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="166"/>
-      <c r="N34" s="166"/>
+      <c r="M34" s="164"/>
+      <c r="N34" s="164"/>
       <c r="R34" s="153"/>
       <c r="S34" s="153"/>
       <c r="T34" s="153"/>
@@ -8946,7 +9056,7 @@
       <c r="AL34" s="152"/>
       <c r="AM34" s="153"/>
       <c r="AN34" s="153"/>
-      <c r="AO34" s="187"/>
+      <c r="AO34" s="185"/>
       <c r="AP34" s="153"/>
       <c r="AQ34" s="153"/>
       <c r="AR34" s="153"/>
@@ -8993,7 +9103,7 @@
       <c r="AL35" s="152"/>
       <c r="AM35" s="153"/>
       <c r="AN35" s="153"/>
-      <c r="AO35" s="187"/>
+      <c r="AO35" s="185"/>
       <c r="AP35" s="153"/>
       <c r="AQ35" s="153"/>
       <c r="AR35" s="153"/>
@@ -9040,7 +9150,7 @@
       <c r="AL36" s="152"/>
       <c r="AM36" s="153"/>
       <c r="AN36" s="153"/>
-      <c r="AO36" s="187"/>
+      <c r="AO36" s="185"/>
       <c r="AP36" s="153"/>
       <c r="AQ36" s="153"/>
       <c r="AR36" s="153"/>
@@ -9087,7 +9197,7 @@
       <c r="AL37" s="152"/>
       <c r="AM37" s="153"/>
       <c r="AN37" s="153"/>
-      <c r="AO37" s="187"/>
+      <c r="AO37" s="185"/>
       <c r="AP37" s="153"/>
       <c r="AQ37" s="153"/>
       <c r="AR37" s="153"/>
@@ -9134,7 +9244,7 @@
       <c r="AL38" s="152"/>
       <c r="AM38" s="153"/>
       <c r="AN38" s="153"/>
-      <c r="AO38" s="187"/>
+      <c r="AO38" s="185"/>
       <c r="AP38" s="153"/>
       <c r="AQ38" s="153"/>
       <c r="AR38" s="153"/>
@@ -9181,7 +9291,7 @@
       <c r="AL39" s="152"/>
       <c r="AM39" s="153"/>
       <c r="AN39" s="153"/>
-      <c r="AO39" s="187"/>
+      <c r="AO39" s="185"/>
       <c r="AP39" s="153"/>
       <c r="AQ39" s="153"/>
       <c r="AR39" s="153"/>
@@ -9228,7 +9338,7 @@
       <c r="AL40" s="152"/>
       <c r="AM40" s="153"/>
       <c r="AN40" s="153"/>
-      <c r="AO40" s="187"/>
+      <c r="AO40" s="185"/>
       <c r="AP40" s="153"/>
       <c r="AQ40" s="153"/>
       <c r="AR40" s="153"/>
@@ -9275,7 +9385,7 @@
       <c r="AL41" s="152"/>
       <c r="AM41" s="153"/>
       <c r="AN41" s="153"/>
-      <c r="AO41" s="187"/>
+      <c r="AO41" s="185"/>
       <c r="AP41" s="153"/>
       <c r="AQ41" s="153"/>
       <c r="AR41" s="153"/>
@@ -9322,7 +9432,7 @@
       <c r="AL42" s="152"/>
       <c r="AM42" s="153"/>
       <c r="AN42" s="153"/>
-      <c r="AO42" s="187"/>
+      <c r="AO42" s="185"/>
       <c r="AP42" s="153"/>
       <c r="AQ42" s="153"/>
       <c r="AR42" s="153"/>
@@ -9369,7 +9479,7 @@
       <c r="AL43" s="152"/>
       <c r="AM43" s="153"/>
       <c r="AN43" s="153"/>
-      <c r="AO43" s="187"/>
+      <c r="AO43" s="185"/>
       <c r="AP43" s="153"/>
       <c r="AQ43" s="153"/>
       <c r="AR43" s="153"/>
@@ -9416,7 +9526,7 @@
       <c r="AL44" s="152"/>
       <c r="AM44" s="153"/>
       <c r="AN44" s="153"/>
-      <c r="AO44" s="187"/>
+      <c r="AO44" s="185"/>
       <c r="AP44" s="153"/>
       <c r="AQ44" s="153"/>
       <c r="AR44" s="153"/>
@@ -9463,7 +9573,7 @@
       <c r="AL45" s="152"/>
       <c r="AM45" s="153"/>
       <c r="AN45" s="153"/>
-      <c r="AO45" s="187"/>
+      <c r="AO45" s="185"/>
       <c r="AP45" s="153"/>
       <c r="AQ45" s="153"/>
       <c r="AR45" s="153"/>
@@ -9510,7 +9620,7 @@
       <c r="AL46" s="152"/>
       <c r="AM46" s="153"/>
       <c r="AN46" s="153"/>
-      <c r="AO46" s="187"/>
+      <c r="AO46" s="185"/>
       <c r="AP46" s="153"/>
       <c r="AQ46" s="153"/>
       <c r="AR46" s="153"/>
@@ -9557,7 +9667,7 @@
       <c r="AL47" s="152"/>
       <c r="AM47" s="153"/>
       <c r="AN47" s="153"/>
-      <c r="AO47" s="187"/>
+      <c r="AO47" s="185"/>
       <c r="AP47" s="153"/>
       <c r="AQ47" s="153"/>
       <c r="AR47" s="153"/>
@@ -9604,7 +9714,7 @@
       <c r="AL48" s="152"/>
       <c r="AM48" s="153"/>
       <c r="AN48" s="153"/>
-      <c r="AO48" s="187"/>
+      <c r="AO48" s="185"/>
       <c r="AP48" s="153"/>
       <c r="AQ48" s="153"/>
       <c r="AR48" s="153"/>
@@ -9651,7 +9761,7 @@
       <c r="AL49" s="152"/>
       <c r="AM49" s="153"/>
       <c r="AN49" s="153"/>
-      <c r="AO49" s="187"/>
+      <c r="AO49" s="185"/>
       <c r="AP49" s="153"/>
       <c r="AQ49" s="153"/>
       <c r="AR49" s="153"/>
@@ -9698,7 +9808,7 @@
       <c r="AL50" s="152"/>
       <c r="AM50" s="153"/>
       <c r="AN50" s="153"/>
-      <c r="AO50" s="187"/>
+      <c r="AO50" s="185"/>
       <c r="AP50" s="153"/>
       <c r="AQ50" s="153"/>
       <c r="AR50" s="153"/>
@@ -9745,7 +9855,7 @@
       <c r="AL51" s="152"/>
       <c r="AM51" s="153"/>
       <c r="AN51" s="153"/>
-      <c r="AO51" s="187"/>
+      <c r="AO51" s="185"/>
       <c r="AP51" s="153"/>
       <c r="AQ51" s="153"/>
       <c r="AR51" s="153"/>
@@ -9841,45 +9951,45 @@
       <c r="AS53" s="128"/>
     </row>
     <row r="54" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="192"/>
-      <c r="B54" s="193"/>
-      <c r="C54" s="194"/>
-      <c r="D54" s="195"/>
-      <c r="E54" s="195"/>
-      <c r="F54" s="194"/>
-      <c r="G54" s="194"/>
-      <c r="H54" s="195"/>
-      <c r="I54" s="195"/>
-      <c r="J54" s="195"/>
-      <c r="K54" s="195"/>
-      <c r="L54" s="195"/>
-      <c r="M54" s="196"/>
-      <c r="N54" s="196"/>
-      <c r="O54" s="196"/>
-      <c r="P54" s="196"/>
-      <c r="Q54" s="196"/>
-      <c r="R54" s="196"/>
-      <c r="S54" s="196"/>
-      <c r="T54" s="196"/>
-      <c r="U54" s="196"/>
-      <c r="V54" s="196"/>
-      <c r="W54" s="196"/>
-      <c r="X54" s="196"/>
-      <c r="Y54" s="196"/>
-      <c r="Z54" s="196"/>
-      <c r="AA54" s="196"/>
-      <c r="AB54" s="196"/>
-      <c r="AC54" s="196"/>
-      <c r="AD54" s="196"/>
-      <c r="AE54" s="196"/>
-      <c r="AF54" s="196"/>
-      <c r="AG54" s="196"/>
-      <c r="AH54" s="196"/>
-      <c r="AI54" s="196"/>
-      <c r="AJ54" s="196"/>
-      <c r="AK54" s="196"/>
-      <c r="AL54" s="196"/>
-      <c r="AM54" s="196"/>
+      <c r="A54" s="190"/>
+      <c r="B54" s="191"/>
+      <c r="C54" s="192"/>
+      <c r="D54" s="193"/>
+      <c r="E54" s="193"/>
+      <c r="F54" s="192"/>
+      <c r="G54" s="192"/>
+      <c r="H54" s="193"/>
+      <c r="I54" s="193"/>
+      <c r="J54" s="193"/>
+      <c r="K54" s="193"/>
+      <c r="L54" s="193"/>
+      <c r="M54" s="194"/>
+      <c r="N54" s="194"/>
+      <c r="O54" s="194"/>
+      <c r="P54" s="194"/>
+      <c r="Q54" s="194"/>
+      <c r="R54" s="194"/>
+      <c r="S54" s="194"/>
+      <c r="T54" s="194"/>
+      <c r="U54" s="194"/>
+      <c r="V54" s="194"/>
+      <c r="W54" s="194"/>
+      <c r="X54" s="194"/>
+      <c r="Y54" s="194"/>
+      <c r="Z54" s="194"/>
+      <c r="AA54" s="194"/>
+      <c r="AB54" s="194"/>
+      <c r="AC54" s="194"/>
+      <c r="AD54" s="194"/>
+      <c r="AE54" s="194"/>
+      <c r="AF54" s="194"/>
+      <c r="AG54" s="194"/>
+      <c r="AH54" s="194"/>
+      <c r="AI54" s="194"/>
+      <c r="AJ54" s="194"/>
+      <c r="AK54" s="194"/>
+      <c r="AL54" s="194"/>
+      <c r="AM54" s="194"/>
       <c r="AN54" s="49"/>
       <c r="AO54" s="49"/>
       <c r="AP54" s="49"/>
@@ -11677,22 +11787,22 @@
       <c r="AJ3" s="25"/>
       <c r="AK3" s="25"/>
       <c r="AL3" s="25"/>
-      <c r="AM3" s="163"/>
-      <c r="AN3" s="163"/>
-      <c r="AO3" s="163"/>
-      <c r="AP3" s="163"/>
-      <c r="AQ3" s="163"/>
-      <c r="AR3" s="163"/>
-      <c r="AS3" s="163"/>
-      <c r="AT3" s="163"/>
-      <c r="AU3" s="163"/>
-      <c r="AV3" s="163"/>
-      <c r="AW3" s="163"/>
+      <c r="AM3" s="161"/>
+      <c r="AN3" s="161"/>
+      <c r="AO3" s="161"/>
+      <c r="AP3" s="161"/>
+      <c r="AQ3" s="161"/>
+      <c r="AR3" s="161"/>
+      <c r="AS3" s="161"/>
+      <c r="AT3" s="161"/>
+      <c r="AU3" s="161"/>
+      <c r="AV3" s="161"/>
+      <c r="AW3" s="161"/>
     </row>
     <row r="4" spans="1:92" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="214" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C4" s="215"/>
       <c r="D4" s="215"/>
@@ -11886,17 +11996,17 @@
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="19"/>
-      <c r="AM7" s="163"/>
-      <c r="AN7" s="163"/>
-      <c r="AO7" s="163"/>
-      <c r="AP7" s="163"/>
-      <c r="AQ7" s="163"/>
-      <c r="AR7" s="163"/>
-      <c r="AS7" s="163"/>
-      <c r="AT7" s="163"/>
-      <c r="AU7" s="163"/>
-      <c r="AV7" s="163"/>
-      <c r="AW7" s="163"/>
+      <c r="AM7" s="161"/>
+      <c r="AN7" s="161"/>
+      <c r="AO7" s="161"/>
+      <c r="AP7" s="161"/>
+      <c r="AQ7" s="161"/>
+      <c r="AR7" s="161"/>
+      <c r="AS7" s="161"/>
+      <c r="AT7" s="161"/>
+      <c r="AU7" s="161"/>
+      <c r="AV7" s="161"/>
+      <c r="AW7" s="161"/>
       <c r="AX7" s="10"/>
       <c r="AY7" s="10"/>
       <c r="AZ7" s="10"/>
@@ -12051,7 +12161,7 @@
         <v>53</v>
       </c>
       <c r="AK8" s="46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AL8" s="50" t="s">
         <v>54</v>
@@ -12590,8 +12700,8 @@
       <c r="H22" s="126"/>
       <c r="J22" s="120"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="166"/>
-      <c r="N22" s="166"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
       <c r="O22" s="121"/>
       <c r="R22" s="153"/>
       <c r="S22" s="153"/>
@@ -12627,8 +12737,8 @@
       <c r="H23" s="126"/>
       <c r="J23" s="120"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="166"/>
-      <c r="N23" s="166"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="164"/>
       <c r="O23" s="121"/>
       <c r="R23" s="153"/>
       <c r="S23" s="153"/>
@@ -12663,8 +12773,8 @@
       <c r="H24" s="126"/>
       <c r="J24" s="120"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="166"/>
-      <c r="N24" s="166"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="164"/>
       <c r="O24" s="121"/>
       <c r="R24" s="153"/>
       <c r="S24" s="153"/>
@@ -12699,8 +12809,8 @@
       <c r="H25" s="126"/>
       <c r="J25" s="120"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="166"/>
-      <c r="N25" s="166"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="164"/>
       <c r="O25" s="121"/>
       <c r="R25" s="153"/>
       <c r="S25" s="153"/>
@@ -12735,8 +12845,8 @@
       <c r="H26" s="126"/>
       <c r="J26" s="120"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="166"/>
-      <c r="N26" s="166"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="164"/>
       <c r="O26" s="121"/>
       <c r="R26" s="153"/>
       <c r="S26" s="153"/>
@@ -12771,8 +12881,8 @@
       <c r="H27" s="126"/>
       <c r="J27" s="120"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="166"/>
-      <c r="N27" s="166"/>
+      <c r="M27" s="164"/>
+      <c r="N27" s="164"/>
       <c r="O27" s="121"/>
       <c r="R27" s="153"/>
       <c r="S27" s="153"/>
@@ -12807,8 +12917,8 @@
       <c r="H28" s="126"/>
       <c r="J28" s="120"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="166"/>
-      <c r="N28" s="166"/>
+      <c r="M28" s="164"/>
+      <c r="N28" s="164"/>
       <c r="O28" s="121"/>
       <c r="R28" s="153"/>
       <c r="S28" s="153"/>
@@ -12843,8 +12953,8 @@
       <c r="H29" s="126"/>
       <c r="J29" s="120"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="166"/>
-      <c r="N29" s="166"/>
+      <c r="M29" s="164"/>
+      <c r="N29" s="164"/>
       <c r="O29" s="121"/>
       <c r="R29" s="153"/>
       <c r="S29" s="153"/>
@@ -12879,8 +12989,8 @@
       <c r="H30" s="126"/>
       <c r="J30" s="120"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="166"/>
-      <c r="N30" s="166"/>
+      <c r="M30" s="164"/>
+      <c r="N30" s="164"/>
       <c r="O30" s="121"/>
       <c r="R30" s="153"/>
       <c r="S30" s="153"/>
@@ -12915,8 +13025,8 @@
       <c r="H31" s="126"/>
       <c r="J31" s="120"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="166"/>
-      <c r="N31" s="166"/>
+      <c r="M31" s="164"/>
+      <c r="N31" s="164"/>
       <c r="O31" s="121"/>
       <c r="R31" s="153"/>
       <c r="S31" s="153"/>
@@ -12951,8 +13061,8 @@
       <c r="H32" s="126"/>
       <c r="J32" s="120"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="166"/>
-      <c r="N32" s="166"/>
+      <c r="M32" s="164"/>
+      <c r="N32" s="164"/>
       <c r="O32" s="121"/>
       <c r="R32" s="153"/>
       <c r="S32" s="153"/>
@@ -12987,8 +13097,8 @@
       <c r="H33" s="126"/>
       <c r="J33" s="120"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="166"/>
-      <c r="N33" s="166"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="164"/>
       <c r="O33" s="121"/>
       <c r="R33" s="153"/>
       <c r="S33" s="153"/>
@@ -15508,7 +15618,7 @@
       <c r="D13" s="6"/>
       <c r="G13" s="156"/>
       <c r="H13" s="146"/>
-      <c r="I13" s="199"/>
+      <c r="I13" s="197"/>
       <c r="J13" s="149"/>
       <c r="K13" s="149"/>
       <c r="L13" s="149"/>
@@ -15561,7 +15671,7 @@
     <row r="18" spans="2:13" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" s="51"/>
-      <c r="D18" s="197"/>
+      <c r="D18" s="195"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="156"/>
@@ -15576,106 +15686,106 @@
       <c r="C19" s="51"/>
       <c r="D19" s="6"/>
       <c r="E19" s="81"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="162"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="160"/>
       <c r="H19" s="146"/>
       <c r="I19" s="146"/>
       <c r="J19" s="150"/>
       <c r="K19" s="149"/>
       <c r="L19" s="149"/>
-      <c r="M19" s="167"/>
+      <c r="M19" s="165"/>
     </row>
     <row r="20" spans="2:13" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="51"/>
       <c r="D20" s="6"/>
       <c r="E20" s="81"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="162"/>
+      <c r="F20" s="198"/>
+      <c r="G20" s="160"/>
       <c r="H20" s="146"/>
       <c r="I20" s="146"/>
       <c r="J20" s="150"/>
       <c r="K20" s="149"/>
       <c r="L20" s="149"/>
-      <c r="M20" s="167"/>
+      <c r="M20" s="165"/>
     </row>
     <row r="21" spans="2:13" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B21" s="6"/>
       <c r="C21" s="51"/>
       <c r="D21" s="6"/>
       <c r="E21" s="81"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="162"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="160"/>
       <c r="H21" s="146"/>
       <c r="I21" s="146"/>
       <c r="J21" s="150"/>
       <c r="K21" s="149"/>
       <c r="L21" s="149"/>
-      <c r="M21" s="167"/>
+      <c r="M21" s="165"/>
     </row>
     <row r="22" spans="2:13" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
       <c r="C22" s="51"/>
       <c r="D22" s="6"/>
       <c r="E22" s="81"/>
-      <c r="F22" s="200"/>
-      <c r="G22" s="162"/>
+      <c r="F22" s="198"/>
+      <c r="G22" s="160"/>
       <c r="H22" s="146"/>
       <c r="I22" s="146"/>
       <c r="J22" s="150"/>
       <c r="K22" s="149"/>
       <c r="L22" s="149"/>
-      <c r="M22" s="167"/>
+      <c r="M22" s="165"/>
     </row>
     <row r="23" spans="2:13" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
       <c r="C23" s="51"/>
-      <c r="D23" s="197"/>
+      <c r="D23" s="195"/>
       <c r="E23" s="81"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="162"/>
+      <c r="F23" s="198"/>
+      <c r="G23" s="160"/>
       <c r="H23" s="146"/>
       <c r="I23" s="146"/>
       <c r="J23" s="150"/>
       <c r="K23" s="149"/>
       <c r="L23" s="149"/>
-      <c r="M23" s="167"/>
+      <c r="M23" s="165"/>
     </row>
     <row r="24" spans="2:13" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B24" s="6"/>
       <c r="C24" s="51"/>
       <c r="D24" s="6"/>
       <c r="E24" s="81"/>
-      <c r="F24" s="200"/>
-      <c r="G24" s="162"/>
+      <c r="F24" s="198"/>
+      <c r="G24" s="160"/>
       <c r="H24" s="146"/>
       <c r="I24" s="146"/>
       <c r="J24" s="150"/>
       <c r="K24" s="149"/>
       <c r="L24" s="149"/>
-      <c r="M24" s="167"/>
+      <c r="M24" s="165"/>
     </row>
     <row r="25" spans="2:13" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B25" s="6"/>
       <c r="C25" s="51"/>
       <c r="D25" s="6"/>
       <c r="E25" s="81"/>
-      <c r="F25" s="200"/>
-      <c r="G25" s="162"/>
+      <c r="F25" s="198"/>
+      <c r="G25" s="160"/>
       <c r="H25" s="146"/>
       <c r="I25" s="146"/>
       <c r="J25" s="150"/>
       <c r="K25" s="149"/>
       <c r="L25" s="149"/>
-      <c r="M25" s="167"/>
+      <c r="M25" s="165"/>
     </row>
     <row r="26" spans="2:13" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B26" s="6"/>
       <c r="C26" s="51"/>
       <c r="D26" s="6"/>
       <c r="E26" s="81"/>
-      <c r="F26" s="201"/>
-      <c r="G26" s="162"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="160"/>
       <c r="H26" s="146"/>
       <c r="I26" s="146"/>
       <c r="J26" s="149"/>
@@ -15687,8 +15797,8 @@
       <c r="C27" s="51"/>
       <c r="D27" s="6"/>
       <c r="E27" s="81"/>
-      <c r="F27" s="200"/>
-      <c r="G27" s="162"/>
+      <c r="F27" s="198"/>
+      <c r="G27" s="160"/>
       <c r="H27" s="146"/>
       <c r="I27" s="146"/>
       <c r="J27" s="150"/>
@@ -15698,9 +15808,9 @@
     <row r="28" spans="2:13" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
       <c r="C28" s="51"/>
-      <c r="D28" s="197"/>
+      <c r="D28" s="195"/>
       <c r="E28" s="81"/>
-      <c r="F28" s="200"/>
+      <c r="F28" s="198"/>
       <c r="G28" s="156"/>
       <c r="H28" s="146"/>
       <c r="I28" s="146"/>
@@ -15777,10 +15887,10 @@
     <row r="35" spans="2:12" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B35" s="6"/>
       <c r="C35" s="51"/>
-      <c r="D35" s="197"/>
+      <c r="D35" s="195"/>
       <c r="E35" s="81"/>
-      <c r="F35" s="200"/>
-      <c r="G35" s="162"/>
+      <c r="F35" s="198"/>
+      <c r="G35" s="160"/>
       <c r="H35" s="146"/>
       <c r="I35" s="146"/>
       <c r="J35" s="149"/>
@@ -16053,7 +16163,7 @@
     </row>
     <row r="3" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="148" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" s="216">
         <f>'NOMINA TOTAL'!B10</f>
@@ -16072,13 +16182,13 @@
     </row>
     <row r="4" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="144" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4" s="145" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D4" s="145" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4" s="111"/>
       <c r="F4" s="79"/>
@@ -16092,7 +16202,7 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="100" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" s="101"/>
       <c r="D5" s="101"/>
@@ -16108,7 +16218,7 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="143" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" s="105" t="e">
         <f>'NOMINA TOTAL'!#REF!</f>
@@ -16127,7 +16237,7 @@
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="143" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C7" s="105" t="e">
         <f>'NOMINA TOTAL'!#REF!</f>
@@ -16146,7 +16256,7 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="143" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="105" t="e">
         <f>'NOMINA TOTAL'!#REF!</f>
@@ -16165,7 +16275,7 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="143" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C9" s="105" t="e">
         <f>'NOMINA TOTAL'!#REF!</f>
@@ -16184,7 +16294,7 @@
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="143" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C10" s="105" t="e">
         <f>'NOMINA TOTAL'!#REF!</f>
@@ -16203,7 +16313,7 @@
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="143" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C11" s="105" t="e">
         <f>'NOMINA TOTAL'!#REF!</f>
@@ -16222,7 +16332,7 @@
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="143" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C12" s="105"/>
       <c r="D12" s="105" t="e">
@@ -16241,7 +16351,7 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="143" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C13" s="105" t="e">
         <f>'NOMINA TOTAL'!#REF!</f>
@@ -16313,8 +16423,8 @@
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="98"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="172"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="170"/>
       <c r="N16" s="119"/>
       <c r="O16" s="119"/>
       <c r="P16" s="112"/>
@@ -16323,21 +16433,21 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="100" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C17" s="102"/>
       <c r="D17" s="103"/>
       <c r="E17" s="112"/>
       <c r="F17" s="57"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="170"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="168"/>
       <c r="N17" s="119"/>
       <c r="O17" s="119"/>
       <c r="P17" s="112"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="143" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C18" s="102" t="e">
         <f>'NOMINA TOTAL'!#REF!</f>
@@ -16346,15 +16456,15 @@
       <c r="D18" s="103"/>
       <c r="E18" s="112"/>
       <c r="F18" s="57"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="170"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="168"/>
       <c r="N18" s="119"/>
       <c r="O18" s="119"/>
       <c r="P18" s="112"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="143" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C19" s="102" t="e">
         <f>'NOMINA TOTAL'!#REF!</f>
@@ -16363,15 +16473,15 @@
       <c r="D19" s="103"/>
       <c r="E19" s="112"/>
       <c r="F19" s="57"/>
-      <c r="G19" s="169"/>
-      <c r="H19" s="170"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="168"/>
       <c r="N19" s="119"/>
       <c r="O19" s="119"/>
       <c r="P19" s="112"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="143" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C20" s="102" t="e">
         <f>'NOMINA TOTAL'!#REF!</f>
@@ -16380,15 +16490,15 @@
       <c r="D20" s="103"/>
       <c r="E20" s="112"/>
       <c r="F20" s="57"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="170"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="168"/>
       <c r="N20" s="119"/>
       <c r="O20" s="119"/>
       <c r="P20" s="112"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="143" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C21" s="102" t="e">
         <f>'NOMINA TOTAL'!#REF!</f>
@@ -16397,15 +16507,15 @@
       <c r="D21" s="103"/>
       <c r="E21" s="112"/>
       <c r="F21" s="57"/>
-      <c r="G21" s="169"/>
-      <c r="H21" s="170"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="168"/>
       <c r="N21" s="119"/>
       <c r="O21" s="119"/>
       <c r="P21" s="112"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="143" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C22" s="102" t="e">
         <f>'NOMINA TOTAL'!#REF!</f>
@@ -16414,15 +16524,15 @@
       <c r="D22" s="103"/>
       <c r="E22" s="112"/>
       <c r="F22" s="57"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="170"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="168"/>
       <c r="N22" s="119"/>
       <c r="O22" s="119"/>
       <c r="P22" s="112"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="143" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C23" s="102" t="e">
         <f>'NOMINA TOTAL'!#REF!</f>
@@ -16431,15 +16541,15 @@
       <c r="D23" s="103"/>
       <c r="E23" s="112"/>
       <c r="F23" s="57"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="170"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="168"/>
       <c r="N23" s="119"/>
       <c r="O23" s="119"/>
       <c r="P23" s="112"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="143" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C24" s="102"/>
       <c r="D24" s="103" t="e">
@@ -16448,15 +16558,15 @@
       </c>
       <c r="E24" s="112"/>
       <c r="F24" s="57"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="170"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="168"/>
       <c r="N24" s="119"/>
       <c r="O24" s="119"/>
       <c r="P24" s="112"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="143" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C25" s="102" t="e">
         <f>'NOMINA TOTAL'!#REF!</f>
@@ -16468,8 +16578,8 @@
       </c>
       <c r="E25" s="112"/>
       <c r="F25" s="57"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="170"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="168"/>
       <c r="N25" s="119"/>
       <c r="O25" s="119"/>
       <c r="P25" s="112"/>
@@ -16487,8 +16597,8 @@
         <v>#REF!</v>
       </c>
       <c r="E26" s="113"/>
-      <c r="G26" s="169"/>
-      <c r="H26" s="170"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="168"/>
       <c r="N26" s="119"/>
       <c r="O26" s="119"/>
       <c r="P26" s="112"/>
@@ -16506,8 +16616,8 @@
         <v>#REF!</v>
       </c>
       <c r="E27" s="115"/>
-      <c r="G27" s="169"/>
-      <c r="H27" s="170"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="168"/>
       <c r="N27" s="119"/>
       <c r="O27" s="119"/>
       <c r="P27" s="112"/>
@@ -16526,8 +16636,8 @@
       </c>
       <c r="E28" s="116"/>
       <c r="F28" s="96"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="172"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="170"/>
       <c r="N28" s="119"/>
       <c r="O28" s="119"/>
       <c r="P28" s="112"/>
@@ -16617,13 +16727,13 @@
     </row>
     <row r="3" spans="1:12" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C3" s="73" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D3" s="83">
         <v>9469.4470332060482</v>
@@ -16634,27 +16744,27 @@
         <v>62</v>
       </c>
       <c r="H3" s="117" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I3" s="74">
         <v>2614939697</v>
       </c>
       <c r="J3" s="118" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K3" s="118" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="73" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D4" s="83">
         <v>1241.1920578207573</v>
@@ -16665,27 +16775,27 @@
         <v>62</v>
       </c>
       <c r="H4" s="117" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I4" s="74">
         <v>1175894409</v>
       </c>
       <c r="J4" s="118" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K4" s="118" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="73" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D5" s="83">
         <v>9469.4470332060446</v>
@@ -16696,27 +16806,27 @@
         <v>62</v>
       </c>
       <c r="H5" s="117" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I5" s="74">
         <v>1279385908</v>
       </c>
       <c r="J5" s="118" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K5" s="118" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="73" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D6" s="83">
         <v>9469.4470332060464</v>
@@ -16724,28 +16834,28 @@
       <c r="E6" s="83"/>
       <c r="F6" s="71"/>
       <c r="G6" s="76" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H6" s="117" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I6" s="74"/>
       <c r="J6" s="118" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K6" s="118" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="73" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C7" s="73" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D7" s="83">
         <v>56668.163829297962</v>
@@ -16756,27 +16866,27 @@
         <v>62</v>
       </c>
       <c r="H7" s="117" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I7" s="74" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J7" s="118" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K7" s="118" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="73" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D8" s="83">
         <v>10442.614235619985</v>
@@ -16784,59 +16894,59 @@
       <c r="E8" s="83"/>
       <c r="F8" s="71"/>
       <c r="G8" s="76" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H8" s="118" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I8" s="74"/>
       <c r="J8" s="118" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K8" s="118" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="177" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="173" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" s="173" t="s">
-        <v>238</v>
-      </c>
-      <c r="C9" s="173" t="s">
-        <v>271</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="175" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="171" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="171" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="171" t="s">
+        <v>267</v>
       </c>
       <c r="D9" s="159">
         <v>40972.980332919549</v>
       </c>
       <c r="E9" s="159"/>
       <c r="F9" s="71"/>
-      <c r="G9" s="174" t="s">
+      <c r="G9" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="175" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="176">
+      <c r="H9" s="173" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="174">
         <v>1106394299</v>
       </c>
-      <c r="J9" s="175" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" s="175" t="s">
-        <v>100</v>
+      <c r="J9" s="173" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="173" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="73" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D10" s="83">
         <v>62847.602118190494</v>
@@ -16847,118 +16957,118 @@
         <v>62</v>
       </c>
       <c r="H10" s="118" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J10" s="118" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K10" s="118" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="177" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="173" t="s">
-        <v>216</v>
-      </c>
-      <c r="B11" s="173" t="s">
-        <v>247</v>
-      </c>
-      <c r="C11" s="173" t="s">
-        <v>274</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="175" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="171" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="171" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="171" t="s">
+        <v>270</v>
       </c>
       <c r="D11" s="159">
         <v>4537.6425010791982</v>
       </c>
       <c r="E11" s="159"/>
       <c r="F11" s="71"/>
-      <c r="G11" s="174" t="s">
+      <c r="G11" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="175" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="176">
+      <c r="H11" s="173" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="174">
         <v>2984760999</v>
       </c>
-      <c r="J11" s="175" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" s="175" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="177" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="173" t="s">
-        <v>217</v>
-      </c>
-      <c r="B12" s="173" t="s">
-        <v>215</v>
-      </c>
-      <c r="C12" s="173" t="s">
-        <v>275</v>
+      <c r="J11" s="173" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="173" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="175" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="171" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="171" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="171" t="s">
+        <v>271</v>
       </c>
       <c r="D12" s="159">
         <v>38905.40421191755</v>
       </c>
       <c r="E12" s="159"/>
       <c r="F12" s="71"/>
-      <c r="G12" s="174" t="s">
+      <c r="G12" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="175" t="s">
-        <v>115</v>
-      </c>
-      <c r="I12" s="176">
+      <c r="H12" s="173" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="174">
         <v>2635475015</v>
       </c>
-      <c r="J12" s="175" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="175" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="177" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="173" t="s">
-        <v>218</v>
-      </c>
-      <c r="B13" s="173" t="s">
-        <v>248</v>
-      </c>
-      <c r="C13" s="173" t="s">
-        <v>276</v>
+      <c r="J12" s="173" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="173" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="175" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="171" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="171" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="171" t="s">
+        <v>272</v>
       </c>
       <c r="D13" s="159">
         <v>30465.193836854058</v>
       </c>
       <c r="E13" s="159"/>
       <c r="F13" s="71"/>
-      <c r="G13" s="174" t="s">
-        <v>202</v>
-      </c>
-      <c r="H13" s="175" t="s">
-        <v>203</v>
-      </c>
-      <c r="I13" s="176"/>
-      <c r="J13" s="175" t="s">
-        <v>117</v>
-      </c>
-      <c r="K13" s="175" t="s">
-        <v>116</v>
+      <c r="G13" s="172" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="173" t="s">
+        <v>199</v>
+      </c>
+      <c r="I13" s="174"/>
+      <c r="J13" s="173" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="173" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="73" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D14" s="83">
         <v>10872.141756621841</v>
@@ -16969,27 +17079,27 @@
         <v>62</v>
       </c>
       <c r="H14" s="118" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I14" s="74">
         <v>2787650418</v>
       </c>
       <c r="J14" s="118" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K14" s="118" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="73" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D15" s="83">
         <v>10079.072731407088</v>
@@ -17000,27 +17110,27 @@
         <v>62</v>
       </c>
       <c r="H15" s="118" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I15" s="74">
         <v>2848462704</v>
       </c>
       <c r="J15" s="118" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K15" s="118" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="73" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B16" s="73" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D16" s="83">
         <v>10079.072731407088</v>
@@ -17028,31 +17138,31 @@
       <c r="E16" s="83"/>
       <c r="F16" s="71"/>
       <c r="G16" s="76" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H16" s="118" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I16" s="74"/>
       <c r="J16" s="118" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K16" s="118" t="s">
-        <v>182</v>
-      </c>
-      <c r="L16" s="190" t="s">
-        <v>301</v>
+        <v>179</v>
+      </c>
+      <c r="L16" s="188" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="73" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D17" s="83">
         <v>8829.0727314070882</v>
@@ -17063,27 +17173,27 @@
         <v>62</v>
       </c>
       <c r="H17" s="118" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I17" s="74">
         <v>2849018301</v>
       </c>
       <c r="J17" s="118" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K17" s="118" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="73" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D18" s="83">
         <v>18782.163464522982</v>
@@ -17094,27 +17204,27 @@
         <v>62</v>
       </c>
       <c r="H18" s="118" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I18" s="74">
         <v>2848941734</v>
       </c>
       <c r="J18" s="118" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K18" s="118" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="73" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B19" s="73" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D19" s="83">
         <v>22795.536352922547</v>
@@ -17125,27 +17235,27 @@
         <v>62</v>
       </c>
       <c r="H19" s="118" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I19" s="74">
         <v>1529525491</v>
       </c>
       <c r="J19" s="118" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K19" s="118" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="73" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D20" s="83">
         <v>8929.0727314070882</v>
@@ -17153,28 +17263,28 @@
       <c r="E20" s="83"/>
       <c r="F20" s="71"/>
       <c r="G20" s="76" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H20" s="118" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I20" s="74"/>
       <c r="J20" s="118" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K20" s="118" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="73" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B21" s="73" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D21" s="83">
         <v>10079.072731407088</v>
@@ -17182,30 +17292,30 @@
       <c r="E21" s="83"/>
       <c r="F21" s="71"/>
       <c r="G21" s="76" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H21" s="118" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I21" s="74"/>
       <c r="J21" s="118" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K21" s="118" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="73" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B22" s="73" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>284</v>
-      </c>
-      <c r="D22" s="188">
+        <v>280</v>
+      </c>
+      <c r="D22" s="186">
         <v>10079.072731407088</v>
       </c>
       <c r="E22" s="83"/>
@@ -17214,27 +17324,27 @@
         <v>62</v>
       </c>
       <c r="H22" s="118" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I22" s="74">
         <v>2849861513</v>
       </c>
       <c r="J22" s="118" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K22" s="118" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="73" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B23" s="73" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C23" s="73" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D23" s="83">
         <v>13172.141756621841</v>
@@ -17242,28 +17352,28 @@
       <c r="E23" s="83"/>
       <c r="F23" s="71"/>
       <c r="G23" s="76" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H23" s="118" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I23" s="74"/>
       <c r="J23" s="118" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K23" s="118" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="73" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B24" s="73" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D24" s="83">
         <v>24865.193836854058</v>
@@ -17274,27 +17384,27 @@
         <v>62</v>
       </c>
       <c r="H24" s="118" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I24" s="74">
         <v>2620354465</v>
       </c>
       <c r="J24" s="118" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K24" s="118" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="73" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B25" s="73" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C25" s="73" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D25" s="83">
         <v>8227.3770332060467</v>
@@ -17305,27 +17415,27 @@
         <v>62</v>
       </c>
       <c r="H25" s="75" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I25" s="74">
         <v>1134967259</v>
       </c>
       <c r="J25" s="75" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K25" s="75" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="73" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B26" s="73" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C26" s="73" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D26" s="83">
         <v>8227.3770332060467</v>
@@ -17333,28 +17443,28 @@
       <c r="E26" s="83"/>
       <c r="F26" s="71"/>
       <c r="G26" s="76" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H26" s="75" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I26" s="74"/>
       <c r="J26" s="75" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K26" s="75" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="73" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B27" s="73" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C27" s="73" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D27" s="83">
         <v>42102.16382929797</v>
@@ -17365,27 +17475,27 @@
         <v>62</v>
       </c>
       <c r="H27" s="75" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I27" s="74">
         <v>1195840910</v>
       </c>
       <c r="J27" s="75" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K27" s="75" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="73" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B28" s="73" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C28" s="73" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D28" s="83">
         <v>32159.11731899243</v>
@@ -17396,27 +17506,27 @@
         <v>62</v>
       </c>
       <c r="H28" s="75" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I28" s="74">
         <v>1119445579</v>
       </c>
       <c r="J28" s="75" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K28" s="75" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="73" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B29" s="73" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C29" s="73" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D29" s="83">
         <v>43618.163829297977</v>
@@ -17424,28 +17534,28 @@
       <c r="E29" s="83"/>
       <c r="F29" s="71"/>
       <c r="G29" s="76" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H29" s="75" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I29" s="74"/>
       <c r="J29" s="75" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K29" s="75" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="73" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B30" s="73" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D30" s="83">
         <v>10442.614235619985</v>
@@ -17453,28 +17563,28 @@
       <c r="E30" s="83"/>
       <c r="F30" s="71"/>
       <c r="G30" s="76" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H30" s="75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I30" s="74"/>
       <c r="J30" s="75" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K30" s="75" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="73" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B31" s="73" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C31" s="73" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D31" s="83">
         <v>8224.4770332060452</v>
@@ -17485,27 +17595,27 @@
         <v>62</v>
       </c>
       <c r="H31" s="75" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I31" s="74">
         <v>1196715761</v>
       </c>
       <c r="J31" s="75" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K31" s="75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="73" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B32" s="73" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C32" s="73" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D32" s="83">
         <v>8227.3770332060467</v>
@@ -17516,27 +17626,27 @@
         <v>62</v>
       </c>
       <c r="H32" s="75" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I32" s="74">
         <v>1495003075</v>
       </c>
       <c r="J32" s="75" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K32" s="75" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="73" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B33" s="73" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C33" s="73" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D33" s="83">
         <v>46518.16382929797</v>
@@ -17547,27 +17657,27 @@
         <v>62</v>
       </c>
       <c r="H33" s="75" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I33" s="74">
         <v>2976008909</v>
       </c>
       <c r="J33" s="75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K33" s="75" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="73" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B34" s="73" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C34" s="73" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D34" s="83">
         <v>22457.044607247299</v>
@@ -17575,31 +17685,31 @@
       <c r="E34" s="83"/>
       <c r="F34" s="71"/>
       <c r="G34" s="76" t="s">
-        <v>170</v>
-      </c>
-      <c r="H34" s="189" t="s">
-        <v>149</v>
+        <v>167</v>
+      </c>
+      <c r="H34" s="187" t="s">
+        <v>146</v>
       </c>
       <c r="I34" s="74"/>
       <c r="J34" s="75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K34" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="L34" s="177" t="s">
-        <v>300</v>
+        <v>144</v>
+      </c>
+      <c r="L34" s="175" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="73" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B35" s="73" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C35" s="73" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D35" s="83">
         <v>43618.163829297977</v>
@@ -17610,27 +17720,27 @@
         <v>62</v>
       </c>
       <c r="H35" s="75" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I35" s="74">
         <v>2757317549</v>
       </c>
       <c r="J35" s="75" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K35" s="75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="73" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B36" s="73" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C36" s="73" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D36" s="83">
         <v>46518.16382929797</v>
@@ -17641,27 +17751,27 @@
         <v>62</v>
       </c>
       <c r="H36" s="75" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I36" s="74">
         <v>2846776361</v>
       </c>
       <c r="J36" s="75" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K36" s="75" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="73" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B37" s="73" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C37" s="73" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D37" s="83">
         <v>4254.0398447617481</v>
@@ -17672,27 +17782,27 @@
         <v>62</v>
       </c>
       <c r="H37" s="75" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I37" s="74">
         <v>2859119736</v>
       </c>
       <c r="J37" s="75" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K37" s="75" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="73" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B38" s="73" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C38" s="73" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D38" s="83">
         <v>8227.3770332060467</v>
@@ -17703,16 +17813,16 @@
         <v>62</v>
       </c>
       <c r="H38" s="75" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I38" s="74">
         <v>2970572284</v>
       </c>
       <c r="J38" s="75" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K38" s="75" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -17763,126 +17873,126 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="177" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="173" t="s">
-        <v>213</v>
-      </c>
-      <c r="B41" s="173" t="s">
-        <v>238</v>
-      </c>
-      <c r="C41" s="173" t="s">
-        <v>271</v>
+    <row r="41" spans="1:12" s="175" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="171" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41" s="171" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="171" t="s">
+        <v>267</v>
       </c>
       <c r="D41" s="159">
         <v>46826.263237622348</v>
       </c>
       <c r="E41" s="159"/>
       <c r="F41" s="71"/>
-      <c r="G41" s="174" t="s">
+      <c r="G41" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="H41" s="175" t="s">
-        <v>102</v>
-      </c>
-      <c r="I41" s="176">
+      <c r="H41" s="173" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" s="174">
         <v>1106394299</v>
       </c>
-      <c r="J41" s="175" t="s">
-        <v>101</v>
-      </c>
-      <c r="K41" s="175" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="177" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="173" t="s">
-        <v>217</v>
-      </c>
-      <c r="B42" s="173" t="s">
-        <v>215</v>
-      </c>
-      <c r="C42" s="173" t="s">
-        <v>275</v>
+      <c r="J41" s="173" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" s="173" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="175" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="171" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" s="171" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" s="171" t="s">
+        <v>271</v>
       </c>
       <c r="D42" s="159">
         <v>23157.044607247299</v>
       </c>
       <c r="E42" s="159"/>
       <c r="F42" s="71"/>
-      <c r="G42" s="174" t="s">
+      <c r="G42" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="H42" s="175" t="s">
-        <v>115</v>
-      </c>
-      <c r="I42" s="176">
+      <c r="H42" s="173" t="s">
+        <v>112</v>
+      </c>
+      <c r="I42" s="174">
         <v>2635475015</v>
       </c>
-      <c r="J42" s="175" t="s">
-        <v>114</v>
-      </c>
-      <c r="K42" s="175" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="177" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="173" t="s">
-        <v>218</v>
-      </c>
-      <c r="B43" s="173" t="s">
-        <v>248</v>
-      </c>
-      <c r="C43" s="173" t="s">
-        <v>276</v>
+      <c r="J42" s="173" t="s">
+        <v>111</v>
+      </c>
+      <c r="K42" s="173" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="175" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="171" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="171" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="171" t="s">
+        <v>272</v>
       </c>
       <c r="D43" s="159">
         <v>26657.044607247299</v>
       </c>
       <c r="E43" s="159"/>
       <c r="F43" s="71"/>
-      <c r="G43" s="174" t="s">
-        <v>202</v>
-      </c>
-      <c r="H43" s="178" t="s">
-        <v>203</v>
-      </c>
-      <c r="I43" s="176"/>
-      <c r="J43" s="178" t="s">
-        <v>117</v>
-      </c>
-      <c r="K43" s="178" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="177" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="173" t="s">
-        <v>216</v>
-      </c>
-      <c r="B44" s="173" t="s">
-        <v>247</v>
-      </c>
-      <c r="C44" s="173" t="s">
-        <v>274</v>
+      <c r="G43" s="172" t="s">
+        <v>198</v>
+      </c>
+      <c r="H43" s="176" t="s">
+        <v>199</v>
+      </c>
+      <c r="I43" s="174"/>
+      <c r="J43" s="176" t="s">
+        <v>114</v>
+      </c>
+      <c r="K43" s="176" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="175" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="171" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" s="171" t="s">
+        <v>243</v>
+      </c>
+      <c r="C44" s="171" t="s">
+        <v>270</v>
       </c>
       <c r="D44" s="159">
         <v>3686.834532126848</v>
       </c>
       <c r="E44" s="159"/>
       <c r="F44" s="71"/>
-      <c r="G44" s="174" t="s">
+      <c r="G44" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="178" t="s">
-        <v>112</v>
-      </c>
-      <c r="I44" s="176">
+      <c r="H44" s="176" t="s">
+        <v>109</v>
+      </c>
+      <c r="I44" s="174">
         <v>2984760999</v>
       </c>
-      <c r="J44" s="178" t="s">
-        <v>111</v>
-      </c>
-      <c r="K44" s="178" t="s">
-        <v>110</v>
+      <c r="J44" s="176" t="s">
+        <v>108</v>
+      </c>
+      <c r="K44" s="176" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -17920,63 +18030,63 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="186" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="179" t="s">
-        <v>215</v>
-      </c>
-      <c r="B46" s="179" t="s">
-        <v>246</v>
-      </c>
-      <c r="C46" s="179" t="s">
-        <v>273</v>
-      </c>
-      <c r="D46" s="180">
+    <row r="46" spans="1:12" s="184" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="177" t="s">
+        <v>211</v>
+      </c>
+      <c r="B46" s="177" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" s="177" t="s">
+        <v>269</v>
+      </c>
+      <c r="D46" s="178">
         <v>5761.4423368937851</v>
       </c>
-      <c r="E46" s="180"/>
-      <c r="F46" s="181"/>
-      <c r="G46" s="182" t="s">
-        <v>81</v>
-      </c>
-      <c r="H46" s="183" t="s">
-        <v>109</v>
-      </c>
-      <c r="I46" s="184"/>
-      <c r="J46" s="183" t="s">
-        <v>108</v>
-      </c>
-      <c r="K46" s="183" t="s">
-        <v>107</v>
-      </c>
-      <c r="L46" s="185" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="177" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="173"/>
-      <c r="B47" s="173"/>
-      <c r="C47" s="173"/>
+      <c r="E46" s="178"/>
+      <c r="F46" s="179"/>
+      <c r="G46" s="180" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" s="181" t="s">
+        <v>106</v>
+      </c>
+      <c r="I46" s="182"/>
+      <c r="J46" s="181" t="s">
+        <v>105</v>
+      </c>
+      <c r="K46" s="181" t="s">
+        <v>104</v>
+      </c>
+      <c r="L46" s="183" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="175" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="171"/>
+      <c r="B47" s="171"/>
+      <c r="C47" s="171"/>
       <c r="D47" s="159"/>
       <c r="E47" s="159"/>
       <c r="F47" s="71"/>
-      <c r="G47" s="174"/>
-      <c r="H47" s="178"/>
-      <c r="I47" s="176"/>
-      <c r="J47" s="178"/>
-      <c r="K47" s="178"/>
-    </row>
-    <row r="48" spans="1:12" s="177" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="173"/>
-      <c r="B48" s="173"/>
-      <c r="C48" s="173"/>
+      <c r="G47" s="172"/>
+      <c r="H47" s="176"/>
+      <c r="I47" s="174"/>
+      <c r="J47" s="176"/>
+      <c r="K47" s="176"/>
+    </row>
+    <row r="48" spans="1:12" s="175" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="171"/>
+      <c r="B48" s="171"/>
+      <c r="C48" s="171"/>
       <c r="D48" s="159"/>
       <c r="E48" s="159"/>
       <c r="F48" s="71"/>
-      <c r="G48" s="174"/>
-      <c r="H48" s="178"/>
-      <c r="I48" s="176"/>
-      <c r="J48" s="178"/>
-      <c r="K48" s="178"/>
+      <c r="G48" s="172"/>
+      <c r="H48" s="176"/>
+      <c r="I48" s="174"/>
+      <c r="J48" s="176"/>
+      <c r="K48" s="176"/>
     </row>
     <row r="49" spans="1:11" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="73"/>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -32,8 +32,8 @@
     <definedName name="_TC1">[2]FOR!$B$9</definedName>
     <definedName name="_TC2">[2]FOR!$B$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">DETALLE!$A$1:$K$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'OPERADORA ABORDO'!$A$1:$AM$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'OPERADORA DESCANSO'!$A$1:$AL$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'OPERADORA ABORDO'!$A$1:$AO$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'OPERADORA DESCANSO'!$A$1:$AN$19</definedName>
     <definedName name="LICS">[3]FOR!$F$59:$F$71</definedName>
     <definedName name="LIIMP">[3]FOR!$F$36:$F$40</definedName>
     <definedName name="LISUB">[3]FOR!$F$46:$F$53</definedName>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="102">
   <si>
     <t>SUBTOTAL</t>
   </si>
@@ -354,6 +354,21 @@
   </si>
   <si>
     <t>ISLA SAN DIEGO</t>
+  </si>
+  <si>
+    <t>AJUSTE INFONAVIT</t>
+  </si>
+  <si>
+    <t>INFONAVIT BIMESTRE ATERIOR</t>
+  </si>
+  <si>
+    <t>Prestamo Personal Asimilado</t>
+  </si>
+  <si>
+    <t>Adeudo_Infonavit_Asimilado</t>
+  </si>
+  <si>
+    <t>Difencia infonavit Asimilado</t>
   </si>
 </sst>
 </file>
@@ -5000,9 +5015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BE12"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB15" sqref="AB15"/>
+    <sheetView topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5817,10 +5832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JY47"/>
+  <dimension ref="A1:KA47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="AS1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1:AX1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5852,18 +5867,18 @@
     <col min="32" max="32" width="11.42578125" customWidth="1"/>
     <col min="33" max="33" width="12.28515625" customWidth="1"/>
     <col min="34" max="34" width="11.42578125" customWidth="1"/>
-    <col min="35" max="35" width="14.140625" customWidth="1"/>
-    <col min="36" max="36" width="15.85546875" customWidth="1"/>
-    <col min="37" max="37" width="12" customWidth="1"/>
-    <col min="38" max="38" width="13.42578125" customWidth="1"/>
-    <col min="39" max="44" width="14.28515625" customWidth="1"/>
-    <col min="45" max="45" width="12.28515625" customWidth="1"/>
-    <col min="46" max="48" width="11.42578125" customWidth="1"/>
-    <col min="49" max="53" width="11.42578125" style="10" customWidth="1"/>
-    <col min="54" max="54" width="16.85546875" customWidth="1"/>
+    <col min="35" max="37" width="14.140625" customWidth="1"/>
+    <col min="38" max="38" width="15.85546875" customWidth="1"/>
+    <col min="39" max="39" width="12" customWidth="1"/>
+    <col min="40" max="40" width="13.42578125" customWidth="1"/>
+    <col min="41" max="46" width="14.28515625" customWidth="1"/>
+    <col min="47" max="47" width="12.28515625" customWidth="1"/>
+    <col min="48" max="50" width="0" style="10" hidden="1" customWidth="1"/>
+    <col min="51" max="55" width="11.42578125" style="10" customWidth="1"/>
+    <col min="56" max="56" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:285" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:287" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
       <c r="B1" s="173" t="s">
         <v>11</v>
@@ -5910,10 +5925,11 @@
       <c r="AP1" s="24"/>
       <c r="AQ1" s="24"/>
       <c r="AR1" s="24"/>
-      <c r="AV1" s="10"/>
-      <c r="BA1"/>
-    </row>
-    <row r="2" spans="1:285" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="BC1"/>
+    </row>
+    <row r="2" spans="1:287" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="51" t="s">
         <v>23</v>
@@ -5960,10 +5976,11 @@
       <c r="AP2" s="24"/>
       <c r="AQ2" s="24"/>
       <c r="AR2" s="24"/>
-      <c r="AV2" s="10"/>
-      <c r="BA2"/>
-    </row>
-    <row r="3" spans="1:285" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="BC2"/>
+    </row>
+    <row r="3" spans="1:287" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="175" t="s">
         <v>12</v>
@@ -6010,13 +6027,17 @@
       <c r="AP3" s="24"/>
       <c r="AQ3" s="24"/>
       <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
       <c r="AV3" s="110"/>
       <c r="AW3" s="110"/>
       <c r="AX3" s="110"/>
       <c r="AY3" s="110"/>
       <c r="AZ3" s="110"/>
-    </row>
-    <row r="4" spans="1:285" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="BA3" s="110"/>
+      <c r="BB3" s="110"/>
+    </row>
+    <row r="4" spans="1:287" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="176" t="s">
         <v>64</v>
@@ -6063,8 +6084,10 @@
       <c r="AP4" s="24"/>
       <c r="AQ4" s="24"/>
       <c r="AR4" s="24"/>
-    </row>
-    <row r="5" spans="1:285" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="24"/>
+    </row>
+    <row r="5" spans="1:287" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="29" t="s">
         <v>21</v>
@@ -6111,8 +6134,10 @@
       <c r="AP5" s="24"/>
       <c r="AQ5" s="24"/>
       <c r="AR5" s="24"/>
-    </row>
-    <row r="6" spans="1:285" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS5" s="24"/>
+      <c r="AT5" s="24"/>
+    </row>
+    <row r="6" spans="1:287" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="29" t="s">
         <v>22</v>
@@ -6159,11 +6184,9 @@
       <c r="AP6" s="24"/>
       <c r="AQ6" s="24"/>
       <c r="AR6" s="24"/>
-      <c r="AS6"/>
-      <c r="AT6"/>
+      <c r="AS6" s="24"/>
+      <c r="AT6" s="24"/>
       <c r="AU6"/>
-      <c r="BA6"/>
-      <c r="BB6"/>
       <c r="BC6"/>
       <c r="BD6"/>
       <c r="BE6"/>
@@ -6221,8 +6244,10 @@
       <c r="DE6"/>
       <c r="DF6"/>
       <c r="DG6"/>
-    </row>
-    <row r="7" spans="1:285" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="DH6"/>
+      <c r="DI6"/>
+    </row>
+    <row r="7" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="68"/>
@@ -6250,8 +6275,6 @@
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="18"/>
-      <c r="AS7" s="110"/>
-      <c r="AT7" s="110"/>
       <c r="AU7" s="110"/>
       <c r="AV7" s="110"/>
       <c r="AW7" s="110"/>
@@ -6317,8 +6340,10 @@
       <c r="DE7" s="110"/>
       <c r="DF7" s="110"/>
       <c r="DG7" s="110"/>
-    </row>
-    <row r="8" spans="1:285" s="45" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="DH7" s="110"/>
+      <c r="DI7" s="110"/>
+    </row>
+    <row r="8" spans="1:287" s="45" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>16</v>
       </c>
@@ -6425,40 +6450,50 @@
         <v>10</v>
       </c>
       <c r="AJ8" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK8" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL8" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="AK8" s="45" t="s">
+      <c r="AM8" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="AL8" s="128" t="s">
+      <c r="AN8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AM8" s="127" t="s">
+      <c r="AO8" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="AN8" s="130" t="s">
+      <c r="AP8" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="AO8" s="130" t="s">
+      <c r="AQ8" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="AP8" s="130" t="s">
+      <c r="AR8" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="AQ8" s="130" t="s">
+      <c r="AS8" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="AR8" s="131" t="s">
+      <c r="AT8" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="AS8" s="130" t="s">
+      <c r="AU8" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="10"/>
+      <c r="AV8" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW8" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX8" s="128" t="s">
+        <v>101</v>
+      </c>
       <c r="AY8" s="10"/>
       <c r="AZ8" s="10"/>
       <c r="BA8" s="10"/>
@@ -6520,8 +6555,8 @@
       <c r="DE8" s="10"/>
       <c r="DF8" s="10"/>
       <c r="DG8" s="10"/>
-      <c r="DH8" s="126"/>
-      <c r="DI8" s="126"/>
+      <c r="DH8" s="10"/>
+      <c r="DI8" s="10"/>
       <c r="DJ8" s="126"/>
       <c r="DK8" s="126"/>
       <c r="DL8" s="126"/>
@@ -6531,9 +6566,9 @@
       <c r="DP8" s="126"/>
       <c r="DQ8" s="126"/>
       <c r="DR8" s="126"/>
-      <c r="DS8" s="125"/>
-      <c r="DT8" s="124"/>
-      <c r="DU8" s="124"/>
+      <c r="DS8" s="126"/>
+      <c r="DT8" s="126"/>
+      <c r="DU8" s="125"/>
       <c r="DV8" s="124"/>
       <c r="DW8" s="124"/>
       <c r="DX8" s="124"/>
@@ -6694,8 +6729,10 @@
       <c r="JW8" s="124"/>
       <c r="JX8" s="124"/>
       <c r="JY8" s="124"/>
-    </row>
-    <row r="9" spans="1:285" s="79" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="JZ8" s="124"/>
+      <c r="KA8" s="124"/>
+    </row>
+    <row r="9" spans="1:287" s="79" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49"/>
       <c r="B9" s="5"/>
       <c r="C9" s="74"/>
@@ -6724,15 +6761,17 @@
       <c r="AG9" s="83"/>
       <c r="AH9" s="83"/>
       <c r="AI9" s="83"/>
-      <c r="AM9" s="83"/>
-      <c r="AN9" s="83"/>
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
       <c r="AO9" s="83"/>
       <c r="AP9" s="83"/>
       <c r="AQ9" s="83"/>
       <c r="AR9" s="83"/>
       <c r="AS9" s="83"/>
-    </row>
-    <row r="10" spans="1:285" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="83"/>
+    </row>
+    <row r="10" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="115"/>
       <c r="B10" s="116"/>
       <c r="C10" s="117"/>
@@ -6772,14 +6811,19 @@
       <c r="AK10" s="119"/>
       <c r="AL10" s="119"/>
       <c r="AM10" s="119"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="48"/>
+      <c r="AN10" s="119"/>
+      <c r="AO10" s="119"/>
       <c r="AP10" s="48"/>
       <c r="AQ10" s="48"/>
       <c r="AR10" s="48"/>
-      <c r="AS10" s="54"/>
-    </row>
-    <row r="11" spans="1:285" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS10" s="48"/>
+      <c r="AT10" s="48"/>
+      <c r="AU10" s="54"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="79"/>
+    </row>
+    <row r="11" spans="1:287" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="5"/>
       <c r="C11" s="74"/>
@@ -6809,18 +6853,20 @@
       <c r="AG11" s="103"/>
       <c r="AH11" s="103"/>
       <c r="AI11" s="103"/>
-      <c r="AJ11" s="102"/>
-      <c r="AK11" s="102"/>
+      <c r="AJ11" s="103"/>
+      <c r="AK11" s="103"/>
       <c r="AL11" s="102"/>
-      <c r="AM11" s="103"/>
-      <c r="AN11" s="103"/>
+      <c r="AM11" s="102"/>
+      <c r="AN11" s="102"/>
       <c r="AO11" s="103"/>
       <c r="AP11" s="103"/>
       <c r="AQ11" s="103"/>
       <c r="AR11" s="103"/>
-      <c r="AS11" s="83"/>
-    </row>
-    <row r="12" spans="1:285" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS11" s="103"/>
+      <c r="AT11" s="103"/>
+      <c r="AU11" s="83"/>
+    </row>
+    <row r="12" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46"/>
       <c r="B12" s="38"/>
       <c r="C12" s="69"/>
@@ -6865,9 +6911,14 @@
       <c r="AP12" s="48"/>
       <c r="AQ12" s="48"/>
       <c r="AR12" s="48"/>
-      <c r="AS12" s="54"/>
-    </row>
-    <row r="13" spans="1:285" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS12" s="48"/>
+      <c r="AT12" s="48"/>
+      <c r="AU12" s="54"/>
+      <c r="AV12" s="79"/>
+      <c r="AW12" s="79"/>
+      <c r="AX12" s="79"/>
+    </row>
+    <row r="13" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="46"/>
       <c r="B13" s="38"/>
       <c r="C13" s="69"/>
@@ -6912,8 +6963,13 @@
       <c r="AP13" s="48"/>
       <c r="AQ13" s="48"/>
       <c r="AR13" s="48"/>
-    </row>
-    <row r="14" spans="1:285" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS13" s="48"/>
+      <c r="AT13" s="48"/>
+      <c r="AV13" s="79"/>
+      <c r="AW13" s="79"/>
+      <c r="AX13" s="79"/>
+    </row>
+    <row r="14" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="46"/>
       <c r="B14" s="38"/>
       <c r="C14" s="69"/>
@@ -6958,8 +7014,13 @@
       <c r="AP14" s="48"/>
       <c r="AQ14" s="48"/>
       <c r="AR14" s="48"/>
-    </row>
-    <row r="15" spans="1:285" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS14" s="48"/>
+      <c r="AT14" s="48"/>
+      <c r="AV14" s="79"/>
+      <c r="AW14" s="79"/>
+      <c r="AX14" s="79"/>
+    </row>
+    <row r="15" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="46"/>
       <c r="B15" s="38"/>
       <c r="C15" s="69"/>
@@ -7004,8 +7065,13 @@
       <c r="AP15" s="48"/>
       <c r="AQ15" s="48"/>
       <c r="AR15" s="48"/>
-    </row>
-    <row r="16" spans="1:285" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS15" s="48"/>
+      <c r="AT15" s="48"/>
+      <c r="AV15" s="79"/>
+      <c r="AW15" s="79"/>
+      <c r="AX15" s="79"/>
+    </row>
+    <row r="16" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="46"/>
       <c r="B16" s="38"/>
       <c r="C16" s="69"/>
@@ -7050,8 +7116,13 @@
       <c r="AP16" s="48"/>
       <c r="AQ16" s="48"/>
       <c r="AR16" s="48"/>
-    </row>
-    <row r="17" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS16" s="48"/>
+      <c r="AT16" s="48"/>
+      <c r="AV16" s="79"/>
+      <c r="AW16" s="79"/>
+      <c r="AX16" s="79"/>
+    </row>
+    <row r="17" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="46"/>
       <c r="B17" s="38"/>
       <c r="C17" s="69"/>
@@ -7096,8 +7167,13 @@
       <c r="AP17" s="48"/>
       <c r="AQ17" s="48"/>
       <c r="AR17" s="48"/>
-    </row>
-    <row r="18" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS17" s="48"/>
+      <c r="AT17" s="48"/>
+      <c r="AV17" s="79"/>
+      <c r="AW17" s="79"/>
+      <c r="AX17" s="79"/>
+    </row>
+    <row r="18" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="46"/>
       <c r="B18" s="38"/>
       <c r="C18" s="69"/>
@@ -7142,8 +7218,13 @@
       <c r="AP18" s="48"/>
       <c r="AQ18" s="48"/>
       <c r="AR18" s="48"/>
-    </row>
-    <row r="19" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS18" s="48"/>
+      <c r="AT18" s="48"/>
+      <c r="AV18" s="79"/>
+      <c r="AW18" s="79"/>
+      <c r="AX18" s="79"/>
+    </row>
+    <row r="19" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
       <c r="B19" s="38"/>
       <c r="C19" s="69"/>
@@ -7188,8 +7269,13 @@
       <c r="AP19" s="48"/>
       <c r="AQ19" s="48"/>
       <c r="AR19" s="48"/>
-    </row>
-    <row r="20" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS19" s="48"/>
+      <c r="AT19" s="48"/>
+      <c r="AV19" s="79"/>
+      <c r="AW19" s="79"/>
+      <c r="AX19" s="79"/>
+    </row>
+    <row r="20" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="25"/>
       <c r="C20" s="69"/>
@@ -7234,8 +7320,10 @@
       <c r="AP20" s="48"/>
       <c r="AQ20" s="48"/>
       <c r="AR20" s="48"/>
-    </row>
-    <row r="21" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS20" s="48"/>
+      <c r="AT20" s="48"/>
+    </row>
+    <row r="21" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="25"/>
       <c r="C21" s="69"/>
@@ -7280,8 +7368,10 @@
       <c r="AP21" s="48"/>
       <c r="AQ21" s="48"/>
       <c r="AR21" s="48"/>
-    </row>
-    <row r="22" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS21" s="48"/>
+      <c r="AT21" s="48"/>
+    </row>
+    <row r="22" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="25"/>
       <c r="C22" s="69"/>
@@ -7326,8 +7416,10 @@
       <c r="AP22" s="48"/>
       <c r="AQ22" s="48"/>
       <c r="AR22" s="48"/>
-    </row>
-    <row r="23" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS22" s="48"/>
+      <c r="AT22" s="48"/>
+    </row>
+    <row r="23" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="30"/>
       <c r="C23" s="67"/>
@@ -7372,8 +7464,10 @@
       <c r="AP23" s="48"/>
       <c r="AQ23" s="48"/>
       <c r="AR23" s="48"/>
-    </row>
-    <row r="24" spans="1:44" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS23" s="48"/>
+      <c r="AT23" s="48"/>
+    </row>
+    <row r="24" spans="1:50" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="70"/>
@@ -7418,8 +7512,10 @@
       <c r="AP24" s="48"/>
       <c r="AQ24" s="48"/>
       <c r="AR24" s="48"/>
-    </row>
-    <row r="25" spans="1:44" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS24" s="48"/>
+      <c r="AT24" s="48"/>
+    </row>
+    <row r="25" spans="1:50" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71"/>
@@ -7464,8 +7560,10 @@
       <c r="AP25" s="19"/>
       <c r="AQ25" s="19"/>
       <c r="AR25" s="19"/>
-    </row>
-    <row r="26" spans="1:44" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
+    </row>
+    <row r="26" spans="1:50" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="24"/>
       <c r="C26" s="65"/>
@@ -7510,8 +7608,10 @@
       <c r="AP26" s="24"/>
       <c r="AQ26" s="24"/>
       <c r="AR26" s="24"/>
-    </row>
-    <row r="27" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS26" s="24"/>
+      <c r="AT26" s="24"/>
+    </row>
+    <row r="27" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="25"/>
       <c r="C27" s="69"/>
@@ -7547,17 +7647,19 @@
       <c r="AG27" s="48"/>
       <c r="AH27" s="48"/>
       <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
+      <c r="AJ27" s="40"/>
       <c r="AK27" s="40"/>
-      <c r="AL27" s="40"/>
-      <c r="AM27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="40"/>
       <c r="AN27" s="40"/>
-      <c r="AO27" s="40"/>
+      <c r="AO27" s="32"/>
       <c r="AP27" s="40"/>
       <c r="AQ27" s="40"/>
       <c r="AR27" s="40"/>
-    </row>
-    <row r="28" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS27" s="40"/>
+      <c r="AT27" s="40"/>
+    </row>
+    <row r="28" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="25"/>
       <c r="C28" s="69"/>
@@ -7593,17 +7695,19 @@
       <c r="AG28" s="48"/>
       <c r="AH28" s="48"/>
       <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
+      <c r="AJ28" s="40"/>
       <c r="AK28" s="40"/>
-      <c r="AL28" s="40"/>
-      <c r="AM28" s="32"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="40"/>
       <c r="AN28" s="40"/>
-      <c r="AO28" s="40"/>
+      <c r="AO28" s="32"/>
       <c r="AP28" s="40"/>
       <c r="AQ28" s="40"/>
       <c r="AR28" s="40"/>
-    </row>
-    <row r="29" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS28" s="40"/>
+      <c r="AT28" s="40"/>
+    </row>
+    <row r="29" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="30"/>
       <c r="C29" s="67"/>
@@ -7648,8 +7752,10 @@
       <c r="AP29" s="30"/>
       <c r="AQ29" s="30"/>
       <c r="AR29" s="30"/>
-    </row>
-    <row r="30" spans="1:44" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS29" s="30"/>
+      <c r="AT29" s="30"/>
+    </row>
+    <row r="30" spans="1:50" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="70"/>
@@ -7694,8 +7800,10 @@
       <c r="AP30" s="36"/>
       <c r="AQ30" s="36"/>
       <c r="AR30" s="36"/>
-    </row>
-    <row r="31" spans="1:44" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS30" s="36"/>
+      <c r="AT30" s="36"/>
+    </row>
+    <row r="31" spans="1:50" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="72"/>
@@ -7740,8 +7848,10 @@
       <c r="AP31" s="22"/>
       <c r="AQ31" s="22"/>
       <c r="AR31" s="22"/>
-    </row>
-    <row r="32" spans="1:44" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS31" s="22"/>
+      <c r="AT31" s="22"/>
+    </row>
+    <row r="32" spans="1:50" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="24"/>
       <c r="C32" s="65"/>
@@ -7786,8 +7896,10 @@
       <c r="AP32" s="24"/>
       <c r="AQ32" s="24"/>
       <c r="AR32" s="24"/>
-    </row>
-    <row r="33" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS32" s="24"/>
+      <c r="AT32" s="24"/>
+    </row>
+    <row r="33" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="25"/>
       <c r="C33" s="69"/>
@@ -7823,17 +7935,19 @@
       <c r="AG33" s="32"/>
       <c r="AH33" s="32"/>
       <c r="AI33" s="32"/>
-      <c r="AJ33" s="32"/>
+      <c r="AJ33" s="40"/>
       <c r="AK33" s="40"/>
-      <c r="AL33" s="40"/>
-      <c r="AM33" s="32"/>
+      <c r="AL33" s="32"/>
+      <c r="AM33" s="40"/>
       <c r="AN33" s="40"/>
-      <c r="AO33" s="40"/>
+      <c r="AO33" s="32"/>
       <c r="AP33" s="40"/>
       <c r="AQ33" s="40"/>
       <c r="AR33" s="40"/>
-    </row>
-    <row r="34" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS33" s="40"/>
+      <c r="AT33" s="40"/>
+    </row>
+    <row r="34" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
       <c r="B34" s="25"/>
       <c r="C34" s="69"/>
@@ -7869,17 +7983,19 @@
       <c r="AG34" s="32"/>
       <c r="AH34" s="32"/>
       <c r="AI34" s="32"/>
-      <c r="AJ34" s="32"/>
+      <c r="AJ34" s="40"/>
       <c r="AK34" s="40"/>
-      <c r="AL34" s="40"/>
-      <c r="AM34" s="32"/>
+      <c r="AL34" s="32"/>
+      <c r="AM34" s="40"/>
       <c r="AN34" s="40"/>
-      <c r="AO34" s="40"/>
+      <c r="AO34" s="32"/>
       <c r="AP34" s="40"/>
       <c r="AQ34" s="40"/>
       <c r="AR34" s="40"/>
-    </row>
-    <row r="35" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS34" s="40"/>
+      <c r="AT34" s="40"/>
+    </row>
+    <row r="35" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="30"/>
       <c r="C35" s="67"/>
@@ -7924,8 +8040,10 @@
       <c r="AP35" s="30"/>
       <c r="AQ35" s="30"/>
       <c r="AR35" s="30"/>
-    </row>
-    <row r="36" spans="1:44" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS35" s="30"/>
+      <c r="AT35" s="30"/>
+    </row>
+    <row r="36" spans="1:46" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="70"/>
@@ -7970,8 +8088,10 @@
       <c r="AP36" s="36"/>
       <c r="AQ36" s="36"/>
       <c r="AR36" s="36"/>
-    </row>
-    <row r="37" spans="1:44" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS36" s="36"/>
+      <c r="AT36" s="36"/>
+    </row>
+    <row r="37" spans="1:46" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="72"/>
@@ -8016,8 +8136,10 @@
       <c r="AP37" s="22"/>
       <c r="AQ37" s="22"/>
       <c r="AR37" s="22"/>
-    </row>
-    <row r="38" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS37" s="22"/>
+      <c r="AT37" s="22"/>
+    </row>
+    <row r="38" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="24"/>
       <c r="C38" s="65"/>
@@ -8062,8 +8184,10 @@
       <c r="AP38" s="24"/>
       <c r="AQ38" s="24"/>
       <c r="AR38" s="24"/>
-    </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AS38" s="24"/>
+      <c r="AT38" s="24"/>
+    </row>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
       <c r="B39" s="25"/>
       <c r="C39" s="69"/>
@@ -8099,17 +8223,19 @@
       <c r="AG39" s="32"/>
       <c r="AH39" s="32"/>
       <c r="AI39" s="32"/>
-      <c r="AJ39" s="32"/>
+      <c r="AJ39" s="40"/>
       <c r="AK39" s="40"/>
-      <c r="AL39" s="40"/>
-      <c r="AM39" s="32"/>
+      <c r="AL39" s="32"/>
+      <c r="AM39" s="40"/>
       <c r="AN39" s="40"/>
-      <c r="AO39" s="40"/>
+      <c r="AO39" s="32"/>
       <c r="AP39" s="40"/>
       <c r="AQ39" s="40"/>
       <c r="AR39" s="40"/>
-    </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AS39" s="40"/>
+      <c r="AT39" s="40"/>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
       <c r="B40" s="25"/>
       <c r="C40" s="69"/>
@@ -8145,17 +8271,19 @@
       <c r="AG40" s="32"/>
       <c r="AH40" s="32"/>
       <c r="AI40" s="32"/>
-      <c r="AJ40" s="32"/>
+      <c r="AJ40" s="40"/>
       <c r="AK40" s="40"/>
-      <c r="AL40" s="40"/>
-      <c r="AM40" s="32"/>
+      <c r="AL40" s="32"/>
+      <c r="AM40" s="40"/>
       <c r="AN40" s="40"/>
-      <c r="AO40" s="40"/>
+      <c r="AO40" s="32"/>
       <c r="AP40" s="40"/>
       <c r="AQ40" s="40"/>
       <c r="AR40" s="40"/>
-    </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AS40" s="40"/>
+      <c r="AT40" s="40"/>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A41" s="35"/>
       <c r="B41" s="30"/>
       <c r="C41" s="67"/>
@@ -8200,8 +8328,10 @@
       <c r="AP41" s="30"/>
       <c r="AQ41" s="30"/>
       <c r="AR41" s="30"/>
-    </row>
-    <row r="42" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS41" s="30"/>
+      <c r="AT41" s="30"/>
+    </row>
+    <row r="42" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
       <c r="C42" s="70"/>
@@ -8246,8 +8376,10 @@
       <c r="AP42" s="36"/>
       <c r="AQ42" s="36"/>
       <c r="AR42" s="36"/>
-    </row>
-    <row r="43" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS42" s="36"/>
+      <c r="AT42" s="36"/>
+    </row>
+    <row r="43" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="72"/>
@@ -8292,8 +8424,10 @@
       <c r="AP43" s="22"/>
       <c r="AQ43" s="22"/>
       <c r="AR43" s="22"/>
-    </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AS43" s="22"/>
+      <c r="AT43" s="22"/>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A44" s="34"/>
       <c r="B44" s="30"/>
       <c r="C44" s="67"/>
@@ -8338,8 +8472,10 @@
       <c r="AP44" s="30"/>
       <c r="AQ44" s="30"/>
       <c r="AR44" s="30"/>
-    </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AS44" s="30"/>
+      <c r="AT44" s="30"/>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A45" s="35"/>
       <c r="B45" s="25"/>
       <c r="C45" s="70"/>
@@ -8384,8 +8520,10 @@
       <c r="AP45" s="36"/>
       <c r="AQ45" s="36"/>
       <c r="AR45" s="36"/>
-    </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AS45" s="36"/>
+      <c r="AT45" s="36"/>
+    </row>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
       <c r="X47" s="8"/>
       <c r="AE47" s="8"/>
       <c r="AF47" s="8"/>
@@ -8404,10 +8542,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CN60"/>
+  <dimension ref="A1:CP59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD42"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AP1" sqref="AP1:AR1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8439,12 +8577,15 @@
     <col min="30" max="31" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="34" width="11.42578125" customWidth="1"/>
     <col min="35" max="35" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="11.42578125" customWidth="1"/>
-    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="49" width="11.42578125" style="10"/>
+    <col min="36" max="37" width="14.140625" customWidth="1"/>
+    <col min="38" max="39" width="11.42578125" customWidth="1"/>
+    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.42578125" style="10"/>
+    <col min="42" max="44" width="0" style="10" hidden="1" customWidth="1"/>
+    <col min="45" max="51" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:94" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
       <c r="B1" s="173" t="s">
         <v>11</v>
@@ -8485,8 +8626,10 @@
       <c r="AJ1" s="24"/>
       <c r="AK1" s="24"/>
       <c r="AL1" s="24"/>
-    </row>
-    <row r="2" spans="1:92" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+    </row>
+    <row r="2" spans="1:94" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="51" t="s">
         <v>23</v>
@@ -8527,8 +8670,10 @@
       <c r="AJ2" s="24"/>
       <c r="AK2" s="24"/>
       <c r="AL2" s="24"/>
-    </row>
-    <row r="3" spans="1:92" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+    </row>
+    <row r="3" spans="1:94" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="175" t="s">
         <v>12</v>
@@ -8569,8 +8714,8 @@
       <c r="AJ3" s="24"/>
       <c r="AK3" s="24"/>
       <c r="AL3" s="24"/>
-      <c r="AM3" s="110"/>
-      <c r="AN3" s="110"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
       <c r="AO3" s="110"/>
       <c r="AP3" s="110"/>
       <c r="AQ3" s="110"/>
@@ -8580,8 +8725,10 @@
       <c r="AU3" s="110"/>
       <c r="AV3" s="110"/>
       <c r="AW3" s="110"/>
-    </row>
-    <row r="4" spans="1:92" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX3" s="110"/>
+      <c r="AY3" s="110"/>
+    </row>
+    <row r="4" spans="1:94" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="176" t="s">
         <v>64</v>
@@ -8622,8 +8769,10 @@
       <c r="AJ4" s="24"/>
       <c r="AK4" s="24"/>
       <c r="AL4" s="24"/>
-    </row>
-    <row r="5" spans="1:92" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+    </row>
+    <row r="5" spans="1:94" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="29" t="s">
         <v>21</v>
@@ -8664,8 +8813,10 @@
       <c r="AJ5" s="24"/>
       <c r="AK5" s="24"/>
       <c r="AL5" s="24"/>
-    </row>
-    <row r="6" spans="1:92" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+    </row>
+    <row r="6" spans="1:94" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="29" t="s">
         <v>22</v>
@@ -8706,8 +8857,8 @@
       <c r="AJ6" s="24"/>
       <c r="AK6" s="24"/>
       <c r="AL6" s="24"/>
-      <c r="AX6"/>
-      <c r="AY6"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
       <c r="AZ6"/>
       <c r="BA6"/>
       <c r="BB6"/>
@@ -8749,8 +8900,10 @@
       <c r="CL6"/>
       <c r="CM6"/>
       <c r="CN6"/>
-    </row>
-    <row r="7" spans="1:92" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CO6"/>
+      <c r="CP6"/>
+    </row>
+    <row r="7" spans="1:94" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -8778,8 +8931,6 @@
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="18"/>
-      <c r="AM7" s="110"/>
-      <c r="AN7" s="110"/>
       <c r="AO7" s="110"/>
       <c r="AP7" s="110"/>
       <c r="AQ7" s="110"/>
@@ -8789,8 +8940,8 @@
       <c r="AU7" s="110"/>
       <c r="AV7" s="110"/>
       <c r="AW7" s="110"/>
-      <c r="AX7" s="9"/>
-      <c r="AY7" s="9"/>
+      <c r="AX7" s="110"/>
+      <c r="AY7" s="110"/>
       <c r="AZ7" s="9"/>
       <c r="BA7" s="9"/>
       <c r="BB7" s="9"/>
@@ -8832,8 +8983,10 @@
       <c r="CL7" s="9"/>
       <c r="CM7" s="9"/>
       <c r="CN7" s="9"/>
-    </row>
-    <row r="8" spans="1:92" s="45" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="CO7" s="9"/>
+      <c r="CP7" s="9"/>
+    </row>
+    <row r="8" spans="1:94" s="45" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>16</v>
       </c>
@@ -8940,22 +9093,32 @@
         <v>10</v>
       </c>
       <c r="AJ8" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK8" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL8" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="AK8" s="45" t="s">
+      <c r="AM8" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="AL8" s="128" t="s">
+      <c r="AN8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AM8" s="127" t="s">
+      <c r="AO8" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
+      <c r="AP8" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ8" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR8" s="128" t="s">
+        <v>101</v>
+      </c>
       <c r="AS8" s="10"/>
       <c r="AT8" s="10"/>
       <c r="AU8" s="10"/>
@@ -9004,8 +9167,10 @@
       <c r="CL8" s="10"/>
       <c r="CM8" s="10"/>
       <c r="CN8" s="10"/>
-    </row>
-    <row r="9" spans="1:92" s="79" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="CO8" s="10"/>
+      <c r="CP8" s="10"/>
+    </row>
+    <row r="9" spans="1:94" s="79" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49"/>
       <c r="B9" s="5"/>
       <c r="C9" s="63"/>
@@ -9037,11 +9202,13 @@
       <c r="AG9" s="103"/>
       <c r="AH9" s="103"/>
       <c r="AI9" s="103"/>
-      <c r="AJ9" s="102"/>
-      <c r="AK9" s="102"/>
-      <c r="AL9" s="103"/>
-    </row>
-    <row r="10" spans="1:92" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="102"/>
+      <c r="AM9" s="102"/>
+      <c r="AN9" s="103"/>
+    </row>
+    <row r="10" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="49"/>
       <c r="B10" s="5"/>
       <c r="C10" s="63"/>
@@ -9073,11 +9240,13 @@
       <c r="AG10" s="103"/>
       <c r="AH10" s="103"/>
       <c r="AI10" s="103"/>
-      <c r="AJ10" s="102"/>
-      <c r="AK10" s="102"/>
-      <c r="AL10" s="103"/>
-    </row>
-    <row r="11" spans="1:92" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="119"/>
+      <c r="AK10" s="119"/>
+      <c r="AL10" s="102"/>
+      <c r="AM10" s="102"/>
+      <c r="AN10" s="103"/>
+    </row>
+    <row r="11" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="5"/>
       <c r="C11" s="63"/>
@@ -9109,11 +9278,13 @@
       <c r="AG11" s="103"/>
       <c r="AH11" s="103"/>
       <c r="AI11" s="103"/>
-      <c r="AJ11" s="102"/>
-      <c r="AK11" s="102"/>
-      <c r="AL11" s="103"/>
-    </row>
-    <row r="12" spans="1:92" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="103"/>
+      <c r="AK11" s="103"/>
+      <c r="AL11" s="102"/>
+      <c r="AM11" s="102"/>
+      <c r="AN11" s="103"/>
+    </row>
+    <row r="12" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
       <c r="B12" s="5"/>
       <c r="C12" s="63"/>
@@ -9145,11 +9316,13 @@
       <c r="AG12" s="103"/>
       <c r="AH12" s="103"/>
       <c r="AI12" s="103"/>
-      <c r="AJ12" s="102"/>
-      <c r="AK12" s="102"/>
-      <c r="AL12" s="103"/>
-    </row>
-    <row r="13" spans="1:92" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="48"/>
+      <c r="AK12" s="48"/>
+      <c r="AL12" s="102"/>
+      <c r="AM12" s="102"/>
+      <c r="AN12" s="103"/>
+    </row>
+    <row r="13" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
       <c r="B13" s="5"/>
       <c r="C13" s="63"/>
@@ -9181,11 +9354,13 @@
       <c r="AG13" s="103"/>
       <c r="AH13" s="103"/>
       <c r="AI13" s="103"/>
-      <c r="AJ13" s="102"/>
-      <c r="AK13" s="102"/>
-      <c r="AL13" s="103"/>
-    </row>
-    <row r="14" spans="1:92" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="48"/>
+      <c r="AL13" s="102"/>
+      <c r="AM13" s="102"/>
+      <c r="AN13" s="103"/>
+    </row>
+    <row r="14" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
       <c r="B14" s="5"/>
       <c r="C14" s="63"/>
@@ -9217,11 +9392,13 @@
       <c r="AG14" s="103"/>
       <c r="AH14" s="103"/>
       <c r="AI14" s="103"/>
-      <c r="AJ14" s="102"/>
-      <c r="AK14" s="102"/>
-      <c r="AL14" s="103"/>
-    </row>
-    <row r="15" spans="1:92" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="102"/>
+      <c r="AM14" s="102"/>
+      <c r="AN14" s="103"/>
+    </row>
+    <row r="15" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="B15" s="5"/>
       <c r="C15" s="63"/>
@@ -9253,11 +9430,13 @@
       <c r="AG15" s="103"/>
       <c r="AH15" s="103"/>
       <c r="AI15" s="103"/>
-      <c r="AJ15" s="102"/>
-      <c r="AK15" s="102"/>
-      <c r="AL15" s="103"/>
-    </row>
-    <row r="16" spans="1:92" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="48"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="102"/>
+      <c r="AM15" s="102"/>
+      <c r="AN15" s="103"/>
+    </row>
+    <row r="16" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="B16" s="5"/>
       <c r="C16" s="63"/>
@@ -9289,11 +9468,13 @@
       <c r="AG16" s="103"/>
       <c r="AH16" s="103"/>
       <c r="AI16" s="103"/>
-      <c r="AJ16" s="102"/>
-      <c r="AK16" s="102"/>
-      <c r="AL16" s="103"/>
-    </row>
-    <row r="17" spans="1:38" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="102"/>
+      <c r="AM16" s="102"/>
+      <c r="AN16" s="103"/>
+    </row>
+    <row r="17" spans="1:40" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
       <c r="B17" s="5"/>
       <c r="C17" s="63"/>
@@ -9325,11 +9506,13 @@
       <c r="AG17" s="103"/>
       <c r="AH17" s="103"/>
       <c r="AI17" s="103"/>
-      <c r="AJ17" s="102"/>
-      <c r="AK17" s="102"/>
-      <c r="AL17" s="103"/>
-    </row>
-    <row r="18" spans="1:38" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="48"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="102"/>
+      <c r="AM17" s="102"/>
+      <c r="AN17" s="103"/>
+    </row>
+    <row r="18" spans="1:40" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="B18" s="5"/>
       <c r="C18" s="63"/>
@@ -9360,11 +9543,13 @@
       <c r="AG18" s="103"/>
       <c r="AH18" s="103"/>
       <c r="AI18" s="103"/>
-      <c r="AJ18" s="102"/>
-      <c r="AK18" s="102"/>
-      <c r="AL18" s="103"/>
-    </row>
-    <row r="19" spans="1:38" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="48"/>
+      <c r="AL18" s="102"/>
+      <c r="AM18" s="102"/>
+      <c r="AN18" s="103"/>
+    </row>
+    <row r="19" spans="1:40" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="5"/>
       <c r="C19" s="63"/>
@@ -9394,11 +9579,13 @@
       <c r="AG19" s="103"/>
       <c r="AH19" s="103"/>
       <c r="AI19" s="103"/>
-      <c r="AJ19" s="102"/>
-      <c r="AK19" s="102"/>
-      <c r="AL19" s="103"/>
-    </row>
-    <row r="20" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AJ19" s="48"/>
+      <c r="AK19" s="48"/>
+      <c r="AL19" s="102"/>
+      <c r="AM19" s="102"/>
+      <c r="AN19" s="103"/>
+    </row>
+    <row r="20" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="46"/>
       <c r="B20" s="38"/>
       <c r="C20" s="40"/>
@@ -9416,92 +9603,31 @@
       <c r="O20" s="48"/>
       <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
-      <c r="R20" s="54">
-        <f>SUM(R9:R19)</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="54">
-        <f>SUM(S9:S19)</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="54">
-        <f>SUM(T9:T19)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="54">
-        <f>SUM(U9:U19)</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="54">
-        <f>SUM(V9:V19)</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="54">
-        <f>SUM(W9:W19)</f>
-        <v>0</v>
-      </c>
-      <c r="X20" s="54">
-        <f>SUM(X9:X19)</f>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="54">
-        <f>SUM(Y9:Y19)</f>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="54">
-        <f>SUM(Z9:Z19)</f>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="54">
-        <f>SUM(AA9:AA19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="54">
-        <f>SUM(AB9:AB19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="54">
-        <f>SUM(AC9:AC19)</f>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="54">
-        <f>SUM(AD9:AD19)</f>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="54">
-        <f>SUM(AE9:AE19)</f>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="54">
-        <f>SUM(AF9:AF19)</f>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="54">
-        <f>SUM(AG9:AG19)</f>
-        <v>0</v>
-      </c>
-      <c r="AH20" s="54">
-        <f>SUM(AH9:AH19)</f>
-        <v>0</v>
-      </c>
-      <c r="AI20" s="54">
-        <f>SUM(AI9:AI19)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="54">
-        <f>SUM(AJ9:AJ19)</f>
-        <v>0</v>
-      </c>
-      <c r="AK20" s="83">
-        <f>SUM(AK9:AK19)</f>
-        <v>0</v>
-      </c>
-      <c r="AL20" s="54">
-        <f>SUM(AL9:AL19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="54"/>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="54"/>
+      <c r="AJ20" s="48"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="54"/>
+      <c r="AM20" s="54"/>
+      <c r="AN20" s="54"/>
+    </row>
+    <row r="21" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="46"/>
       <c r="B21" s="38"/>
       <c r="C21" s="40"/>
@@ -9519,29 +9645,31 @@
       <c r="O21" s="48"/>
       <c r="P21" s="48"/>
       <c r="Q21" s="48"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="54"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="54"/>
-      <c r="AL21" s="54"/>
-    </row>
-    <row r="22" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="48"/>
+    </row>
+    <row r="22" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="46"/>
       <c r="B22" s="38"/>
       <c r="C22" s="40"/>
@@ -9580,8 +9708,10 @@
       <c r="AJ22" s="48"/>
       <c r="AK22" s="48"/>
       <c r="AL22" s="48"/>
-    </row>
-    <row r="23" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM22" s="48"/>
+      <c r="AN22" s="48"/>
+    </row>
+    <row r="23" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="46"/>
       <c r="B23" s="38"/>
       <c r="C23" s="40"/>
@@ -9620,8 +9750,10 @@
       <c r="AJ23" s="48"/>
       <c r="AK23" s="48"/>
       <c r="AL23" s="48"/>
-    </row>
-    <row r="24" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="48"/>
+    </row>
+    <row r="24" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="46"/>
       <c r="B24" s="38"/>
       <c r="C24" s="40"/>
@@ -9657,11 +9789,13 @@
       <c r="AG24" s="48"/>
       <c r="AH24" s="48"/>
       <c r="AI24" s="48"/>
-      <c r="AJ24" s="48"/>
-      <c r="AK24" s="48"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
       <c r="AL24" s="48"/>
-    </row>
-    <row r="25" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM24" s="48"/>
+      <c r="AN24" s="48"/>
+    </row>
+    <row r="25" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" s="38"/>
       <c r="C25" s="40"/>
@@ -9697,11 +9831,13 @@
       <c r="AG25" s="48"/>
       <c r="AH25" s="48"/>
       <c r="AI25" s="48"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="48"/>
+      <c r="AJ25" s="24"/>
+      <c r="AK25" s="24"/>
       <c r="AL25" s="48"/>
-    </row>
-    <row r="26" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="48"/>
+    </row>
+    <row r="26" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="46"/>
       <c r="B26" s="38"/>
       <c r="C26" s="40"/>
@@ -9737,11 +9873,13 @@
       <c r="AG26" s="48"/>
       <c r="AH26" s="48"/>
       <c r="AI26" s="48"/>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="48"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
       <c r="AL26" s="48"/>
-    </row>
-    <row r="27" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM26" s="48"/>
+      <c r="AN26" s="48"/>
+    </row>
+    <row r="27" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="46"/>
       <c r="B27" s="38"/>
       <c r="C27" s="40"/>
@@ -9777,11 +9915,13 @@
       <c r="AG27" s="48"/>
       <c r="AH27" s="48"/>
       <c r="AI27" s="48"/>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="48"/>
+      <c r="AJ27" s="40"/>
+      <c r="AK27" s="40"/>
       <c r="AL27" s="48"/>
-    </row>
-    <row r="28" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM27" s="48"/>
+      <c r="AN27" s="48"/>
+    </row>
+    <row r="28" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="46"/>
       <c r="B28" s="38"/>
       <c r="C28" s="40"/>
@@ -9817,11 +9957,13 @@
       <c r="AG28" s="48"/>
       <c r="AH28" s="48"/>
       <c r="AI28" s="48"/>
-      <c r="AJ28" s="48"/>
-      <c r="AK28" s="48"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="30"/>
       <c r="AL28" s="48"/>
-    </row>
-    <row r="29" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM28" s="48"/>
+      <c r="AN28" s="48"/>
+    </row>
+    <row r="29" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="46"/>
       <c r="B29" s="38"/>
       <c r="C29" s="40"/>
@@ -9857,11 +9999,13 @@
       <c r="AG29" s="48"/>
       <c r="AH29" s="48"/>
       <c r="AI29" s="48"/>
-      <c r="AJ29" s="48"/>
-      <c r="AK29" s="48"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="36"/>
       <c r="AL29" s="48"/>
-    </row>
-    <row r="30" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM29" s="48"/>
+      <c r="AN29" s="48"/>
+    </row>
+    <row r="30" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="46"/>
       <c r="B30" s="38"/>
       <c r="C30" s="40"/>
@@ -9897,12 +10041,14 @@
       <c r="AG30" s="48"/>
       <c r="AH30" s="48"/>
       <c r="AI30" s="48"/>
-      <c r="AJ30" s="48"/>
-      <c r="AK30" s="48"/>
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="22"/>
       <c r="AL30" s="48"/>
-    </row>
-    <row r="31" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
+      <c r="AM30" s="48"/>
+      <c r="AN30" s="48"/>
+    </row>
+    <row r="31" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
       <c r="B31" s="38"/>
       <c r="C31" s="40"/>
       <c r="D31" s="40"/>
@@ -9937,11 +10083,13 @@
       <c r="AG31" s="48"/>
       <c r="AH31" s="48"/>
       <c r="AI31" s="48"/>
-      <c r="AJ31" s="48"/>
-      <c r="AK31" s="48"/>
+      <c r="AJ31" s="24"/>
+      <c r="AK31" s="24"/>
       <c r="AL31" s="48"/>
-    </row>
-    <row r="32" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM31" s="48"/>
+      <c r="AN31" s="48"/>
+    </row>
+    <row r="32" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39"/>
       <c r="B32" s="38"/>
       <c r="C32" s="40"/>
@@ -9977,11 +10125,13 @@
       <c r="AG32" s="48"/>
       <c r="AH32" s="48"/>
       <c r="AI32" s="48"/>
-      <c r="AJ32" s="48"/>
-      <c r="AK32" s="48"/>
+      <c r="AJ32" s="40"/>
+      <c r="AK32" s="40"/>
       <c r="AL32" s="48"/>
-    </row>
-    <row r="33" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM32" s="48"/>
+      <c r="AN32" s="48"/>
+    </row>
+    <row r="33" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39"/>
       <c r="B33" s="38"/>
       <c r="C33" s="40"/>
@@ -10017,11 +10167,13 @@
       <c r="AG33" s="48"/>
       <c r="AH33" s="48"/>
       <c r="AI33" s="48"/>
-      <c r="AJ33" s="48"/>
-      <c r="AK33" s="48"/>
+      <c r="AJ33" s="40"/>
+      <c r="AK33" s="40"/>
       <c r="AL33" s="48"/>
-    </row>
-    <row r="34" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM33" s="48"/>
+      <c r="AN33" s="48"/>
+    </row>
+    <row r="34" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
       <c r="B34" s="38"/>
       <c r="C34" s="40"/>
@@ -10057,23 +10209,25 @@
       <c r="AG34" s="48"/>
       <c r="AH34" s="48"/>
       <c r="AI34" s="48"/>
-      <c r="AJ34" s="48"/>
-      <c r="AK34" s="48"/>
+      <c r="AJ34" s="30"/>
+      <c r="AK34" s="30"/>
       <c r="AL34" s="48"/>
-    </row>
-    <row r="35" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
+      <c r="AM34" s="48"/>
+      <c r="AN34" s="48"/>
+    </row>
+    <row r="35" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="35"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
       <c r="M35" s="48"/>
       <c r="N35" s="48"/>
       <c r="O35" s="48"/>
@@ -10097,23 +10251,25 @@
       <c r="AG35" s="48"/>
       <c r="AH35" s="48"/>
       <c r="AI35" s="48"/>
-      <c r="AJ35" s="48"/>
-      <c r="AK35" s="48"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
       <c r="AL35" s="48"/>
-    </row>
-    <row r="36" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
+      <c r="AM35" s="48"/>
+      <c r="AN35" s="48"/>
+    </row>
+    <row r="36" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
       <c r="M36" s="48"/>
       <c r="N36" s="48"/>
       <c r="O36" s="48"/>
@@ -10137,131 +10293,139 @@
       <c r="AG36" s="48"/>
       <c r="AH36" s="48"/>
       <c r="AI36" s="48"/>
-      <c r="AJ36" s="48"/>
-      <c r="AK36" s="48"/>
+      <c r="AJ36" s="22"/>
+      <c r="AK36" s="22"/>
       <c r="AL36" s="48"/>
-    </row>
-    <row r="37" spans="1:38" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="48"/>
-      <c r="AD37" s="48"/>
-      <c r="AE37" s="48"/>
-      <c r="AF37" s="48"/>
-      <c r="AG37" s="48"/>
-      <c r="AH37" s="48"/>
-      <c r="AI37" s="48"/>
-      <c r="AJ37" s="48"/>
-      <c r="AK37" s="48"/>
-      <c r="AL37" s="48"/>
-    </row>
-    <row r="38" spans="1:38" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="19"/>
-      <c r="AD38" s="19"/>
-      <c r="AE38" s="19"/>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="19"/>
-      <c r="AH38" s="19"/>
-      <c r="AI38" s="19"/>
-      <c r="AJ38" s="19"/>
-      <c r="AK38" s="19"/>
-      <c r="AL38" s="19"/>
-    </row>
-    <row r="39" spans="1:38" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="24"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="24"/>
-      <c r="AL39" s="24"/>
-    </row>
-    <row r="40" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM36" s="48"/>
+      <c r="AN36" s="48"/>
+    </row>
+    <row r="37" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="24"/>
+      <c r="AK37" s="24"/>
+      <c r="AL37" s="19"/>
+      <c r="AM37" s="19"/>
+      <c r="AN37" s="19"/>
+    </row>
+    <row r="38" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="24"/>
+      <c r="AB38" s="24"/>
+      <c r="AC38" s="24"/>
+      <c r="AD38" s="24"/>
+      <c r="AE38" s="24"/>
+      <c r="AF38" s="24"/>
+      <c r="AG38" s="24"/>
+      <c r="AH38" s="24"/>
+      <c r="AI38" s="24"/>
+      <c r="AJ38" s="40"/>
+      <c r="AK38" s="40"/>
+      <c r="AL38" s="24"/>
+      <c r="AM38" s="24"/>
+      <c r="AN38" s="24"/>
+    </row>
+    <row r="39" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="39"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="40"/>
+      <c r="AB39" s="40"/>
+      <c r="AC39" s="40"/>
+      <c r="AD39" s="40"/>
+      <c r="AE39" s="40"/>
+      <c r="AF39" s="40"/>
+      <c r="AG39" s="40"/>
+      <c r="AH39" s="40"/>
+      <c r="AI39" s="40"/>
+      <c r="AJ39" s="40"/>
+      <c r="AK39" s="40"/>
+      <c r="AL39" s="40"/>
+      <c r="AM39" s="40"/>
+      <c r="AN39" s="40"/>
+    </row>
+    <row r="40" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39"/>
       <c r="B40" s="38"/>
       <c r="C40" s="40"/>
@@ -10297,211 +10461,223 @@
       <c r="AG40" s="40"/>
       <c r="AH40" s="40"/>
       <c r="AI40" s="40"/>
-      <c r="AJ40" s="40"/>
-      <c r="AK40" s="40"/>
+      <c r="AJ40" s="30"/>
+      <c r="AK40" s="30"/>
       <c r="AL40" s="40"/>
-    </row>
-    <row r="41" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="40"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="40"/>
-      <c r="Z41" s="40"/>
-      <c r="AA41" s="40"/>
-      <c r="AB41" s="40"/>
-      <c r="AC41" s="40"/>
-      <c r="AD41" s="40"/>
-      <c r="AE41" s="40"/>
-      <c r="AF41" s="40"/>
-      <c r="AG41" s="40"/>
-      <c r="AH41" s="40"/>
-      <c r="AI41" s="40"/>
-      <c r="AJ41" s="40"/>
-      <c r="AK41" s="40"/>
-      <c r="AL41" s="40"/>
-    </row>
-    <row r="42" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="30"/>
-      <c r="Z42" s="30"/>
-      <c r="AA42" s="30"/>
-      <c r="AB42" s="30"/>
-      <c r="AC42" s="30"/>
-      <c r="AD42" s="30"/>
-      <c r="AE42" s="30"/>
-      <c r="AF42" s="30"/>
-      <c r="AG42" s="30"/>
-      <c r="AH42" s="30"/>
-      <c r="AI42" s="30"/>
-      <c r="AJ42" s="30"/>
-      <c r="AK42" s="30"/>
-      <c r="AL42" s="30"/>
-    </row>
-    <row r="43" spans="1:38" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="36"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="36"/>
-      <c r="X43" s="36"/>
-      <c r="Y43" s="36"/>
-      <c r="Z43" s="36"/>
-      <c r="AA43" s="36"/>
-      <c r="AB43" s="36"/>
-      <c r="AC43" s="36"/>
-      <c r="AD43" s="36"/>
-      <c r="AE43" s="36"/>
-      <c r="AF43" s="36"/>
-      <c r="AG43" s="36"/>
-      <c r="AH43" s="36"/>
-      <c r="AI43" s="36"/>
-      <c r="AJ43" s="36"/>
-      <c r="AK43" s="36"/>
-      <c r="AL43" s="36"/>
-    </row>
-    <row r="44" spans="1:38" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="22"/>
-      <c r="AC44" s="22"/>
-      <c r="AD44" s="22"/>
-      <c r="AE44" s="22"/>
-      <c r="AF44" s="22"/>
-      <c r="AG44" s="22"/>
-      <c r="AH44" s="22"/>
-      <c r="AI44" s="22"/>
-      <c r="AJ44" s="22"/>
-      <c r="AK44" s="22"/>
-      <c r="AL44" s="22"/>
-    </row>
-    <row r="45" spans="1:38" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
-      <c r="T45" s="24"/>
-      <c r="U45" s="24"/>
-      <c r="V45" s="24"/>
-      <c r="W45" s="24"/>
-      <c r="X45" s="24"/>
-      <c r="Y45" s="24"/>
-      <c r="Z45" s="24"/>
-      <c r="AA45" s="24"/>
-      <c r="AB45" s="24"/>
-      <c r="AC45" s="24"/>
-      <c r="AD45" s="24"/>
-      <c r="AE45" s="24"/>
-      <c r="AF45" s="24"/>
-      <c r="AG45" s="24"/>
-      <c r="AH45" s="24"/>
-      <c r="AI45" s="24"/>
-      <c r="AJ45" s="24"/>
-      <c r="AK45" s="24"/>
-      <c r="AL45" s="24"/>
-    </row>
-    <row r="46" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM40" s="40"/>
+      <c r="AN40" s="40"/>
+    </row>
+    <row r="41" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="35"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="30"/>
+      <c r="AF41" s="30"/>
+      <c r="AG41" s="30"/>
+      <c r="AH41" s="30"/>
+      <c r="AI41" s="30"/>
+      <c r="AJ41" s="36"/>
+      <c r="AK41" s="36"/>
+      <c r="AL41" s="30"/>
+      <c r="AM41" s="30"/>
+      <c r="AN41" s="30"/>
+    </row>
+    <row r="42" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="36"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="36"/>
+      <c r="AG42" s="36"/>
+      <c r="AH42" s="36"/>
+      <c r="AI42" s="36"/>
+      <c r="AJ42" s="22"/>
+      <c r="AK42" s="22"/>
+      <c r="AL42" s="36"/>
+      <c r="AM42" s="36"/>
+      <c r="AN42" s="36"/>
+    </row>
+    <row r="43" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="22"/>
+      <c r="AF43" s="22"/>
+      <c r="AG43" s="22"/>
+      <c r="AH43" s="22"/>
+      <c r="AI43" s="22"/>
+      <c r="AJ43" s="30"/>
+      <c r="AK43" s="30"/>
+      <c r="AL43" s="22"/>
+      <c r="AM43" s="22"/>
+      <c r="AN43" s="22"/>
+    </row>
+    <row r="44" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="31"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="24"/>
+      <c r="AA44" s="24"/>
+      <c r="AB44" s="24"/>
+      <c r="AC44" s="24"/>
+      <c r="AD44" s="24"/>
+      <c r="AE44" s="24"/>
+      <c r="AF44" s="24"/>
+      <c r="AG44" s="24"/>
+      <c r="AH44" s="24"/>
+      <c r="AI44" s="24"/>
+      <c r="AJ44" s="36"/>
+      <c r="AK44" s="36"/>
+      <c r="AL44" s="24"/>
+      <c r="AM44" s="24"/>
+      <c r="AN44" s="24"/>
+    </row>
+    <row r="45" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="39"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
+      <c r="AA45" s="40"/>
+      <c r="AB45" s="40"/>
+      <c r="AC45" s="40"/>
+      <c r="AD45" s="40"/>
+      <c r="AE45" s="40"/>
+      <c r="AF45" s="40"/>
+      <c r="AG45" s="40"/>
+      <c r="AH45" s="40"/>
+      <c r="AI45" s="40"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
+      <c r="AL45" s="40"/>
+      <c r="AM45" s="40"/>
+      <c r="AN45" s="40"/>
+    </row>
+    <row r="46" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="38"/>
       <c r="C46" s="40"/>
@@ -10523,7 +10699,7 @@
       <c r="S46" s="40"/>
       <c r="T46" s="40"/>
       <c r="U46" s="40"/>
-      <c r="V46" s="40"/>
+      <c r="V46" s="33"/>
       <c r="W46" s="40"/>
       <c r="X46" s="40"/>
       <c r="Y46" s="40"/>
@@ -10537,211 +10713,219 @@
       <c r="AG46" s="40"/>
       <c r="AH46" s="40"/>
       <c r="AI46" s="40"/>
-      <c r="AJ46" s="40"/>
-      <c r="AK46" s="40"/>
+      <c r="AJ46"/>
+      <c r="AK46"/>
       <c r="AL46" s="40"/>
-    </row>
-    <row r="47" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-      <c r="U47" s="40"/>
-      <c r="V47" s="33"/>
-      <c r="W47" s="40"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="40"/>
-      <c r="AA47" s="40"/>
-      <c r="AB47" s="40"/>
-      <c r="AC47" s="40"/>
-      <c r="AD47" s="40"/>
-      <c r="AE47" s="40"/>
-      <c r="AF47" s="40"/>
-      <c r="AG47" s="40"/>
-      <c r="AH47" s="40"/>
-      <c r="AI47" s="40"/>
-      <c r="AJ47" s="40"/>
-      <c r="AK47" s="40"/>
-      <c r="AL47" s="40"/>
-    </row>
-    <row r="48" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
-      <c r="AA48" s="30"/>
-      <c r="AB48" s="30"/>
-      <c r="AC48" s="30"/>
-      <c r="AD48" s="30"/>
-      <c r="AE48" s="30"/>
-      <c r="AF48" s="30"/>
-      <c r="AG48" s="30"/>
-      <c r="AH48" s="30"/>
-      <c r="AI48" s="30"/>
-      <c r="AJ48" s="30"/>
-      <c r="AK48" s="30"/>
-      <c r="AL48" s="30"/>
-    </row>
-    <row r="49" spans="1:38" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="36"/>
-      <c r="AB49" s="36"/>
-      <c r="AC49" s="36"/>
-      <c r="AD49" s="36"/>
-      <c r="AE49" s="36"/>
-      <c r="AF49" s="36"/>
-      <c r="AG49" s="36"/>
-      <c r="AH49" s="36"/>
-      <c r="AI49" s="36"/>
-      <c r="AJ49" s="36"/>
-      <c r="AK49" s="36"/>
-      <c r="AL49" s="36"/>
-    </row>
-    <row r="50" spans="1:38" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="22"/>
-      <c r="AC50" s="22"/>
-      <c r="AD50" s="22"/>
-      <c r="AE50" s="22"/>
-      <c r="AF50" s="22"/>
-      <c r="AG50" s="22"/>
-      <c r="AH50" s="22"/>
-      <c r="AI50" s="22"/>
-      <c r="AJ50" s="22"/>
-      <c r="AK50" s="22"/>
-      <c r="AL50" s="22"/>
-    </row>
-    <row r="51" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="24"/>
-      <c r="V51" s="24"/>
-      <c r="W51" s="24"/>
-      <c r="X51" s="24"/>
-      <c r="Y51" s="24"/>
-      <c r="Z51" s="24"/>
-      <c r="AA51" s="24"/>
-      <c r="AB51" s="24"/>
-      <c r="AC51" s="24"/>
-      <c r="AD51" s="24"/>
-      <c r="AE51" s="24"/>
-      <c r="AF51" s="24"/>
-      <c r="AG51" s="24"/>
-      <c r="AH51" s="24"/>
-      <c r="AI51" s="24"/>
-      <c r="AJ51" s="24"/>
-      <c r="AK51" s="24"/>
-      <c r="AL51" s="24"/>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM46" s="40"/>
+      <c r="AN46" s="40"/>
+    </row>
+    <row r="47" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="35"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30"/>
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="30"/>
+      <c r="AD47" s="30"/>
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="30"/>
+      <c r="AG47" s="30"/>
+      <c r="AH47" s="30"/>
+      <c r="AI47" s="30"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
+      <c r="AL47" s="30"/>
+      <c r="AM47" s="30"/>
+      <c r="AN47" s="30"/>
+    </row>
+    <row r="48" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="36"/>
+      <c r="Z48" s="36"/>
+      <c r="AA48" s="36"/>
+      <c r="AB48" s="36"/>
+      <c r="AC48" s="36"/>
+      <c r="AD48" s="36"/>
+      <c r="AE48" s="36"/>
+      <c r="AF48" s="36"/>
+      <c r="AG48" s="36"/>
+      <c r="AH48" s="36"/>
+      <c r="AI48" s="36"/>
+      <c r="AJ48"/>
+      <c r="AK48"/>
+      <c r="AL48" s="36"/>
+      <c r="AM48" s="36"/>
+      <c r="AN48" s="36"/>
+    </row>
+    <row r="49" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="22"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="22"/>
+      <c r="AH49" s="22"/>
+      <c r="AI49" s="22"/>
+      <c r="AJ49"/>
+      <c r="AK49"/>
+      <c r="AL49" s="22"/>
+      <c r="AM49" s="22"/>
+      <c r="AN49" s="22"/>
+    </row>
+    <row r="50" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="31"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="24"/>
+      <c r="V50" s="24"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="24"/>
+      <c r="AA50" s="24"/>
+      <c r="AB50" s="24"/>
+      <c r="AC50" s="24"/>
+      <c r="AD50" s="24"/>
+      <c r="AE50" s="24"/>
+      <c r="AF50" s="24"/>
+      <c r="AG50" s="24"/>
+      <c r="AH50" s="24"/>
+      <c r="AI50" s="24"/>
+      <c r="AL50" s="24"/>
+      <c r="AM50" s="24"/>
+      <c r="AN50" s="24"/>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A51" s="39"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="33"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="40"/>
+      <c r="Y51" s="40"/>
+      <c r="Z51" s="40"/>
+      <c r="AA51" s="40"/>
+      <c r="AB51" s="40"/>
+      <c r="AC51" s="40"/>
+      <c r="AD51" s="40"/>
+      <c r="AE51" s="40"/>
+      <c r="AF51" s="40"/>
+      <c r="AG51" s="40"/>
+      <c r="AH51" s="40"/>
+      <c r="AI51" s="40"/>
+      <c r="AL51" s="40"/>
+      <c r="AM51" s="40"/>
+      <c r="AN51" s="40"/>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A52" s="39"/>
       <c r="B52" s="38"/>
       <c r="C52" s="40"/>
@@ -10777,254 +10961,214 @@
       <c r="AG52" s="40"/>
       <c r="AH52" s="40"/>
       <c r="AI52" s="40"/>
-      <c r="AJ52" s="40"/>
-      <c r="AK52" s="40"/>
       <c r="AL52" s="40"/>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A53" s="39"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="33"/>
-      <c r="W53" s="40"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="40"/>
-      <c r="Z53" s="40"/>
-      <c r="AA53" s="40"/>
-      <c r="AB53" s="40"/>
-      <c r="AC53" s="40"/>
-      <c r="AD53" s="40"/>
-      <c r="AE53" s="40"/>
-      <c r="AF53" s="40"/>
-      <c r="AG53" s="40"/>
-      <c r="AH53" s="40"/>
-      <c r="AI53" s="40"/>
-      <c r="AJ53" s="40"/>
-      <c r="AK53" s="40"/>
-      <c r="AL53" s="40"/>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A54" s="35"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="30"/>
-      <c r="V54" s="30"/>
-      <c r="W54" s="30"/>
-      <c r="X54" s="30"/>
-      <c r="Y54" s="30"/>
-      <c r="Z54" s="30"/>
-      <c r="AA54" s="30"/>
-      <c r="AB54" s="30"/>
-      <c r="AC54" s="30"/>
-      <c r="AD54" s="30"/>
-      <c r="AE54" s="30"/>
-      <c r="AF54" s="30"/>
-      <c r="AG54" s="30"/>
-      <c r="AH54" s="30"/>
-      <c r="AI54" s="30"/>
-      <c r="AJ54" s="30"/>
-      <c r="AK54" s="30"/>
-      <c r="AL54" s="30"/>
-    </row>
-    <row r="55" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="36"/>
-      <c r="Z55" s="36"/>
-      <c r="AA55" s="36"/>
-      <c r="AB55" s="36"/>
-      <c r="AC55" s="36"/>
-      <c r="AD55" s="36"/>
-      <c r="AE55" s="36"/>
-      <c r="AF55" s="36"/>
-      <c r="AG55" s="36"/>
-      <c r="AH55" s="36"/>
-      <c r="AI55" s="36"/>
-      <c r="AJ55" s="36"/>
-      <c r="AK55" s="36"/>
-      <c r="AL55" s="36"/>
-    </row>
-    <row r="56" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="23"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="22"/>
-      <c r="AC56" s="22"/>
-      <c r="AD56" s="22"/>
-      <c r="AE56" s="22"/>
-      <c r="AF56" s="22"/>
-      <c r="AG56" s="22"/>
-      <c r="AH56" s="22"/>
-      <c r="AI56" s="22"/>
-      <c r="AJ56" s="22"/>
-      <c r="AK56" s="22"/>
-      <c r="AL56" s="22"/>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A57" s="34"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30"/>
-      <c r="W57" s="30"/>
-      <c r="X57" s="30"/>
-      <c r="Y57" s="30"/>
-      <c r="Z57" s="30"/>
-      <c r="AA57" s="30"/>
-      <c r="AB57" s="30"/>
-      <c r="AC57" s="30"/>
-      <c r="AD57" s="30"/>
-      <c r="AE57" s="30"/>
-      <c r="AF57" s="30"/>
-      <c r="AG57" s="30"/>
-      <c r="AH57" s="30"/>
-      <c r="AI57" s="30"/>
-      <c r="AJ57" s="30"/>
-      <c r="AK57" s="30"/>
-      <c r="AL57" s="30"/>
-    </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A58" s="35"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="36"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="36"/>
-      <c r="S58" s="36"/>
-      <c r="T58" s="36"/>
-      <c r="U58" s="36"/>
-      <c r="V58" s="36"/>
-      <c r="W58" s="36"/>
-      <c r="X58" s="36"/>
-      <c r="Y58" s="36"/>
-      <c r="Z58" s="36"/>
-      <c r="AA58" s="36"/>
-      <c r="AB58" s="36"/>
-      <c r="AC58" s="36"/>
-      <c r="AD58" s="36"/>
-      <c r="AE58" s="36"/>
-      <c r="AF58" s="36"/>
-      <c r="AG58" s="36"/>
-      <c r="AH58" s="36"/>
-      <c r="AI58" s="36"/>
-      <c r="AJ58" s="36"/>
-      <c r="AK58" s="36"/>
-      <c r="AL58" s="36"/>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="X60" s="8"/>
-      <c r="AE60" s="8"/>
-      <c r="AF60" s="8"/>
+      <c r="AM52" s="40"/>
+      <c r="AN52" s="40"/>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A53" s="35"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="30"/>
+      <c r="AA53" s="30"/>
+      <c r="AB53" s="30"/>
+      <c r="AC53" s="30"/>
+      <c r="AD53" s="30"/>
+      <c r="AE53" s="30"/>
+      <c r="AF53" s="30"/>
+      <c r="AG53" s="30"/>
+      <c r="AH53" s="30"/>
+      <c r="AI53" s="30"/>
+      <c r="AL53" s="30"/>
+      <c r="AM53" s="30"/>
+      <c r="AN53" s="30"/>
+    </row>
+    <row r="54" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="36"/>
+      <c r="T54" s="36"/>
+      <c r="U54" s="36"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="36"/>
+      <c r="X54" s="36"/>
+      <c r="Y54" s="36"/>
+      <c r="Z54" s="36"/>
+      <c r="AA54" s="36"/>
+      <c r="AB54" s="36"/>
+      <c r="AC54" s="36"/>
+      <c r="AD54" s="36"/>
+      <c r="AE54" s="36"/>
+      <c r="AF54" s="36"/>
+      <c r="AG54" s="36"/>
+      <c r="AH54" s="36"/>
+      <c r="AI54" s="36"/>
+      <c r="AL54" s="36"/>
+      <c r="AM54" s="36"/>
+      <c r="AN54" s="36"/>
+    </row>
+    <row r="55" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="23"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22"/>
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
+      <c r="AG55" s="22"/>
+      <c r="AH55" s="22"/>
+      <c r="AI55" s="22"/>
+      <c r="AL55" s="22"/>
+      <c r="AM55" s="22"/>
+      <c r="AN55" s="22"/>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A56" s="34"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="30"/>
+      <c r="Y56" s="30"/>
+      <c r="Z56" s="30"/>
+      <c r="AA56" s="30"/>
+      <c r="AB56" s="30"/>
+      <c r="AC56" s="30"/>
+      <c r="AD56" s="30"/>
+      <c r="AE56" s="30"/>
+      <c r="AF56" s="30"/>
+      <c r="AG56" s="30"/>
+      <c r="AH56" s="30"/>
+      <c r="AI56" s="30"/>
+      <c r="AL56" s="30"/>
+      <c r="AM56" s="30"/>
+      <c r="AN56" s="30"/>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A57" s="35"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="36"/>
+      <c r="Z57" s="36"/>
+      <c r="AA57" s="36"/>
+      <c r="AB57" s="36"/>
+      <c r="AC57" s="36"/>
+      <c r="AD57" s="36"/>
+      <c r="AE57" s="36"/>
+      <c r="AF57" s="36"/>
+      <c r="AG57" s="36"/>
+      <c r="AH57" s="36"/>
+      <c r="AI57" s="36"/>
+      <c r="AL57" s="36"/>
+      <c r="AM57" s="36"/>
+      <c r="AN57" s="36"/>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="X59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11043,7 +11187,7 @@
   <dimension ref="B4:M56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="70" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="15360" windowHeight="7590" tabRatio="789" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" tabRatio="789" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA TOTAL" sheetId="27" r:id="rId1"/>
@@ -32,8 +32,8 @@
     <definedName name="_TC1">[2]FOR!$B$9</definedName>
     <definedName name="_TC2">[2]FOR!$B$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">DETALLE!$A$1:$K$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'OPERADORA ABORDO'!$A$1:$AM$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'OPERADORA DESCANSO'!$A$1:$AL$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'OPERADORA ABORDO'!$A$1:$AO$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'OPERADORA DESCANSO'!$A$1:$AN$19</definedName>
     <definedName name="LICS">[3]FOR!$F$59:$F$71</definedName>
     <definedName name="LIIMP">[3]FOR!$F$36:$F$40</definedName>
     <definedName name="LISUB">[3]FOR!$F$46:$F$53</definedName>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="115">
   <si>
     <t>SUBTOTAL</t>
   </si>
@@ -355,6 +355,60 @@
   <si>
     <t>ISLA SAN DIEGO</t>
   </si>
+  <si>
+    <t>AJUSTE INFONAVIT</t>
+  </si>
+  <si>
+    <t>INFONAVIT BIMESTRE ATERIOR</t>
+  </si>
+  <si>
+    <t>Prestamo Personal Asimilado</t>
+  </si>
+  <si>
+    <t>Adeudo_Infonavit_Asimilado</t>
+  </si>
+  <si>
+    <t>Difencia infonavit Asimilado</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>ISLA ARCAS</t>
+  </si>
+  <si>
+    <t>ISLA CRECIENTE</t>
+  </si>
+  <si>
+    <t>ISLA GRANDE</t>
+  </si>
+  <si>
+    <t>ISLA SAN JOSE</t>
+  </si>
+  <si>
+    <t>ISLA GUADALUPE</t>
+  </si>
+  <si>
+    <t>ISLA LEON</t>
+  </si>
+  <si>
+    <t>ISLA PELICANO</t>
+  </si>
+  <si>
+    <t>ISLA SAN LUIS</t>
+  </si>
+  <si>
+    <t>ISLA COLORADA</t>
+  </si>
+  <si>
+    <t>ISLA PASSAVERA</t>
+  </si>
+  <si>
+    <t>ISLA MARGOT MARIANNE</t>
+  </si>
+  <si>
+    <t>SUBSEA 88</t>
+  </si>
 </sst>
 </file>
 
@@ -367,7 +421,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;???_-;_-@_-"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -601,14 +655,28 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -674,7 +742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -755,14 +823,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,65 +838,80 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2325,7 +2408,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2588,101 +2671,6 @@
     <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="1318" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1488" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="692" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="692" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1489" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1489" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1489" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1489" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="692" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="692" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="692" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="692" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="692" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="692" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="10" xfId="142" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="10" xfId="142" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="34" fillId="10" borderId="1" xfId="142" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="142" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="142" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="34" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2700,10 +2688,107 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1113" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="27" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="17" fontId="27" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="39" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="39" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="34" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="37" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="38" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5000,9 +5085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BE12"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB15" sqref="AB15"/>
+    <sheetView topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5618,81 +5703,81 @@
       <c r="BE10" s="50"/>
     </row>
     <row r="11" spans="2:57" s="85" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="171" t="s">
+      <c r="C11" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="171" t="s">
+      <c r="D11" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="171" t="s">
+      <c r="E11" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="171" t="s">
+      <c r="F11" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="171" t="s">
+      <c r="G11" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="171" t="s">
+      <c r="H11" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="171" t="s">
+      <c r="I11" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="171" t="s">
+      <c r="J11" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="171" t="s">
+      <c r="K11" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="171" t="s">
+      <c r="L11" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="171" t="s">
+      <c r="M11" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="171" t="s">
+      <c r="N11" s="132" t="s">
         <v>72</v>
       </c>
       <c r="O11" s="129"/>
-      <c r="P11" s="171" t="s">
+      <c r="P11" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="Q11" s="171" t="s">
+      <c r="Q11" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="171" t="s">
+      <c r="R11" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="S11" s="171" t="s">
+      <c r="S11" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="T11" s="171" t="s">
+      <c r="T11" s="132" t="s">
         <v>73</v>
       </c>
       <c r="U11" s="86"/>
-      <c r="V11" s="171" t="s">
+      <c r="V11" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="W11" s="171" t="s">
+      <c r="W11" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="X11" s="171" t="s">
+      <c r="X11" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="Y11" s="171" t="s">
+      <c r="Y11" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="Z11" s="172" t="s">
+      <c r="Z11" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AA11" s="171" t="s">
+      <c r="AA11" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="AB11" s="171"/>
+      <c r="AB11" s="132"/>
       <c r="AD11" s="84"/>
       <c r="AE11" s="84"/>
       <c r="AF11" s="84"/>
@@ -5722,37 +5807,37 @@
       <c r="BD11" s="84"/>
     </row>
     <row r="12" spans="2:57" s="87" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="171"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="171"/>
-      <c r="M12" s="171"/>
-      <c r="N12" s="171"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
       <c r="O12" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="171" t="s">
+      <c r="P12" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="171"/>
-      <c r="R12" s="171"/>
-      <c r="S12" s="171"/>
-      <c r="T12" s="171"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="132"/>
+      <c r="S12" s="132"/>
+      <c r="T12" s="132"/>
       <c r="U12" s="86"/>
-      <c r="V12" s="171"/>
-      <c r="W12" s="171"/>
-      <c r="X12" s="171"/>
-      <c r="Y12" s="171"/>
-      <c r="Z12" s="172"/>
-      <c r="AA12" s="171"/>
-      <c r="AB12" s="171"/>
+      <c r="V12" s="132"/>
+      <c r="W12" s="132"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="132"/>
+      <c r="Z12" s="133"/>
+      <c r="AA12" s="132"/>
+      <c r="AB12" s="132"/>
       <c r="AC12" s="88"/>
       <c r="AD12" s="89"/>
       <c r="AE12" s="89"/>
@@ -5784,15 +5869,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
     <mergeCell ref="AB11:AB12"/>
     <mergeCell ref="AA11:AA12"/>
     <mergeCell ref="G11:G12"/>
@@ -5809,6 +5885,15 @@
     <mergeCell ref="Z11:Z12"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5817,10 +5902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JY47"/>
+  <dimension ref="A1:KA47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="AS1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1:AX1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5852,26 +5937,26 @@
     <col min="32" max="32" width="11.42578125" customWidth="1"/>
     <col min="33" max="33" width="12.28515625" customWidth="1"/>
     <col min="34" max="34" width="11.42578125" customWidth="1"/>
-    <col min="35" max="35" width="14.140625" customWidth="1"/>
-    <col min="36" max="36" width="15.85546875" customWidth="1"/>
-    <col min="37" max="37" width="12" customWidth="1"/>
-    <col min="38" max="38" width="13.42578125" customWidth="1"/>
-    <col min="39" max="44" width="14.28515625" customWidth="1"/>
-    <col min="45" max="45" width="12.28515625" customWidth="1"/>
-    <col min="46" max="48" width="11.42578125" customWidth="1"/>
-    <col min="49" max="53" width="11.42578125" style="10" customWidth="1"/>
-    <col min="54" max="54" width="16.85546875" customWidth="1"/>
+    <col min="35" max="37" width="14.140625" customWidth="1"/>
+    <col min="38" max="38" width="15.85546875" customWidth="1"/>
+    <col min="39" max="39" width="12" customWidth="1"/>
+    <col min="40" max="40" width="13.42578125" customWidth="1"/>
+    <col min="41" max="46" width="14.28515625" customWidth="1"/>
+    <col min="47" max="47" width="12.28515625" customWidth="1"/>
+    <col min="48" max="50" width="0" style="10" hidden="1" customWidth="1"/>
+    <col min="51" max="55" width="11.42578125" style="10" customWidth="1"/>
+    <col min="56" max="56" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:285" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:287" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
       <c r="G1" s="65"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -5910,10 +5995,11 @@
       <c r="AP1" s="24"/>
       <c r="AQ1" s="24"/>
       <c r="AR1" s="24"/>
-      <c r="AV1" s="10"/>
-      <c r="BA1"/>
-    </row>
-    <row r="2" spans="1:285" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="BC1"/>
+    </row>
+    <row r="2" spans="1:287" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="51" t="s">
         <v>23</v>
@@ -5960,18 +6046,19 @@
       <c r="AP2" s="24"/>
       <c r="AQ2" s="24"/>
       <c r="AR2" s="24"/>
-      <c r="AV2" s="10"/>
-      <c r="BA2"/>
-    </row>
-    <row r="3" spans="1:285" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="BC2"/>
+    </row>
+    <row r="3" spans="1:287" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
       <c r="G3" s="67"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -6010,21 +6097,25 @@
       <c r="AP3" s="24"/>
       <c r="AQ3" s="24"/>
       <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
       <c r="AV3" s="110"/>
       <c r="AW3" s="110"/>
       <c r="AX3" s="110"/>
       <c r="AY3" s="110"/>
       <c r="AZ3" s="110"/>
-    </row>
-    <row r="4" spans="1:285" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="BA3" s="110"/>
+      <c r="BB3" s="110"/>
+    </row>
+    <row r="4" spans="1:287" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
       <c r="G4" s="67"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -6063,8 +6154,10 @@
       <c r="AP4" s="24"/>
       <c r="AQ4" s="24"/>
       <c r="AR4" s="24"/>
-    </row>
-    <row r="5" spans="1:285" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="24"/>
+    </row>
+    <row r="5" spans="1:287" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="29" t="s">
         <v>21</v>
@@ -6111,8 +6204,10 @@
       <c r="AP5" s="24"/>
       <c r="AQ5" s="24"/>
       <c r="AR5" s="24"/>
-    </row>
-    <row r="6" spans="1:285" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS5" s="24"/>
+      <c r="AT5" s="24"/>
+    </row>
+    <row r="6" spans="1:287" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="29" t="s">
         <v>22</v>
@@ -6159,11 +6254,9 @@
       <c r="AP6" s="24"/>
       <c r="AQ6" s="24"/>
       <c r="AR6" s="24"/>
-      <c r="AS6"/>
-      <c r="AT6"/>
+      <c r="AS6" s="24"/>
+      <c r="AT6" s="24"/>
       <c r="AU6"/>
-      <c r="BA6"/>
-      <c r="BB6"/>
       <c r="BC6"/>
       <c r="BD6"/>
       <c r="BE6"/>
@@ -6221,8 +6314,10 @@
       <c r="DE6"/>
       <c r="DF6"/>
       <c r="DG6"/>
-    </row>
-    <row r="7" spans="1:285" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="DH6"/>
+      <c r="DI6"/>
+    </row>
+    <row r="7" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="68"/>
@@ -6250,8 +6345,6 @@
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="18"/>
-      <c r="AS7" s="110"/>
-      <c r="AT7" s="110"/>
       <c r="AU7" s="110"/>
       <c r="AV7" s="110"/>
       <c r="AW7" s="110"/>
@@ -6317,8 +6410,10 @@
       <c r="DE7" s="110"/>
       <c r="DF7" s="110"/>
       <c r="DG7" s="110"/>
-    </row>
-    <row r="8" spans="1:285" s="45" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="DH7" s="110"/>
+      <c r="DI7" s="110"/>
+    </row>
+    <row r="8" spans="1:287" s="45" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>16</v>
       </c>
@@ -6425,40 +6520,50 @@
         <v>10</v>
       </c>
       <c r="AJ8" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK8" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL8" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="AK8" s="45" t="s">
+      <c r="AM8" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="AL8" s="128" t="s">
+      <c r="AN8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AM8" s="127" t="s">
+      <c r="AO8" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="AN8" s="130" t="s">
+      <c r="AP8" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="AO8" s="130" t="s">
+      <c r="AQ8" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="AP8" s="130" t="s">
+      <c r="AR8" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="AQ8" s="130" t="s">
+      <c r="AS8" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="AR8" s="131" t="s">
+      <c r="AT8" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="AS8" s="130" t="s">
+      <c r="AU8" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="10"/>
+      <c r="AV8" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW8" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX8" s="128" t="s">
+        <v>101</v>
+      </c>
       <c r="AY8" s="10"/>
       <c r="AZ8" s="10"/>
       <c r="BA8" s="10"/>
@@ -6520,8 +6625,8 @@
       <c r="DE8" s="10"/>
       <c r="DF8" s="10"/>
       <c r="DG8" s="10"/>
-      <c r="DH8" s="126"/>
-      <c r="DI8" s="126"/>
+      <c r="DH8" s="10"/>
+      <c r="DI8" s="10"/>
       <c r="DJ8" s="126"/>
       <c r="DK8" s="126"/>
       <c r="DL8" s="126"/>
@@ -6531,9 +6636,9 @@
       <c r="DP8" s="126"/>
       <c r="DQ8" s="126"/>
       <c r="DR8" s="126"/>
-      <c r="DS8" s="125"/>
-      <c r="DT8" s="124"/>
-      <c r="DU8" s="124"/>
+      <c r="DS8" s="126"/>
+      <c r="DT8" s="126"/>
+      <c r="DU8" s="125"/>
       <c r="DV8" s="124"/>
       <c r="DW8" s="124"/>
       <c r="DX8" s="124"/>
@@ -6694,8 +6799,10 @@
       <c r="JW8" s="124"/>
       <c r="JX8" s="124"/>
       <c r="JY8" s="124"/>
-    </row>
-    <row r="9" spans="1:285" s="79" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="JZ8" s="124"/>
+      <c r="KA8" s="124"/>
+    </row>
+    <row r="9" spans="1:287" s="79" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49"/>
       <c r="B9" s="5"/>
       <c r="C9" s="74"/>
@@ -6724,15 +6831,17 @@
       <c r="AG9" s="83"/>
       <c r="AH9" s="83"/>
       <c r="AI9" s="83"/>
-      <c r="AM9" s="83"/>
-      <c r="AN9" s="83"/>
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
       <c r="AO9" s="83"/>
       <c r="AP9" s="83"/>
       <c r="AQ9" s="83"/>
       <c r="AR9" s="83"/>
       <c r="AS9" s="83"/>
-    </row>
-    <row r="10" spans="1:285" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="83"/>
+    </row>
+    <row r="10" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="115"/>
       <c r="B10" s="116"/>
       <c r="C10" s="117"/>
@@ -6772,14 +6881,19 @@
       <c r="AK10" s="119"/>
       <c r="AL10" s="119"/>
       <c r="AM10" s="119"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="48"/>
+      <c r="AN10" s="119"/>
+      <c r="AO10" s="119"/>
       <c r="AP10" s="48"/>
       <c r="AQ10" s="48"/>
       <c r="AR10" s="48"/>
-      <c r="AS10" s="54"/>
-    </row>
-    <row r="11" spans="1:285" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS10" s="48"/>
+      <c r="AT10" s="48"/>
+      <c r="AU10" s="54"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="79"/>
+    </row>
+    <row r="11" spans="1:287" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="5"/>
       <c r="C11" s="74"/>
@@ -6809,18 +6923,20 @@
       <c r="AG11" s="103"/>
       <c r="AH11" s="103"/>
       <c r="AI11" s="103"/>
-      <c r="AJ11" s="102"/>
-      <c r="AK11" s="102"/>
+      <c r="AJ11" s="103"/>
+      <c r="AK11" s="103"/>
       <c r="AL11" s="102"/>
-      <c r="AM11" s="103"/>
-      <c r="AN11" s="103"/>
+      <c r="AM11" s="102"/>
+      <c r="AN11" s="102"/>
       <c r="AO11" s="103"/>
       <c r="AP11" s="103"/>
       <c r="AQ11" s="103"/>
       <c r="AR11" s="103"/>
-      <c r="AS11" s="83"/>
-    </row>
-    <row r="12" spans="1:285" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS11" s="103"/>
+      <c r="AT11" s="103"/>
+      <c r="AU11" s="83"/>
+    </row>
+    <row r="12" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46"/>
       <c r="B12" s="38"/>
       <c r="C12" s="69"/>
@@ -6865,9 +6981,14 @@
       <c r="AP12" s="48"/>
       <c r="AQ12" s="48"/>
       <c r="AR12" s="48"/>
-      <c r="AS12" s="54"/>
-    </row>
-    <row r="13" spans="1:285" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS12" s="48"/>
+      <c r="AT12" s="48"/>
+      <c r="AU12" s="54"/>
+      <c r="AV12" s="79"/>
+      <c r="AW12" s="79"/>
+      <c r="AX12" s="79"/>
+    </row>
+    <row r="13" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="46"/>
       <c r="B13" s="38"/>
       <c r="C13" s="69"/>
@@ -6912,8 +7033,13 @@
       <c r="AP13" s="48"/>
       <c r="AQ13" s="48"/>
       <c r="AR13" s="48"/>
-    </row>
-    <row r="14" spans="1:285" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS13" s="48"/>
+      <c r="AT13" s="48"/>
+      <c r="AV13" s="79"/>
+      <c r="AW13" s="79"/>
+      <c r="AX13" s="79"/>
+    </row>
+    <row r="14" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="46"/>
       <c r="B14" s="38"/>
       <c r="C14" s="69"/>
@@ -6958,8 +7084,13 @@
       <c r="AP14" s="48"/>
       <c r="AQ14" s="48"/>
       <c r="AR14" s="48"/>
-    </row>
-    <row r="15" spans="1:285" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS14" s="48"/>
+      <c r="AT14" s="48"/>
+      <c r="AV14" s="79"/>
+      <c r="AW14" s="79"/>
+      <c r="AX14" s="79"/>
+    </row>
+    <row r="15" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="46"/>
       <c r="B15" s="38"/>
       <c r="C15" s="69"/>
@@ -7004,8 +7135,13 @@
       <c r="AP15" s="48"/>
       <c r="AQ15" s="48"/>
       <c r="AR15" s="48"/>
-    </row>
-    <row r="16" spans="1:285" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS15" s="48"/>
+      <c r="AT15" s="48"/>
+      <c r="AV15" s="79"/>
+      <c r="AW15" s="79"/>
+      <c r="AX15" s="79"/>
+    </row>
+    <row r="16" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="46"/>
       <c r="B16" s="38"/>
       <c r="C16" s="69"/>
@@ -7050,8 +7186,13 @@
       <c r="AP16" s="48"/>
       <c r="AQ16" s="48"/>
       <c r="AR16" s="48"/>
-    </row>
-    <row r="17" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS16" s="48"/>
+      <c r="AT16" s="48"/>
+      <c r="AV16" s="79"/>
+      <c r="AW16" s="79"/>
+      <c r="AX16" s="79"/>
+    </row>
+    <row r="17" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="46"/>
       <c r="B17" s="38"/>
       <c r="C17" s="69"/>
@@ -7096,8 +7237,13 @@
       <c r="AP17" s="48"/>
       <c r="AQ17" s="48"/>
       <c r="AR17" s="48"/>
-    </row>
-    <row r="18" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS17" s="48"/>
+      <c r="AT17" s="48"/>
+      <c r="AV17" s="79"/>
+      <c r="AW17" s="79"/>
+      <c r="AX17" s="79"/>
+    </row>
+    <row r="18" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="46"/>
       <c r="B18" s="38"/>
       <c r="C18" s="69"/>
@@ -7142,8 +7288,13 @@
       <c r="AP18" s="48"/>
       <c r="AQ18" s="48"/>
       <c r="AR18" s="48"/>
-    </row>
-    <row r="19" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS18" s="48"/>
+      <c r="AT18" s="48"/>
+      <c r="AV18" s="79"/>
+      <c r="AW18" s="79"/>
+      <c r="AX18" s="79"/>
+    </row>
+    <row r="19" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
       <c r="B19" s="38"/>
       <c r="C19" s="69"/>
@@ -7188,8 +7339,13 @@
       <c r="AP19" s="48"/>
       <c r="AQ19" s="48"/>
       <c r="AR19" s="48"/>
-    </row>
-    <row r="20" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS19" s="48"/>
+      <c r="AT19" s="48"/>
+      <c r="AV19" s="79"/>
+      <c r="AW19" s="79"/>
+      <c r="AX19" s="79"/>
+    </row>
+    <row r="20" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="25"/>
       <c r="C20" s="69"/>
@@ -7234,8 +7390,10 @@
       <c r="AP20" s="48"/>
       <c r="AQ20" s="48"/>
       <c r="AR20" s="48"/>
-    </row>
-    <row r="21" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS20" s="48"/>
+      <c r="AT20" s="48"/>
+    </row>
+    <row r="21" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="25"/>
       <c r="C21" s="69"/>
@@ -7280,8 +7438,10 @@
       <c r="AP21" s="48"/>
       <c r="AQ21" s="48"/>
       <c r="AR21" s="48"/>
-    </row>
-    <row r="22" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS21" s="48"/>
+      <c r="AT21" s="48"/>
+    </row>
+    <row r="22" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="25"/>
       <c r="C22" s="69"/>
@@ -7326,8 +7486,10 @@
       <c r="AP22" s="48"/>
       <c r="AQ22" s="48"/>
       <c r="AR22" s="48"/>
-    </row>
-    <row r="23" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS22" s="48"/>
+      <c r="AT22" s="48"/>
+    </row>
+    <row r="23" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="30"/>
       <c r="C23" s="67"/>
@@ -7372,8 +7534,10 @@
       <c r="AP23" s="48"/>
       <c r="AQ23" s="48"/>
       <c r="AR23" s="48"/>
-    </row>
-    <row r="24" spans="1:44" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS23" s="48"/>
+      <c r="AT23" s="48"/>
+    </row>
+    <row r="24" spans="1:50" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="70"/>
@@ -7418,8 +7582,10 @@
       <c r="AP24" s="48"/>
       <c r="AQ24" s="48"/>
       <c r="AR24" s="48"/>
-    </row>
-    <row r="25" spans="1:44" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS24" s="48"/>
+      <c r="AT24" s="48"/>
+    </row>
+    <row r="25" spans="1:50" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71"/>
@@ -7464,8 +7630,10 @@
       <c r="AP25" s="19"/>
       <c r="AQ25" s="19"/>
       <c r="AR25" s="19"/>
-    </row>
-    <row r="26" spans="1:44" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
+    </row>
+    <row r="26" spans="1:50" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="24"/>
       <c r="C26" s="65"/>
@@ -7510,8 +7678,10 @@
       <c r="AP26" s="24"/>
       <c r="AQ26" s="24"/>
       <c r="AR26" s="24"/>
-    </row>
-    <row r="27" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS26" s="24"/>
+      <c r="AT26" s="24"/>
+    </row>
+    <row r="27" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="25"/>
       <c r="C27" s="69"/>
@@ -7547,17 +7717,19 @@
       <c r="AG27" s="48"/>
       <c r="AH27" s="48"/>
       <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
+      <c r="AJ27" s="40"/>
       <c r="AK27" s="40"/>
-      <c r="AL27" s="40"/>
-      <c r="AM27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="40"/>
       <c r="AN27" s="40"/>
-      <c r="AO27" s="40"/>
+      <c r="AO27" s="32"/>
       <c r="AP27" s="40"/>
       <c r="AQ27" s="40"/>
       <c r="AR27" s="40"/>
-    </row>
-    <row r="28" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS27" s="40"/>
+      <c r="AT27" s="40"/>
+    </row>
+    <row r="28" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="25"/>
       <c r="C28" s="69"/>
@@ -7593,17 +7765,19 @@
       <c r="AG28" s="48"/>
       <c r="AH28" s="48"/>
       <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
+      <c r="AJ28" s="40"/>
       <c r="AK28" s="40"/>
-      <c r="AL28" s="40"/>
-      <c r="AM28" s="32"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="40"/>
       <c r="AN28" s="40"/>
-      <c r="AO28" s="40"/>
+      <c r="AO28" s="32"/>
       <c r="AP28" s="40"/>
       <c r="AQ28" s="40"/>
       <c r="AR28" s="40"/>
-    </row>
-    <row r="29" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS28" s="40"/>
+      <c r="AT28" s="40"/>
+    </row>
+    <row r="29" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="30"/>
       <c r="C29" s="67"/>
@@ -7648,8 +7822,10 @@
       <c r="AP29" s="30"/>
       <c r="AQ29" s="30"/>
       <c r="AR29" s="30"/>
-    </row>
-    <row r="30" spans="1:44" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS29" s="30"/>
+      <c r="AT29" s="30"/>
+    </row>
+    <row r="30" spans="1:50" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="70"/>
@@ -7694,8 +7870,10 @@
       <c r="AP30" s="36"/>
       <c r="AQ30" s="36"/>
       <c r="AR30" s="36"/>
-    </row>
-    <row r="31" spans="1:44" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS30" s="36"/>
+      <c r="AT30" s="36"/>
+    </row>
+    <row r="31" spans="1:50" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="72"/>
@@ -7740,8 +7918,10 @@
       <c r="AP31" s="22"/>
       <c r="AQ31" s="22"/>
       <c r="AR31" s="22"/>
-    </row>
-    <row r="32" spans="1:44" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS31" s="22"/>
+      <c r="AT31" s="22"/>
+    </row>
+    <row r="32" spans="1:50" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="24"/>
       <c r="C32" s="65"/>
@@ -7786,8 +7966,10 @@
       <c r="AP32" s="24"/>
       <c r="AQ32" s="24"/>
       <c r="AR32" s="24"/>
-    </row>
-    <row r="33" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS32" s="24"/>
+      <c r="AT32" s="24"/>
+    </row>
+    <row r="33" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="25"/>
       <c r="C33" s="69"/>
@@ -7823,17 +8005,19 @@
       <c r="AG33" s="32"/>
       <c r="AH33" s="32"/>
       <c r="AI33" s="32"/>
-      <c r="AJ33" s="32"/>
+      <c r="AJ33" s="40"/>
       <c r="AK33" s="40"/>
-      <c r="AL33" s="40"/>
-      <c r="AM33" s="32"/>
+      <c r="AL33" s="32"/>
+      <c r="AM33" s="40"/>
       <c r="AN33" s="40"/>
-      <c r="AO33" s="40"/>
+      <c r="AO33" s="32"/>
       <c r="AP33" s="40"/>
       <c r="AQ33" s="40"/>
       <c r="AR33" s="40"/>
-    </row>
-    <row r="34" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS33" s="40"/>
+      <c r="AT33" s="40"/>
+    </row>
+    <row r="34" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
       <c r="B34" s="25"/>
       <c r="C34" s="69"/>
@@ -7869,17 +8053,19 @@
       <c r="AG34" s="32"/>
       <c r="AH34" s="32"/>
       <c r="AI34" s="32"/>
-      <c r="AJ34" s="32"/>
+      <c r="AJ34" s="40"/>
       <c r="AK34" s="40"/>
-      <c r="AL34" s="40"/>
-      <c r="AM34" s="32"/>
+      <c r="AL34" s="32"/>
+      <c r="AM34" s="40"/>
       <c r="AN34" s="40"/>
-      <c r="AO34" s="40"/>
+      <c r="AO34" s="32"/>
       <c r="AP34" s="40"/>
       <c r="AQ34" s="40"/>
       <c r="AR34" s="40"/>
-    </row>
-    <row r="35" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS34" s="40"/>
+      <c r="AT34" s="40"/>
+    </row>
+    <row r="35" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="30"/>
       <c r="C35" s="67"/>
@@ -7924,8 +8110,10 @@
       <c r="AP35" s="30"/>
       <c r="AQ35" s="30"/>
       <c r="AR35" s="30"/>
-    </row>
-    <row r="36" spans="1:44" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS35" s="30"/>
+      <c r="AT35" s="30"/>
+    </row>
+    <row r="36" spans="1:46" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="70"/>
@@ -7970,8 +8158,10 @@
       <c r="AP36" s="36"/>
       <c r="AQ36" s="36"/>
       <c r="AR36" s="36"/>
-    </row>
-    <row r="37" spans="1:44" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS36" s="36"/>
+      <c r="AT36" s="36"/>
+    </row>
+    <row r="37" spans="1:46" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="72"/>
@@ -8016,8 +8206,10 @@
       <c r="AP37" s="22"/>
       <c r="AQ37" s="22"/>
       <c r="AR37" s="22"/>
-    </row>
-    <row r="38" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS37" s="22"/>
+      <c r="AT37" s="22"/>
+    </row>
+    <row r="38" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="24"/>
       <c r="C38" s="65"/>
@@ -8062,8 +8254,10 @@
       <c r="AP38" s="24"/>
       <c r="AQ38" s="24"/>
       <c r="AR38" s="24"/>
-    </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AS38" s="24"/>
+      <c r="AT38" s="24"/>
+    </row>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
       <c r="B39" s="25"/>
       <c r="C39" s="69"/>
@@ -8099,17 +8293,19 @@
       <c r="AG39" s="32"/>
       <c r="AH39" s="32"/>
       <c r="AI39" s="32"/>
-      <c r="AJ39" s="32"/>
+      <c r="AJ39" s="40"/>
       <c r="AK39" s="40"/>
-      <c r="AL39" s="40"/>
-      <c r="AM39" s="32"/>
+      <c r="AL39" s="32"/>
+      <c r="AM39" s="40"/>
       <c r="AN39" s="40"/>
-      <c r="AO39" s="40"/>
+      <c r="AO39" s="32"/>
       <c r="AP39" s="40"/>
       <c r="AQ39" s="40"/>
       <c r="AR39" s="40"/>
-    </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AS39" s="40"/>
+      <c r="AT39" s="40"/>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
       <c r="B40" s="25"/>
       <c r="C40" s="69"/>
@@ -8145,17 +8341,19 @@
       <c r="AG40" s="32"/>
       <c r="AH40" s="32"/>
       <c r="AI40" s="32"/>
-      <c r="AJ40" s="32"/>
+      <c r="AJ40" s="40"/>
       <c r="AK40" s="40"/>
-      <c r="AL40" s="40"/>
-      <c r="AM40" s="32"/>
+      <c r="AL40" s="32"/>
+      <c r="AM40" s="40"/>
       <c r="AN40" s="40"/>
-      <c r="AO40" s="40"/>
+      <c r="AO40" s="32"/>
       <c r="AP40" s="40"/>
       <c r="AQ40" s="40"/>
       <c r="AR40" s="40"/>
-    </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AS40" s="40"/>
+      <c r="AT40" s="40"/>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A41" s="35"/>
       <c r="B41" s="30"/>
       <c r="C41" s="67"/>
@@ -8200,8 +8398,10 @@
       <c r="AP41" s="30"/>
       <c r="AQ41" s="30"/>
       <c r="AR41" s="30"/>
-    </row>
-    <row r="42" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS41" s="30"/>
+      <c r="AT41" s="30"/>
+    </row>
+    <row r="42" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
       <c r="C42" s="70"/>
@@ -8246,8 +8446,10 @@
       <c r="AP42" s="36"/>
       <c r="AQ42" s="36"/>
       <c r="AR42" s="36"/>
-    </row>
-    <row r="43" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS42" s="36"/>
+      <c r="AT42" s="36"/>
+    </row>
+    <row r="43" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="72"/>
@@ -8292,8 +8494,10 @@
       <c r="AP43" s="22"/>
       <c r="AQ43" s="22"/>
       <c r="AR43" s="22"/>
-    </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AS43" s="22"/>
+      <c r="AT43" s="22"/>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A44" s="34"/>
       <c r="B44" s="30"/>
       <c r="C44" s="67"/>
@@ -8338,8 +8542,10 @@
       <c r="AP44" s="30"/>
       <c r="AQ44" s="30"/>
       <c r="AR44" s="30"/>
-    </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AS44" s="30"/>
+      <c r="AT44" s="30"/>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A45" s="35"/>
       <c r="B45" s="25"/>
       <c r="C45" s="70"/>
@@ -8384,8 +8590,10 @@
       <c r="AP45" s="36"/>
       <c r="AQ45" s="36"/>
       <c r="AR45" s="36"/>
-    </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AS45" s="36"/>
+      <c r="AT45" s="36"/>
+    </row>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
       <c r="X47" s="8"/>
       <c r="AE47" s="8"/>
       <c r="AF47" s="8"/>
@@ -8404,10 +8612,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CN60"/>
+  <dimension ref="A1:CP59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD42"/>
+    <sheetView topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8439,20 +8647,23 @@
     <col min="30" max="31" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="34" width="11.42578125" customWidth="1"/>
     <col min="35" max="35" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="11.42578125" customWidth="1"/>
-    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="49" width="11.42578125" style="10"/>
+    <col min="36" max="37" width="14.140625" customWidth="1"/>
+    <col min="38" max="39" width="11.42578125" customWidth="1"/>
+    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.42578125" style="10"/>
+    <col min="42" max="44" width="0" style="10" hidden="1" customWidth="1"/>
+    <col min="45" max="51" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:94" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -8485,8 +8696,10 @@
       <c r="AJ1" s="24"/>
       <c r="AK1" s="24"/>
       <c r="AL1" s="24"/>
-    </row>
-    <row r="2" spans="1:92" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+    </row>
+    <row r="2" spans="1:94" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="51" t="s">
         <v>23</v>
@@ -8527,16 +8740,18 @@
       <c r="AJ2" s="24"/>
       <c r="AK2" s="24"/>
       <c r="AL2" s="24"/>
-    </row>
-    <row r="3" spans="1:92" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+    </row>
+    <row r="3" spans="1:94" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
       <c r="G3" s="30"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -8569,8 +8784,8 @@
       <c r="AJ3" s="24"/>
       <c r="AK3" s="24"/>
       <c r="AL3" s="24"/>
-      <c r="AM3" s="110"/>
-      <c r="AN3" s="110"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
       <c r="AO3" s="110"/>
       <c r="AP3" s="110"/>
       <c r="AQ3" s="110"/>
@@ -8580,16 +8795,18 @@
       <c r="AU3" s="110"/>
       <c r="AV3" s="110"/>
       <c r="AW3" s="110"/>
-    </row>
-    <row r="4" spans="1:92" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX3" s="110"/>
+      <c r="AY3" s="110"/>
+    </row>
+    <row r="4" spans="1:94" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
       <c r="G4" s="67"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -8622,8 +8839,10 @@
       <c r="AJ4" s="24"/>
       <c r="AK4" s="24"/>
       <c r="AL4" s="24"/>
-    </row>
-    <row r="5" spans="1:92" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+    </row>
+    <row r="5" spans="1:94" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="29" t="s">
         <v>21</v>
@@ -8664,8 +8883,10 @@
       <c r="AJ5" s="24"/>
       <c r="AK5" s="24"/>
       <c r="AL5" s="24"/>
-    </row>
-    <row r="6" spans="1:92" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+    </row>
+    <row r="6" spans="1:94" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="29" t="s">
         <v>22</v>
@@ -8706,8 +8927,8 @@
       <c r="AJ6" s="24"/>
       <c r="AK6" s="24"/>
       <c r="AL6" s="24"/>
-      <c r="AX6"/>
-      <c r="AY6"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
       <c r="AZ6"/>
       <c r="BA6"/>
       <c r="BB6"/>
@@ -8749,8 +8970,10 @@
       <c r="CL6"/>
       <c r="CM6"/>
       <c r="CN6"/>
-    </row>
-    <row r="7" spans="1:92" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CO6"/>
+      <c r="CP6"/>
+    </row>
+    <row r="7" spans="1:94" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -8778,8 +9001,6 @@
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="18"/>
-      <c r="AM7" s="110"/>
-      <c r="AN7" s="110"/>
       <c r="AO7" s="110"/>
       <c r="AP7" s="110"/>
       <c r="AQ7" s="110"/>
@@ -8789,8 +9010,8 @@
       <c r="AU7" s="110"/>
       <c r="AV7" s="110"/>
       <c r="AW7" s="110"/>
-      <c r="AX7" s="9"/>
-      <c r="AY7" s="9"/>
+      <c r="AX7" s="110"/>
+      <c r="AY7" s="110"/>
       <c r="AZ7" s="9"/>
       <c r="BA7" s="9"/>
       <c r="BB7" s="9"/>
@@ -8832,8 +9053,10 @@
       <c r="CL7" s="9"/>
       <c r="CM7" s="9"/>
       <c r="CN7" s="9"/>
-    </row>
-    <row r="8" spans="1:92" s="45" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="CO7" s="9"/>
+      <c r="CP7" s="9"/>
+    </row>
+    <row r="8" spans="1:94" s="45" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>16</v>
       </c>
@@ -8940,22 +9163,32 @@
         <v>10</v>
       </c>
       <c r="AJ8" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK8" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL8" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="AK8" s="45" t="s">
+      <c r="AM8" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="AL8" s="128" t="s">
+      <c r="AN8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AM8" s="127" t="s">
+      <c r="AO8" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
+      <c r="AP8" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ8" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR8" s="128" t="s">
+        <v>101</v>
+      </c>
       <c r="AS8" s="10"/>
       <c r="AT8" s="10"/>
       <c r="AU8" s="10"/>
@@ -9004,8 +9237,10 @@
       <c r="CL8" s="10"/>
       <c r="CM8" s="10"/>
       <c r="CN8" s="10"/>
-    </row>
-    <row r="9" spans="1:92" s="79" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="CO8" s="10"/>
+      <c r="CP8" s="10"/>
+    </row>
+    <row r="9" spans="1:94" s="79" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49"/>
       <c r="B9" s="5"/>
       <c r="C9" s="63"/>
@@ -9037,11 +9272,13 @@
       <c r="AG9" s="103"/>
       <c r="AH9" s="103"/>
       <c r="AI9" s="103"/>
-      <c r="AJ9" s="102"/>
-      <c r="AK9" s="102"/>
-      <c r="AL9" s="103"/>
-    </row>
-    <row r="10" spans="1:92" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="102"/>
+      <c r="AM9" s="102"/>
+      <c r="AN9" s="103"/>
+    </row>
+    <row r="10" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="49"/>
       <c r="B10" s="5"/>
       <c r="C10" s="63"/>
@@ -9073,11 +9310,13 @@
       <c r="AG10" s="103"/>
       <c r="AH10" s="103"/>
       <c r="AI10" s="103"/>
-      <c r="AJ10" s="102"/>
-      <c r="AK10" s="102"/>
-      <c r="AL10" s="103"/>
-    </row>
-    <row r="11" spans="1:92" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="119"/>
+      <c r="AK10" s="119"/>
+      <c r="AL10" s="102"/>
+      <c r="AM10" s="102"/>
+      <c r="AN10" s="103"/>
+    </row>
+    <row r="11" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="5"/>
       <c r="C11" s="63"/>
@@ -9109,11 +9348,13 @@
       <c r="AG11" s="103"/>
       <c r="AH11" s="103"/>
       <c r="AI11" s="103"/>
-      <c r="AJ11" s="102"/>
-      <c r="AK11" s="102"/>
-      <c r="AL11" s="103"/>
-    </row>
-    <row r="12" spans="1:92" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="103"/>
+      <c r="AK11" s="103"/>
+      <c r="AL11" s="102"/>
+      <c r="AM11" s="102"/>
+      <c r="AN11" s="103"/>
+    </row>
+    <row r="12" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
       <c r="B12" s="5"/>
       <c r="C12" s="63"/>
@@ -9145,11 +9386,13 @@
       <c r="AG12" s="103"/>
       <c r="AH12" s="103"/>
       <c r="AI12" s="103"/>
-      <c r="AJ12" s="102"/>
-      <c r="AK12" s="102"/>
-      <c r="AL12" s="103"/>
-    </row>
-    <row r="13" spans="1:92" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="48"/>
+      <c r="AK12" s="48"/>
+      <c r="AL12" s="102"/>
+      <c r="AM12" s="102"/>
+      <c r="AN12" s="103"/>
+    </row>
+    <row r="13" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
       <c r="B13" s="5"/>
       <c r="C13" s="63"/>
@@ -9181,11 +9424,13 @@
       <c r="AG13" s="103"/>
       <c r="AH13" s="103"/>
       <c r="AI13" s="103"/>
-      <c r="AJ13" s="102"/>
-      <c r="AK13" s="102"/>
-      <c r="AL13" s="103"/>
-    </row>
-    <row r="14" spans="1:92" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="48"/>
+      <c r="AL13" s="102"/>
+      <c r="AM13" s="102"/>
+      <c r="AN13" s="103"/>
+    </row>
+    <row r="14" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
       <c r="B14" s="5"/>
       <c r="C14" s="63"/>
@@ -9217,11 +9462,13 @@
       <c r="AG14" s="103"/>
       <c r="AH14" s="103"/>
       <c r="AI14" s="103"/>
-      <c r="AJ14" s="102"/>
-      <c r="AK14" s="102"/>
-      <c r="AL14" s="103"/>
-    </row>
-    <row r="15" spans="1:92" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="102"/>
+      <c r="AM14" s="102"/>
+      <c r="AN14" s="103"/>
+    </row>
+    <row r="15" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="B15" s="5"/>
       <c r="C15" s="63"/>
@@ -9253,11 +9500,13 @@
       <c r="AG15" s="103"/>
       <c r="AH15" s="103"/>
       <c r="AI15" s="103"/>
-      <c r="AJ15" s="102"/>
-      <c r="AK15" s="102"/>
-      <c r="AL15" s="103"/>
-    </row>
-    <row r="16" spans="1:92" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="48"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="102"/>
+      <c r="AM15" s="102"/>
+      <c r="AN15" s="103"/>
+    </row>
+    <row r="16" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="B16" s="5"/>
       <c r="C16" s="63"/>
@@ -9289,11 +9538,13 @@
       <c r="AG16" s="103"/>
       <c r="AH16" s="103"/>
       <c r="AI16" s="103"/>
-      <c r="AJ16" s="102"/>
-      <c r="AK16" s="102"/>
-      <c r="AL16" s="103"/>
-    </row>
-    <row r="17" spans="1:38" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="102"/>
+      <c r="AM16" s="102"/>
+      <c r="AN16" s="103"/>
+    </row>
+    <row r="17" spans="1:40" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
       <c r="B17" s="5"/>
       <c r="C17" s="63"/>
@@ -9325,11 +9576,13 @@
       <c r="AG17" s="103"/>
       <c r="AH17" s="103"/>
       <c r="AI17" s="103"/>
-      <c r="AJ17" s="102"/>
-      <c r="AK17" s="102"/>
-      <c r="AL17" s="103"/>
-    </row>
-    <row r="18" spans="1:38" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="48"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="102"/>
+      <c r="AM17" s="102"/>
+      <c r="AN17" s="103"/>
+    </row>
+    <row r="18" spans="1:40" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="B18" s="5"/>
       <c r="C18" s="63"/>
@@ -9360,11 +9613,13 @@
       <c r="AG18" s="103"/>
       <c r="AH18" s="103"/>
       <c r="AI18" s="103"/>
-      <c r="AJ18" s="102"/>
-      <c r="AK18" s="102"/>
-      <c r="AL18" s="103"/>
-    </row>
-    <row r="19" spans="1:38" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="48"/>
+      <c r="AL18" s="102"/>
+      <c r="AM18" s="102"/>
+      <c r="AN18" s="103"/>
+    </row>
+    <row r="19" spans="1:40" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="5"/>
       <c r="C19" s="63"/>
@@ -9394,11 +9649,13 @@
       <c r="AG19" s="103"/>
       <c r="AH19" s="103"/>
       <c r="AI19" s="103"/>
-      <c r="AJ19" s="102"/>
-      <c r="AK19" s="102"/>
-      <c r="AL19" s="103"/>
-    </row>
-    <row r="20" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AJ19" s="48"/>
+      <c r="AK19" s="48"/>
+      <c r="AL19" s="102"/>
+      <c r="AM19" s="102"/>
+      <c r="AN19" s="103"/>
+    </row>
+    <row r="20" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="46"/>
       <c r="B20" s="38"/>
       <c r="C20" s="40"/>
@@ -9416,92 +9673,31 @@
       <c r="O20" s="48"/>
       <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
-      <c r="R20" s="54">
-        <f>SUM(R9:R19)</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="54">
-        <f>SUM(S9:S19)</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="54">
-        <f>SUM(T9:T19)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="54">
-        <f>SUM(U9:U19)</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="54">
-        <f>SUM(V9:V19)</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="54">
-        <f>SUM(W9:W19)</f>
-        <v>0</v>
-      </c>
-      <c r="X20" s="54">
-        <f>SUM(X9:X19)</f>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="54">
-        <f>SUM(Y9:Y19)</f>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="54">
-        <f>SUM(Z9:Z19)</f>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="54">
-        <f>SUM(AA9:AA19)</f>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="54">
-        <f>SUM(AB9:AB19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="54">
-        <f>SUM(AC9:AC19)</f>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="54">
-        <f>SUM(AD9:AD19)</f>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="54">
-        <f>SUM(AE9:AE19)</f>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="54">
-        <f>SUM(AF9:AF19)</f>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="54">
-        <f>SUM(AG9:AG19)</f>
-        <v>0</v>
-      </c>
-      <c r="AH20" s="54">
-        <f>SUM(AH9:AH19)</f>
-        <v>0</v>
-      </c>
-      <c r="AI20" s="54">
-        <f>SUM(AI9:AI19)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="54">
-        <f>SUM(AJ9:AJ19)</f>
-        <v>0</v>
-      </c>
-      <c r="AK20" s="83">
-        <f>SUM(AK9:AK19)</f>
-        <v>0</v>
-      </c>
-      <c r="AL20" s="54">
-        <f>SUM(AL9:AL19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="54"/>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="54"/>
+      <c r="AJ20" s="48"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="54"/>
+      <c r="AM20" s="54"/>
+      <c r="AN20" s="54"/>
+    </row>
+    <row r="21" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="46"/>
       <c r="B21" s="38"/>
       <c r="C21" s="40"/>
@@ -9519,29 +9715,31 @@
       <c r="O21" s="48"/>
       <c r="P21" s="48"/>
       <c r="Q21" s="48"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="54"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="54"/>
-      <c r="AL21" s="54"/>
-    </row>
-    <row r="22" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="48"/>
+    </row>
+    <row r="22" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="46"/>
       <c r="B22" s="38"/>
       <c r="C22" s="40"/>
@@ -9580,8 +9778,10 @@
       <c r="AJ22" s="48"/>
       <c r="AK22" s="48"/>
       <c r="AL22" s="48"/>
-    </row>
-    <row r="23" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM22" s="48"/>
+      <c r="AN22" s="48"/>
+    </row>
+    <row r="23" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="46"/>
       <c r="B23" s="38"/>
       <c r="C23" s="40"/>
@@ -9620,8 +9820,10 @@
       <c r="AJ23" s="48"/>
       <c r="AK23" s="48"/>
       <c r="AL23" s="48"/>
-    </row>
-    <row r="24" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="48"/>
+    </row>
+    <row r="24" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="46"/>
       <c r="B24" s="38"/>
       <c r="C24" s="40"/>
@@ -9657,11 +9859,13 @@
       <c r="AG24" s="48"/>
       <c r="AH24" s="48"/>
       <c r="AI24" s="48"/>
-      <c r="AJ24" s="48"/>
-      <c r="AK24" s="48"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
       <c r="AL24" s="48"/>
-    </row>
-    <row r="25" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM24" s="48"/>
+      <c r="AN24" s="48"/>
+    </row>
+    <row r="25" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" s="38"/>
       <c r="C25" s="40"/>
@@ -9697,11 +9901,13 @@
       <c r="AG25" s="48"/>
       <c r="AH25" s="48"/>
       <c r="AI25" s="48"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="48"/>
+      <c r="AJ25" s="24"/>
+      <c r="AK25" s="24"/>
       <c r="AL25" s="48"/>
-    </row>
-    <row r="26" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="48"/>
+    </row>
+    <row r="26" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="46"/>
       <c r="B26" s="38"/>
       <c r="C26" s="40"/>
@@ -9737,11 +9943,13 @@
       <c r="AG26" s="48"/>
       <c r="AH26" s="48"/>
       <c r="AI26" s="48"/>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="48"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
       <c r="AL26" s="48"/>
-    </row>
-    <row r="27" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM26" s="48"/>
+      <c r="AN26" s="48"/>
+    </row>
+    <row r="27" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="46"/>
       <c r="B27" s="38"/>
       <c r="C27" s="40"/>
@@ -9777,11 +9985,13 @@
       <c r="AG27" s="48"/>
       <c r="AH27" s="48"/>
       <c r="AI27" s="48"/>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="48"/>
+      <c r="AJ27" s="40"/>
+      <c r="AK27" s="40"/>
       <c r="AL27" s="48"/>
-    </row>
-    <row r="28" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM27" s="48"/>
+      <c r="AN27" s="48"/>
+    </row>
+    <row r="28" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="46"/>
       <c r="B28" s="38"/>
       <c r="C28" s="40"/>
@@ -9817,11 +10027,13 @@
       <c r="AG28" s="48"/>
       <c r="AH28" s="48"/>
       <c r="AI28" s="48"/>
-      <c r="AJ28" s="48"/>
-      <c r="AK28" s="48"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="30"/>
       <c r="AL28" s="48"/>
-    </row>
-    <row r="29" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM28" s="48"/>
+      <c r="AN28" s="48"/>
+    </row>
+    <row r="29" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="46"/>
       <c r="B29" s="38"/>
       <c r="C29" s="40"/>
@@ -9857,11 +10069,13 @@
       <c r="AG29" s="48"/>
       <c r="AH29" s="48"/>
       <c r="AI29" s="48"/>
-      <c r="AJ29" s="48"/>
-      <c r="AK29" s="48"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="36"/>
       <c r="AL29" s="48"/>
-    </row>
-    <row r="30" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM29" s="48"/>
+      <c r="AN29" s="48"/>
+    </row>
+    <row r="30" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="46"/>
       <c r="B30" s="38"/>
       <c r="C30" s="40"/>
@@ -9897,12 +10111,14 @@
       <c r="AG30" s="48"/>
       <c r="AH30" s="48"/>
       <c r="AI30" s="48"/>
-      <c r="AJ30" s="48"/>
-      <c r="AK30" s="48"/>
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="22"/>
       <c r="AL30" s="48"/>
-    </row>
-    <row r="31" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
+      <c r="AM30" s="48"/>
+      <c r="AN30" s="48"/>
+    </row>
+    <row r="31" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
       <c r="B31" s="38"/>
       <c r="C31" s="40"/>
       <c r="D31" s="40"/>
@@ -9937,11 +10153,13 @@
       <c r="AG31" s="48"/>
       <c r="AH31" s="48"/>
       <c r="AI31" s="48"/>
-      <c r="AJ31" s="48"/>
-      <c r="AK31" s="48"/>
+      <c r="AJ31" s="24"/>
+      <c r="AK31" s="24"/>
       <c r="AL31" s="48"/>
-    </row>
-    <row r="32" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM31" s="48"/>
+      <c r="AN31" s="48"/>
+    </row>
+    <row r="32" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39"/>
       <c r="B32" s="38"/>
       <c r="C32" s="40"/>
@@ -9977,11 +10195,13 @@
       <c r="AG32" s="48"/>
       <c r="AH32" s="48"/>
       <c r="AI32" s="48"/>
-      <c r="AJ32" s="48"/>
-      <c r="AK32" s="48"/>
+      <c r="AJ32" s="40"/>
+      <c r="AK32" s="40"/>
       <c r="AL32" s="48"/>
-    </row>
-    <row r="33" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM32" s="48"/>
+      <c r="AN32" s="48"/>
+    </row>
+    <row r="33" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39"/>
       <c r="B33" s="38"/>
       <c r="C33" s="40"/>
@@ -10017,11 +10237,13 @@
       <c r="AG33" s="48"/>
       <c r="AH33" s="48"/>
       <c r="AI33" s="48"/>
-      <c r="AJ33" s="48"/>
-      <c r="AK33" s="48"/>
+      <c r="AJ33" s="40"/>
+      <c r="AK33" s="40"/>
       <c r="AL33" s="48"/>
-    </row>
-    <row r="34" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM33" s="48"/>
+      <c r="AN33" s="48"/>
+    </row>
+    <row r="34" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
       <c r="B34" s="38"/>
       <c r="C34" s="40"/>
@@ -10057,23 +10279,25 @@
       <c r="AG34" s="48"/>
       <c r="AH34" s="48"/>
       <c r="AI34" s="48"/>
-      <c r="AJ34" s="48"/>
-      <c r="AK34" s="48"/>
+      <c r="AJ34" s="30"/>
+      <c r="AK34" s="30"/>
       <c r="AL34" s="48"/>
-    </row>
-    <row r="35" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
+      <c r="AM34" s="48"/>
+      <c r="AN34" s="48"/>
+    </row>
+    <row r="35" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="35"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
       <c r="M35" s="48"/>
       <c r="N35" s="48"/>
       <c r="O35" s="48"/>
@@ -10097,23 +10321,25 @@
       <c r="AG35" s="48"/>
       <c r="AH35" s="48"/>
       <c r="AI35" s="48"/>
-      <c r="AJ35" s="48"/>
-      <c r="AK35" s="48"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
       <c r="AL35" s="48"/>
-    </row>
-    <row r="36" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
+      <c r="AM35" s="48"/>
+      <c r="AN35" s="48"/>
+    </row>
+    <row r="36" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
       <c r="M36" s="48"/>
       <c r="N36" s="48"/>
       <c r="O36" s="48"/>
@@ -10137,131 +10363,139 @@
       <c r="AG36" s="48"/>
       <c r="AH36" s="48"/>
       <c r="AI36" s="48"/>
-      <c r="AJ36" s="48"/>
-      <c r="AK36" s="48"/>
+      <c r="AJ36" s="22"/>
+      <c r="AK36" s="22"/>
       <c r="AL36" s="48"/>
-    </row>
-    <row r="37" spans="1:38" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="48"/>
-      <c r="AD37" s="48"/>
-      <c r="AE37" s="48"/>
-      <c r="AF37" s="48"/>
-      <c r="AG37" s="48"/>
-      <c r="AH37" s="48"/>
-      <c r="AI37" s="48"/>
-      <c r="AJ37" s="48"/>
-      <c r="AK37" s="48"/>
-      <c r="AL37" s="48"/>
-    </row>
-    <row r="38" spans="1:38" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="19"/>
-      <c r="AD38" s="19"/>
-      <c r="AE38" s="19"/>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="19"/>
-      <c r="AH38" s="19"/>
-      <c r="AI38" s="19"/>
-      <c r="AJ38" s="19"/>
-      <c r="AK38" s="19"/>
-      <c r="AL38" s="19"/>
-    </row>
-    <row r="39" spans="1:38" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="24"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="24"/>
-      <c r="AL39" s="24"/>
-    </row>
-    <row r="40" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM36" s="48"/>
+      <c r="AN36" s="48"/>
+    </row>
+    <row r="37" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="24"/>
+      <c r="AK37" s="24"/>
+      <c r="AL37" s="19"/>
+      <c r="AM37" s="19"/>
+      <c r="AN37" s="19"/>
+    </row>
+    <row r="38" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="24"/>
+      <c r="AB38" s="24"/>
+      <c r="AC38" s="24"/>
+      <c r="AD38" s="24"/>
+      <c r="AE38" s="24"/>
+      <c r="AF38" s="24"/>
+      <c r="AG38" s="24"/>
+      <c r="AH38" s="24"/>
+      <c r="AI38" s="24"/>
+      <c r="AJ38" s="40"/>
+      <c r="AK38" s="40"/>
+      <c r="AL38" s="24"/>
+      <c r="AM38" s="24"/>
+      <c r="AN38" s="24"/>
+    </row>
+    <row r="39" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="39"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="40"/>
+      <c r="AB39" s="40"/>
+      <c r="AC39" s="40"/>
+      <c r="AD39" s="40"/>
+      <c r="AE39" s="40"/>
+      <c r="AF39" s="40"/>
+      <c r="AG39" s="40"/>
+      <c r="AH39" s="40"/>
+      <c r="AI39" s="40"/>
+      <c r="AJ39" s="40"/>
+      <c r="AK39" s="40"/>
+      <c r="AL39" s="40"/>
+      <c r="AM39" s="40"/>
+      <c r="AN39" s="40"/>
+    </row>
+    <row r="40" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39"/>
       <c r="B40" s="38"/>
       <c r="C40" s="40"/>
@@ -10297,211 +10531,223 @@
       <c r="AG40" s="40"/>
       <c r="AH40" s="40"/>
       <c r="AI40" s="40"/>
-      <c r="AJ40" s="40"/>
-      <c r="AK40" s="40"/>
+      <c r="AJ40" s="30"/>
+      <c r="AK40" s="30"/>
       <c r="AL40" s="40"/>
-    </row>
-    <row r="41" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="40"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="40"/>
-      <c r="Z41" s="40"/>
-      <c r="AA41" s="40"/>
-      <c r="AB41" s="40"/>
-      <c r="AC41" s="40"/>
-      <c r="AD41" s="40"/>
-      <c r="AE41" s="40"/>
-      <c r="AF41" s="40"/>
-      <c r="AG41" s="40"/>
-      <c r="AH41" s="40"/>
-      <c r="AI41" s="40"/>
-      <c r="AJ41" s="40"/>
-      <c r="AK41" s="40"/>
-      <c r="AL41" s="40"/>
-    </row>
-    <row r="42" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="30"/>
-      <c r="Z42" s="30"/>
-      <c r="AA42" s="30"/>
-      <c r="AB42" s="30"/>
-      <c r="AC42" s="30"/>
-      <c r="AD42" s="30"/>
-      <c r="AE42" s="30"/>
-      <c r="AF42" s="30"/>
-      <c r="AG42" s="30"/>
-      <c r="AH42" s="30"/>
-      <c r="AI42" s="30"/>
-      <c r="AJ42" s="30"/>
-      <c r="AK42" s="30"/>
-      <c r="AL42" s="30"/>
-    </row>
-    <row r="43" spans="1:38" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="36"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="36"/>
-      <c r="X43" s="36"/>
-      <c r="Y43" s="36"/>
-      <c r="Z43" s="36"/>
-      <c r="AA43" s="36"/>
-      <c r="AB43" s="36"/>
-      <c r="AC43" s="36"/>
-      <c r="AD43" s="36"/>
-      <c r="AE43" s="36"/>
-      <c r="AF43" s="36"/>
-      <c r="AG43" s="36"/>
-      <c r="AH43" s="36"/>
-      <c r="AI43" s="36"/>
-      <c r="AJ43" s="36"/>
-      <c r="AK43" s="36"/>
-      <c r="AL43" s="36"/>
-    </row>
-    <row r="44" spans="1:38" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="22"/>
-      <c r="AC44" s="22"/>
-      <c r="AD44" s="22"/>
-      <c r="AE44" s="22"/>
-      <c r="AF44" s="22"/>
-      <c r="AG44" s="22"/>
-      <c r="AH44" s="22"/>
-      <c r="AI44" s="22"/>
-      <c r="AJ44" s="22"/>
-      <c r="AK44" s="22"/>
-      <c r="AL44" s="22"/>
-    </row>
-    <row r="45" spans="1:38" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
-      <c r="T45" s="24"/>
-      <c r="U45" s="24"/>
-      <c r="V45" s="24"/>
-      <c r="W45" s="24"/>
-      <c r="X45" s="24"/>
-      <c r="Y45" s="24"/>
-      <c r="Z45" s="24"/>
-      <c r="AA45" s="24"/>
-      <c r="AB45" s="24"/>
-      <c r="AC45" s="24"/>
-      <c r="AD45" s="24"/>
-      <c r="AE45" s="24"/>
-      <c r="AF45" s="24"/>
-      <c r="AG45" s="24"/>
-      <c r="AH45" s="24"/>
-      <c r="AI45" s="24"/>
-      <c r="AJ45" s="24"/>
-      <c r="AK45" s="24"/>
-      <c r="AL45" s="24"/>
-    </row>
-    <row r="46" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM40" s="40"/>
+      <c r="AN40" s="40"/>
+    </row>
+    <row r="41" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="35"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="30"/>
+      <c r="AF41" s="30"/>
+      <c r="AG41" s="30"/>
+      <c r="AH41" s="30"/>
+      <c r="AI41" s="30"/>
+      <c r="AJ41" s="36"/>
+      <c r="AK41" s="36"/>
+      <c r="AL41" s="30"/>
+      <c r="AM41" s="30"/>
+      <c r="AN41" s="30"/>
+    </row>
+    <row r="42" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="36"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="36"/>
+      <c r="AG42" s="36"/>
+      <c r="AH42" s="36"/>
+      <c r="AI42" s="36"/>
+      <c r="AJ42" s="22"/>
+      <c r="AK42" s="22"/>
+      <c r="AL42" s="36"/>
+      <c r="AM42" s="36"/>
+      <c r="AN42" s="36"/>
+    </row>
+    <row r="43" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="22"/>
+      <c r="AF43" s="22"/>
+      <c r="AG43" s="22"/>
+      <c r="AH43" s="22"/>
+      <c r="AI43" s="22"/>
+      <c r="AJ43" s="30"/>
+      <c r="AK43" s="30"/>
+      <c r="AL43" s="22"/>
+      <c r="AM43" s="22"/>
+      <c r="AN43" s="22"/>
+    </row>
+    <row r="44" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="31"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="24"/>
+      <c r="AA44" s="24"/>
+      <c r="AB44" s="24"/>
+      <c r="AC44" s="24"/>
+      <c r="AD44" s="24"/>
+      <c r="AE44" s="24"/>
+      <c r="AF44" s="24"/>
+      <c r="AG44" s="24"/>
+      <c r="AH44" s="24"/>
+      <c r="AI44" s="24"/>
+      <c r="AJ44" s="36"/>
+      <c r="AK44" s="36"/>
+      <c r="AL44" s="24"/>
+      <c r="AM44" s="24"/>
+      <c r="AN44" s="24"/>
+    </row>
+    <row r="45" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="39"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
+      <c r="AA45" s="40"/>
+      <c r="AB45" s="40"/>
+      <c r="AC45" s="40"/>
+      <c r="AD45" s="40"/>
+      <c r="AE45" s="40"/>
+      <c r="AF45" s="40"/>
+      <c r="AG45" s="40"/>
+      <c r="AH45" s="40"/>
+      <c r="AI45" s="40"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
+      <c r="AL45" s="40"/>
+      <c r="AM45" s="40"/>
+      <c r="AN45" s="40"/>
+    </row>
+    <row r="46" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="38"/>
       <c r="C46" s="40"/>
@@ -10523,7 +10769,7 @@
       <c r="S46" s="40"/>
       <c r="T46" s="40"/>
       <c r="U46" s="40"/>
-      <c r="V46" s="40"/>
+      <c r="V46" s="33"/>
       <c r="W46" s="40"/>
       <c r="X46" s="40"/>
       <c r="Y46" s="40"/>
@@ -10537,211 +10783,219 @@
       <c r="AG46" s="40"/>
       <c r="AH46" s="40"/>
       <c r="AI46" s="40"/>
-      <c r="AJ46" s="40"/>
-      <c r="AK46" s="40"/>
+      <c r="AJ46"/>
+      <c r="AK46"/>
       <c r="AL46" s="40"/>
-    </row>
-    <row r="47" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-      <c r="U47" s="40"/>
-      <c r="V47" s="33"/>
-      <c r="W47" s="40"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="40"/>
-      <c r="AA47" s="40"/>
-      <c r="AB47" s="40"/>
-      <c r="AC47" s="40"/>
-      <c r="AD47" s="40"/>
-      <c r="AE47" s="40"/>
-      <c r="AF47" s="40"/>
-      <c r="AG47" s="40"/>
-      <c r="AH47" s="40"/>
-      <c r="AI47" s="40"/>
-      <c r="AJ47" s="40"/>
-      <c r="AK47" s="40"/>
-      <c r="AL47" s="40"/>
-    </row>
-    <row r="48" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
-      <c r="AA48" s="30"/>
-      <c r="AB48" s="30"/>
-      <c r="AC48" s="30"/>
-      <c r="AD48" s="30"/>
-      <c r="AE48" s="30"/>
-      <c r="AF48" s="30"/>
-      <c r="AG48" s="30"/>
-      <c r="AH48" s="30"/>
-      <c r="AI48" s="30"/>
-      <c r="AJ48" s="30"/>
-      <c r="AK48" s="30"/>
-      <c r="AL48" s="30"/>
-    </row>
-    <row r="49" spans="1:38" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="36"/>
-      <c r="AB49" s="36"/>
-      <c r="AC49" s="36"/>
-      <c r="AD49" s="36"/>
-      <c r="AE49" s="36"/>
-      <c r="AF49" s="36"/>
-      <c r="AG49" s="36"/>
-      <c r="AH49" s="36"/>
-      <c r="AI49" s="36"/>
-      <c r="AJ49" s="36"/>
-      <c r="AK49" s="36"/>
-      <c r="AL49" s="36"/>
-    </row>
-    <row r="50" spans="1:38" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="22"/>
-      <c r="AC50" s="22"/>
-      <c r="AD50" s="22"/>
-      <c r="AE50" s="22"/>
-      <c r="AF50" s="22"/>
-      <c r="AG50" s="22"/>
-      <c r="AH50" s="22"/>
-      <c r="AI50" s="22"/>
-      <c r="AJ50" s="22"/>
-      <c r="AK50" s="22"/>
-      <c r="AL50" s="22"/>
-    </row>
-    <row r="51" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="24"/>
-      <c r="V51" s="24"/>
-      <c r="W51" s="24"/>
-      <c r="X51" s="24"/>
-      <c r="Y51" s="24"/>
-      <c r="Z51" s="24"/>
-      <c r="AA51" s="24"/>
-      <c r="AB51" s="24"/>
-      <c r="AC51" s="24"/>
-      <c r="AD51" s="24"/>
-      <c r="AE51" s="24"/>
-      <c r="AF51" s="24"/>
-      <c r="AG51" s="24"/>
-      <c r="AH51" s="24"/>
-      <c r="AI51" s="24"/>
-      <c r="AJ51" s="24"/>
-      <c r="AK51" s="24"/>
-      <c r="AL51" s="24"/>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM46" s="40"/>
+      <c r="AN46" s="40"/>
+    </row>
+    <row r="47" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="35"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30"/>
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="30"/>
+      <c r="AD47" s="30"/>
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="30"/>
+      <c r="AG47" s="30"/>
+      <c r="AH47" s="30"/>
+      <c r="AI47" s="30"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
+      <c r="AL47" s="30"/>
+      <c r="AM47" s="30"/>
+      <c r="AN47" s="30"/>
+    </row>
+    <row r="48" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="36"/>
+      <c r="Z48" s="36"/>
+      <c r="AA48" s="36"/>
+      <c r="AB48" s="36"/>
+      <c r="AC48" s="36"/>
+      <c r="AD48" s="36"/>
+      <c r="AE48" s="36"/>
+      <c r="AF48" s="36"/>
+      <c r="AG48" s="36"/>
+      <c r="AH48" s="36"/>
+      <c r="AI48" s="36"/>
+      <c r="AJ48"/>
+      <c r="AK48"/>
+      <c r="AL48" s="36"/>
+      <c r="AM48" s="36"/>
+      <c r="AN48" s="36"/>
+    </row>
+    <row r="49" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="22"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="22"/>
+      <c r="AH49" s="22"/>
+      <c r="AI49" s="22"/>
+      <c r="AJ49"/>
+      <c r="AK49"/>
+      <c r="AL49" s="22"/>
+      <c r="AM49" s="22"/>
+      <c r="AN49" s="22"/>
+    </row>
+    <row r="50" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="31"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="24"/>
+      <c r="V50" s="24"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="24"/>
+      <c r="AA50" s="24"/>
+      <c r="AB50" s="24"/>
+      <c r="AC50" s="24"/>
+      <c r="AD50" s="24"/>
+      <c r="AE50" s="24"/>
+      <c r="AF50" s="24"/>
+      <c r="AG50" s="24"/>
+      <c r="AH50" s="24"/>
+      <c r="AI50" s="24"/>
+      <c r="AL50" s="24"/>
+      <c r="AM50" s="24"/>
+      <c r="AN50" s="24"/>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A51" s="39"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="33"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="40"/>
+      <c r="Y51" s="40"/>
+      <c r="Z51" s="40"/>
+      <c r="AA51" s="40"/>
+      <c r="AB51" s="40"/>
+      <c r="AC51" s="40"/>
+      <c r="AD51" s="40"/>
+      <c r="AE51" s="40"/>
+      <c r="AF51" s="40"/>
+      <c r="AG51" s="40"/>
+      <c r="AH51" s="40"/>
+      <c r="AI51" s="40"/>
+      <c r="AL51" s="40"/>
+      <c r="AM51" s="40"/>
+      <c r="AN51" s="40"/>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A52" s="39"/>
       <c r="B52" s="38"/>
       <c r="C52" s="40"/>
@@ -10777,254 +11031,214 @@
       <c r="AG52" s="40"/>
       <c r="AH52" s="40"/>
       <c r="AI52" s="40"/>
-      <c r="AJ52" s="40"/>
-      <c r="AK52" s="40"/>
       <c r="AL52" s="40"/>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A53" s="39"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="33"/>
-      <c r="W53" s="40"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="40"/>
-      <c r="Z53" s="40"/>
-      <c r="AA53" s="40"/>
-      <c r="AB53" s="40"/>
-      <c r="AC53" s="40"/>
-      <c r="AD53" s="40"/>
-      <c r="AE53" s="40"/>
-      <c r="AF53" s="40"/>
-      <c r="AG53" s="40"/>
-      <c r="AH53" s="40"/>
-      <c r="AI53" s="40"/>
-      <c r="AJ53" s="40"/>
-      <c r="AK53" s="40"/>
-      <c r="AL53" s="40"/>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A54" s="35"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="30"/>
-      <c r="V54" s="30"/>
-      <c r="W54" s="30"/>
-      <c r="X54" s="30"/>
-      <c r="Y54" s="30"/>
-      <c r="Z54" s="30"/>
-      <c r="AA54" s="30"/>
-      <c r="AB54" s="30"/>
-      <c r="AC54" s="30"/>
-      <c r="AD54" s="30"/>
-      <c r="AE54" s="30"/>
-      <c r="AF54" s="30"/>
-      <c r="AG54" s="30"/>
-      <c r="AH54" s="30"/>
-      <c r="AI54" s="30"/>
-      <c r="AJ54" s="30"/>
-      <c r="AK54" s="30"/>
-      <c r="AL54" s="30"/>
-    </row>
-    <row r="55" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="36"/>
-      <c r="Z55" s="36"/>
-      <c r="AA55" s="36"/>
-      <c r="AB55" s="36"/>
-      <c r="AC55" s="36"/>
-      <c r="AD55" s="36"/>
-      <c r="AE55" s="36"/>
-      <c r="AF55" s="36"/>
-      <c r="AG55" s="36"/>
-      <c r="AH55" s="36"/>
-      <c r="AI55" s="36"/>
-      <c r="AJ55" s="36"/>
-      <c r="AK55" s="36"/>
-      <c r="AL55" s="36"/>
-    </row>
-    <row r="56" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="23"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="22"/>
-      <c r="AC56" s="22"/>
-      <c r="AD56" s="22"/>
-      <c r="AE56" s="22"/>
-      <c r="AF56" s="22"/>
-      <c r="AG56" s="22"/>
-      <c r="AH56" s="22"/>
-      <c r="AI56" s="22"/>
-      <c r="AJ56" s="22"/>
-      <c r="AK56" s="22"/>
-      <c r="AL56" s="22"/>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A57" s="34"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30"/>
-      <c r="W57" s="30"/>
-      <c r="X57" s="30"/>
-      <c r="Y57" s="30"/>
-      <c r="Z57" s="30"/>
-      <c r="AA57" s="30"/>
-      <c r="AB57" s="30"/>
-      <c r="AC57" s="30"/>
-      <c r="AD57" s="30"/>
-      <c r="AE57" s="30"/>
-      <c r="AF57" s="30"/>
-      <c r="AG57" s="30"/>
-      <c r="AH57" s="30"/>
-      <c r="AI57" s="30"/>
-      <c r="AJ57" s="30"/>
-      <c r="AK57" s="30"/>
-      <c r="AL57" s="30"/>
-    </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A58" s="35"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="36"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="36"/>
-      <c r="S58" s="36"/>
-      <c r="T58" s="36"/>
-      <c r="U58" s="36"/>
-      <c r="V58" s="36"/>
-      <c r="W58" s="36"/>
-      <c r="X58" s="36"/>
-      <c r="Y58" s="36"/>
-      <c r="Z58" s="36"/>
-      <c r="AA58" s="36"/>
-      <c r="AB58" s="36"/>
-      <c r="AC58" s="36"/>
-      <c r="AD58" s="36"/>
-      <c r="AE58" s="36"/>
-      <c r="AF58" s="36"/>
-      <c r="AG58" s="36"/>
-      <c r="AH58" s="36"/>
-      <c r="AI58" s="36"/>
-      <c r="AJ58" s="36"/>
-      <c r="AK58" s="36"/>
-      <c r="AL58" s="36"/>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="X60" s="8"/>
-      <c r="AE60" s="8"/>
-      <c r="AF60" s="8"/>
+      <c r="AM52" s="40"/>
+      <c r="AN52" s="40"/>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A53" s="35"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="30"/>
+      <c r="AA53" s="30"/>
+      <c r="AB53" s="30"/>
+      <c r="AC53" s="30"/>
+      <c r="AD53" s="30"/>
+      <c r="AE53" s="30"/>
+      <c r="AF53" s="30"/>
+      <c r="AG53" s="30"/>
+      <c r="AH53" s="30"/>
+      <c r="AI53" s="30"/>
+      <c r="AL53" s="30"/>
+      <c r="AM53" s="30"/>
+      <c r="AN53" s="30"/>
+    </row>
+    <row r="54" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="36"/>
+      <c r="T54" s="36"/>
+      <c r="U54" s="36"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="36"/>
+      <c r="X54" s="36"/>
+      <c r="Y54" s="36"/>
+      <c r="Z54" s="36"/>
+      <c r="AA54" s="36"/>
+      <c r="AB54" s="36"/>
+      <c r="AC54" s="36"/>
+      <c r="AD54" s="36"/>
+      <c r="AE54" s="36"/>
+      <c r="AF54" s="36"/>
+      <c r="AG54" s="36"/>
+      <c r="AH54" s="36"/>
+      <c r="AI54" s="36"/>
+      <c r="AL54" s="36"/>
+      <c r="AM54" s="36"/>
+      <c r="AN54" s="36"/>
+    </row>
+    <row r="55" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="23"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22"/>
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
+      <c r="AG55" s="22"/>
+      <c r="AH55" s="22"/>
+      <c r="AI55" s="22"/>
+      <c r="AL55" s="22"/>
+      <c r="AM55" s="22"/>
+      <c r="AN55" s="22"/>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A56" s="34"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="30"/>
+      <c r="Y56" s="30"/>
+      <c r="Z56" s="30"/>
+      <c r="AA56" s="30"/>
+      <c r="AB56" s="30"/>
+      <c r="AC56" s="30"/>
+      <c r="AD56" s="30"/>
+      <c r="AE56" s="30"/>
+      <c r="AF56" s="30"/>
+      <c r="AG56" s="30"/>
+      <c r="AH56" s="30"/>
+      <c r="AI56" s="30"/>
+      <c r="AL56" s="30"/>
+      <c r="AM56" s="30"/>
+      <c r="AN56" s="30"/>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A57" s="35"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="36"/>
+      <c r="Z57" s="36"/>
+      <c r="AA57" s="36"/>
+      <c r="AB57" s="36"/>
+      <c r="AC57" s="36"/>
+      <c r="AD57" s="36"/>
+      <c r="AE57" s="36"/>
+      <c r="AF57" s="36"/>
+      <c r="AG57" s="36"/>
+      <c r="AH57" s="36"/>
+      <c r="AI57" s="36"/>
+      <c r="AL57" s="36"/>
+      <c r="AM57" s="36"/>
+      <c r="AN57" s="36"/>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="X59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11043,7 +11257,7 @@
   <dimension ref="B4:M56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="70" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11683,10 +11897,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11694,383 +11908,869 @@
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="143"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="149" t="s">
+    <row r="1" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="139"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="139"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="139"/>
+      <c r="B3" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="178"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="143"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="150" t="s">
+      <c r="C3" s="143">
+        <v>43374</v>
+      </c>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="142" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="146"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="141"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="139"/>
+      <c r="B4" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="148" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="151" t="s">
+      <c r="D4" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="141"/>
-      <c r="F4" s="140"/>
-    </row>
-    <row r="5" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="152" t="s">
+      <c r="E4" s="149"/>
+      <c r="F4" s="147" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="150" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="148" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="141"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="139"/>
+      <c r="B5" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="143"/>
-    </row>
-    <row r="6" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="145" t="s">
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="151" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="151"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="141"/>
+    </row>
+    <row r="6" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="139"/>
+      <c r="B6" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="143"/>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="145" t="s">
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="157"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="141"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="139"/>
+      <c r="B7" s="154" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="137"/>
-    </row>
-    <row r="8" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="145" t="s">
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="156" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="157"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="141"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="139"/>
+      <c r="B8" s="154" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="156" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="157"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="141"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="139"/>
+      <c r="B9" s="154" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="156" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="157"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="141"/>
+    </row>
+    <row r="10" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="139"/>
+      <c r="B10" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="156" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="157"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="141"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="139"/>
+      <c r="B11" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="143"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="145" t="s">
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="156" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="157"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="141"/>
+    </row>
+    <row r="12" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="139"/>
+      <c r="B12" s="154" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="132"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="145" t="s">
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="156" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="157"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="141"/>
+    </row>
+    <row r="13" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="139"/>
+      <c r="B13" s="154" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="132"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="145" t="s">
+      <c r="C13" s="155"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="156" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="157"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="141"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="139"/>
+      <c r="B14" s="154" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="155"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="132"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="146" t="s">
+      <c r="C14" s="159"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="156" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="157"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="141"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="139"/>
+      <c r="B15" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="132"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="147" t="s">
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="156" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="157"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="141"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="139"/>
+      <c r="B16" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="155"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="132"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="145" t="s">
+      <c r="C16" s="159"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="156" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="157"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="141"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="139"/>
+      <c r="B17" s="154" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="132"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="145" t="s">
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="156" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="157"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="141"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="139"/>
+      <c r="B18" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="145" t="s">
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="161" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="157"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="141"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="139"/>
+      <c r="B19" s="154" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="161" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="157"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="141"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="139"/>
+      <c r="B20" s="154" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="145" t="s">
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="165" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="157"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="141"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="139"/>
+      <c r="B21" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="148" t="s">
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="165" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="157"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="141"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="139"/>
+      <c r="B22" s="166" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="158" t="s">
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="165" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="157"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="141"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="139"/>
+      <c r="B23" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="159"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="161" t="s">
+      <c r="C23" s="169">
+        <f>SUM(C6:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="169"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="165" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="157"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="141"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="139"/>
+      <c r="B24" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="163" t="s">
+      <c r="C24" s="155">
+        <f>C23*16%</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="155"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="171" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="172"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="141"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="139"/>
+      <c r="B25" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="164"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="152" t="s">
+      <c r="C25" s="174">
+        <f>SUM(C23:C24)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="174"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="175"/>
+      <c r="H25" s="176">
+        <f>SUM(H6:H24)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="176">
+        <f>SUM(I6:I24)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="141"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="139"/>
+      <c r="B26" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="165"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="145" t="s">
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="170" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="177"/>
+      <c r="H26" s="155">
+        <f>H25*16%</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="155">
+        <f>I25*16%</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="141"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="139"/>
+      <c r="B27" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="165"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="145" t="s">
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="173" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="178">
+        <f>SUM(G6:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="174">
+        <f>+H25+H26</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="174">
+        <f>+I25+I26</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="141"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="139"/>
+      <c r="B28" s="154" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="154"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="145" t="s">
+      <c r="C28" s="155"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="151" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="151"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="141"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="139"/>
+      <c r="B29" s="154" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="155"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="157"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="141"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="139"/>
+      <c r="B30" s="154" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="155"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="156" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="157"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="141"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="139"/>
+      <c r="B31" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="155"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="156" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="157"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="141"/>
+    </row>
+    <row r="32" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="139"/>
+      <c r="B32" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="154"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="145" t="s">
+      <c r="C32" s="155"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="156" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="157"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="141"/>
+    </row>
+    <row r="33" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="139"/>
+      <c r="B33" s="154" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="154"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="145" t="s">
+      <c r="C33" s="155"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="156" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="157"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="141"/>
+    </row>
+    <row r="34" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="139"/>
+      <c r="B34" s="154" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="154"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="145" t="s">
+      <c r="C34" s="155"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="162"/>
+      <c r="F34" s="156" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="157"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="141"/>
+    </row>
+    <row r="35" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="139"/>
+      <c r="B35" s="154" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="146" t="s">
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="156" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="157"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="141"/>
+    </row>
+    <row r="36" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="139"/>
+      <c r="B36" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="154"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="147" t="s">
+      <c r="C36" s="155"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="156" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="157"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="141"/>
+    </row>
+    <row r="37" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="139"/>
+      <c r="B37" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="154"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="145" t="s">
+      <c r="C37" s="155"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="162"/>
+      <c r="F37" s="156" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="157"/>
+      <c r="H37" s="155"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="141"/>
+    </row>
+    <row r="38" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="139"/>
+      <c r="B38" s="154" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="156"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-    </row>
-    <row r="32" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="145" t="s">
+      <c r="C38" s="164"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="162"/>
+      <c r="F38" s="156" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="157"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="141"/>
+    </row>
+    <row r="39" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="139"/>
+      <c r="B39" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="156"/>
-      <c r="D32" s="167"/>
-    </row>
-    <row r="33" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="145" t="s">
+      <c r="C39" s="164"/>
+      <c r="D39" s="180"/>
+      <c r="E39" s="162"/>
+      <c r="F39" s="156" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="157"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="141"/>
+    </row>
+    <row r="40" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="141"/>
+      <c r="B40" s="154" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="164"/>
+      <c r="D40" s="180"/>
+      <c r="E40" s="162"/>
+      <c r="F40" s="156" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="157"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="141"/>
+    </row>
+    <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="141"/>
+      <c r="B41" s="154" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="156"/>
-      <c r="D33" s="167"/>
-    </row>
-    <row r="34" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="145" t="s">
+      <c r="C41" s="164"/>
+      <c r="D41" s="180"/>
+      <c r="E41" s="162"/>
+      <c r="F41" s="161" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="157"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="155"/>
+      <c r="J41" s="141"/>
+    </row>
+    <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="141"/>
+      <c r="B42" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="156"/>
-      <c r="D34" s="167"/>
-    </row>
-    <row r="35" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="148" t="s">
+      <c r="C42" s="164"/>
+      <c r="D42" s="180"/>
+      <c r="E42" s="162"/>
+      <c r="F42" s="161" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="157"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="141"/>
+    </row>
+    <row r="43" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="141"/>
+      <c r="B43" s="166" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="157"/>
-      <c r="D35" s="168"/>
-    </row>
-    <row r="36" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="158" t="s">
+      <c r="C43" s="167"/>
+      <c r="D43" s="181"/>
+      <c r="E43" s="162"/>
+      <c r="F43" s="161" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="157"/>
+      <c r="H43" s="155"/>
+      <c r="I43" s="155"/>
+      <c r="J43" s="141"/>
+    </row>
+    <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="141"/>
+      <c r="B44" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
-    </row>
-    <row r="37" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="161" t="s">
+      <c r="C44" s="176">
+        <f>SUM(C27:C43)</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="176"/>
+      <c r="E44" s="162"/>
+      <c r="F44" s="161" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" s="157"/>
+      <c r="H44" s="153"/>
+      <c r="I44" s="155"/>
+      <c r="J44" s="141"/>
+    </row>
+    <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="141"/>
+      <c r="B45" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="154"/>
-      <c r="D37" s="166"/>
-    </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="163" t="s">
+      <c r="C45" s="155">
+        <f>C44*16%</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="153"/>
+      <c r="E45" s="162"/>
+      <c r="F45" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" s="157"/>
+      <c r="H45" s="153"/>
+      <c r="I45" s="155"/>
+      <c r="J45" s="141"/>
+    </row>
+    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="141"/>
+      <c r="B46" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
-    </row>
-    <row r="39" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="C46" s="174">
+        <f>SUM(C44:C45)</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="174"/>
+      <c r="E46" s="162"/>
+      <c r="F46" s="161" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="157"/>
+      <c r="H46" s="153"/>
+      <c r="I46" s="155"/>
+      <c r="J46" s="141"/>
+    </row>
+    <row r="47" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="141"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="162"/>
+      <c r="F47" s="171" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" s="172"/>
+      <c r="H47" s="153"/>
+      <c r="I47" s="155"/>
+      <c r="J47" s="141"/>
+    </row>
+    <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="141"/>
+      <c r="B48" s="162"/>
+      <c r="C48" s="162"/>
+      <c r="D48" s="162"/>
+      <c r="E48" s="162"/>
+      <c r="F48" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="175"/>
+      <c r="H48" s="176">
+        <f>SUM(H29:H47)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="176">
+        <f>SUM(I41:I47)</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="141"/>
+    </row>
+    <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="141"/>
+      <c r="B49" s="162"/>
+      <c r="C49" s="162"/>
+      <c r="D49" s="162"/>
+      <c r="E49" s="162"/>
+      <c r="F49" s="170" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" s="177"/>
+      <c r="H49" s="155">
+        <f>H48*16%</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="155">
+        <f>I48*16%</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="141"/>
+    </row>
+    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="141"/>
+      <c r="B50" s="162"/>
+      <c r="C50" s="162"/>
+      <c r="D50" s="162"/>
+      <c r="E50" s="162"/>
+      <c r="F50" s="173" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="178">
+        <f>SUM(G29:G49)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="174">
+        <f>SUM(H48:H49)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="174">
+        <f>SUM(I48:I49)</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="141"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" tabRatio="789" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" tabRatio="789" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA TOTAL" sheetId="27" r:id="rId1"/>
@@ -18,21 +18,23 @@
     <sheet name="DETALLE" sheetId="28" r:id="rId4"/>
     <sheet name="Hoja1" sheetId="31" r:id="rId5"/>
     <sheet name="FACT" sheetId="30" r:id="rId6"/>
+    <sheet name="PENSION ALIMENTICIA" sheetId="32" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="__TC1">[1]FOR!$B$9</definedName>
     <definedName name="__TC2">[1]FOR!$B$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'OPERADORA ABORDO'!$A$3:$W$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'OPERADORA DESCANSO'!$A$3:$W$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'PENSION ALIMENTICIA'!$B$1:$G$1</definedName>
     <definedName name="_TC1">[2]FOR!$B$9</definedName>
     <definedName name="_TC2">[2]FOR!$B$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">DETALLE!$A$1:$K$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'OPERADORA ABORDO'!$A$1:$AO$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'OPERADORA ABORDO'!$A$1:$AP$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'OPERADORA DESCANSO'!$A$1:$AN$19</definedName>
     <definedName name="LICS">[3]FOR!$F$59:$F$71</definedName>
     <definedName name="LIIMP">[3]FOR!$F$36:$F$40</definedName>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="122">
   <si>
     <t>SUBTOTAL</t>
   </si>
@@ -409,6 +411,27 @@
   <si>
     <t>SUBSEA 88</t>
   </si>
+  <si>
+    <t>FONACOT</t>
+  </si>
+  <si>
+    <t>NOMBRE TRABAJADOR</t>
+  </si>
+  <si>
+    <t>NOMBRE BENFICIARIO</t>
+  </si>
+  <si>
+    <t>PORCENTAJE</t>
+  </si>
+  <si>
+    <t>MONTO ABORDO</t>
+  </si>
+  <si>
+    <t>MONTO DESCANSO</t>
+  </si>
+  <si>
+    <t>SUBSEA88</t>
+  </si>
 </sst>
 </file>
 
@@ -421,7 +444,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;???_-;_-@_-"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -680,6 +703,13 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -2408,7 +2438,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2674,32 +2704,12 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1113" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1113" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1113" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1113" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1113" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="34" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="17" fontId="27" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2788,7 +2798,35 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1488" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1490" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" xfId="1490" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" xfId="1488" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="1" xfId="1318" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" xfId="1488" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1113" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1113" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1113" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1113" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1113" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="27" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4310,8 +4348,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>87842</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>151342</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>27517</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5083,11 +5121,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BE12"/>
+  <dimension ref="B1:BG12"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomLeft" activeCell="Q10" sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5107,21 +5145,21 @@
     <col min="13" max="13" width="13.5703125" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.28515625" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.85546875" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" customWidth="1"/>
-    <col min="23" max="23" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="18.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="1.85546875" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" customWidth="1"/>
+    <col min="25" max="25" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:57" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:59" s="1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -5138,18 +5176,17 @@
       <c r="O1" s="4"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
       <c r="Z1" s="3"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
       <c r="AE1" s="50"/>
       <c r="AF1" s="50"/>
       <c r="AG1" s="50"/>
@@ -5177,8 +5214,10 @@
       <c r="BC1" s="50"/>
       <c r="BD1" s="50"/>
       <c r="BE1" s="50"/>
-    </row>
-    <row r="2" spans="2:57" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="BF1" s="50"/>
+      <c r="BG1" s="50"/>
+    </row>
+    <row r="2" spans="2:59" s="1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
@@ -5204,12 +5243,12 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
       <c r="AA2" s="6"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
       <c r="AE2" s="50"/>
       <c r="AF2" s="50"/>
       <c r="AG2" s="50"/>
@@ -5237,8 +5276,10 @@
       <c r="BC2" s="50"/>
       <c r="BD2" s="50"/>
       <c r="BE2" s="50"/>
-    </row>
-    <row r="3" spans="2:57" s="43" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="BF2" s="50"/>
+      <c r="BG2" s="50"/>
+    </row>
+    <row r="3" spans="2:59" s="43" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
@@ -5262,12 +5303,12 @@
       <c r="V3" s="42"/>
       <c r="W3" s="42"/>
       <c r="X3" s="42"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
       <c r="AA3" s="41"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
       <c r="AE3" s="50"/>
       <c r="AF3" s="50"/>
       <c r="AG3" s="50"/>
@@ -5295,8 +5336,10 @@
       <c r="BC3" s="50"/>
       <c r="BD3" s="50"/>
       <c r="BE3" s="50"/>
-    </row>
-    <row r="4" spans="2:57" s="43" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="BF3" s="50"/>
+      <c r="BG3" s="50"/>
+    </row>
+    <row r="4" spans="2:59" s="43" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
@@ -5312,20 +5355,20 @@
       <c r="N4" s="42"/>
       <c r="O4" s="42"/>
       <c r="P4" s="42"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
       <c r="U4" s="42"/>
       <c r="V4" s="42"/>
       <c r="W4" s="42"/>
       <c r="X4" s="42"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
       <c r="AA4" s="41"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="50"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
       <c r="AE4" s="50"/>
       <c r="AF4" s="50"/>
       <c r="AG4" s="50"/>
@@ -5353,8 +5396,10 @@
       <c r="BC4" s="50"/>
       <c r="BD4" s="50"/>
       <c r="BE4" s="50"/>
-    </row>
-    <row r="5" spans="2:57" s="43" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="BF4" s="50"/>
+      <c r="BG4" s="50"/>
+    </row>
+    <row r="5" spans="2:59" s="43" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
@@ -5370,20 +5415,20 @@
       <c r="N5" s="42"/>
       <c r="O5" s="42"/>
       <c r="P5" s="42"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
       <c r="U5" s="42"/>
       <c r="V5" s="42"/>
       <c r="W5" s="42"/>
       <c r="X5" s="42"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
       <c r="AA5" s="41"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="50"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
       <c r="AE5" s="50"/>
       <c r="AF5" s="50"/>
       <c r="AG5" s="50"/>
@@ -5411,8 +5456,10 @@
       <c r="BC5" s="50"/>
       <c r="BD5" s="50"/>
       <c r="BE5" s="50"/>
-    </row>
-    <row r="6" spans="2:57" s="43" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="50"/>
+    </row>
+    <row r="6" spans="2:59" s="43" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
@@ -5430,18 +5477,18 @@
       <c r="P6" s="60"/>
       <c r="Q6" s="60"/>
       <c r="R6" s="60"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
       <c r="U6" s="42"/>
       <c r="V6" s="42"/>
       <c r="W6" s="42"/>
       <c r="X6" s="42"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
       <c r="AA6" s="41"/>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="50"/>
-      <c r="AD6" s="50"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
       <c r="AE6" s="50"/>
       <c r="AF6" s="50"/>
       <c r="AG6" s="50"/>
@@ -5469,8 +5516,10 @@
       <c r="BC6" s="50"/>
       <c r="BD6" s="50"/>
       <c r="BE6" s="50"/>
-    </row>
-    <row r="7" spans="2:57" s="43" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="BF6" s="50"/>
+      <c r="BG6" s="50"/>
+    </row>
+    <row r="7" spans="2:59" s="43" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
@@ -5488,18 +5537,18 @@
       <c r="P7" s="61"/>
       <c r="Q7" s="61"/>
       <c r="R7" s="61"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
       <c r="U7" s="42"/>
       <c r="V7" s="42"/>
       <c r="W7" s="42"/>
       <c r="X7" s="42"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
       <c r="AA7" s="41"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
       <c r="AE7" s="50"/>
       <c r="AF7" s="50"/>
       <c r="AG7" s="50"/>
@@ -5527,8 +5576,10 @@
       <c r="BC7" s="50"/>
       <c r="BD7" s="50"/>
       <c r="BE7" s="50"/>
-    </row>
-    <row r="8" spans="2:57" s="43" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="BF7" s="50"/>
+      <c r="BG7" s="50"/>
+    </row>
+    <row r="8" spans="2:59" s="43" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
@@ -5544,20 +5595,20 @@
       <c r="N8" s="60"/>
       <c r="O8" s="61"/>
       <c r="P8" s="105"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="61"/>
       <c r="T8" s="60"/>
       <c r="U8" s="60"/>
       <c r="V8" s="60"/>
       <c r="W8" s="60"/>
       <c r="X8" s="60"/>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="111"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
       <c r="AA8" s="111"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
+      <c r="AB8" s="111"/>
+      <c r="AC8" s="111"/>
+      <c r="AD8" s="111"/>
       <c r="AE8" s="50"/>
       <c r="AF8" s="50"/>
       <c r="AG8" s="50"/>
@@ -5585,8 +5636,10 @@
       <c r="BC8" s="50"/>
       <c r="BD8" s="50"/>
       <c r="BE8" s="50"/>
-    </row>
-    <row r="9" spans="2:57" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="BF8" s="50"/>
+      <c r="BG8" s="50"/>
+    </row>
+    <row r="9" spans="2:59" s="1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -5602,9 +5655,9 @@
       <c r="N9" s="4"/>
       <c r="O9" s="62"/>
       <c r="P9" s="62"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="112"/>
       <c r="T9" s="44"/>
       <c r="U9" s="44"/>
       <c r="V9" s="44"/>
@@ -5613,9 +5666,9 @@
       <c r="Y9" s="44"/>
       <c r="Z9" s="44"/>
       <c r="AA9" s="44"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
       <c r="AE9" s="50"/>
       <c r="AF9" s="50"/>
       <c r="AG9" s="50"/>
@@ -5643,8 +5696,10 @@
       <c r="BC9" s="50"/>
       <c r="BD9" s="50"/>
       <c r="BE9" s="50"/>
-    </row>
-    <row r="10" spans="2:57" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="BF9" s="50"/>
+      <c r="BG9" s="50"/>
+    </row>
+    <row r="10" spans="2:59" s="1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="114"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -5660,9 +5715,9 @@
       <c r="N10" s="4"/>
       <c r="O10" s="62"/>
       <c r="P10" s="62"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="112"/>
       <c r="T10" s="44"/>
       <c r="U10" s="44"/>
       <c r="V10" s="44"/>
@@ -5671,9 +5726,9 @@
       <c r="Y10" s="44"/>
       <c r="Z10" s="44"/>
       <c r="AA10" s="44"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
       <c r="AE10" s="50"/>
       <c r="AF10" s="50"/>
       <c r="AG10" s="50"/>
@@ -5701,85 +5756,87 @@
       <c r="BC10" s="50"/>
       <c r="BD10" s="50"/>
       <c r="BE10" s="50"/>
-    </row>
-    <row r="11" spans="2:57" s="85" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="132" t="s">
+      <c r="BF10" s="50"/>
+      <c r="BG10" s="50"/>
+    </row>
+    <row r="11" spans="2:59" s="85" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="132" t="s">
+      <c r="D11" s="179" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="132" t="s">
+      <c r="E11" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="132" t="s">
+      <c r="F11" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="179" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="132" t="s">
+      <c r="I11" s="179" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="132" t="s">
+      <c r="J11" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="132" t="s">
+      <c r="K11" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="132" t="s">
+      <c r="L11" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="132" t="s">
+      <c r="M11" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="132" t="s">
+      <c r="N11" s="179" t="s">
         <v>72</v>
       </c>
       <c r="O11" s="129"/>
-      <c r="P11" s="132" t="s">
+      <c r="P11" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="Q11" s="132" t="s">
+      <c r="Q11" s="132"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="132" t="s">
+      <c r="T11" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="S11" s="132" t="s">
+      <c r="U11" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="T11" s="132" t="s">
+      <c r="V11" s="179" t="s">
         <v>73</v>
       </c>
-      <c r="U11" s="86"/>
-      <c r="V11" s="132" t="s">
+      <c r="W11" s="86"/>
+      <c r="X11" s="179" t="s">
         <v>74</v>
       </c>
-      <c r="W11" s="132" t="s">
+      <c r="Y11" s="179" t="s">
         <v>75</v>
       </c>
-      <c r="X11" s="132" t="s">
+      <c r="Z11" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="Y11" s="132" t="s">
+      <c r="AA11" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="Z11" s="133" t="s">
+      <c r="AB11" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="AA11" s="132" t="s">
+      <c r="AC11" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="AB11" s="132"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="84"/>
+      <c r="AD11" s="179"/>
       <c r="AF11" s="84"/>
       <c r="AG11" s="84"/>
       <c r="AH11" s="84"/>
@@ -5805,42 +5862,48 @@
       <c r="BB11" s="84"/>
       <c r="BC11" s="84"/>
       <c r="BD11" s="84"/>
-    </row>
-    <row r="12" spans="2:57" s="87" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
+      <c r="BE11" s="84"/>
+      <c r="BF11" s="84"/>
+    </row>
+    <row r="12" spans="2:59" s="87" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="179"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="179"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="179"/>
+      <c r="N12" s="179"/>
       <c r="O12" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="132" t="s">
+      <c r="P12" s="179" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="132"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="132"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="132"/>
-      <c r="W12" s="132"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="132"/>
-      <c r="Z12" s="133"/>
-      <c r="AA12" s="132"/>
-      <c r="AB12" s="132"/>
-      <c r="AC12" s="88"/>
-      <c r="AD12" s="89"/>
-      <c r="AE12" s="89"/>
+      <c r="Q12" s="132" t="s">
+        <v>66</v>
+      </c>
+      <c r="R12" s="132" t="s">
+        <v>115</v>
+      </c>
+      <c r="S12" s="179"/>
+      <c r="T12" s="179"/>
+      <c r="U12" s="179"/>
+      <c r="V12" s="179"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="179"/>
+      <c r="Y12" s="179"/>
+      <c r="Z12" s="179"/>
+      <c r="AA12" s="179"/>
+      <c r="AB12" s="180"/>
+      <c r="AC12" s="179"/>
+      <c r="AD12" s="179"/>
+      <c r="AE12" s="88"/>
       <c r="AF12" s="89"/>
       <c r="AG12" s="89"/>
       <c r="AH12" s="89"/>
@@ -5866,34 +5929,36 @@
       <c r="BB12" s="89"/>
       <c r="BC12" s="89"/>
       <c r="BD12" s="89"/>
+      <c r="BE12" s="89"/>
+      <c r="BF12" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AC11:AC12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="M11:M12"/>
-    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="V11:V12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="N11:N12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="P11:P12"/>
     <mergeCell ref="S11:S12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5902,10 +5967,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KA47"/>
+  <dimension ref="A1:KB47"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1:AX1048576"/>
+    <sheetView topLeftCell="AM1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AQ8" sqref="AQ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5940,23 +6005,23 @@
     <col min="35" max="37" width="14.140625" customWidth="1"/>
     <col min="38" max="38" width="15.85546875" customWidth="1"/>
     <col min="39" max="39" width="12" customWidth="1"/>
-    <col min="40" max="40" width="13.42578125" customWidth="1"/>
-    <col min="41" max="46" width="14.28515625" customWidth="1"/>
-    <col min="47" max="47" width="12.28515625" customWidth="1"/>
-    <col min="48" max="50" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="51" max="55" width="11.42578125" style="10" customWidth="1"/>
-    <col min="56" max="56" width="16.85546875" customWidth="1"/>
+    <col min="40" max="41" width="13.42578125" customWidth="1"/>
+    <col min="42" max="47" width="14.28515625" customWidth="1"/>
+    <col min="48" max="48" width="12.28515625" customWidth="1"/>
+    <col min="49" max="51" width="0" style="10" hidden="1" customWidth="1"/>
+    <col min="52" max="56" width="11.42578125" style="10" customWidth="1"/>
+    <col min="57" max="57" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:287" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:288" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
       <c r="G1" s="65"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -5997,9 +6062,10 @@
       <c r="AR1" s="24"/>
       <c r="AS1" s="24"/>
       <c r="AT1" s="24"/>
-      <c r="BC1"/>
-    </row>
-    <row r="2" spans="1:287" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU1" s="24"/>
+      <c r="BD1"/>
+    </row>
+    <row r="2" spans="1:288" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="51" t="s">
         <v>23</v>
@@ -6048,17 +6114,18 @@
       <c r="AR2" s="24"/>
       <c r="AS2" s="24"/>
       <c r="AT2" s="24"/>
-      <c r="BC2"/>
-    </row>
-    <row r="3" spans="1:287" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AU2" s="24"/>
+      <c r="BD2"/>
+    </row>
+    <row r="3" spans="1:288" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
       <c r="G3" s="67"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -6099,23 +6166,24 @@
       <c r="AR3" s="24"/>
       <c r="AS3" s="24"/>
       <c r="AT3" s="24"/>
-      <c r="AV3" s="110"/>
+      <c r="AU3" s="24"/>
       <c r="AW3" s="110"/>
       <c r="AX3" s="110"/>
       <c r="AY3" s="110"/>
       <c r="AZ3" s="110"/>
       <c r="BA3" s="110"/>
       <c r="BB3" s="110"/>
-    </row>
-    <row r="4" spans="1:287" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="BC3" s="110"/>
+    </row>
+    <row r="4" spans="1:288" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
       <c r="G4" s="67"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -6156,8 +6224,9 @@
       <c r="AR4" s="24"/>
       <c r="AS4" s="24"/>
       <c r="AT4" s="24"/>
-    </row>
-    <row r="5" spans="1:287" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AU4" s="24"/>
+    </row>
+    <row r="5" spans="1:288" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="29" t="s">
         <v>21</v>
@@ -6206,8 +6275,9 @@
       <c r="AR5" s="24"/>
       <c r="AS5" s="24"/>
       <c r="AT5" s="24"/>
-    </row>
-    <row r="6" spans="1:287" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AU5" s="24"/>
+    </row>
+    <row r="6" spans="1:288" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="29" t="s">
         <v>22</v>
@@ -6256,8 +6326,8 @@
       <c r="AR6" s="24"/>
       <c r="AS6" s="24"/>
       <c r="AT6" s="24"/>
-      <c r="AU6"/>
-      <c r="BC6"/>
+      <c r="AU6" s="24"/>
+      <c r="AV6"/>
       <c r="BD6"/>
       <c r="BE6"/>
       <c r="BF6"/>
@@ -6316,8 +6386,9 @@
       <c r="DG6"/>
       <c r="DH6"/>
       <c r="DI6"/>
-    </row>
-    <row r="7" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="DJ6"/>
+    </row>
+    <row r="7" spans="1:288" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="68"/>
@@ -6345,7 +6416,6 @@
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="18"/>
-      <c r="AU7" s="110"/>
       <c r="AV7" s="110"/>
       <c r="AW7" s="110"/>
       <c r="AX7" s="110"/>
@@ -6412,8 +6482,9 @@
       <c r="DG7" s="110"/>
       <c r="DH7" s="110"/>
       <c r="DI7" s="110"/>
-    </row>
-    <row r="8" spans="1:287" s="45" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="DJ7" s="110"/>
+    </row>
+    <row r="8" spans="1:288" s="45" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>16</v>
       </c>
@@ -6534,37 +6605,39 @@
       <c r="AN8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AO8" s="127" t="s">
+      <c r="AO8" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP8" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="AP8" s="130" t="s">
+      <c r="AQ8" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="AQ8" s="130" t="s">
+      <c r="AR8" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="AR8" s="130" t="s">
+      <c r="AS8" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="AS8" s="130" t="s">
+      <c r="AT8" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="AT8" s="131" t="s">
+      <c r="AU8" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="AU8" s="130" t="s">
+      <c r="AV8" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="AV8" s="128" t="s">
+      <c r="AW8" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="AW8" s="128" t="s">
+      <c r="AX8" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="AX8" s="128" t="s">
+      <c r="AY8" s="128" t="s">
         <v>101</v>
       </c>
-      <c r="AY8" s="10"/>
       <c r="AZ8" s="10"/>
       <c r="BA8" s="10"/>
       <c r="BB8" s="10"/>
@@ -6627,7 +6700,7 @@
       <c r="DG8" s="10"/>
       <c r="DH8" s="10"/>
       <c r="DI8" s="10"/>
-      <c r="DJ8" s="126"/>
+      <c r="DJ8" s="10"/>
       <c r="DK8" s="126"/>
       <c r="DL8" s="126"/>
       <c r="DM8" s="126"/>
@@ -6638,8 +6711,8 @@
       <c r="DR8" s="126"/>
       <c r="DS8" s="126"/>
       <c r="DT8" s="126"/>
-      <c r="DU8" s="125"/>
-      <c r="DV8" s="124"/>
+      <c r="DU8" s="126"/>
+      <c r="DV8" s="125"/>
       <c r="DW8" s="124"/>
       <c r="DX8" s="124"/>
       <c r="DY8" s="124"/>
@@ -6801,8 +6874,9 @@
       <c r="JY8" s="124"/>
       <c r="JZ8" s="124"/>
       <c r="KA8" s="124"/>
-    </row>
-    <row r="9" spans="1:287" s="79" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="KB8" s="124"/>
+    </row>
+    <row r="9" spans="1:288" s="79" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49"/>
       <c r="B9" s="5"/>
       <c r="C9" s="74"/>
@@ -6833,15 +6907,15 @@
       <c r="AI9" s="83"/>
       <c r="AJ9" s="83"/>
       <c r="AK9" s="83"/>
-      <c r="AO9" s="83"/>
       <c r="AP9" s="83"/>
       <c r="AQ9" s="83"/>
       <c r="AR9" s="83"/>
       <c r="AS9" s="83"/>
       <c r="AT9" s="83"/>
       <c r="AU9" s="83"/>
-    </row>
-    <row r="10" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV9" s="83"/>
+    </row>
+    <row r="10" spans="1:288" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="115"/>
       <c r="B10" s="116"/>
       <c r="C10" s="117"/>
@@ -6883,17 +6957,18 @@
       <c r="AM10" s="119"/>
       <c r="AN10" s="119"/>
       <c r="AO10" s="119"/>
-      <c r="AP10" s="48"/>
+      <c r="AP10" s="119"/>
       <c r="AQ10" s="48"/>
       <c r="AR10" s="48"/>
       <c r="AS10" s="48"/>
       <c r="AT10" s="48"/>
-      <c r="AU10" s="54"/>
-      <c r="AV10" s="79"/>
+      <c r="AU10" s="48"/>
+      <c r="AV10" s="54"/>
       <c r="AW10" s="79"/>
       <c r="AX10" s="79"/>
-    </row>
-    <row r="11" spans="1:287" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AY10" s="79"/>
+    </row>
+    <row r="11" spans="1:288" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="5"/>
       <c r="C11" s="74"/>
@@ -6928,15 +7003,16 @@
       <c r="AL11" s="102"/>
       <c r="AM11" s="102"/>
       <c r="AN11" s="102"/>
-      <c r="AO11" s="103"/>
+      <c r="AO11" s="102"/>
       <c r="AP11" s="103"/>
       <c r="AQ11" s="103"/>
       <c r="AR11" s="103"/>
       <c r="AS11" s="103"/>
       <c r="AT11" s="103"/>
-      <c r="AU11" s="83"/>
-    </row>
-    <row r="12" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU11" s="103"/>
+      <c r="AV11" s="83"/>
+    </row>
+    <row r="12" spans="1:288" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46"/>
       <c r="B12" s="38"/>
       <c r="C12" s="69"/>
@@ -6983,12 +7059,13 @@
       <c r="AR12" s="48"/>
       <c r="AS12" s="48"/>
       <c r="AT12" s="48"/>
-      <c r="AU12" s="54"/>
-      <c r="AV12" s="79"/>
+      <c r="AU12" s="48"/>
+      <c r="AV12" s="54"/>
       <c r="AW12" s="79"/>
       <c r="AX12" s="79"/>
-    </row>
-    <row r="13" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AY12" s="79"/>
+    </row>
+    <row r="13" spans="1:288" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="46"/>
       <c r="B13" s="38"/>
       <c r="C13" s="69"/>
@@ -7035,11 +7112,12 @@
       <c r="AR13" s="48"/>
       <c r="AS13" s="48"/>
       <c r="AT13" s="48"/>
-      <c r="AV13" s="79"/>
+      <c r="AU13" s="48"/>
       <c r="AW13" s="79"/>
       <c r="AX13" s="79"/>
-    </row>
-    <row r="14" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AY13" s="79"/>
+    </row>
+    <row r="14" spans="1:288" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="46"/>
       <c r="B14" s="38"/>
       <c r="C14" s="69"/>
@@ -7086,11 +7164,12 @@
       <c r="AR14" s="48"/>
       <c r="AS14" s="48"/>
       <c r="AT14" s="48"/>
-      <c r="AV14" s="79"/>
+      <c r="AU14" s="48"/>
       <c r="AW14" s="79"/>
       <c r="AX14" s="79"/>
-    </row>
-    <row r="15" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AY14" s="79"/>
+    </row>
+    <row r="15" spans="1:288" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="46"/>
       <c r="B15" s="38"/>
       <c r="C15" s="69"/>
@@ -7137,11 +7216,12 @@
       <c r="AR15" s="48"/>
       <c r="AS15" s="48"/>
       <c r="AT15" s="48"/>
-      <c r="AV15" s="79"/>
+      <c r="AU15" s="48"/>
       <c r="AW15" s="79"/>
       <c r="AX15" s="79"/>
-    </row>
-    <row r="16" spans="1:287" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AY15" s="79"/>
+    </row>
+    <row r="16" spans="1:288" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="46"/>
       <c r="B16" s="38"/>
       <c r="C16" s="69"/>
@@ -7188,11 +7268,12 @@
       <c r="AR16" s="48"/>
       <c r="AS16" s="48"/>
       <c r="AT16" s="48"/>
-      <c r="AV16" s="79"/>
+      <c r="AU16" s="48"/>
       <c r="AW16" s="79"/>
       <c r="AX16" s="79"/>
-    </row>
-    <row r="17" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AY16" s="79"/>
+    </row>
+    <row r="17" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="46"/>
       <c r="B17" s="38"/>
       <c r="C17" s="69"/>
@@ -7239,11 +7320,12 @@
       <c r="AR17" s="48"/>
       <c r="AS17" s="48"/>
       <c r="AT17" s="48"/>
-      <c r="AV17" s="79"/>
+      <c r="AU17" s="48"/>
       <c r="AW17" s="79"/>
       <c r="AX17" s="79"/>
-    </row>
-    <row r="18" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AY17" s="79"/>
+    </row>
+    <row r="18" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="46"/>
       <c r="B18" s="38"/>
       <c r="C18" s="69"/>
@@ -7290,11 +7372,12 @@
       <c r="AR18" s="48"/>
       <c r="AS18" s="48"/>
       <c r="AT18" s="48"/>
-      <c r="AV18" s="79"/>
+      <c r="AU18" s="48"/>
       <c r="AW18" s="79"/>
       <c r="AX18" s="79"/>
-    </row>
-    <row r="19" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AY18" s="79"/>
+    </row>
+    <row r="19" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
       <c r="B19" s="38"/>
       <c r="C19" s="69"/>
@@ -7341,11 +7424,12 @@
       <c r="AR19" s="48"/>
       <c r="AS19" s="48"/>
       <c r="AT19" s="48"/>
-      <c r="AV19" s="79"/>
+      <c r="AU19" s="48"/>
       <c r="AW19" s="79"/>
       <c r="AX19" s="79"/>
-    </row>
-    <row r="20" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AY19" s="79"/>
+    </row>
+    <row r="20" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="25"/>
       <c r="C20" s="69"/>
@@ -7392,8 +7476,9 @@
       <c r="AR20" s="48"/>
       <c r="AS20" s="48"/>
       <c r="AT20" s="48"/>
-    </row>
-    <row r="21" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU20" s="48"/>
+    </row>
+    <row r="21" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="25"/>
       <c r="C21" s="69"/>
@@ -7440,8 +7525,9 @@
       <c r="AR21" s="48"/>
       <c r="AS21" s="48"/>
       <c r="AT21" s="48"/>
-    </row>
-    <row r="22" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU21" s="48"/>
+    </row>
+    <row r="22" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="25"/>
       <c r="C22" s="69"/>
@@ -7488,8 +7574,9 @@
       <c r="AR22" s="48"/>
       <c r="AS22" s="48"/>
       <c r="AT22" s="48"/>
-    </row>
-    <row r="23" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU22" s="48"/>
+    </row>
+    <row r="23" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="30"/>
       <c r="C23" s="67"/>
@@ -7536,8 +7623,9 @@
       <c r="AR23" s="48"/>
       <c r="AS23" s="48"/>
       <c r="AT23" s="48"/>
-    </row>
-    <row r="24" spans="1:50" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AU23" s="48"/>
+    </row>
+    <row r="24" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="70"/>
@@ -7584,8 +7672,9 @@
       <c r="AR24" s="48"/>
       <c r="AS24" s="48"/>
       <c r="AT24" s="48"/>
-    </row>
-    <row r="25" spans="1:50" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AU24" s="48"/>
+    </row>
+    <row r="25" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71"/>
@@ -7632,8 +7721,9 @@
       <c r="AR25" s="19"/>
       <c r="AS25" s="19"/>
       <c r="AT25" s="19"/>
-    </row>
-    <row r="26" spans="1:50" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AU25" s="19"/>
+    </row>
+    <row r="26" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="24"/>
       <c r="C26" s="65"/>
@@ -7680,8 +7770,9 @@
       <c r="AR26" s="24"/>
       <c r="AS26" s="24"/>
       <c r="AT26" s="24"/>
-    </row>
-    <row r="27" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU26" s="24"/>
+    </row>
+    <row r="27" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="25"/>
       <c r="C27" s="69"/>
@@ -7722,14 +7813,15 @@
       <c r="AL27" s="32"/>
       <c r="AM27" s="40"/>
       <c r="AN27" s="40"/>
-      <c r="AO27" s="32"/>
-      <c r="AP27" s="40"/>
+      <c r="AO27" s="40"/>
+      <c r="AP27" s="32"/>
       <c r="AQ27" s="40"/>
       <c r="AR27" s="40"/>
       <c r="AS27" s="40"/>
       <c r="AT27" s="40"/>
-    </row>
-    <row r="28" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU27" s="40"/>
+    </row>
+    <row r="28" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="25"/>
       <c r="C28" s="69"/>
@@ -7770,14 +7862,15 @@
       <c r="AL28" s="32"/>
       <c r="AM28" s="40"/>
       <c r="AN28" s="40"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="40"/>
+      <c r="AO28" s="40"/>
+      <c r="AP28" s="32"/>
       <c r="AQ28" s="40"/>
       <c r="AR28" s="40"/>
       <c r="AS28" s="40"/>
       <c r="AT28" s="40"/>
-    </row>
-    <row r="29" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU28" s="40"/>
+    </row>
+    <row r="29" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="30"/>
       <c r="C29" s="67"/>
@@ -7824,8 +7917,9 @@
       <c r="AR29" s="30"/>
       <c r="AS29" s="30"/>
       <c r="AT29" s="30"/>
-    </row>
-    <row r="30" spans="1:50" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AU29" s="30"/>
+    </row>
+    <row r="30" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="70"/>
@@ -7872,8 +7966,9 @@
       <c r="AR30" s="36"/>
       <c r="AS30" s="36"/>
       <c r="AT30" s="36"/>
-    </row>
-    <row r="31" spans="1:50" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AU30" s="36"/>
+    </row>
+    <row r="31" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="72"/>
@@ -7920,8 +8015,9 @@
       <c r="AR31" s="22"/>
       <c r="AS31" s="22"/>
       <c r="AT31" s="22"/>
-    </row>
-    <row r="32" spans="1:50" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AU31" s="22"/>
+    </row>
+    <row r="32" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="24"/>
       <c r="C32" s="65"/>
@@ -7968,8 +8064,9 @@
       <c r="AR32" s="24"/>
       <c r="AS32" s="24"/>
       <c r="AT32" s="24"/>
-    </row>
-    <row r="33" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU32" s="24"/>
+    </row>
+    <row r="33" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="25"/>
       <c r="C33" s="69"/>
@@ -8010,14 +8107,15 @@
       <c r="AL33" s="32"/>
       <c r="AM33" s="40"/>
       <c r="AN33" s="40"/>
-      <c r="AO33" s="32"/>
-      <c r="AP33" s="40"/>
+      <c r="AO33" s="40"/>
+      <c r="AP33" s="32"/>
       <c r="AQ33" s="40"/>
       <c r="AR33" s="40"/>
       <c r="AS33" s="40"/>
       <c r="AT33" s="40"/>
-    </row>
-    <row r="34" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU33" s="40"/>
+    </row>
+    <row r="34" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
       <c r="B34" s="25"/>
       <c r="C34" s="69"/>
@@ -8058,14 +8156,15 @@
       <c r="AL34" s="32"/>
       <c r="AM34" s="40"/>
       <c r="AN34" s="40"/>
-      <c r="AO34" s="32"/>
-      <c r="AP34" s="40"/>
+      <c r="AO34" s="40"/>
+      <c r="AP34" s="32"/>
       <c r="AQ34" s="40"/>
       <c r="AR34" s="40"/>
       <c r="AS34" s="40"/>
       <c r="AT34" s="40"/>
-    </row>
-    <row r="35" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU34" s="40"/>
+    </row>
+    <row r="35" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="30"/>
       <c r="C35" s="67"/>
@@ -8112,8 +8211,9 @@
       <c r="AR35" s="30"/>
       <c r="AS35" s="30"/>
       <c r="AT35" s="30"/>
-    </row>
-    <row r="36" spans="1:46" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AU35" s="30"/>
+    </row>
+    <row r="36" spans="1:47" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="70"/>
@@ -8160,8 +8260,9 @@
       <c r="AR36" s="36"/>
       <c r="AS36" s="36"/>
       <c r="AT36" s="36"/>
-    </row>
-    <row r="37" spans="1:46" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AU36" s="36"/>
+    </row>
+    <row r="37" spans="1:47" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="72"/>
@@ -8208,8 +8309,9 @@
       <c r="AR37" s="22"/>
       <c r="AS37" s="22"/>
       <c r="AT37" s="22"/>
-    </row>
-    <row r="38" spans="1:46" ht="15" x14ac:dyDescent="0.25">
+      <c r="AU37" s="22"/>
+    </row>
+    <row r="38" spans="1:47" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="24"/>
       <c r="C38" s="65"/>
@@ -8256,8 +8358,9 @@
       <c r="AR38" s="24"/>
       <c r="AS38" s="24"/>
       <c r="AT38" s="24"/>
-    </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU38" s="24"/>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
       <c r="B39" s="25"/>
       <c r="C39" s="69"/>
@@ -8298,14 +8401,15 @@
       <c r="AL39" s="32"/>
       <c r="AM39" s="40"/>
       <c r="AN39" s="40"/>
-      <c r="AO39" s="32"/>
-      <c r="AP39" s="40"/>
+      <c r="AO39" s="40"/>
+      <c r="AP39" s="32"/>
       <c r="AQ39" s="40"/>
       <c r="AR39" s="40"/>
       <c r="AS39" s="40"/>
       <c r="AT39" s="40"/>
-    </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU39" s="40"/>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
       <c r="B40" s="25"/>
       <c r="C40" s="69"/>
@@ -8346,14 +8450,15 @@
       <c r="AL40" s="32"/>
       <c r="AM40" s="40"/>
       <c r="AN40" s="40"/>
-      <c r="AO40" s="32"/>
-      <c r="AP40" s="40"/>
+      <c r="AO40" s="40"/>
+      <c r="AP40" s="32"/>
       <c r="AQ40" s="40"/>
       <c r="AR40" s="40"/>
       <c r="AS40" s="40"/>
       <c r="AT40" s="40"/>
-    </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU40" s="40"/>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A41" s="35"/>
       <c r="B41" s="30"/>
       <c r="C41" s="67"/>
@@ -8400,8 +8505,9 @@
       <c r="AR41" s="30"/>
       <c r="AS41" s="30"/>
       <c r="AT41" s="30"/>
-    </row>
-    <row r="42" spans="1:46" ht="15" x14ac:dyDescent="0.25">
+      <c r="AU41" s="30"/>
+    </row>
+    <row r="42" spans="1:47" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
       <c r="C42" s="70"/>
@@ -8448,8 +8554,9 @@
       <c r="AR42" s="36"/>
       <c r="AS42" s="36"/>
       <c r="AT42" s="36"/>
-    </row>
-    <row r="43" spans="1:46" ht="15" x14ac:dyDescent="0.25">
+      <c r="AU42" s="36"/>
+    </row>
+    <row r="43" spans="1:47" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="72"/>
@@ -8496,8 +8603,9 @@
       <c r="AR43" s="22"/>
       <c r="AS43" s="22"/>
       <c r="AT43" s="22"/>
-    </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU43" s="22"/>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A44" s="34"/>
       <c r="B44" s="30"/>
       <c r="C44" s="67"/>
@@ -8544,8 +8652,9 @@
       <c r="AR44" s="30"/>
       <c r="AS44" s="30"/>
       <c r="AT44" s="30"/>
-    </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU44" s="30"/>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A45" s="35"/>
       <c r="B45" s="25"/>
       <c r="C45" s="70"/>
@@ -8592,8 +8701,9 @@
       <c r="AR45" s="36"/>
       <c r="AS45" s="36"/>
       <c r="AT45" s="36"/>
-    </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU45" s="36"/>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.2">
       <c r="X47" s="8"/>
       <c r="AE47" s="8"/>
       <c r="AF47" s="8"/>
@@ -8612,10 +8722,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CP59"/>
+  <dimension ref="A1:CQ59"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1"/>
+    <sheetView topLeftCell="Y1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AN12" sqref="AN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8650,20 +8760,21 @@
     <col min="36" max="37" width="14.140625" customWidth="1"/>
     <col min="38" max="39" width="11.42578125" customWidth="1"/>
     <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.42578125" style="10"/>
-    <col min="42" max="44" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="45" max="51" width="11.42578125" style="10"/>
+    <col min="41" max="41" width="13.42578125" customWidth="1"/>
+    <col min="42" max="42" width="11.42578125" style="10"/>
+    <col min="43" max="45" width="0" style="10" hidden="1" customWidth="1"/>
+    <col min="46" max="52" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:95" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -8698,8 +8809,9 @@
       <c r="AL1" s="24"/>
       <c r="AM1" s="24"/>
       <c r="AN1" s="24"/>
-    </row>
-    <row r="2" spans="1:94" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO1" s="24"/>
+    </row>
+    <row r="2" spans="1:95" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="51" t="s">
         <v>23</v>
@@ -8742,16 +8854,17 @@
       <c r="AL2" s="24"/>
       <c r="AM2" s="24"/>
       <c r="AN2" s="24"/>
-    </row>
-    <row r="3" spans="1:94" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO2" s="24"/>
+    </row>
+    <row r="3" spans="1:95" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
       <c r="G3" s="30"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -8786,7 +8899,7 @@
       <c r="AL3" s="24"/>
       <c r="AM3" s="24"/>
       <c r="AN3" s="24"/>
-      <c r="AO3" s="110"/>
+      <c r="AO3" s="24"/>
       <c r="AP3" s="110"/>
       <c r="AQ3" s="110"/>
       <c r="AR3" s="110"/>
@@ -8797,16 +8910,17 @@
       <c r="AW3" s="110"/>
       <c r="AX3" s="110"/>
       <c r="AY3" s="110"/>
-    </row>
-    <row r="4" spans="1:94" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AZ3" s="110"/>
+    </row>
+    <row r="4" spans="1:95" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
       <c r="G4" s="67"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -8841,8 +8955,9 @@
       <c r="AL4" s="24"/>
       <c r="AM4" s="24"/>
       <c r="AN4" s="24"/>
-    </row>
-    <row r="5" spans="1:94" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO4" s="24"/>
+    </row>
+    <row r="5" spans="1:95" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="29" t="s">
         <v>21</v>
@@ -8885,8 +9000,9 @@
       <c r="AL5" s="24"/>
       <c r="AM5" s="24"/>
       <c r="AN5" s="24"/>
-    </row>
-    <row r="6" spans="1:94" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO5" s="24"/>
+    </row>
+    <row r="6" spans="1:95" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="29" t="s">
         <v>22</v>
@@ -8929,7 +9045,7 @@
       <c r="AL6" s="24"/>
       <c r="AM6" s="24"/>
       <c r="AN6" s="24"/>
-      <c r="AZ6"/>
+      <c r="AO6" s="24"/>
       <c r="BA6"/>
       <c r="BB6"/>
       <c r="BC6"/>
@@ -8972,8 +9088,9 @@
       <c r="CN6"/>
       <c r="CO6"/>
       <c r="CP6"/>
-    </row>
-    <row r="7" spans="1:94" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CQ6"/>
+    </row>
+    <row r="7" spans="1:95" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -9001,7 +9118,6 @@
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="18"/>
-      <c r="AO7" s="110"/>
       <c r="AP7" s="110"/>
       <c r="AQ7" s="110"/>
       <c r="AR7" s="110"/>
@@ -9012,7 +9128,7 @@
       <c r="AW7" s="110"/>
       <c r="AX7" s="110"/>
       <c r="AY7" s="110"/>
-      <c r="AZ7" s="9"/>
+      <c r="AZ7" s="110"/>
       <c r="BA7" s="9"/>
       <c r="BB7" s="9"/>
       <c r="BC7" s="9"/>
@@ -9055,8 +9171,9 @@
       <c r="CN7" s="9"/>
       <c r="CO7" s="9"/>
       <c r="CP7" s="9"/>
-    </row>
-    <row r="8" spans="1:94" s="45" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="CQ7" s="9"/>
+    </row>
+    <row r="8" spans="1:95" s="45" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>16</v>
       </c>
@@ -9177,19 +9294,21 @@
       <c r="AN8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AO8" s="127" t="s">
+      <c r="AO8" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP8" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="AP8" s="128" t="s">
+      <c r="AQ8" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="AQ8" s="128" t="s">
+      <c r="AR8" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="AR8" s="128" t="s">
+      <c r="AS8" s="128" t="s">
         <v>101</v>
       </c>
-      <c r="AS8" s="10"/>
       <c r="AT8" s="10"/>
       <c r="AU8" s="10"/>
       <c r="AV8" s="10"/>
@@ -9239,8 +9358,9 @@
       <c r="CN8" s="10"/>
       <c r="CO8" s="10"/>
       <c r="CP8" s="10"/>
-    </row>
-    <row r="9" spans="1:94" s="79" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="CQ8" s="10"/>
+    </row>
+    <row r="9" spans="1:95" s="79" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49"/>
       <c r="B9" s="5"/>
       <c r="C9" s="63"/>
@@ -9278,7 +9398,7 @@
       <c r="AM9" s="102"/>
       <c r="AN9" s="103"/>
     </row>
-    <row r="10" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:95" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="49"/>
       <c r="B10" s="5"/>
       <c r="C10" s="63"/>
@@ -9315,8 +9435,9 @@
       <c r="AL10" s="102"/>
       <c r="AM10" s="102"/>
       <c r="AN10" s="103"/>
-    </row>
-    <row r="11" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO10" s="119"/>
+    </row>
+    <row r="11" spans="1:95" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="5"/>
       <c r="C11" s="63"/>
@@ -9353,8 +9474,9 @@
       <c r="AL11" s="102"/>
       <c r="AM11" s="102"/>
       <c r="AN11" s="103"/>
-    </row>
-    <row r="12" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO11" s="102"/>
+    </row>
+    <row r="12" spans="1:95" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
       <c r="B12" s="5"/>
       <c r="C12" s="63"/>
@@ -9391,8 +9513,9 @@
       <c r="AL12" s="102"/>
       <c r="AM12" s="102"/>
       <c r="AN12" s="103"/>
-    </row>
-    <row r="13" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO12" s="48"/>
+    </row>
+    <row r="13" spans="1:95" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
       <c r="B13" s="5"/>
       <c r="C13" s="63"/>
@@ -9429,8 +9552,9 @@
       <c r="AL13" s="102"/>
       <c r="AM13" s="102"/>
       <c r="AN13" s="103"/>
-    </row>
-    <row r="14" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO13" s="48"/>
+    </row>
+    <row r="14" spans="1:95" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
       <c r="B14" s="5"/>
       <c r="C14" s="63"/>
@@ -9467,8 +9591,9 @@
       <c r="AL14" s="102"/>
       <c r="AM14" s="102"/>
       <c r="AN14" s="103"/>
-    </row>
-    <row r="15" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO14" s="48"/>
+    </row>
+    <row r="15" spans="1:95" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="B15" s="5"/>
       <c r="C15" s="63"/>
@@ -9505,8 +9630,9 @@
       <c r="AL15" s="102"/>
       <c r="AM15" s="102"/>
       <c r="AN15" s="103"/>
-    </row>
-    <row r="16" spans="1:94" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO15" s="48"/>
+    </row>
+    <row r="16" spans="1:95" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="B16" s="5"/>
       <c r="C16" s="63"/>
@@ -9543,8 +9669,9 @@
       <c r="AL16" s="102"/>
       <c r="AM16" s="102"/>
       <c r="AN16" s="103"/>
-    </row>
-    <row r="17" spans="1:40" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO16" s="48"/>
+    </row>
+    <row r="17" spans="1:41" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
       <c r="B17" s="5"/>
       <c r="C17" s="63"/>
@@ -9581,8 +9708,9 @@
       <c r="AL17" s="102"/>
       <c r="AM17" s="102"/>
       <c r="AN17" s="103"/>
-    </row>
-    <row r="18" spans="1:40" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO17" s="48"/>
+    </row>
+    <row r="18" spans="1:41" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="B18" s="5"/>
       <c r="C18" s="63"/>
@@ -9618,8 +9746,9 @@
       <c r="AL18" s="102"/>
       <c r="AM18" s="102"/>
       <c r="AN18" s="103"/>
-    </row>
-    <row r="19" spans="1:40" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO18" s="48"/>
+    </row>
+    <row r="19" spans="1:41" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="5"/>
       <c r="C19" s="63"/>
@@ -9654,8 +9783,9 @@
       <c r="AL19" s="102"/>
       <c r="AM19" s="102"/>
       <c r="AN19" s="103"/>
-    </row>
-    <row r="20" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO19" s="48"/>
+    </row>
+    <row r="20" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="46"/>
       <c r="B20" s="38"/>
       <c r="C20" s="40"/>
@@ -9696,8 +9826,9 @@
       <c r="AL20" s="54"/>
       <c r="AM20" s="54"/>
       <c r="AN20" s="54"/>
-    </row>
-    <row r="21" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO20" s="48"/>
+    </row>
+    <row r="21" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="46"/>
       <c r="B21" s="38"/>
       <c r="C21" s="40"/>
@@ -9738,8 +9869,9 @@
       <c r="AL21" s="48"/>
       <c r="AM21" s="48"/>
       <c r="AN21" s="48"/>
-    </row>
-    <row r="22" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO21" s="48"/>
+    </row>
+    <row r="22" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="46"/>
       <c r="B22" s="38"/>
       <c r="C22" s="40"/>
@@ -9780,8 +9912,9 @@
       <c r="AL22" s="48"/>
       <c r="AM22" s="48"/>
       <c r="AN22" s="48"/>
-    </row>
-    <row r="23" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO22" s="48"/>
+    </row>
+    <row r="23" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="46"/>
       <c r="B23" s="38"/>
       <c r="C23" s="40"/>
@@ -9822,8 +9955,9 @@
       <c r="AL23" s="48"/>
       <c r="AM23" s="48"/>
       <c r="AN23" s="48"/>
-    </row>
-    <row r="24" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO23" s="48"/>
+    </row>
+    <row r="24" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="46"/>
       <c r="B24" s="38"/>
       <c r="C24" s="40"/>
@@ -9864,8 +9998,9 @@
       <c r="AL24" s="48"/>
       <c r="AM24" s="48"/>
       <c r="AN24" s="48"/>
-    </row>
-    <row r="25" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO24" s="48"/>
+    </row>
+    <row r="25" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" s="38"/>
       <c r="C25" s="40"/>
@@ -9906,8 +10041,9 @@
       <c r="AL25" s="48"/>
       <c r="AM25" s="48"/>
       <c r="AN25" s="48"/>
-    </row>
-    <row r="26" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO25" s="19"/>
+    </row>
+    <row r="26" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" s="38"/>
       <c r="C26" s="40"/>
@@ -9948,8 +10084,9 @@
       <c r="AL26" s="48"/>
       <c r="AM26" s="48"/>
       <c r="AN26" s="48"/>
-    </row>
-    <row r="27" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO26" s="24"/>
+    </row>
+    <row r="27" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="46"/>
       <c r="B27" s="38"/>
       <c r="C27" s="40"/>
@@ -9990,8 +10127,9 @@
       <c r="AL27" s="48"/>
       <c r="AM27" s="48"/>
       <c r="AN27" s="48"/>
-    </row>
-    <row r="28" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO27" s="40"/>
+    </row>
+    <row r="28" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="46"/>
       <c r="B28" s="38"/>
       <c r="C28" s="40"/>
@@ -10032,8 +10170,9 @@
       <c r="AL28" s="48"/>
       <c r="AM28" s="48"/>
       <c r="AN28" s="48"/>
-    </row>
-    <row r="29" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO28" s="40"/>
+    </row>
+    <row r="29" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="46"/>
       <c r="B29" s="38"/>
       <c r="C29" s="40"/>
@@ -10074,8 +10213,9 @@
       <c r="AL29" s="48"/>
       <c r="AM29" s="48"/>
       <c r="AN29" s="48"/>
-    </row>
-    <row r="30" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO29" s="30"/>
+    </row>
+    <row r="30" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="46"/>
       <c r="B30" s="38"/>
       <c r="C30" s="40"/>
@@ -10116,8 +10256,9 @@
       <c r="AL30" s="48"/>
       <c r="AM30" s="48"/>
       <c r="AN30" s="48"/>
-    </row>
-    <row r="31" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO30" s="36"/>
+    </row>
+    <row r="31" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="38"/>
       <c r="C31" s="40"/>
@@ -10158,8 +10299,9 @@
       <c r="AL31" s="48"/>
       <c r="AM31" s="48"/>
       <c r="AN31" s="48"/>
-    </row>
-    <row r="32" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO31" s="22"/>
+    </row>
+    <row r="32" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" s="38"/>
       <c r="C32" s="40"/>
@@ -10200,8 +10342,9 @@
       <c r="AL32" s="48"/>
       <c r="AM32" s="48"/>
       <c r="AN32" s="48"/>
-    </row>
-    <row r="33" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO32" s="24"/>
+    </row>
+    <row r="33" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39"/>
       <c r="B33" s="38"/>
       <c r="C33" s="40"/>
@@ -10242,8 +10385,9 @@
       <c r="AL33" s="48"/>
       <c r="AM33" s="48"/>
       <c r="AN33" s="48"/>
-    </row>
-    <row r="34" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO33" s="40"/>
+    </row>
+    <row r="34" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
       <c r="B34" s="38"/>
       <c r="C34" s="40"/>
@@ -10284,8 +10428,9 @@
       <c r="AL34" s="48"/>
       <c r="AM34" s="48"/>
       <c r="AN34" s="48"/>
-    </row>
-    <row r="35" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO34" s="40"/>
+    </row>
+    <row r="35" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
@@ -10326,8 +10471,9 @@
       <c r="AL35" s="48"/>
       <c r="AM35" s="48"/>
       <c r="AN35" s="48"/>
-    </row>
-    <row r="36" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO35" s="30"/>
+    </row>
+    <row r="36" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="36"/>
@@ -10368,8 +10514,9 @@
       <c r="AL36" s="48"/>
       <c r="AM36" s="48"/>
       <c r="AN36" s="48"/>
-    </row>
-    <row r="37" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO36" s="36"/>
+    </row>
+    <row r="37" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -10410,8 +10557,9 @@
       <c r="AL37" s="19"/>
       <c r="AM37" s="19"/>
       <c r="AN37" s="19"/>
-    </row>
-    <row r="38" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO37" s="22"/>
+    </row>
+    <row r="38" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -10452,8 +10600,9 @@
       <c r="AL38" s="24"/>
       <c r="AM38" s="24"/>
       <c r="AN38" s="24"/>
-    </row>
-    <row r="39" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO38" s="24"/>
+    </row>
+    <row r="39" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39"/>
       <c r="B39" s="38"/>
       <c r="C39" s="40"/>
@@ -10494,8 +10643,9 @@
       <c r="AL39" s="40"/>
       <c r="AM39" s="40"/>
       <c r="AN39" s="40"/>
-    </row>
-    <row r="40" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO39" s="40"/>
+    </row>
+    <row r="40" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39"/>
       <c r="B40" s="38"/>
       <c r="C40" s="40"/>
@@ -10536,8 +10686,9 @@
       <c r="AL40" s="40"/>
       <c r="AM40" s="40"/>
       <c r="AN40" s="40"/>
-    </row>
-    <row r="41" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO40" s="40"/>
+    </row>
+    <row r="41" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="35"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
@@ -10578,8 +10729,9 @@
       <c r="AL41" s="30"/>
       <c r="AM41" s="30"/>
       <c r="AN41" s="30"/>
-    </row>
-    <row r="42" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO41" s="30"/>
+    </row>
+    <row r="42" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
       <c r="C42" s="36"/>
@@ -10620,8 +10772,9 @@
       <c r="AL42" s="36"/>
       <c r="AM42" s="36"/>
       <c r="AN42" s="36"/>
-    </row>
-    <row r="43" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO42" s="36"/>
+    </row>
+    <row r="43" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -10662,8 +10815,9 @@
       <c r="AL43" s="22"/>
       <c r="AM43" s="22"/>
       <c r="AN43" s="22"/>
-    </row>
-    <row r="44" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO43" s="22"/>
+    </row>
+    <row r="44" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -10704,8 +10858,9 @@
       <c r="AL44" s="24"/>
       <c r="AM44" s="24"/>
       <c r="AN44" s="24"/>
-    </row>
-    <row r="45" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO44" s="30"/>
+    </row>
+    <row r="45" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39"/>
       <c r="B45" s="38"/>
       <c r="C45" s="40"/>
@@ -10746,8 +10901,9 @@
       <c r="AL45" s="40"/>
       <c r="AM45" s="40"/>
       <c r="AN45" s="40"/>
-    </row>
-    <row r="46" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO45" s="36"/>
+    </row>
+    <row r="46" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="38"/>
       <c r="C46" s="40"/>
@@ -10788,8 +10944,9 @@
       <c r="AL46" s="40"/>
       <c r="AM46" s="40"/>
       <c r="AN46" s="40"/>
-    </row>
-    <row r="47" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO46"/>
+    </row>
+    <row r="47" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="35"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -10830,8 +10987,9 @@
       <c r="AL47" s="30"/>
       <c r="AM47" s="30"/>
       <c r="AN47" s="30"/>
-    </row>
-    <row r="48" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO47"/>
+    </row>
+    <row r="48" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
       <c r="C48" s="36"/>
@@ -10872,8 +11030,9 @@
       <c r="AL48" s="36"/>
       <c r="AM48" s="36"/>
       <c r="AN48" s="36"/>
-    </row>
-    <row r="49" spans="1:40" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO48"/>
+    </row>
+    <row r="49" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
@@ -10914,8 +11073,9 @@
       <c r="AL49" s="22"/>
       <c r="AM49" s="22"/>
       <c r="AN49" s="22"/>
-    </row>
-    <row r="50" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO49"/>
+    </row>
+    <row r="50" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -10955,7 +11115,7 @@
       <c r="AM50" s="24"/>
       <c r="AN50" s="24"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" s="39"/>
       <c r="B51" s="38"/>
       <c r="C51" s="40"/>
@@ -10995,7 +11155,7 @@
       <c r="AM51" s="40"/>
       <c r="AN51" s="40"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" s="39"/>
       <c r="B52" s="38"/>
       <c r="C52" s="40"/>
@@ -11035,7 +11195,7 @@
       <c r="AM52" s="40"/>
       <c r="AN52" s="40"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" s="35"/>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -11075,7 +11235,7 @@
       <c r="AM53" s="30"/>
       <c r="AN53" s="30"/>
     </row>
-    <row r="54" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="24"/>
       <c r="C54" s="36"/>
@@ -11115,7 +11275,7 @@
       <c r="AM54" s="36"/>
       <c r="AN54" s="36"/>
     </row>
-    <row r="55" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
@@ -11155,7 +11315,7 @@
       <c r="AM55" s="22"/>
       <c r="AN55" s="22"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" s="34"/>
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
@@ -11195,7 +11355,7 @@
       <c r="AM56" s="30"/>
       <c r="AN56" s="30"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" s="35"/>
       <c r="B57" s="38"/>
       <c r="C57" s="36"/>
@@ -11235,7 +11395,7 @@
       <c r="AM57" s="36"/>
       <c r="AN57" s="36"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="X59" s="8"/>
       <c r="AE59" s="8"/>
       <c r="AF59" s="8"/>
@@ -11897,875 +12057,931 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="139"/>
-      <c r="B1" s="139"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="A1" s="133"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="139"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="142" t="s">
+      <c r="A3" s="133"/>
+      <c r="B3" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="143">
+      <c r="C3" s="186">
         <v>43374</v>
       </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="142" t="s">
+      <c r="D3" s="187"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="146"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="141"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="135"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="139"/>
-      <c r="B4" s="147" t="s">
+      <c r="A4" s="133"/>
+      <c r="B4" s="139" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="148" t="s">
+      <c r="D4" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="147" t="s">
+      <c r="E4" s="141"/>
+      <c r="F4" s="139" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="150" t="s">
+      <c r="G4" s="142" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="148" t="s">
+      <c r="H4" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="148" t="s">
+      <c r="I4" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="141"/>
+      <c r="J4" s="135"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="139"/>
-      <c r="B5" s="151" t="s">
+      <c r="A5" s="133"/>
+      <c r="B5" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="151" t="s">
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="151"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="141"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="135"/>
     </row>
     <row r="6" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="139"/>
-      <c r="B6" s="154" t="s">
+      <c r="A6" s="133"/>
+      <c r="B6" s="146" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="156" t="s">
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="148" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="157"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="141"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="135"/>
     </row>
     <row r="7" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="139"/>
-      <c r="B7" s="154" t="s">
+      <c r="A7" s="133"/>
+      <c r="B7" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="156" t="s">
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="157"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="141"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="135"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="139"/>
-      <c r="B8" s="154" t="s">
+      <c r="A8" s="133"/>
+      <c r="B8" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="156" t="s">
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="157"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="141"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="135"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="139"/>
-      <c r="B9" s="154" t="s">
+      <c r="A9" s="133"/>
+      <c r="B9" s="146" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="156" t="s">
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="148" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="157"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="141"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="135"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="139"/>
-      <c r="B10" s="154" t="s">
+      <c r="A10" s="133"/>
+      <c r="B10" s="146" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="156" t="s">
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="157"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="141"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="135"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="139"/>
-      <c r="B11" s="154" t="s">
+      <c r="A11" s="133"/>
+      <c r="B11" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="155"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="156" t="s">
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="148" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="157"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="141"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="135"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="139"/>
-      <c r="B12" s="154" t="s">
+      <c r="A12" s="133"/>
+      <c r="B12" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="156" t="s">
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="148" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="157"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="141"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="135"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="139"/>
-      <c r="B13" s="154" t="s">
+      <c r="A13" s="133"/>
+      <c r="B13" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="155"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="156" t="s">
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="148" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="157"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="141"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="135"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="139"/>
-      <c r="B14" s="154" t="s">
+      <c r="A14" s="133"/>
+      <c r="B14" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="156" t="s">
+      <c r="C14" s="151"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="148" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="157"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="141"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="135"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="139"/>
-      <c r="B15" s="161" t="s">
+      <c r="A15" s="133"/>
+      <c r="B15" s="153" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="156" t="s">
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="148" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="157"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="141"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="135"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="139"/>
-      <c r="B16" s="163" t="s">
+      <c r="A16" s="133"/>
+      <c r="B16" s="155" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="159"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="156" t="s">
+      <c r="C16" s="151"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="148" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="157"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="141"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="135"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="139"/>
-      <c r="B17" s="154" t="s">
+      <c r="A17" s="133"/>
+      <c r="B17" s="146" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="156" t="s">
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="148" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="157"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="141"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="135"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="139"/>
-      <c r="B18" s="154" t="s">
+      <c r="A18" s="133"/>
+      <c r="B18" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="161" t="s">
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="157"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="141"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="135"/>
     </row>
     <row r="19" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="139"/>
-      <c r="B19" s="154" t="s">
+      <c r="A19" s="133"/>
+      <c r="B19" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="161" t="s">
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="157"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="141"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="135"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="139"/>
-      <c r="B20" s="154" t="s">
+      <c r="A20" s="133"/>
+      <c r="B20" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="165" t="s">
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="157"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="141"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="135"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="139"/>
-      <c r="B21" s="154" t="s">
+      <c r="A21" s="133"/>
+      <c r="B21" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="165" t="s">
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="157"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="141"/>
-    </row>
-    <row r="22" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="139"/>
-      <c r="B22" s="166" t="s">
+      <c r="G21" s="149"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="135"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="133"/>
+      <c r="B22" s="155" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="165" t="s">
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="157"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="141"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="135"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="139"/>
-      <c r="B23" s="168" t="s">
+      <c r="A23" s="133"/>
+      <c r="B23" s="155" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="149"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="135"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="133"/>
+      <c r="B24" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="164"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="135"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="133"/>
+      <c r="B25" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="169">
-        <f>SUM(C6:C22)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="169"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="165" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="157"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="141"/>
-    </row>
-    <row r="24" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="139"/>
-      <c r="B24" s="170" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="155">
-        <f>C23*16%</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="155"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="171" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="172"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="141"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="139"/>
-      <c r="B25" s="173" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="174">
-        <f>SUM(C23:C24)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="174"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="175"/>
-      <c r="H25" s="176">
+      <c r="G25" s="167"/>
+      <c r="H25" s="168">
         <f>SUM(H6:H24)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="176">
+      <c r="I25" s="168">
         <f>SUM(I6:I24)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="141"/>
-    </row>
-    <row r="26" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="139"/>
-      <c r="B26" s="151" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="170" t="s">
+      <c r="J25" s="135"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="133"/>
+      <c r="B26" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="177"/>
-      <c r="H26" s="155">
+      <c r="G26" s="169"/>
+      <c r="H26" s="147">
         <f>H25*16%</f>
         <v>0</v>
       </c>
-      <c r="I26" s="155">
+      <c r="I26" s="147">
         <f>I25*16%</f>
         <v>0</v>
       </c>
-      <c r="J26" s="141"/>
+      <c r="J26" s="135"/>
     </row>
     <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="139"/>
-      <c r="B27" s="154" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="173" t="s">
+      <c r="A27" s="133"/>
+      <c r="B27" s="160" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="161">
+        <f>SUM(C6:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="161"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="178">
+      <c r="G27" s="170">
         <f>SUM(G6:G26)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="174">
+      <c r="H27" s="166">
         <f>+H25+H26</f>
         <v>0</v>
       </c>
-      <c r="I27" s="174">
+      <c r="I27" s="166">
         <f>+I25+I26</f>
         <v>0</v>
       </c>
-      <c r="J27" s="141"/>
+      <c r="J27" s="135"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="139"/>
-      <c r="B28" s="154" t="s">
+      <c r="A28" s="133"/>
+      <c r="B28" s="162" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="147">
+        <f>C27*16%</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="147"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="143" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="143"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="135"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="133"/>
+      <c r="B29" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="166">
+        <f>SUM(C27:C28)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="166"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="148" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="149"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="135"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="133"/>
+      <c r="B30" s="143" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="148" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="149"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="135"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="133"/>
+      <c r="B31" s="146" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="155"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="151" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="151"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="141"/>
-    </row>
-    <row r="29" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="139"/>
-      <c r="B29" s="154" t="s">
+      <c r="G31" s="149"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="135"/>
+    </row>
+    <row r="32" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="133"/>
+      <c r="B32" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="147"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="148" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="155"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="156" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="157"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="141"/>
-    </row>
-    <row r="30" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="139"/>
-      <c r="B30" s="154" t="s">
+      <c r="G32" s="149"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="135"/>
+    </row>
+    <row r="33" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="133"/>
+      <c r="B33" s="146" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="147"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="155"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="156" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="157"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="141"/>
-    </row>
-    <row r="31" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="139"/>
-      <c r="B31" s="154" t="s">
+      <c r="G33" s="149"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="135"/>
+    </row>
+    <row r="34" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="133"/>
+      <c r="B34" s="146" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="147"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="148" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="149"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="135"/>
+    </row>
+    <row r="35" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="133"/>
+      <c r="B35" s="146" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="155"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="156" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="157"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="141"/>
-    </row>
-    <row r="32" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="139"/>
-      <c r="B32" s="154" t="s">
+      <c r="C35" s="147"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="149"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="135"/>
+    </row>
+    <row r="36" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="133"/>
+      <c r="B36" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="155"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="156" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="157"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="141"/>
-    </row>
-    <row r="33" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="139"/>
-      <c r="B33" s="154" t="s">
+      <c r="C36" s="147"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="148" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="149"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="135"/>
+    </row>
+    <row r="37" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="133"/>
+      <c r="B37" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="155"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="156" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="157"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="141"/>
-    </row>
-    <row r="34" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="139"/>
-      <c r="B34" s="154" t="s">
+      <c r="C37" s="147"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="148" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="149"/>
+      <c r="H37" s="147"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="135"/>
+    </row>
+    <row r="38" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="133"/>
+      <c r="B38" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="155"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="162"/>
-      <c r="F34" s="156" t="s">
-        <v>107</v>
-      </c>
-      <c r="G34" s="157"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="141"/>
-    </row>
-    <row r="35" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="139"/>
-      <c r="B35" s="154" t="s">
+      <c r="C38" s="147"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="148" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="149"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="135"/>
+    </row>
+    <row r="39" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="133"/>
+      <c r="B39" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="155"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="156" t="s">
+      <c r="C39" s="147"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="148" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="149"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="135"/>
+    </row>
+    <row r="40" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="135"/>
+      <c r="B40" s="153" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="147"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="148" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="149"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="135"/>
+    </row>
+    <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="135"/>
+      <c r="B41" s="155" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="147"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="148" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="149"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="135"/>
+    </row>
+    <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="135"/>
+      <c r="B42" s="146" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="156"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="154"/>
+      <c r="F42" s="148" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="149"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="135"/>
+    </row>
+    <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="135"/>
+      <c r="B43" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="157"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="141"/>
-    </row>
-    <row r="36" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="139"/>
-      <c r="B36" s="161" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="155"/>
-      <c r="D36" s="152"/>
-      <c r="E36" s="162"/>
-      <c r="F36" s="156" t="s">
-        <v>108</v>
-      </c>
-      <c r="G36" s="157"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="155"/>
-      <c r="J36" s="141"/>
-    </row>
-    <row r="37" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="139"/>
-      <c r="B37" s="163" t="s">
+      <c r="C43" s="156"/>
+      <c r="D43" s="172"/>
+      <c r="E43" s="154"/>
+      <c r="F43" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="155"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="162"/>
-      <c r="F37" s="156" t="s">
-        <v>109</v>
-      </c>
-      <c r="G37" s="157"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="141"/>
-    </row>
-    <row r="38" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="139"/>
-      <c r="B38" s="154" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="164"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="162"/>
-      <c r="F38" s="156" t="s">
+      <c r="G43" s="149"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="135"/>
+    </row>
+    <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="135"/>
+      <c r="B44" s="146" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="156"/>
+      <c r="D44" s="172"/>
+      <c r="E44" s="154"/>
+      <c r="F44" s="148" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" s="149"/>
+      <c r="H44" s="145"/>
+      <c r="I44" s="147"/>
+      <c r="J44" s="135"/>
+    </row>
+    <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="135"/>
+      <c r="B45" s="146" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="156"/>
+      <c r="D45" s="172"/>
+      <c r="E45" s="154"/>
+      <c r="F45" s="148" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" s="149"/>
+      <c r="H45" s="145"/>
+      <c r="I45" s="147"/>
+      <c r="J45" s="135"/>
+    </row>
+    <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="135"/>
+      <c r="B46" s="146" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="156"/>
+      <c r="D46" s="172"/>
+      <c r="E46" s="154"/>
+      <c r="F46" s="148" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="149"/>
+      <c r="H46" s="145"/>
+      <c r="I46" s="147"/>
+      <c r="J46" s="135"/>
+    </row>
+    <row r="47" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="135"/>
+      <c r="B47" s="155" t="s">
         <v>96</v>
       </c>
-      <c r="G38" s="157"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="141"/>
-    </row>
-    <row r="39" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="139"/>
-      <c r="B39" s="154" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="164"/>
-      <c r="D39" s="180"/>
-      <c r="E39" s="162"/>
-      <c r="F39" s="156" t="s">
-        <v>106</v>
-      </c>
-      <c r="G39" s="157"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="141"/>
-    </row>
-    <row r="40" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="141"/>
-      <c r="B40" s="154" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="164"/>
-      <c r="D40" s="180"/>
-      <c r="E40" s="162"/>
-      <c r="F40" s="156" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="157"/>
-      <c r="H40" s="155"/>
-      <c r="I40" s="155"/>
-      <c r="J40" s="141"/>
-    </row>
-    <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="141"/>
-      <c r="B41" s="154" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="164"/>
-      <c r="D41" s="180"/>
-      <c r="E41" s="162"/>
-      <c r="F41" s="161" t="s">
-        <v>90</v>
-      </c>
-      <c r="G41" s="157"/>
-      <c r="H41" s="155"/>
-      <c r="I41" s="155"/>
-      <c r="J41" s="141"/>
-    </row>
-    <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="141"/>
-      <c r="B42" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="164"/>
-      <c r="D42" s="180"/>
-      <c r="E42" s="162"/>
-      <c r="F42" s="161" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42" s="157"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="141"/>
-    </row>
-    <row r="43" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="141"/>
-      <c r="B43" s="166" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="167"/>
-      <c r="D43" s="181"/>
-      <c r="E43" s="162"/>
-      <c r="F43" s="161" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" s="157"/>
-      <c r="H43" s="155"/>
-      <c r="I43" s="155"/>
-      <c r="J43" s="141"/>
-    </row>
-    <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="141"/>
-      <c r="B44" s="168" t="s">
+      <c r="C47" s="156"/>
+      <c r="D47" s="172"/>
+      <c r="E47" s="154"/>
+      <c r="F47" s="148" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" s="164"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="147"/>
+      <c r="J47" s="135"/>
+    </row>
+    <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="135"/>
+      <c r="B48" s="155" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="155"/>
+      <c r="D48" s="155"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="176">
-        <f>SUM(C27:C43)</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="176"/>
-      <c r="E44" s="162"/>
-      <c r="F44" s="161" t="s">
-        <v>111</v>
-      </c>
-      <c r="G44" s="157"/>
-      <c r="H44" s="153"/>
-      <c r="I44" s="155"/>
-      <c r="J44" s="141"/>
-    </row>
-    <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="141"/>
-      <c r="B45" s="170" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="155">
-        <f>C44*16%</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="153"/>
-      <c r="E45" s="162"/>
-      <c r="F45" s="161" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45" s="157"/>
-      <c r="H45" s="153"/>
-      <c r="I45" s="155"/>
-      <c r="J45" s="141"/>
-    </row>
-    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="141"/>
-      <c r="B46" s="173" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="174">
-        <f>SUM(C44:C45)</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="174"/>
-      <c r="E46" s="162"/>
-      <c r="F46" s="161" t="s">
-        <v>113</v>
-      </c>
-      <c r="G46" s="157"/>
-      <c r="H46" s="153"/>
-      <c r="I46" s="155"/>
-      <c r="J46" s="141"/>
-    </row>
-    <row r="47" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="141"/>
-      <c r="B47" s="139"/>
-      <c r="C47" s="139"/>
-      <c r="D47" s="139"/>
-      <c r="E47" s="162"/>
-      <c r="F47" s="171" t="s">
-        <v>114</v>
-      </c>
-      <c r="G47" s="172"/>
-      <c r="H47" s="153"/>
-      <c r="I47" s="155"/>
-      <c r="J47" s="141"/>
-    </row>
-    <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="141"/>
-      <c r="B48" s="162"/>
-      <c r="C48" s="162"/>
-      <c r="D48" s="162"/>
-      <c r="E48" s="162"/>
-      <c r="F48" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="G48" s="175"/>
-      <c r="H48" s="176">
+      <c r="G48" s="167"/>
+      <c r="H48" s="168">
         <f>SUM(H29:H47)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="176">
+      <c r="I48" s="168">
         <f>SUM(I41:I47)</f>
         <v>0</v>
       </c>
-      <c r="J48" s="141"/>
+      <c r="J48" s="135"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="141"/>
-      <c r="B49" s="162"/>
-      <c r="C49" s="162"/>
-      <c r="D49" s="162"/>
-      <c r="E49" s="162"/>
-      <c r="F49" s="170" t="s">
+      <c r="A49" s="135"/>
+      <c r="B49" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="157"/>
+      <c r="D49" s="157"/>
+      <c r="E49" s="154"/>
+      <c r="F49" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="G49" s="177"/>
-      <c r="H49" s="155">
+      <c r="G49" s="169"/>
+      <c r="H49" s="147">
         <f>H48*16%</f>
         <v>0</v>
       </c>
-      <c r="I49" s="155">
+      <c r="I49" s="147">
         <f>I48*16%</f>
         <v>0</v>
       </c>
-      <c r="J49" s="141"/>
+      <c r="J49" s="135"/>
     </row>
     <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="141"/>
-      <c r="B50" s="162"/>
-      <c r="C50" s="162"/>
-      <c r="D50" s="162"/>
-      <c r="E50" s="162"/>
-      <c r="F50" s="173" t="s">
+      <c r="A50" s="135"/>
+      <c r="B50" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="157"/>
+      <c r="D50" s="157"/>
+      <c r="E50" s="154"/>
+      <c r="F50" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="G50" s="178">
+      <c r="G50" s="170">
         <f>SUM(G29:G49)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="174">
+      <c r="H50" s="166">
         <f>SUM(H48:H49)</f>
         <v>0</v>
       </c>
-      <c r="I50" s="174">
+      <c r="I50" s="166">
         <f>SUM(I48:I49)</f>
         <v>0</v>
       </c>
-      <c r="J50" s="141"/>
+      <c r="J50" s="135"/>
+    </row>
+    <row r="51" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="158"/>
+      <c r="D51" s="158"/>
+    </row>
+    <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="160" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="168">
+        <f>SUM(C31:C51)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="168"/>
+    </row>
+    <row r="53" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="162" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="147">
+        <f>C52*16%</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="145"/>
+    </row>
+    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B54" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="166">
+        <f>SUM(C52:C53)</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="166"/>
+    </row>
+    <row r="55" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="133"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="133"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="154"/>
+      <c r="C56" s="154"/>
+      <c r="D56" s="154"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="154"/>
+      <c r="C57" s="154"/>
+      <c r="D57" s="154"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="154"/>
+      <c r="C58" s="154"/>
+      <c r="D58" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12774,4 +12990,156 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="173"/>
+    <col min="2" max="2" width="37" style="173" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="173" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="173" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="173" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="173" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="173"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="177" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="177" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="177" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="177" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="177" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="177" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="174"/>
+      <c r="G2" s="178">
+        <f>E2+F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="174"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="174"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="174"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="175"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="174"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="174"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="174"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="175"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="174"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="174"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="174"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="175"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="174"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="174"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="174"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="174"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="174"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="175"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="174"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="174"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="174"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="175"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="174"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="174"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="174"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="175"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="174"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="174"/>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="174"/>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="175"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="174"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="176"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:G1">
+    <sortState ref="B2:G2">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" tabRatio="789" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" tabRatio="789"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA TOTAL" sheetId="27" r:id="rId1"/>
@@ -5123,9 +5123,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BG12"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q10" sqref="A1:XFD10"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12059,7 +12059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" tabRatio="789"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" tabRatio="789" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA TOTAL" sheetId="27" r:id="rId1"/>
@@ -5123,7 +5123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
@@ -5934,15 +5934,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
     <mergeCell ref="AD11:AD12"/>
     <mergeCell ref="AC11:AC12"/>
     <mergeCell ref="G11:G12"/>
@@ -5959,6 +5950,15 @@
     <mergeCell ref="AB11:AB12"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12059,8 +12059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12417,7 +12417,7 @@
         <v>96</v>
       </c>
       <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
+      <c r="D22" s="147"/>
       <c r="E22" s="154"/>
       <c r="F22" s="157" t="s">
         <v>112</v>
@@ -12433,7 +12433,7 @@
         <v>111</v>
       </c>
       <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
+      <c r="D23" s="147"/>
       <c r="E23" s="154"/>
       <c r="F23" s="157" t="s">
         <v>113</v>
@@ -12449,7 +12449,7 @@
         <v>112</v>
       </c>
       <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
+      <c r="D24" s="147"/>
       <c r="E24" s="154"/>
       <c r="F24" s="163" t="s">
         <v>114</v>
@@ -12465,7 +12465,7 @@
         <v>113</v>
       </c>
       <c r="C25" s="157"/>
-      <c r="D25" s="157"/>
+      <c r="D25" s="147"/>
       <c r="E25" s="154"/>
       <c r="F25" s="160" t="s">
         <v>0</v>
@@ -12487,7 +12487,7 @@
         <v>121</v>
       </c>
       <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
+      <c r="D26" s="147"/>
       <c r="E26" s="154"/>
       <c r="F26" s="162" t="s">
         <v>83</v>
@@ -12512,7 +12512,10 @@
         <f>SUM(C6:C26)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="161"/>
+      <c r="D27" s="161">
+        <f>SUM(D6:D26)</f>
+        <v>0</v>
+      </c>
       <c r="E27" s="154"/>
       <c r="F27" s="165" t="s">
         <v>1</v>
@@ -12540,7 +12543,10 @@
         <f>C27*16%</f>
         <v>0</v>
       </c>
-      <c r="D28" s="147"/>
+      <c r="D28" s="147">
+        <f>D27*16%</f>
+        <v>0</v>
+      </c>
       <c r="E28" s="154"/>
       <c r="F28" s="143" t="s">
         <v>84</v>
@@ -12559,7 +12565,10 @@
         <f>SUM(C27:C28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="166"/>
+      <c r="D29" s="166">
+        <f>SUM(D27:D28)</f>
+        <v>0</v>
+      </c>
       <c r="E29" s="154"/>
       <c r="F29" s="148" t="s">
         <v>85</v>
@@ -12847,7 +12856,7 @@
         <v>96</v>
       </c>
       <c r="C47" s="156"/>
-      <c r="D47" s="172"/>
+      <c r="D47" s="156"/>
       <c r="E47" s="154"/>
       <c r="F47" s="148" t="s">
         <v>114</v>
@@ -12863,7 +12872,7 @@
         <v>111</v>
       </c>
       <c r="C48" s="155"/>
-      <c r="D48" s="155"/>
+      <c r="D48" s="156"/>
       <c r="E48" s="154"/>
       <c r="F48" s="160" t="s">
         <v>0</v>
@@ -12885,7 +12894,7 @@
         <v>112</v>
       </c>
       <c r="C49" s="157"/>
-      <c r="D49" s="157"/>
+      <c r="D49" s="156"/>
       <c r="E49" s="154"/>
       <c r="F49" s="162" t="s">
         <v>83</v>
@@ -12907,7 +12916,7 @@
         <v>113</v>
       </c>
       <c r="C50" s="157"/>
-      <c r="D50" s="157"/>
+      <c r="D50" s="156"/>
       <c r="E50" s="154"/>
       <c r="F50" s="165" t="s">
         <v>1</v>
@@ -12931,7 +12940,7 @@
         <v>121</v>
       </c>
       <c r="C51" s="158"/>
-      <c r="D51" s="158"/>
+      <c r="D51" s="156"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B52" s="160" t="s">
@@ -12941,7 +12950,10 @@
         <f>SUM(C31:C51)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="168"/>
+      <c r="D52" s="168">
+        <f>SUM(D31:D51)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B53" s="162" t="s">
@@ -12951,7 +12963,10 @@
         <f>C52*16%</f>
         <v>0</v>
       </c>
-      <c r="D53" s="145"/>
+      <c r="D53" s="147">
+        <f>D52*16%</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="165" t="s">
@@ -12961,7 +12976,10 @@
         <f>SUM(C52:C53)</f>
         <v>0</v>
       </c>
-      <c r="D54" s="166"/>
+      <c r="D54" s="166">
+        <f>SUM(D52:D53)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B55" s="133"/>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" tabRatio="789" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" tabRatio="789" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA TOTAL" sheetId="27" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="__TC2">[1]FOR!$B$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'OPERADORA ABORDO'!$A$3:$W$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'OPERADORA DESCANSO'!$A$3:$W$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'PENSION ALIMENTICIA'!$B$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'PENSION ALIMENTICIA'!$B$1:$J$1</definedName>
     <definedName name="_TC1">[2]FOR!$B$9</definedName>
     <definedName name="_TC2">[2]FOR!$B$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">DETALLE!$A$1:$K$54</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="122">
   <si>
     <t>SUBTOTAL</t>
   </si>
@@ -444,7 +444,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;???_-;_-@_-"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -710,8 +710,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,6 +775,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2438,7 +2451,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2828,6 +2841,9 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1491">
@@ -5934,6 +5950,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="AD11:AD12"/>
     <mergeCell ref="AC11:AC12"/>
     <mergeCell ref="G11:G12"/>
@@ -5950,15 +5975,6 @@
     <mergeCell ref="AB11:AB12"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12059,8 +12075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13012,10 +13028,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G34"/>
+  <dimension ref="B1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13023,137 +13039,147 @@
     <col min="1" max="1" width="11.42578125" style="173"/>
     <col min="2" max="2" width="37" style="173" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" style="173" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="173" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="173" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="173" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="173"/>
+    <col min="4" max="6" width="34" style="173" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="173" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="173" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="173" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="173"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="177" t="s">
         <v>116</v>
       </c>
       <c r="C1" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="177" t="s">
+      <c r="D1" s="188" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="188" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="188" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="177" t="s">
+      <c r="H1" s="177" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="177" t="s">
+      <c r="I1" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="177" t="s">
+      <c r="J1" s="177" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E2" s="174"/>
-      <c r="G2" s="178">
-        <f>E2+F2</f>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="174"/>
+      <c r="J2" s="178">
+        <f>H2+I2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E3" s="174"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E4" s="174"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E5" s="174"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="175"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="174"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="174"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E9" s="174"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E10" s="175"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="174"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="174"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="174"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="175"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="174"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E16" s="174"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="174"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="174"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="174"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="175"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="174"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="174"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="174"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="175"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="174"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E26" s="174"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="174"/>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E28" s="175"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E29" s="174"/>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E30" s="174"/>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E31" s="174"/>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E32" s="175"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="174"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="176"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="174"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H4" s="174"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="174"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="175"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="174"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="174"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="174"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="175"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="174"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="174"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="174"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="175"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="174"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="174"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="174"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="174"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="174"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="175"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="174"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="174"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="174"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="175"/>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="174"/>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="174"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="174"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="175"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="174"/>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="174"/>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="174"/>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="175"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="174"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="176"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G1">
+  <autoFilter ref="B1:J1">
     <sortState ref="B2:G2">
       <sortCondition ref="C1"/>
     </sortState>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" tabRatio="789" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" tabRatio="789" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA TOTAL" sheetId="27" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="122">
   <si>
     <t>SUBTOTAL</t>
   </si>
@@ -2819,6 +2819,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="33" fillId="0" borderId="0" xfId="1488" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2841,9 +2844,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1491">
@@ -5776,83 +5776,83 @@
       <c r="BG10" s="50"/>
     </row>
     <row r="11" spans="2:59" s="85" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="179" t="s">
+      <c r="B11" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="179" t="s">
+      <c r="C11" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="179" t="s">
+      <c r="D11" s="180" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="179" t="s">
+      <c r="E11" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="179" t="s">
+      <c r="F11" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="179" t="s">
+      <c r="G11" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="179" t="s">
+      <c r="H11" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="179" t="s">
+      <c r="I11" s="180" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="179" t="s">
+      <c r="J11" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="179" t="s">
+      <c r="K11" s="180" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="179" t="s">
+      <c r="L11" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="179" t="s">
+      <c r="M11" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="179" t="s">
+      <c r="N11" s="180" t="s">
         <v>72</v>
       </c>
       <c r="O11" s="129"/>
-      <c r="P11" s="179" t="s">
+      <c r="P11" s="180" t="s">
         <v>52</v>
       </c>
       <c r="Q11" s="132"/>
       <c r="R11" s="132"/>
-      <c r="S11" s="179" t="s">
+      <c r="S11" s="180" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="179" t="s">
+      <c r="T11" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="U11" s="179" t="s">
+      <c r="U11" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="V11" s="179" t="s">
+      <c r="V11" s="180" t="s">
         <v>73</v>
       </c>
       <c r="W11" s="86"/>
-      <c r="X11" s="179" t="s">
+      <c r="X11" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="Y11" s="179" t="s">
+      <c r="Y11" s="180" t="s">
         <v>75</v>
       </c>
-      <c r="Z11" s="179" t="s">
+      <c r="Z11" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="AA11" s="179" t="s">
+      <c r="AA11" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="AB11" s="180" t="s">
+      <c r="AB11" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="AC11" s="179" t="s">
+      <c r="AC11" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="AD11" s="179"/>
+      <c r="AD11" s="180"/>
       <c r="AF11" s="84"/>
       <c r="AG11" s="84"/>
       <c r="AH11" s="84"/>
@@ -5882,23 +5882,23 @@
       <c r="BF11" s="84"/>
     </row>
     <row r="12" spans="2:59" s="87" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="179"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="179"/>
-      <c r="M12" s="179"/>
-      <c r="N12" s="179"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="180"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="180"/>
       <c r="O12" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="179" t="s">
+      <c r="P12" s="180" t="s">
         <v>63</v>
       </c>
       <c r="Q12" s="132" t="s">
@@ -5907,18 +5907,18 @@
       <c r="R12" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="S12" s="179"/>
-      <c r="T12" s="179"/>
-      <c r="U12" s="179"/>
-      <c r="V12" s="179"/>
+      <c r="S12" s="180"/>
+      <c r="T12" s="180"/>
+      <c r="U12" s="180"/>
+      <c r="V12" s="180"/>
       <c r="W12" s="86"/>
-      <c r="X12" s="179"/>
-      <c r="Y12" s="179"/>
-      <c r="Z12" s="179"/>
-      <c r="AA12" s="179"/>
-      <c r="AB12" s="180"/>
-      <c r="AC12" s="179"/>
-      <c r="AD12" s="179"/>
+      <c r="X12" s="180"/>
+      <c r="Y12" s="180"/>
+      <c r="Z12" s="180"/>
+      <c r="AA12" s="180"/>
+      <c r="AB12" s="181"/>
+      <c r="AC12" s="180"/>
+      <c r="AD12" s="180"/>
       <c r="AE12" s="88"/>
       <c r="AF12" s="89"/>
       <c r="AG12" s="89"/>
@@ -5950,15 +5950,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
     <mergeCell ref="AD11:AD12"/>
     <mergeCell ref="AC11:AC12"/>
     <mergeCell ref="G11:G12"/>
@@ -5975,6 +5966,15 @@
     <mergeCell ref="AB11:AB12"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6031,13 +6031,13 @@
   <sheetData>
     <row r="1" spans="1:288" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
       <c r="G1" s="65"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -6135,13 +6135,13 @@
     </row>
     <row r="3" spans="1:288" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="183" t="s">
+      <c r="B3" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
       <c r="G3" s="67"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -6193,13 +6193,13 @@
     </row>
     <row r="4" spans="1:288" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
       <c r="G4" s="67"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -8784,13 +8784,13 @@
   <sheetData>
     <row r="1" spans="1:95" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -8874,13 +8874,13 @@
     </row>
     <row r="3" spans="1:95" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="183" t="s">
+      <c r="B3" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
       <c r="G3" s="30"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -8930,13 +8930,13 @@
     </row>
     <row r="4" spans="1:95" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
       <c r="G4" s="67"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -12073,10 +12073,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12116,17 +12116,17 @@
       <c r="B3" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="186">
+      <c r="C3" s="187">
         <v>43374</v>
       </c>
-      <c r="D3" s="187"/>
+      <c r="D3" s="188"/>
       <c r="E3" s="137"/>
       <c r="F3" s="136" t="s">
         <v>77</v>
       </c>
       <c r="G3" s="138"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="188"/>
       <c r="J3" s="135"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -12366,7 +12366,7 @@
     <row r="18" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A18" s="133"/>
       <c r="B18" s="146" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C18" s="147"/>
       <c r="D18" s="147"/>
@@ -12382,7 +12382,7 @@
     <row r="19" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A19" s="133"/>
       <c r="B19" s="146" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C19" s="147"/>
       <c r="D19" s="147"/>
@@ -12398,7 +12398,7 @@
     <row r="20" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="133"/>
       <c r="B20" s="146" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C20" s="147"/>
       <c r="D20" s="147"/>
@@ -12414,7 +12414,7 @@
     <row r="21" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A21" s="133"/>
       <c r="B21" s="146" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="147"/>
       <c r="D21" s="147"/>
@@ -12429,10 +12429,10 @@
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A22" s="133"/>
-      <c r="B22" s="155" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="156"/>
+      <c r="B22" s="146" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="147"/>
       <c r="D22" s="147"/>
       <c r="E22" s="154"/>
       <c r="F22" s="157" t="s">
@@ -12446,7 +12446,7 @@
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A23" s="133"/>
       <c r="B23" s="155" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C23" s="156"/>
       <c r="D23" s="147"/>
@@ -12461,10 +12461,10 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="133"/>
-      <c r="B24" s="157" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="157"/>
+      <c r="B24" s="155" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="156"/>
       <c r="D24" s="147"/>
       <c r="E24" s="154"/>
       <c r="F24" s="163" t="s">
@@ -12478,7 +12478,7 @@
     <row r="25" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A25" s="133"/>
       <c r="B25" s="157" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" s="157"/>
       <c r="D25" s="147"/>
@@ -12497,12 +12497,12 @@
       </c>
       <c r="J25" s="135"/>
     </row>
-    <row r="26" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A26" s="133"/>
-      <c r="B26" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="159"/>
+      <c r="B26" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="157"/>
       <c r="D26" s="147"/>
       <c r="E26" s="154"/>
       <c r="F26" s="162" t="s">
@@ -12519,19 +12519,13 @@
       </c>
       <c r="J26" s="135"/>
     </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="133"/>
-      <c r="B27" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="161">
-        <f>SUM(C6:C26)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="161">
-        <f>SUM(D6:D26)</f>
-        <v>0</v>
-      </c>
+      <c r="B27" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="159"/>
+      <c r="D27" s="147"/>
       <c r="E27" s="154"/>
       <c r="F27" s="165" t="s">
         <v>1</v>
@@ -12552,15 +12546,15 @@
     </row>
     <row r="28" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A28" s="133"/>
-      <c r="B28" s="162" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="147">
-        <f>C27*16%</f>
+      <c r="B28" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="147">
-        <f>D27*16%</f>
+      <c r="C28" s="161">
+        <f>SUM(C6:C27)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="161">
+        <f>SUM(D6:D27)</f>
         <v>0</v>
       </c>
       <c r="E28" s="154"/>
@@ -12572,17 +12566,17 @@
       <c r="I28" s="171"/>
       <c r="J28" s="135"/>
     </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A29" s="133"/>
-      <c r="B29" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="166">
-        <f>SUM(C27:C28)</f>
+      <c r="B29" s="162" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="147">
+        <f>C28*16%</f>
         <v>0</v>
       </c>
-      <c r="D29" s="166">
-        <f>SUM(D27:D28)</f>
+      <c r="D29" s="147">
+        <f>D28*16%</f>
         <v>0</v>
       </c>
       <c r="E29" s="154"/>
@@ -12594,13 +12588,19 @@
       <c r="I29" s="147"/>
       <c r="J29" s="135"/>
     </row>
-    <row r="30" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="133"/>
-      <c r="B30" s="143" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
+      <c r="B30" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="166">
+        <f>SUM(C28:C29)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="166">
+        <f>SUM(D28:D29)</f>
+        <v>0</v>
+      </c>
       <c r="E30" s="154"/>
       <c r="F30" s="148" t="s">
         <v>103</v>
@@ -12612,8 +12612,8 @@
     </row>
     <row r="31" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A31" s="133"/>
-      <c r="B31" s="146" t="s">
-        <v>85</v>
+      <c r="B31" s="143" t="s">
+        <v>84</v>
       </c>
       <c r="C31" s="145"/>
       <c r="D31" s="145"/>
@@ -12629,10 +12629,10 @@
     <row r="32" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A32" s="133"/>
       <c r="B32" s="146" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="147"/>
-      <c r="D32" s="144"/>
+        <v>85</v>
+      </c>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
       <c r="E32" s="154"/>
       <c r="F32" s="148" t="s">
         <v>104</v>
@@ -12645,7 +12645,7 @@
     <row r="33" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A33" s="133"/>
       <c r="B33" s="146" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C33" s="147"/>
       <c r="D33" s="144"/>
@@ -12661,7 +12661,7 @@
     <row r="34" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A34" s="133"/>
       <c r="B34" s="146" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" s="147"/>
       <c r="D34" s="144"/>
@@ -12677,7 +12677,7 @@
     <row r="35" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A35" s="133"/>
       <c r="B35" s="146" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" s="147"/>
       <c r="D35" s="144"/>
@@ -12693,7 +12693,7 @@
     <row r="36" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A36" s="133"/>
       <c r="B36" s="146" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C36" s="147"/>
       <c r="D36" s="144"/>
@@ -12709,7 +12709,7 @@
     <row r="37" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A37" s="133"/>
       <c r="B37" s="146" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="147"/>
       <c r="D37" s="144"/>
@@ -12725,7 +12725,7 @@
     <row r="38" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A38" s="133"/>
       <c r="B38" s="146" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="147"/>
       <c r="D38" s="144"/>
@@ -12741,10 +12741,10 @@
     <row r="39" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A39" s="133"/>
       <c r="B39" s="146" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="147"/>
-      <c r="D39" s="147"/>
+      <c r="D39" s="144"/>
       <c r="E39" s="154"/>
       <c r="F39" s="148" t="s">
         <v>106</v>
@@ -12756,11 +12756,11 @@
     </row>
     <row r="40" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A40" s="135"/>
-      <c r="B40" s="153" t="s">
-        <v>82</v>
+      <c r="B40" s="146" t="s">
+        <v>90</v>
       </c>
       <c r="C40" s="147"/>
-      <c r="D40" s="144"/>
+      <c r="D40" s="147"/>
       <c r="E40" s="154"/>
       <c r="F40" s="148" t="s">
         <v>110</v>
@@ -12772,8 +12772,8 @@
     </row>
     <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="135"/>
-      <c r="B41" s="155" t="s">
-        <v>91</v>
+      <c r="B41" s="153" t="s">
+        <v>82</v>
       </c>
       <c r="C41" s="147"/>
       <c r="D41" s="144"/>
@@ -12788,11 +12788,11 @@
     </row>
     <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="135"/>
-      <c r="B42" s="146" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="156"/>
-      <c r="D42" s="172"/>
+      <c r="B42" s="155" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="147"/>
+      <c r="D42" s="144"/>
       <c r="E42" s="154"/>
       <c r="F42" s="148" t="s">
         <v>89</v>
@@ -12805,7 +12805,7 @@
     <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A43" s="135"/>
       <c r="B43" s="146" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="156"/>
       <c r="D43" s="172"/>
@@ -12821,10 +12821,10 @@
     <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="135"/>
       <c r="B44" s="146" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="156"/>
-      <c r="D44" s="172"/>
+        <v>108</v>
+      </c>
+      <c r="C44" s="147"/>
+      <c r="D44" s="147"/>
       <c r="E44" s="154"/>
       <c r="F44" s="148" t="s">
         <v>111</v>
@@ -12837,7 +12837,7 @@
     <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="135"/>
       <c r="B45" s="146" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="156"/>
       <c r="D45" s="172"/>
@@ -12853,7 +12853,7 @@
     <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="135"/>
       <c r="B46" s="146" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C46" s="156"/>
       <c r="D46" s="172"/>
@@ -12868,11 +12868,11 @@
     </row>
     <row r="47" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="135"/>
-      <c r="B47" s="155" t="s">
-        <v>96</v>
+      <c r="B47" s="146" t="s">
+        <v>94</v>
       </c>
       <c r="C47" s="156"/>
-      <c r="D47" s="156"/>
+      <c r="D47" s="172"/>
       <c r="E47" s="154"/>
       <c r="F47" s="148" t="s">
         <v>114</v>
@@ -12884,11 +12884,11 @@
     </row>
     <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A48" s="135"/>
-      <c r="B48" s="155" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="155"/>
-      <c r="D48" s="156"/>
+      <c r="B48" s="146" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="156"/>
+      <c r="D48" s="172"/>
       <c r="E48" s="154"/>
       <c r="F48" s="160" t="s">
         <v>0</v>
@@ -12906,10 +12906,10 @@
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="135"/>
-      <c r="B49" s="157" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="157"/>
+      <c r="B49" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="156"/>
       <c r="D49" s="156"/>
       <c r="E49" s="154"/>
       <c r="F49" s="162" t="s">
@@ -12928,10 +12928,10 @@
     </row>
     <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="135"/>
-      <c r="B50" s="157" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="157"/>
+      <c r="B50" s="155" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="155"/>
       <c r="D50" s="156"/>
       <c r="E50" s="154"/>
       <c r="F50" s="165" t="s">
@@ -12951,71 +12951,85 @@
       </c>
       <c r="J50" s="135"/>
     </row>
-    <row r="51" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="158" t="s">
+    <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="157"/>
+      <c r="D51" s="156"/>
+    </row>
+    <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="157"/>
+      <c r="D52" s="156"/>
+    </row>
+    <row r="53" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="158"/>
-      <c r="D51" s="156"/>
-    </row>
-    <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B52" s="160" t="s">
+      <c r="C53" s="158"/>
+      <c r="D53" s="156"/>
+    </row>
+    <row r="54" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B54" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="168">
-        <f>SUM(C31:C51)</f>
+      <c r="C54" s="168">
+        <f>SUM(C32:C53)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="168">
-        <f>SUM(D31:D51)</f>
+      <c r="D54" s="168">
+        <f>SUM(D32:D53)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B53" s="162" t="s">
+    <row r="55" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="147">
-        <f>C52*16%</f>
+      <c r="C55" s="147">
+        <f>C54*16%</f>
         <v>0</v>
       </c>
-      <c r="D53" s="147">
-        <f>D52*16%</f>
+      <c r="D55" s="147">
+        <f>D54*16%</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="165" t="s">
+    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B56" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="166">
-        <f>SUM(C52:C53)</f>
+      <c r="C56" s="166">
+        <f>SUM(C54:C55)</f>
         <v>0</v>
       </c>
-      <c r="D54" s="166">
-        <f>SUM(D52:D53)</f>
+      <c r="D56" s="166">
+        <f>SUM(D54:D55)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="133"/>
-      <c r="C55" s="133"/>
-      <c r="D55" s="133"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B56" s="154"/>
-      <c r="C56" s="154"/>
-      <c r="D56" s="154"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="154"/>
-      <c r="C57" s="154"/>
-      <c r="D57" s="154"/>
+    <row r="57" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="133"/>
+      <c r="C57" s="133"/>
+      <c r="D57" s="133"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B58" s="154"/>
       <c r="C58" s="154"/>
       <c r="D58" s="154"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="154"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="154"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="154"/>
+      <c r="C60" s="154"/>
+      <c r="D60" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13030,7 +13044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
@@ -13053,13 +13067,13 @@
       <c r="C1" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="188" t="s">
+      <c r="D1" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="188" t="s">
+      <c r="E1" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="188" t="s">
+      <c r="F1" s="179" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="177" t="s">

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" tabRatio="789" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" tabRatio="789" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA TOTAL" sheetId="27" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="122">
   <si>
     <t>SUBTOTAL</t>
   </si>
@@ -785,7 +785,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -954,6 +954,54 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0000FD"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF0000FD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2451,7 +2499,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2820,6 +2868,24 @@
     </xf>
     <xf numFmtId="43" fontId="33" fillId="0" borderId="0" xfId="1488" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="42" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="203" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="14" xfId="1318" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="15" xfId="1318" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="15" xfId="1318" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="16" xfId="1318" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5139,7 +5205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BG12"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="V1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
@@ -5776,83 +5842,83 @@
       <c r="BG10" s="50"/>
     </row>
     <row r="11" spans="2:59" s="85" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="180" t="s">
+      <c r="C11" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="180" t="s">
+      <c r="D11" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="180" t="s">
+      <c r="E11" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="180" t="s">
+      <c r="F11" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="180" t="s">
+      <c r="G11" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="180" t="s">
+      <c r="H11" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="180" t="s">
+      <c r="I11" s="186" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="180" t="s">
+      <c r="J11" s="186" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="180" t="s">
+      <c r="K11" s="186" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="180" t="s">
+      <c r="L11" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="180" t="s">
+      <c r="M11" s="186" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="180" t="s">
+      <c r="N11" s="186" t="s">
         <v>72</v>
       </c>
       <c r="O11" s="129"/>
-      <c r="P11" s="180" t="s">
+      <c r="P11" s="186" t="s">
         <v>52</v>
       </c>
       <c r="Q11" s="132"/>
       <c r="R11" s="132"/>
-      <c r="S11" s="180" t="s">
+      <c r="S11" s="186" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="180" t="s">
+      <c r="T11" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="U11" s="180" t="s">
+      <c r="U11" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="V11" s="180" t="s">
+      <c r="V11" s="186" t="s">
         <v>73</v>
       </c>
       <c r="W11" s="86"/>
-      <c r="X11" s="180" t="s">
+      <c r="X11" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="Y11" s="180" t="s">
+      <c r="Y11" s="186" t="s">
         <v>75</v>
       </c>
-      <c r="Z11" s="180" t="s">
+      <c r="Z11" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="AA11" s="180" t="s">
+      <c r="AA11" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="AB11" s="181" t="s">
+      <c r="AB11" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="AC11" s="180" t="s">
+      <c r="AC11" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="AD11" s="180"/>
+      <c r="AD11" s="186"/>
       <c r="AF11" s="84"/>
       <c r="AG11" s="84"/>
       <c r="AH11" s="84"/>
@@ -5882,23 +5948,23 @@
       <c r="BF11" s="84"/>
     </row>
     <row r="12" spans="2:59" s="87" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="180"/>
-      <c r="C12" s="180"/>
-      <c r="D12" s="180"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="180"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="180"/>
-      <c r="N12" s="180"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="186"/>
+      <c r="J12" s="186"/>
+      <c r="K12" s="186"/>
+      <c r="L12" s="186"/>
+      <c r="M12" s="186"/>
+      <c r="N12" s="186"/>
       <c r="O12" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="180" t="s">
+      <c r="P12" s="186" t="s">
         <v>63</v>
       </c>
       <c r="Q12" s="132" t="s">
@@ -5907,18 +5973,18 @@
       <c r="R12" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="S12" s="180"/>
-      <c r="T12" s="180"/>
-      <c r="U12" s="180"/>
-      <c r="V12" s="180"/>
+      <c r="S12" s="186"/>
+      <c r="T12" s="186"/>
+      <c r="U12" s="186"/>
+      <c r="V12" s="186"/>
       <c r="W12" s="86"/>
-      <c r="X12" s="180"/>
-      <c r="Y12" s="180"/>
-      <c r="Z12" s="180"/>
-      <c r="AA12" s="180"/>
-      <c r="AB12" s="181"/>
-      <c r="AC12" s="180"/>
-      <c r="AD12" s="180"/>
+      <c r="X12" s="186"/>
+      <c r="Y12" s="186"/>
+      <c r="Z12" s="186"/>
+      <c r="AA12" s="186"/>
+      <c r="AB12" s="187"/>
+      <c r="AC12" s="186"/>
+      <c r="AD12" s="186"/>
       <c r="AE12" s="88"/>
       <c r="AF12" s="89"/>
       <c r="AG12" s="89"/>
@@ -5986,7 +6052,7 @@
   <dimension ref="A1:KB47"/>
   <sheetViews>
     <sheetView topLeftCell="AM1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AQ8" sqref="AQ8"/>
+      <selection activeCell="BE4" sqref="BE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6031,13 +6097,13 @@
   <sheetData>
     <row r="1" spans="1:288" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
       <c r="G1" s="65"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -6135,13 +6201,13 @@
     </row>
     <row r="3" spans="1:288" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
       <c r="G3" s="67"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -6193,13 +6259,13 @@
     </row>
     <row r="4" spans="1:288" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="185" t="s">
+      <c r="B4" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
       <c r="G4" s="67"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -6624,28 +6690,28 @@
       <c r="AO8" s="128" t="s">
         <v>115</v>
       </c>
-      <c r="AP8" s="127" t="s">
+      <c r="AP8" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="AQ8" s="130" t="s">
+      <c r="AQ8" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="AR8" s="130" t="s">
+      <c r="AR8" s="183" t="s">
         <v>67</v>
       </c>
-      <c r="AS8" s="130" t="s">
+      <c r="AS8" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="AT8" s="130" t="s">
+      <c r="AT8" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="AU8" s="131" t="s">
+      <c r="AU8" s="184" t="s">
         <v>69</v>
       </c>
-      <c r="AV8" s="130" t="s">
+      <c r="AV8" s="185" t="s">
         <v>70</v>
       </c>
-      <c r="AW8" s="128" t="s">
+      <c r="AW8" s="181" t="s">
         <v>99</v>
       </c>
       <c r="AX8" s="128" t="s">
@@ -6977,12 +7043,15 @@
       <c r="AQ10" s="48"/>
       <c r="AR10" s="48"/>
       <c r="AS10" s="48"/>
-      <c r="AT10" s="48"/>
-      <c r="AU10" s="48"/>
-      <c r="AV10" s="54"/>
-      <c r="AW10" s="79"/>
-      <c r="AX10" s="79"/>
-      <c r="AY10" s="79"/>
+      <c r="AT10" s="83"/>
+      <c r="AU10" s="83"/>
+      <c r="AV10" s="83"/>
+      <c r="AW10" s="83"/>
+      <c r="AX10" s="83"/>
+      <c r="AY10" s="83"/>
+      <c r="AZ10" s="83"/>
+      <c r="BA10" s="83"/>
+      <c r="BB10" s="83"/>
     </row>
     <row r="11" spans="1:288" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
@@ -7024,9 +7093,15 @@
       <c r="AQ11" s="103"/>
       <c r="AR11" s="103"/>
       <c r="AS11" s="103"/>
-      <c r="AT11" s="103"/>
-      <c r="AU11" s="103"/>
+      <c r="AT11" s="83"/>
+      <c r="AU11" s="83"/>
       <c r="AV11" s="83"/>
+      <c r="AW11" s="83"/>
+      <c r="AX11" s="83"/>
+      <c r="AY11" s="83"/>
+      <c r="AZ11" s="83"/>
+      <c r="BA11" s="83"/>
+      <c r="BB11" s="83"/>
     </row>
     <row r="12" spans="1:288" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46"/>
@@ -7074,12 +7149,15 @@
       <c r="AQ12" s="48"/>
       <c r="AR12" s="48"/>
       <c r="AS12" s="48"/>
-      <c r="AT12" s="48"/>
-      <c r="AU12" s="48"/>
-      <c r="AV12" s="54"/>
-      <c r="AW12" s="79"/>
-      <c r="AX12" s="79"/>
-      <c r="AY12" s="79"/>
+      <c r="AT12" s="83"/>
+      <c r="AU12" s="83"/>
+      <c r="AV12" s="83"/>
+      <c r="AW12" s="83"/>
+      <c r="AX12" s="83"/>
+      <c r="AY12" s="83"/>
+      <c r="AZ12" s="83"/>
+      <c r="BA12" s="83"/>
+      <c r="BB12" s="83"/>
     </row>
     <row r="13" spans="1:288" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="46"/>
@@ -7127,11 +7205,15 @@
       <c r="AQ13" s="48"/>
       <c r="AR13" s="48"/>
       <c r="AS13" s="48"/>
-      <c r="AT13" s="48"/>
-      <c r="AU13" s="48"/>
-      <c r="AW13" s="79"/>
-      <c r="AX13" s="79"/>
-      <c r="AY13" s="79"/>
+      <c r="AT13" s="83"/>
+      <c r="AU13" s="83"/>
+      <c r="AV13" s="83"/>
+      <c r="AW13" s="83"/>
+      <c r="AX13" s="83"/>
+      <c r="AY13" s="83"/>
+      <c r="AZ13" s="83"/>
+      <c r="BA13" s="83"/>
+      <c r="BB13" s="83"/>
     </row>
     <row r="14" spans="1:288" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="46"/>
@@ -7179,11 +7261,15 @@
       <c r="AQ14" s="48"/>
       <c r="AR14" s="48"/>
       <c r="AS14" s="48"/>
-      <c r="AT14" s="48"/>
-      <c r="AU14" s="48"/>
-      <c r="AW14" s="79"/>
-      <c r="AX14" s="79"/>
-      <c r="AY14" s="79"/>
+      <c r="AT14" s="83"/>
+      <c r="AU14" s="83"/>
+      <c r="AV14" s="83"/>
+      <c r="AW14" s="83"/>
+      <c r="AX14" s="83"/>
+      <c r="AY14" s="83"/>
+      <c r="AZ14" s="83"/>
+      <c r="BA14" s="83"/>
+      <c r="BB14" s="83"/>
     </row>
     <row r="15" spans="1:288" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="46"/>
@@ -7231,11 +7317,15 @@
       <c r="AQ15" s="48"/>
       <c r="AR15" s="48"/>
       <c r="AS15" s="48"/>
-      <c r="AT15" s="48"/>
-      <c r="AU15" s="48"/>
-      <c r="AW15" s="79"/>
-      <c r="AX15" s="79"/>
-      <c r="AY15" s="79"/>
+      <c r="AT15" s="83"/>
+      <c r="AU15" s="83"/>
+      <c r="AV15" s="83"/>
+      <c r="AW15" s="83"/>
+      <c r="AX15" s="83"/>
+      <c r="AY15" s="83"/>
+      <c r="AZ15" s="83"/>
+      <c r="BA15" s="83"/>
+      <c r="BB15" s="83"/>
     </row>
     <row r="16" spans="1:288" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="46"/>
@@ -7283,13 +7373,17 @@
       <c r="AQ16" s="48"/>
       <c r="AR16" s="48"/>
       <c r="AS16" s="48"/>
-      <c r="AT16" s="48"/>
-      <c r="AU16" s="48"/>
-      <c r="AW16" s="79"/>
-      <c r="AX16" s="79"/>
-      <c r="AY16" s="79"/>
-    </row>
-    <row r="17" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AT16" s="83"/>
+      <c r="AU16" s="83"/>
+      <c r="AV16" s="83"/>
+      <c r="AW16" s="83"/>
+      <c r="AX16" s="83"/>
+      <c r="AY16" s="83"/>
+      <c r="AZ16" s="83"/>
+      <c r="BA16" s="83"/>
+      <c r="BB16" s="83"/>
+    </row>
+    <row r="17" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="46"/>
       <c r="B17" s="38"/>
       <c r="C17" s="69"/>
@@ -7335,13 +7429,17 @@
       <c r="AQ17" s="48"/>
       <c r="AR17" s="48"/>
       <c r="AS17" s="48"/>
-      <c r="AT17" s="48"/>
-      <c r="AU17" s="48"/>
-      <c r="AW17" s="79"/>
-      <c r="AX17" s="79"/>
-      <c r="AY17" s="79"/>
-    </row>
-    <row r="18" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AT17" s="83"/>
+      <c r="AU17" s="83"/>
+      <c r="AV17" s="83"/>
+      <c r="AW17" s="83"/>
+      <c r="AX17" s="83"/>
+      <c r="AY17" s="83"/>
+      <c r="AZ17" s="83"/>
+      <c r="BA17" s="83"/>
+      <c r="BB17" s="83"/>
+    </row>
+    <row r="18" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="46"/>
       <c r="B18" s="38"/>
       <c r="C18" s="69"/>
@@ -7387,13 +7485,17 @@
       <c r="AQ18" s="48"/>
       <c r="AR18" s="48"/>
       <c r="AS18" s="48"/>
-      <c r="AT18" s="48"/>
-      <c r="AU18" s="48"/>
-      <c r="AW18" s="79"/>
-      <c r="AX18" s="79"/>
-      <c r="AY18" s="79"/>
-    </row>
-    <row r="19" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AT18" s="83"/>
+      <c r="AU18" s="83"/>
+      <c r="AV18" s="83"/>
+      <c r="AW18" s="83"/>
+      <c r="AX18" s="83"/>
+      <c r="AY18" s="83"/>
+      <c r="AZ18" s="83"/>
+      <c r="BA18" s="83"/>
+      <c r="BB18" s="83"/>
+    </row>
+    <row r="19" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
       <c r="B19" s="38"/>
       <c r="C19" s="69"/>
@@ -7439,13 +7541,17 @@
       <c r="AQ19" s="48"/>
       <c r="AR19" s="48"/>
       <c r="AS19" s="48"/>
-      <c r="AT19" s="48"/>
-      <c r="AU19" s="48"/>
-      <c r="AW19" s="79"/>
-      <c r="AX19" s="79"/>
-      <c r="AY19" s="79"/>
-    </row>
-    <row r="20" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AT19" s="83"/>
+      <c r="AU19" s="83"/>
+      <c r="AV19" s="83"/>
+      <c r="AW19" s="83"/>
+      <c r="AX19" s="83"/>
+      <c r="AY19" s="83"/>
+      <c r="AZ19" s="83"/>
+      <c r="BA19" s="83"/>
+      <c r="BB19" s="83"/>
+    </row>
+    <row r="20" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="25"/>
       <c r="C20" s="69"/>
@@ -7491,10 +7597,17 @@
       <c r="AQ20" s="48"/>
       <c r="AR20" s="48"/>
       <c r="AS20" s="48"/>
-      <c r="AT20" s="48"/>
-      <c r="AU20" s="48"/>
-    </row>
-    <row r="21" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AT20" s="83"/>
+      <c r="AU20" s="83"/>
+      <c r="AV20" s="83"/>
+      <c r="AW20" s="83"/>
+      <c r="AX20" s="83"/>
+      <c r="AY20" s="83"/>
+      <c r="AZ20" s="83"/>
+      <c r="BA20" s="83"/>
+      <c r="BB20" s="83"/>
+    </row>
+    <row r="21" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="25"/>
       <c r="C21" s="69"/>
@@ -7540,10 +7653,17 @@
       <c r="AQ21" s="48"/>
       <c r="AR21" s="48"/>
       <c r="AS21" s="48"/>
-      <c r="AT21" s="48"/>
-      <c r="AU21" s="48"/>
-    </row>
-    <row r="22" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AT21" s="83"/>
+      <c r="AU21" s="83"/>
+      <c r="AV21" s="83"/>
+      <c r="AW21" s="83"/>
+      <c r="AX21" s="83"/>
+      <c r="AY21" s="83"/>
+      <c r="AZ21" s="83"/>
+      <c r="BA21" s="83"/>
+      <c r="BB21" s="83"/>
+    </row>
+    <row r="22" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="25"/>
       <c r="C22" s="69"/>
@@ -7589,10 +7709,17 @@
       <c r="AQ22" s="48"/>
       <c r="AR22" s="48"/>
       <c r="AS22" s="48"/>
-      <c r="AT22" s="48"/>
-      <c r="AU22" s="48"/>
-    </row>
-    <row r="23" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AT22" s="83"/>
+      <c r="AU22" s="83"/>
+      <c r="AV22" s="83"/>
+      <c r="AW22" s="83"/>
+      <c r="AX22" s="83"/>
+      <c r="AY22" s="83"/>
+      <c r="AZ22" s="83"/>
+      <c r="BA22" s="83"/>
+      <c r="BB22" s="83"/>
+    </row>
+    <row r="23" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="30"/>
       <c r="C23" s="67"/>
@@ -7638,10 +7765,17 @@
       <c r="AQ23" s="48"/>
       <c r="AR23" s="48"/>
       <c r="AS23" s="48"/>
-      <c r="AT23" s="48"/>
-      <c r="AU23" s="48"/>
-    </row>
-    <row r="24" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AT23" s="83"/>
+      <c r="AU23" s="83"/>
+      <c r="AV23" s="83"/>
+      <c r="AW23" s="83"/>
+      <c r="AX23" s="83"/>
+      <c r="AY23" s="83"/>
+      <c r="AZ23" s="83"/>
+      <c r="BA23" s="83"/>
+      <c r="BB23" s="83"/>
+    </row>
+    <row r="24" spans="1:54" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="70"/>
@@ -7687,10 +7821,17 @@
       <c r="AQ24" s="48"/>
       <c r="AR24" s="48"/>
       <c r="AS24" s="48"/>
-      <c r="AT24" s="48"/>
-      <c r="AU24" s="48"/>
-    </row>
-    <row r="25" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AT24" s="83"/>
+      <c r="AU24" s="83"/>
+      <c r="AV24" s="83"/>
+      <c r="AW24" s="83"/>
+      <c r="AX24" s="83"/>
+      <c r="AY24" s="83"/>
+      <c r="AZ24" s="83"/>
+      <c r="BA24" s="83"/>
+      <c r="BB24" s="83"/>
+    </row>
+    <row r="25" spans="1:54" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71"/>
@@ -7736,10 +7877,17 @@
       <c r="AQ25" s="19"/>
       <c r="AR25" s="19"/>
       <c r="AS25" s="19"/>
-      <c r="AT25" s="19"/>
-      <c r="AU25" s="19"/>
-    </row>
-    <row r="26" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AT25" s="83"/>
+      <c r="AU25" s="83"/>
+      <c r="AV25" s="83"/>
+      <c r="AW25" s="83"/>
+      <c r="AX25" s="83"/>
+      <c r="AY25" s="83"/>
+      <c r="AZ25" s="83"/>
+      <c r="BA25" s="83"/>
+      <c r="BB25" s="83"/>
+    </row>
+    <row r="26" spans="1:54" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="24"/>
       <c r="C26" s="65"/>
@@ -7785,10 +7933,17 @@
       <c r="AQ26" s="24"/>
       <c r="AR26" s="24"/>
       <c r="AS26" s="24"/>
-      <c r="AT26" s="24"/>
-      <c r="AU26" s="24"/>
-    </row>
-    <row r="27" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AT26" s="83"/>
+      <c r="AU26" s="83"/>
+      <c r="AV26" s="83"/>
+      <c r="AW26" s="83"/>
+      <c r="AX26" s="83"/>
+      <c r="AY26" s="83"/>
+      <c r="AZ26" s="83"/>
+      <c r="BA26" s="83"/>
+      <c r="BB26" s="83"/>
+    </row>
+    <row r="27" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="25"/>
       <c r="C27" s="69"/>
@@ -7834,10 +7989,17 @@
       <c r="AQ27" s="40"/>
       <c r="AR27" s="40"/>
       <c r="AS27" s="40"/>
-      <c r="AT27" s="40"/>
-      <c r="AU27" s="40"/>
-    </row>
-    <row r="28" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AT27" s="83"/>
+      <c r="AU27" s="83"/>
+      <c r="AV27" s="83"/>
+      <c r="AW27" s="83"/>
+      <c r="AX27" s="83"/>
+      <c r="AY27" s="83"/>
+      <c r="AZ27" s="83"/>
+      <c r="BA27" s="83"/>
+      <c r="BB27" s="83"/>
+    </row>
+    <row r="28" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="25"/>
       <c r="C28" s="69"/>
@@ -7883,10 +8045,17 @@
       <c r="AQ28" s="40"/>
       <c r="AR28" s="40"/>
       <c r="AS28" s="40"/>
-      <c r="AT28" s="40"/>
-      <c r="AU28" s="40"/>
-    </row>
-    <row r="29" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AT28" s="83"/>
+      <c r="AU28" s="83"/>
+      <c r="AV28" s="83"/>
+      <c r="AW28" s="83"/>
+      <c r="AX28" s="83"/>
+      <c r="AY28" s="83"/>
+      <c r="AZ28" s="83"/>
+      <c r="BA28" s="83"/>
+      <c r="BB28" s="83"/>
+    </row>
+    <row r="29" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="30"/>
       <c r="C29" s="67"/>
@@ -7932,10 +8101,17 @@
       <c r="AQ29" s="30"/>
       <c r="AR29" s="30"/>
       <c r="AS29" s="30"/>
-      <c r="AT29" s="30"/>
-      <c r="AU29" s="30"/>
-    </row>
-    <row r="30" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AT29" s="83"/>
+      <c r="AU29" s="83"/>
+      <c r="AV29" s="83"/>
+      <c r="AW29" s="83"/>
+      <c r="AX29" s="83"/>
+      <c r="AY29" s="83"/>
+      <c r="AZ29" s="83"/>
+      <c r="BA29" s="83"/>
+      <c r="BB29" s="83"/>
+    </row>
+    <row r="30" spans="1:54" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="70"/>
@@ -7981,10 +8157,17 @@
       <c r="AQ30" s="36"/>
       <c r="AR30" s="36"/>
       <c r="AS30" s="36"/>
-      <c r="AT30" s="36"/>
-      <c r="AU30" s="36"/>
-    </row>
-    <row r="31" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AT30" s="83"/>
+      <c r="AU30" s="83"/>
+      <c r="AV30" s="83"/>
+      <c r="AW30" s="83"/>
+      <c r="AX30" s="83"/>
+      <c r="AY30" s="83"/>
+      <c r="AZ30" s="83"/>
+      <c r="BA30" s="83"/>
+      <c r="BB30" s="83"/>
+    </row>
+    <row r="31" spans="1:54" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="72"/>
@@ -8030,10 +8213,17 @@
       <c r="AQ31" s="22"/>
       <c r="AR31" s="22"/>
       <c r="AS31" s="22"/>
-      <c r="AT31" s="22"/>
-      <c r="AU31" s="22"/>
-    </row>
-    <row r="32" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AT31" s="83"/>
+      <c r="AU31" s="83"/>
+      <c r="AV31" s="83"/>
+      <c r="AW31" s="83"/>
+      <c r="AX31" s="83"/>
+      <c r="AY31" s="83"/>
+      <c r="AZ31" s="83"/>
+      <c r="BA31" s="83"/>
+      <c r="BB31" s="83"/>
+    </row>
+    <row r="32" spans="1:54" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="24"/>
       <c r="C32" s="65"/>
@@ -8079,10 +8269,17 @@
       <c r="AQ32" s="24"/>
       <c r="AR32" s="24"/>
       <c r="AS32" s="24"/>
-      <c r="AT32" s="24"/>
-      <c r="AU32" s="24"/>
-    </row>
-    <row r="33" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AT32" s="83"/>
+      <c r="AU32" s="83"/>
+      <c r="AV32" s="83"/>
+      <c r="AW32" s="83"/>
+      <c r="AX32" s="83"/>
+      <c r="AY32" s="83"/>
+      <c r="AZ32" s="83"/>
+      <c r="BA32" s="83"/>
+      <c r="BB32" s="83"/>
+    </row>
+    <row r="33" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="25"/>
       <c r="C33" s="69"/>
@@ -8128,10 +8325,17 @@
       <c r="AQ33" s="40"/>
       <c r="AR33" s="40"/>
       <c r="AS33" s="40"/>
-      <c r="AT33" s="40"/>
-      <c r="AU33" s="40"/>
-    </row>
-    <row r="34" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AT33" s="83"/>
+      <c r="AU33" s="83"/>
+      <c r="AV33" s="83"/>
+      <c r="AW33" s="83"/>
+      <c r="AX33" s="83"/>
+      <c r="AY33" s="83"/>
+      <c r="AZ33" s="83"/>
+      <c r="BA33" s="83"/>
+      <c r="BB33" s="83"/>
+    </row>
+    <row r="34" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
       <c r="B34" s="25"/>
       <c r="C34" s="69"/>
@@ -8177,10 +8381,17 @@
       <c r="AQ34" s="40"/>
       <c r="AR34" s="40"/>
       <c r="AS34" s="40"/>
-      <c r="AT34" s="40"/>
-      <c r="AU34" s="40"/>
-    </row>
-    <row r="35" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AT34" s="83"/>
+      <c r="AU34" s="83"/>
+      <c r="AV34" s="83"/>
+      <c r="AW34" s="83"/>
+      <c r="AX34" s="83"/>
+      <c r="AY34" s="83"/>
+      <c r="AZ34" s="83"/>
+      <c r="BA34" s="83"/>
+      <c r="BB34" s="83"/>
+    </row>
+    <row r="35" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="30"/>
       <c r="C35" s="67"/>
@@ -8226,10 +8437,17 @@
       <c r="AQ35" s="30"/>
       <c r="AR35" s="30"/>
       <c r="AS35" s="30"/>
-      <c r="AT35" s="30"/>
-      <c r="AU35" s="30"/>
-    </row>
-    <row r="36" spans="1:47" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AT35" s="83"/>
+      <c r="AU35" s="83"/>
+      <c r="AV35" s="83"/>
+      <c r="AW35" s="83"/>
+      <c r="AX35" s="83"/>
+      <c r="AY35" s="83"/>
+      <c r="AZ35" s="83"/>
+      <c r="BA35" s="83"/>
+      <c r="BB35" s="83"/>
+    </row>
+    <row r="36" spans="1:54" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="70"/>
@@ -8275,10 +8493,17 @@
       <c r="AQ36" s="36"/>
       <c r="AR36" s="36"/>
       <c r="AS36" s="36"/>
-      <c r="AT36" s="36"/>
-      <c r="AU36" s="36"/>
-    </row>
-    <row r="37" spans="1:47" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AT36" s="83"/>
+      <c r="AU36" s="83"/>
+      <c r="AV36" s="83"/>
+      <c r="AW36" s="83"/>
+      <c r="AX36" s="83"/>
+      <c r="AY36" s="83"/>
+      <c r="AZ36" s="83"/>
+      <c r="BA36" s="83"/>
+      <c r="BB36" s="83"/>
+    </row>
+    <row r="37" spans="1:54" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="72"/>
@@ -8324,10 +8549,17 @@
       <c r="AQ37" s="22"/>
       <c r="AR37" s="22"/>
       <c r="AS37" s="22"/>
-      <c r="AT37" s="22"/>
-      <c r="AU37" s="22"/>
-    </row>
-    <row r="38" spans="1:47" ht="15" x14ac:dyDescent="0.25">
+      <c r="AT37" s="83"/>
+      <c r="AU37" s="83"/>
+      <c r="AV37" s="83"/>
+      <c r="AW37" s="83"/>
+      <c r="AX37" s="83"/>
+      <c r="AY37" s="83"/>
+      <c r="AZ37" s="83"/>
+      <c r="BA37" s="83"/>
+      <c r="BB37" s="83"/>
+    </row>
+    <row r="38" spans="1:54" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="24"/>
       <c r="C38" s="65"/>
@@ -8373,10 +8605,17 @@
       <c r="AQ38" s="24"/>
       <c r="AR38" s="24"/>
       <c r="AS38" s="24"/>
-      <c r="AT38" s="24"/>
-      <c r="AU38" s="24"/>
-    </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AT38" s="83"/>
+      <c r="AU38" s="83"/>
+      <c r="AV38" s="83"/>
+      <c r="AW38" s="83"/>
+      <c r="AX38" s="83"/>
+      <c r="AY38" s="83"/>
+      <c r="AZ38" s="83"/>
+      <c r="BA38" s="83"/>
+      <c r="BB38" s="83"/>
+    </row>
+    <row r="39" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
       <c r="B39" s="25"/>
       <c r="C39" s="69"/>
@@ -8422,10 +8661,17 @@
       <c r="AQ39" s="40"/>
       <c r="AR39" s="40"/>
       <c r="AS39" s="40"/>
-      <c r="AT39" s="40"/>
-      <c r="AU39" s="40"/>
-    </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AT39" s="83"/>
+      <c r="AU39" s="83"/>
+      <c r="AV39" s="83"/>
+      <c r="AW39" s="83"/>
+      <c r="AX39" s="83"/>
+      <c r="AY39" s="83"/>
+      <c r="AZ39" s="83"/>
+      <c r="BA39" s="83"/>
+      <c r="BB39" s="83"/>
+    </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
       <c r="B40" s="25"/>
       <c r="C40" s="69"/>
@@ -8471,10 +8717,17 @@
       <c r="AQ40" s="40"/>
       <c r="AR40" s="40"/>
       <c r="AS40" s="40"/>
-      <c r="AT40" s="40"/>
-      <c r="AU40" s="40"/>
-    </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AT40" s="83"/>
+      <c r="AU40" s="83"/>
+      <c r="AV40" s="83"/>
+      <c r="AW40" s="83"/>
+      <c r="AX40" s="83"/>
+      <c r="AY40" s="83"/>
+      <c r="AZ40" s="83"/>
+      <c r="BA40" s="83"/>
+      <c r="BB40" s="83"/>
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A41" s="35"/>
       <c r="B41" s="30"/>
       <c r="C41" s="67"/>
@@ -8520,10 +8773,17 @@
       <c r="AQ41" s="30"/>
       <c r="AR41" s="30"/>
       <c r="AS41" s="30"/>
-      <c r="AT41" s="30"/>
-      <c r="AU41" s="30"/>
-    </row>
-    <row r="42" spans="1:47" ht="15" x14ac:dyDescent="0.25">
+      <c r="AT41" s="83"/>
+      <c r="AU41" s="83"/>
+      <c r="AV41" s="83"/>
+      <c r="AW41" s="83"/>
+      <c r="AX41" s="83"/>
+      <c r="AY41" s="83"/>
+      <c r="AZ41" s="83"/>
+      <c r="BA41" s="83"/>
+      <c r="BB41" s="83"/>
+    </row>
+    <row r="42" spans="1:54" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
       <c r="C42" s="70"/>
@@ -8572,7 +8832,7 @@
       <c r="AT42" s="36"/>
       <c r="AU42" s="36"/>
     </row>
-    <row r="43" spans="1:47" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="72"/>
@@ -8621,7 +8881,7 @@
       <c r="AT43" s="22"/>
       <c r="AU43" s="22"/>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A44" s="34"/>
       <c r="B44" s="30"/>
       <c r="C44" s="67"/>
@@ -8670,7 +8930,7 @@
       <c r="AT44" s="30"/>
       <c r="AU44" s="30"/>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A45" s="35"/>
       <c r="B45" s="25"/>
       <c r="C45" s="70"/>
@@ -8719,7 +8979,7 @@
       <c r="AT45" s="36"/>
       <c r="AU45" s="36"/>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.2">
       <c r="X47" s="8"/>
       <c r="AE47" s="8"/>
       <c r="AF47" s="8"/>
@@ -8738,10 +8998,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CQ59"/>
+  <dimension ref="A1:CW59"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AT11" sqref="AT11:AZ51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8778,19 +9038,21 @@
     <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="13.42578125" customWidth="1"/>
     <col min="42" max="42" width="11.42578125" style="10"/>
-    <col min="43" max="45" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="46" max="52" width="11.42578125" style="10"/>
+    <col min="43" max="47" width="14.28515625" customWidth="1"/>
+    <col min="48" max="48" width="12.28515625" customWidth="1"/>
+    <col min="49" max="51" width="11.42578125" style="10" hidden="1" customWidth="1"/>
+    <col min="52" max="58" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -8826,8 +9088,13 @@
       <c r="AM1" s="24"/>
       <c r="AN1" s="24"/>
       <c r="AO1" s="24"/>
-    </row>
-    <row r="2" spans="1:95" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+    </row>
+    <row r="2" spans="1:101" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="51" t="s">
         <v>23</v>
@@ -8871,16 +9138,21 @@
       <c r="AM2" s="24"/>
       <c r="AN2" s="24"/>
       <c r="AO2" s="24"/>
-    </row>
-    <row r="3" spans="1:95" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+    </row>
+    <row r="3" spans="1:101" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
       <c r="G3" s="30"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -8917,26 +9189,31 @@
       <c r="AN3" s="24"/>
       <c r="AO3" s="24"/>
       <c r="AP3" s="110"/>
-      <c r="AQ3" s="110"/>
-      <c r="AR3" s="110"/>
-      <c r="AS3" s="110"/>
-      <c r="AT3" s="110"/>
-      <c r="AU3" s="110"/>
-      <c r="AV3" s="110"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
+      <c r="AU3" s="24"/>
       <c r="AW3" s="110"/>
       <c r="AX3" s="110"/>
       <c r="AY3" s="110"/>
       <c r="AZ3" s="110"/>
-    </row>
-    <row r="4" spans="1:95" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="BA3" s="110"/>
+      <c r="BB3" s="110"/>
+      <c r="BC3" s="110"/>
+      <c r="BD3" s="110"/>
+      <c r="BE3" s="110"/>
+      <c r="BF3" s="110"/>
+    </row>
+    <row r="4" spans="1:101" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="185" t="s">
+      <c r="B4" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
       <c r="G4" s="67"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -8972,8 +9249,13 @@
       <c r="AM4" s="24"/>
       <c r="AN4" s="24"/>
       <c r="AO4" s="24"/>
-    </row>
-    <row r="5" spans="1:95" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="24"/>
+      <c r="AU4" s="24"/>
+    </row>
+    <row r="5" spans="1:101" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="29" t="s">
         <v>21</v>
@@ -9017,8 +9299,13 @@
       <c r="AM5" s="24"/>
       <c r="AN5" s="24"/>
       <c r="AO5" s="24"/>
-    </row>
-    <row r="6" spans="1:95" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="24"/>
+      <c r="AS5" s="24"/>
+      <c r="AT5" s="24"/>
+      <c r="AU5" s="24"/>
+    </row>
+    <row r="6" spans="1:101" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="29" t="s">
         <v>22</v>
@@ -9062,12 +9349,12 @@
       <c r="AM6" s="24"/>
       <c r="AN6" s="24"/>
       <c r="AO6" s="24"/>
-      <c r="BA6"/>
-      <c r="BB6"/>
-      <c r="BC6"/>
-      <c r="BD6"/>
-      <c r="BE6"/>
-      <c r="BF6"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="24"/>
+      <c r="AS6" s="24"/>
+      <c r="AT6" s="24"/>
+      <c r="AU6" s="24"/>
+      <c r="AV6"/>
       <c r="BG6"/>
       <c r="BH6"/>
       <c r="BI6"/>
@@ -9105,8 +9392,14 @@
       <c r="CO6"/>
       <c r="CP6"/>
       <c r="CQ6"/>
-    </row>
-    <row r="7" spans="1:95" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CR6"/>
+      <c r="CS6"/>
+      <c r="CT6"/>
+      <c r="CU6"/>
+      <c r="CV6"/>
+      <c r="CW6"/>
+    </row>
+    <row r="7" spans="1:101" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -9135,22 +9428,17 @@
       <c r="Z7" s="16"/>
       <c r="AA7" s="18"/>
       <c r="AP7" s="110"/>
-      <c r="AQ7" s="110"/>
-      <c r="AR7" s="110"/>
-      <c r="AS7" s="110"/>
-      <c r="AT7" s="110"/>
-      <c r="AU7" s="110"/>
       <c r="AV7" s="110"/>
       <c r="AW7" s="110"/>
       <c r="AX7" s="110"/>
       <c r="AY7" s="110"/>
       <c r="AZ7" s="110"/>
-      <c r="BA7" s="9"/>
-      <c r="BB7" s="9"/>
-      <c r="BC7" s="9"/>
-      <c r="BD7" s="9"/>
-      <c r="BE7" s="9"/>
-      <c r="BF7" s="9"/>
+      <c r="BA7" s="110"/>
+      <c r="BB7" s="110"/>
+      <c r="BC7" s="110"/>
+      <c r="BD7" s="110"/>
+      <c r="BE7" s="110"/>
+      <c r="BF7" s="110"/>
       <c r="BG7" s="9"/>
       <c r="BH7" s="9"/>
       <c r="BI7" s="9"/>
@@ -9188,8 +9476,14 @@
       <c r="CO7" s="9"/>
       <c r="CP7" s="9"/>
       <c r="CQ7" s="9"/>
-    </row>
-    <row r="8" spans="1:95" s="45" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="CR7" s="9"/>
+      <c r="CS7" s="9"/>
+      <c r="CT7" s="9"/>
+      <c r="CU7" s="9"/>
+      <c r="CV7" s="9"/>
+      <c r="CW7" s="9"/>
+    </row>
+    <row r="8" spans="1:101" s="45" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>16</v>
       </c>
@@ -9316,21 +9610,33 @@
       <c r="AP8" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="AQ8" s="128" t="s">
+      <c r="AQ8" s="130" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR8" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS8" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT8" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU8" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV8" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW8" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="AR8" s="128" t="s">
+      <c r="AX8" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="AS8" s="128" t="s">
+      <c r="AY8" s="128" t="s">
         <v>101</v>
       </c>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="10"/>
-      <c r="AY8" s="10"/>
       <c r="AZ8" s="10"/>
       <c r="BA8" s="10"/>
       <c r="BB8" s="10"/>
@@ -9375,8 +9681,14 @@
       <c r="CO8" s="10"/>
       <c r="CP8" s="10"/>
       <c r="CQ8" s="10"/>
-    </row>
-    <row r="9" spans="1:95" s="79" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="CR8" s="10"/>
+      <c r="CS8" s="10"/>
+      <c r="CT8" s="10"/>
+      <c r="CU8" s="10"/>
+      <c r="CV8" s="10"/>
+      <c r="CW8" s="10"/>
+    </row>
+    <row r="9" spans="1:101" s="79" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49"/>
       <c r="B9" s="5"/>
       <c r="C9" s="63"/>
@@ -9413,8 +9725,14 @@
       <c r="AL9" s="102"/>
       <c r="AM9" s="102"/>
       <c r="AN9" s="103"/>
-    </row>
-    <row r="10" spans="1:95" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ9" s="83"/>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="83"/>
+      <c r="AV9" s="83"/>
+    </row>
+    <row r="10" spans="1:101" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="49"/>
       <c r="B10" s="5"/>
       <c r="C10" s="63"/>
@@ -9452,8 +9770,14 @@
       <c r="AM10" s="102"/>
       <c r="AN10" s="103"/>
       <c r="AO10" s="119"/>
-    </row>
-    <row r="11" spans="1:95" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ10" s="48"/>
+      <c r="AR10" s="48"/>
+      <c r="AS10" s="48"/>
+      <c r="AT10" s="48"/>
+      <c r="AU10" s="48"/>
+      <c r="AV10" s="54"/>
+    </row>
+    <row r="11" spans="1:101" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="5"/>
       <c r="C11" s="63"/>
@@ -9491,8 +9815,18 @@
       <c r="AM11" s="102"/>
       <c r="AN11" s="103"/>
       <c r="AO11" s="102"/>
-    </row>
-    <row r="12" spans="1:95" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ11" s="103"/>
+      <c r="AR11" s="103"/>
+      <c r="AS11" s="103"/>
+      <c r="AT11" s="48"/>
+      <c r="AU11" s="48"/>
+      <c r="AV11" s="48"/>
+      <c r="AW11" s="48"/>
+      <c r="AX11" s="48"/>
+      <c r="AY11" s="48"/>
+      <c r="AZ11" s="48"/>
+    </row>
+    <row r="12" spans="1:101" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
       <c r="B12" s="5"/>
       <c r="C12" s="63"/>
@@ -9530,8 +9864,18 @@
       <c r="AM12" s="102"/>
       <c r="AN12" s="103"/>
       <c r="AO12" s="48"/>
-    </row>
-    <row r="13" spans="1:95" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ12" s="48"/>
+      <c r="AR12" s="48"/>
+      <c r="AS12" s="48"/>
+      <c r="AT12" s="48"/>
+      <c r="AU12" s="48"/>
+      <c r="AV12" s="48"/>
+      <c r="AW12" s="48"/>
+      <c r="AX12" s="48"/>
+      <c r="AY12" s="48"/>
+      <c r="AZ12" s="48"/>
+    </row>
+    <row r="13" spans="1:101" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
       <c r="B13" s="5"/>
       <c r="C13" s="63"/>
@@ -9569,8 +9913,18 @@
       <c r="AM13" s="102"/>
       <c r="AN13" s="103"/>
       <c r="AO13" s="48"/>
-    </row>
-    <row r="14" spans="1:95" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ13" s="48"/>
+      <c r="AR13" s="48"/>
+      <c r="AS13" s="48"/>
+      <c r="AT13" s="48"/>
+      <c r="AU13" s="48"/>
+      <c r="AV13" s="48"/>
+      <c r="AW13" s="48"/>
+      <c r="AX13" s="48"/>
+      <c r="AY13" s="48"/>
+      <c r="AZ13" s="48"/>
+    </row>
+    <row r="14" spans="1:101" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
       <c r="B14" s="5"/>
       <c r="C14" s="63"/>
@@ -9608,8 +9962,18 @@
       <c r="AM14" s="102"/>
       <c r="AN14" s="103"/>
       <c r="AO14" s="48"/>
-    </row>
-    <row r="15" spans="1:95" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="48"/>
+      <c r="AS14" s="48"/>
+      <c r="AT14" s="48"/>
+      <c r="AU14" s="48"/>
+      <c r="AV14" s="48"/>
+      <c r="AW14" s="48"/>
+      <c r="AX14" s="48"/>
+      <c r="AY14" s="48"/>
+      <c r="AZ14" s="48"/>
+    </row>
+    <row r="15" spans="1:101" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="B15" s="5"/>
       <c r="C15" s="63"/>
@@ -9647,8 +10011,18 @@
       <c r="AM15" s="102"/>
       <c r="AN15" s="103"/>
       <c r="AO15" s="48"/>
-    </row>
-    <row r="16" spans="1:95" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ15" s="48"/>
+      <c r="AR15" s="48"/>
+      <c r="AS15" s="48"/>
+      <c r="AT15" s="48"/>
+      <c r="AU15" s="48"/>
+      <c r="AV15" s="48"/>
+      <c r="AW15" s="48"/>
+      <c r="AX15" s="48"/>
+      <c r="AY15" s="48"/>
+      <c r="AZ15" s="48"/>
+    </row>
+    <row r="16" spans="1:101" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="B16" s="5"/>
       <c r="C16" s="63"/>
@@ -9686,8 +10060,18 @@
       <c r="AM16" s="102"/>
       <c r="AN16" s="103"/>
       <c r="AO16" s="48"/>
-    </row>
-    <row r="17" spans="1:41" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ16" s="48"/>
+      <c r="AR16" s="48"/>
+      <c r="AS16" s="48"/>
+      <c r="AT16" s="48"/>
+      <c r="AU16" s="48"/>
+      <c r="AV16" s="48"/>
+      <c r="AW16" s="48"/>
+      <c r="AX16" s="48"/>
+      <c r="AY16" s="48"/>
+      <c r="AZ16" s="48"/>
+    </row>
+    <row r="17" spans="1:52" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
       <c r="B17" s="5"/>
       <c r="C17" s="63"/>
@@ -9725,8 +10109,18 @@
       <c r="AM17" s="102"/>
       <c r="AN17" s="103"/>
       <c r="AO17" s="48"/>
-    </row>
-    <row r="18" spans="1:41" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ17" s="48"/>
+      <c r="AR17" s="48"/>
+      <c r="AS17" s="48"/>
+      <c r="AT17" s="48"/>
+      <c r="AU17" s="48"/>
+      <c r="AV17" s="48"/>
+      <c r="AW17" s="48"/>
+      <c r="AX17" s="48"/>
+      <c r="AY17" s="48"/>
+      <c r="AZ17" s="48"/>
+    </row>
+    <row r="18" spans="1:52" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="B18" s="5"/>
       <c r="C18" s="63"/>
@@ -9763,8 +10157,18 @@
       <c r="AM18" s="102"/>
       <c r="AN18" s="103"/>
       <c r="AO18" s="48"/>
-    </row>
-    <row r="19" spans="1:41" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ18" s="48"/>
+      <c r="AR18" s="48"/>
+      <c r="AS18" s="48"/>
+      <c r="AT18" s="48"/>
+      <c r="AU18" s="48"/>
+      <c r="AV18" s="48"/>
+      <c r="AW18" s="48"/>
+      <c r="AX18" s="48"/>
+      <c r="AY18" s="48"/>
+      <c r="AZ18" s="48"/>
+    </row>
+    <row r="19" spans="1:52" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="5"/>
       <c r="C19" s="63"/>
@@ -9800,8 +10204,18 @@
       <c r="AM19" s="102"/>
       <c r="AN19" s="103"/>
       <c r="AO19" s="48"/>
-    </row>
-    <row r="20" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="48"/>
+      <c r="AS19" s="48"/>
+      <c r="AT19" s="48"/>
+      <c r="AU19" s="48"/>
+      <c r="AV19" s="48"/>
+      <c r="AW19" s="48"/>
+      <c r="AX19" s="48"/>
+      <c r="AY19" s="48"/>
+      <c r="AZ19" s="48"/>
+    </row>
+    <row r="20" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="46"/>
       <c r="B20" s="38"/>
       <c r="C20" s="40"/>
@@ -9843,8 +10257,19 @@
       <c r="AM20" s="54"/>
       <c r="AN20" s="54"/>
       <c r="AO20" s="48"/>
-    </row>
-    <row r="21" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP20" s="79"/>
+      <c r="AQ20" s="48"/>
+      <c r="AR20" s="48"/>
+      <c r="AS20" s="48"/>
+      <c r="AT20" s="48"/>
+      <c r="AU20" s="48"/>
+      <c r="AV20" s="48"/>
+      <c r="AW20" s="48"/>
+      <c r="AX20" s="48"/>
+      <c r="AY20" s="48"/>
+      <c r="AZ20" s="48"/>
+    </row>
+    <row r="21" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="46"/>
       <c r="B21" s="38"/>
       <c r="C21" s="40"/>
@@ -9886,8 +10311,18 @@
       <c r="AM21" s="48"/>
       <c r="AN21" s="48"/>
       <c r="AO21" s="48"/>
-    </row>
-    <row r="22" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ21" s="48"/>
+      <c r="AR21" s="48"/>
+      <c r="AS21" s="48"/>
+      <c r="AT21" s="48"/>
+      <c r="AU21" s="48"/>
+      <c r="AV21" s="48"/>
+      <c r="AW21" s="48"/>
+      <c r="AX21" s="48"/>
+      <c r="AY21" s="48"/>
+      <c r="AZ21" s="48"/>
+    </row>
+    <row r="22" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="46"/>
       <c r="B22" s="38"/>
       <c r="C22" s="40"/>
@@ -9929,8 +10364,18 @@
       <c r="AM22" s="48"/>
       <c r="AN22" s="48"/>
       <c r="AO22" s="48"/>
-    </row>
-    <row r="23" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ22" s="48"/>
+      <c r="AR22" s="48"/>
+      <c r="AS22" s="48"/>
+      <c r="AT22" s="48"/>
+      <c r="AU22" s="48"/>
+      <c r="AV22" s="48"/>
+      <c r="AW22" s="48"/>
+      <c r="AX22" s="48"/>
+      <c r="AY22" s="48"/>
+      <c r="AZ22" s="48"/>
+    </row>
+    <row r="23" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="46"/>
       <c r="B23" s="38"/>
       <c r="C23" s="40"/>
@@ -9972,8 +10417,18 @@
       <c r="AM23" s="48"/>
       <c r="AN23" s="48"/>
       <c r="AO23" s="48"/>
-    </row>
-    <row r="24" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ23" s="48"/>
+      <c r="AR23" s="48"/>
+      <c r="AS23" s="48"/>
+      <c r="AT23" s="48"/>
+      <c r="AU23" s="48"/>
+      <c r="AV23" s="48"/>
+      <c r="AW23" s="48"/>
+      <c r="AX23" s="48"/>
+      <c r="AY23" s="48"/>
+      <c r="AZ23" s="48"/>
+    </row>
+    <row r="24" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="46"/>
       <c r="B24" s="38"/>
       <c r="C24" s="40"/>
@@ -10015,8 +10470,18 @@
       <c r="AM24" s="48"/>
       <c r="AN24" s="48"/>
       <c r="AO24" s="48"/>
-    </row>
-    <row r="25" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ24" s="48"/>
+      <c r="AR24" s="48"/>
+      <c r="AS24" s="48"/>
+      <c r="AT24" s="48"/>
+      <c r="AU24" s="48"/>
+      <c r="AV24" s="48"/>
+      <c r="AW24" s="48"/>
+      <c r="AX24" s="48"/>
+      <c r="AY24" s="48"/>
+      <c r="AZ24" s="48"/>
+    </row>
+    <row r="25" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" s="38"/>
       <c r="C25" s="40"/>
@@ -10058,8 +10523,18 @@
       <c r="AM25" s="48"/>
       <c r="AN25" s="48"/>
       <c r="AO25" s="19"/>
-    </row>
-    <row r="26" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="48"/>
+      <c r="AU25" s="48"/>
+      <c r="AV25" s="48"/>
+      <c r="AW25" s="48"/>
+      <c r="AX25" s="48"/>
+      <c r="AY25" s="48"/>
+      <c r="AZ25" s="48"/>
+    </row>
+    <row r="26" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" s="38"/>
       <c r="C26" s="40"/>
@@ -10101,8 +10576,18 @@
       <c r="AM26" s="48"/>
       <c r="AN26" s="48"/>
       <c r="AO26" s="24"/>
-    </row>
-    <row r="27" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ26" s="24"/>
+      <c r="AR26" s="24"/>
+      <c r="AS26" s="24"/>
+      <c r="AT26" s="48"/>
+      <c r="AU26" s="48"/>
+      <c r="AV26" s="48"/>
+      <c r="AW26" s="48"/>
+      <c r="AX26" s="48"/>
+      <c r="AY26" s="48"/>
+      <c r="AZ26" s="48"/>
+    </row>
+    <row r="27" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="46"/>
       <c r="B27" s="38"/>
       <c r="C27" s="40"/>
@@ -10144,8 +10629,18 @@
       <c r="AM27" s="48"/>
       <c r="AN27" s="48"/>
       <c r="AO27" s="40"/>
-    </row>
-    <row r="28" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ27" s="40"/>
+      <c r="AR27" s="40"/>
+      <c r="AS27" s="40"/>
+      <c r="AT27" s="48"/>
+      <c r="AU27" s="48"/>
+      <c r="AV27" s="48"/>
+      <c r="AW27" s="48"/>
+      <c r="AX27" s="48"/>
+      <c r="AY27" s="48"/>
+      <c r="AZ27" s="48"/>
+    </row>
+    <row r="28" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="46"/>
       <c r="B28" s="38"/>
       <c r="C28" s="40"/>
@@ -10187,8 +10682,18 @@
       <c r="AM28" s="48"/>
       <c r="AN28" s="48"/>
       <c r="AO28" s="40"/>
-    </row>
-    <row r="29" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ28" s="40"/>
+      <c r="AR28" s="40"/>
+      <c r="AS28" s="40"/>
+      <c r="AT28" s="48"/>
+      <c r="AU28" s="48"/>
+      <c r="AV28" s="48"/>
+      <c r="AW28" s="48"/>
+      <c r="AX28" s="48"/>
+      <c r="AY28" s="48"/>
+      <c r="AZ28" s="48"/>
+    </row>
+    <row r="29" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="46"/>
       <c r="B29" s="38"/>
       <c r="C29" s="40"/>
@@ -10230,8 +10735,18 @@
       <c r="AM29" s="48"/>
       <c r="AN29" s="48"/>
       <c r="AO29" s="30"/>
-    </row>
-    <row r="30" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ29" s="30"/>
+      <c r="AR29" s="30"/>
+      <c r="AS29" s="30"/>
+      <c r="AT29" s="48"/>
+      <c r="AU29" s="48"/>
+      <c r="AV29" s="48"/>
+      <c r="AW29" s="48"/>
+      <c r="AX29" s="48"/>
+      <c r="AY29" s="48"/>
+      <c r="AZ29" s="48"/>
+    </row>
+    <row r="30" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="46"/>
       <c r="B30" s="38"/>
       <c r="C30" s="40"/>
@@ -10273,8 +10788,18 @@
       <c r="AM30" s="48"/>
       <c r="AN30" s="48"/>
       <c r="AO30" s="36"/>
-    </row>
-    <row r="31" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ30" s="36"/>
+      <c r="AR30" s="36"/>
+      <c r="AS30" s="36"/>
+      <c r="AT30" s="48"/>
+      <c r="AU30" s="48"/>
+      <c r="AV30" s="48"/>
+      <c r="AW30" s="48"/>
+      <c r="AX30" s="48"/>
+      <c r="AY30" s="48"/>
+      <c r="AZ30" s="48"/>
+    </row>
+    <row r="31" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="38"/>
       <c r="C31" s="40"/>
@@ -10316,8 +10841,18 @@
       <c r="AM31" s="48"/>
       <c r="AN31" s="48"/>
       <c r="AO31" s="22"/>
-    </row>
-    <row r="32" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ31" s="22"/>
+      <c r="AR31" s="22"/>
+      <c r="AS31" s="22"/>
+      <c r="AT31" s="48"/>
+      <c r="AU31" s="48"/>
+      <c r="AV31" s="48"/>
+      <c r="AW31" s="48"/>
+      <c r="AX31" s="48"/>
+      <c r="AY31" s="48"/>
+      <c r="AZ31" s="48"/>
+    </row>
+    <row r="32" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" s="38"/>
       <c r="C32" s="40"/>
@@ -10359,8 +10894,18 @@
       <c r="AM32" s="48"/>
       <c r="AN32" s="48"/>
       <c r="AO32" s="24"/>
-    </row>
-    <row r="33" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ32" s="24"/>
+      <c r="AR32" s="24"/>
+      <c r="AS32" s="24"/>
+      <c r="AT32" s="48"/>
+      <c r="AU32" s="48"/>
+      <c r="AV32" s="48"/>
+      <c r="AW32" s="48"/>
+      <c r="AX32" s="48"/>
+      <c r="AY32" s="48"/>
+      <c r="AZ32" s="48"/>
+    </row>
+    <row r="33" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39"/>
       <c r="B33" s="38"/>
       <c r="C33" s="40"/>
@@ -10402,8 +10947,18 @@
       <c r="AM33" s="48"/>
       <c r="AN33" s="48"/>
       <c r="AO33" s="40"/>
-    </row>
-    <row r="34" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ33" s="40"/>
+      <c r="AR33" s="40"/>
+      <c r="AS33" s="40"/>
+      <c r="AT33" s="48"/>
+      <c r="AU33" s="48"/>
+      <c r="AV33" s="48"/>
+      <c r="AW33" s="48"/>
+      <c r="AX33" s="48"/>
+      <c r="AY33" s="48"/>
+      <c r="AZ33" s="48"/>
+    </row>
+    <row r="34" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
       <c r="B34" s="38"/>
       <c r="C34" s="40"/>
@@ -10445,8 +11000,18 @@
       <c r="AM34" s="48"/>
       <c r="AN34" s="48"/>
       <c r="AO34" s="40"/>
-    </row>
-    <row r="35" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ34" s="40"/>
+      <c r="AR34" s="40"/>
+      <c r="AS34" s="40"/>
+      <c r="AT34" s="48"/>
+      <c r="AU34" s="48"/>
+      <c r="AV34" s="48"/>
+      <c r="AW34" s="48"/>
+      <c r="AX34" s="48"/>
+      <c r="AY34" s="48"/>
+      <c r="AZ34" s="48"/>
+    </row>
+    <row r="35" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
@@ -10488,8 +11053,18 @@
       <c r="AM35" s="48"/>
       <c r="AN35" s="48"/>
       <c r="AO35" s="30"/>
-    </row>
-    <row r="36" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ35" s="30"/>
+      <c r="AR35" s="30"/>
+      <c r="AS35" s="30"/>
+      <c r="AT35" s="48"/>
+      <c r="AU35" s="48"/>
+      <c r="AV35" s="48"/>
+      <c r="AW35" s="48"/>
+      <c r="AX35" s="48"/>
+      <c r="AY35" s="48"/>
+      <c r="AZ35" s="48"/>
+    </row>
+    <row r="36" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="36"/>
@@ -10531,8 +11106,18 @@
       <c r="AM36" s="48"/>
       <c r="AN36" s="48"/>
       <c r="AO36" s="36"/>
-    </row>
-    <row r="37" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ36" s="36"/>
+      <c r="AR36" s="36"/>
+      <c r="AS36" s="36"/>
+      <c r="AT36" s="48"/>
+      <c r="AU36" s="48"/>
+      <c r="AV36" s="48"/>
+      <c r="AW36" s="48"/>
+      <c r="AX36" s="48"/>
+      <c r="AY36" s="48"/>
+      <c r="AZ36" s="48"/>
+    </row>
+    <row r="37" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -10574,8 +11159,18 @@
       <c r="AM37" s="19"/>
       <c r="AN37" s="19"/>
       <c r="AO37" s="22"/>
-    </row>
-    <row r="38" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ37" s="22"/>
+      <c r="AR37" s="22"/>
+      <c r="AS37" s="22"/>
+      <c r="AT37" s="48"/>
+      <c r="AU37" s="48"/>
+      <c r="AV37" s="48"/>
+      <c r="AW37" s="48"/>
+      <c r="AX37" s="48"/>
+      <c r="AY37" s="48"/>
+      <c r="AZ37" s="48"/>
+    </row>
+    <row r="38" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -10617,8 +11212,18 @@
       <c r="AM38" s="24"/>
       <c r="AN38" s="24"/>
       <c r="AO38" s="24"/>
-    </row>
-    <row r="39" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ38" s="24"/>
+      <c r="AR38" s="24"/>
+      <c r="AS38" s="24"/>
+      <c r="AT38" s="48"/>
+      <c r="AU38" s="48"/>
+      <c r="AV38" s="48"/>
+      <c r="AW38" s="48"/>
+      <c r="AX38" s="48"/>
+      <c r="AY38" s="48"/>
+      <c r="AZ38" s="48"/>
+    </row>
+    <row r="39" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39"/>
       <c r="B39" s="38"/>
       <c r="C39" s="40"/>
@@ -10660,8 +11265,18 @@
       <c r="AM39" s="40"/>
       <c r="AN39" s="40"/>
       <c r="AO39" s="40"/>
-    </row>
-    <row r="40" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ39" s="40"/>
+      <c r="AR39" s="40"/>
+      <c r="AS39" s="40"/>
+      <c r="AT39" s="48"/>
+      <c r="AU39" s="48"/>
+      <c r="AV39" s="48"/>
+      <c r="AW39" s="48"/>
+      <c r="AX39" s="48"/>
+      <c r="AY39" s="48"/>
+      <c r="AZ39" s="48"/>
+    </row>
+    <row r="40" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39"/>
       <c r="B40" s="38"/>
       <c r="C40" s="40"/>
@@ -10703,8 +11318,18 @@
       <c r="AM40" s="40"/>
       <c r="AN40" s="40"/>
       <c r="AO40" s="40"/>
-    </row>
-    <row r="41" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ40" s="40"/>
+      <c r="AR40" s="40"/>
+      <c r="AS40" s="40"/>
+      <c r="AT40" s="48"/>
+      <c r="AU40" s="48"/>
+      <c r="AV40" s="48"/>
+      <c r="AW40" s="48"/>
+      <c r="AX40" s="48"/>
+      <c r="AY40" s="48"/>
+      <c r="AZ40" s="48"/>
+    </row>
+    <row r="41" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="35"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
@@ -10746,8 +11371,18 @@
       <c r="AM41" s="30"/>
       <c r="AN41" s="30"/>
       <c r="AO41" s="30"/>
-    </row>
-    <row r="42" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ41" s="30"/>
+      <c r="AR41" s="30"/>
+      <c r="AS41" s="30"/>
+      <c r="AT41" s="48"/>
+      <c r="AU41" s="48"/>
+      <c r="AV41" s="48"/>
+      <c r="AW41" s="48"/>
+      <c r="AX41" s="48"/>
+      <c r="AY41" s="48"/>
+      <c r="AZ41" s="48"/>
+    </row>
+    <row r="42" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
       <c r="C42" s="36"/>
@@ -10789,8 +11424,18 @@
       <c r="AM42" s="36"/>
       <c r="AN42" s="36"/>
       <c r="AO42" s="36"/>
-    </row>
-    <row r="43" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ42" s="36"/>
+      <c r="AR42" s="36"/>
+      <c r="AS42" s="36"/>
+      <c r="AT42" s="48"/>
+      <c r="AU42" s="48"/>
+      <c r="AV42" s="48"/>
+      <c r="AW42" s="48"/>
+      <c r="AX42" s="48"/>
+      <c r="AY42" s="48"/>
+      <c r="AZ42" s="48"/>
+    </row>
+    <row r="43" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -10832,8 +11477,18 @@
       <c r="AM43" s="22"/>
       <c r="AN43" s="22"/>
       <c r="AO43" s="22"/>
-    </row>
-    <row r="44" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ43" s="22"/>
+      <c r="AR43" s="22"/>
+      <c r="AS43" s="22"/>
+      <c r="AT43" s="48"/>
+      <c r="AU43" s="48"/>
+      <c r="AV43" s="48"/>
+      <c r="AW43" s="48"/>
+      <c r="AX43" s="48"/>
+      <c r="AY43" s="48"/>
+      <c r="AZ43" s="48"/>
+    </row>
+    <row r="44" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -10875,8 +11530,18 @@
       <c r="AM44" s="24"/>
       <c r="AN44" s="24"/>
       <c r="AO44" s="30"/>
-    </row>
-    <row r="45" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ44" s="30"/>
+      <c r="AR44" s="30"/>
+      <c r="AS44" s="30"/>
+      <c r="AT44" s="48"/>
+      <c r="AU44" s="48"/>
+      <c r="AV44" s="48"/>
+      <c r="AW44" s="48"/>
+      <c r="AX44" s="48"/>
+      <c r="AY44" s="48"/>
+      <c r="AZ44" s="48"/>
+    </row>
+    <row r="45" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39"/>
       <c r="B45" s="38"/>
       <c r="C45" s="40"/>
@@ -10918,8 +11583,18 @@
       <c r="AM45" s="40"/>
       <c r="AN45" s="40"/>
       <c r="AO45" s="36"/>
-    </row>
-    <row r="46" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ45" s="36"/>
+      <c r="AR45" s="36"/>
+      <c r="AS45" s="36"/>
+      <c r="AT45" s="48"/>
+      <c r="AU45" s="48"/>
+      <c r="AV45" s="48"/>
+      <c r="AW45" s="48"/>
+      <c r="AX45" s="48"/>
+      <c r="AY45" s="48"/>
+      <c r="AZ45" s="48"/>
+    </row>
+    <row r="46" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="38"/>
       <c r="C46" s="40"/>
@@ -10961,8 +11636,18 @@
       <c r="AM46" s="40"/>
       <c r="AN46" s="40"/>
       <c r="AO46"/>
-    </row>
-    <row r="47" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ46"/>
+      <c r="AR46"/>
+      <c r="AS46"/>
+      <c r="AT46" s="48"/>
+      <c r="AU46" s="48"/>
+      <c r="AV46" s="48"/>
+      <c r="AW46" s="48"/>
+      <c r="AX46" s="48"/>
+      <c r="AY46" s="48"/>
+      <c r="AZ46" s="48"/>
+    </row>
+    <row r="47" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="35"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -11004,8 +11689,18 @@
       <c r="AM47" s="30"/>
       <c r="AN47" s="30"/>
       <c r="AO47"/>
-    </row>
-    <row r="48" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ47"/>
+      <c r="AR47"/>
+      <c r="AS47"/>
+      <c r="AT47" s="48"/>
+      <c r="AU47" s="48"/>
+      <c r="AV47" s="48"/>
+      <c r="AW47" s="48"/>
+      <c r="AX47" s="48"/>
+      <c r="AY47" s="48"/>
+      <c r="AZ47" s="48"/>
+    </row>
+    <row r="48" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
       <c r="C48" s="36"/>
@@ -11047,8 +11742,18 @@
       <c r="AM48" s="36"/>
       <c r="AN48" s="36"/>
       <c r="AO48"/>
-    </row>
-    <row r="49" spans="1:41" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ48"/>
+      <c r="AR48"/>
+      <c r="AS48"/>
+      <c r="AT48" s="48"/>
+      <c r="AU48" s="48"/>
+      <c r="AV48" s="48"/>
+      <c r="AW48" s="48"/>
+      <c r="AX48" s="48"/>
+      <c r="AY48" s="48"/>
+      <c r="AZ48" s="48"/>
+    </row>
+    <row r="49" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
@@ -11090,8 +11795,18 @@
       <c r="AM49" s="22"/>
       <c r="AN49" s="22"/>
       <c r="AO49"/>
-    </row>
-    <row r="50" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ49"/>
+      <c r="AR49"/>
+      <c r="AS49"/>
+      <c r="AT49" s="48"/>
+      <c r="AU49" s="48"/>
+      <c r="AV49" s="48"/>
+      <c r="AW49" s="48"/>
+      <c r="AX49" s="48"/>
+      <c r="AY49" s="48"/>
+      <c r="AZ49" s="48"/>
+    </row>
+    <row r="50" spans="1:52" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -11130,8 +11845,15 @@
       <c r="AL50" s="24"/>
       <c r="AM50" s="24"/>
       <c r="AN50" s="24"/>
-    </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AT50" s="48"/>
+      <c r="AU50" s="48"/>
+      <c r="AV50" s="48"/>
+      <c r="AW50" s="48"/>
+      <c r="AX50" s="48"/>
+      <c r="AY50" s="48"/>
+      <c r="AZ50" s="48"/>
+    </row>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A51" s="39"/>
       <c r="B51" s="38"/>
       <c r="C51" s="40"/>
@@ -11170,8 +11892,15 @@
       <c r="AL51" s="40"/>
       <c r="AM51" s="40"/>
       <c r="AN51" s="40"/>
-    </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AT51" s="48"/>
+      <c r="AU51" s="48"/>
+      <c r="AV51" s="48"/>
+      <c r="AW51" s="48"/>
+      <c r="AX51" s="48"/>
+      <c r="AY51" s="48"/>
+      <c r="AZ51" s="48"/>
+    </row>
+    <row r="52" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A52" s="39"/>
       <c r="B52" s="38"/>
       <c r="C52" s="40"/>
@@ -11211,7 +11940,7 @@
       <c r="AM52" s="40"/>
       <c r="AN52" s="40"/>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A53" s="35"/>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -11251,7 +11980,7 @@
       <c r="AM53" s="30"/>
       <c r="AN53" s="30"/>
     </row>
-    <row r="54" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:52" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="24"/>
       <c r="C54" s="36"/>
@@ -11291,7 +12020,7 @@
       <c r="AM54" s="36"/>
       <c r="AN54" s="36"/>
     </row>
-    <row r="55" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:52" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
@@ -11331,7 +12060,7 @@
       <c r="AM55" s="22"/>
       <c r="AN55" s="22"/>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A56" s="34"/>
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
@@ -11371,7 +12100,7 @@
       <c r="AM56" s="30"/>
       <c r="AN56" s="30"/>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A57" s="35"/>
       <c r="B57" s="38"/>
       <c r="C57" s="36"/>
@@ -11411,7 +12140,7 @@
       <c r="AM57" s="36"/>
       <c r="AN57" s="36"/>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.2">
       <c r="X59" s="8"/>
       <c r="AE59" s="8"/>
       <c r="AF59" s="8"/>
@@ -11433,7 +12162,7 @@
   <dimension ref="B4:M56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="70" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12075,7 +12804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -12116,17 +12845,17 @@
       <c r="B3" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="187">
+      <c r="C3" s="193">
         <v>43374</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="194"/>
       <c r="E3" s="137"/>
       <c r="F3" s="136" t="s">
         <v>77</v>
       </c>
       <c r="G3" s="138"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="188"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="194"/>
       <c r="J3" s="135"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,21 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" tabRatio="789" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" tabRatio="759" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA TOTAL" sheetId="27" r:id="rId1"/>
     <sheet name="OPERADORA ABORDO" sheetId="16" r:id="rId2"/>
     <sheet name="OPERADORA DESCANSO" sheetId="25" r:id="rId3"/>
     <sheet name="DETALLE" sheetId="28" r:id="rId4"/>
-    <sheet name="Hoja1" sheetId="31" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="37" r:id="rId5"/>
     <sheet name="FACT" sheetId="30" r:id="rId6"/>
     <sheet name="PENSION ALIMENTICIA" sheetId="32" r:id="rId7"/>
+    <sheet name="PRESTAMO SA" sheetId="33" r:id="rId8"/>
+    <sheet name="PRESTAMO ASIM" sheetId="36" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="__TC1">[1]FOR!$B$9</definedName>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="128">
   <si>
     <t>SUBTOTAL</t>
   </si>
@@ -432,6 +434,24 @@
   <si>
     <t>SUBSEA88</t>
   </si>
+  <si>
+    <t>MONTO</t>
+  </si>
+  <si>
+    <t>DESCUENTO</t>
+  </si>
+  <si>
+    <t>TOTAL FALTANTE</t>
+  </si>
+  <si>
+    <t>TIPO DESCUENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCUENTO </t>
+  </si>
+  <si>
+    <t>TOTAL COBRADO</t>
+  </si>
 </sst>
 </file>
 
@@ -718,7 +738,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,8 +804,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1005,6 +1031,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1491">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2499,7 +2538,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2888,6 +2927,10 @@
     <xf numFmtId="0" fontId="31" fillId="7" borderId="16" xfId="1318" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="12" borderId="17" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5207,7 +5250,7 @@
   <sheetViews>
     <sheetView topLeftCell="V1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1:R1048576"/>
+      <selection pane="bottomLeft" activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5842,83 +5885,83 @@
       <c r="BG10" s="50"/>
     </row>
     <row r="11" spans="2:59" s="85" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="186" t="s">
+      <c r="B11" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="186" t="s">
+      <c r="C11" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="186" t="s">
+      <c r="D11" s="188" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="186" t="s">
+      <c r="E11" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="186" t="s">
+      <c r="F11" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="186" t="s">
+      <c r="G11" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="186" t="s">
+      <c r="H11" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="186" t="s">
+      <c r="I11" s="188" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="186" t="s">
+      <c r="J11" s="188" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="186" t="s">
+      <c r="K11" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="186" t="s">
+      <c r="L11" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="186" t="s">
+      <c r="M11" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="186" t="s">
+      <c r="N11" s="188" t="s">
         <v>72</v>
       </c>
       <c r="O11" s="129"/>
-      <c r="P11" s="186" t="s">
+      <c r="P11" s="188" t="s">
         <v>52</v>
       </c>
       <c r="Q11" s="132"/>
       <c r="R11" s="132"/>
-      <c r="S11" s="186" t="s">
+      <c r="S11" s="188" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="186" t="s">
+      <c r="T11" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="U11" s="186" t="s">
+      <c r="U11" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="V11" s="186" t="s">
+      <c r="V11" s="188" t="s">
         <v>73</v>
       </c>
       <c r="W11" s="86"/>
-      <c r="X11" s="186" t="s">
+      <c r="X11" s="188" t="s">
         <v>74</v>
       </c>
-      <c r="Y11" s="186" t="s">
+      <c r="Y11" s="188" t="s">
         <v>75</v>
       </c>
-      <c r="Z11" s="186" t="s">
+      <c r="Z11" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="AA11" s="186" t="s">
+      <c r="AA11" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="AB11" s="187" t="s">
+      <c r="AB11" s="189" t="s">
         <v>20</v>
       </c>
-      <c r="AC11" s="186" t="s">
+      <c r="AC11" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="AD11" s="186"/>
+      <c r="AD11" s="188"/>
       <c r="AF11" s="84"/>
       <c r="AG11" s="84"/>
       <c r="AH11" s="84"/>
@@ -5948,23 +5991,23 @@
       <c r="BF11" s="84"/>
     </row>
     <row r="12" spans="2:59" s="87" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="186"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="186"/>
-      <c r="L12" s="186"/>
-      <c r="M12" s="186"/>
-      <c r="N12" s="186"/>
+      <c r="B12" s="188"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="188"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="188"/>
+      <c r="J12" s="188"/>
+      <c r="K12" s="188"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="188"/>
+      <c r="N12" s="188"/>
       <c r="O12" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="186" t="s">
+      <c r="P12" s="188" t="s">
         <v>63</v>
       </c>
       <c r="Q12" s="132" t="s">
@@ -5973,18 +6016,18 @@
       <c r="R12" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="S12" s="186"/>
-      <c r="T12" s="186"/>
-      <c r="U12" s="186"/>
-      <c r="V12" s="186"/>
+      <c r="S12" s="188"/>
+      <c r="T12" s="188"/>
+      <c r="U12" s="188"/>
+      <c r="V12" s="188"/>
       <c r="W12" s="86"/>
-      <c r="X12" s="186"/>
-      <c r="Y12" s="186"/>
-      <c r="Z12" s="186"/>
-      <c r="AA12" s="186"/>
-      <c r="AB12" s="187"/>
-      <c r="AC12" s="186"/>
-      <c r="AD12" s="186"/>
+      <c r="X12" s="188"/>
+      <c r="Y12" s="188"/>
+      <c r="Z12" s="188"/>
+      <c r="AA12" s="188"/>
+      <c r="AB12" s="189"/>
+      <c r="AC12" s="188"/>
+      <c r="AD12" s="188"/>
       <c r="AE12" s="88"/>
       <c r="AF12" s="89"/>
       <c r="AG12" s="89"/>
@@ -6016,6 +6059,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="AD11:AD12"/>
     <mergeCell ref="AC11:AC12"/>
     <mergeCell ref="G11:G12"/>
@@ -6032,15 +6084,6 @@
     <mergeCell ref="AB11:AB12"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6097,13 +6140,13 @@
   <sheetData>
     <row r="1" spans="1:288" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
       <c r="G1" s="65"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -6201,13 +6244,13 @@
     </row>
     <row r="3" spans="1:288" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="67"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -6259,13 +6302,13 @@
     </row>
     <row r="4" spans="1:288" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="191" t="s">
+      <c r="B4" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
       <c r="G4" s="67"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -9000,8 +9043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CW59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AT11" sqref="AT11:AZ51"/>
+    <sheetView topLeftCell="AJ2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AU28" sqref="AU27:AU28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9046,13 +9089,13 @@
   <sheetData>
     <row r="1" spans="1:101" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -9146,13 +9189,13 @@
     </row>
     <row r="3" spans="1:101" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="30"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -9207,13 +9250,13 @@
     </row>
     <row r="4" spans="1:101" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="191" t="s">
+      <c r="B4" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
       <c r="G4" s="67"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -12845,17 +12888,17 @@
       <c r="B3" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="193">
+      <c r="C3" s="195">
         <v>43374</v>
       </c>
-      <c r="D3" s="194"/>
+      <c r="D3" s="196"/>
       <c r="E3" s="137"/>
       <c r="F3" s="136" t="s">
         <v>77</v>
       </c>
       <c r="G3" s="138"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="194"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="196"/>
       <c r="J3" s="135"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -13774,7 +13817,7 @@
   <dimension ref="B1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13929,4 +13972,96 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="186" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="186" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="186" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="186" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="186" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="187" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="186" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="186" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="186" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="186" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="186" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Operadora\OperadoraNominas\OperadoraNominas\bin\Debug\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" tabRatio="759" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7155" tabRatio="647"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA TOTAL" sheetId="27" r:id="rId1"/>
@@ -51,11 +51,12 @@
     <definedName name="VSDF">[2]FOR!$B$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="130">
   <si>
     <t>SUBTOTAL</t>
   </si>
@@ -451,6 +452,12 @@
   </si>
   <si>
     <t>TOTAL COBRADO</t>
+  </si>
+  <si>
+    <t>RETENCION DEL 6%</t>
+  </si>
+  <si>
+    <t>RETENCION 6%</t>
   </si>
 </sst>
 </file>
@@ -4461,79 +4468,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>17992</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>87842</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>27517</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1143" name="10 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="8388" t="5798" r="7443" b="8713"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="857250" y="525992"/>
-          <a:ext cx="1146175" cy="980017"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -5246,11 +5180,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BG12"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="B1:BH12"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD1" sqref="AD1:AD1048576"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5281,10 +5216,11 @@
     <col min="26" max="26" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.140625" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:59" s="1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:60" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -5312,7 +5248,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
-      <c r="AE1" s="50"/>
+      <c r="AC1" s="3"/>
       <c r="AF1" s="50"/>
       <c r="AG1" s="50"/>
       <c r="AH1" s="50"/>
@@ -5341,8 +5277,9 @@
       <c r="BE1" s="50"/>
       <c r="BF1" s="50"/>
       <c r="BG1" s="50"/>
-    </row>
-    <row r="2" spans="2:59" s="1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BH1" s="50"/>
+    </row>
+    <row r="2" spans="2:60" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
@@ -5374,7 +5311,7 @@
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
-      <c r="AE2" s="50"/>
+      <c r="AE2" s="6"/>
       <c r="AF2" s="50"/>
       <c r="AG2" s="50"/>
       <c r="AH2" s="50"/>
@@ -5403,8 +5340,9 @@
       <c r="BE2" s="50"/>
       <c r="BF2" s="50"/>
       <c r="BG2" s="50"/>
-    </row>
-    <row r="3" spans="2:59" s="43" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BH2" s="50"/>
+    </row>
+    <row r="3" spans="2:60" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
@@ -5434,7 +5372,7 @@
       <c r="AB3" s="41"/>
       <c r="AC3" s="41"/>
       <c r="AD3" s="41"/>
-      <c r="AE3" s="50"/>
+      <c r="AE3" s="41"/>
       <c r="AF3" s="50"/>
       <c r="AG3" s="50"/>
       <c r="AH3" s="50"/>
@@ -5463,8 +5401,9 @@
       <c r="BE3" s="50"/>
       <c r="BF3" s="50"/>
       <c r="BG3" s="50"/>
-    </row>
-    <row r="4" spans="2:59" s="43" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BH3" s="50"/>
+    </row>
+    <row r="4" spans="2:60" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
@@ -5494,7 +5433,7 @@
       <c r="AB4" s="41"/>
       <c r="AC4" s="41"/>
       <c r="AD4" s="41"/>
-      <c r="AE4" s="50"/>
+      <c r="AE4" s="41"/>
       <c r="AF4" s="50"/>
       <c r="AG4" s="50"/>
       <c r="AH4" s="50"/>
@@ -5523,8 +5462,9 @@
       <c r="BE4" s="50"/>
       <c r="BF4" s="50"/>
       <c r="BG4" s="50"/>
-    </row>
-    <row r="5" spans="2:59" s="43" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BH4" s="50"/>
+    </row>
+    <row r="5" spans="2:60" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
@@ -5554,7 +5494,7 @@
       <c r="AB5" s="41"/>
       <c r="AC5" s="41"/>
       <c r="AD5" s="41"/>
-      <c r="AE5" s="50"/>
+      <c r="AE5" s="41"/>
       <c r="AF5" s="50"/>
       <c r="AG5" s="50"/>
       <c r="AH5" s="50"/>
@@ -5583,8 +5523,9 @@
       <c r="BE5" s="50"/>
       <c r="BF5" s="50"/>
       <c r="BG5" s="50"/>
-    </row>
-    <row r="6" spans="2:59" s="43" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BH5" s="50"/>
+    </row>
+    <row r="6" spans="2:60" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
@@ -5614,7 +5555,7 @@
       <c r="AB6" s="41"/>
       <c r="AC6" s="41"/>
       <c r="AD6" s="41"/>
-      <c r="AE6" s="50"/>
+      <c r="AE6" s="41"/>
       <c r="AF6" s="50"/>
       <c r="AG6" s="50"/>
       <c r="AH6" s="50"/>
@@ -5643,8 +5584,9 @@
       <c r="BE6" s="50"/>
       <c r="BF6" s="50"/>
       <c r="BG6" s="50"/>
-    </row>
-    <row r="7" spans="2:59" s="43" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BH6" s="50"/>
+    </row>
+    <row r="7" spans="2:60" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
@@ -5674,7 +5616,7 @@
       <c r="AB7" s="41"/>
       <c r="AC7" s="41"/>
       <c r="AD7" s="41"/>
-      <c r="AE7" s="50"/>
+      <c r="AE7" s="41"/>
       <c r="AF7" s="50"/>
       <c r="AG7" s="50"/>
       <c r="AH7" s="50"/>
@@ -5703,8 +5645,9 @@
       <c r="BE7" s="50"/>
       <c r="BF7" s="50"/>
       <c r="BG7" s="50"/>
-    </row>
-    <row r="8" spans="2:59" s="43" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BH7" s="50"/>
+    </row>
+    <row r="8" spans="2:60" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
@@ -5734,7 +5677,7 @@
       <c r="AB8" s="111"/>
       <c r="AC8" s="111"/>
       <c r="AD8" s="111"/>
-      <c r="AE8" s="50"/>
+      <c r="AE8" s="111"/>
       <c r="AF8" s="50"/>
       <c r="AG8" s="50"/>
       <c r="AH8" s="50"/>
@@ -5763,8 +5706,9 @@
       <c r="BE8" s="50"/>
       <c r="BF8" s="50"/>
       <c r="BG8" s="50"/>
-    </row>
-    <row r="9" spans="2:59" s="1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BH8" s="50"/>
+    </row>
+    <row r="9" spans="2:60" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -5794,7 +5738,7 @@
       <c r="AB9" s="44"/>
       <c r="AC9" s="44"/>
       <c r="AD9" s="44"/>
-      <c r="AE9" s="50"/>
+      <c r="AE9" s="44"/>
       <c r="AF9" s="50"/>
       <c r="AG9" s="50"/>
       <c r="AH9" s="50"/>
@@ -5823,8 +5767,9 @@
       <c r="BE9" s="50"/>
       <c r="BF9" s="50"/>
       <c r="BG9" s="50"/>
-    </row>
-    <row r="10" spans="2:59" s="1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BH9" s="50"/>
+    </row>
+    <row r="10" spans="2:60" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="114"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -5854,7 +5799,7 @@
       <c r="AB10" s="44"/>
       <c r="AC10" s="44"/>
       <c r="AD10" s="44"/>
-      <c r="AE10" s="50"/>
+      <c r="AE10" s="44"/>
       <c r="AF10" s="50"/>
       <c r="AG10" s="50"/>
       <c r="AH10" s="50"/>
@@ -5883,8 +5828,9 @@
       <c r="BE10" s="50"/>
       <c r="BF10" s="50"/>
       <c r="BG10" s="50"/>
-    </row>
-    <row r="11" spans="2:59" s="85" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BH10" s="50"/>
+    </row>
+    <row r="11" spans="2:60" s="85" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="188" t="s">
         <v>15</v>
       </c>
@@ -5959,10 +5905,12 @@
         <v>20</v>
       </c>
       <c r="AC11" s="188" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD11" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="AD11" s="188"/>
-      <c r="AF11" s="84"/>
+      <c r="AE11" s="188"/>
       <c r="AG11" s="84"/>
       <c r="AH11" s="84"/>
       <c r="AI11" s="84"/>
@@ -5989,8 +5937,9 @@
       <c r="BD11" s="84"/>
       <c r="BE11" s="84"/>
       <c r="BF11" s="84"/>
-    </row>
-    <row r="12" spans="2:59" s="87" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG11" s="84"/>
+    </row>
+    <row r="12" spans="2:60" s="87" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="188"/>
       <c r="C12" s="188"/>
       <c r="D12" s="188"/>
@@ -6028,8 +5977,8 @@
       <c r="AB12" s="189"/>
       <c r="AC12" s="188"/>
       <c r="AD12" s="188"/>
-      <c r="AE12" s="88"/>
-      <c r="AF12" s="89"/>
+      <c r="AE12" s="188"/>
+      <c r="AF12" s="88"/>
       <c r="AG12" s="89"/>
       <c r="AH12" s="89"/>
       <c r="AI12" s="89"/>
@@ -6056,20 +6005,13 @@
       <c r="BD12" s="89"/>
       <c r="BE12" s="89"/>
       <c r="BF12" s="89"/>
+      <c r="BG12" s="89"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+  <mergeCells count="26">
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AE11:AE12"/>
     <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AC11:AC12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="V11:V12"/>
@@ -6084,14 +6026,23 @@
     <mergeCell ref="AB11:AB12"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:KB47"/>
   <sheetViews>
     <sheetView topLeftCell="AM1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
@@ -9041,10 +8992,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:CW59"/>
   <sheetViews>
     <sheetView topLeftCell="AJ2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AU28" sqref="AU27:AU28"/>
+      <selection activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12202,6 +12154,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="B4:M56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="70" zoomScaleSheetLayoutView="110" workbookViewId="0">
@@ -12833,6 +12786,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja5"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12845,10 +12799,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J60"/>
+  <sheetPr codeName="Hoja6"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13360,17 +13315,17 @@
       <c r="I29" s="147"/>
       <c r="J29" s="135"/>
     </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A30" s="133"/>
-      <c r="B30" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="166">
-        <f>SUM(C28:C29)</f>
+      <c r="B30" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="147">
+        <f>+C28*6%</f>
         <v>0</v>
       </c>
-      <c r="D30" s="166">
-        <f>SUM(D28:D29)</f>
+      <c r="D30" s="147">
+        <f>+D28*6%</f>
         <v>0</v>
       </c>
       <c r="E30" s="154"/>
@@ -13382,13 +13337,19 @@
       <c r="I30" s="147"/>
       <c r="J30" s="135"/>
     </row>
-    <row r="31" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="133"/>
-      <c r="B31" s="143" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="145"/>
-      <c r="D31" s="145"/>
+      <c r="B31" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="166">
+        <f>C28+C29-C30</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="166">
+        <f>D28+D29-D30</f>
+        <v>0</v>
+      </c>
       <c r="E31" s="154"/>
       <c r="F31" s="148" t="s">
         <v>86</v>
@@ -13400,8 +13361,8 @@
     </row>
     <row r="32" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A32" s="133"/>
-      <c r="B32" s="146" t="s">
-        <v>85</v>
+      <c r="B32" s="143" t="s">
+        <v>84</v>
       </c>
       <c r="C32" s="145"/>
       <c r="D32" s="145"/>
@@ -13417,10 +13378,10 @@
     <row r="33" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A33" s="133"/>
       <c r="B33" s="146" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="147"/>
-      <c r="D33" s="144"/>
+        <v>85</v>
+      </c>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
       <c r="E33" s="154"/>
       <c r="F33" s="148" t="s">
         <v>105</v>
@@ -13433,7 +13394,7 @@
     <row r="34" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A34" s="133"/>
       <c r="B34" s="146" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C34" s="147"/>
       <c r="D34" s="144"/>
@@ -13449,7 +13410,7 @@
     <row r="35" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A35" s="133"/>
       <c r="B35" s="146" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" s="147"/>
       <c r="D35" s="144"/>
@@ -13465,7 +13426,7 @@
     <row r="36" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A36" s="133"/>
       <c r="B36" s="146" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36" s="147"/>
       <c r="D36" s="144"/>
@@ -13481,7 +13442,7 @@
     <row r="37" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A37" s="133"/>
       <c r="B37" s="146" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C37" s="147"/>
       <c r="D37" s="144"/>
@@ -13497,7 +13458,7 @@
     <row r="38" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A38" s="133"/>
       <c r="B38" s="146" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" s="147"/>
       <c r="D38" s="144"/>
@@ -13513,7 +13474,7 @@
     <row r="39" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A39" s="133"/>
       <c r="B39" s="146" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="147"/>
       <c r="D39" s="144"/>
@@ -13529,10 +13490,10 @@
     <row r="40" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A40" s="135"/>
       <c r="B40" s="146" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" s="147"/>
-      <c r="D40" s="147"/>
+      <c r="D40" s="144"/>
       <c r="E40" s="154"/>
       <c r="F40" s="148" t="s">
         <v>110</v>
@@ -13544,11 +13505,11 @@
     </row>
     <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="135"/>
-      <c r="B41" s="153" t="s">
-        <v>82</v>
+      <c r="B41" s="146" t="s">
+        <v>90</v>
       </c>
       <c r="C41" s="147"/>
-      <c r="D41" s="144"/>
+      <c r="D41" s="147"/>
       <c r="E41" s="154"/>
       <c r="F41" s="148" t="s">
         <v>90</v>
@@ -13560,8 +13521,8 @@
     </row>
     <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="135"/>
-      <c r="B42" s="155" t="s">
-        <v>91</v>
+      <c r="B42" s="153" t="s">
+        <v>82</v>
       </c>
       <c r="C42" s="147"/>
       <c r="D42" s="144"/>
@@ -13576,11 +13537,11 @@
     </row>
     <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A43" s="135"/>
-      <c r="B43" s="146" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="156"/>
-      <c r="D43" s="172"/>
+      <c r="B43" s="155" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="147"/>
+      <c r="D43" s="144"/>
       <c r="E43" s="154"/>
       <c r="F43" s="148" t="s">
         <v>91</v>
@@ -13593,10 +13554,10 @@
     <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="135"/>
       <c r="B44" s="146" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" s="147"/>
-      <c r="D44" s="147"/>
+        <v>92</v>
+      </c>
+      <c r="C44" s="156"/>
+      <c r="D44" s="172"/>
       <c r="E44" s="154"/>
       <c r="F44" s="148" t="s">
         <v>111</v>
@@ -13609,10 +13570,10 @@
     <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="135"/>
       <c r="B45" s="146" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="156"/>
-      <c r="D45" s="172"/>
+        <v>108</v>
+      </c>
+      <c r="C45" s="147"/>
+      <c r="D45" s="147"/>
       <c r="E45" s="154"/>
       <c r="F45" s="148" t="s">
         <v>112</v>
@@ -13625,7 +13586,7 @@
     <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="135"/>
       <c r="B46" s="146" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C46" s="156"/>
       <c r="D46" s="172"/>
@@ -13641,7 +13602,7 @@
     <row r="47" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="135"/>
       <c r="B47" s="146" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C47" s="156"/>
       <c r="D47" s="172"/>
@@ -13657,7 +13618,7 @@
     <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A48" s="135"/>
       <c r="B48" s="146" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" s="156"/>
       <c r="D48" s="172"/>
@@ -13678,11 +13639,11 @@
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="135"/>
-      <c r="B49" s="155" t="s">
-        <v>96</v>
+      <c r="B49" s="146" t="s">
+        <v>95</v>
       </c>
       <c r="C49" s="156"/>
-      <c r="D49" s="156"/>
+      <c r="D49" s="172"/>
       <c r="E49" s="154"/>
       <c r="F49" s="162" t="s">
         <v>83</v>
@@ -13701,9 +13662,9 @@
     <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="135"/>
       <c r="B50" s="155" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="155"/>
+        <v>96</v>
+      </c>
+      <c r="C50" s="156"/>
       <c r="D50" s="156"/>
       <c r="E50" s="154"/>
       <c r="F50" s="165" t="s">
@@ -13724,74 +13685,76 @@
       <c r="J50" s="135"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B51" s="157" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" s="157"/>
+      <c r="B51" s="155" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="155"/>
       <c r="D51" s="156"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B52" s="157" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" s="157"/>
       <c r="D52" s="156"/>
     </row>
-    <row r="53" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="158" t="s">
+    <row r="53" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="157"/>
+      <c r="D53" s="156"/>
+    </row>
+    <row r="54" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="158"/>
-      <c r="D53" s="156"/>
-    </row>
-    <row r="54" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B54" s="160" t="s">
+      <c r="C54" s="158"/>
+      <c r="D54" s="156"/>
+    </row>
+    <row r="55" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="168">
-        <f>SUM(C32:C53)</f>
+      <c r="C55" s="168">
+        <f>SUM(C33:C54)</f>
         <v>0</v>
       </c>
-      <c r="D54" s="168">
-        <f>SUM(D32:D53)</f>
+      <c r="D55" s="168">
+        <f>SUM(D33:D54)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="162" t="s">
+    <row r="56" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B56" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="147">
-        <f>C54*16%</f>
+      <c r="C56" s="147">
+        <f>C55*16%</f>
         <v>0</v>
       </c>
-      <c r="D55" s="147">
-        <f>D54*16%</f>
+      <c r="D56" s="147">
+        <f>D55*16%</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="165" t="s">
+    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B57" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="166">
-        <f>SUM(C54:C55)</f>
+      <c r="C57" s="166">
+        <f>SUM(C55:C56)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="166">
-        <f>SUM(D54:D55)</f>
+      <c r="D57" s="166">
+        <f>SUM(D55:D56)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B57" s="133"/>
-      <c r="C57" s="133"/>
-      <c r="D57" s="133"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="154"/>
-      <c r="C58" s="154"/>
-      <c r="D58" s="154"/>
+    <row r="58" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B58" s="133"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="133"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B59" s="154"/>
@@ -13802,6 +13765,11 @@
       <c r="B60" s="154"/>
       <c r="C60" s="154"/>
       <c r="D60" s="154"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="154"/>
+      <c r="C61" s="154"/>
+      <c r="D61" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13814,6 +13782,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja7"/>
   <dimension ref="B1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13976,9 +13945,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja8"/>
   <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -14025,6 +13995,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja9"/>
   <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7155" tabRatio="647"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7155" tabRatio="647" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA TOTAL" sheetId="27" r:id="rId1"/>
@@ -51,12 +51,11 @@
     <definedName name="VSDF">[2]FOR!$B$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="130">
   <si>
     <t>SUBTOTAL</t>
   </si>
@@ -5183,7 +5182,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:BH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
@@ -6009,6 +6008,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="AC11:AC12"/>
     <mergeCell ref="AE11:AE12"/>
     <mergeCell ref="AD11:AD12"/>
@@ -6025,16 +6034,6 @@
     <mergeCell ref="AA11:AA12"/>
     <mergeCell ref="AB11:AB12"/>
     <mergeCell ref="P11:P12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12802,8 +12801,8 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12843,9 +12842,7 @@
       <c r="B3" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="195">
-        <v>43374</v>
-      </c>
+      <c r="C3" s="195"/>
       <c r="D3" s="196"/>
       <c r="E3" s="137"/>
       <c r="F3" s="136" t="s">
@@ -12890,8 +12887,9 @@
       <c r="C5" s="144"/>
       <c r="D5" s="144"/>
       <c r="E5" s="134"/>
-      <c r="F5" s="143" t="s">
-        <v>81</v>
+      <c r="F5" s="143" t="str">
+        <f>+B5</f>
+        <v>ROUTES</v>
       </c>
       <c r="G5" s="143"/>
       <c r="H5" s="144"/>
@@ -13285,8 +13283,9 @@
         <v>0</v>
       </c>
       <c r="E28" s="154"/>
-      <c r="F28" s="143" t="s">
-        <v>84</v>
+      <c r="F28" s="143" t="str">
+        <f>+B32</f>
+        <v>BIRYUSA</v>
       </c>
       <c r="G28" s="143"/>
       <c r="H28" s="171"/>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7155" tabRatio="647" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7155" tabRatio="647"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA TOTAL" sheetId="27" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="204">
   <si>
     <t>SUBTOTAL</t>
   </si>
@@ -458,6 +458,228 @@
   <si>
     <t>RETENCION 6%</t>
   </si>
+  <si>
+    <t>INFONAVIT BIM ANTERIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "TMM DIVISION"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "DEPOSITO ROUTES SCOTIABANK"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "IVA"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "RETENCION 6%"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "DEPOSITO BIRYUSA SCOTIABANK"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "TOTAL DEPOSITO BIRYUSA"</t>
+  </si>
+  <si>
+    <t>).Value =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoja.Cell(sep + 4, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoja.Cell(sep + 5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoja.Cell(sep + 7, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoja.Cell(sep + 9, </t>
+  </si>
+  <si>
+    <t>).Value ="</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoja.Cell(sep + 6, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoja.Cell(sep + 8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoja.Cell(sep + 10, </t>
+  </si>
+  <si>
+    <t>hoja.Cell(sep + 3,</t>
+  </si>
+  <si>
+    <t>amarrados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> azteca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cedros</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> miramar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> montserrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> blanca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ciari</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> janitzio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> luis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ignacio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gabriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> diego</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jose</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> creciente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> colorada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> subsea88</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> leon</t>
+  </si>
+  <si>
+    <t>passavera</t>
+  </si>
+  <si>
+    <t>margot</t>
+  </si>
+  <si>
+    <t>"=V" &amp;</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>+1 &amp; " + X" &amp;</t>
+  </si>
+  <si>
+    <t>+1 &amp; " + Z"&amp;</t>
+  </si>
+  <si>
+    <t>+1 &amp; "+AB" &amp;</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "TOTAL DEPOSITO OPERADORA"</t>
+  </si>
+  <si>
+    <t>"=</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; sep +4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; sep +3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; sep +5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; "*16%"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp;" *6%"</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; </t>
+  </si>
+  <si>
+    <t>+1 &amp; "+AA" &amp;</t>
+  </si>
+  <si>
+    <t>+1 &amp; "+Q" &amp;</t>
+  </si>
+  <si>
+    <t>"=W" &amp;</t>
+  </si>
+  <si>
+    <t>).FormulaA1 =</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; sep +7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; sep +8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; sep +9</t>
+  </si>
+  <si>
+    <t>.Style.Fill.BackgroundColor = XLColor.YellowProcess</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; sep +6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; sep +10</t>
+  </si>
+  <si>
+    <t>hoja.Range(</t>
+  </si>
+  <si>
+    <t>AMARRADOS</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>.Style.Fill.BackgroundColor = XLColor.PowderBlue</t>
+  </si>
+  <si>
+    <t>hoja.Cell(</t>
+  </si>
+  <si>
+    <t>NEVADO DE COLIMA</t>
+  </si>
+  <si>
+    <t>nevado</t>
+  </si>
+  <si>
+    <t>INFONAVIT BIM ANT ASIM</t>
+  </si>
 </sst>
 </file>
 
@@ -470,7 +692,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;???_-;_-@_-"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -743,8 +965,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -813,6 +1041,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2544,7 +2778,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2937,7 +3171,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2954,6 +3212,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1113" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="17" fontId="27" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5180,11 +5441,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:BH12"/>
+  <dimension ref="A1:BJ13"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5201,25 +5462,25 @@
     <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" customWidth="1"/>
-    <col min="16" max="18" width="18.28515625" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" customWidth="1"/>
-    <col min="20" max="20" width="17" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="1.85546875" customWidth="1"/>
-    <col min="24" max="24" width="15.42578125" customWidth="1"/>
-    <col min="25" max="25" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="18" max="20" width="18.28515625" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="1.85546875" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" customWidth="1"/>
+    <col min="27" max="27" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" customWidth="1"/>
-    <col min="30" max="30" width="15.140625" customWidth="1"/>
+    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.85546875" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:60" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -5233,23 +5494,23 @@
       <c r="L1" s="4"/>
       <c r="M1" s="75"/>
       <c r="N1" s="75"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="4"/>
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
       <c r="AH1" s="50"/>
       <c r="AI1" s="50"/>
       <c r="AJ1" s="50"/>
@@ -5277,8 +5538,10 @@
       <c r="BF1" s="50"/>
       <c r="BG1" s="50"/>
       <c r="BH1" s="50"/>
-    </row>
-    <row r="2" spans="2:60" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BI1" s="50"/>
+      <c r="BJ1" s="50"/>
+    </row>
+    <row r="2" spans="1:62" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
@@ -5306,13 +5569,13 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
       <c r="AH2" s="50"/>
       <c r="AI2" s="50"/>
       <c r="AJ2" s="50"/>
@@ -5340,8 +5603,10 @@
       <c r="BF2" s="50"/>
       <c r="BG2" s="50"/>
       <c r="BH2" s="50"/>
-    </row>
-    <row r="3" spans="2:60" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BI2" s="50"/>
+      <c r="BJ2" s="50"/>
+    </row>
+    <row r="3" spans="1:62" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
@@ -5367,13 +5632,13 @@
       <c r="X3" s="42"/>
       <c r="Y3" s="42"/>
       <c r="Z3" s="42"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
       <c r="AC3" s="41"/>
       <c r="AD3" s="41"/>
       <c r="AE3" s="41"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
       <c r="AH3" s="50"/>
       <c r="AI3" s="50"/>
       <c r="AJ3" s="50"/>
@@ -5401,8 +5666,10 @@
       <c r="BF3" s="50"/>
       <c r="BG3" s="50"/>
       <c r="BH3" s="50"/>
-    </row>
-    <row r="4" spans="2:60" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BI3" s="50"/>
+      <c r="BJ3" s="50"/>
+    </row>
+    <row r="4" spans="1:62" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
@@ -5420,21 +5687,21 @@
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
       <c r="R4" s="42"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
       <c r="W4" s="42"/>
       <c r="X4" s="42"/>
       <c r="Y4" s="42"/>
       <c r="Z4" s="42"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
       <c r="AC4" s="41"/>
       <c r="AD4" s="41"/>
       <c r="AE4" s="41"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
       <c r="AH4" s="50"/>
       <c r="AI4" s="50"/>
       <c r="AJ4" s="50"/>
@@ -5462,8 +5729,10 @@
       <c r="BF4" s="50"/>
       <c r="BG4" s="50"/>
       <c r="BH4" s="50"/>
-    </row>
-    <row r="5" spans="2:60" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BI4" s="50"/>
+      <c r="BJ4" s="50"/>
+    </row>
+    <row r="5" spans="1:62" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
@@ -5481,21 +5750,21 @@
       <c r="P5" s="42"/>
       <c r="Q5" s="42"/>
       <c r="R5" s="42"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
       <c r="W5" s="42"/>
       <c r="X5" s="42"/>
       <c r="Y5" s="42"/>
       <c r="Z5" s="42"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
       <c r="AC5" s="41"/>
       <c r="AD5" s="41"/>
       <c r="AE5" s="41"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
       <c r="AH5" s="50"/>
       <c r="AI5" s="50"/>
       <c r="AJ5" s="50"/>
@@ -5523,8 +5792,10 @@
       <c r="BF5" s="50"/>
       <c r="BG5" s="50"/>
       <c r="BH5" s="50"/>
-    </row>
-    <row r="6" spans="2:60" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+    </row>
+    <row r="6" spans="1:62" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
@@ -5538,25 +5809,25 @@
       <c r="L6" s="42"/>
       <c r="M6" s="42"/>
       <c r="N6" s="42"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
       <c r="Q6" s="60"/>
       <c r="R6" s="60"/>
       <c r="S6" s="60"/>
       <c r="T6" s="60"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
       <c r="W6" s="42"/>
       <c r="X6" s="42"/>
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
       <c r="AC6" s="41"/>
       <c r="AD6" s="41"/>
       <c r="AE6" s="41"/>
-      <c r="AF6" s="50"/>
-      <c r="AG6" s="50"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
       <c r="AH6" s="50"/>
       <c r="AI6" s="50"/>
       <c r="AJ6" s="50"/>
@@ -5584,8 +5855,10 @@
       <c r="BF6" s="50"/>
       <c r="BG6" s="50"/>
       <c r="BH6" s="50"/>
-    </row>
-    <row r="7" spans="2:60" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BI6" s="50"/>
+      <c r="BJ6" s="50"/>
+    </row>
+    <row r="7" spans="1:62" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
@@ -5599,25 +5872,25 @@
       <c r="L7" s="108"/>
       <c r="M7" s="108"/>
       <c r="N7" s="108"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="60"/>
       <c r="R7" s="61"/>
       <c r="S7" s="61"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
       <c r="W7" s="42"/>
       <c r="X7" s="42"/>
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
       <c r="AC7" s="41"/>
       <c r="AD7" s="41"/>
       <c r="AE7" s="41"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
       <c r="AH7" s="50"/>
       <c r="AI7" s="50"/>
       <c r="AJ7" s="50"/>
@@ -5645,8 +5918,10 @@
       <c r="BF7" s="50"/>
       <c r="BG7" s="50"/>
       <c r="BH7" s="50"/>
-    </row>
-    <row r="8" spans="2:60" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BI7" s="50"/>
+      <c r="BJ7" s="50"/>
+    </row>
+    <row r="8" spans="1:62" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
@@ -5659,26 +5934,26 @@
       <c r="K8" s="41"/>
       <c r="L8" s="61"/>
       <c r="M8" s="61"/>
-      <c r="N8" s="60"/>
+      <c r="N8" s="61"/>
       <c r="O8" s="61"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="61"/>
       <c r="R8" s="105"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="61"/>
       <c r="V8" s="60"/>
       <c r="W8" s="60"/>
       <c r="X8" s="60"/>
       <c r="Y8" s="60"/>
       <c r="Z8" s="60"/>
-      <c r="AA8" s="111"/>
-      <c r="AB8" s="111"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="60"/>
       <c r="AC8" s="111"/>
       <c r="AD8" s="111"/>
       <c r="AE8" s="111"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
+      <c r="AF8" s="111"/>
+      <c r="AG8" s="111"/>
       <c r="AH8" s="50"/>
       <c r="AI8" s="50"/>
       <c r="AJ8" s="50"/>
@@ -5706,8 +5981,10 @@
       <c r="BF8" s="50"/>
       <c r="BG8" s="50"/>
       <c r="BH8" s="50"/>
-    </row>
-    <row r="9" spans="2:60" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BI8" s="50"/>
+      <c r="BJ8" s="50"/>
+    </row>
+    <row r="9" spans="1:62" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -5721,13 +5998,13 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
       <c r="Q9" s="62"/>
       <c r="R9" s="62"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="112"/>
       <c r="V9" s="44"/>
       <c r="W9" s="44"/>
       <c r="X9" s="44"/>
@@ -5738,8 +6015,8 @@
       <c r="AC9" s="44"/>
       <c r="AD9" s="44"/>
       <c r="AE9" s="44"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="44"/>
       <c r="AH9" s="50"/>
       <c r="AI9" s="50"/>
       <c r="AJ9" s="50"/>
@@ -5767,8 +6044,10 @@
       <c r="BF9" s="50"/>
       <c r="BG9" s="50"/>
       <c r="BH9" s="50"/>
-    </row>
-    <row r="10" spans="2:60" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BI9" s="50"/>
+      <c r="BJ9" s="50"/>
+    </row>
+    <row r="10" spans="1:62" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="114"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -5782,13 +6061,13 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
       <c r="Q10" s="62"/>
       <c r="R10" s="62"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="112"/>
       <c r="V10" s="44"/>
       <c r="W10" s="44"/>
       <c r="X10" s="44"/>
@@ -5799,8 +6078,8 @@
       <c r="AC10" s="44"/>
       <c r="AD10" s="44"/>
       <c r="AE10" s="44"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="44"/>
       <c r="AH10" s="50"/>
       <c r="AI10" s="50"/>
       <c r="AJ10" s="50"/>
@@ -5828,90 +6107,96 @@
       <c r="BF10" s="50"/>
       <c r="BG10" s="50"/>
       <c r="BH10" s="50"/>
-    </row>
-    <row r="11" spans="2:60" s="85" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="188" t="s">
+      <c r="BI10" s="50"/>
+      <c r="BJ10" s="50"/>
+    </row>
+    <row r="11" spans="1:62" s="85" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="188" t="s">
+      <c r="C11" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="188" t="s">
+      <c r="D11" s="197" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="188" t="s">
+      <c r="E11" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="188" t="s">
+      <c r="F11" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="188" t="s">
+      <c r="G11" s="197" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="188" t="s">
+      <c r="H11" s="197" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="188" t="s">
+      <c r="I11" s="197" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="188" t="s">
+      <c r="J11" s="197" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="188" t="s">
+      <c r="K11" s="197" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="188" t="s">
+      <c r="L11" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="188" t="s">
+      <c r="M11" s="197" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="188" t="s">
+      <c r="N11" s="198" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" s="198" t="s">
+        <v>203</v>
+      </c>
+      <c r="P11" s="197" t="s">
         <v>72</v>
       </c>
-      <c r="O11" s="129"/>
-      <c r="P11" s="188" t="s">
+      <c r="Q11" s="129"/>
+      <c r="R11" s="197" t="s">
         <v>52</v>
       </c>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="188" t="s">
+      <c r="S11" s="132"/>
+      <c r="T11" s="132"/>
+      <c r="U11" s="197" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="188" t="s">
+      <c r="V11" s="197" t="s">
         <v>17</v>
       </c>
-      <c r="U11" s="188" t="s">
+      <c r="W11" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="V11" s="188" t="s">
+      <c r="X11" s="197" t="s">
         <v>73</v>
       </c>
-      <c r="W11" s="86"/>
-      <c r="X11" s="188" t="s">
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="197" t="s">
         <v>74</v>
       </c>
-      <c r="Y11" s="188" t="s">
+      <c r="AA11" s="197" t="s">
         <v>75</v>
       </c>
-      <c r="Z11" s="188" t="s">
+      <c r="AB11" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="AA11" s="188" t="s">
+      <c r="AC11" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="AB11" s="189" t="s">
+      <c r="AD11" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="AC11" s="188" t="s">
+      <c r="AE11" s="197" t="s">
         <v>128</v>
       </c>
-      <c r="AD11" s="188" t="s">
+      <c r="AF11" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="AE11" s="188"/>
-      <c r="AG11" s="84"/>
-      <c r="AH11" s="84"/>
+      <c r="AG11" s="197"/>
       <c r="AI11" s="84"/>
       <c r="AJ11" s="84"/>
       <c r="AK11" s="84"/>
@@ -5937,49 +6222,51 @@
       <c r="BE11" s="84"/>
       <c r="BF11" s="84"/>
       <c r="BG11" s="84"/>
-    </row>
-    <row r="12" spans="2:60" s="87" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="188"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="188"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="188"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="188"/>
-      <c r="M12" s="188"/>
-      <c r="N12" s="188"/>
-      <c r="O12" s="129" t="s">
+      <c r="BH11" s="84"/>
+      <c r="BI11" s="84"/>
+    </row>
+    <row r="12" spans="1:62" s="87" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="197"/>
+      <c r="C12" s="197"/>
+      <c r="D12" s="197"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="197"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="197"/>
+      <c r="M12" s="197"/>
+      <c r="N12" s="198"/>
+      <c r="O12" s="198"/>
+      <c r="P12" s="197"/>
+      <c r="Q12" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="188" t="s">
+      <c r="R12" s="197" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="132" t="s">
+      <c r="S12" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="R12" s="132" t="s">
+      <c r="T12" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="S12" s="188"/>
-      <c r="T12" s="188"/>
-      <c r="U12" s="188"/>
-      <c r="V12" s="188"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="188"/>
-      <c r="Y12" s="188"/>
-      <c r="Z12" s="188"/>
-      <c r="AA12" s="188"/>
-      <c r="AB12" s="189"/>
-      <c r="AC12" s="188"/>
-      <c r="AD12" s="188"/>
-      <c r="AE12" s="188"/>
-      <c r="AF12" s="88"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="89"/>
+      <c r="U12" s="197"/>
+      <c r="V12" s="197"/>
+      <c r="W12" s="197"/>
+      <c r="X12" s="197"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="197"/>
+      <c r="AA12" s="197"/>
+      <c r="AB12" s="197"/>
+      <c r="AC12" s="197"/>
+      <c r="AD12" s="199"/>
+      <c r="AE12" s="197"/>
+      <c r="AF12" s="197"/>
+      <c r="AG12" s="197"/>
+      <c r="AH12" s="88"/>
       <c r="AI12" s="89"/>
       <c r="AJ12" s="89"/>
       <c r="AK12" s="89"/>
@@ -6005,35 +6292,137 @@
       <c r="BE12" s="89"/>
       <c r="BF12" s="89"/>
       <c r="BG12" s="89"/>
+      <c r="BH12" s="89"/>
+      <c r="BI12" s="89"/>
+    </row>
+    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>14</v>
+      </c>
+      <c r="O13">
+        <v>15</v>
+      </c>
+      <c r="P13">
+        <v>16</v>
+      </c>
+      <c r="Q13">
+        <v>17</v>
+      </c>
+      <c r="R13">
+        <v>18</v>
+      </c>
+      <c r="S13">
+        <v>19</v>
+      </c>
+      <c r="T13">
+        <v>20</v>
+      </c>
+      <c r="U13">
+        <v>21</v>
+      </c>
+      <c r="V13">
+        <v>22</v>
+      </c>
+      <c r="W13">
+        <v>23</v>
+      </c>
+      <c r="X13">
+        <v>24</v>
+      </c>
+      <c r="Y13">
+        <v>25</v>
+      </c>
+      <c r="Z13">
+        <v>26</v>
+      </c>
+      <c r="AA13">
+        <v>27</v>
+      </c>
+      <c r="AB13">
+        <v>28</v>
+      </c>
+      <c r="AC13">
+        <v>29</v>
+      </c>
+      <c r="AD13">
+        <v>30</v>
+      </c>
+      <c r="AE13">
+        <v>31</v>
+      </c>
+      <c r="AF13">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AG11:AG12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="P11:P12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6044,8 +6433,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:KB47"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="BE4" sqref="BE4"/>
+    <sheetView topLeftCell="AI1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AI8" sqref="AI8:AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6090,13 +6479,13 @@
   <sheetData>
     <row r="1" spans="1:288" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
       <c r="G1" s="65"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -6194,13 +6583,13 @@
     </row>
     <row r="3" spans="1:288" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
       <c r="G3" s="67"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -6252,13 +6641,13 @@
     </row>
     <row r="4" spans="1:288" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="193" t="s">
+      <c r="B4" s="203" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
       <c r="G4" s="67"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -8994,8 +9383,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:CW59"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AP9" sqref="AP9"/>
+    <sheetView topLeftCell="AI2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AI8" sqref="AI8:AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9040,13 +9429,13 @@
   <sheetData>
     <row r="1" spans="1:101" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -9140,13 +9529,13 @@
     </row>
     <row r="3" spans="1:101" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
       <c r="G3" s="30"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -9201,13 +9590,13 @@
     </row>
     <row r="4" spans="1:101" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="193" t="s">
+      <c r="B4" s="203" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
       <c r="G4" s="67"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -9584,10 +9973,10 @@
         <v>10</v>
       </c>
       <c r="AJ8" s="45" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="AK8" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL8" s="45" t="s">
         <v>52</v>
@@ -12786,12 +13175,556 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="75.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="195" t="str">
+        <f>+A15</f>
+        <v>ISLA LEON</v>
+      </c>
+      <c r="B1" s="195" t="str">
+        <f>B15</f>
+        <v xml:space="preserve"> leon</v>
+      </c>
+      <c r="C1" s="193">
+        <v>24</v>
+      </c>
+      <c r="D1" s="193">
+        <v>26</v>
+      </c>
+      <c r="E1" s="187" t="str">
+        <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;" &amp; sep"</f>
+        <v>hoja.Cell("T" &amp; sep</v>
+      </c>
+      <c r="F1" s="190" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="187" t="str">
+        <f>+A1&amp;C4</f>
+        <v>ISLA LEON"</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="196"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="192" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="189" t="str">
+        <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;" sep + 1"</f>
+        <v>hoja.Cell("T" &amp;  sep + 1</v>
+      </c>
+      <c r="F2" s="190" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="187" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="187" t="str">
+        <f>+B1</f>
+        <v xml:space="preserve"> leon</v>
+      </c>
+      <c r="C3" s="192" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="189" t="str">
+        <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 3"</f>
+        <v>hoja.Cell("T" &amp; sep + 3</v>
+      </c>
+      <c r="F3" s="190" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="189" t="str">
+        <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 4"</f>
+        <v>hoja.Cell("T" &amp; sep + 4</v>
+      </c>
+      <c r="F4" s="190" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="191" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="189" t="str">
+        <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 5"</f>
+        <v>hoja.Cell("T" &amp; sep + 5</v>
+      </c>
+      <c r="F5" s="190" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="194" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="189" t="str">
+        <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 6"</f>
+        <v>hoja.Cell("T" &amp; sep + 6</v>
+      </c>
+      <c r="F6" s="190" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="187" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="194" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="188"/>
+      <c r="F7" s="190"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="194" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="187" t="str">
+        <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 7"</f>
+        <v>hoja.Cell("T" &amp; sep + 7</v>
+      </c>
+      <c r="F8" s="190" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="194" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="187" t="str">
+        <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 8"</f>
+        <v>hoja.Cell("T" &amp; sep + 8</v>
+      </c>
+      <c r="F9" s="190" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="194" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="187" t="str">
+        <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 9"</f>
+        <v>hoja.Cell("T" &amp; sep + 9</v>
+      </c>
+      <c r="F10" s="190" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="191" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="191" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="187" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="191" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="191" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="187" t="str">
+        <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C11</f>
+        <v xml:space="preserve">hoja.Cell("V" &amp; sep +3 </v>
+      </c>
+      <c r="F14" s="187" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="187" t="str">
+        <f>C5&amp;B1&amp;C6&amp;B1&amp;C7&amp;B1&amp;C8&amp;B1&amp;C9</f>
+        <v>"=V" &amp; leon+1 &amp; " + X" &amp; leon+1 &amp; " + Z"&amp; leon+1 &amp; "+AB" &amp; leon+1</v>
+      </c>
+      <c r="H14" s="187" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="187" t="str">
+        <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C12</f>
+        <v>hoja.Cell("V" &amp; sep +4</v>
+      </c>
+      <c r="F15" s="187" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="187" t="str">
+        <f>+C10&amp;C2&amp;C4&amp;C11&amp;C15</f>
+        <v>"=V" &amp; sep +3  &amp; "*16%"</v>
+      </c>
+      <c r="H15" s="187" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="191" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="187" t="str">
+        <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C13</f>
+        <v>hoja.Cell("V" &amp; sep +5</v>
+      </c>
+      <c r="F16" s="187" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="187" t="str">
+        <f>+C10&amp;C2&amp;C4&amp;C11&amp;C16</f>
+        <v>"=V" &amp; sep +3  &amp;" *6%"</v>
+      </c>
+      <c r="H16" s="187" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="191" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="187" t="str">
+        <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C14</f>
+        <v xml:space="preserve">hoja.Cell("V" &amp; sep +6 </v>
+      </c>
+      <c r="F17" s="187" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="187" t="str">
+        <f>+C10&amp;C2&amp;C4&amp;C11&amp;C17&amp;C4&amp;C18&amp;C2&amp;C4&amp;C12&amp;C17&amp;C4&amp;C19&amp;C2&amp;C4&amp;C13</f>
+        <v>"=V" &amp; sep +3  &amp; "+V" &amp; sep +4 &amp; "-V" &amp; sep +5</v>
+      </c>
+      <c r="H17" s="187" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="191" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="187"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="191" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="187" t="str">
+        <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C23</f>
+        <v>hoja.Cell("V" &amp; sep +7</v>
+      </c>
+      <c r="F19" s="187" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" s="187" t="str">
+        <f>+C20&amp;B1&amp;C21&amp;B1&amp;C22&amp;B1&amp;C9</f>
+        <v>"=W" &amp; leon+1 &amp; "+AA" &amp; leon+1 &amp; "+Q" &amp; leon+1</v>
+      </c>
+      <c r="H19" s="187" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="191" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="187" t="str">
+        <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C24</f>
+        <v>hoja.Cell("V" &amp; sep +8</v>
+      </c>
+      <c r="F20" s="187" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="187" t="str">
+        <f>+C10&amp;C2&amp;C4&amp;C23&amp;C15</f>
+        <v>"=V" &amp; sep +7 &amp; "*16%"</v>
+      </c>
+      <c r="H20" s="187" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="194" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="187" t="str">
+        <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C25</f>
+        <v>hoja.Cell("V" &amp; sep +9</v>
+      </c>
+      <c r="F21" s="187" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" s="187" t="str">
+        <f>+C10&amp;C2&amp;C4&amp;C23&amp;C17&amp;C4&amp;C18&amp;C2&amp;C4&amp;C24</f>
+        <v>"=V" &amp; sep +7 &amp; "+V" &amp; sep +8</v>
+      </c>
+      <c r="H21" s="187" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="194" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="187"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="191" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="187" t="str">
+        <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C26</f>
+        <v>hoja.Cell("V" &amp; sep +10</v>
+      </c>
+      <c r="F23" s="187" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="187" t="str">
+        <f>+C10&amp;C2&amp;C4&amp;C14&amp;C17&amp;C4&amp;C18&amp;C2&amp;C4&amp;C25</f>
+        <v>"=V" &amp; sep +6  &amp; "+V" &amp; sep +9</v>
+      </c>
+      <c r="H23" s="187" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="191" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="187" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" s="187" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="191" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="187" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="187" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="191" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="191" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" s="205" t="str">
+        <f>+C28&amp;C4&amp;C3&amp;C4&amp;C25&amp;","&amp;C4&amp;C2&amp;C4&amp;C25&amp;")"</f>
+        <v>hoja.Range("T" &amp; sep +9,"V" &amp; sep +9)</v>
+      </c>
+      <c r="F28" s="205"/>
+      <c r="G28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="191" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" t="str">
+        <f>+C28&amp;C4&amp;C3&amp;C4&amp;C14&amp;","&amp;C4&amp;C2&amp;C4&amp;C14&amp;")"</f>
+        <v>hoja.Range("T" &amp; sep +6 ,"V" &amp; sep +6 )</v>
+      </c>
+      <c r="G29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E30" s="187" t="str">
+        <f>+C29&amp;C4&amp;C3&amp;C4&amp;" &amp; sep)"</f>
+        <v>hoja.Cell("T" &amp; sep)</v>
+      </c>
+      <c r="F30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E28:F28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12801,8 +13734,8 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12842,15 +13775,15 @@
       <c r="B3" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="195"/>
-      <c r="D3" s="196"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="207"/>
       <c r="E3" s="137"/>
       <c r="F3" s="136" t="s">
         <v>77</v>
       </c>
       <c r="G3" s="138"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="196"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="207"/>
       <c r="J3" s="135"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -291,12 +291,6 @@
     </r>
   </si>
   <si>
-    <t>COMISIÓN  OPERADORA 2%)</t>
-  </si>
-  <si>
-    <t>COMISIÓN ASIMILADOS (2%)</t>
-  </si>
-  <si>
     <t>DESCUENTO ASIMILADOS</t>
   </si>
   <si>
@@ -679,6 +673,12 @@
   </si>
   <si>
     <t>INFONAVIT BIM ANT ASIM</t>
+  </si>
+  <si>
+    <t>COMISIÓN  OPERADORA 4%)</t>
+  </si>
+  <si>
+    <t>COMISIÓN ASIMILADOS (3.5%)</t>
   </si>
 </sst>
 </file>
@@ -3195,11 +3195,11 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1113" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5441,11 +5441,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:BJ13"/>
+  <dimension ref="B1:BJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5470,7 +5470,7 @@
     <col min="22" max="22" width="17" customWidth="1"/>
     <col min="23" max="23" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="1.85546875" customWidth="1"/>
+    <col min="25" max="25" width="4.28515625" customWidth="1"/>
     <col min="26" max="26" width="15.42578125" customWidth="1"/>
     <col min="27" max="27" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -5480,7 +5480,7 @@
     <col min="32" max="32" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:62" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -5541,7 +5541,7 @@
       <c r="BI1" s="50"/>
       <c r="BJ1" s="50"/>
     </row>
-    <row r="2" spans="1:62" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:62" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
@@ -5606,7 +5606,7 @@
       <c r="BI2" s="50"/>
       <c r="BJ2" s="50"/>
     </row>
-    <row r="3" spans="1:62" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:62" s="43" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
@@ -5669,7 +5669,7 @@
       <c r="BI3" s="50"/>
       <c r="BJ3" s="50"/>
     </row>
-    <row r="4" spans="1:62" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:62" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
@@ -5732,7 +5732,7 @@
       <c r="BI4" s="50"/>
       <c r="BJ4" s="50"/>
     </row>
-    <row r="5" spans="1:62" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:62" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
@@ -5795,7 +5795,7 @@
       <c r="BI5" s="50"/>
       <c r="BJ5" s="50"/>
     </row>
-    <row r="6" spans="1:62" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:62" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
@@ -5858,7 +5858,7 @@
       <c r="BI6" s="50"/>
       <c r="BJ6" s="50"/>
     </row>
-    <row r="7" spans="1:62" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:62" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
@@ -5921,7 +5921,7 @@
       <c r="BI7" s="50"/>
       <c r="BJ7" s="50"/>
     </row>
-    <row r="8" spans="1:62" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:62" s="43" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
@@ -5984,7 +5984,7 @@
       <c r="BI8" s="50"/>
       <c r="BJ8" s="50"/>
     </row>
-    <row r="9" spans="1:62" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:62" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -6047,7 +6047,7 @@
       <c r="BI9" s="50"/>
       <c r="BJ9" s="50"/>
     </row>
-    <row r="10" spans="1:62" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:62" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="114"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -6110,7 +6110,7 @@
       <c r="BI10" s="50"/>
       <c r="BJ10" s="50"/>
     </row>
-    <row r="11" spans="1:62" s="85" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:62" s="85" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="197" t="s">
         <v>15</v>
       </c>
@@ -6147,11 +6147,11 @@
       <c r="M11" s="197" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="198" t="s">
-        <v>130</v>
-      </c>
-      <c r="O11" s="198" t="s">
-        <v>203</v>
+      <c r="N11" s="199" t="s">
+        <v>128</v>
+      </c>
+      <c r="O11" s="199" t="s">
+        <v>201</v>
       </c>
       <c r="P11" s="197" t="s">
         <v>72</v>
@@ -6176,10 +6176,10 @@
       </c>
       <c r="Y11" s="86"/>
       <c r="Z11" s="197" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="AA11" s="197" t="s">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="AB11" s="197" t="s">
         <v>5</v>
@@ -6187,11 +6187,11 @@
       <c r="AC11" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="AD11" s="199" t="s">
+      <c r="AD11" s="198" t="s">
         <v>20</v>
       </c>
       <c r="AE11" s="197" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AF11" s="197" t="s">
         <v>1</v>
@@ -6225,7 +6225,7 @@
       <c r="BH11" s="84"/>
       <c r="BI11" s="84"/>
     </row>
-    <row r="12" spans="1:62" s="87" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:62" s="87" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="197"/>
       <c r="C12" s="197"/>
       <c r="D12" s="197"/>
@@ -6238,11 +6238,11 @@
       <c r="K12" s="197"/>
       <c r="L12" s="197"/>
       <c r="M12" s="197"/>
-      <c r="N12" s="198"/>
-      <c r="O12" s="198"/>
+      <c r="N12" s="199"/>
+      <c r="O12" s="199"/>
       <c r="P12" s="197"/>
       <c r="Q12" s="129" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R12" s="197" t="s">
         <v>63</v>
@@ -6251,7 +6251,7 @@
         <v>66</v>
       </c>
       <c r="T12" s="132" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="U12" s="197"/>
       <c r="V12" s="197"/>
@@ -6262,7 +6262,7 @@
       <c r="AA12" s="197"/>
       <c r="AB12" s="197"/>
       <c r="AC12" s="197"/>
-      <c r="AD12" s="199"/>
+      <c r="AD12" s="198"/>
       <c r="AE12" s="197"/>
       <c r="AF12" s="197"/>
       <c r="AG12" s="197"/>
@@ -6295,10 +6295,7 @@
       <c r="BH12" s="89"/>
       <c r="BI12" s="89"/>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1</v>
-      </c>
+    <row r="13" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>2</v>
       </c>
@@ -6368,9 +6365,6 @@
       <c r="X13">
         <v>24</v>
       </c>
-      <c r="Y13">
-        <v>25</v>
-      </c>
       <c r="Z13">
         <v>26</v>
       </c>
@@ -6395,14 +6389,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AG11:AG12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="X11:X12"/>
@@ -6418,11 +6409,14 @@
     <mergeCell ref="V11:V12"/>
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="O11:O12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AG11:AG12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7055,10 +7049,10 @@
         <v>10</v>
       </c>
       <c r="AJ8" s="45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AK8" s="45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AL8" s="45" t="s">
         <v>52</v>
@@ -7070,7 +7064,7 @@
         <v>66</v>
       </c>
       <c r="AO8" s="128" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AP8" s="180" t="s">
         <v>53</v>
@@ -7094,13 +7088,13 @@
         <v>70</v>
       </c>
       <c r="AW8" s="181" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX8" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY8" s="128" t="s">
         <v>99</v>
-      </c>
-      <c r="AX8" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY8" s="128" t="s">
-        <v>101</v>
       </c>
       <c r="AZ8" s="10"/>
       <c r="BA8" s="10"/>
@@ -9973,10 +9967,10 @@
         <v>10</v>
       </c>
       <c r="AJ8" s="45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AK8" s="45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AL8" s="45" t="s">
         <v>52</v>
@@ -9988,7 +9982,7 @@
         <v>66</v>
       </c>
       <c r="AO8" s="128" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AP8" s="127" t="s">
         <v>53</v>
@@ -10012,13 +10006,13 @@
         <v>70</v>
       </c>
       <c r="AW8" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX8" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY8" s="128" t="s">
         <v>99</v>
-      </c>
-      <c r="AX8" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY8" s="128" t="s">
-        <v>101</v>
       </c>
       <c r="AZ8" s="10"/>
       <c r="BA8" s="10"/>
@@ -13212,7 +13206,7 @@
         <v>hoja.Cell("T" &amp; sep</v>
       </c>
       <c r="F1" s="190" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G1" s="187" t="str">
         <f>+A1&amp;C4</f>
@@ -13223,473 +13217,473 @@
       <c r="A2" s="196"/>
       <c r="B2" s="196"/>
       <c r="C2" s="192" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E2" s="189" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;" sep + 1"</f>
         <v>hoja.Cell("T" &amp;  sep + 1</v>
       </c>
       <c r="F2" s="190" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="187" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="187" t="str">
         <f>+B1</f>
         <v xml:space="preserve"> leon</v>
       </c>
       <c r="C3" s="192" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E3" s="189" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 3"</f>
         <v>hoja.Cell("T" &amp; sep + 3</v>
       </c>
       <c r="F3" s="190" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E4" s="189" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 4"</f>
         <v>hoja.Cell("T" &amp; sep + 4</v>
       </c>
       <c r="F4" s="190" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E5" s="189" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 5"</f>
         <v>hoja.Cell("T" &amp; sep + 5</v>
       </c>
       <c r="F5" s="190" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C6" s="194" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E6" s="189" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 6"</f>
         <v>hoja.Cell("T" &amp; sep + 6</v>
       </c>
       <c r="F6" s="190" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G6" s="187" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" s="194" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E7" s="188"/>
       <c r="F7" s="190"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="194" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E8" s="187" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 7"</f>
         <v>hoja.Cell("T" &amp; sep + 7</v>
       </c>
       <c r="F8" s="190" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9" s="194" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E9" s="187" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 8"</f>
         <v>hoja.Cell("T" &amp; sep + 8</v>
       </c>
       <c r="F9" s="190" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C10" s="194" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E10" s="187" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 9"</f>
         <v>hoja.Cell("T" &amp; sep + 9</v>
       </c>
       <c r="F10" s="190" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C11" s="191" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="191" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B13" s="187" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="191" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="191" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E14" s="187" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C11</f>
         <v xml:space="preserve">hoja.Cell("V" &amp; sep +3 </v>
       </c>
       <c r="F14" s="187" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G14" s="187" t="str">
         <f>C5&amp;B1&amp;C6&amp;B1&amp;C7&amp;B1&amp;C8&amp;B1&amp;C9</f>
         <v>"=V" &amp; leon+1 &amp; " + X" &amp; leon+1 &amp; " + Z"&amp; leon+1 &amp; "+AB" &amp; leon+1</v>
       </c>
       <c r="H14" s="187" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C15" s="191" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E15" s="187" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C12</f>
         <v>hoja.Cell("V" &amp; sep +4</v>
       </c>
       <c r="F15" s="187" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G15" s="187" t="str">
         <f>+C10&amp;C2&amp;C4&amp;C11&amp;C15</f>
         <v>"=V" &amp; sep +3  &amp; "*16%"</v>
       </c>
       <c r="H15" s="187" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C16" s="191" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E16" s="187" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C13</f>
         <v>hoja.Cell("V" &amp; sep +5</v>
       </c>
       <c r="F16" s="187" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G16" s="187" t="str">
         <f>+C10&amp;C2&amp;C4&amp;C11&amp;C16</f>
         <v>"=V" &amp; sep +3  &amp;" *6%"</v>
       </c>
       <c r="H16" s="187" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C17" s="191" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E17" s="187" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C14</f>
         <v xml:space="preserve">hoja.Cell("V" &amp; sep +6 </v>
       </c>
       <c r="F17" s="187" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G17" s="187" t="str">
         <f>+C10&amp;C2&amp;C4&amp;C11&amp;C17&amp;C4&amp;C18&amp;C2&amp;C4&amp;C12&amp;C17&amp;C4&amp;C19&amp;C2&amp;C4&amp;C13</f>
         <v>"=V" &amp; sep +3  &amp; "+V" &amp; sep +4 &amp; "-V" &amp; sep +5</v>
       </c>
       <c r="H17" s="187" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C18" s="191" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F18" s="187"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="191" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E19" s="187" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C23</f>
         <v>hoja.Cell("V" &amp; sep +7</v>
       </c>
       <c r="F19" s="187" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G19" s="187" t="str">
         <f>+C20&amp;B1&amp;C21&amp;B1&amp;C22&amp;B1&amp;C9</f>
         <v>"=W" &amp; leon+1 &amp; "+AA" &amp; leon+1 &amp; "+Q" &amp; leon+1</v>
       </c>
       <c r="H19" s="187" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C20" s="191" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E20" s="187" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C24</f>
         <v>hoja.Cell("V" &amp; sep +8</v>
       </c>
       <c r="F20" s="187" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G20" s="187" t="str">
         <f>+C10&amp;C2&amp;C4&amp;C23&amp;C15</f>
         <v>"=V" &amp; sep +7 &amp; "*16%"</v>
       </c>
       <c r="H20" s="187" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C21" s="194" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E21" s="187" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C25</f>
         <v>hoja.Cell("V" &amp; sep +9</v>
       </c>
       <c r="F21" s="187" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G21" s="187" t="str">
         <f>+C10&amp;C2&amp;C4&amp;C23&amp;C17&amp;C4&amp;C18&amp;C2&amp;C4&amp;C24</f>
         <v>"=V" &amp; sep +7 &amp; "+V" &amp; sep +8</v>
       </c>
       <c r="H21" s="187" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C22" s="194" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F22" s="187"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C23" s="191" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E23" s="187" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C26</f>
         <v>hoja.Cell("V" &amp; sep +10</v>
       </c>
       <c r="F23" s="187" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G23" s="187" t="str">
         <f>+C10&amp;C2&amp;C4&amp;C14&amp;C17&amp;C4&amp;C18&amp;C2&amp;C4&amp;C25</f>
         <v>"=V" &amp; sep +6  &amp; "+V" &amp; sep +9</v>
       </c>
       <c r="H23" s="187" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C24" s="191" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="187" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B25" s="187" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C25" s="191" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="187" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B26" s="187" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C26" s="191" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C28" s="191" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E28" s="205" t="str">
         <f>+C28&amp;C4&amp;C3&amp;C4&amp;C25&amp;","&amp;C4&amp;C2&amp;C4&amp;C25&amp;")"</f>
@@ -13697,19 +13691,19 @@
       </c>
       <c r="F28" s="205"/>
       <c r="G28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C29" s="191" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E29" t="str">
         <f>+C28&amp;C4&amp;C3&amp;C4&amp;C14&amp;","&amp;C4&amp;C2&amp;C4&amp;C14&amp;")"</f>
         <v>hoja.Range("T" &amp; sep +6 ,"V" &amp; sep +6 )</v>
       </c>
       <c r="G29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -13718,7 +13712,7 @@
         <v>hoja.Cell("T" &amp; sep)</v>
       </c>
       <c r="F30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -13773,13 +13767,13 @@
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="133"/>
       <c r="B3" s="136" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" s="206"/>
       <c r="D3" s="207"/>
       <c r="E3" s="137"/>
       <c r="F3" s="136" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G3" s="138"/>
       <c r="H3" s="206"/>
@@ -13789,33 +13783,33 @@
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="133"/>
       <c r="B4" s="139" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="140" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="140" t="s">
         <v>78</v>
-      </c>
-      <c r="C4" s="140" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="140" t="s">
-        <v>80</v>
       </c>
       <c r="E4" s="141"/>
       <c r="F4" s="139" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="142" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="140" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="140" t="s">
         <v>78</v>
-      </c>
-      <c r="G4" s="142" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="140" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="140" t="s">
-        <v>80</v>
       </c>
       <c r="J4" s="135"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A5" s="133"/>
       <c r="B5" s="143" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="144"/>
       <c r="D5" s="144"/>
@@ -13832,13 +13826,13 @@
     <row r="6" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A6" s="133"/>
       <c r="B6" s="146" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" s="147"/>
       <c r="D6" s="147"/>
       <c r="E6" s="134"/>
       <c r="F6" s="148" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G6" s="149"/>
       <c r="H6" s="147"/>
@@ -13848,13 +13842,13 @@
     <row r="7" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A7" s="133"/>
       <c r="B7" s="146" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="147"/>
       <c r="D7" s="147"/>
       <c r="E7" s="150"/>
       <c r="F7" s="148" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G7" s="149"/>
       <c r="H7" s="147"/>
@@ -13864,13 +13858,13 @@
     <row r="8" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A8" s="133"/>
       <c r="B8" s="146" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="147"/>
       <c r="D8" s="147"/>
       <c r="E8" s="151"/>
       <c r="F8" s="148" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="149"/>
       <c r="H8" s="147"/>
@@ -13880,13 +13874,13 @@
     <row r="9" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A9" s="133"/>
       <c r="B9" s="146" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C9" s="147"/>
       <c r="D9" s="147"/>
       <c r="E9" s="152"/>
       <c r="F9" s="148" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G9" s="149"/>
       <c r="H9" s="147"/>
@@ -13896,13 +13890,13 @@
     <row r="10" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A10" s="133"/>
       <c r="B10" s="146" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" s="147"/>
       <c r="D10" s="147"/>
       <c r="E10" s="150"/>
       <c r="F10" s="148" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G10" s="149"/>
       <c r="H10" s="147"/>
@@ -13912,13 +13906,13 @@
     <row r="11" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A11" s="133"/>
       <c r="B11" s="146" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" s="147"/>
       <c r="D11" s="147"/>
       <c r="E11" s="150"/>
       <c r="F11" s="148" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G11" s="149"/>
       <c r="H11" s="147"/>
@@ -13928,13 +13922,13 @@
     <row r="12" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="133"/>
       <c r="B12" s="146" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="147"/>
       <c r="D12" s="147"/>
       <c r="E12" s="151"/>
       <c r="F12" s="148" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" s="149"/>
       <c r="H12" s="147"/>
@@ -13944,13 +13938,13 @@
     <row r="13" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A13" s="133"/>
       <c r="B13" s="146" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="147"/>
       <c r="D13" s="147"/>
       <c r="E13" s="151"/>
       <c r="F13" s="148" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G13" s="149"/>
       <c r="H13" s="147"/>
@@ -13960,13 +13954,13 @@
     <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="133"/>
       <c r="B14" s="146" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="151"/>
       <c r="D14" s="147"/>
       <c r="E14" s="152"/>
       <c r="F14" s="148" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G14" s="149"/>
       <c r="H14" s="147"/>
@@ -13976,13 +13970,13 @@
     <row r="15" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="133"/>
       <c r="B15" s="153" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" s="147"/>
       <c r="D15" s="147"/>
       <c r="E15" s="154"/>
       <c r="F15" s="148" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G15" s="149"/>
       <c r="H15" s="147"/>
@@ -13992,13 +13986,13 @@
     <row r="16" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="133"/>
       <c r="B16" s="155" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" s="151"/>
       <c r="D16" s="156"/>
       <c r="E16" s="154"/>
       <c r="F16" s="148" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G16" s="149"/>
       <c r="H16" s="147"/>
@@ -14008,13 +14002,13 @@
     <row r="17" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A17" s="133"/>
       <c r="B17" s="146" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C17" s="147"/>
       <c r="D17" s="147"/>
       <c r="E17" s="154"/>
       <c r="F17" s="148" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G17" s="149"/>
       <c r="H17" s="147"/>
@@ -14024,13 +14018,13 @@
     <row r="18" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A18" s="133"/>
       <c r="B18" s="146" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" s="147"/>
       <c r="D18" s="147"/>
       <c r="E18" s="154"/>
       <c r="F18" s="153" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G18" s="149"/>
       <c r="H18" s="147"/>
@@ -14040,13 +14034,13 @@
     <row r="19" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A19" s="133"/>
       <c r="B19" s="146" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" s="147"/>
       <c r="D19" s="147"/>
       <c r="E19" s="154"/>
       <c r="F19" s="153" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G19" s="149"/>
       <c r="H19" s="147"/>
@@ -14056,13 +14050,13 @@
     <row r="20" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="133"/>
       <c r="B20" s="146" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" s="147"/>
       <c r="D20" s="147"/>
       <c r="E20" s="154"/>
       <c r="F20" s="157" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G20" s="149"/>
       <c r="H20" s="147"/>
@@ -14072,13 +14066,13 @@
     <row r="21" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A21" s="133"/>
       <c r="B21" s="146" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C21" s="147"/>
       <c r="D21" s="147"/>
       <c r="E21" s="154"/>
       <c r="F21" s="157" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G21" s="149"/>
       <c r="H21" s="145"/>
@@ -14088,13 +14082,13 @@
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A22" s="133"/>
       <c r="B22" s="146" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C22" s="147"/>
       <c r="D22" s="147"/>
       <c r="E22" s="154"/>
       <c r="F22" s="157" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G22" s="149"/>
       <c r="H22" s="145"/>
@@ -14104,13 +14098,13 @@
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A23" s="133"/>
       <c r="B23" s="155" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="156"/>
       <c r="D23" s="147"/>
       <c r="E23" s="154"/>
       <c r="F23" s="157" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G23" s="149"/>
       <c r="H23" s="145"/>
@@ -14120,13 +14114,13 @@
     <row r="24" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="133"/>
       <c r="B24" s="155" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C24" s="156"/>
       <c r="D24" s="147"/>
       <c r="E24" s="154"/>
       <c r="F24" s="163" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G24" s="164"/>
       <c r="H24" s="145"/>
@@ -14136,7 +14130,7 @@
     <row r="25" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A25" s="133"/>
       <c r="B25" s="157" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C25" s="157"/>
       <c r="D25" s="147"/>
@@ -14158,13 +14152,13 @@
     <row r="26" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A26" s="133"/>
       <c r="B26" s="157" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C26" s="157"/>
       <c r="D26" s="147"/>
       <c r="E26" s="154"/>
       <c r="F26" s="162" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G26" s="169"/>
       <c r="H26" s="147">
@@ -14180,7 +14174,7 @@
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="133"/>
       <c r="B27" s="158" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C27" s="159"/>
       <c r="D27" s="147"/>
@@ -14228,7 +14222,7 @@
     <row r="29" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A29" s="133"/>
       <c r="B29" s="162" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C29" s="147">
         <f>C28*16%</f>
@@ -14240,7 +14234,7 @@
       </c>
       <c r="E29" s="154"/>
       <c r="F29" s="148" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G29" s="149"/>
       <c r="H29" s="147"/>
@@ -14250,7 +14244,7 @@
     <row r="30" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A30" s="133"/>
       <c r="B30" s="162" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C30" s="147">
         <f>+C28*6%</f>
@@ -14262,7 +14256,7 @@
       </c>
       <c r="E30" s="154"/>
       <c r="F30" s="148" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G30" s="149"/>
       <c r="H30" s="147"/>
@@ -14284,7 +14278,7 @@
       </c>
       <c r="E31" s="154"/>
       <c r="F31" s="148" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G31" s="149"/>
       <c r="H31" s="147"/>
@@ -14294,13 +14288,13 @@
     <row r="32" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A32" s="133"/>
       <c r="B32" s="143" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" s="145"/>
       <c r="D32" s="145"/>
       <c r="E32" s="154"/>
       <c r="F32" s="148" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G32" s="149"/>
       <c r="H32" s="147"/>
@@ -14310,13 +14304,13 @@
     <row r="33" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A33" s="133"/>
       <c r="B33" s="146" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C33" s="145"/>
       <c r="D33" s="145"/>
       <c r="E33" s="154"/>
       <c r="F33" s="148" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G33" s="149"/>
       <c r="H33" s="147"/>
@@ -14326,13 +14320,13 @@
     <row r="34" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A34" s="133"/>
       <c r="B34" s="146" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C34" s="147"/>
       <c r="D34" s="144"/>
       <c r="E34" s="154"/>
       <c r="F34" s="148" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G34" s="149"/>
       <c r="H34" s="147"/>
@@ -14342,13 +14336,13 @@
     <row r="35" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A35" s="133"/>
       <c r="B35" s="146" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C35" s="147"/>
       <c r="D35" s="144"/>
       <c r="E35" s="154"/>
       <c r="F35" s="148" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G35" s="149"/>
       <c r="H35" s="147"/>
@@ -14358,13 +14352,13 @@
     <row r="36" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A36" s="133"/>
       <c r="B36" s="146" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C36" s="147"/>
       <c r="D36" s="144"/>
       <c r="E36" s="154"/>
       <c r="F36" s="148" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G36" s="149"/>
       <c r="H36" s="147"/>
@@ -14374,13 +14368,13 @@
     <row r="37" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A37" s="133"/>
       <c r="B37" s="146" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C37" s="147"/>
       <c r="D37" s="144"/>
       <c r="E37" s="154"/>
       <c r="F37" s="148" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G37" s="149"/>
       <c r="H37" s="147"/>
@@ -14390,13 +14384,13 @@
     <row r="38" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A38" s="133"/>
       <c r="B38" s="146" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C38" s="147"/>
       <c r="D38" s="144"/>
       <c r="E38" s="154"/>
       <c r="F38" s="148" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G38" s="149"/>
       <c r="H38" s="147"/>
@@ -14406,13 +14400,13 @@
     <row r="39" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A39" s="133"/>
       <c r="B39" s="146" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" s="147"/>
       <c r="D39" s="144"/>
       <c r="E39" s="154"/>
       <c r="F39" s="148" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G39" s="149"/>
       <c r="H39" s="147"/>
@@ -14422,13 +14416,13 @@
     <row r="40" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A40" s="135"/>
       <c r="B40" s="146" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" s="147"/>
       <c r="D40" s="144"/>
       <c r="E40" s="154"/>
       <c r="F40" s="148" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G40" s="149"/>
       <c r="H40" s="147"/>
@@ -14438,13 +14432,13 @@
     <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="135"/>
       <c r="B41" s="146" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C41" s="147"/>
       <c r="D41" s="147"/>
       <c r="E41" s="154"/>
       <c r="F41" s="148" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G41" s="149"/>
       <c r="H41" s="147"/>
@@ -14454,13 +14448,13 @@
     <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="135"/>
       <c r="B42" s="153" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C42" s="147"/>
       <c r="D42" s="144"/>
       <c r="E42" s="154"/>
       <c r="F42" s="148" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G42" s="149"/>
       <c r="H42" s="147"/>
@@ -14470,13 +14464,13 @@
     <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A43" s="135"/>
       <c r="B43" s="155" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" s="147"/>
       <c r="D43" s="144"/>
       <c r="E43" s="154"/>
       <c r="F43" s="148" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G43" s="149"/>
       <c r="H43" s="147"/>
@@ -14486,13 +14480,13 @@
     <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="135"/>
       <c r="B44" s="146" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C44" s="156"/>
       <c r="D44" s="172"/>
       <c r="E44" s="154"/>
       <c r="F44" s="148" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G44" s="149"/>
       <c r="H44" s="145"/>
@@ -14502,13 +14496,13 @@
     <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="135"/>
       <c r="B45" s="146" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C45" s="147"/>
       <c r="D45" s="147"/>
       <c r="E45" s="154"/>
       <c r="F45" s="148" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G45" s="149"/>
       <c r="H45" s="145"/>
@@ -14518,13 +14512,13 @@
     <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="135"/>
       <c r="B46" s="146" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46" s="156"/>
       <c r="D46" s="172"/>
       <c r="E46" s="154"/>
       <c r="F46" s="148" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G46" s="149"/>
       <c r="H46" s="145"/>
@@ -14534,13 +14528,13 @@
     <row r="47" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="135"/>
       <c r="B47" s="146" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C47" s="156"/>
       <c r="D47" s="172"/>
       <c r="E47" s="154"/>
       <c r="F47" s="148" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G47" s="164"/>
       <c r="H47" s="145"/>
@@ -14550,7 +14544,7 @@
     <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A48" s="135"/>
       <c r="B48" s="146" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C48" s="156"/>
       <c r="D48" s="172"/>
@@ -14572,13 +14566,13 @@
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="135"/>
       <c r="B49" s="146" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C49" s="156"/>
       <c r="D49" s="172"/>
       <c r="E49" s="154"/>
       <c r="F49" s="162" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G49" s="169"/>
       <c r="H49" s="147">
@@ -14594,7 +14588,7 @@
     <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="135"/>
       <c r="B50" s="155" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C50" s="156"/>
       <c r="D50" s="156"/>
@@ -14618,28 +14612,28 @@
     </row>
     <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B51" s="155" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C51" s="155"/>
       <c r="D51" s="156"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B52" s="157" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C52" s="157"/>
       <c r="D52" s="156"/>
     </row>
     <row r="53" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B53" s="157" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C53" s="157"/>
       <c r="D53" s="156"/>
     </row>
     <row r="54" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="158" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C54" s="158"/>
       <c r="D54" s="156"/>
@@ -14659,7 +14653,7 @@
     </row>
     <row r="56" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B56" s="162" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C56" s="147">
         <f>C55*16%</f>
@@ -14735,10 +14729,10 @@
   <sheetData>
     <row r="1" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="177" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C1" s="177" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D1" s="179" t="s">
         <v>7</v>
@@ -14750,13 +14744,13 @@
         <v>13</v>
       </c>
       <c r="G1" s="177" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="177" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="177" t="s">
         <v>118</v>
-      </c>
-      <c r="H1" s="177" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" s="177" t="s">
-        <v>120</v>
       </c>
       <c r="J1" s="177" t="s">
         <v>1</v>
@@ -14899,19 +14893,19 @@
         <v>6</v>
       </c>
       <c r="C1" s="186" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="186" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="186" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="186" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="186" t="s">
+      <c r="G1" s="186" t="s">
         <v>122</v>
-      </c>
-      <c r="E1" s="186" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="186" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="186" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
@@ -14949,19 +14943,19 @@
         <v>6</v>
       </c>
       <c r="C1" s="186" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="186" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="186" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="186" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="186" t="s">
+      <c r="G1" s="186" t="s">
         <v>122</v>
-      </c>
-      <c r="E1" s="186" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="186" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="186" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -50,7 +50,7 @@
     <definedName name="TCF">[2]FOR!$B$8</definedName>
     <definedName name="VSDF">[2]FOR!$B$7</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -256,6 +256,597 @@
   </si>
   <si>
     <t xml:space="preserve">DESCUENTO SA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTURACIÓN </t>
+  </si>
+  <si>
+    <t>CONCEPTOS</t>
+  </si>
+  <si>
+    <t>TMM DIVISION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TMM SA</t>
+  </si>
+  <si>
+    <t>ISLA MONSERRAT</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>ISLA ARBOLEDA</t>
+  </si>
+  <si>
+    <t>ISLA AZTECA</t>
+  </si>
+  <si>
+    <t>ISLA CEDROS</t>
+  </si>
+  <si>
+    <t>ISLA MIRAMAR</t>
+  </si>
+  <si>
+    <t>ISLA VERDE</t>
+  </si>
+  <si>
+    <t>ISLA SANTA CRUZ</t>
+  </si>
+  <si>
+    <t>ISLA BLANCA</t>
+  </si>
+  <si>
+    <t>ISLA CIARI</t>
+  </si>
+  <si>
+    <t>ISLA JANITZIO</t>
+  </si>
+  <si>
+    <t>ISLA SAN IGNACIO</t>
+  </si>
+  <si>
+    <t>ISLA SAN GABRIEL</t>
+  </si>
+  <si>
+    <t>ISLA SAN DIEGO</t>
+  </si>
+  <si>
+    <t>AJUSTE INFONAVIT</t>
+  </si>
+  <si>
+    <t>INFONAVIT BIMESTRE ATERIOR</t>
+  </si>
+  <si>
+    <t>Prestamo Personal Asimilado</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>ISLA CRECIENTE</t>
+  </si>
+  <si>
+    <t>ISLA GRANDE</t>
+  </si>
+  <si>
+    <t>ISLA SAN JOSE</t>
+  </si>
+  <si>
+    <t>ISLA LEON</t>
+  </si>
+  <si>
+    <t>ISLA SAN LUIS</t>
+  </si>
+  <si>
+    <t>ISLA COLORADA</t>
+  </si>
+  <si>
+    <t>ISLA PASSAVERA</t>
+  </si>
+  <si>
+    <t>ISLA MARGOT MARIANNE</t>
+  </si>
+  <si>
+    <t>FONACOT</t>
+  </si>
+  <si>
+    <t>NOMBRE TRABAJADOR</t>
+  </si>
+  <si>
+    <t>NOMBRE BENFICIARIO</t>
+  </si>
+  <si>
+    <t>PORCENTAJE</t>
+  </si>
+  <si>
+    <t>MONTO ABORDO</t>
+  </si>
+  <si>
+    <t>MONTO DESCANSO</t>
+  </si>
+  <si>
+    <t>SUBSEA88</t>
+  </si>
+  <si>
+    <t>MONTO</t>
+  </si>
+  <si>
+    <t>DESCUENTO</t>
+  </si>
+  <si>
+    <t>TOTAL FALTANTE</t>
+  </si>
+  <si>
+    <t>TIPO DESCUENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCUENTO </t>
+  </si>
+  <si>
+    <t>TOTAL COBRADO</t>
+  </si>
+  <si>
+    <t>RETENCION DEL 6%</t>
+  </si>
+  <si>
+    <t>RETENCION 6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "TMM DIVISION"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "DEPOSITO ROUTES SCOTIABANK"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "IVA"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "RETENCION 6%"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "DEPOSITO BIRYUSA SCOTIABANK"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "TOTAL DEPOSITO BIRYUSA"</t>
+  </si>
+  <si>
+    <t>).Value =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoja.Cell(sep + 4, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoja.Cell(sep + 5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoja.Cell(sep + 7, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoja.Cell(sep + 9, </t>
+  </si>
+  <si>
+    <t>).Value ="</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoja.Cell(sep + 6, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoja.Cell(sep + 8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoja.Cell(sep + 10, </t>
+  </si>
+  <si>
+    <t>hoja.Cell(sep + 3,</t>
+  </si>
+  <si>
+    <t>amarrados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> azteca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cedros</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> miramar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> montserrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> blanca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ciari</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> janitzio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> luis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ignacio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gabriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> diego</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jose</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> creciente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> colorada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> subsea88</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> leon</t>
+  </si>
+  <si>
+    <t>passavera</t>
+  </si>
+  <si>
+    <t>margot</t>
+  </si>
+  <si>
+    <t>"=V" &amp;</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>+1 &amp; " + X" &amp;</t>
+  </si>
+  <si>
+    <t>+1 &amp; " + Z"&amp;</t>
+  </si>
+  <si>
+    <t>+1 &amp; "+AB" &amp;</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "TOTAL DEPOSITO OPERADORA"</t>
+  </si>
+  <si>
+    <t>"=</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; sep +4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; sep +3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; sep +5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; "*16%"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp;" *6%"</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; </t>
+  </si>
+  <si>
+    <t>+1 &amp; "+AA" &amp;</t>
+  </si>
+  <si>
+    <t>+1 &amp; "+Q" &amp;</t>
+  </si>
+  <si>
+    <t>"=W" &amp;</t>
+  </si>
+  <si>
+    <t>).FormulaA1 =</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; sep +7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; sep +8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; sep +9</t>
+  </si>
+  <si>
+    <t>.Style.Fill.BackgroundColor = XLColor.YellowProcess</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; sep +6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; sep +10</t>
+  </si>
+  <si>
+    <t>hoja.Range(</t>
+  </si>
+  <si>
+    <t>AMARRADOS</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>.Style.Fill.BackgroundColor = XLColor.PowderBlue</t>
+  </si>
+  <si>
+    <t>hoja.Cell(</t>
+  </si>
+  <si>
+    <t>NEVADO DE COLIMA</t>
+  </si>
+  <si>
+    <t>nevado</t>
+  </si>
+  <si>
+    <t>PROYECTO LODEROS1</t>
+  </si>
+  <si>
+    <t>PROYECTO MAERSK</t>
+  </si>
+  <si>
+    <t>loderos1</t>
+  </si>
+  <si>
+    <t>maersk</t>
+  </si>
+  <si>
+    <t>RED FISH</t>
+  </si>
+  <si>
+    <t>PROYECTO BELUGA 2</t>
+  </si>
+  <si>
+    <t>PROYECTO GO CANOPUS</t>
+  </si>
+  <si>
+    <t>SOVER</t>
+  </si>
+  <si>
+    <t>TRANSPORTES SOVER SA DE CV</t>
+  </si>
+  <si>
+    <t>VALORES AGREGADOS</t>
+  </si>
+  <si>
+    <t>PFB CORTO PLAZO</t>
+  </si>
+  <si>
+    <t>FONDO PFB 3%</t>
+  </si>
+  <si>
+    <t>COMISIÓN PLAN PENSIONES(8%)</t>
+  </si>
+  <si>
+    <t>IKE</t>
+  </si>
+  <si>
+    <t>PLAN FLEX LP</t>
+  </si>
+  <si>
+    <t>APOR PATRON PLAN FLEX LP</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>NETO</t>
+  </si>
+  <si>
+    <t>DESCUENTO PPP</t>
+  </si>
+  <si>
+    <t>TOTAL DEDUCCIONES</t>
+  </si>
+  <si>
+    <t>GANNET</t>
+  </si>
+  <si>
+    <t>Pension Alimentica  IKE</t>
+  </si>
+  <si>
+    <t>PENSION ALIMENTICIA PPP</t>
+  </si>
+  <si>
+    <t>DEP</t>
+  </si>
+  <si>
+    <t>AURORA PEARL</t>
+  </si>
+  <si>
+    <t>WORLD PERIDOT</t>
+  </si>
+  <si>
+    <t>AGENCIA GROESSINGER SAPI DE CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VSM IKE  </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>INFONAVIT PPP</t>
+  </si>
+  <si>
+    <t>COMISIÓN  SOVER (4%)</t>
   </si>
   <si>
     <r>
@@ -269,602 +860,11 @@
         <rFont val="Century Gothic"/>
         <family val="2"/>
       </rPr>
-      <t>(ISR, INFONAVIT)</t>
+      <t>(ISR, INFONAVIT, PENSIONES SA/PPP..)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">FACTURACIÓN </t>
-  </si>
-  <si>
-    <t>CONCEPTOS</t>
-  </si>
-  <si>
-    <t>TMM DIVISION</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TMM SA</t>
-  </si>
-  <si>
-    <t>ISLA MONSERRAT</t>
-  </si>
-  <si>
-    <t>IVA</t>
-  </si>
-  <si>
-    <t>ISLA ARBOLEDA</t>
-  </si>
-  <si>
-    <t>ISLA AZTECA</t>
-  </si>
-  <si>
-    <t>ISLA CEDROS</t>
-  </si>
-  <si>
-    <t>ISLA MIRAMAR</t>
-  </si>
-  <si>
-    <t>ISLA VERDE</t>
-  </si>
-  <si>
-    <t>ISLA SANTA CRUZ</t>
-  </si>
-  <si>
-    <t>ISLA BLANCA</t>
-  </si>
-  <si>
-    <t>ISLA CIARI</t>
-  </si>
-  <si>
-    <t>ISLA JANITZIO</t>
-  </si>
-  <si>
-    <t>ISLA SAN IGNACIO</t>
-  </si>
-  <si>
-    <t>ISLA SAN GABRIEL</t>
-  </si>
-  <si>
-    <t>ISLA SAN DIEGO</t>
-  </si>
-  <si>
-    <t>AJUSTE INFONAVIT</t>
-  </si>
-  <si>
-    <t>INFONAVIT BIMESTRE ATERIOR</t>
-  </si>
-  <si>
-    <t>Prestamo Personal Asimilado</t>
-  </si>
-  <si>
-    <t>Adeudo_Infonavit_Asimilado</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>ISLA CRECIENTE</t>
-  </si>
-  <si>
-    <t>ISLA GRANDE</t>
-  </si>
-  <si>
-    <t>ISLA SAN JOSE</t>
-  </si>
-  <si>
-    <t>ISLA LEON</t>
-  </si>
-  <si>
-    <t>ISLA SAN LUIS</t>
-  </si>
-  <si>
-    <t>ISLA COLORADA</t>
-  </si>
-  <si>
-    <t>ISLA PASSAVERA</t>
-  </si>
-  <si>
-    <t>ISLA MARGOT MARIANNE</t>
-  </si>
-  <si>
-    <t>FONACOT</t>
-  </si>
-  <si>
-    <t>NOMBRE TRABAJADOR</t>
-  </si>
-  <si>
-    <t>NOMBRE BENFICIARIO</t>
-  </si>
-  <si>
-    <t>PORCENTAJE</t>
-  </si>
-  <si>
-    <t>MONTO ABORDO</t>
-  </si>
-  <si>
-    <t>MONTO DESCANSO</t>
-  </si>
-  <si>
-    <t>SUBSEA88</t>
-  </si>
-  <si>
-    <t>MONTO</t>
-  </si>
-  <si>
-    <t>DESCUENTO</t>
-  </si>
-  <si>
-    <t>TOTAL FALTANTE</t>
-  </si>
-  <si>
-    <t>TIPO DESCUENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCUENTO </t>
-  </si>
-  <si>
-    <t>TOTAL COBRADO</t>
-  </si>
-  <si>
-    <t>RETENCION DEL 6%</t>
-  </si>
-  <si>
-    <t>RETENCION 6%</t>
-  </si>
-  <si>
-    <t>INFONAVIT BIM ANTERIOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "TMM DIVISION"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "DEPOSITO ROUTES SCOTIABANK"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "IVA"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "RETENCION 6%"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "DEPOSITO BIRYUSA SCOTIABANK"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "TOTAL DEPOSITO BIRYUSA"</t>
-  </si>
-  <si>
-    <t>).Value =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoja.Cell(sep + 4, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoja.Cell(sep + 5, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoja.Cell(sep + 7, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoja.Cell(sep + 9, </t>
-  </si>
-  <si>
-    <t>).Value ="</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoja.Cell(sep + 6, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoja.Cell(sep + 8, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoja.Cell(sep + 10, </t>
-  </si>
-  <si>
-    <t>hoja.Cell(sep + 3,</t>
-  </si>
-  <si>
-    <t>amarrados</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> azteca</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cedros</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> miramar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> montserrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> blanca</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ciari</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> janitzio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> luis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ignacio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gabriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> diego</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jose</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> creciente</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> colorada</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> subsea88</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> leon</t>
-  </si>
-  <si>
-    <t>passavera</t>
-  </si>
-  <si>
-    <t>margot</t>
-  </si>
-  <si>
-    <t>"=V" &amp;</t>
-  </si>
-  <si>
-    <t>+1</t>
-  </si>
-  <si>
-    <t>+1 &amp; " + X" &amp;</t>
-  </si>
-  <si>
-    <t>+1 &amp; " + Z"&amp;</t>
-  </si>
-  <si>
-    <t>+1 &amp; "+AB" &amp;</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "TOTAL DEPOSITO OPERADORA"</t>
-  </si>
-  <si>
-    <t>"=</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &amp; sep +4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &amp; sep +3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &amp; sep +5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &amp; "*16%"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &amp;" *6%"</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &amp; </t>
-  </si>
-  <si>
-    <t>+1 &amp; "+AA" &amp;</t>
-  </si>
-  <si>
-    <t>+1 &amp; "+Q" &amp;</t>
-  </si>
-  <si>
-    <t>"=W" &amp;</t>
-  </si>
-  <si>
-    <t>).FormulaA1 =</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &amp; sep +7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &amp; sep +8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &amp; sep +9</t>
-  </si>
-  <si>
-    <t>.Style.Fill.BackgroundColor = XLColor.YellowProcess</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &amp; sep +6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &amp; sep +10</t>
-  </si>
-  <si>
-    <t>hoja.Range(</t>
-  </si>
-  <si>
-    <t>AMARRADOS</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>.Style.Fill.BackgroundColor = XLColor.PowderBlue</t>
-  </si>
-  <si>
-    <t>hoja.Cell(</t>
-  </si>
-  <si>
-    <t>NEVADO DE COLIMA</t>
-  </si>
-  <si>
-    <t>nevado</t>
-  </si>
-  <si>
-    <t>PROYECTO LODEROS1</t>
-  </si>
-  <si>
-    <t>PROYECTO MAERSK</t>
-  </si>
-  <si>
-    <t>loderos1</t>
-  </si>
-  <si>
-    <t>maersk</t>
-  </si>
-  <si>
-    <t>RED FISH</t>
-  </si>
-  <si>
-    <t>PROYECTO BELUGA 2</t>
-  </si>
-  <si>
-    <t>PROYECTO GO CANOPUS</t>
-  </si>
-  <si>
-    <t>SOVER</t>
-  </si>
-  <si>
-    <t>TRANSPORTES SOVER SA DE CV</t>
-  </si>
-  <si>
-    <t>VALORES AGREGADOS</t>
-  </si>
-  <si>
-    <t>PFB CORTO PLAZO</t>
-  </si>
-  <si>
-    <t>FONDO PFB 3%</t>
-  </si>
-  <si>
-    <t>COMISIÓN  OPERADORA (4%)</t>
-  </si>
-  <si>
-    <t>COMISIÓN PLAN PENSIONES(8%)</t>
-  </si>
-  <si>
-    <t>IKE</t>
-  </si>
-  <si>
-    <t>PLAN FLEX LP</t>
-  </si>
-  <si>
-    <t>APOR PATRON PLAN FLEX LP</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>NETO</t>
-  </si>
-  <si>
-    <t>DESCUENTO PPP</t>
-  </si>
-  <si>
-    <t>TOTAL DEDUCCIONES</t>
-  </si>
-  <si>
-    <t>GANNET</t>
-  </si>
-  <si>
-    <t>Pension Alimentica  IKE</t>
-  </si>
-  <si>
-    <t>PENSION ALIMENTICIA PPP</t>
-  </si>
-  <si>
-    <t>DEP</t>
-  </si>
-  <si>
-    <t>AURORA PEARL</t>
-  </si>
-  <si>
-    <t>WORLD PERIDOT</t>
-  </si>
-  <si>
-    <t>AGENCIA GROESSINGER SAPI DE CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  VSM IKE  </t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
+    <t>Adeudo_Infonavit_IKE</t>
   </si>
 </sst>
 </file>
@@ -878,7 +878,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;???_-;_-@_-"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1169,6 +1169,11 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1527,7 +1532,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1491">
+  <cellStyleXfs count="1492">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3019,8 +3024,9 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3460,6 +3466,7 @@
     <xf numFmtId="4" fontId="16" fillId="15" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" xfId="1491" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3492,8 +3499,11 @@
     <xf numFmtId="0" fontId="27" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1491">
+  <cellStyles count="1492">
     <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Millares 2" xfId="3"/>
@@ -4939,6 +4949,7 @@
     <cellStyle name="Normal 98" xfId="1438"/>
     <cellStyle name="Normal 98 2" xfId="1439"/>
     <cellStyle name="Normal 99" xfId="1440"/>
+    <cellStyle name="Porcentaje" xfId="1491" builtinId="5"/>
     <cellStyle name="Porcentaje 2" xfId="1441"/>
     <cellStyle name="Porcentaje 2 10" xfId="1442"/>
     <cellStyle name="Porcentaje 2 10 2" xfId="1443"/>
@@ -5715,11 +5726,11 @@
   <dimension ref="B1:BK15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="W13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="F11" sqref="F11"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AH11" sqref="AH11:AH12"/>
+      <selection pane="bottomRight" activeCell="AF11" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5751,7 +5762,7 @@
     <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="18.42578125" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6396,90 +6407,90 @@
       <c r="BK10" s="50"/>
     </row>
     <row r="11" spans="2:63" s="84" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="209" t="s">
+      <c r="B11" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="209" t="s">
+      <c r="C11" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="209" t="s">
+      <c r="D11" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="209" t="s">
+      <c r="E11" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="209" t="s">
+      <c r="F11" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="209" t="s">
+      <c r="G11" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="209" t="s">
+      <c r="H11" s="210" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="209" t="s">
+      <c r="I11" s="210" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="209" t="s">
+      <c r="J11" s="210" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="209" t="s">
+      <c r="K11" s="210" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="209" t="s">
+      <c r="L11" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="209" t="s">
+      <c r="M11" s="210" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="211" t="s">
-        <v>114</v>
-      </c>
-      <c r="O11" s="211" t="s">
-        <v>210</v>
-      </c>
-      <c r="P11" s="209" t="s">
+      <c r="N11" s="212" t="s">
+        <v>262</v>
+      </c>
+      <c r="O11" s="212" t="s">
+        <v>206</v>
+      </c>
+      <c r="P11" s="210" t="s">
         <v>66</v>
       </c>
       <c r="Q11" s="128"/>
-      <c r="R11" s="209" t="s">
+      <c r="R11" s="210" t="s">
         <v>47</v>
       </c>
       <c r="S11" s="131"/>
       <c r="T11" s="131"/>
-      <c r="U11" s="209" t="s">
+      <c r="U11" s="210" t="s">
         <v>52</v>
       </c>
-      <c r="V11" s="209" t="s">
+      <c r="V11" s="210" t="s">
+        <v>191</v>
+      </c>
+      <c r="W11" s="211" t="s">
         <v>194</v>
       </c>
-      <c r="W11" s="210" t="s">
-        <v>197</v>
-      </c>
       <c r="X11" s="197"/>
-      <c r="Y11" s="209" t="s">
-        <v>67</v>
+      <c r="Y11" s="210" t="s">
+        <v>264</v>
       </c>
       <c r="Z11" s="85"/>
-      <c r="AA11" s="209" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB11" s="210" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC11" s="209" t="s">
+      <c r="AA11" s="210" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB11" s="211" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC11" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="AD11" s="209" t="s">
+      <c r="AD11" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="AE11" s="212" t="s">
+      <c r="AE11" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="AF11" s="209" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG11" s="209" t="s">
+      <c r="AF11" s="210" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG11" s="210" t="s">
         <v>1</v>
       </c>
       <c r="AH11"/>
@@ -6512,48 +6523,48 @@
       <c r="BJ11" s="83"/>
     </row>
     <row r="12" spans="2:63" s="86" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="209"/>
-      <c r="C12" s="209"/>
-      <c r="D12" s="209"/>
-      <c r="E12" s="209"/>
-      <c r="F12" s="209"/>
-      <c r="G12" s="209"/>
-      <c r="H12" s="209"/>
-      <c r="I12" s="209"/>
-      <c r="J12" s="209"/>
-      <c r="K12" s="209"/>
-      <c r="L12" s="209"/>
-      <c r="M12" s="209"/>
-      <c r="N12" s="211"/>
-      <c r="O12" s="211"/>
-      <c r="P12" s="209"/>
+      <c r="B12" s="210"/>
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="210"/>
+      <c r="F12" s="210"/>
+      <c r="G12" s="210"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="210"/>
+      <c r="K12" s="210"/>
+      <c r="L12" s="210"/>
+      <c r="M12" s="210"/>
+      <c r="N12" s="212"/>
+      <c r="O12" s="212"/>
+      <c r="P12" s="210"/>
       <c r="Q12" s="128" t="s">
-        <v>206</v>
-      </c>
-      <c r="R12" s="209" t="s">
+        <v>202</v>
+      </c>
+      <c r="R12" s="210" t="s">
         <v>57</v>
       </c>
       <c r="S12" s="131" t="s">
         <v>60</v>
       </c>
       <c r="T12" s="131" t="s">
-        <v>99</v>
-      </c>
-      <c r="U12" s="209"/>
-      <c r="V12" s="209"/>
-      <c r="W12" s="210"/>
+        <v>97</v>
+      </c>
+      <c r="U12" s="210"/>
+      <c r="V12" s="210"/>
+      <c r="W12" s="211"/>
       <c r="X12" s="197" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y12" s="209"/>
+        <v>195</v>
+      </c>
+      <c r="Y12" s="210"/>
       <c r="Z12" s="85"/>
-      <c r="AA12" s="209"/>
-      <c r="AB12" s="210"/>
-      <c r="AC12" s="209"/>
-      <c r="AD12" s="209"/>
-      <c r="AE12" s="212"/>
-      <c r="AF12" s="209"/>
-      <c r="AG12" s="209"/>
+      <c r="AA12" s="210"/>
+      <c r="AB12" s="211"/>
+      <c r="AC12" s="210"/>
+      <c r="AD12" s="210"/>
+      <c r="AE12" s="213"/>
+      <c r="AF12" s="210"/>
+      <c r="AG12" s="210"/>
       <c r="AH12"/>
       <c r="AI12" s="87"/>
       <c r="AJ12" s="88"/>
@@ -6722,10 +6733,10 @@
   <dimension ref="A1:KJ51"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="10" ySplit="8" topLeftCell="AU9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="8" topLeftCell="BE9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="L9:BG9"/>
+      <selection pane="bottomRight" activeCell="BF1" sqref="BF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6763,19 +6774,20 @@
     <col min="41" max="42" width="13.42578125" customWidth="1"/>
     <col min="43" max="49" width="14.28515625" customWidth="1"/>
     <col min="50" max="50" width="12.28515625" customWidth="1"/>
-    <col min="51" max="58" width="11.42578125" style="10" customWidth="1"/>
+    <col min="51" max="57" width="11.42578125" style="10" customWidth="1"/>
+    <col min="58" max="58" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:296" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
-      <c r="B1" s="213" t="s">
+      <c r="B1" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
       <c r="G1" s="64"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -6824,7 +6836,7 @@
     <row r="2" spans="1:296" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="195" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="51"/>
@@ -6877,13 +6889,13 @@
     </row>
     <row r="3" spans="1:296" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="215" t="s">
+      <c r="B3" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
       <c r="G3" s="66"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -6937,13 +6949,13 @@
     </row>
     <row r="4" spans="1:296" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
       <c r="G4" s="66"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -7297,7 +7309,7 @@
         <v>49</v>
       </c>
       <c r="O8" s="208" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P8" s="45" t="s">
         <v>30</v>
@@ -7345,10 +7357,10 @@
         <v>43</v>
       </c>
       <c r="AE8" s="200" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AF8" s="200" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG8" s="202" t="s">
         <v>44</v>
@@ -7369,10 +7381,10 @@
         <v>10</v>
       </c>
       <c r="AM8" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN8" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO8" s="45" t="s">
         <v>47</v>
@@ -7384,22 +7396,22 @@
         <v>60</v>
       </c>
       <c r="AR8" s="127" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AS8" s="200" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AT8" s="200" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU8" s="205" t="s">
         <v>203</v>
       </c>
-      <c r="AU8" s="205" t="s">
-        <v>207</v>
-      </c>
       <c r="AV8" s="201" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AW8" s="173" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AX8" s="175" t="s">
         <v>23</v>
@@ -7414,7 +7426,7 @@
         <v>62</v>
       </c>
       <c r="BB8" s="196" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BC8" s="177" t="s">
         <v>63</v>
@@ -7423,13 +7435,13 @@
         <v>64</v>
       </c>
       <c r="BE8" s="174" t="s">
-        <v>88</v>
-      </c>
-      <c r="BF8" s="127" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="BF8" s="222" t="s">
+        <v>265</v>
       </c>
       <c r="BG8" s="200" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="BH8" s="10"/>
       <c r="BI8" s="10"/>
@@ -9938,13 +9950,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:CW59"/>
+  <dimension ref="A1:CV59"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="8" ySplit="8" topLeftCell="AC9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="8" topLeftCell="AM9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:AX9"/>
+      <selection pane="bottomRight" activeCell="AQ44" sqref="AQ44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9983,20 +9995,21 @@
     <col min="42" max="42" width="11.42578125" style="10"/>
     <col min="43" max="47" width="14.28515625" customWidth="1"/>
     <col min="48" max="48" width="12.42578125" customWidth="1"/>
-    <col min="49" max="50" width="11.42578125" style="10" customWidth="1"/>
-    <col min="51" max="51" width="11.42578125" style="10" hidden="1" customWidth="1"/>
-    <col min="52" max="58" width="11.42578125" style="10"/>
+    <col min="49" max="49" width="11.42578125" style="10" customWidth="1"/>
+    <col min="50" max="50" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.42578125" style="10" customWidth="1"/>
+    <col min="52" max="57" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:100" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
-      <c r="B1" s="213" t="s">
+      <c r="B1" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -10038,10 +10051,10 @@
       <c r="AT1" s="24"/>
       <c r="AU1" s="24"/>
     </row>
-    <row r="2" spans="1:101" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:100" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="195" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -10088,15 +10101,15 @@
       <c r="AT2" s="24"/>
       <c r="AU2" s="24"/>
     </row>
-    <row r="3" spans="1:101" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:100" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="215" t="s">
+      <c r="B3" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
       <c r="G3" s="30"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -10147,17 +10160,16 @@
       <c r="BC3" s="109"/>
       <c r="BD3" s="109"/>
       <c r="BE3" s="109"/>
-      <c r="BF3" s="109"/>
-    </row>
-    <row r="4" spans="1:101" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:100" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
       <c r="G4" s="66"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -10199,7 +10211,7 @@
       <c r="AT4" s="24"/>
       <c r="AU4" s="24"/>
     </row>
-    <row r="5" spans="1:101" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:100" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="29"/>
       <c r="C5" s="24"/>
@@ -10247,7 +10259,7 @@
       <c r="AT5" s="24"/>
       <c r="AU5" s="24"/>
     </row>
-    <row r="6" spans="1:101" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:100" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="29"/>
       <c r="C6" s="24"/>
@@ -10295,6 +10307,7 @@
       <c r="AT6" s="24"/>
       <c r="AU6" s="24"/>
       <c r="AV6"/>
+      <c r="BF6"/>
       <c r="BG6"/>
       <c r="BH6"/>
       <c r="BI6"/>
@@ -10337,9 +10350,8 @@
       <c r="CT6"/>
       <c r="CU6"/>
       <c r="CV6"/>
-      <c r="CW6"/>
-    </row>
-    <row r="7" spans="1:101" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:100" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -10378,7 +10390,7 @@
       <c r="BC7" s="109"/>
       <c r="BD7" s="109"/>
       <c r="BE7" s="109"/>
-      <c r="BF7" s="109"/>
+      <c r="BF7" s="9"/>
       <c r="BG7" s="9"/>
       <c r="BH7" s="9"/>
       <c r="BI7" s="9"/>
@@ -10421,9 +10433,8 @@
       <c r="CT7" s="9"/>
       <c r="CU7" s="9"/>
       <c r="CV7" s="9"/>
-      <c r="CW7" s="9"/>
-    </row>
-    <row r="8" spans="1:101" s="45" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:100" s="45" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>16</v>
       </c>
@@ -10530,10 +10541,10 @@
         <v>10</v>
       </c>
       <c r="AJ8" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK8" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL8" s="45" t="s">
         <v>47</v>
@@ -10545,7 +10556,7 @@
         <v>60</v>
       </c>
       <c r="AO8" s="127" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AP8" s="126" t="s">
         <v>48</v>
@@ -10569,13 +10580,13 @@
         <v>64</v>
       </c>
       <c r="AW8" s="127" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX8" s="127" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="AX8" s="222" t="s">
+        <v>265</v>
       </c>
       <c r="AY8" s="200" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AZ8" s="10"/>
       <c r="BA8" s="10"/>
@@ -10626,161 +10637,160 @@
       <c r="CT8" s="10"/>
       <c r="CU8" s="10"/>
       <c r="CV8" s="10"/>
-      <c r="CW8" s="10"/>
-    </row>
-    <row r="9" spans="1:101" s="78" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:100" s="78" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="G9" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="I9" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="K9" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="M9" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="N9" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="K9" s="49" t="s">
+      <c r="O9" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="P9" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="M9" s="49" t="s">
+      <c r="Q9" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="O9" s="49" t="s">
+      <c r="S9" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="T9" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="Q9" s="49" t="s">
+      <c r="U9" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="V9" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="S9" s="49" t="s">
+      <c r="W9" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="X9" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="U9" s="49" t="s">
+      <c r="Y9" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="V9" s="5" t="s">
+      <c r="Z9" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="W9" s="49" t="s">
+      <c r="AA9" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="X9" s="5" t="s">
+      <c r="AB9" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="Y9" s="49" t="s">
+      <c r="AC9" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="Z9" s="5" t="s">
+      <c r="AD9" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="AA9" s="49" t="s">
+      <c r="AE9" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="AB9" s="5" t="s">
+      <c r="AF9" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="AC9" s="49" t="s">
+      <c r="AG9" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="AD9" s="5" t="s">
+      <c r="AH9" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="AE9" s="49" t="s">
+      <c r="AI9" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="AF9" s="5" t="s">
+      <c r="AJ9" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="AG9" s="49" t="s">
+      <c r="AK9" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="AH9" s="5" t="s">
+      <c r="AL9" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="AI9" s="49" t="s">
+      <c r="AM9" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="AJ9" s="5" t="s">
+      <c r="AN9" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="AK9" s="49" t="s">
+      <c r="AO9" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="AL9" s="5" t="s">
+      <c r="AP9" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="AM9" s="49" t="s">
+      <c r="AQ9" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="AN9" s="5" t="s">
+      <c r="AR9" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="AO9" s="49" t="s">
+      <c r="AS9" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="AP9" s="5" t="s">
+      <c r="AT9" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="AQ9" s="49" t="s">
+      <c r="AU9" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="AR9" s="5" t="s">
+      <c r="AV9" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="AS9" s="49" t="s">
+      <c r="AW9" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="AT9" s="5" t="s">
+      <c r="AX9" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="AU9" s="49" t="s">
-        <v>262</v>
-      </c>
-      <c r="AV9" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="AW9" s="49" t="s">
-        <v>264</v>
-      </c>
-      <c r="AX9" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:101" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:100" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="49"/>
       <c r="B10" s="5"/>
       <c r="C10" s="62"/>
@@ -10825,7 +10835,7 @@
       <c r="AU10" s="48"/>
       <c r="AV10" s="53"/>
     </row>
-    <row r="11" spans="1:101" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:100" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="5"/>
       <c r="C11" s="62"/>
@@ -10872,9 +10882,8 @@
       <c r="AW11" s="48"/>
       <c r="AX11" s="48"/>
       <c r="AY11" s="48"/>
-      <c r="AZ11" s="48"/>
-    </row>
-    <row r="12" spans="1:101" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:100" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
       <c r="B12" s="5"/>
       <c r="C12" s="62"/>
@@ -10921,9 +10930,8 @@
       <c r="AW12" s="48"/>
       <c r="AX12" s="48"/>
       <c r="AY12" s="48"/>
-      <c r="AZ12" s="48"/>
-    </row>
-    <row r="13" spans="1:101" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:100" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
       <c r="B13" s="5"/>
       <c r="C13" s="62"/>
@@ -10970,9 +10978,8 @@
       <c r="AW13" s="48"/>
       <c r="AX13" s="48"/>
       <c r="AY13" s="48"/>
-      <c r="AZ13" s="48"/>
-    </row>
-    <row r="14" spans="1:101" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:100" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
       <c r="B14" s="5"/>
       <c r="C14" s="62"/>
@@ -11019,9 +11026,8 @@
       <c r="AW14" s="48"/>
       <c r="AX14" s="48"/>
       <c r="AY14" s="48"/>
-      <c r="AZ14" s="48"/>
-    </row>
-    <row r="15" spans="1:101" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:100" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="B15" s="5"/>
       <c r="C15" s="62"/>
@@ -11068,9 +11074,8 @@
       <c r="AW15" s="48"/>
       <c r="AX15" s="48"/>
       <c r="AY15" s="48"/>
-      <c r="AZ15" s="48"/>
-    </row>
-    <row r="16" spans="1:101" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:100" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="B16" s="5"/>
       <c r="C16" s="62"/>
@@ -11117,9 +11122,8 @@
       <c r="AW16" s="48"/>
       <c r="AX16" s="48"/>
       <c r="AY16" s="48"/>
-      <c r="AZ16" s="48"/>
-    </row>
-    <row r="17" spans="1:52" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:51" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
       <c r="B17" s="5"/>
       <c r="C17" s="62"/>
@@ -11166,9 +11170,8 @@
       <c r="AW17" s="48"/>
       <c r="AX17" s="48"/>
       <c r="AY17" s="48"/>
-      <c r="AZ17" s="48"/>
-    </row>
-    <row r="18" spans="1:52" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:51" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="B18" s="5"/>
       <c r="C18" s="62"/>
@@ -11214,9 +11217,8 @@
       <c r="AW18" s="48"/>
       <c r="AX18" s="48"/>
       <c r="AY18" s="48"/>
-      <c r="AZ18" s="48"/>
-    </row>
-    <row r="19" spans="1:52" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:51" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="5"/>
       <c r="C19" s="62"/>
@@ -11261,9 +11263,8 @@
       <c r="AW19" s="48"/>
       <c r="AX19" s="48"/>
       <c r="AY19" s="48"/>
-      <c r="AZ19" s="48"/>
-    </row>
-    <row r="20" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="46"/>
       <c r="B20" s="38"/>
       <c r="C20" s="40"/>
@@ -11315,9 +11316,8 @@
       <c r="AW20" s="48"/>
       <c r="AX20" s="48"/>
       <c r="AY20" s="48"/>
-      <c r="AZ20" s="48"/>
-    </row>
-    <row r="21" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="46"/>
       <c r="B21" s="38"/>
       <c r="C21" s="40"/>
@@ -11368,9 +11368,8 @@
       <c r="AW21" s="48"/>
       <c r="AX21" s="48"/>
       <c r="AY21" s="48"/>
-      <c r="AZ21" s="48"/>
-    </row>
-    <row r="22" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="46"/>
       <c r="B22" s="38"/>
       <c r="C22" s="40"/>
@@ -11421,9 +11420,8 @@
       <c r="AW22" s="48"/>
       <c r="AX22" s="48"/>
       <c r="AY22" s="48"/>
-      <c r="AZ22" s="48"/>
-    </row>
-    <row r="23" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="46"/>
       <c r="B23" s="38"/>
       <c r="C23" s="40"/>
@@ -11474,9 +11472,8 @@
       <c r="AW23" s="48"/>
       <c r="AX23" s="48"/>
       <c r="AY23" s="48"/>
-      <c r="AZ23" s="48"/>
-    </row>
-    <row r="24" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="46"/>
       <c r="B24" s="38"/>
       <c r="C24" s="40"/>
@@ -11527,9 +11524,8 @@
       <c r="AW24" s="48"/>
       <c r="AX24" s="48"/>
       <c r="AY24" s="48"/>
-      <c r="AZ24" s="48"/>
-    </row>
-    <row r="25" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" s="38"/>
       <c r="C25" s="40"/>
@@ -11580,9 +11576,8 @@
       <c r="AW25" s="48"/>
       <c r="AX25" s="48"/>
       <c r="AY25" s="48"/>
-      <c r="AZ25" s="48"/>
-    </row>
-    <row r="26" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" s="38"/>
       <c r="C26" s="40"/>
@@ -11633,9 +11628,8 @@
       <c r="AW26" s="48"/>
       <c r="AX26" s="48"/>
       <c r="AY26" s="48"/>
-      <c r="AZ26" s="48"/>
-    </row>
-    <row r="27" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="46"/>
       <c r="B27" s="38"/>
       <c r="C27" s="40"/>
@@ -11686,9 +11680,8 @@
       <c r="AW27" s="48"/>
       <c r="AX27" s="48"/>
       <c r="AY27" s="48"/>
-      <c r="AZ27" s="48"/>
-    </row>
-    <row r="28" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="46"/>
       <c r="B28" s="38"/>
       <c r="C28" s="40"/>
@@ -11739,9 +11732,8 @@
       <c r="AW28" s="48"/>
       <c r="AX28" s="48"/>
       <c r="AY28" s="48"/>
-      <c r="AZ28" s="48"/>
-    </row>
-    <row r="29" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="46"/>
       <c r="B29" s="38"/>
       <c r="C29" s="40"/>
@@ -11792,9 +11784,8 @@
       <c r="AW29" s="48"/>
       <c r="AX29" s="48"/>
       <c r="AY29" s="48"/>
-      <c r="AZ29" s="48"/>
-    </row>
-    <row r="30" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="46"/>
       <c r="B30" s="38"/>
       <c r="C30" s="40"/>
@@ -11845,9 +11836,8 @@
       <c r="AW30" s="48"/>
       <c r="AX30" s="48"/>
       <c r="AY30" s="48"/>
-      <c r="AZ30" s="48"/>
-    </row>
-    <row r="31" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="38"/>
       <c r="C31" s="40"/>
@@ -11898,9 +11888,8 @@
       <c r="AW31" s="48"/>
       <c r="AX31" s="48"/>
       <c r="AY31" s="48"/>
-      <c r="AZ31" s="48"/>
-    </row>
-    <row r="32" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" s="38"/>
       <c r="C32" s="40"/>
@@ -11951,9 +11940,8 @@
       <c r="AW32" s="48"/>
       <c r="AX32" s="48"/>
       <c r="AY32" s="48"/>
-      <c r="AZ32" s="48"/>
-    </row>
-    <row r="33" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39"/>
       <c r="B33" s="38"/>
       <c r="C33" s="40"/>
@@ -12004,9 +11992,8 @@
       <c r="AW33" s="48"/>
       <c r="AX33" s="48"/>
       <c r="AY33" s="48"/>
-      <c r="AZ33" s="48"/>
-    </row>
-    <row r="34" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
       <c r="B34" s="38"/>
       <c r="C34" s="40"/>
@@ -12057,9 +12044,8 @@
       <c r="AW34" s="48"/>
       <c r="AX34" s="48"/>
       <c r="AY34" s="48"/>
-      <c r="AZ34" s="48"/>
-    </row>
-    <row r="35" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
@@ -12110,9 +12096,8 @@
       <c r="AW35" s="48"/>
       <c r="AX35" s="48"/>
       <c r="AY35" s="48"/>
-      <c r="AZ35" s="48"/>
-    </row>
-    <row r="36" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="36"/>
@@ -12163,9 +12148,8 @@
       <c r="AW36" s="48"/>
       <c r="AX36" s="48"/>
       <c r="AY36" s="48"/>
-      <c r="AZ36" s="48"/>
-    </row>
-    <row r="37" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -12216,9 +12200,8 @@
       <c r="AW37" s="48"/>
       <c r="AX37" s="48"/>
       <c r="AY37" s="48"/>
-      <c r="AZ37" s="48"/>
-    </row>
-    <row r="38" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -12269,9 +12252,8 @@
       <c r="AW38" s="48"/>
       <c r="AX38" s="48"/>
       <c r="AY38" s="48"/>
-      <c r="AZ38" s="48"/>
-    </row>
-    <row r="39" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39"/>
       <c r="B39" s="38"/>
       <c r="C39" s="40"/>
@@ -12322,9 +12304,8 @@
       <c r="AW39" s="48"/>
       <c r="AX39" s="48"/>
       <c r="AY39" s="48"/>
-      <c r="AZ39" s="48"/>
-    </row>
-    <row r="40" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39"/>
       <c r="B40" s="38"/>
       <c r="C40" s="40"/>
@@ -12375,9 +12356,8 @@
       <c r="AW40" s="48"/>
       <c r="AX40" s="48"/>
       <c r="AY40" s="48"/>
-      <c r="AZ40" s="48"/>
-    </row>
-    <row r="41" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="35"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
@@ -12428,9 +12408,8 @@
       <c r="AW41" s="48"/>
       <c r="AX41" s="48"/>
       <c r="AY41" s="48"/>
-      <c r="AZ41" s="48"/>
-    </row>
-    <row r="42" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
       <c r="C42" s="36"/>
@@ -12481,9 +12460,8 @@
       <c r="AW42" s="48"/>
       <c r="AX42" s="48"/>
       <c r="AY42" s="48"/>
-      <c r="AZ42" s="48"/>
-    </row>
-    <row r="43" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -12534,9 +12512,8 @@
       <c r="AW43" s="48"/>
       <c r="AX43" s="48"/>
       <c r="AY43" s="48"/>
-      <c r="AZ43" s="48"/>
-    </row>
-    <row r="44" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -12587,9 +12564,8 @@
       <c r="AW44" s="48"/>
       <c r="AX44" s="48"/>
       <c r="AY44" s="48"/>
-      <c r="AZ44" s="48"/>
-    </row>
-    <row r="45" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39"/>
       <c r="B45" s="38"/>
       <c r="C45" s="40"/>
@@ -12640,9 +12616,8 @@
       <c r="AW45" s="48"/>
       <c r="AX45" s="48"/>
       <c r="AY45" s="48"/>
-      <c r="AZ45" s="48"/>
-    </row>
-    <row r="46" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="38"/>
       <c r="C46" s="40"/>
@@ -12693,9 +12668,8 @@
       <c r="AW46" s="48"/>
       <c r="AX46" s="48"/>
       <c r="AY46" s="48"/>
-      <c r="AZ46" s="48"/>
-    </row>
-    <row r="47" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="35"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -12746,9 +12720,8 @@
       <c r="AW47" s="48"/>
       <c r="AX47" s="48"/>
       <c r="AY47" s="48"/>
-      <c r="AZ47" s="48"/>
-    </row>
-    <row r="48" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
       <c r="C48" s="36"/>
@@ -12799,9 +12772,8 @@
       <c r="AW48" s="48"/>
       <c r="AX48" s="48"/>
       <c r="AY48" s="48"/>
-      <c r="AZ48" s="48"/>
-    </row>
-    <row r="49" spans="1:52" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:51" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
@@ -12852,9 +12824,8 @@
       <c r="AW49" s="48"/>
       <c r="AX49" s="48"/>
       <c r="AY49" s="48"/>
-      <c r="AZ49" s="48"/>
-    </row>
-    <row r="50" spans="1:52" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -12899,9 +12870,8 @@
       <c r="AW50" s="48"/>
       <c r="AX50" s="48"/>
       <c r="AY50" s="48"/>
-      <c r="AZ50" s="48"/>
-    </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A51" s="39"/>
       <c r="B51" s="38"/>
       <c r="C51" s="40"/>
@@ -12946,9 +12916,8 @@
       <c r="AW51" s="48"/>
       <c r="AX51" s="48"/>
       <c r="AY51" s="48"/>
-      <c r="AZ51" s="48"/>
-    </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A52" s="39"/>
       <c r="B52" s="38"/>
       <c r="C52" s="40"/>
@@ -12988,7 +12957,7 @@
       <c r="AM52" s="40"/>
       <c r="AN52" s="40"/>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A53" s="35"/>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -13028,7 +12997,7 @@
       <c r="AM53" s="30"/>
       <c r="AN53" s="30"/>
     </row>
-    <row r="54" spans="1:52" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="24"/>
       <c r="C54" s="36"/>
@@ -13068,7 +13037,7 @@
       <c r="AM54" s="36"/>
       <c r="AN54" s="36"/>
     </row>
-    <row r="55" spans="1:52" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
@@ -13108,7 +13077,7 @@
       <c r="AM55" s="22"/>
       <c r="AN55" s="22"/>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A56" s="34"/>
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
@@ -13148,7 +13117,7 @@
       <c r="AM56" s="30"/>
       <c r="AN56" s="30"/>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A57" s="35"/>
       <c r="B57" s="38"/>
       <c r="C57" s="36"/>
@@ -13188,7 +13157,7 @@
       <c r="AM57" s="36"/>
       <c r="AN57" s="36"/>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.2">
       <c r="X59" s="8"/>
       <c r="AE59" s="8"/>
       <c r="AF59" s="8"/>
@@ -13255,10 +13224,10 @@
         <v>8</v>
       </c>
       <c r="H5" s="93" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I5" s="92" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J5" s="98"/>
       <c r="K5" s="98"/>
@@ -13877,7 +13846,7 @@
         <v>hoja.Cell("T" &amp; sep</v>
       </c>
       <c r="F1" s="183" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G1" s="180" t="str">
         <f>+A1&amp;C4</f>
@@ -13888,507 +13857,507 @@
       <c r="A2" s="189"/>
       <c r="B2" s="189"/>
       <c r="C2" s="185" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E2" s="182" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;" sep + 1"</f>
         <v>hoja.Cell("T" &amp;  sep + 1</v>
       </c>
       <c r="F2" s="183" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="180" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="180" t="str">
         <f>+B1</f>
         <v xml:space="preserve"> leon</v>
       </c>
       <c r="C3" s="185" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E3" s="182" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 3"</f>
         <v>hoja.Cell("T" &amp; sep + 3</v>
       </c>
       <c r="F3" s="183" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E4" s="182" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 4"</f>
         <v>hoja.Cell("T" &amp; sep + 4</v>
       </c>
       <c r="F4" s="183" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C5" s="184" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E5" s="182" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 5"</f>
         <v>hoja.Cell("T" &amp; sep + 5</v>
       </c>
       <c r="F5" s="183" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C6" s="187" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E6" s="182" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 6"</f>
         <v>hoja.Cell("T" &amp; sep + 6</v>
       </c>
       <c r="F6" s="183" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G6" s="180" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C7" s="187" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E7" s="181"/>
       <c r="F7" s="183"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C8" s="187" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E8" s="180" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 7"</f>
         <v>hoja.Cell("T" &amp; sep + 7</v>
       </c>
       <c r="F8" s="183" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C9" s="187" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E9" s="180" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 8"</f>
         <v>hoja.Cell("T" &amp; sep + 8</v>
       </c>
       <c r="F9" s="183" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C10" s="187" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E10" s="180" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C3&amp;C4&amp;C17&amp;"sep + 9"</f>
         <v>hoja.Cell("T" &amp; sep + 9</v>
       </c>
       <c r="F10" s="183" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C11" s="184" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C12" s="184" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="180" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C13" s="184" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C14" s="184" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E14" s="180" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C11</f>
         <v xml:space="preserve">hoja.Cell("V" &amp; sep +3 </v>
       </c>
       <c r="F14" s="180" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G14" s="180" t="str">
         <f>C5&amp;B1&amp;C6&amp;B1&amp;C7&amp;B1&amp;C8&amp;B1&amp;C9</f>
         <v>"=V" &amp; leon+1 &amp; " + X" &amp; leon+1 &amp; " + Z"&amp; leon+1 &amp; "+AB" &amp; leon+1</v>
       </c>
       <c r="H14" s="180" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C15" s="184" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E15" s="180" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C12</f>
         <v>hoja.Cell("V" &amp; sep +4</v>
       </c>
       <c r="F15" s="180" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G15" s="180" t="str">
         <f>+C10&amp;C2&amp;C4&amp;C11&amp;C15</f>
         <v>"=V" &amp; sep +3  &amp; "*16%"</v>
       </c>
       <c r="H15" s="180" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C16" s="184" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E16" s="180" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C13</f>
         <v>hoja.Cell("V" &amp; sep +5</v>
       </c>
       <c r="F16" s="180" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G16" s="180" t="str">
         <f>+C10&amp;C2&amp;C4&amp;C11&amp;C16</f>
         <v>"=V" &amp; sep +3  &amp;" *6%"</v>
       </c>
       <c r="H16" s="180" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C17" s="184" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E17" s="180" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C14</f>
         <v xml:space="preserve">hoja.Cell("V" &amp; sep +6 </v>
       </c>
       <c r="F17" s="180" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G17" s="180" t="str">
         <f>+C10&amp;C2&amp;C4&amp;C11&amp;C17&amp;C4&amp;C18&amp;C2&amp;C4&amp;C12&amp;C17&amp;C4&amp;C19&amp;C2&amp;C4&amp;C13</f>
         <v>"=V" &amp; sep +3  &amp; "+V" &amp; sep +4 &amp; "-V" &amp; sep +5</v>
       </c>
       <c r="H17" s="180" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C18" s="184" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F18" s="180"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C19" s="184" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E19" s="180" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C23</f>
         <v>hoja.Cell("V" &amp; sep +7</v>
       </c>
       <c r="F19" s="180" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G19" s="180" t="str">
         <f>+C20&amp;B1&amp;C21&amp;B1&amp;C22&amp;B1&amp;C9</f>
         <v>"=W" &amp; leon+1 &amp; "+AA" &amp; leon+1 &amp; "+Q" &amp; leon+1</v>
       </c>
       <c r="H19" s="180" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C20" s="184" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E20" s="180" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C24</f>
         <v>hoja.Cell("V" &amp; sep +8</v>
       </c>
       <c r="F20" s="180" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G20" s="180" t="str">
         <f>+C10&amp;C2&amp;C4&amp;C23&amp;C15</f>
         <v>"=V" &amp; sep +7 &amp; "*16%"</v>
       </c>
       <c r="H20" s="180" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C21" s="187" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E21" s="180" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C25</f>
         <v>hoja.Cell("V" &amp; sep +9</v>
       </c>
       <c r="F21" s="180" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G21" s="180" t="str">
         <f>+C10&amp;C2&amp;C4&amp;C23&amp;C17&amp;C4&amp;C18&amp;C2&amp;C4&amp;C24</f>
         <v>"=V" &amp; sep +7 &amp; "+V" &amp; sep +8</v>
       </c>
       <c r="H21" s="180" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C22" s="187" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F22" s="180"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C23" s="184" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E23" s="180" t="str">
         <f>+"hoja.Cell("&amp;C4&amp;C2&amp;C4&amp;C26</f>
         <v>hoja.Cell("V" &amp; sep +10</v>
       </c>
       <c r="F23" s="180" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G23" s="180" t="str">
         <f>+C10&amp;C2&amp;C4&amp;C14&amp;C17&amp;C4&amp;C18&amp;C2&amp;C4&amp;C25</f>
         <v>"=V" &amp; sep +6  &amp; "+V" &amp; sep +9</v>
       </c>
       <c r="H23" s="180" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C24" s="184" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="180" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B25" s="180" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C25" s="184" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="180" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B26" s="180" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C26" s="184" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="180" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B27" s="180" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="180" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B28" s="180" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C28" s="184" t="s">
-        <v>180</v>
-      </c>
-      <c r="E28" s="218" t="str">
+        <v>177</v>
+      </c>
+      <c r="E28" s="219" t="str">
         <f>+C28&amp;C4&amp;C3&amp;C4&amp;C25&amp;","&amp;C4&amp;C2&amp;C4&amp;C25&amp;")"</f>
         <v>hoja.Range("T" &amp; sep +9,"V" &amp; sep +9)</v>
       </c>
-      <c r="F28" s="218"/>
+      <c r="F28" s="219"/>
       <c r="G28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C29" s="184" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E29" t="str">
         <f>+C28&amp;C4&amp;C3&amp;C4&amp;C14&amp;","&amp;C4&amp;C2&amp;C4&amp;C14&amp;")"</f>
         <v>hoja.Range("T" &amp; sep +6 ,"V" &amp; sep +6 )</v>
       </c>
       <c r="G29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -14397,7 +14366,7 @@
         <v>hoja.Cell("T" &amp; sep)</v>
       </c>
       <c r="F30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -14413,8 +14382,8 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14458,49 +14427,49 @@
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="132"/>
       <c r="B3" s="135" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="219"/>
-      <c r="D3" s="220"/>
+        <v>67</v>
+      </c>
+      <c r="C3" s="220"/>
+      <c r="D3" s="221"/>
       <c r="E3" s="136"/>
       <c r="F3" s="135" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="137"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="221"/>
       <c r="J3" s="152"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="132"/>
       <c r="B4" s="138" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="D4" s="139" t="s">
         <v>70</v>
-      </c>
-      <c r="D4" s="139" t="s">
-        <v>71</v>
       </c>
       <c r="E4" s="140"/>
       <c r="F4" s="138" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="141" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="139" t="s">
+      <c r="I4" s="139" t="s">
         <v>70</v>
-      </c>
-      <c r="I4" s="139" t="s">
-        <v>71</v>
       </c>
       <c r="J4" s="152"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="132"/>
       <c r="B5" s="142" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C5" s="143"/>
       <c r="D5" s="143"/>
@@ -14517,7 +14486,7 @@
     <row r="6" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="132"/>
       <c r="B6" s="145" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="146">
         <f>0</f>
@@ -14526,7 +14495,7 @@
       <c r="D6" s="146"/>
       <c r="E6" s="133"/>
       <c r="F6" s="145" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="147"/>
       <c r="H6" s="146"/>
@@ -14536,7 +14505,7 @@
     <row r="7" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="132"/>
       <c r="B7" s="145" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="146">
         <f>0</f>
@@ -14545,7 +14514,7 @@
       <c r="D7" s="146"/>
       <c r="E7" s="148"/>
       <c r="F7" s="145" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="147"/>
       <c r="H7" s="146"/>
@@ -14555,7 +14524,7 @@
     <row r="8" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="132"/>
       <c r="B8" s="145" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="146">
         <f>0</f>
@@ -14564,7 +14533,7 @@
       <c r="D8" s="146"/>
       <c r="E8" s="149"/>
       <c r="F8" s="145" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" s="147"/>
       <c r="H8" s="146"/>
@@ -14574,7 +14543,7 @@
     <row r="9" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="132"/>
       <c r="B9" s="145" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" s="146">
         <f>0</f>
@@ -14583,7 +14552,7 @@
       <c r="D9" s="146"/>
       <c r="E9" s="150"/>
       <c r="F9" s="145" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G9" s="147"/>
       <c r="H9" s="146"/>
@@ -14593,7 +14562,7 @@
     <row r="10" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="132"/>
       <c r="B10" s="145" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" s="146">
         <f>0</f>
@@ -14602,7 +14571,7 @@
       <c r="D10" s="146"/>
       <c r="E10" s="148"/>
       <c r="F10" s="145" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="147"/>
       <c r="H10" s="146"/>
@@ -14612,7 +14581,7 @@
     <row r="11" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="132"/>
       <c r="B11" s="145" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="146">
         <f>0</f>
@@ -14621,7 +14590,7 @@
       <c r="D11" s="146"/>
       <c r="E11" s="148"/>
       <c r="F11" s="145" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="147"/>
       <c r="H11" s="146"/>
@@ -14631,7 +14600,7 @@
     <row r="12" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="132"/>
       <c r="B12" s="145" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="146">
         <f>0</f>
@@ -14640,7 +14609,7 @@
       <c r="D12" s="146"/>
       <c r="E12" s="149"/>
       <c r="F12" s="145" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" s="147"/>
       <c r="H12" s="146"/>
@@ -14650,7 +14619,7 @@
     <row r="13" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="132"/>
       <c r="B13" s="145" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="146">
         <f>0</f>
@@ -14659,7 +14628,7 @@
       <c r="D13" s="146"/>
       <c r="E13" s="149"/>
       <c r="F13" s="145" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" s="147"/>
       <c r="H13" s="146"/>
@@ -14669,7 +14638,7 @@
     <row r="14" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="132"/>
       <c r="B14" s="145" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="149">
         <f>0</f>
@@ -14678,7 +14647,7 @@
       <c r="D14" s="146"/>
       <c r="E14" s="150"/>
       <c r="F14" s="145" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" s="147"/>
       <c r="H14" s="146"/>
@@ -14688,7 +14657,7 @@
     <row r="15" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="132"/>
       <c r="B15" s="151" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="146">
         <f>0</f>
@@ -14697,7 +14666,7 @@
       <c r="D15" s="146"/>
       <c r="E15" s="152"/>
       <c r="F15" s="151" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="147"/>
       <c r="H15" s="146"/>
@@ -14707,7 +14676,7 @@
     <row r="16" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="132"/>
       <c r="B16" s="153" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="149">
         <f>0</f>
@@ -14716,7 +14685,7 @@
       <c r="D16" s="154"/>
       <c r="E16" s="152"/>
       <c r="F16" s="153" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="147"/>
       <c r="H16" s="146"/>
@@ -14726,7 +14695,7 @@
     <row r="17" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="132"/>
       <c r="B17" s="145" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="146">
         <f>0</f>
@@ -14735,7 +14704,7 @@
       <c r="D17" s="146"/>
       <c r="E17" s="152"/>
       <c r="F17" s="145" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="147"/>
       <c r="H17" s="146"/>
@@ -14745,7 +14714,7 @@
     <row r="18" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="132"/>
       <c r="B18" s="145" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="146">
         <f>0</f>
@@ -14754,7 +14723,7 @@
       <c r="D18" s="146"/>
       <c r="E18" s="152"/>
       <c r="F18" s="145" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G18" s="147"/>
       <c r="H18" s="146"/>
@@ -14764,7 +14733,7 @@
     <row r="19" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="132"/>
       <c r="B19" s="145" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="146">
         <f>0</f>
@@ -14773,7 +14742,7 @@
       <c r="D19" s="146"/>
       <c r="E19" s="152"/>
       <c r="F19" s="145" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="147"/>
       <c r="H19" s="146"/>
@@ -14783,7 +14752,7 @@
     <row r="20" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="132"/>
       <c r="B20" s="145" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" s="146">
         <f>0</f>
@@ -14792,7 +14761,7 @@
       <c r="D20" s="146"/>
       <c r="E20" s="152"/>
       <c r="F20" s="145" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G20" s="147"/>
       <c r="H20" s="146"/>
@@ -14802,7 +14771,7 @@
     <row r="21" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="132"/>
       <c r="B21" s="145" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="146">
         <f>0</f>
@@ -14811,7 +14780,7 @@
       <c r="D21" s="146"/>
       <c r="E21" s="152"/>
       <c r="F21" s="145" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21" s="147"/>
       <c r="H21" s="144"/>
@@ -14821,7 +14790,7 @@
     <row r="22" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="132"/>
       <c r="B22" s="145" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="146">
         <f>0</f>
@@ -14830,7 +14799,7 @@
       <c r="D22" s="146"/>
       <c r="E22" s="152"/>
       <c r="F22" s="145" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G22" s="147"/>
       <c r="H22" s="144"/>
@@ -14840,7 +14809,7 @@
     <row r="23" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="132"/>
       <c r="B23" s="153" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="154">
         <f>0</f>
@@ -14849,7 +14818,7 @@
       <c r="D23" s="146"/>
       <c r="E23" s="152"/>
       <c r="F23" s="153" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G23" s="147"/>
       <c r="H23" s="144"/>
@@ -14859,7 +14828,7 @@
     <row r="24" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="132"/>
       <c r="B24" s="153" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C24" s="154"/>
       <c r="D24" s="146">
@@ -14868,7 +14837,7 @@
       </c>
       <c r="E24" s="152"/>
       <c r="F24" s="153" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G24" s="147"/>
       <c r="H24" s="144"/>
@@ -14878,13 +14847,13 @@
     <row r="25" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="132"/>
       <c r="B25" s="155" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C25" s="155"/>
       <c r="D25" s="146"/>
       <c r="E25" s="152"/>
       <c r="F25" s="155" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G25" s="147"/>
       <c r="H25" s="191"/>
@@ -14894,13 +14863,13 @@
     <row r="26" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="132"/>
       <c r="B26" s="155" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C26" s="155"/>
       <c r="D26" s="146"/>
       <c r="E26" s="152"/>
       <c r="F26" s="155" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G26" s="147"/>
       <c r="H26" s="191"/>
@@ -14910,7 +14879,7 @@
     <row r="27" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="132"/>
       <c r="B27" s="155" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C27" s="155"/>
       <c r="D27" s="146">
@@ -14919,7 +14888,7 @@
       </c>
       <c r="E27" s="152"/>
       <c r="F27" s="155" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G27" s="147"/>
       <c r="H27" s="191"/>
@@ -14929,7 +14898,7 @@
     <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="132"/>
       <c r="B28" s="190" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C28" s="190"/>
       <c r="D28" s="154">
@@ -14938,17 +14907,17 @@
       </c>
       <c r="E28" s="152"/>
       <c r="F28" s="190" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G28" s="192"/>
       <c r="H28" s="191"/>
       <c r="I28" s="154"/>
       <c r="J28" s="152"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="132"/>
       <c r="B29" s="155" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C29" s="155"/>
       <c r="D29" s="146">
@@ -14957,7 +14926,7 @@
       </c>
       <c r="E29" s="152"/>
       <c r="F29" s="155" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G29" s="192"/>
       <c r="H29" s="191"/>
@@ -14967,7 +14936,7 @@
     <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="132"/>
       <c r="B30" s="190" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C30" s="190"/>
       <c r="D30" s="154">
@@ -14975,7 +14944,7 @@
       </c>
       <c r="E30" s="152"/>
       <c r="F30" s="190" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G30" s="192"/>
       <c r="H30" s="191"/>
@@ -14985,7 +14954,7 @@
     <row r="31" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="132"/>
       <c r="B31" s="190" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C31" s="190"/>
       <c r="D31" s="154">
@@ -14993,23 +14962,23 @@
       </c>
       <c r="E31" s="152"/>
       <c r="F31" s="190" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G31" s="190"/>
       <c r="H31" s="154"/>
       <c r="I31" s="154"/>
       <c r="J31" s="152"/>
     </row>
-    <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="132"/>
       <c r="B32" s="190" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C32" s="190"/>
       <c r="D32" s="154"/>
       <c r="E32" s="152"/>
       <c r="F32" s="190" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G32" s="190"/>
       <c r="H32" s="154"/>
@@ -15019,13 +14988,13 @@
     <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="132"/>
       <c r="B33" s="190" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C33" s="190"/>
       <c r="D33" s="154"/>
       <c r="E33" s="152"/>
       <c r="F33" s="190" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G33" s="190"/>
       <c r="H33" s="154"/>
@@ -15035,7 +15004,7 @@
     <row r="34" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="132"/>
       <c r="B34" s="206" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C34" s="206"/>
       <c r="D34" s="207"/>
@@ -15080,7 +15049,7 @@
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="132"/>
       <c r="B36" s="158" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="146">
         <f>C35*16%</f>
@@ -15092,7 +15061,7 @@
       </c>
       <c r="E36" s="152"/>
       <c r="F36" s="158" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="146">
@@ -15108,7 +15077,7 @@
     <row r="37" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="132"/>
       <c r="B37" s="158" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C37" s="146">
         <v>0</v>
@@ -15118,7 +15087,7 @@
       </c>
       <c r="E37" s="152"/>
       <c r="F37" s="158" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G37" s="164">
         <f>SUM(G6:G36)</f>
@@ -15167,7 +15136,7 @@
     <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="132"/>
       <c r="B39" s="142" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C39" s="144"/>
       <c r="D39" s="144"/>
@@ -15184,7 +15153,7 @@
     <row r="40" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="132"/>
       <c r="B40" s="145" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="144">
         <f>0</f>
@@ -15193,7 +15162,7 @@
       <c r="D40" s="144"/>
       <c r="E40" s="152"/>
       <c r="F40" s="145" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G40" s="147"/>
       <c r="H40" s="146"/>
@@ -15203,7 +15172,7 @@
     <row r="41" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="132"/>
       <c r="B41" s="145" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="146">
         <f>0</f>
@@ -15212,7 +15181,7 @@
       <c r="D41" s="143"/>
       <c r="E41" s="152"/>
       <c r="F41" s="145" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G41" s="147"/>
       <c r="H41" s="146"/>
@@ -15222,7 +15191,7 @@
     <row r="42" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="132"/>
       <c r="B42" s="145" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="146">
         <f>0</f>
@@ -15231,7 +15200,7 @@
       <c r="D42" s="143"/>
       <c r="E42" s="152"/>
       <c r="F42" s="145" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G42" s="147"/>
       <c r="H42" s="146"/>
@@ -15241,7 +15210,7 @@
     <row r="43" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="152"/>
       <c r="B43" s="145" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C43" s="146">
         <f>0</f>
@@ -15250,7 +15219,7 @@
       <c r="D43" s="143"/>
       <c r="E43" s="152"/>
       <c r="F43" s="145" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G43" s="147"/>
       <c r="H43" s="146"/>
@@ -15260,7 +15229,7 @@
     <row r="44" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="152"/>
       <c r="B44" s="145" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C44" s="146">
         <f>0</f>
@@ -15269,7 +15238,7 @@
       <c r="D44" s="143"/>
       <c r="E44" s="152"/>
       <c r="F44" s="145" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G44" s="147"/>
       <c r="H44" s="146"/>
@@ -15279,7 +15248,7 @@
     <row r="45" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="152"/>
       <c r="B45" s="145" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="146">
         <f>0</f>
@@ -15288,7 +15257,7 @@
       <c r="D45" s="143"/>
       <c r="E45" s="152"/>
       <c r="F45" s="145" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G45" s="147"/>
       <c r="H45" s="146"/>
@@ -15298,7 +15267,7 @@
     <row r="46" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="152"/>
       <c r="B46" s="145" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="146">
         <f>0</f>
@@ -15307,7 +15276,7 @@
       <c r="D46" s="143"/>
       <c r="E46" s="152"/>
       <c r="F46" s="145" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G46" s="147"/>
       <c r="H46" s="146"/>
@@ -15317,7 +15286,7 @@
     <row r="47" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="152"/>
       <c r="B47" s="145" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="146">
         <f>0</f>
@@ -15326,7 +15295,7 @@
       <c r="D47" s="143"/>
       <c r="E47" s="152"/>
       <c r="F47" s="145" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G47" s="147"/>
       <c r="H47" s="146"/>
@@ -15336,7 +15305,7 @@
     <row r="48" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="152"/>
       <c r="B48" s="145" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="146">
         <f>0</f>
@@ -15345,7 +15314,7 @@
       <c r="D48" s="146"/>
       <c r="E48" s="152"/>
       <c r="F48" s="145" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G48" s="147"/>
       <c r="H48" s="146"/>
@@ -15355,7 +15324,7 @@
     <row r="49" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="152"/>
       <c r="B49" s="151" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="146">
         <f>0</f>
@@ -15364,7 +15333,7 @@
       <c r="D49" s="143"/>
       <c r="E49" s="152"/>
       <c r="F49" s="151" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G49" s="147"/>
       <c r="H49" s="146"/>
@@ -15374,7 +15343,7 @@
     <row r="50" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="152"/>
       <c r="B50" s="153" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C50" s="146">
         <f>0</f>
@@ -15383,7 +15352,7 @@
       <c r="D50" s="143"/>
       <c r="E50" s="152"/>
       <c r="F50" s="153" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G50" s="147"/>
       <c r="H50" s="146"/>
@@ -15393,7 +15362,7 @@
     <row r="51" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="152"/>
       <c r="B51" s="145" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="154">
         <f>0</f>
@@ -15402,7 +15371,7 @@
       <c r="D51" s="165"/>
       <c r="E51" s="152"/>
       <c r="F51" s="145" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G51" s="147"/>
       <c r="H51" s="146"/>
@@ -15412,7 +15381,7 @@
     <row r="52" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="152"/>
       <c r="B52" s="145" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C52" s="146">
         <f>0</f>
@@ -15421,7 +15390,7 @@
       <c r="D52" s="146"/>
       <c r="E52" s="152"/>
       <c r="F52" s="145" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G52" s="147"/>
       <c r="H52" s="146"/>
@@ -15431,7 +15400,7 @@
     <row r="53" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="152"/>
       <c r="B53" s="145" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="154">
         <f>0</f>
@@ -15440,7 +15409,7 @@
       <c r="D53" s="165"/>
       <c r="E53" s="152"/>
       <c r="F53" s="145" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G53" s="147"/>
       <c r="H53" s="146"/>
@@ -15449,7 +15418,7 @@
     </row>
     <row r="54" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="145" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C54" s="154">
         <f>0</f>
@@ -15457,7 +15426,7 @@
       </c>
       <c r="D54" s="165"/>
       <c r="F54" s="145" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G54" s="147"/>
       <c r="H54" s="144"/>
@@ -15465,7 +15434,7 @@
     </row>
     <row r="55" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="145" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" s="154">
         <f>0</f>
@@ -15473,7 +15442,7 @@
       </c>
       <c r="D55" s="165"/>
       <c r="F55" s="145" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G55" s="147"/>
       <c r="H55" s="144"/>
@@ -15481,7 +15450,7 @@
     </row>
     <row r="56" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="145" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="154">
         <f>0</f>
@@ -15489,7 +15458,7 @@
       </c>
       <c r="D56" s="165"/>
       <c r="F56" s="145" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G56" s="147"/>
       <c r="H56" s="144"/>
@@ -15497,7 +15466,7 @@
     </row>
     <row r="57" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="153" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="154">
         <f>0</f>
@@ -15505,7 +15474,7 @@
       </c>
       <c r="D57" s="154"/>
       <c r="F57" s="153" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G57" s="147"/>
       <c r="H57" s="144"/>
@@ -15513,7 +15482,7 @@
     </row>
     <row r="58" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="153" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C58" s="153"/>
       <c r="D58" s="154">
@@ -15521,7 +15490,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="153" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G58" s="192"/>
       <c r="H58" s="191"/>
@@ -15529,12 +15498,12 @@
     </row>
     <row r="59" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="155" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C59" s="155"/>
       <c r="D59" s="154"/>
       <c r="F59" s="155" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G59" s="147"/>
       <c r="H59" s="144"/>
@@ -15542,12 +15511,12 @@
     </row>
     <row r="60" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="155" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C60" s="155"/>
       <c r="D60" s="154"/>
       <c r="F60" s="155" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G60" s="192"/>
       <c r="H60" s="191"/>
@@ -15555,7 +15524,7 @@
     </row>
     <row r="61" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="155" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C61" s="155"/>
       <c r="D61" s="154">
@@ -15563,7 +15532,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="155" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G61" s="192"/>
       <c r="H61" s="191"/>
@@ -15587,7 +15556,7 @@
       <c r="H62" s="191"/>
       <c r="I62" s="154"/>
     </row>
-    <row r="63" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="190" t="str">
         <f>+B29</f>
         <v>PROYECTO MAERSK</v>
@@ -15607,14 +15576,14 @@
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="155" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C64" s="147"/>
       <c r="D64" s="191">
         <v>0</v>
       </c>
       <c r="F64" s="155" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G64" s="192"/>
       <c r="H64" s="191"/>
@@ -15622,20 +15591,20 @@
     </row>
     <row r="65" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="190" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C65" s="190"/>
       <c r="D65" s="154">
         <v>0</v>
       </c>
       <c r="F65" s="190" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G65" s="190"/>
       <c r="H65" s="154"/>
       <c r="I65" s="154"/>
     </row>
-    <row r="66" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="190" t="str">
         <f>+B32</f>
         <v>GANNET</v>
@@ -15643,7 +15612,7 @@
       <c r="C66" s="190"/>
       <c r="D66" s="154"/>
       <c r="F66" s="190" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G66" s="190"/>
       <c r="H66" s="154"/>
@@ -15651,12 +15620,12 @@
     </row>
     <row r="67" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="190" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C67" s="190"/>
       <c r="D67" s="154"/>
       <c r="F67" s="190" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G67" s="190"/>
       <c r="H67" s="154"/>
@@ -15665,13 +15634,13 @@
     <row r="68" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="132"/>
       <c r="B68" s="206" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C68" s="206"/>
       <c r="D68" s="207"/>
       <c r="E68" s="152"/>
       <c r="F68" s="206" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G68" s="206"/>
       <c r="H68" s="207"/>
@@ -15705,7 +15674,7 @@
     </row>
     <row r="70" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B70" s="158" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" s="146">
         <f>C69*16%</f>
@@ -15716,7 +15685,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="158" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G70" s="163"/>
       <c r="H70" s="146">
@@ -15800,8 +15769,8 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15810,22 +15779,25 @@
     <col min="2" max="2" width="37" style="166" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" style="166" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="166" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="34" style="166" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="166" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="166" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="166" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="166"/>
+    <col min="5" max="5" width="22.140625" style="166" customWidth="1"/>
+    <col min="6" max="6" width="18" style="166" customWidth="1"/>
+    <col min="7" max="7" width="34" style="166" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="166" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="166" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="166" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="25" style="166" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="166"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="170" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C1" s="170" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D1" s="172" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E1" s="172" t="s">
         <v>7</v>
@@ -15837,19 +15809,20 @@
         <v>13</v>
       </c>
       <c r="H1" s="170" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="170" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="170" t="s">
         <v>102</v>
-      </c>
-      <c r="I1" s="170" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="170" t="s">
-        <v>104</v>
       </c>
       <c r="K1" s="170" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H2" s="209"/>
       <c r="I2" s="167"/>
       <c r="K2" s="171">
         <f>I2+J2</f>
@@ -15857,93 +15830,115 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H3" s="209"/>
       <c r="I3" s="167"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H4" s="209"/>
       <c r="I4" s="167"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="209"/>
       <c r="I5" s="167"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="209"/>
       <c r="I6" s="168"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="209"/>
       <c r="I7" s="167"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="209"/>
       <c r="I8" s="167"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="209"/>
       <c r="I9" s="167"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="209"/>
       <c r="I10" s="168"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="209"/>
       <c r="I11" s="167"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="209"/>
       <c r="I12" s="167"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="209"/>
       <c r="I13" s="167"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="209"/>
       <c r="I14" s="168"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H15" s="209"/>
       <c r="I15" s="167"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H16" s="209"/>
       <c r="I16" s="167"/>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="209"/>
       <c r="I17" s="167"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="209"/>
       <c r="I18" s="167"/>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="209"/>
       <c r="I19" s="167"/>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="209"/>
       <c r="I20" s="168"/>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="209"/>
       <c r="I21" s="167"/>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="209"/>
       <c r="I22" s="167"/>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="209"/>
       <c r="I23" s="167"/>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="209"/>
       <c r="I24" s="168"/>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I25" s="167"/>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I26" s="167"/>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I27" s="167"/>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I28" s="168"/>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I29" s="167"/>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I30" s="167"/>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I31" s="167"/>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I32" s="168"/>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.25">
@@ -15986,19 +15981,19 @@
         <v>6</v>
       </c>
       <c r="C1" s="179" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="179" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="179" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="179" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="179" t="s">
+      <c r="G1" s="179" t="s">
         <v>106</v>
-      </c>
-      <c r="E1" s="179" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="179" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="179" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
@@ -16036,19 +16031,19 @@
         <v>6</v>
       </c>
       <c r="C1" s="179" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="179" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="179" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="179" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="179" t="s">
+      <c r="G1" s="179" t="s">
         <v>106</v>
-      </c>
-      <c r="E1" s="179" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="179" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="179" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="633"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="633" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA TOTAL" sheetId="27" r:id="rId1"/>
@@ -3467,17 +3467,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="33" fillId="0" borderId="0" xfId="1491" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1113" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3498,9 +3501,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1492">
@@ -5725,7 +5725,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:BK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="W13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="F11" sqref="F11"/>
@@ -6407,90 +6407,90 @@
       <c r="BK10" s="50"/>
     </row>
     <row r="11" spans="2:63" s="84" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="210" t="s">
+      <c r="B11" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="210" t="s">
+      <c r="C11" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="210" t="s">
+      <c r="D11" s="211" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="210" t="s">
+      <c r="E11" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="210" t="s">
+      <c r="F11" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="210" t="s">
+      <c r="G11" s="211" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="210" t="s">
+      <c r="H11" s="211" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="210" t="s">
+      <c r="I11" s="211" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="210" t="s">
+      <c r="J11" s="211" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="210" t="s">
+      <c r="K11" s="211" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="210" t="s">
+      <c r="L11" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="210" t="s">
+      <c r="M11" s="211" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="212" t="s">
+      <c r="N11" s="214" t="s">
         <v>262</v>
       </c>
-      <c r="O11" s="212" t="s">
+      <c r="O11" s="214" t="s">
         <v>206</v>
       </c>
-      <c r="P11" s="210" t="s">
+      <c r="P11" s="211" t="s">
         <v>66</v>
       </c>
       <c r="Q11" s="128"/>
-      <c r="R11" s="210" t="s">
+      <c r="R11" s="211" t="s">
         <v>47</v>
       </c>
       <c r="S11" s="131"/>
       <c r="T11" s="131"/>
-      <c r="U11" s="210" t="s">
+      <c r="U11" s="211" t="s">
         <v>52</v>
       </c>
-      <c r="V11" s="210" t="s">
+      <c r="V11" s="211" t="s">
         <v>191</v>
       </c>
-      <c r="W11" s="211" t="s">
+      <c r="W11" s="212" t="s">
         <v>194</v>
       </c>
       <c r="X11" s="197"/>
-      <c r="Y11" s="210" t="s">
+      <c r="Y11" s="211" t="s">
         <v>264</v>
       </c>
       <c r="Z11" s="85"/>
-      <c r="AA11" s="210" t="s">
+      <c r="AA11" s="211" t="s">
         <v>263</v>
       </c>
-      <c r="AB11" s="211" t="s">
+      <c r="AB11" s="212" t="s">
         <v>196</v>
       </c>
-      <c r="AC11" s="210" t="s">
+      <c r="AC11" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="AD11" s="210" t="s">
+      <c r="AD11" s="211" t="s">
         <v>0</v>
       </c>
       <c r="AE11" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="AF11" s="210" t="s">
+      <c r="AF11" s="211" t="s">
         <v>110</v>
       </c>
-      <c r="AG11" s="210" t="s">
+      <c r="AG11" s="211" t="s">
         <v>1</v>
       </c>
       <c r="AH11"/>
@@ -6523,25 +6523,25 @@
       <c r="BJ11" s="83"/>
     </row>
     <row r="12" spans="2:63" s="86" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="210"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="210"/>
-      <c r="G12" s="210"/>
-      <c r="H12" s="210"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="210"/>
-      <c r="K12" s="210"/>
-      <c r="L12" s="210"/>
-      <c r="M12" s="210"/>
-      <c r="N12" s="212"/>
-      <c r="O12" s="212"/>
-      <c r="P12" s="210"/>
+      <c r="B12" s="211"/>
+      <c r="C12" s="211"/>
+      <c r="D12" s="211"/>
+      <c r="E12" s="211"/>
+      <c r="F12" s="211"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="211"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="211"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="211"/>
+      <c r="N12" s="214"/>
+      <c r="O12" s="214"/>
+      <c r="P12" s="211"/>
       <c r="Q12" s="128" t="s">
         <v>202</v>
       </c>
-      <c r="R12" s="210" t="s">
+      <c r="R12" s="211" t="s">
         <v>57</v>
       </c>
       <c r="S12" s="131" t="s">
@@ -6550,21 +6550,21 @@
       <c r="T12" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="U12" s="210"/>
-      <c r="V12" s="210"/>
-      <c r="W12" s="211"/>
+      <c r="U12" s="211"/>
+      <c r="V12" s="211"/>
+      <c r="W12" s="212"/>
       <c r="X12" s="197" t="s">
         <v>195</v>
       </c>
-      <c r="Y12" s="210"/>
+      <c r="Y12" s="211"/>
       <c r="Z12" s="85"/>
-      <c r="AA12" s="210"/>
-      <c r="AB12" s="211"/>
-      <c r="AC12" s="210"/>
-      <c r="AD12" s="210"/>
+      <c r="AA12" s="211"/>
+      <c r="AB12" s="212"/>
+      <c r="AC12" s="211"/>
+      <c r="AD12" s="211"/>
       <c r="AE12" s="213"/>
-      <c r="AF12" s="210"/>
-      <c r="AG12" s="210"/>
+      <c r="AF12" s="211"/>
+      <c r="AG12" s="211"/>
       <c r="AH12"/>
       <c r="AI12" s="87"/>
       <c r="AJ12" s="88"/>
@@ -6695,13 +6695,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AG11:AG12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="Y11:Y12"/>
@@ -6717,11 +6715,13 @@
     <mergeCell ref="V11:V12"/>
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="O11:O12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AG11:AG12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AE11:AE12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6732,11 +6732,11 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:KJ51"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="10" ySplit="8" topLeftCell="BE9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="10" ySplit="8" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="BF1" sqref="BF1"/>
+      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6748,7 +6748,7 @@
     <col min="5" max="5" width="12.85546875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="72" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="72" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="36.28515625" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
@@ -6781,13 +6781,13 @@
   <sheetData>
     <row r="1" spans="1:296" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
-      <c r="B1" s="214" t="s">
+      <c r="B1" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
       <c r="G1" s="64"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -6889,13 +6889,13 @@
     </row>
     <row r="3" spans="1:296" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
       <c r="G3" s="66"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -6949,13 +6949,13 @@
     </row>
     <row r="4" spans="1:296" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="217" t="s">
+      <c r="B4" s="218" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="218"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
       <c r="G4" s="66"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -7437,7 +7437,7 @@
       <c r="BE8" s="174" t="s">
         <v>87</v>
       </c>
-      <c r="BF8" s="222" t="s">
+      <c r="BF8" s="210" t="s">
         <v>265</v>
       </c>
       <c r="BG8" s="200" t="s">
@@ -10003,13 +10003,13 @@
   <sheetData>
     <row r="1" spans="1:100" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
-      <c r="B1" s="214" t="s">
+      <c r="B1" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -10103,13 +10103,13 @@
     </row>
     <row r="3" spans="1:100" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
       <c r="G3" s="30"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -10163,13 +10163,13 @@
     </row>
     <row r="4" spans="1:100" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="217" t="s">
+      <c r="B4" s="218" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="218"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
       <c r="G4" s="66"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -10582,7 +10582,7 @@
       <c r="AW8" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="AX8" s="222" t="s">
+      <c r="AX8" s="210" t="s">
         <v>265</v>
       </c>
       <c r="AY8" s="200" t="s">
@@ -14339,11 +14339,11 @@
       <c r="C28" s="184" t="s">
         <v>177</v>
       </c>
-      <c r="E28" s="219" t="str">
+      <c r="E28" s="220" t="str">
         <f>+C28&amp;C4&amp;C3&amp;C4&amp;C25&amp;","&amp;C4&amp;C2&amp;C4&amp;C25&amp;")"</f>
         <v>hoja.Range("T" &amp; sep +9,"V" &amp; sep +9)</v>
       </c>
-      <c r="F28" s="219"/>
+      <c r="F28" s="220"/>
       <c r="G28" t="s">
         <v>174</v>
       </c>
@@ -14429,15 +14429,15 @@
       <c r="B3" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="220"/>
-      <c r="D3" s="221"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="222"/>
       <c r="E3" s="136"/>
       <c r="F3" s="135" t="s">
         <v>67</v>
       </c>
       <c r="G3" s="137"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="222"/>
       <c r="J3" s="152"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollo\Operadora\OperadoraNominas\OperadoraNominas\bin\Debug\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programacion\Desarrollo\Sover\OperadoraNominas\OperadoraNominas\bin\Debug\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E566C614-C68F-4D6C-95C3-D9D896E35355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="633" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="633" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA TOTAL" sheetId="27" r:id="rId1"/>
-    <sheet name="SOVER ABORDO" sheetId="16" r:id="rId2"/>
-    <sheet name="SOVER DESCANSO" sheetId="25" r:id="rId3"/>
+    <sheet name="SILVERPEAK ABORDO" sheetId="16" r:id="rId2"/>
+    <sheet name="SILVERPEAK DESCANSO" sheetId="25" r:id="rId3"/>
     <sheet name="DETALLE" sheetId="28" r:id="rId4"/>
     <sheet name="Hoja1" sheetId="37" r:id="rId5"/>
     <sheet name="FACT" sheetId="30" r:id="rId6"/>
@@ -31,13 +32,13 @@
     <definedName name="__TC1">[1]FOR!$B$9</definedName>
     <definedName name="__TC2">[1]FOR!$B$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'PENSION ALIMENTICIA'!$B$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SOVER ABORDO'!$A$3:$X$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SOVER DESCANSO'!$A$3:$W$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SILVERPEAK ABORDO'!$A$3:$X$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SILVERPEAK DESCANSO'!$A$3:$W$3</definedName>
     <definedName name="_TC1">[2]FOR!$B$9</definedName>
     <definedName name="_TC2">[2]FOR!$B$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">DETALLE!$A$1:$K$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'SOVER ABORDO'!$A$1:$AQ$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'SOVER DESCANSO'!$A$1:$AN$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'SILVERPEAK ABORDO'!$A$1:$AQ$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'SILVERPEAK DESCANSO'!$A$1:$AN$19</definedName>
     <definedName name="LICS">[3]FOR!$F$59:$F$71</definedName>
     <definedName name="LIIMP">[3]FOR!$F$36:$F$40</definedName>
     <definedName name="LISUB">[3]FOR!$F$46:$F$53</definedName>
@@ -50,12 +51,25 @@
     <definedName name="TCF">[2]FOR!$B$8</definedName>
     <definedName name="VSDF">[2]FOR!$B$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="267">
   <si>
     <t>SUBTOTAL</t>
   </si>
@@ -681,15 +695,6 @@
     <t>DEP</t>
   </si>
   <si>
-    <t>AURORA PEARL</t>
-  </si>
-  <si>
-    <t>WORLD PERIDOT</t>
-  </si>
-  <si>
-    <t>AGENCIA GROESSINGER SAPI DE CV</t>
-  </si>
-  <si>
     <t xml:space="preserve">  VSM IKE  </t>
   </si>
   <si>
@@ -844,9 +849,6 @@
   </si>
   <si>
     <t>INFONAVIT PPP</t>
-  </si>
-  <si>
-    <t>COMISIÓN  SOVER (4%)</t>
   </si>
   <si>
     <r>
@@ -866,11 +868,26 @@
   <si>
     <t>Adeudo_Infonavit_IKE</t>
   </si>
+  <si>
+    <t>ASESORÍA Y CONSULTORÍA MACHT</t>
+  </si>
+  <si>
+    <t>TMM ALFA</t>
+  </si>
+  <si>
+    <t>TMM GAMMA</t>
+  </si>
+  <si>
+    <t>COMISIÓN  SILVERPEAK (4%)</t>
+  </si>
+  <si>
+    <t>SILVERPEAK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1268,7 +1285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1531,6 +1548,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1492">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3026,7 +3056,7 @@
     <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3470,17 +3500,20 @@
     <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1113" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3504,1498 +3537,1498 @@
     </xf>
   </cellXfs>
   <cellStyles count="1492">
-    <cellStyle name="Euro" xfId="1"/>
+    <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
-    <cellStyle name="Millares 2" xfId="3"/>
-    <cellStyle name="Millares 2 2" xfId="4"/>
-    <cellStyle name="Millares 2 2 10" xfId="5"/>
-    <cellStyle name="Millares 2 2 10 2" xfId="6"/>
-    <cellStyle name="Millares 2 2 11" xfId="7"/>
-    <cellStyle name="Millares 2 2 11 2" xfId="8"/>
-    <cellStyle name="Millares 2 2 12" xfId="9"/>
-    <cellStyle name="Millares 2 2 12 2" xfId="10"/>
-    <cellStyle name="Millares 2 2 13" xfId="11"/>
-    <cellStyle name="Millares 2 2 13 2" xfId="12"/>
-    <cellStyle name="Millares 2 2 14" xfId="13"/>
-    <cellStyle name="Millares 2 2 14 2" xfId="14"/>
-    <cellStyle name="Millares 2 2 15" xfId="15"/>
-    <cellStyle name="Millares 2 2 15 2" xfId="16"/>
-    <cellStyle name="Millares 2 2 16" xfId="17"/>
-    <cellStyle name="Millares 2 2 16 2" xfId="18"/>
-    <cellStyle name="Millares 2 2 17" xfId="19"/>
-    <cellStyle name="Millares 2 2 17 2" xfId="20"/>
-    <cellStyle name="Millares 2 2 18" xfId="21"/>
-    <cellStyle name="Millares 2 2 18 2" xfId="22"/>
-    <cellStyle name="Millares 2 2 19" xfId="23"/>
-    <cellStyle name="Millares 2 2 19 2" xfId="24"/>
-    <cellStyle name="Millares 2 2 2" xfId="25"/>
-    <cellStyle name="Millares 2 2 2 2" xfId="26"/>
-    <cellStyle name="Millares 2 2 20" xfId="27"/>
-    <cellStyle name="Millares 2 2 20 2" xfId="28"/>
-    <cellStyle name="Millares 2 2 21" xfId="29"/>
-    <cellStyle name="Millares 2 2 21 2" xfId="30"/>
-    <cellStyle name="Millares 2 2 22" xfId="31"/>
-    <cellStyle name="Millares 2 2 22 2" xfId="32"/>
-    <cellStyle name="Millares 2 2 23" xfId="33"/>
-    <cellStyle name="Millares 2 2 3" xfId="34"/>
-    <cellStyle name="Millares 2 2 3 2" xfId="35"/>
-    <cellStyle name="Millares 2 2 4" xfId="36"/>
-    <cellStyle name="Millares 2 2 4 2" xfId="37"/>
-    <cellStyle name="Millares 2 2 5" xfId="38"/>
-    <cellStyle name="Millares 2 2 5 2" xfId="39"/>
-    <cellStyle name="Millares 2 2 6" xfId="40"/>
-    <cellStyle name="Millares 2 2 6 2" xfId="41"/>
-    <cellStyle name="Millares 2 2 7" xfId="42"/>
-    <cellStyle name="Millares 2 2 7 2" xfId="43"/>
-    <cellStyle name="Millares 2 2 8" xfId="44"/>
-    <cellStyle name="Millares 2 2 8 2" xfId="45"/>
-    <cellStyle name="Millares 2 2 9" xfId="46"/>
-    <cellStyle name="Millares 2 2 9 2" xfId="47"/>
-    <cellStyle name="Millares 2 3" xfId="48"/>
-    <cellStyle name="Millares 2 3 2" xfId="49"/>
-    <cellStyle name="Millares 2 4" xfId="50"/>
-    <cellStyle name="Millares 2 4 2" xfId="51"/>
-    <cellStyle name="Millares 2 5" xfId="52"/>
-    <cellStyle name="Millares 2 5 2" xfId="53"/>
-    <cellStyle name="Millares 2 6" xfId="1489"/>
-    <cellStyle name="Millares 3" xfId="54"/>
-    <cellStyle name="Millares 3 10" xfId="55"/>
-    <cellStyle name="Millares 3 10 2" xfId="56"/>
-    <cellStyle name="Millares 3 11" xfId="57"/>
-    <cellStyle name="Millares 3 11 2" xfId="58"/>
-    <cellStyle name="Millares 3 12" xfId="59"/>
-    <cellStyle name="Millares 3 12 2" xfId="60"/>
-    <cellStyle name="Millares 3 13" xfId="61"/>
-    <cellStyle name="Millares 3 13 2" xfId="62"/>
-    <cellStyle name="Millares 3 14" xfId="63"/>
-    <cellStyle name="Millares 3 14 2" xfId="64"/>
-    <cellStyle name="Millares 3 15" xfId="65"/>
-    <cellStyle name="Millares 3 15 2" xfId="66"/>
-    <cellStyle name="Millares 3 16" xfId="67"/>
-    <cellStyle name="Millares 3 16 2" xfId="68"/>
-    <cellStyle name="Millares 3 17" xfId="69"/>
-    <cellStyle name="Millares 3 17 2" xfId="70"/>
-    <cellStyle name="Millares 3 18" xfId="71"/>
-    <cellStyle name="Millares 3 18 2" xfId="72"/>
-    <cellStyle name="Millares 3 19" xfId="73"/>
-    <cellStyle name="Millares 3 19 2" xfId="74"/>
-    <cellStyle name="Millares 3 2" xfId="75"/>
-    <cellStyle name="Millares 3 2 10" xfId="76"/>
-    <cellStyle name="Millares 3 2 10 2" xfId="77"/>
-    <cellStyle name="Millares 3 2 11" xfId="78"/>
-    <cellStyle name="Millares 3 2 11 2" xfId="79"/>
-    <cellStyle name="Millares 3 2 12" xfId="80"/>
-    <cellStyle name="Millares 3 2 12 2" xfId="81"/>
-    <cellStyle name="Millares 3 2 13" xfId="82"/>
-    <cellStyle name="Millares 3 2 13 2" xfId="83"/>
-    <cellStyle name="Millares 3 2 14" xfId="84"/>
-    <cellStyle name="Millares 3 2 14 2" xfId="85"/>
-    <cellStyle name="Millares 3 2 15" xfId="86"/>
-    <cellStyle name="Millares 3 2 15 2" xfId="87"/>
-    <cellStyle name="Millares 3 2 16" xfId="88"/>
-    <cellStyle name="Millares 3 2 16 2" xfId="89"/>
-    <cellStyle name="Millares 3 2 17" xfId="90"/>
-    <cellStyle name="Millares 3 2 17 2" xfId="91"/>
-    <cellStyle name="Millares 3 2 18" xfId="92"/>
-    <cellStyle name="Millares 3 2 18 2" xfId="93"/>
-    <cellStyle name="Millares 3 2 19" xfId="94"/>
-    <cellStyle name="Millares 3 2 19 2" xfId="95"/>
-    <cellStyle name="Millares 3 2 2" xfId="96"/>
-    <cellStyle name="Millares 3 2 2 2" xfId="97"/>
-    <cellStyle name="Millares 3 2 20" xfId="98"/>
-    <cellStyle name="Millares 3 2 20 2" xfId="99"/>
-    <cellStyle name="Millares 3 2 21" xfId="100"/>
-    <cellStyle name="Millares 3 2 21 2" xfId="101"/>
-    <cellStyle name="Millares 3 2 22" xfId="102"/>
-    <cellStyle name="Millares 3 2 22 2" xfId="103"/>
-    <cellStyle name="Millares 3 2 23" xfId="104"/>
-    <cellStyle name="Millares 3 2 3" xfId="105"/>
-    <cellStyle name="Millares 3 2 3 2" xfId="106"/>
-    <cellStyle name="Millares 3 2 4" xfId="107"/>
-    <cellStyle name="Millares 3 2 4 2" xfId="108"/>
-    <cellStyle name="Millares 3 2 5" xfId="109"/>
-    <cellStyle name="Millares 3 2 5 2" xfId="110"/>
-    <cellStyle name="Millares 3 2 6" xfId="111"/>
-    <cellStyle name="Millares 3 2 6 2" xfId="112"/>
-    <cellStyle name="Millares 3 2 7" xfId="113"/>
-    <cellStyle name="Millares 3 2 7 2" xfId="114"/>
-    <cellStyle name="Millares 3 2 8" xfId="115"/>
-    <cellStyle name="Millares 3 2 8 2" xfId="116"/>
-    <cellStyle name="Millares 3 2 9" xfId="117"/>
-    <cellStyle name="Millares 3 2 9 2" xfId="118"/>
-    <cellStyle name="Millares 3 20" xfId="119"/>
-    <cellStyle name="Millares 3 20 2" xfId="120"/>
-    <cellStyle name="Millares 3 21" xfId="121"/>
-    <cellStyle name="Millares 3 21 2" xfId="122"/>
-    <cellStyle name="Millares 3 22" xfId="123"/>
-    <cellStyle name="Millares 3 22 2" xfId="124"/>
-    <cellStyle name="Millares 3 23" xfId="125"/>
-    <cellStyle name="Millares 3 23 2" xfId="126"/>
-    <cellStyle name="Millares 3 24" xfId="127"/>
-    <cellStyle name="Millares 3 3" xfId="128"/>
-    <cellStyle name="Millares 3 3 2" xfId="129"/>
-    <cellStyle name="Millares 3 4" xfId="130"/>
-    <cellStyle name="Millares 3 4 2" xfId="131"/>
-    <cellStyle name="Millares 3 5" xfId="132"/>
-    <cellStyle name="Millares 3 5 2" xfId="133"/>
-    <cellStyle name="Millares 3 6" xfId="134"/>
-    <cellStyle name="Millares 3 6 2" xfId="135"/>
-    <cellStyle name="Millares 3 7" xfId="136"/>
-    <cellStyle name="Millares 3 7 2" xfId="137"/>
-    <cellStyle name="Millares 3 8" xfId="138"/>
-    <cellStyle name="Millares 3 8 2" xfId="139"/>
-    <cellStyle name="Millares 3 9" xfId="140"/>
-    <cellStyle name="Millares 3 9 2" xfId="141"/>
-    <cellStyle name="Millares 4" xfId="142"/>
-    <cellStyle name="Millares 5" xfId="1490"/>
-    <cellStyle name="Moneda 2" xfId="143"/>
-    <cellStyle name="Moneda 3" xfId="144"/>
-    <cellStyle name="Moneda 3 10" xfId="145"/>
-    <cellStyle name="Moneda 3 10 2" xfId="146"/>
-    <cellStyle name="Moneda 3 11" xfId="147"/>
-    <cellStyle name="Moneda 3 11 2" xfId="148"/>
-    <cellStyle name="Moneda 3 12" xfId="149"/>
-    <cellStyle name="Moneda 3 12 2" xfId="150"/>
-    <cellStyle name="Moneda 3 13" xfId="151"/>
-    <cellStyle name="Moneda 3 13 2" xfId="152"/>
-    <cellStyle name="Moneda 3 14" xfId="153"/>
-    <cellStyle name="Moneda 3 14 2" xfId="154"/>
-    <cellStyle name="Moneda 3 15" xfId="155"/>
-    <cellStyle name="Moneda 3 15 2" xfId="156"/>
-    <cellStyle name="Moneda 3 16" xfId="157"/>
-    <cellStyle name="Moneda 3 16 2" xfId="158"/>
-    <cellStyle name="Moneda 3 17" xfId="159"/>
-    <cellStyle name="Moneda 3 17 2" xfId="160"/>
-    <cellStyle name="Moneda 3 18" xfId="161"/>
-    <cellStyle name="Moneda 3 18 2" xfId="162"/>
-    <cellStyle name="Moneda 3 19" xfId="163"/>
-    <cellStyle name="Moneda 3 19 2" xfId="164"/>
-    <cellStyle name="Moneda 3 2" xfId="165"/>
-    <cellStyle name="Moneda 3 2 2" xfId="166"/>
-    <cellStyle name="Moneda 3 20" xfId="167"/>
-    <cellStyle name="Moneda 3 20 2" xfId="168"/>
-    <cellStyle name="Moneda 3 21" xfId="169"/>
-    <cellStyle name="Moneda 3 21 2" xfId="170"/>
-    <cellStyle name="Moneda 3 22" xfId="171"/>
-    <cellStyle name="Moneda 3 22 2" xfId="172"/>
-    <cellStyle name="Moneda 3 23" xfId="173"/>
-    <cellStyle name="Moneda 3 3" xfId="174"/>
-    <cellStyle name="Moneda 3 3 2" xfId="175"/>
-    <cellStyle name="Moneda 3 4" xfId="176"/>
-    <cellStyle name="Moneda 3 4 2" xfId="177"/>
-    <cellStyle name="Moneda 3 5" xfId="178"/>
-    <cellStyle name="Moneda 3 5 2" xfId="179"/>
-    <cellStyle name="Moneda 3 6" xfId="180"/>
-    <cellStyle name="Moneda 3 6 2" xfId="181"/>
-    <cellStyle name="Moneda 3 7" xfId="182"/>
-    <cellStyle name="Moneda 3 7 2" xfId="183"/>
-    <cellStyle name="Moneda 3 8" xfId="184"/>
-    <cellStyle name="Moneda 3 8 2" xfId="185"/>
-    <cellStyle name="Moneda 3 9" xfId="186"/>
-    <cellStyle name="Moneda 3 9 2" xfId="187"/>
-    <cellStyle name="Moneda 4" xfId="188"/>
+    <cellStyle name="Millares 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Millares 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Millares 2 2 10" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Millares 2 2 10 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Millares 2 2 11" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Millares 2 2 11 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Millares 2 2 12" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Millares 2 2 12 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Millares 2 2 13" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Millares 2 2 13 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Millares 2 2 14" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Millares 2 2 14 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Millares 2 2 15" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Millares 2 2 15 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Millares 2 2 16" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Millares 2 2 16 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Millares 2 2 17" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Millares 2 2 17 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Millares 2 2 18" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Millares 2 2 18 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Millares 2 2 19" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Millares 2 2 19 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Millares 2 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Millares 2 2 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Millares 2 2 20" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Millares 2 2 20 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Millares 2 2 21" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Millares 2 2 21 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Millares 2 2 22" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Millares 2 2 22 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Millares 2 2 23" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Millares 2 2 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Millares 2 2 3 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Millares 2 2 4" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Millares 2 2 4 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Millares 2 2 5" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Millares 2 2 5 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Millares 2 2 6" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Millares 2 2 6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Millares 2 2 7" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Millares 2 2 7 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Millares 2 2 8" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Millares 2 2 8 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Millares 2 2 9" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Millares 2 2 9 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Millares 2 3" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Millares 2 3 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Millares 2 4" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Millares 2 4 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Millares 2 5" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Millares 2 5 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Millares 2 6" xfId="1489" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Millares 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Millares 3 10" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Millares 3 10 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Millares 3 11" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Millares 3 11 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Millares 3 12" xfId="59" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Millares 3 12 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Millares 3 13" xfId="61" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Millares 3 13 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Millares 3 14" xfId="63" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Millares 3 14 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Millares 3 15" xfId="65" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Millares 3 15 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Millares 3 16" xfId="67" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Millares 3 16 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Millares 3 17" xfId="69" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Millares 3 17 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Millares 3 18" xfId="71" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Millares 3 18 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Millares 3 19" xfId="73" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Millares 3 19 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Millares 3 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Millares 3 2 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Millares 3 2 10 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Millares 3 2 11" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Millares 3 2 11 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Millares 3 2 12" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Millares 3 2 12 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Millares 3 2 13" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Millares 3 2 13 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Millares 3 2 14" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Millares 3 2 14 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Millares 3 2 15" xfId="86" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Millares 3 2 15 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Millares 3 2 16" xfId="88" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Millares 3 2 16 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Millares 3 2 17" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Millares 3 2 17 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Millares 3 2 18" xfId="92" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Millares 3 2 18 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Millares 3 2 19" xfId="94" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Millares 3 2 19 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Millares 3 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Millares 3 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Millares 3 2 20" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Millares 3 2 20 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Millares 3 2 21" xfId="100" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Millares 3 2 21 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Millares 3 2 22" xfId="102" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Millares 3 2 22 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Millares 3 2 23" xfId="104" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Millares 3 2 3" xfId="105" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Millares 3 2 3 2" xfId="106" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Millares 3 2 4" xfId="107" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Millares 3 2 4 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Millares 3 2 5" xfId="109" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Millares 3 2 5 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Millares 3 2 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Millares 3 2 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Millares 3 2 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Millares 3 2 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Millares 3 2 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Millares 3 2 8 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Millares 3 2 9" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Millares 3 2 9 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Millares 3 20" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Millares 3 20 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Millares 3 21" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Millares 3 21 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Millares 3 22" xfId="123" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Millares 3 22 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Millares 3 23" xfId="125" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Millares 3 23 2" xfId="126" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Millares 3 24" xfId="127" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Millares 3 3" xfId="128" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Millares 3 3 2" xfId="129" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Millares 3 4" xfId="130" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Millares 3 4 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Millares 3 5" xfId="132" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Millares 3 5 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Millares 3 6" xfId="134" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Millares 3 6 2" xfId="135" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Millares 3 7" xfId="136" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Millares 3 7 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Millares 3 8" xfId="138" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Millares 3 8 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Millares 3 9" xfId="140" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Millares 3 9 2" xfId="141" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Millares 4" xfId="142" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Millares 5" xfId="1490" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Moneda 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Moneda 3" xfId="144" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Moneda 3 10" xfId="145" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Moneda 3 10 2" xfId="146" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Moneda 3 11" xfId="147" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Moneda 3 11 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Moneda 3 12" xfId="149" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Moneda 3 12 2" xfId="150" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Moneda 3 13" xfId="151" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Moneda 3 13 2" xfId="152" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Moneda 3 14" xfId="153" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Moneda 3 14 2" xfId="154" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Moneda 3 15" xfId="155" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Moneda 3 15 2" xfId="156" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Moneda 3 16" xfId="157" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Moneda 3 16 2" xfId="158" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Moneda 3 17" xfId="159" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Moneda 3 17 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Moneda 3 18" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Moneda 3 18 2" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Moneda 3 19" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Moneda 3 19 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Moneda 3 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Moneda 3 2 2" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Moneda 3 20" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Moneda 3 20 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Moneda 3 21" xfId="169" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Moneda 3 21 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Moneda 3 22" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Moneda 3 22 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Moneda 3 23" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Moneda 3 3" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Moneda 3 3 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="Moneda 3 4" xfId="176" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="Moneda 3 4 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="Moneda 3 5" xfId="178" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Moneda 3 5 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="Moneda 3 6" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="Moneda 3 6 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Moneda 3 7" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Moneda 3 7 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Moneda 3 8" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Moneda 3 8 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="Moneda 3 9" xfId="186" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Moneda 3 9 2" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Moneda 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="189"/>
-    <cellStyle name="Normal 10 4" xfId="1487"/>
-    <cellStyle name="Normal 100" xfId="190"/>
-    <cellStyle name="Normal 100 2" xfId="191"/>
-    <cellStyle name="Normal 101" xfId="192"/>
-    <cellStyle name="Normal 101 2" xfId="193"/>
-    <cellStyle name="Normal 102" xfId="194"/>
-    <cellStyle name="Normal 103" xfId="195"/>
-    <cellStyle name="Normal 104" xfId="196"/>
-    <cellStyle name="Normal 105" xfId="197"/>
-    <cellStyle name="Normal 106" xfId="198"/>
-    <cellStyle name="Normal 107" xfId="199"/>
-    <cellStyle name="Normal 108" xfId="200"/>
-    <cellStyle name="Normal 108 2" xfId="201"/>
-    <cellStyle name="Normal 109" xfId="202"/>
-    <cellStyle name="Normal 11" xfId="203"/>
-    <cellStyle name="Normal 11 10" xfId="204"/>
-    <cellStyle name="Normal 11 10 2" xfId="205"/>
-    <cellStyle name="Normal 11 11" xfId="206"/>
-    <cellStyle name="Normal 11 11 2" xfId="207"/>
-    <cellStyle name="Normal 11 12" xfId="208"/>
-    <cellStyle name="Normal 11 12 2" xfId="209"/>
-    <cellStyle name="Normal 11 13" xfId="210"/>
-    <cellStyle name="Normal 11 13 2" xfId="211"/>
-    <cellStyle name="Normal 11 14" xfId="212"/>
-    <cellStyle name="Normal 11 14 2" xfId="213"/>
-    <cellStyle name="Normal 11 15" xfId="214"/>
-    <cellStyle name="Normal 11 15 2" xfId="215"/>
-    <cellStyle name="Normal 11 16" xfId="216"/>
-    <cellStyle name="Normal 11 16 2" xfId="217"/>
-    <cellStyle name="Normal 11 17" xfId="218"/>
-    <cellStyle name="Normal 11 17 2" xfId="219"/>
-    <cellStyle name="Normal 11 18" xfId="220"/>
-    <cellStyle name="Normal 11 18 2" xfId="221"/>
-    <cellStyle name="Normal 11 19" xfId="222"/>
-    <cellStyle name="Normal 11 19 2" xfId="223"/>
-    <cellStyle name="Normal 11 2" xfId="224"/>
-    <cellStyle name="Normal 11 2 2" xfId="225"/>
-    <cellStyle name="Normal 11 20" xfId="226"/>
-    <cellStyle name="Normal 11 20 2" xfId="227"/>
-    <cellStyle name="Normal 11 21" xfId="228"/>
-    <cellStyle name="Normal 11 21 2" xfId="229"/>
-    <cellStyle name="Normal 11 22" xfId="230"/>
-    <cellStyle name="Normal 11 22 2" xfId="231"/>
-    <cellStyle name="Normal 11 23" xfId="232"/>
-    <cellStyle name="Normal 11 24" xfId="233"/>
-    <cellStyle name="Normal 11 3" xfId="234"/>
-    <cellStyle name="Normal 11 3 2" xfId="235"/>
-    <cellStyle name="Normal 11 4" xfId="236"/>
-    <cellStyle name="Normal 11 4 2" xfId="237"/>
-    <cellStyle name="Normal 11 5" xfId="238"/>
-    <cellStyle name="Normal 11 5 2" xfId="239"/>
-    <cellStyle name="Normal 11 6" xfId="240"/>
-    <cellStyle name="Normal 11 6 2" xfId="241"/>
-    <cellStyle name="Normal 11 7" xfId="242"/>
-    <cellStyle name="Normal 11 7 2" xfId="243"/>
-    <cellStyle name="Normal 11 8" xfId="244"/>
-    <cellStyle name="Normal 11 8 2" xfId="245"/>
-    <cellStyle name="Normal 11 9" xfId="246"/>
-    <cellStyle name="Normal 11 9 2" xfId="247"/>
-    <cellStyle name="Normal 110" xfId="248"/>
-    <cellStyle name="Normal 111" xfId="249"/>
-    <cellStyle name="Normal 112" xfId="250"/>
-    <cellStyle name="Normal 113" xfId="251"/>
-    <cellStyle name="Normal 114" xfId="252"/>
-    <cellStyle name="Normal 115" xfId="253"/>
-    <cellStyle name="Normal 116" xfId="254"/>
-    <cellStyle name="Normal 117" xfId="255"/>
-    <cellStyle name="Normal 118" xfId="256"/>
-    <cellStyle name="Normal 119" xfId="257"/>
-    <cellStyle name="Normal 12" xfId="258"/>
-    <cellStyle name="Normal 12 10" xfId="259"/>
-    <cellStyle name="Normal 12 10 2" xfId="260"/>
-    <cellStyle name="Normal 12 11" xfId="261"/>
-    <cellStyle name="Normal 12 11 2" xfId="262"/>
-    <cellStyle name="Normal 12 12" xfId="263"/>
-    <cellStyle name="Normal 12 12 2" xfId="264"/>
-    <cellStyle name="Normal 12 13" xfId="265"/>
-    <cellStyle name="Normal 12 13 2" xfId="266"/>
-    <cellStyle name="Normal 12 14" xfId="267"/>
-    <cellStyle name="Normal 12 14 2" xfId="268"/>
-    <cellStyle name="Normal 12 15" xfId="269"/>
-    <cellStyle name="Normal 12 15 2" xfId="270"/>
-    <cellStyle name="Normal 12 16" xfId="271"/>
-    <cellStyle name="Normal 12 16 2" xfId="272"/>
-    <cellStyle name="Normal 12 17" xfId="273"/>
-    <cellStyle name="Normal 12 17 2" xfId="274"/>
-    <cellStyle name="Normal 12 18" xfId="275"/>
-    <cellStyle name="Normal 12 18 2" xfId="276"/>
-    <cellStyle name="Normal 12 19" xfId="277"/>
-    <cellStyle name="Normal 12 19 2" xfId="278"/>
-    <cellStyle name="Normal 12 2" xfId="279"/>
-    <cellStyle name="Normal 12 2 2" xfId="280"/>
-    <cellStyle name="Normal 12 20" xfId="281"/>
-    <cellStyle name="Normal 12 20 2" xfId="282"/>
-    <cellStyle name="Normal 12 21" xfId="283"/>
-    <cellStyle name="Normal 12 21 2" xfId="284"/>
-    <cellStyle name="Normal 12 22" xfId="285"/>
-    <cellStyle name="Normal 12 22 2" xfId="286"/>
-    <cellStyle name="Normal 12 23" xfId="287"/>
-    <cellStyle name="Normal 12 3" xfId="288"/>
-    <cellStyle name="Normal 12 3 2" xfId="289"/>
-    <cellStyle name="Normal 12 4" xfId="290"/>
-    <cellStyle name="Normal 12 4 2" xfId="291"/>
-    <cellStyle name="Normal 12 5" xfId="292"/>
-    <cellStyle name="Normal 12 5 2" xfId="293"/>
-    <cellStyle name="Normal 12 6" xfId="294"/>
-    <cellStyle name="Normal 12 6 2" xfId="295"/>
-    <cellStyle name="Normal 12 7" xfId="296"/>
-    <cellStyle name="Normal 12 7 2" xfId="297"/>
-    <cellStyle name="Normal 12 8" xfId="298"/>
-    <cellStyle name="Normal 12 8 2" xfId="299"/>
-    <cellStyle name="Normal 12 9" xfId="300"/>
-    <cellStyle name="Normal 12 9 2" xfId="301"/>
-    <cellStyle name="Normal 120" xfId="302"/>
-    <cellStyle name="Normal 121" xfId="303"/>
-    <cellStyle name="Normal 122" xfId="304"/>
-    <cellStyle name="Normal 123" xfId="305"/>
-    <cellStyle name="Normal 124" xfId="306"/>
-    <cellStyle name="Normal 125" xfId="307"/>
-    <cellStyle name="Normal 126" xfId="308"/>
-    <cellStyle name="Normal 127" xfId="309"/>
-    <cellStyle name="Normal 128" xfId="310"/>
-    <cellStyle name="Normal 129" xfId="311"/>
-    <cellStyle name="Normal 13" xfId="312"/>
-    <cellStyle name="Normal 13 10" xfId="313"/>
-    <cellStyle name="Normal 13 10 2" xfId="314"/>
-    <cellStyle name="Normal 13 11" xfId="315"/>
-    <cellStyle name="Normal 13 11 2" xfId="316"/>
-    <cellStyle name="Normal 13 12" xfId="317"/>
-    <cellStyle name="Normal 13 12 2" xfId="318"/>
-    <cellStyle name="Normal 13 13" xfId="319"/>
-    <cellStyle name="Normal 13 13 2" xfId="320"/>
-    <cellStyle name="Normal 13 14" xfId="321"/>
-    <cellStyle name="Normal 13 14 2" xfId="322"/>
-    <cellStyle name="Normal 13 15" xfId="323"/>
-    <cellStyle name="Normal 13 15 2" xfId="324"/>
-    <cellStyle name="Normal 13 16" xfId="325"/>
-    <cellStyle name="Normal 13 16 2" xfId="326"/>
-    <cellStyle name="Normal 13 17" xfId="327"/>
-    <cellStyle name="Normal 13 17 2" xfId="328"/>
-    <cellStyle name="Normal 13 18" xfId="329"/>
-    <cellStyle name="Normal 13 18 2" xfId="330"/>
-    <cellStyle name="Normal 13 19" xfId="331"/>
-    <cellStyle name="Normal 13 19 2" xfId="332"/>
-    <cellStyle name="Normal 13 2" xfId="333"/>
-    <cellStyle name="Normal 13 2 2" xfId="334"/>
-    <cellStyle name="Normal 13 20" xfId="335"/>
-    <cellStyle name="Normal 13 20 2" xfId="336"/>
-    <cellStyle name="Normal 13 21" xfId="337"/>
-    <cellStyle name="Normal 13 21 2" xfId="338"/>
-    <cellStyle name="Normal 13 22" xfId="339"/>
-    <cellStyle name="Normal 13 22 2" xfId="340"/>
-    <cellStyle name="Normal 13 23" xfId="341"/>
-    <cellStyle name="Normal 13 3" xfId="342"/>
-    <cellStyle name="Normal 13 3 2" xfId="343"/>
-    <cellStyle name="Normal 13 4" xfId="344"/>
-    <cellStyle name="Normal 13 4 2" xfId="345"/>
-    <cellStyle name="Normal 13 5" xfId="346"/>
-    <cellStyle name="Normal 13 5 2" xfId="347"/>
-    <cellStyle name="Normal 13 6" xfId="348"/>
-    <cellStyle name="Normal 13 6 2" xfId="349"/>
-    <cellStyle name="Normal 13 7" xfId="350"/>
-    <cellStyle name="Normal 13 7 2" xfId="351"/>
-    <cellStyle name="Normal 13 8" xfId="352"/>
-    <cellStyle name="Normal 13 8 2" xfId="353"/>
-    <cellStyle name="Normal 13 9" xfId="354"/>
-    <cellStyle name="Normal 13 9 2" xfId="355"/>
-    <cellStyle name="Normal 130" xfId="356"/>
-    <cellStyle name="Normal 131" xfId="357"/>
-    <cellStyle name="Normal 132" xfId="358"/>
-    <cellStyle name="Normal 133" xfId="359"/>
-    <cellStyle name="Normal 134" xfId="360"/>
-    <cellStyle name="Normal 135" xfId="361"/>
-    <cellStyle name="Normal 136" xfId="362"/>
-    <cellStyle name="Normal 137" xfId="363"/>
-    <cellStyle name="Normal 138" xfId="364"/>
-    <cellStyle name="Normal 139" xfId="365"/>
-    <cellStyle name="Normal 14" xfId="366"/>
-    <cellStyle name="Normal 14 10" xfId="367"/>
-    <cellStyle name="Normal 14 10 2" xfId="368"/>
-    <cellStyle name="Normal 14 11" xfId="369"/>
-    <cellStyle name="Normal 14 11 2" xfId="370"/>
-    <cellStyle name="Normal 14 12" xfId="371"/>
-    <cellStyle name="Normal 14 12 2" xfId="372"/>
-    <cellStyle name="Normal 14 13" xfId="373"/>
-    <cellStyle name="Normal 14 13 2" xfId="374"/>
-    <cellStyle name="Normal 14 14" xfId="375"/>
-    <cellStyle name="Normal 14 14 2" xfId="376"/>
-    <cellStyle name="Normal 14 15" xfId="377"/>
-    <cellStyle name="Normal 14 15 2" xfId="378"/>
-    <cellStyle name="Normal 14 16" xfId="379"/>
-    <cellStyle name="Normal 14 16 2" xfId="380"/>
-    <cellStyle name="Normal 14 17" xfId="381"/>
-    <cellStyle name="Normal 14 17 2" xfId="382"/>
-    <cellStyle name="Normal 14 18" xfId="383"/>
-    <cellStyle name="Normal 14 18 2" xfId="384"/>
-    <cellStyle name="Normal 14 19" xfId="385"/>
-    <cellStyle name="Normal 14 19 2" xfId="386"/>
-    <cellStyle name="Normal 14 2" xfId="387"/>
-    <cellStyle name="Normal 14 2 2" xfId="388"/>
-    <cellStyle name="Normal 14 20" xfId="389"/>
-    <cellStyle name="Normal 14 20 2" xfId="390"/>
-    <cellStyle name="Normal 14 21" xfId="391"/>
-    <cellStyle name="Normal 14 21 2" xfId="392"/>
-    <cellStyle name="Normal 14 22" xfId="393"/>
-    <cellStyle name="Normal 14 22 2" xfId="394"/>
-    <cellStyle name="Normal 14 23" xfId="395"/>
-    <cellStyle name="Normal 14 3" xfId="396"/>
-    <cellStyle name="Normal 14 3 2" xfId="397"/>
-    <cellStyle name="Normal 14 4" xfId="398"/>
-    <cellStyle name="Normal 14 4 2" xfId="399"/>
-    <cellStyle name="Normal 14 5" xfId="400"/>
-    <cellStyle name="Normal 14 5 2" xfId="401"/>
-    <cellStyle name="Normal 14 6" xfId="402"/>
-    <cellStyle name="Normal 14 6 2" xfId="403"/>
-    <cellStyle name="Normal 14 7" xfId="404"/>
-    <cellStyle name="Normal 14 7 2" xfId="405"/>
-    <cellStyle name="Normal 14 8" xfId="406"/>
-    <cellStyle name="Normal 14 8 2" xfId="407"/>
-    <cellStyle name="Normal 14 9" xfId="408"/>
-    <cellStyle name="Normal 14 9 2" xfId="409"/>
-    <cellStyle name="Normal 140" xfId="410"/>
-    <cellStyle name="Normal 141" xfId="411"/>
-    <cellStyle name="Normal 142" xfId="412"/>
-    <cellStyle name="Normal 143" xfId="413"/>
-    <cellStyle name="Normal 144" xfId="414"/>
-    <cellStyle name="Normal 145" xfId="415"/>
-    <cellStyle name="Normal 146" xfId="416"/>
-    <cellStyle name="Normal 147" xfId="417"/>
-    <cellStyle name="Normal 148" xfId="418"/>
-    <cellStyle name="Normal 149" xfId="419"/>
-    <cellStyle name="Normal 15" xfId="420"/>
-    <cellStyle name="Normal 15 10" xfId="421"/>
-    <cellStyle name="Normal 15 10 2" xfId="422"/>
-    <cellStyle name="Normal 15 11" xfId="423"/>
-    <cellStyle name="Normal 15 11 2" xfId="424"/>
-    <cellStyle name="Normal 15 12" xfId="425"/>
-    <cellStyle name="Normal 15 12 2" xfId="426"/>
-    <cellStyle name="Normal 15 13" xfId="427"/>
-    <cellStyle name="Normal 15 13 2" xfId="428"/>
-    <cellStyle name="Normal 15 14" xfId="429"/>
-    <cellStyle name="Normal 15 14 2" xfId="430"/>
-    <cellStyle name="Normal 15 15" xfId="431"/>
-    <cellStyle name="Normal 15 15 2" xfId="432"/>
-    <cellStyle name="Normal 15 16" xfId="433"/>
-    <cellStyle name="Normal 15 16 2" xfId="434"/>
-    <cellStyle name="Normal 15 17" xfId="435"/>
-    <cellStyle name="Normal 15 17 2" xfId="436"/>
-    <cellStyle name="Normal 15 18" xfId="437"/>
-    <cellStyle name="Normal 15 18 2" xfId="438"/>
-    <cellStyle name="Normal 15 19" xfId="439"/>
-    <cellStyle name="Normal 15 19 2" xfId="440"/>
-    <cellStyle name="Normal 15 2" xfId="441"/>
-    <cellStyle name="Normal 15 2 2" xfId="442"/>
-    <cellStyle name="Normal 15 20" xfId="443"/>
-    <cellStyle name="Normal 15 20 2" xfId="444"/>
-    <cellStyle name="Normal 15 21" xfId="445"/>
-    <cellStyle name="Normal 15 21 2" xfId="446"/>
-    <cellStyle name="Normal 15 22" xfId="447"/>
-    <cellStyle name="Normal 15 22 2" xfId="448"/>
-    <cellStyle name="Normal 15 23" xfId="449"/>
-    <cellStyle name="Normal 15 3" xfId="450"/>
-    <cellStyle name="Normal 15 3 2" xfId="451"/>
-    <cellStyle name="Normal 15 4" xfId="452"/>
-    <cellStyle name="Normal 15 4 2" xfId="453"/>
-    <cellStyle name="Normal 15 5" xfId="454"/>
-    <cellStyle name="Normal 15 5 2" xfId="455"/>
-    <cellStyle name="Normal 15 6" xfId="456"/>
-    <cellStyle name="Normal 15 6 2" xfId="457"/>
-    <cellStyle name="Normal 15 7" xfId="458"/>
-    <cellStyle name="Normal 15 7 2" xfId="459"/>
-    <cellStyle name="Normal 15 8" xfId="460"/>
-    <cellStyle name="Normal 15 8 2" xfId="461"/>
-    <cellStyle name="Normal 15 9" xfId="462"/>
-    <cellStyle name="Normal 15 9 2" xfId="463"/>
-    <cellStyle name="Normal 150" xfId="464"/>
-    <cellStyle name="Normal 151" xfId="465"/>
-    <cellStyle name="Normal 152" xfId="466"/>
-    <cellStyle name="Normal 153" xfId="467"/>
-    <cellStyle name="Normal 154" xfId="468"/>
-    <cellStyle name="Normal 155" xfId="469"/>
-    <cellStyle name="Normal 156" xfId="470"/>
-    <cellStyle name="Normal 157" xfId="471"/>
-    <cellStyle name="Normal 158" xfId="472"/>
-    <cellStyle name="Normal 159" xfId="473"/>
-    <cellStyle name="Normal 16" xfId="474"/>
-    <cellStyle name="Normal 16 10" xfId="475"/>
-    <cellStyle name="Normal 16 10 2" xfId="476"/>
-    <cellStyle name="Normal 16 11" xfId="477"/>
-    <cellStyle name="Normal 16 11 2" xfId="478"/>
-    <cellStyle name="Normal 16 12" xfId="479"/>
-    <cellStyle name="Normal 16 12 2" xfId="480"/>
-    <cellStyle name="Normal 16 13" xfId="481"/>
-    <cellStyle name="Normal 16 13 2" xfId="482"/>
-    <cellStyle name="Normal 16 14" xfId="483"/>
-    <cellStyle name="Normal 16 14 2" xfId="484"/>
-    <cellStyle name="Normal 16 15" xfId="485"/>
-    <cellStyle name="Normal 16 15 2" xfId="486"/>
-    <cellStyle name="Normal 16 16" xfId="487"/>
-    <cellStyle name="Normal 16 16 2" xfId="488"/>
-    <cellStyle name="Normal 16 17" xfId="489"/>
-    <cellStyle name="Normal 16 17 2" xfId="490"/>
-    <cellStyle name="Normal 16 18" xfId="491"/>
-    <cellStyle name="Normal 16 18 2" xfId="492"/>
-    <cellStyle name="Normal 16 19" xfId="493"/>
-    <cellStyle name="Normal 16 19 2" xfId="494"/>
-    <cellStyle name="Normal 16 2" xfId="495"/>
-    <cellStyle name="Normal 16 2 2" xfId="496"/>
-    <cellStyle name="Normal 16 20" xfId="497"/>
-    <cellStyle name="Normal 16 20 2" xfId="498"/>
-    <cellStyle name="Normal 16 21" xfId="499"/>
-    <cellStyle name="Normal 16 21 2" xfId="500"/>
-    <cellStyle name="Normal 16 22" xfId="501"/>
-    <cellStyle name="Normal 16 22 2" xfId="502"/>
-    <cellStyle name="Normal 16 23" xfId="503"/>
-    <cellStyle name="Normal 16 3" xfId="504"/>
-    <cellStyle name="Normal 16 3 2" xfId="505"/>
-    <cellStyle name="Normal 16 4" xfId="506"/>
-    <cellStyle name="Normal 16 4 2" xfId="507"/>
-    <cellStyle name="Normal 16 5" xfId="508"/>
-    <cellStyle name="Normal 16 5 2" xfId="509"/>
-    <cellStyle name="Normal 16 6" xfId="510"/>
-    <cellStyle name="Normal 16 6 2" xfId="511"/>
-    <cellStyle name="Normal 16 7" xfId="512"/>
-    <cellStyle name="Normal 16 7 2" xfId="513"/>
-    <cellStyle name="Normal 16 8" xfId="514"/>
-    <cellStyle name="Normal 16 8 2" xfId="515"/>
-    <cellStyle name="Normal 16 9" xfId="516"/>
-    <cellStyle name="Normal 16 9 2" xfId="517"/>
-    <cellStyle name="Normal 160" xfId="518"/>
-    <cellStyle name="Normal 161" xfId="519"/>
-    <cellStyle name="Normal 162" xfId="520"/>
-    <cellStyle name="Normal 163" xfId="521"/>
-    <cellStyle name="Normal 164" xfId="522"/>
-    <cellStyle name="Normal 165" xfId="523"/>
-    <cellStyle name="Normal 166" xfId="524"/>
-    <cellStyle name="Normal 167" xfId="525"/>
-    <cellStyle name="Normal 168" xfId="526"/>
-    <cellStyle name="Normal 169" xfId="527"/>
-    <cellStyle name="Normal 17" xfId="528"/>
-    <cellStyle name="Normal 17 10" xfId="529"/>
-    <cellStyle name="Normal 17 10 2" xfId="530"/>
-    <cellStyle name="Normal 17 11" xfId="531"/>
-    <cellStyle name="Normal 17 11 2" xfId="532"/>
-    <cellStyle name="Normal 17 12" xfId="533"/>
-    <cellStyle name="Normal 17 12 2" xfId="534"/>
-    <cellStyle name="Normal 17 13" xfId="535"/>
-    <cellStyle name="Normal 17 13 2" xfId="536"/>
-    <cellStyle name="Normal 17 14" xfId="537"/>
-    <cellStyle name="Normal 17 14 2" xfId="538"/>
-    <cellStyle name="Normal 17 15" xfId="539"/>
-    <cellStyle name="Normal 17 15 2" xfId="540"/>
-    <cellStyle name="Normal 17 16" xfId="541"/>
-    <cellStyle name="Normal 17 16 2" xfId="542"/>
-    <cellStyle name="Normal 17 17" xfId="543"/>
-    <cellStyle name="Normal 17 17 2" xfId="544"/>
-    <cellStyle name="Normal 17 18" xfId="545"/>
-    <cellStyle name="Normal 17 18 2" xfId="546"/>
-    <cellStyle name="Normal 17 19" xfId="547"/>
-    <cellStyle name="Normal 17 19 2" xfId="548"/>
-    <cellStyle name="Normal 17 2" xfId="549"/>
-    <cellStyle name="Normal 17 2 2" xfId="550"/>
-    <cellStyle name="Normal 17 20" xfId="551"/>
-    <cellStyle name="Normal 17 20 2" xfId="552"/>
-    <cellStyle name="Normal 17 21" xfId="553"/>
-    <cellStyle name="Normal 17 21 2" xfId="554"/>
-    <cellStyle name="Normal 17 22" xfId="555"/>
-    <cellStyle name="Normal 17 22 2" xfId="556"/>
-    <cellStyle name="Normal 17 23" xfId="557"/>
-    <cellStyle name="Normal 17 3" xfId="558"/>
-    <cellStyle name="Normal 17 3 2" xfId="559"/>
-    <cellStyle name="Normal 17 4" xfId="560"/>
-    <cellStyle name="Normal 17 4 2" xfId="561"/>
-    <cellStyle name="Normal 17 5" xfId="562"/>
-    <cellStyle name="Normal 17 5 2" xfId="563"/>
-    <cellStyle name="Normal 17 6" xfId="564"/>
-    <cellStyle name="Normal 17 6 2" xfId="565"/>
-    <cellStyle name="Normal 17 7" xfId="566"/>
-    <cellStyle name="Normal 17 7 2" xfId="567"/>
-    <cellStyle name="Normal 17 8" xfId="568"/>
-    <cellStyle name="Normal 17 8 2" xfId="569"/>
-    <cellStyle name="Normal 17 9" xfId="570"/>
-    <cellStyle name="Normal 17 9 2" xfId="571"/>
-    <cellStyle name="Normal 170" xfId="572"/>
-    <cellStyle name="Normal 171" xfId="573"/>
-    <cellStyle name="Normal 172" xfId="574"/>
-    <cellStyle name="Normal 173" xfId="575"/>
-    <cellStyle name="Normal 174" xfId="576"/>
-    <cellStyle name="Normal 175" xfId="577"/>
-    <cellStyle name="Normal 176" xfId="578"/>
-    <cellStyle name="Normal 177" xfId="579"/>
-    <cellStyle name="Normal 178" xfId="580"/>
-    <cellStyle name="Normal 179" xfId="581"/>
-    <cellStyle name="Normal 18" xfId="582"/>
-    <cellStyle name="Normal 18 10" xfId="583"/>
-    <cellStyle name="Normal 18 10 2" xfId="584"/>
-    <cellStyle name="Normal 18 11" xfId="585"/>
-    <cellStyle name="Normal 18 11 2" xfId="586"/>
-    <cellStyle name="Normal 18 12" xfId="587"/>
-    <cellStyle name="Normal 18 12 2" xfId="588"/>
-    <cellStyle name="Normal 18 13" xfId="589"/>
-    <cellStyle name="Normal 18 13 2" xfId="590"/>
-    <cellStyle name="Normal 18 14" xfId="591"/>
-    <cellStyle name="Normal 18 14 2" xfId="592"/>
-    <cellStyle name="Normal 18 15" xfId="593"/>
-    <cellStyle name="Normal 18 15 2" xfId="594"/>
-    <cellStyle name="Normal 18 16" xfId="595"/>
-    <cellStyle name="Normal 18 16 2" xfId="596"/>
-    <cellStyle name="Normal 18 17" xfId="597"/>
-    <cellStyle name="Normal 18 17 2" xfId="598"/>
-    <cellStyle name="Normal 18 18" xfId="599"/>
-    <cellStyle name="Normal 18 18 2" xfId="600"/>
-    <cellStyle name="Normal 18 19" xfId="601"/>
-    <cellStyle name="Normal 18 19 2" xfId="602"/>
-    <cellStyle name="Normal 18 2" xfId="603"/>
-    <cellStyle name="Normal 18 2 2" xfId="604"/>
-    <cellStyle name="Normal 18 20" xfId="605"/>
-    <cellStyle name="Normal 18 20 2" xfId="606"/>
-    <cellStyle name="Normal 18 21" xfId="607"/>
-    <cellStyle name="Normal 18 21 2" xfId="608"/>
-    <cellStyle name="Normal 18 22" xfId="609"/>
-    <cellStyle name="Normal 18 22 2" xfId="610"/>
-    <cellStyle name="Normal 18 23" xfId="611"/>
-    <cellStyle name="Normal 18 3" xfId="612"/>
-    <cellStyle name="Normal 18 3 2" xfId="613"/>
-    <cellStyle name="Normal 18 4" xfId="614"/>
-    <cellStyle name="Normal 18 4 2" xfId="615"/>
-    <cellStyle name="Normal 18 5" xfId="616"/>
-    <cellStyle name="Normal 18 5 2" xfId="617"/>
-    <cellStyle name="Normal 18 6" xfId="618"/>
-    <cellStyle name="Normal 18 6 2" xfId="619"/>
-    <cellStyle name="Normal 18 7" xfId="620"/>
-    <cellStyle name="Normal 18 7 2" xfId="621"/>
-    <cellStyle name="Normal 18 8" xfId="622"/>
-    <cellStyle name="Normal 18 8 2" xfId="623"/>
-    <cellStyle name="Normal 18 9" xfId="624"/>
-    <cellStyle name="Normal 18 9 2" xfId="625"/>
-    <cellStyle name="Normal 180" xfId="626"/>
-    <cellStyle name="Normal 181" xfId="627"/>
-    <cellStyle name="Normal 182" xfId="628"/>
-    <cellStyle name="Normal 183" xfId="629"/>
-    <cellStyle name="Normal 184" xfId="630"/>
-    <cellStyle name="Normal 185" xfId="631"/>
-    <cellStyle name="Normal 186" xfId="632"/>
-    <cellStyle name="Normal 187" xfId="633"/>
-    <cellStyle name="Normal 188" xfId="634"/>
-    <cellStyle name="Normal 189" xfId="635"/>
-    <cellStyle name="Normal 19" xfId="636"/>
-    <cellStyle name="Normal 190" xfId="637"/>
-    <cellStyle name="Normal 191" xfId="638"/>
-    <cellStyle name="Normal 192" xfId="639"/>
-    <cellStyle name="Normal 193" xfId="640"/>
-    <cellStyle name="Normal 194" xfId="641"/>
-    <cellStyle name="Normal 195" xfId="642"/>
-    <cellStyle name="Normal 196" xfId="643"/>
-    <cellStyle name="Normal 197" xfId="644"/>
-    <cellStyle name="Normal 198" xfId="645"/>
-    <cellStyle name="Normal 199" xfId="646"/>
-    <cellStyle name="Normal 2" xfId="647"/>
-    <cellStyle name="Normal 2 2" xfId="648"/>
-    <cellStyle name="Normal 2 2 10" xfId="649"/>
-    <cellStyle name="Normal 2 2 10 2" xfId="650"/>
-    <cellStyle name="Normal 2 2 11" xfId="651"/>
-    <cellStyle name="Normal 2 2 11 2" xfId="652"/>
-    <cellStyle name="Normal 2 2 12" xfId="653"/>
-    <cellStyle name="Normal 2 2 12 2" xfId="654"/>
-    <cellStyle name="Normal 2 2 13" xfId="655"/>
-    <cellStyle name="Normal 2 2 13 2" xfId="656"/>
-    <cellStyle name="Normal 2 2 14" xfId="657"/>
-    <cellStyle name="Normal 2 2 14 2" xfId="658"/>
-    <cellStyle name="Normal 2 2 15" xfId="659"/>
-    <cellStyle name="Normal 2 2 15 2" xfId="660"/>
-    <cellStyle name="Normal 2 2 16" xfId="661"/>
-    <cellStyle name="Normal 2 2 16 2" xfId="662"/>
-    <cellStyle name="Normal 2 2 17" xfId="663"/>
-    <cellStyle name="Normal 2 2 17 2" xfId="664"/>
-    <cellStyle name="Normal 2 2 18" xfId="665"/>
-    <cellStyle name="Normal 2 2 18 2" xfId="666"/>
-    <cellStyle name="Normal 2 2 19" xfId="667"/>
-    <cellStyle name="Normal 2 2 19 2" xfId="668"/>
-    <cellStyle name="Normal 2 2 2" xfId="669"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="670"/>
-    <cellStyle name="Normal 2 2 20" xfId="671"/>
-    <cellStyle name="Normal 2 2 20 2" xfId="672"/>
-    <cellStyle name="Normal 2 2 21" xfId="673"/>
-    <cellStyle name="Normal 2 2 21 2" xfId="674"/>
-    <cellStyle name="Normal 2 2 22" xfId="675"/>
-    <cellStyle name="Normal 2 2 22 2" xfId="676"/>
-    <cellStyle name="Normal 2 2 23" xfId="677"/>
-    <cellStyle name="Normal 2 2 3" xfId="678"/>
-    <cellStyle name="Normal 2 2 3 2" xfId="679"/>
-    <cellStyle name="Normal 2 2 4" xfId="680"/>
-    <cellStyle name="Normal 2 2 4 2" xfId="681"/>
-    <cellStyle name="Normal 2 2 5" xfId="682"/>
-    <cellStyle name="Normal 2 2 5 2" xfId="683"/>
-    <cellStyle name="Normal 2 2 6" xfId="684"/>
-    <cellStyle name="Normal 2 2 6 2" xfId="685"/>
-    <cellStyle name="Normal 2 2 7" xfId="686"/>
-    <cellStyle name="Normal 2 2 7 2" xfId="687"/>
-    <cellStyle name="Normal 2 2 8" xfId="688"/>
-    <cellStyle name="Normal 2 2 8 2" xfId="689"/>
-    <cellStyle name="Normal 2 2 9" xfId="690"/>
-    <cellStyle name="Normal 2 2 9 2" xfId="691"/>
-    <cellStyle name="Normal 2 3" xfId="692"/>
-    <cellStyle name="Normal 2 4" xfId="693"/>
-    <cellStyle name="Normal 2 4 2" xfId="694"/>
-    <cellStyle name="Normal 2 5" xfId="695"/>
-    <cellStyle name="Normal 2 5 2" xfId="696"/>
-    <cellStyle name="Normal 2 6" xfId="697"/>
-    <cellStyle name="Normal 2 6 2" xfId="698"/>
-    <cellStyle name="Normal 20" xfId="699"/>
-    <cellStyle name="Normal 20 10" xfId="700"/>
-    <cellStyle name="Normal 20 10 2" xfId="701"/>
-    <cellStyle name="Normal 20 11" xfId="702"/>
-    <cellStyle name="Normal 20 11 2" xfId="703"/>
-    <cellStyle name="Normal 20 12" xfId="704"/>
-    <cellStyle name="Normal 20 12 2" xfId="705"/>
-    <cellStyle name="Normal 20 13" xfId="706"/>
-    <cellStyle name="Normal 20 13 2" xfId="707"/>
-    <cellStyle name="Normal 20 14" xfId="708"/>
-    <cellStyle name="Normal 20 14 2" xfId="709"/>
-    <cellStyle name="Normal 20 15" xfId="710"/>
-    <cellStyle name="Normal 20 15 2" xfId="711"/>
-    <cellStyle name="Normal 20 16" xfId="712"/>
-    <cellStyle name="Normal 20 16 2" xfId="713"/>
-    <cellStyle name="Normal 20 17" xfId="714"/>
-    <cellStyle name="Normal 20 17 2" xfId="715"/>
-    <cellStyle name="Normal 20 18" xfId="716"/>
-    <cellStyle name="Normal 20 18 2" xfId="717"/>
-    <cellStyle name="Normal 20 19" xfId="718"/>
-    <cellStyle name="Normal 20 19 2" xfId="719"/>
-    <cellStyle name="Normal 20 2" xfId="720"/>
-    <cellStyle name="Normal 20 2 2" xfId="721"/>
-    <cellStyle name="Normal 20 20" xfId="722"/>
-    <cellStyle name="Normal 20 20 2" xfId="723"/>
-    <cellStyle name="Normal 20 21" xfId="724"/>
-    <cellStyle name="Normal 20 21 2" xfId="725"/>
-    <cellStyle name="Normal 20 22" xfId="726"/>
-    <cellStyle name="Normal 20 22 2" xfId="727"/>
-    <cellStyle name="Normal 20 23" xfId="728"/>
-    <cellStyle name="Normal 20 3" xfId="729"/>
-    <cellStyle name="Normal 20 3 2" xfId="730"/>
-    <cellStyle name="Normal 20 4" xfId="731"/>
-    <cellStyle name="Normal 20 4 2" xfId="732"/>
-    <cellStyle name="Normal 20 5" xfId="733"/>
-    <cellStyle name="Normal 20 5 2" xfId="734"/>
-    <cellStyle name="Normal 20 6" xfId="735"/>
-    <cellStyle name="Normal 20 6 2" xfId="736"/>
-    <cellStyle name="Normal 20 7" xfId="737"/>
-    <cellStyle name="Normal 20 7 2" xfId="738"/>
-    <cellStyle name="Normal 20 8" xfId="739"/>
-    <cellStyle name="Normal 20 8 2" xfId="740"/>
-    <cellStyle name="Normal 20 9" xfId="741"/>
-    <cellStyle name="Normal 20 9 2" xfId="742"/>
-    <cellStyle name="Normal 200" xfId="743"/>
-    <cellStyle name="Normal 201" xfId="744"/>
-    <cellStyle name="Normal 202" xfId="745"/>
-    <cellStyle name="Normal 203" xfId="746"/>
-    <cellStyle name="Normal 204" xfId="747"/>
-    <cellStyle name="Normal 205" xfId="748"/>
-    <cellStyle name="Normal 206" xfId="749"/>
-    <cellStyle name="Normal 207" xfId="750"/>
-    <cellStyle name="Normal 208" xfId="751"/>
-    <cellStyle name="Normal 209" xfId="752"/>
-    <cellStyle name="Normal 21" xfId="753"/>
-    <cellStyle name="Normal 21 10" xfId="754"/>
-    <cellStyle name="Normal 21 10 2" xfId="755"/>
-    <cellStyle name="Normal 21 11" xfId="756"/>
-    <cellStyle name="Normal 21 11 2" xfId="757"/>
-    <cellStyle name="Normal 21 12" xfId="758"/>
-    <cellStyle name="Normal 21 12 2" xfId="759"/>
-    <cellStyle name="Normal 21 13" xfId="760"/>
-    <cellStyle name="Normal 21 13 2" xfId="761"/>
-    <cellStyle name="Normal 21 14" xfId="762"/>
-    <cellStyle name="Normal 21 14 2" xfId="763"/>
-    <cellStyle name="Normal 21 15" xfId="764"/>
-    <cellStyle name="Normal 21 15 2" xfId="765"/>
-    <cellStyle name="Normal 21 16" xfId="766"/>
-    <cellStyle name="Normal 21 16 2" xfId="767"/>
-    <cellStyle name="Normal 21 17" xfId="768"/>
-    <cellStyle name="Normal 21 17 2" xfId="769"/>
-    <cellStyle name="Normal 21 18" xfId="770"/>
-    <cellStyle name="Normal 21 18 2" xfId="771"/>
-    <cellStyle name="Normal 21 19" xfId="772"/>
-    <cellStyle name="Normal 21 19 2" xfId="773"/>
-    <cellStyle name="Normal 21 2" xfId="774"/>
-    <cellStyle name="Normal 21 2 2" xfId="775"/>
-    <cellStyle name="Normal 21 20" xfId="776"/>
-    <cellStyle name="Normal 21 20 2" xfId="777"/>
-    <cellStyle name="Normal 21 21" xfId="778"/>
-    <cellStyle name="Normal 21 21 2" xfId="779"/>
-    <cellStyle name="Normal 21 22" xfId="780"/>
-    <cellStyle name="Normal 21 22 2" xfId="781"/>
-    <cellStyle name="Normal 21 23" xfId="782"/>
-    <cellStyle name="Normal 21 3" xfId="783"/>
-    <cellStyle name="Normal 21 3 2" xfId="784"/>
-    <cellStyle name="Normal 21 4" xfId="785"/>
-    <cellStyle name="Normal 21 4 2" xfId="786"/>
-    <cellStyle name="Normal 21 5" xfId="787"/>
-    <cellStyle name="Normal 21 5 2" xfId="788"/>
-    <cellStyle name="Normal 21 6" xfId="789"/>
-    <cellStyle name="Normal 21 6 2" xfId="790"/>
-    <cellStyle name="Normal 21 7" xfId="791"/>
-    <cellStyle name="Normal 21 7 2" xfId="792"/>
-    <cellStyle name="Normal 21 8" xfId="793"/>
-    <cellStyle name="Normal 21 8 2" xfId="794"/>
-    <cellStyle name="Normal 21 9" xfId="795"/>
-    <cellStyle name="Normal 21 9 2" xfId="796"/>
-    <cellStyle name="Normal 210" xfId="797"/>
-    <cellStyle name="Normal 211" xfId="798"/>
-    <cellStyle name="Normal 212" xfId="799"/>
-    <cellStyle name="Normal 213" xfId="800"/>
-    <cellStyle name="Normal 214" xfId="801"/>
-    <cellStyle name="Normal 215" xfId="802"/>
-    <cellStyle name="Normal 216" xfId="803"/>
-    <cellStyle name="Normal 217" xfId="804"/>
-    <cellStyle name="Normal 218" xfId="805"/>
-    <cellStyle name="Normal 219" xfId="806"/>
-    <cellStyle name="Normal 22" xfId="807"/>
-    <cellStyle name="Normal 22 10" xfId="808"/>
-    <cellStyle name="Normal 22 10 2" xfId="809"/>
-    <cellStyle name="Normal 22 11" xfId="810"/>
-    <cellStyle name="Normal 22 11 2" xfId="811"/>
-    <cellStyle name="Normal 22 12" xfId="812"/>
-    <cellStyle name="Normal 22 12 2" xfId="813"/>
-    <cellStyle name="Normal 22 13" xfId="814"/>
-    <cellStyle name="Normal 22 13 2" xfId="815"/>
-    <cellStyle name="Normal 22 14" xfId="816"/>
-    <cellStyle name="Normal 22 14 2" xfId="817"/>
-    <cellStyle name="Normal 22 15" xfId="818"/>
-    <cellStyle name="Normal 22 15 2" xfId="819"/>
-    <cellStyle name="Normal 22 16" xfId="820"/>
-    <cellStyle name="Normal 22 16 2" xfId="821"/>
-    <cellStyle name="Normal 22 17" xfId="822"/>
-    <cellStyle name="Normal 22 17 2" xfId="823"/>
-    <cellStyle name="Normal 22 18" xfId="824"/>
-    <cellStyle name="Normal 22 18 2" xfId="825"/>
-    <cellStyle name="Normal 22 19" xfId="826"/>
-    <cellStyle name="Normal 22 19 2" xfId="827"/>
-    <cellStyle name="Normal 22 2" xfId="828"/>
-    <cellStyle name="Normal 22 2 2" xfId="829"/>
-    <cellStyle name="Normal 22 20" xfId="830"/>
-    <cellStyle name="Normal 22 20 2" xfId="831"/>
-    <cellStyle name="Normal 22 21" xfId="832"/>
-    <cellStyle name="Normal 22 21 2" xfId="833"/>
-    <cellStyle name="Normal 22 22" xfId="834"/>
-    <cellStyle name="Normal 22 22 2" xfId="835"/>
-    <cellStyle name="Normal 22 23" xfId="836"/>
-    <cellStyle name="Normal 22 3" xfId="837"/>
-    <cellStyle name="Normal 22 3 2" xfId="838"/>
-    <cellStyle name="Normal 22 4" xfId="839"/>
-    <cellStyle name="Normal 22 4 2" xfId="840"/>
-    <cellStyle name="Normal 22 5" xfId="841"/>
-    <cellStyle name="Normal 22 5 2" xfId="842"/>
-    <cellStyle name="Normal 22 6" xfId="843"/>
-    <cellStyle name="Normal 22 6 2" xfId="844"/>
-    <cellStyle name="Normal 22 7" xfId="845"/>
-    <cellStyle name="Normal 22 7 2" xfId="846"/>
-    <cellStyle name="Normal 22 8" xfId="847"/>
-    <cellStyle name="Normal 22 8 2" xfId="848"/>
-    <cellStyle name="Normal 22 9" xfId="849"/>
-    <cellStyle name="Normal 22 9 2" xfId="850"/>
-    <cellStyle name="Normal 220" xfId="851"/>
-    <cellStyle name="Normal 221" xfId="852"/>
-    <cellStyle name="Normal 222" xfId="853"/>
-    <cellStyle name="Normal 223" xfId="854"/>
-    <cellStyle name="Normal 224" xfId="855"/>
-    <cellStyle name="Normal 225" xfId="856"/>
-    <cellStyle name="Normal 226" xfId="857"/>
-    <cellStyle name="Normal 227" xfId="858"/>
-    <cellStyle name="Normal 228" xfId="859"/>
-    <cellStyle name="Normal 229" xfId="860"/>
-    <cellStyle name="Normal 23" xfId="861"/>
-    <cellStyle name="Normal 23 10" xfId="862"/>
-    <cellStyle name="Normal 23 10 2" xfId="863"/>
-    <cellStyle name="Normal 23 11" xfId="864"/>
-    <cellStyle name="Normal 23 11 2" xfId="865"/>
-    <cellStyle name="Normal 23 12" xfId="866"/>
-    <cellStyle name="Normal 23 12 2" xfId="867"/>
-    <cellStyle name="Normal 23 13" xfId="868"/>
-    <cellStyle name="Normal 23 13 2" xfId="869"/>
-    <cellStyle name="Normal 23 14" xfId="870"/>
-    <cellStyle name="Normal 23 14 2" xfId="871"/>
-    <cellStyle name="Normal 23 15" xfId="872"/>
-    <cellStyle name="Normal 23 15 2" xfId="873"/>
-    <cellStyle name="Normal 23 16" xfId="874"/>
-    <cellStyle name="Normal 23 16 2" xfId="875"/>
-    <cellStyle name="Normal 23 17" xfId="876"/>
-    <cellStyle name="Normal 23 17 2" xfId="877"/>
-    <cellStyle name="Normal 23 18" xfId="878"/>
-    <cellStyle name="Normal 23 18 2" xfId="879"/>
-    <cellStyle name="Normal 23 19" xfId="880"/>
-    <cellStyle name="Normal 23 19 2" xfId="881"/>
-    <cellStyle name="Normal 23 2" xfId="882"/>
-    <cellStyle name="Normal 23 2 2" xfId="883"/>
-    <cellStyle name="Normal 23 20" xfId="884"/>
-    <cellStyle name="Normal 23 20 2" xfId="885"/>
-    <cellStyle name="Normal 23 21" xfId="886"/>
-    <cellStyle name="Normal 23 21 2" xfId="887"/>
-    <cellStyle name="Normal 23 22" xfId="888"/>
-    <cellStyle name="Normal 23 22 2" xfId="889"/>
-    <cellStyle name="Normal 23 23" xfId="890"/>
-    <cellStyle name="Normal 23 3" xfId="891"/>
-    <cellStyle name="Normal 23 3 2" xfId="892"/>
-    <cellStyle name="Normal 23 4" xfId="893"/>
-    <cellStyle name="Normal 23 4 2" xfId="894"/>
-    <cellStyle name="Normal 23 5" xfId="895"/>
-    <cellStyle name="Normal 23 5 2" xfId="896"/>
-    <cellStyle name="Normal 23 6" xfId="897"/>
-    <cellStyle name="Normal 23 6 2" xfId="898"/>
-    <cellStyle name="Normal 23 7" xfId="899"/>
-    <cellStyle name="Normal 23 7 2" xfId="900"/>
-    <cellStyle name="Normal 23 8" xfId="901"/>
-    <cellStyle name="Normal 23 8 2" xfId="902"/>
-    <cellStyle name="Normal 23 9" xfId="903"/>
-    <cellStyle name="Normal 23 9 2" xfId="904"/>
-    <cellStyle name="Normal 230" xfId="905"/>
-    <cellStyle name="Normal 231" xfId="906"/>
-    <cellStyle name="Normal 232" xfId="907"/>
-    <cellStyle name="Normal 233" xfId="908"/>
-    <cellStyle name="Normal 234" xfId="909"/>
-    <cellStyle name="Normal 235" xfId="910"/>
-    <cellStyle name="Normal 236" xfId="911"/>
-    <cellStyle name="Normal 237" xfId="912"/>
-    <cellStyle name="Normal 238" xfId="913"/>
-    <cellStyle name="Normal 239" xfId="914"/>
-    <cellStyle name="Normal 24" xfId="915"/>
-    <cellStyle name="Normal 240" xfId="916"/>
-    <cellStyle name="Normal 241" xfId="917"/>
-    <cellStyle name="Normal 242" xfId="918"/>
-    <cellStyle name="Normal 243" xfId="919"/>
-    <cellStyle name="Normal 244" xfId="920"/>
-    <cellStyle name="Normal 245" xfId="921"/>
-    <cellStyle name="Normal 246" xfId="922"/>
-    <cellStyle name="Normal 247" xfId="923"/>
-    <cellStyle name="Normal 248" xfId="924"/>
-    <cellStyle name="Normal 249" xfId="925"/>
-    <cellStyle name="Normal 25" xfId="926"/>
-    <cellStyle name="Normal 250" xfId="927"/>
-    <cellStyle name="Normal 251" xfId="928"/>
-    <cellStyle name="Normal 252" xfId="929"/>
-    <cellStyle name="Normal 253" xfId="930"/>
-    <cellStyle name="Normal 254" xfId="931"/>
-    <cellStyle name="Normal 255" xfId="932"/>
-    <cellStyle name="Normal 256" xfId="933"/>
-    <cellStyle name="Normal 257" xfId="934"/>
-    <cellStyle name="Normal 258" xfId="935"/>
-    <cellStyle name="Normal 259" xfId="936"/>
-    <cellStyle name="Normal 26" xfId="937"/>
-    <cellStyle name="Normal 260" xfId="938"/>
-    <cellStyle name="Normal 261" xfId="939"/>
-    <cellStyle name="Normal 262" xfId="940"/>
-    <cellStyle name="Normal 263" xfId="941"/>
-    <cellStyle name="Normal 264" xfId="942"/>
-    <cellStyle name="Normal 265" xfId="943"/>
-    <cellStyle name="Normal 266" xfId="944"/>
-    <cellStyle name="Normal 267" xfId="945"/>
-    <cellStyle name="Normal 268" xfId="946"/>
-    <cellStyle name="Normal 269" xfId="947"/>
-    <cellStyle name="Normal 27" xfId="948"/>
-    <cellStyle name="Normal 270" xfId="949"/>
-    <cellStyle name="Normal 271" xfId="950"/>
-    <cellStyle name="Normal 272" xfId="951"/>
-    <cellStyle name="Normal 273" xfId="952"/>
-    <cellStyle name="Normal 274" xfId="953"/>
-    <cellStyle name="Normal 275" xfId="954"/>
-    <cellStyle name="Normal 276" xfId="955"/>
-    <cellStyle name="Normal 277" xfId="956"/>
-    <cellStyle name="Normal 278" xfId="957"/>
-    <cellStyle name="Normal 279" xfId="958"/>
-    <cellStyle name="Normal 28" xfId="959"/>
-    <cellStyle name="Normal 280" xfId="960"/>
-    <cellStyle name="Normal 281" xfId="961"/>
-    <cellStyle name="Normal 282" xfId="962"/>
-    <cellStyle name="Normal 283" xfId="963"/>
-    <cellStyle name="Normal 284" xfId="964"/>
-    <cellStyle name="Normal 285" xfId="965"/>
-    <cellStyle name="Normal 286" xfId="966"/>
-    <cellStyle name="Normal 287" xfId="967"/>
-    <cellStyle name="Normal 288" xfId="968"/>
-    <cellStyle name="Normal 289" xfId="969"/>
-    <cellStyle name="Normal 29" xfId="970"/>
-    <cellStyle name="Normal 290" xfId="971"/>
-    <cellStyle name="Normal 291" xfId="972"/>
-    <cellStyle name="Normal 292" xfId="973"/>
-    <cellStyle name="Normal 293" xfId="974"/>
-    <cellStyle name="Normal 294" xfId="975"/>
-    <cellStyle name="Normal 295" xfId="976"/>
-    <cellStyle name="Normal 296" xfId="977"/>
-    <cellStyle name="Normal 297" xfId="978"/>
-    <cellStyle name="Normal 298" xfId="979"/>
-    <cellStyle name="Normal 299" xfId="980"/>
-    <cellStyle name="Normal 3" xfId="981"/>
-    <cellStyle name="Normal 30" xfId="982"/>
-    <cellStyle name="Normal 300" xfId="983"/>
-    <cellStyle name="Normal 301" xfId="984"/>
-    <cellStyle name="Normal 302" xfId="985"/>
-    <cellStyle name="Normal 303" xfId="986"/>
-    <cellStyle name="Normal 304" xfId="987"/>
-    <cellStyle name="Normal 305" xfId="988"/>
-    <cellStyle name="Normal 306" xfId="989"/>
-    <cellStyle name="Normal 307" xfId="990"/>
-    <cellStyle name="Normal 308" xfId="991"/>
-    <cellStyle name="Normal 309" xfId="992"/>
-    <cellStyle name="Normal 31" xfId="993"/>
-    <cellStyle name="Normal 310" xfId="994"/>
-    <cellStyle name="Normal 311" xfId="995"/>
-    <cellStyle name="Normal 312" xfId="996"/>
-    <cellStyle name="Normal 313" xfId="997"/>
-    <cellStyle name="Normal 314" xfId="998"/>
-    <cellStyle name="Normal 315" xfId="999"/>
-    <cellStyle name="Normal 316" xfId="1000"/>
-    <cellStyle name="Normal 317" xfId="1001"/>
-    <cellStyle name="Normal 318" xfId="1002"/>
-    <cellStyle name="Normal 319" xfId="1003"/>
-    <cellStyle name="Normal 32" xfId="1004"/>
-    <cellStyle name="Normal 320" xfId="1005"/>
-    <cellStyle name="Normal 321" xfId="1006"/>
-    <cellStyle name="Normal 322" xfId="1007"/>
-    <cellStyle name="Normal 323" xfId="1008"/>
-    <cellStyle name="Normal 324" xfId="1009"/>
-    <cellStyle name="Normal 325" xfId="1010"/>
-    <cellStyle name="Normal 326" xfId="1011"/>
-    <cellStyle name="Normal 327" xfId="1012"/>
-    <cellStyle name="Normal 328" xfId="1013"/>
-    <cellStyle name="Normal 329" xfId="1014"/>
-    <cellStyle name="Normal 33" xfId="1015"/>
-    <cellStyle name="Normal 330" xfId="1016"/>
-    <cellStyle name="Normal 331" xfId="1017"/>
-    <cellStyle name="Normal 332" xfId="1018"/>
-    <cellStyle name="Normal 333" xfId="1019"/>
-    <cellStyle name="Normal 334" xfId="1020"/>
-    <cellStyle name="Normal 335" xfId="1021"/>
-    <cellStyle name="Normal 336" xfId="1022"/>
-    <cellStyle name="Normal 337" xfId="1023"/>
-    <cellStyle name="Normal 338" xfId="1024"/>
-    <cellStyle name="Normal 339" xfId="1025"/>
-    <cellStyle name="Normal 34" xfId="1026"/>
-    <cellStyle name="Normal 340" xfId="1027"/>
-    <cellStyle name="Normal 341" xfId="1028"/>
-    <cellStyle name="Normal 342" xfId="1029"/>
-    <cellStyle name="Normal 343" xfId="1030"/>
-    <cellStyle name="Normal 344" xfId="1031"/>
-    <cellStyle name="Normal 345" xfId="1032"/>
-    <cellStyle name="Normal 346" xfId="1033"/>
-    <cellStyle name="Normal 347" xfId="1034"/>
-    <cellStyle name="Normal 348" xfId="1035"/>
-    <cellStyle name="Normal 349" xfId="1036"/>
-    <cellStyle name="Normal 35" xfId="1037"/>
-    <cellStyle name="Normal 350" xfId="1038"/>
-    <cellStyle name="Normal 351" xfId="1039"/>
-    <cellStyle name="Normal 352" xfId="1040"/>
-    <cellStyle name="Normal 353" xfId="1041"/>
-    <cellStyle name="Normal 354" xfId="1042"/>
-    <cellStyle name="Normal 355" xfId="1043"/>
-    <cellStyle name="Normal 356" xfId="1044"/>
-    <cellStyle name="Normal 357" xfId="1045"/>
-    <cellStyle name="Normal 358" xfId="1046"/>
-    <cellStyle name="Normal 359" xfId="1047"/>
-    <cellStyle name="Normal 36" xfId="1048"/>
-    <cellStyle name="Normal 360" xfId="1049"/>
-    <cellStyle name="Normal 361" xfId="1050"/>
-    <cellStyle name="Normal 362" xfId="1051"/>
-    <cellStyle name="Normal 363" xfId="1052"/>
-    <cellStyle name="Normal 364" xfId="1053"/>
-    <cellStyle name="Normal 365" xfId="1054"/>
-    <cellStyle name="Normal 366" xfId="1055"/>
-    <cellStyle name="Normal 367" xfId="1056"/>
-    <cellStyle name="Normal 368" xfId="1057"/>
-    <cellStyle name="Normal 369" xfId="1058"/>
-    <cellStyle name="Normal 37" xfId="1059"/>
-    <cellStyle name="Normal 370" xfId="1060"/>
-    <cellStyle name="Normal 371" xfId="1061"/>
-    <cellStyle name="Normal 372" xfId="1062"/>
-    <cellStyle name="Normal 373" xfId="1063"/>
-    <cellStyle name="Normal 374" xfId="1064"/>
-    <cellStyle name="Normal 375" xfId="1065"/>
-    <cellStyle name="Normal 376" xfId="1066"/>
-    <cellStyle name="Normal 377" xfId="1067"/>
-    <cellStyle name="Normal 378" xfId="1068"/>
-    <cellStyle name="Normal 379" xfId="1069"/>
-    <cellStyle name="Normal 38" xfId="1070"/>
-    <cellStyle name="Normal 380" xfId="1071"/>
-    <cellStyle name="Normal 381" xfId="1072"/>
-    <cellStyle name="Normal 382" xfId="1073"/>
-    <cellStyle name="Normal 383" xfId="1074"/>
-    <cellStyle name="Normal 384" xfId="1075"/>
-    <cellStyle name="Normal 385" xfId="1076"/>
-    <cellStyle name="Normal 386" xfId="1077"/>
-    <cellStyle name="Normal 387" xfId="1078"/>
-    <cellStyle name="Normal 388" xfId="1079"/>
-    <cellStyle name="Normal 389" xfId="1080"/>
-    <cellStyle name="Normal 39" xfId="1081"/>
-    <cellStyle name="Normal 390" xfId="1082"/>
-    <cellStyle name="Normal 391" xfId="1083"/>
-    <cellStyle name="Normal 392" xfId="1084"/>
-    <cellStyle name="Normal 393" xfId="1085"/>
-    <cellStyle name="Normal 394" xfId="1086"/>
-    <cellStyle name="Normal 395" xfId="1087"/>
-    <cellStyle name="Normal 396" xfId="1088"/>
-    <cellStyle name="Normal 397" xfId="1089"/>
-    <cellStyle name="Normal 398" xfId="1090"/>
-    <cellStyle name="Normal 399" xfId="1091"/>
-    <cellStyle name="Normal 4" xfId="1092"/>
-    <cellStyle name="Normal 40" xfId="1093"/>
-    <cellStyle name="Normal 400" xfId="1094"/>
-    <cellStyle name="Normal 401" xfId="1095"/>
-    <cellStyle name="Normal 401 2" xfId="1096"/>
-    <cellStyle name="Normal 402" xfId="1097"/>
-    <cellStyle name="Normal 403" xfId="1098"/>
-    <cellStyle name="Normal 404" xfId="1099"/>
-    <cellStyle name="Normal 405" xfId="1100"/>
-    <cellStyle name="Normal 406" xfId="1101"/>
-    <cellStyle name="Normal 407" xfId="1102"/>
-    <cellStyle name="Normal 408" xfId="1103"/>
-    <cellStyle name="Normal 409" xfId="1104"/>
-    <cellStyle name="Normal 41" xfId="1105"/>
-    <cellStyle name="Normal 410" xfId="1106"/>
-    <cellStyle name="Normal 411" xfId="1107"/>
-    <cellStyle name="Normal 411 2" xfId="1108"/>
-    <cellStyle name="Normal 412" xfId="1109"/>
-    <cellStyle name="Normal 413" xfId="1110"/>
-    <cellStyle name="Normal 414" xfId="1111"/>
-    <cellStyle name="Normal 415" xfId="1112"/>
-    <cellStyle name="Normal 416" xfId="1113"/>
-    <cellStyle name="Normal 416 2" xfId="1114"/>
-    <cellStyle name="Normal 417" xfId="1488"/>
-    <cellStyle name="Normal 42" xfId="1115"/>
-    <cellStyle name="Normal 43" xfId="1116"/>
-    <cellStyle name="Normal 44" xfId="1117"/>
-    <cellStyle name="Normal 45" xfId="1118"/>
-    <cellStyle name="Normal 46" xfId="1119"/>
-    <cellStyle name="Normal 47" xfId="1120"/>
-    <cellStyle name="Normal 48" xfId="1121"/>
-    <cellStyle name="Normal 49" xfId="1122"/>
-    <cellStyle name="Normal 5" xfId="1123"/>
-    <cellStyle name="Normal 5 10" xfId="1124"/>
-    <cellStyle name="Normal 5 10 2" xfId="1125"/>
-    <cellStyle name="Normal 5 11" xfId="1126"/>
-    <cellStyle name="Normal 5 11 2" xfId="1127"/>
-    <cellStyle name="Normal 5 12" xfId="1128"/>
-    <cellStyle name="Normal 5 12 2" xfId="1129"/>
-    <cellStyle name="Normal 5 13" xfId="1130"/>
-    <cellStyle name="Normal 5 13 2" xfId="1131"/>
-    <cellStyle name="Normal 5 14" xfId="1132"/>
-    <cellStyle name="Normal 5 14 2" xfId="1133"/>
-    <cellStyle name="Normal 5 15" xfId="1134"/>
-    <cellStyle name="Normal 5 15 2" xfId="1135"/>
-    <cellStyle name="Normal 5 16" xfId="1136"/>
-    <cellStyle name="Normal 5 16 2" xfId="1137"/>
-    <cellStyle name="Normal 5 17" xfId="1138"/>
-    <cellStyle name="Normal 5 17 2" xfId="1139"/>
-    <cellStyle name="Normal 5 18" xfId="1140"/>
-    <cellStyle name="Normal 5 18 2" xfId="1141"/>
-    <cellStyle name="Normal 5 19" xfId="1142"/>
-    <cellStyle name="Normal 5 19 2" xfId="1143"/>
-    <cellStyle name="Normal 5 2" xfId="1144"/>
-    <cellStyle name="Normal 5 2 10" xfId="1145"/>
-    <cellStyle name="Normal 5 2 10 2" xfId="1146"/>
-    <cellStyle name="Normal 5 2 11" xfId="1147"/>
-    <cellStyle name="Normal 5 2 11 2" xfId="1148"/>
-    <cellStyle name="Normal 5 2 12" xfId="1149"/>
-    <cellStyle name="Normal 5 2 12 2" xfId="1150"/>
-    <cellStyle name="Normal 5 2 13" xfId="1151"/>
-    <cellStyle name="Normal 5 2 13 2" xfId="1152"/>
-    <cellStyle name="Normal 5 2 14" xfId="1153"/>
-    <cellStyle name="Normal 5 2 14 2" xfId="1154"/>
-    <cellStyle name="Normal 5 2 15" xfId="1155"/>
-    <cellStyle name="Normal 5 2 15 2" xfId="1156"/>
-    <cellStyle name="Normal 5 2 16" xfId="1157"/>
-    <cellStyle name="Normal 5 2 16 2" xfId="1158"/>
-    <cellStyle name="Normal 5 2 17" xfId="1159"/>
-    <cellStyle name="Normal 5 2 17 2" xfId="1160"/>
-    <cellStyle name="Normal 5 2 18" xfId="1161"/>
-    <cellStyle name="Normal 5 2 18 2" xfId="1162"/>
-    <cellStyle name="Normal 5 2 19" xfId="1163"/>
-    <cellStyle name="Normal 5 2 19 2" xfId="1164"/>
-    <cellStyle name="Normal 5 2 2" xfId="1165"/>
-    <cellStyle name="Normal 5 2 2 2" xfId="1166"/>
-    <cellStyle name="Normal 5 2 20" xfId="1167"/>
-    <cellStyle name="Normal 5 2 20 2" xfId="1168"/>
-    <cellStyle name="Normal 5 2 21" xfId="1169"/>
-    <cellStyle name="Normal 5 2 21 2" xfId="1170"/>
-    <cellStyle name="Normal 5 2 22" xfId="1171"/>
-    <cellStyle name="Normal 5 2 22 2" xfId="1172"/>
-    <cellStyle name="Normal 5 2 23" xfId="1173"/>
-    <cellStyle name="Normal 5 2 3" xfId="1174"/>
-    <cellStyle name="Normal 5 2 3 2" xfId="1175"/>
-    <cellStyle name="Normal 5 2 4" xfId="1176"/>
-    <cellStyle name="Normal 5 2 4 2" xfId="1177"/>
-    <cellStyle name="Normal 5 2 5" xfId="1178"/>
-    <cellStyle name="Normal 5 2 5 2" xfId="1179"/>
-    <cellStyle name="Normal 5 2 6" xfId="1180"/>
-    <cellStyle name="Normal 5 2 6 2" xfId="1181"/>
-    <cellStyle name="Normal 5 2 7" xfId="1182"/>
-    <cellStyle name="Normal 5 2 7 2" xfId="1183"/>
-    <cellStyle name="Normal 5 2 8" xfId="1184"/>
-    <cellStyle name="Normal 5 2 8 2" xfId="1185"/>
-    <cellStyle name="Normal 5 2 9" xfId="1186"/>
-    <cellStyle name="Normal 5 2 9 2" xfId="1187"/>
-    <cellStyle name="Normal 5 20" xfId="1188"/>
-    <cellStyle name="Normal 5 20 2" xfId="1189"/>
-    <cellStyle name="Normal 5 21" xfId="1190"/>
-    <cellStyle name="Normal 5 21 2" xfId="1191"/>
-    <cellStyle name="Normal 5 22" xfId="1192"/>
-    <cellStyle name="Normal 5 22 2" xfId="1193"/>
-    <cellStyle name="Normal 5 23" xfId="1194"/>
-    <cellStyle name="Normal 5 23 2" xfId="1195"/>
-    <cellStyle name="Normal 5 24" xfId="1196"/>
-    <cellStyle name="Normal 5 3" xfId="1197"/>
-    <cellStyle name="Normal 5 3 2" xfId="1198"/>
-    <cellStyle name="Normal 5 4" xfId="1199"/>
-    <cellStyle name="Normal 5 4 2" xfId="1200"/>
-    <cellStyle name="Normal 5 5" xfId="1201"/>
-    <cellStyle name="Normal 5 5 2" xfId="1202"/>
-    <cellStyle name="Normal 5 6" xfId="1203"/>
-    <cellStyle name="Normal 5 6 2" xfId="1204"/>
-    <cellStyle name="Normal 5 7" xfId="1205"/>
-    <cellStyle name="Normal 5 7 2" xfId="1206"/>
-    <cellStyle name="Normal 5 8" xfId="1207"/>
-    <cellStyle name="Normal 5 8 2" xfId="1208"/>
-    <cellStyle name="Normal 5 9" xfId="1209"/>
-    <cellStyle name="Normal 5 9 2" xfId="1210"/>
-    <cellStyle name="Normal 50" xfId="1211"/>
-    <cellStyle name="Normal 51" xfId="1212"/>
-    <cellStyle name="Normal 52" xfId="1213"/>
-    <cellStyle name="Normal 53" xfId="1214"/>
-    <cellStyle name="Normal 54" xfId="1215"/>
-    <cellStyle name="Normal 55" xfId="1216"/>
-    <cellStyle name="Normal 56" xfId="1217"/>
-    <cellStyle name="Normal 57" xfId="1218"/>
-    <cellStyle name="Normal 58" xfId="1219"/>
-    <cellStyle name="Normal 59" xfId="1220"/>
-    <cellStyle name="Normal 6" xfId="1221"/>
-    <cellStyle name="Normal 60" xfId="1222"/>
-    <cellStyle name="Normal 61" xfId="1223"/>
-    <cellStyle name="Normal 62" xfId="1224"/>
-    <cellStyle name="Normal 63" xfId="1225"/>
-    <cellStyle name="Normal 64" xfId="1226"/>
-    <cellStyle name="Normal 65" xfId="1227"/>
-    <cellStyle name="Normal 66" xfId="1228"/>
-    <cellStyle name="Normal 67" xfId="1229"/>
-    <cellStyle name="Normal 67 10" xfId="1230"/>
-    <cellStyle name="Normal 67 10 2" xfId="1231"/>
-    <cellStyle name="Normal 67 11" xfId="1232"/>
-    <cellStyle name="Normal 67 11 2" xfId="1233"/>
-    <cellStyle name="Normal 67 12" xfId="1234"/>
-    <cellStyle name="Normal 67 12 2" xfId="1235"/>
-    <cellStyle name="Normal 67 13" xfId="1236"/>
-    <cellStyle name="Normal 67 13 2" xfId="1237"/>
-    <cellStyle name="Normal 67 14" xfId="1238"/>
-    <cellStyle name="Normal 67 14 2" xfId="1239"/>
-    <cellStyle name="Normal 67 15" xfId="1240"/>
-    <cellStyle name="Normal 67 15 2" xfId="1241"/>
-    <cellStyle name="Normal 67 16" xfId="1242"/>
-    <cellStyle name="Normal 67 16 2" xfId="1243"/>
-    <cellStyle name="Normal 67 17" xfId="1244"/>
-    <cellStyle name="Normal 67 17 2" xfId="1245"/>
-    <cellStyle name="Normal 67 18" xfId="1246"/>
-    <cellStyle name="Normal 67 18 2" xfId="1247"/>
-    <cellStyle name="Normal 67 19" xfId="1248"/>
-    <cellStyle name="Normal 67 19 2" xfId="1249"/>
-    <cellStyle name="Normal 67 2" xfId="1250"/>
-    <cellStyle name="Normal 67 2 2" xfId="1251"/>
-    <cellStyle name="Normal 67 20" xfId="1252"/>
-    <cellStyle name="Normal 67 20 2" xfId="1253"/>
-    <cellStyle name="Normal 67 21" xfId="1254"/>
-    <cellStyle name="Normal 67 21 2" xfId="1255"/>
-    <cellStyle name="Normal 67 22" xfId="1256"/>
-    <cellStyle name="Normal 67 22 2" xfId="1257"/>
-    <cellStyle name="Normal 67 23" xfId="1258"/>
-    <cellStyle name="Normal 67 3" xfId="1259"/>
-    <cellStyle name="Normal 67 3 2" xfId="1260"/>
-    <cellStyle name="Normal 67 4" xfId="1261"/>
-    <cellStyle name="Normal 67 4 2" xfId="1262"/>
-    <cellStyle name="Normal 67 5" xfId="1263"/>
-    <cellStyle name="Normal 67 5 2" xfId="1264"/>
-    <cellStyle name="Normal 67 6" xfId="1265"/>
-    <cellStyle name="Normal 67 6 2" xfId="1266"/>
-    <cellStyle name="Normal 67 7" xfId="1267"/>
-    <cellStyle name="Normal 67 7 2" xfId="1268"/>
-    <cellStyle name="Normal 67 8" xfId="1269"/>
-    <cellStyle name="Normal 67 8 2" xfId="1270"/>
-    <cellStyle name="Normal 67 9" xfId="1271"/>
-    <cellStyle name="Normal 67 9 2" xfId="1272"/>
-    <cellStyle name="Normal 68" xfId="1273"/>
-    <cellStyle name="Normal 69" xfId="1274"/>
-    <cellStyle name="Normal 69 10" xfId="1275"/>
-    <cellStyle name="Normal 69 10 2" xfId="1276"/>
-    <cellStyle name="Normal 69 11" xfId="1277"/>
-    <cellStyle name="Normal 69 11 2" xfId="1278"/>
-    <cellStyle name="Normal 69 12" xfId="1279"/>
-    <cellStyle name="Normal 69 12 2" xfId="1280"/>
-    <cellStyle name="Normal 69 13" xfId="1281"/>
-    <cellStyle name="Normal 69 13 2" xfId="1282"/>
-    <cellStyle name="Normal 69 14" xfId="1283"/>
-    <cellStyle name="Normal 69 14 2" xfId="1284"/>
-    <cellStyle name="Normal 69 15" xfId="1285"/>
-    <cellStyle name="Normal 69 15 2" xfId="1286"/>
-    <cellStyle name="Normal 69 16" xfId="1287"/>
-    <cellStyle name="Normal 69 16 2" xfId="1288"/>
-    <cellStyle name="Normal 69 17" xfId="1289"/>
-    <cellStyle name="Normal 69 17 2" xfId="1290"/>
-    <cellStyle name="Normal 69 18" xfId="1291"/>
-    <cellStyle name="Normal 69 18 2" xfId="1292"/>
-    <cellStyle name="Normal 69 19" xfId="1293"/>
-    <cellStyle name="Normal 69 19 2" xfId="1294"/>
-    <cellStyle name="Normal 69 2" xfId="1295"/>
-    <cellStyle name="Normal 69 2 2" xfId="1296"/>
-    <cellStyle name="Normal 69 20" xfId="1297"/>
-    <cellStyle name="Normal 69 20 2" xfId="1298"/>
-    <cellStyle name="Normal 69 21" xfId="1299"/>
-    <cellStyle name="Normal 69 21 2" xfId="1300"/>
-    <cellStyle name="Normal 69 22" xfId="1301"/>
-    <cellStyle name="Normal 69 22 2" xfId="1302"/>
-    <cellStyle name="Normal 69 23" xfId="1303"/>
-    <cellStyle name="Normal 69 3" xfId="1304"/>
-    <cellStyle name="Normal 69 3 2" xfId="1305"/>
-    <cellStyle name="Normal 69 4" xfId="1306"/>
-    <cellStyle name="Normal 69 4 2" xfId="1307"/>
-    <cellStyle name="Normal 69 5" xfId="1308"/>
-    <cellStyle name="Normal 69 5 2" xfId="1309"/>
-    <cellStyle name="Normal 69 6" xfId="1310"/>
-    <cellStyle name="Normal 69 6 2" xfId="1311"/>
-    <cellStyle name="Normal 69 7" xfId="1312"/>
-    <cellStyle name="Normal 69 7 2" xfId="1313"/>
-    <cellStyle name="Normal 69 8" xfId="1314"/>
-    <cellStyle name="Normal 69 8 2" xfId="1315"/>
-    <cellStyle name="Normal 69 9" xfId="1316"/>
-    <cellStyle name="Normal 69 9 2" xfId="1317"/>
-    <cellStyle name="Normal 7" xfId="1318"/>
-    <cellStyle name="Normal 70" xfId="1319"/>
-    <cellStyle name="Normal 70 10" xfId="1320"/>
-    <cellStyle name="Normal 70 10 2" xfId="1321"/>
-    <cellStyle name="Normal 70 11" xfId="1322"/>
-    <cellStyle name="Normal 70 11 2" xfId="1323"/>
-    <cellStyle name="Normal 70 12" xfId="1324"/>
-    <cellStyle name="Normal 70 12 2" xfId="1325"/>
-    <cellStyle name="Normal 70 13" xfId="1326"/>
-    <cellStyle name="Normal 70 13 2" xfId="1327"/>
-    <cellStyle name="Normal 70 14" xfId="1328"/>
-    <cellStyle name="Normal 70 14 2" xfId="1329"/>
-    <cellStyle name="Normal 70 15" xfId="1330"/>
-    <cellStyle name="Normal 70 15 2" xfId="1331"/>
-    <cellStyle name="Normal 70 16" xfId="1332"/>
-    <cellStyle name="Normal 70 16 2" xfId="1333"/>
-    <cellStyle name="Normal 70 17" xfId="1334"/>
-    <cellStyle name="Normal 70 17 2" xfId="1335"/>
-    <cellStyle name="Normal 70 18" xfId="1336"/>
-    <cellStyle name="Normal 70 18 2" xfId="1337"/>
-    <cellStyle name="Normal 70 19" xfId="1338"/>
-    <cellStyle name="Normal 70 19 2" xfId="1339"/>
-    <cellStyle name="Normal 70 2" xfId="1340"/>
-    <cellStyle name="Normal 70 2 2" xfId="1341"/>
-    <cellStyle name="Normal 70 20" xfId="1342"/>
-    <cellStyle name="Normal 70 20 2" xfId="1343"/>
-    <cellStyle name="Normal 70 21" xfId="1344"/>
-    <cellStyle name="Normal 70 21 2" xfId="1345"/>
-    <cellStyle name="Normal 70 22" xfId="1346"/>
-    <cellStyle name="Normal 70 22 2" xfId="1347"/>
-    <cellStyle name="Normal 70 23" xfId="1348"/>
-    <cellStyle name="Normal 70 3" xfId="1349"/>
-    <cellStyle name="Normal 70 3 2" xfId="1350"/>
-    <cellStyle name="Normal 70 4" xfId="1351"/>
-    <cellStyle name="Normal 70 4 2" xfId="1352"/>
-    <cellStyle name="Normal 70 5" xfId="1353"/>
-    <cellStyle name="Normal 70 5 2" xfId="1354"/>
-    <cellStyle name="Normal 70 6" xfId="1355"/>
-    <cellStyle name="Normal 70 6 2" xfId="1356"/>
-    <cellStyle name="Normal 70 7" xfId="1357"/>
-    <cellStyle name="Normal 70 7 2" xfId="1358"/>
-    <cellStyle name="Normal 70 8" xfId="1359"/>
-    <cellStyle name="Normal 70 8 2" xfId="1360"/>
-    <cellStyle name="Normal 70 9" xfId="1361"/>
-    <cellStyle name="Normal 70 9 2" xfId="1362"/>
-    <cellStyle name="Normal 71" xfId="1363"/>
-    <cellStyle name="Normal 71 2" xfId="1364"/>
-    <cellStyle name="Normal 72" xfId="1365"/>
-    <cellStyle name="Normal 72 2" xfId="1366"/>
-    <cellStyle name="Normal 73" xfId="1367"/>
-    <cellStyle name="Normal 73 10" xfId="1368"/>
-    <cellStyle name="Normal 73 11" xfId="1369"/>
-    <cellStyle name="Normal 73 12" xfId="1370"/>
-    <cellStyle name="Normal 73 13" xfId="1371"/>
-    <cellStyle name="Normal 73 14" xfId="1372"/>
-    <cellStyle name="Normal 73 15" xfId="1373"/>
-    <cellStyle name="Normal 73 16" xfId="1374"/>
-    <cellStyle name="Normal 73 17" xfId="1375"/>
-    <cellStyle name="Normal 73 18" xfId="1376"/>
-    <cellStyle name="Normal 73 19" xfId="1377"/>
-    <cellStyle name="Normal 73 2" xfId="1378"/>
-    <cellStyle name="Normal 73 20" xfId="1379"/>
-    <cellStyle name="Normal 73 21" xfId="1380"/>
-    <cellStyle name="Normal 73 22" xfId="1381"/>
-    <cellStyle name="Normal 73 23" xfId="1382"/>
-    <cellStyle name="Normal 73 3" xfId="1383"/>
-    <cellStyle name="Normal 73 4" xfId="1384"/>
-    <cellStyle name="Normal 73 5" xfId="1385"/>
-    <cellStyle name="Normal 73 6" xfId="1386"/>
-    <cellStyle name="Normal 73 7" xfId="1387"/>
-    <cellStyle name="Normal 73 8" xfId="1388"/>
-    <cellStyle name="Normal 73 9" xfId="1389"/>
-    <cellStyle name="Normal 74" xfId="1390"/>
-    <cellStyle name="Normal 74 2" xfId="1391"/>
-    <cellStyle name="Normal 75" xfId="1392"/>
-    <cellStyle name="Normal 75 2" xfId="1393"/>
-    <cellStyle name="Normal 76" xfId="1394"/>
-    <cellStyle name="Normal 76 2" xfId="1395"/>
-    <cellStyle name="Normal 77" xfId="1396"/>
-    <cellStyle name="Normal 77 2" xfId="1397"/>
-    <cellStyle name="Normal 78" xfId="1398"/>
-    <cellStyle name="Normal 78 2" xfId="1399"/>
-    <cellStyle name="Normal 79" xfId="1400"/>
-    <cellStyle name="Normal 79 2" xfId="1401"/>
-    <cellStyle name="Normal 8" xfId="1402"/>
-    <cellStyle name="Normal 80" xfId="1403"/>
-    <cellStyle name="Normal 80 2" xfId="1404"/>
-    <cellStyle name="Normal 81" xfId="1405"/>
-    <cellStyle name="Normal 81 2" xfId="1406"/>
-    <cellStyle name="Normal 82" xfId="1407"/>
-    <cellStyle name="Normal 82 2" xfId="1408"/>
-    <cellStyle name="Normal 83" xfId="1409"/>
-    <cellStyle name="Normal 83 2" xfId="1410"/>
-    <cellStyle name="Normal 84" xfId="1411"/>
-    <cellStyle name="Normal 84 2" xfId="1412"/>
-    <cellStyle name="Normal 85" xfId="1413"/>
-    <cellStyle name="Normal 85 2" xfId="1414"/>
-    <cellStyle name="Normal 86" xfId="1415"/>
-    <cellStyle name="Normal 86 2" xfId="1416"/>
-    <cellStyle name="Normal 87" xfId="1417"/>
-    <cellStyle name="Normal 87 2" xfId="1418"/>
-    <cellStyle name="Normal 88" xfId="1419"/>
-    <cellStyle name="Normal 88 2" xfId="1420"/>
-    <cellStyle name="Normal 89" xfId="1421"/>
-    <cellStyle name="Normal 89 2" xfId="1422"/>
-    <cellStyle name="Normal 9" xfId="1423"/>
-    <cellStyle name="Normal 90" xfId="1424"/>
-    <cellStyle name="Normal 90 2" xfId="1425"/>
-    <cellStyle name="Normal 91" xfId="1426"/>
-    <cellStyle name="Normal 91 2" xfId="1427"/>
-    <cellStyle name="Normal 92" xfId="1428"/>
-    <cellStyle name="Normal 92 2" xfId="1429"/>
-    <cellStyle name="Normal 93" xfId="1430"/>
-    <cellStyle name="Normal 93 2" xfId="1431"/>
-    <cellStyle name="Normal 94" xfId="1432"/>
-    <cellStyle name="Normal 94 2" xfId="1433"/>
-    <cellStyle name="Normal 95" xfId="1434"/>
-    <cellStyle name="Normal 96" xfId="1435"/>
-    <cellStyle name="Normal 97" xfId="1436"/>
-    <cellStyle name="Normal 97 2" xfId="1437"/>
-    <cellStyle name="Normal 98" xfId="1438"/>
-    <cellStyle name="Normal 98 2" xfId="1439"/>
-    <cellStyle name="Normal 99" xfId="1440"/>
+    <cellStyle name="Normal 10" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Normal 10 4" xfId="1487" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="Normal 100" xfId="190" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="Normal 100 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="Normal 101" xfId="192" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="Normal 101 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="Normal 102" xfId="194" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="Normal 103" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="Normal 104" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Normal 105" xfId="197" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="Normal 106" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="Normal 107" xfId="199" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="Normal 108" xfId="200" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="Normal 108 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="Normal 109" xfId="202" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="Normal 11" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="Normal 11 10" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Normal 11 10 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="Normal 11 11" xfId="206" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="Normal 11 11 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="Normal 11 12" xfId="208" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="Normal 11 12 2" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="Normal 11 13" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="Normal 11 13 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="Normal 11 14" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="Normal 11 14 2" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Normal 11 15" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Normal 11 15 2" xfId="215" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="Normal 11 16" xfId="216" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="Normal 11 16 2" xfId="217" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="Normal 11 17" xfId="218" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="Normal 11 17 2" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="Normal 11 18" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="Normal 11 18 2" xfId="221" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Normal 11 19" xfId="222" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="Normal 11 19 2" xfId="223" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="Normal 11 2" xfId="224" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="Normal 11 2 2" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="Normal 11 20" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="Normal 11 20 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="Normal 11 21" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="Normal 11 21 2" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="Normal 11 22" xfId="230" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="Normal 11 22 2" xfId="231" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="Normal 11 23" xfId="232" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="Normal 11 24" xfId="233" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="Normal 11 3" xfId="234" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="Normal 11 3 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="Normal 11 4" xfId="236" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="Normal 11 4 2" xfId="237" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="Normal 11 5" xfId="238" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="Normal 11 5 2" xfId="239" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="Normal 11 6" xfId="240" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="Normal 11 6 2" xfId="241" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="Normal 11 7" xfId="242" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="Normal 11 7 2" xfId="243" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="Normal 11 8" xfId="244" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="Normal 11 8 2" xfId="245" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="Normal 11 9" xfId="246" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="Normal 11 9 2" xfId="247" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="Normal 110" xfId="248" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="Normal 111" xfId="249" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="Normal 112" xfId="250" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="Normal 113" xfId="251" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="Normal 114" xfId="252" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="Normal 115" xfId="253" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="Normal 116" xfId="254" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="Normal 117" xfId="255" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="Normal 118" xfId="256" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="Normal 119" xfId="257" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="Normal 12" xfId="258" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="Normal 12 10" xfId="259" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="Normal 12 10 2" xfId="260" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="Normal 12 11" xfId="261" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="Normal 12 11 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="Normal 12 12" xfId="263" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="Normal 12 12 2" xfId="264" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="Normal 12 13" xfId="265" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="Normal 12 13 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="Normal 12 14" xfId="267" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="Normal 12 14 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="Normal 12 15" xfId="269" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="Normal 12 15 2" xfId="270" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Normal 12 16" xfId="271" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="Normal 12 16 2" xfId="272" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="Normal 12 17" xfId="273" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="Normal 12 17 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="Normal 12 18" xfId="275" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="Normal 12 18 2" xfId="276" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="Normal 12 19" xfId="277" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="Normal 12 19 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="Normal 12 2" xfId="279" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="Normal 12 2 2" xfId="280" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="Normal 12 20" xfId="281" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="Normal 12 20 2" xfId="282" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="Normal 12 21" xfId="283" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="Normal 12 21 2" xfId="284" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="Normal 12 22" xfId="285" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="Normal 12 22 2" xfId="286" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="Normal 12 23" xfId="287" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="Normal 12 3" xfId="288" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="Normal 12 3 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="Normal 12 4" xfId="290" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="Normal 12 4 2" xfId="291" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="Normal 12 5" xfId="292" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="Normal 12 5 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="Normal 12 6" xfId="294" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="Normal 12 6 2" xfId="295" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="Normal 12 7" xfId="296" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="Normal 12 7 2" xfId="297" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="Normal 12 8" xfId="298" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="Normal 12 8 2" xfId="299" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="Normal 12 9" xfId="300" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="Normal 12 9 2" xfId="301" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="Normal 120" xfId="302" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="Normal 121" xfId="303" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="Normal 122" xfId="304" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="Normal 123" xfId="305" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="Normal 124" xfId="306" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="Normal 125" xfId="307" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="Normal 126" xfId="308" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="Normal 127" xfId="309" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="Normal 128" xfId="310" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="Normal 129" xfId="311" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="Normal 13" xfId="312" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="Normal 13 10" xfId="313" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="Normal 13 10 2" xfId="314" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="Normal 13 11" xfId="315" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="Normal 13 11 2" xfId="316" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="Normal 13 12" xfId="317" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="Normal 13 12 2" xfId="318" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="Normal 13 13" xfId="319" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="Normal 13 13 2" xfId="320" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="Normal 13 14" xfId="321" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="Normal 13 14 2" xfId="322" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="Normal 13 15" xfId="323" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="Normal 13 15 2" xfId="324" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="Normal 13 16" xfId="325" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="Normal 13 16 2" xfId="326" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="Normal 13 17" xfId="327" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="Normal 13 17 2" xfId="328" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="Normal 13 18" xfId="329" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="Normal 13 18 2" xfId="330" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="Normal 13 19" xfId="331" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="Normal 13 19 2" xfId="332" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="Normal 13 2" xfId="333" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="Normal 13 2 2" xfId="334" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="Normal 13 20" xfId="335" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="Normal 13 20 2" xfId="336" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="Normal 13 21" xfId="337" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="Normal 13 21 2" xfId="338" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="Normal 13 22" xfId="339" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="Normal 13 22 2" xfId="340" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="Normal 13 23" xfId="341" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="Normal 13 3" xfId="342" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="Normal 13 3 2" xfId="343" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="Normal 13 4" xfId="344" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="Normal 13 4 2" xfId="345" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="Normal 13 5" xfId="346" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="Normal 13 5 2" xfId="347" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="Normal 13 6" xfId="348" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="Normal 13 6 2" xfId="349" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="Normal 13 7" xfId="350" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="Normal 13 7 2" xfId="351" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="Normal 13 8" xfId="352" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="Normal 13 8 2" xfId="353" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="Normal 13 9" xfId="354" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="Normal 13 9 2" xfId="355" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="Normal 130" xfId="356" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="Normal 131" xfId="357" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="Normal 132" xfId="358" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="Normal 133" xfId="359" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="Normal 134" xfId="360" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="Normal 135" xfId="361" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="Normal 136" xfId="362" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="Normal 137" xfId="363" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="Normal 138" xfId="364" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="Normal 139" xfId="365" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="Normal 14" xfId="366" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="Normal 14 10" xfId="367" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="Normal 14 10 2" xfId="368" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="Normal 14 11" xfId="369" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="Normal 14 11 2" xfId="370" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="Normal 14 12" xfId="371" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="Normal 14 12 2" xfId="372" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="Normal 14 13" xfId="373" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="Normal 14 13 2" xfId="374" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="Normal 14 14" xfId="375" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="Normal 14 14 2" xfId="376" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="Normal 14 15" xfId="377" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="Normal 14 15 2" xfId="378" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="Normal 14 16" xfId="379" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="Normal 14 16 2" xfId="380" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="Normal 14 17" xfId="381" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="Normal 14 17 2" xfId="382" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="Normal 14 18" xfId="383" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="Normal 14 18 2" xfId="384" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="Normal 14 19" xfId="385" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="Normal 14 19 2" xfId="386" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="Normal 14 2" xfId="387" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="Normal 14 2 2" xfId="388" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="Normal 14 20" xfId="389" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="Normal 14 20 2" xfId="390" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="Normal 14 21" xfId="391" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="Normal 14 21 2" xfId="392" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="Normal 14 22" xfId="393" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="Normal 14 22 2" xfId="394" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="Normal 14 23" xfId="395" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="Normal 14 3" xfId="396" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="Normal 14 3 2" xfId="397" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="Normal 14 4" xfId="398" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="Normal 14 4 2" xfId="399" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="Normal 14 5" xfId="400" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="Normal 14 5 2" xfId="401" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="Normal 14 6" xfId="402" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="Normal 14 6 2" xfId="403" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="Normal 14 7" xfId="404" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="Normal 14 7 2" xfId="405" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="Normal 14 8" xfId="406" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="Normal 14 8 2" xfId="407" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="Normal 14 9" xfId="408" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="Normal 14 9 2" xfId="409" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="Normal 140" xfId="410" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="Normal 141" xfId="411" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="Normal 142" xfId="412" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="Normal 143" xfId="413" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="Normal 144" xfId="414" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="Normal 145" xfId="415" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="Normal 146" xfId="416" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="Normal 147" xfId="417" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="Normal 148" xfId="418" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="Normal 149" xfId="419" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="Normal 15" xfId="420" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="Normal 15 10" xfId="421" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="Normal 15 10 2" xfId="422" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="Normal 15 11" xfId="423" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="Normal 15 11 2" xfId="424" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="Normal 15 12" xfId="425" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="Normal 15 12 2" xfId="426" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="Normal 15 13" xfId="427" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="Normal 15 13 2" xfId="428" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="Normal 15 14" xfId="429" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="Normal 15 14 2" xfId="430" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="Normal 15 15" xfId="431" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="Normal 15 15 2" xfId="432" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="Normal 15 16" xfId="433" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="Normal 15 16 2" xfId="434" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="Normal 15 17" xfId="435" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="Normal 15 17 2" xfId="436" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="Normal 15 18" xfId="437" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="Normal 15 18 2" xfId="438" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="Normal 15 19" xfId="439" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="Normal 15 19 2" xfId="440" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="Normal 15 2" xfId="441" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="Normal 15 2 2" xfId="442" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="Normal 15 20" xfId="443" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="Normal 15 20 2" xfId="444" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="Normal 15 21" xfId="445" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="Normal 15 21 2" xfId="446" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="Normal 15 22" xfId="447" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="Normal 15 22 2" xfId="448" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="Normal 15 23" xfId="449" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="Normal 15 3" xfId="450" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="Normal 15 3 2" xfId="451" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="Normal 15 4" xfId="452" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="Normal 15 4 2" xfId="453" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="Normal 15 5" xfId="454" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="Normal 15 5 2" xfId="455" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="Normal 15 6" xfId="456" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="Normal 15 6 2" xfId="457" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="Normal 15 7" xfId="458" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="Normal 15 7 2" xfId="459" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="Normal 15 8" xfId="460" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="Normal 15 8 2" xfId="461" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="Normal 15 9" xfId="462" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="Normal 15 9 2" xfId="463" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="Normal 150" xfId="464" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="Normal 151" xfId="465" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="Normal 152" xfId="466" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="Normal 153" xfId="467" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="Normal 154" xfId="468" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="Normal 155" xfId="469" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="Normal 156" xfId="470" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="Normal 157" xfId="471" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="Normal 158" xfId="472" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="Normal 159" xfId="473" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="Normal 16" xfId="474" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="Normal 16 10" xfId="475" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="Normal 16 10 2" xfId="476" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="Normal 16 11" xfId="477" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="Normal 16 11 2" xfId="478" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="Normal 16 12" xfId="479" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="Normal 16 12 2" xfId="480" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="Normal 16 13" xfId="481" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="Normal 16 13 2" xfId="482" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="Normal 16 14" xfId="483" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="Normal 16 14 2" xfId="484" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="Normal 16 15" xfId="485" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="Normal 16 15 2" xfId="486" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="Normal 16 16" xfId="487" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="Normal 16 16 2" xfId="488" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="Normal 16 17" xfId="489" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="Normal 16 17 2" xfId="490" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="Normal 16 18" xfId="491" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="Normal 16 18 2" xfId="492" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="Normal 16 19" xfId="493" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="Normal 16 19 2" xfId="494" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="Normal 16 2" xfId="495" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="Normal 16 2 2" xfId="496" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="Normal 16 20" xfId="497" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="Normal 16 20 2" xfId="498" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="Normal 16 21" xfId="499" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="Normal 16 21 2" xfId="500" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="Normal 16 22" xfId="501" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="Normal 16 22 2" xfId="502" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
+    <cellStyle name="Normal 16 23" xfId="503" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
+    <cellStyle name="Normal 16 3" xfId="504" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="Normal 16 3 2" xfId="505" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="Normal 16 4" xfId="506" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="Normal 16 4 2" xfId="507" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="Normal 16 5" xfId="508" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="Normal 16 5 2" xfId="509" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="Normal 16 6" xfId="510" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="Normal 16 6 2" xfId="511" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="Normal 16 7" xfId="512" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="Normal 16 7 2" xfId="513" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="Normal 16 8" xfId="514" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="Normal 16 8 2" xfId="515" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="Normal 16 9" xfId="516" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="Normal 16 9 2" xfId="517" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="Normal 160" xfId="518" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="Normal 161" xfId="519" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="Normal 162" xfId="520" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="Normal 163" xfId="521" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="Normal 164" xfId="522" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="Normal 165" xfId="523" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="Normal 166" xfId="524" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="Normal 167" xfId="525" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="Normal 168" xfId="526" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="Normal 169" xfId="527" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="Normal 17" xfId="528" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="Normal 17 10" xfId="529" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="Normal 17 10 2" xfId="530" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="Normal 17 11" xfId="531" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="Normal 17 11 2" xfId="532" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="Normal 17 12" xfId="533" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="Normal 17 12 2" xfId="534" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="Normal 17 13" xfId="535" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="Normal 17 13 2" xfId="536" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="Normal 17 14" xfId="537" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="Normal 17 14 2" xfId="538" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="Normal 17 15" xfId="539" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="Normal 17 15 2" xfId="540" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="Normal 17 16" xfId="541" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="Normal 17 16 2" xfId="542" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="Normal 17 17" xfId="543" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="Normal 17 17 2" xfId="544" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="Normal 17 18" xfId="545" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="Normal 17 18 2" xfId="546" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="Normal 17 19" xfId="547" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="Normal 17 19 2" xfId="548" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="Normal 17 2" xfId="549" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="Normal 17 2 2" xfId="550" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="Normal 17 20" xfId="551" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="Normal 17 20 2" xfId="552" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="Normal 17 21" xfId="553" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="Normal 17 21 2" xfId="554" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="Normal 17 22" xfId="555" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="Normal 17 22 2" xfId="556" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
+    <cellStyle name="Normal 17 23" xfId="557" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
+    <cellStyle name="Normal 17 3" xfId="558" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
+    <cellStyle name="Normal 17 3 2" xfId="559" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
+    <cellStyle name="Normal 17 4" xfId="560" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
+    <cellStyle name="Normal 17 4 2" xfId="561" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
+    <cellStyle name="Normal 17 5" xfId="562" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
+    <cellStyle name="Normal 17 5 2" xfId="563" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
+    <cellStyle name="Normal 17 6" xfId="564" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
+    <cellStyle name="Normal 17 6 2" xfId="565" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
+    <cellStyle name="Normal 17 7" xfId="566" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
+    <cellStyle name="Normal 17 7 2" xfId="567" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
+    <cellStyle name="Normal 17 8" xfId="568" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
+    <cellStyle name="Normal 17 8 2" xfId="569" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
+    <cellStyle name="Normal 17 9" xfId="570" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
+    <cellStyle name="Normal 17 9 2" xfId="571" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
+    <cellStyle name="Normal 170" xfId="572" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
+    <cellStyle name="Normal 171" xfId="573" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
+    <cellStyle name="Normal 172" xfId="574" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
+    <cellStyle name="Normal 173" xfId="575" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
+    <cellStyle name="Normal 174" xfId="576" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
+    <cellStyle name="Normal 175" xfId="577" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
+    <cellStyle name="Normal 176" xfId="578" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
+    <cellStyle name="Normal 177" xfId="579" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
+    <cellStyle name="Normal 178" xfId="580" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
+    <cellStyle name="Normal 179" xfId="581" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
+    <cellStyle name="Normal 18" xfId="582" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
+    <cellStyle name="Normal 18 10" xfId="583" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
+    <cellStyle name="Normal 18 10 2" xfId="584" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
+    <cellStyle name="Normal 18 11" xfId="585" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
+    <cellStyle name="Normal 18 11 2" xfId="586" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
+    <cellStyle name="Normal 18 12" xfId="587" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
+    <cellStyle name="Normal 18 12 2" xfId="588" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
+    <cellStyle name="Normal 18 13" xfId="589" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
+    <cellStyle name="Normal 18 13 2" xfId="590" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
+    <cellStyle name="Normal 18 14" xfId="591" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
+    <cellStyle name="Normal 18 14 2" xfId="592" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
+    <cellStyle name="Normal 18 15" xfId="593" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
+    <cellStyle name="Normal 18 15 2" xfId="594" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
+    <cellStyle name="Normal 18 16" xfId="595" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
+    <cellStyle name="Normal 18 16 2" xfId="596" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
+    <cellStyle name="Normal 18 17" xfId="597" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
+    <cellStyle name="Normal 18 17 2" xfId="598" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
+    <cellStyle name="Normal 18 18" xfId="599" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
+    <cellStyle name="Normal 18 18 2" xfId="600" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
+    <cellStyle name="Normal 18 19" xfId="601" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
+    <cellStyle name="Normal 18 19 2" xfId="602" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
+    <cellStyle name="Normal 18 2" xfId="603" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
+    <cellStyle name="Normal 18 2 2" xfId="604" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
+    <cellStyle name="Normal 18 20" xfId="605" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
+    <cellStyle name="Normal 18 20 2" xfId="606" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
+    <cellStyle name="Normal 18 21" xfId="607" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
+    <cellStyle name="Normal 18 21 2" xfId="608" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
+    <cellStyle name="Normal 18 22" xfId="609" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
+    <cellStyle name="Normal 18 22 2" xfId="610" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
+    <cellStyle name="Normal 18 23" xfId="611" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
+    <cellStyle name="Normal 18 3" xfId="612" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
+    <cellStyle name="Normal 18 3 2" xfId="613" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
+    <cellStyle name="Normal 18 4" xfId="614" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
+    <cellStyle name="Normal 18 4 2" xfId="615" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
+    <cellStyle name="Normal 18 5" xfId="616" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
+    <cellStyle name="Normal 18 5 2" xfId="617" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
+    <cellStyle name="Normal 18 6" xfId="618" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
+    <cellStyle name="Normal 18 6 2" xfId="619" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
+    <cellStyle name="Normal 18 7" xfId="620" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
+    <cellStyle name="Normal 18 7 2" xfId="621" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
+    <cellStyle name="Normal 18 8" xfId="622" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
+    <cellStyle name="Normal 18 8 2" xfId="623" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
+    <cellStyle name="Normal 18 9" xfId="624" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
+    <cellStyle name="Normal 18 9 2" xfId="625" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
+    <cellStyle name="Normal 180" xfId="626" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
+    <cellStyle name="Normal 181" xfId="627" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
+    <cellStyle name="Normal 182" xfId="628" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
+    <cellStyle name="Normal 183" xfId="629" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
+    <cellStyle name="Normal 184" xfId="630" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
+    <cellStyle name="Normal 185" xfId="631" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
+    <cellStyle name="Normal 186" xfId="632" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
+    <cellStyle name="Normal 187" xfId="633" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
+    <cellStyle name="Normal 188" xfId="634" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
+    <cellStyle name="Normal 189" xfId="635" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
+    <cellStyle name="Normal 19" xfId="636" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
+    <cellStyle name="Normal 190" xfId="637" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
+    <cellStyle name="Normal 191" xfId="638" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
+    <cellStyle name="Normal 192" xfId="639" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
+    <cellStyle name="Normal 193" xfId="640" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
+    <cellStyle name="Normal 194" xfId="641" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
+    <cellStyle name="Normal 195" xfId="642" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
+    <cellStyle name="Normal 196" xfId="643" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
+    <cellStyle name="Normal 197" xfId="644" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="Normal 198" xfId="645" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="Normal 199" xfId="646" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="Normal 2" xfId="647" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="Normal 2 2" xfId="648" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="Normal 2 2 10" xfId="649" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="Normal 2 2 10 2" xfId="650" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="Normal 2 2 11" xfId="651" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
+    <cellStyle name="Normal 2 2 11 2" xfId="652" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
+    <cellStyle name="Normal 2 2 12" xfId="653" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
+    <cellStyle name="Normal 2 2 12 2" xfId="654" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
+    <cellStyle name="Normal 2 2 13" xfId="655" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
+    <cellStyle name="Normal 2 2 13 2" xfId="656" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
+    <cellStyle name="Normal 2 2 14" xfId="657" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
+    <cellStyle name="Normal 2 2 14 2" xfId="658" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
+    <cellStyle name="Normal 2 2 15" xfId="659" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
+    <cellStyle name="Normal 2 2 15 2" xfId="660" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
+    <cellStyle name="Normal 2 2 16" xfId="661" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
+    <cellStyle name="Normal 2 2 16 2" xfId="662" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
+    <cellStyle name="Normal 2 2 17" xfId="663" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
+    <cellStyle name="Normal 2 2 17 2" xfId="664" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
+    <cellStyle name="Normal 2 2 18" xfId="665" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
+    <cellStyle name="Normal 2 2 18 2" xfId="666" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
+    <cellStyle name="Normal 2 2 19" xfId="667" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
+    <cellStyle name="Normal 2 2 19 2" xfId="668" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="669" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="670" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
+    <cellStyle name="Normal 2 2 20" xfId="671" xr:uid="{00000000-0005-0000-0000-0000A2020000}"/>
+    <cellStyle name="Normal 2 2 20 2" xfId="672" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
+    <cellStyle name="Normal 2 2 21" xfId="673" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
+    <cellStyle name="Normal 2 2 21 2" xfId="674" xr:uid="{00000000-0005-0000-0000-0000A5020000}"/>
+    <cellStyle name="Normal 2 2 22" xfId="675" xr:uid="{00000000-0005-0000-0000-0000A6020000}"/>
+    <cellStyle name="Normal 2 2 22 2" xfId="676" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
+    <cellStyle name="Normal 2 2 23" xfId="677" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="678" xr:uid="{00000000-0005-0000-0000-0000A9020000}"/>
+    <cellStyle name="Normal 2 2 3 2" xfId="679" xr:uid="{00000000-0005-0000-0000-0000AA020000}"/>
+    <cellStyle name="Normal 2 2 4" xfId="680" xr:uid="{00000000-0005-0000-0000-0000AB020000}"/>
+    <cellStyle name="Normal 2 2 4 2" xfId="681" xr:uid="{00000000-0005-0000-0000-0000AC020000}"/>
+    <cellStyle name="Normal 2 2 5" xfId="682" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
+    <cellStyle name="Normal 2 2 5 2" xfId="683" xr:uid="{00000000-0005-0000-0000-0000AE020000}"/>
+    <cellStyle name="Normal 2 2 6" xfId="684" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
+    <cellStyle name="Normal 2 2 6 2" xfId="685" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
+    <cellStyle name="Normal 2 2 7" xfId="686" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
+    <cellStyle name="Normal 2 2 7 2" xfId="687" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
+    <cellStyle name="Normal 2 2 8" xfId="688" xr:uid="{00000000-0005-0000-0000-0000B3020000}"/>
+    <cellStyle name="Normal 2 2 8 2" xfId="689" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
+    <cellStyle name="Normal 2 2 9" xfId="690" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
+    <cellStyle name="Normal 2 2 9 2" xfId="691" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
+    <cellStyle name="Normal 2 3" xfId="692" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
+    <cellStyle name="Normal 2 4" xfId="693" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="694" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
+    <cellStyle name="Normal 2 5" xfId="695" xr:uid="{00000000-0005-0000-0000-0000BA020000}"/>
+    <cellStyle name="Normal 2 5 2" xfId="696" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
+    <cellStyle name="Normal 2 6" xfId="697" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
+    <cellStyle name="Normal 2 6 2" xfId="698" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
+    <cellStyle name="Normal 20" xfId="699" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
+    <cellStyle name="Normal 20 10" xfId="700" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
+    <cellStyle name="Normal 20 10 2" xfId="701" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
+    <cellStyle name="Normal 20 11" xfId="702" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
+    <cellStyle name="Normal 20 11 2" xfId="703" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
+    <cellStyle name="Normal 20 12" xfId="704" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
+    <cellStyle name="Normal 20 12 2" xfId="705" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
+    <cellStyle name="Normal 20 13" xfId="706" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
+    <cellStyle name="Normal 20 13 2" xfId="707" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
+    <cellStyle name="Normal 20 14" xfId="708" xr:uid="{00000000-0005-0000-0000-0000C7020000}"/>
+    <cellStyle name="Normal 20 14 2" xfId="709" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
+    <cellStyle name="Normal 20 15" xfId="710" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
+    <cellStyle name="Normal 20 15 2" xfId="711" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
+    <cellStyle name="Normal 20 16" xfId="712" xr:uid="{00000000-0005-0000-0000-0000CB020000}"/>
+    <cellStyle name="Normal 20 16 2" xfId="713" xr:uid="{00000000-0005-0000-0000-0000CC020000}"/>
+    <cellStyle name="Normal 20 17" xfId="714" xr:uid="{00000000-0005-0000-0000-0000CD020000}"/>
+    <cellStyle name="Normal 20 17 2" xfId="715" xr:uid="{00000000-0005-0000-0000-0000CE020000}"/>
+    <cellStyle name="Normal 20 18" xfId="716" xr:uid="{00000000-0005-0000-0000-0000CF020000}"/>
+    <cellStyle name="Normal 20 18 2" xfId="717" xr:uid="{00000000-0005-0000-0000-0000D0020000}"/>
+    <cellStyle name="Normal 20 19" xfId="718" xr:uid="{00000000-0005-0000-0000-0000D1020000}"/>
+    <cellStyle name="Normal 20 19 2" xfId="719" xr:uid="{00000000-0005-0000-0000-0000D2020000}"/>
+    <cellStyle name="Normal 20 2" xfId="720" xr:uid="{00000000-0005-0000-0000-0000D3020000}"/>
+    <cellStyle name="Normal 20 2 2" xfId="721" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
+    <cellStyle name="Normal 20 20" xfId="722" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
+    <cellStyle name="Normal 20 20 2" xfId="723" xr:uid="{00000000-0005-0000-0000-0000D6020000}"/>
+    <cellStyle name="Normal 20 21" xfId="724" xr:uid="{00000000-0005-0000-0000-0000D7020000}"/>
+    <cellStyle name="Normal 20 21 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000D8020000}"/>
+    <cellStyle name="Normal 20 22" xfId="726" xr:uid="{00000000-0005-0000-0000-0000D9020000}"/>
+    <cellStyle name="Normal 20 22 2" xfId="727" xr:uid="{00000000-0005-0000-0000-0000DA020000}"/>
+    <cellStyle name="Normal 20 23" xfId="728" xr:uid="{00000000-0005-0000-0000-0000DB020000}"/>
+    <cellStyle name="Normal 20 3" xfId="729" xr:uid="{00000000-0005-0000-0000-0000DC020000}"/>
+    <cellStyle name="Normal 20 3 2" xfId="730" xr:uid="{00000000-0005-0000-0000-0000DD020000}"/>
+    <cellStyle name="Normal 20 4" xfId="731" xr:uid="{00000000-0005-0000-0000-0000DE020000}"/>
+    <cellStyle name="Normal 20 4 2" xfId="732" xr:uid="{00000000-0005-0000-0000-0000DF020000}"/>
+    <cellStyle name="Normal 20 5" xfId="733" xr:uid="{00000000-0005-0000-0000-0000E0020000}"/>
+    <cellStyle name="Normal 20 5 2" xfId="734" xr:uid="{00000000-0005-0000-0000-0000E1020000}"/>
+    <cellStyle name="Normal 20 6" xfId="735" xr:uid="{00000000-0005-0000-0000-0000E2020000}"/>
+    <cellStyle name="Normal 20 6 2" xfId="736" xr:uid="{00000000-0005-0000-0000-0000E3020000}"/>
+    <cellStyle name="Normal 20 7" xfId="737" xr:uid="{00000000-0005-0000-0000-0000E4020000}"/>
+    <cellStyle name="Normal 20 7 2" xfId="738" xr:uid="{00000000-0005-0000-0000-0000E5020000}"/>
+    <cellStyle name="Normal 20 8" xfId="739" xr:uid="{00000000-0005-0000-0000-0000E6020000}"/>
+    <cellStyle name="Normal 20 8 2" xfId="740" xr:uid="{00000000-0005-0000-0000-0000E7020000}"/>
+    <cellStyle name="Normal 20 9" xfId="741" xr:uid="{00000000-0005-0000-0000-0000E8020000}"/>
+    <cellStyle name="Normal 20 9 2" xfId="742" xr:uid="{00000000-0005-0000-0000-0000E9020000}"/>
+    <cellStyle name="Normal 200" xfId="743" xr:uid="{00000000-0005-0000-0000-0000EA020000}"/>
+    <cellStyle name="Normal 201" xfId="744" xr:uid="{00000000-0005-0000-0000-0000EB020000}"/>
+    <cellStyle name="Normal 202" xfId="745" xr:uid="{00000000-0005-0000-0000-0000EC020000}"/>
+    <cellStyle name="Normal 203" xfId="746" xr:uid="{00000000-0005-0000-0000-0000ED020000}"/>
+    <cellStyle name="Normal 204" xfId="747" xr:uid="{00000000-0005-0000-0000-0000EE020000}"/>
+    <cellStyle name="Normal 205" xfId="748" xr:uid="{00000000-0005-0000-0000-0000EF020000}"/>
+    <cellStyle name="Normal 206" xfId="749" xr:uid="{00000000-0005-0000-0000-0000F0020000}"/>
+    <cellStyle name="Normal 207" xfId="750" xr:uid="{00000000-0005-0000-0000-0000F1020000}"/>
+    <cellStyle name="Normal 208" xfId="751" xr:uid="{00000000-0005-0000-0000-0000F2020000}"/>
+    <cellStyle name="Normal 209" xfId="752" xr:uid="{00000000-0005-0000-0000-0000F3020000}"/>
+    <cellStyle name="Normal 21" xfId="753" xr:uid="{00000000-0005-0000-0000-0000F4020000}"/>
+    <cellStyle name="Normal 21 10" xfId="754" xr:uid="{00000000-0005-0000-0000-0000F5020000}"/>
+    <cellStyle name="Normal 21 10 2" xfId="755" xr:uid="{00000000-0005-0000-0000-0000F6020000}"/>
+    <cellStyle name="Normal 21 11" xfId="756" xr:uid="{00000000-0005-0000-0000-0000F7020000}"/>
+    <cellStyle name="Normal 21 11 2" xfId="757" xr:uid="{00000000-0005-0000-0000-0000F8020000}"/>
+    <cellStyle name="Normal 21 12" xfId="758" xr:uid="{00000000-0005-0000-0000-0000F9020000}"/>
+    <cellStyle name="Normal 21 12 2" xfId="759" xr:uid="{00000000-0005-0000-0000-0000FA020000}"/>
+    <cellStyle name="Normal 21 13" xfId="760" xr:uid="{00000000-0005-0000-0000-0000FB020000}"/>
+    <cellStyle name="Normal 21 13 2" xfId="761" xr:uid="{00000000-0005-0000-0000-0000FC020000}"/>
+    <cellStyle name="Normal 21 14" xfId="762" xr:uid="{00000000-0005-0000-0000-0000FD020000}"/>
+    <cellStyle name="Normal 21 14 2" xfId="763" xr:uid="{00000000-0005-0000-0000-0000FE020000}"/>
+    <cellStyle name="Normal 21 15" xfId="764" xr:uid="{00000000-0005-0000-0000-0000FF020000}"/>
+    <cellStyle name="Normal 21 15 2" xfId="765" xr:uid="{00000000-0005-0000-0000-000000030000}"/>
+    <cellStyle name="Normal 21 16" xfId="766" xr:uid="{00000000-0005-0000-0000-000001030000}"/>
+    <cellStyle name="Normal 21 16 2" xfId="767" xr:uid="{00000000-0005-0000-0000-000002030000}"/>
+    <cellStyle name="Normal 21 17" xfId="768" xr:uid="{00000000-0005-0000-0000-000003030000}"/>
+    <cellStyle name="Normal 21 17 2" xfId="769" xr:uid="{00000000-0005-0000-0000-000004030000}"/>
+    <cellStyle name="Normal 21 18" xfId="770" xr:uid="{00000000-0005-0000-0000-000005030000}"/>
+    <cellStyle name="Normal 21 18 2" xfId="771" xr:uid="{00000000-0005-0000-0000-000006030000}"/>
+    <cellStyle name="Normal 21 19" xfId="772" xr:uid="{00000000-0005-0000-0000-000007030000}"/>
+    <cellStyle name="Normal 21 19 2" xfId="773" xr:uid="{00000000-0005-0000-0000-000008030000}"/>
+    <cellStyle name="Normal 21 2" xfId="774" xr:uid="{00000000-0005-0000-0000-000009030000}"/>
+    <cellStyle name="Normal 21 2 2" xfId="775" xr:uid="{00000000-0005-0000-0000-00000A030000}"/>
+    <cellStyle name="Normal 21 20" xfId="776" xr:uid="{00000000-0005-0000-0000-00000B030000}"/>
+    <cellStyle name="Normal 21 20 2" xfId="777" xr:uid="{00000000-0005-0000-0000-00000C030000}"/>
+    <cellStyle name="Normal 21 21" xfId="778" xr:uid="{00000000-0005-0000-0000-00000D030000}"/>
+    <cellStyle name="Normal 21 21 2" xfId="779" xr:uid="{00000000-0005-0000-0000-00000E030000}"/>
+    <cellStyle name="Normal 21 22" xfId="780" xr:uid="{00000000-0005-0000-0000-00000F030000}"/>
+    <cellStyle name="Normal 21 22 2" xfId="781" xr:uid="{00000000-0005-0000-0000-000010030000}"/>
+    <cellStyle name="Normal 21 23" xfId="782" xr:uid="{00000000-0005-0000-0000-000011030000}"/>
+    <cellStyle name="Normal 21 3" xfId="783" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
+    <cellStyle name="Normal 21 3 2" xfId="784" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
+    <cellStyle name="Normal 21 4" xfId="785" xr:uid="{00000000-0005-0000-0000-000014030000}"/>
+    <cellStyle name="Normal 21 4 2" xfId="786" xr:uid="{00000000-0005-0000-0000-000015030000}"/>
+    <cellStyle name="Normal 21 5" xfId="787" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
+    <cellStyle name="Normal 21 5 2" xfId="788" xr:uid="{00000000-0005-0000-0000-000017030000}"/>
+    <cellStyle name="Normal 21 6" xfId="789" xr:uid="{00000000-0005-0000-0000-000018030000}"/>
+    <cellStyle name="Normal 21 6 2" xfId="790" xr:uid="{00000000-0005-0000-0000-000019030000}"/>
+    <cellStyle name="Normal 21 7" xfId="791" xr:uid="{00000000-0005-0000-0000-00001A030000}"/>
+    <cellStyle name="Normal 21 7 2" xfId="792" xr:uid="{00000000-0005-0000-0000-00001B030000}"/>
+    <cellStyle name="Normal 21 8" xfId="793" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
+    <cellStyle name="Normal 21 8 2" xfId="794" xr:uid="{00000000-0005-0000-0000-00001D030000}"/>
+    <cellStyle name="Normal 21 9" xfId="795" xr:uid="{00000000-0005-0000-0000-00001E030000}"/>
+    <cellStyle name="Normal 21 9 2" xfId="796" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
+    <cellStyle name="Normal 210" xfId="797" xr:uid="{00000000-0005-0000-0000-000020030000}"/>
+    <cellStyle name="Normal 211" xfId="798" xr:uid="{00000000-0005-0000-0000-000021030000}"/>
+    <cellStyle name="Normal 212" xfId="799" xr:uid="{00000000-0005-0000-0000-000022030000}"/>
+    <cellStyle name="Normal 213" xfId="800" xr:uid="{00000000-0005-0000-0000-000023030000}"/>
+    <cellStyle name="Normal 214" xfId="801" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
+    <cellStyle name="Normal 215" xfId="802" xr:uid="{00000000-0005-0000-0000-000025030000}"/>
+    <cellStyle name="Normal 216" xfId="803" xr:uid="{00000000-0005-0000-0000-000026030000}"/>
+    <cellStyle name="Normal 217" xfId="804" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
+    <cellStyle name="Normal 218" xfId="805" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
+    <cellStyle name="Normal 219" xfId="806" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
+    <cellStyle name="Normal 22" xfId="807" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
+    <cellStyle name="Normal 22 10" xfId="808" xr:uid="{00000000-0005-0000-0000-00002B030000}"/>
+    <cellStyle name="Normal 22 10 2" xfId="809" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
+    <cellStyle name="Normal 22 11" xfId="810" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
+    <cellStyle name="Normal 22 11 2" xfId="811" xr:uid="{00000000-0005-0000-0000-00002E030000}"/>
+    <cellStyle name="Normal 22 12" xfId="812" xr:uid="{00000000-0005-0000-0000-00002F030000}"/>
+    <cellStyle name="Normal 22 12 2" xfId="813" xr:uid="{00000000-0005-0000-0000-000030030000}"/>
+    <cellStyle name="Normal 22 13" xfId="814" xr:uid="{00000000-0005-0000-0000-000031030000}"/>
+    <cellStyle name="Normal 22 13 2" xfId="815" xr:uid="{00000000-0005-0000-0000-000032030000}"/>
+    <cellStyle name="Normal 22 14" xfId="816" xr:uid="{00000000-0005-0000-0000-000033030000}"/>
+    <cellStyle name="Normal 22 14 2" xfId="817" xr:uid="{00000000-0005-0000-0000-000034030000}"/>
+    <cellStyle name="Normal 22 15" xfId="818" xr:uid="{00000000-0005-0000-0000-000035030000}"/>
+    <cellStyle name="Normal 22 15 2" xfId="819" xr:uid="{00000000-0005-0000-0000-000036030000}"/>
+    <cellStyle name="Normal 22 16" xfId="820" xr:uid="{00000000-0005-0000-0000-000037030000}"/>
+    <cellStyle name="Normal 22 16 2" xfId="821" xr:uid="{00000000-0005-0000-0000-000038030000}"/>
+    <cellStyle name="Normal 22 17" xfId="822" xr:uid="{00000000-0005-0000-0000-000039030000}"/>
+    <cellStyle name="Normal 22 17 2" xfId="823" xr:uid="{00000000-0005-0000-0000-00003A030000}"/>
+    <cellStyle name="Normal 22 18" xfId="824" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
+    <cellStyle name="Normal 22 18 2" xfId="825" xr:uid="{00000000-0005-0000-0000-00003C030000}"/>
+    <cellStyle name="Normal 22 19" xfId="826" xr:uid="{00000000-0005-0000-0000-00003D030000}"/>
+    <cellStyle name="Normal 22 19 2" xfId="827" xr:uid="{00000000-0005-0000-0000-00003E030000}"/>
+    <cellStyle name="Normal 22 2" xfId="828" xr:uid="{00000000-0005-0000-0000-00003F030000}"/>
+    <cellStyle name="Normal 22 2 2" xfId="829" xr:uid="{00000000-0005-0000-0000-000040030000}"/>
+    <cellStyle name="Normal 22 20" xfId="830" xr:uid="{00000000-0005-0000-0000-000041030000}"/>
+    <cellStyle name="Normal 22 20 2" xfId="831" xr:uid="{00000000-0005-0000-0000-000042030000}"/>
+    <cellStyle name="Normal 22 21" xfId="832" xr:uid="{00000000-0005-0000-0000-000043030000}"/>
+    <cellStyle name="Normal 22 21 2" xfId="833" xr:uid="{00000000-0005-0000-0000-000044030000}"/>
+    <cellStyle name="Normal 22 22" xfId="834" xr:uid="{00000000-0005-0000-0000-000045030000}"/>
+    <cellStyle name="Normal 22 22 2" xfId="835" xr:uid="{00000000-0005-0000-0000-000046030000}"/>
+    <cellStyle name="Normal 22 23" xfId="836" xr:uid="{00000000-0005-0000-0000-000047030000}"/>
+    <cellStyle name="Normal 22 3" xfId="837" xr:uid="{00000000-0005-0000-0000-000048030000}"/>
+    <cellStyle name="Normal 22 3 2" xfId="838" xr:uid="{00000000-0005-0000-0000-000049030000}"/>
+    <cellStyle name="Normal 22 4" xfId="839" xr:uid="{00000000-0005-0000-0000-00004A030000}"/>
+    <cellStyle name="Normal 22 4 2" xfId="840" xr:uid="{00000000-0005-0000-0000-00004B030000}"/>
+    <cellStyle name="Normal 22 5" xfId="841" xr:uid="{00000000-0005-0000-0000-00004C030000}"/>
+    <cellStyle name="Normal 22 5 2" xfId="842" xr:uid="{00000000-0005-0000-0000-00004D030000}"/>
+    <cellStyle name="Normal 22 6" xfId="843" xr:uid="{00000000-0005-0000-0000-00004E030000}"/>
+    <cellStyle name="Normal 22 6 2" xfId="844" xr:uid="{00000000-0005-0000-0000-00004F030000}"/>
+    <cellStyle name="Normal 22 7" xfId="845" xr:uid="{00000000-0005-0000-0000-000050030000}"/>
+    <cellStyle name="Normal 22 7 2" xfId="846" xr:uid="{00000000-0005-0000-0000-000051030000}"/>
+    <cellStyle name="Normal 22 8" xfId="847" xr:uid="{00000000-0005-0000-0000-000052030000}"/>
+    <cellStyle name="Normal 22 8 2" xfId="848" xr:uid="{00000000-0005-0000-0000-000053030000}"/>
+    <cellStyle name="Normal 22 9" xfId="849" xr:uid="{00000000-0005-0000-0000-000054030000}"/>
+    <cellStyle name="Normal 22 9 2" xfId="850" xr:uid="{00000000-0005-0000-0000-000055030000}"/>
+    <cellStyle name="Normal 220" xfId="851" xr:uid="{00000000-0005-0000-0000-000056030000}"/>
+    <cellStyle name="Normal 221" xfId="852" xr:uid="{00000000-0005-0000-0000-000057030000}"/>
+    <cellStyle name="Normal 222" xfId="853" xr:uid="{00000000-0005-0000-0000-000058030000}"/>
+    <cellStyle name="Normal 223" xfId="854" xr:uid="{00000000-0005-0000-0000-000059030000}"/>
+    <cellStyle name="Normal 224" xfId="855" xr:uid="{00000000-0005-0000-0000-00005A030000}"/>
+    <cellStyle name="Normal 225" xfId="856" xr:uid="{00000000-0005-0000-0000-00005B030000}"/>
+    <cellStyle name="Normal 226" xfId="857" xr:uid="{00000000-0005-0000-0000-00005C030000}"/>
+    <cellStyle name="Normal 227" xfId="858" xr:uid="{00000000-0005-0000-0000-00005D030000}"/>
+    <cellStyle name="Normal 228" xfId="859" xr:uid="{00000000-0005-0000-0000-00005E030000}"/>
+    <cellStyle name="Normal 229" xfId="860" xr:uid="{00000000-0005-0000-0000-00005F030000}"/>
+    <cellStyle name="Normal 23" xfId="861" xr:uid="{00000000-0005-0000-0000-000060030000}"/>
+    <cellStyle name="Normal 23 10" xfId="862" xr:uid="{00000000-0005-0000-0000-000061030000}"/>
+    <cellStyle name="Normal 23 10 2" xfId="863" xr:uid="{00000000-0005-0000-0000-000062030000}"/>
+    <cellStyle name="Normal 23 11" xfId="864" xr:uid="{00000000-0005-0000-0000-000063030000}"/>
+    <cellStyle name="Normal 23 11 2" xfId="865" xr:uid="{00000000-0005-0000-0000-000064030000}"/>
+    <cellStyle name="Normal 23 12" xfId="866" xr:uid="{00000000-0005-0000-0000-000065030000}"/>
+    <cellStyle name="Normal 23 12 2" xfId="867" xr:uid="{00000000-0005-0000-0000-000066030000}"/>
+    <cellStyle name="Normal 23 13" xfId="868" xr:uid="{00000000-0005-0000-0000-000067030000}"/>
+    <cellStyle name="Normal 23 13 2" xfId="869" xr:uid="{00000000-0005-0000-0000-000068030000}"/>
+    <cellStyle name="Normal 23 14" xfId="870" xr:uid="{00000000-0005-0000-0000-000069030000}"/>
+    <cellStyle name="Normal 23 14 2" xfId="871" xr:uid="{00000000-0005-0000-0000-00006A030000}"/>
+    <cellStyle name="Normal 23 15" xfId="872" xr:uid="{00000000-0005-0000-0000-00006B030000}"/>
+    <cellStyle name="Normal 23 15 2" xfId="873" xr:uid="{00000000-0005-0000-0000-00006C030000}"/>
+    <cellStyle name="Normal 23 16" xfId="874" xr:uid="{00000000-0005-0000-0000-00006D030000}"/>
+    <cellStyle name="Normal 23 16 2" xfId="875" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
+    <cellStyle name="Normal 23 17" xfId="876" xr:uid="{00000000-0005-0000-0000-00006F030000}"/>
+    <cellStyle name="Normal 23 17 2" xfId="877" xr:uid="{00000000-0005-0000-0000-000070030000}"/>
+    <cellStyle name="Normal 23 18" xfId="878" xr:uid="{00000000-0005-0000-0000-000071030000}"/>
+    <cellStyle name="Normal 23 18 2" xfId="879" xr:uid="{00000000-0005-0000-0000-000072030000}"/>
+    <cellStyle name="Normal 23 19" xfId="880" xr:uid="{00000000-0005-0000-0000-000073030000}"/>
+    <cellStyle name="Normal 23 19 2" xfId="881" xr:uid="{00000000-0005-0000-0000-000074030000}"/>
+    <cellStyle name="Normal 23 2" xfId="882" xr:uid="{00000000-0005-0000-0000-000075030000}"/>
+    <cellStyle name="Normal 23 2 2" xfId="883" xr:uid="{00000000-0005-0000-0000-000076030000}"/>
+    <cellStyle name="Normal 23 20" xfId="884" xr:uid="{00000000-0005-0000-0000-000077030000}"/>
+    <cellStyle name="Normal 23 20 2" xfId="885" xr:uid="{00000000-0005-0000-0000-000078030000}"/>
+    <cellStyle name="Normal 23 21" xfId="886" xr:uid="{00000000-0005-0000-0000-000079030000}"/>
+    <cellStyle name="Normal 23 21 2" xfId="887" xr:uid="{00000000-0005-0000-0000-00007A030000}"/>
+    <cellStyle name="Normal 23 22" xfId="888" xr:uid="{00000000-0005-0000-0000-00007B030000}"/>
+    <cellStyle name="Normal 23 22 2" xfId="889" xr:uid="{00000000-0005-0000-0000-00007C030000}"/>
+    <cellStyle name="Normal 23 23" xfId="890" xr:uid="{00000000-0005-0000-0000-00007D030000}"/>
+    <cellStyle name="Normal 23 3" xfId="891" xr:uid="{00000000-0005-0000-0000-00007E030000}"/>
+    <cellStyle name="Normal 23 3 2" xfId="892" xr:uid="{00000000-0005-0000-0000-00007F030000}"/>
+    <cellStyle name="Normal 23 4" xfId="893" xr:uid="{00000000-0005-0000-0000-000080030000}"/>
+    <cellStyle name="Normal 23 4 2" xfId="894" xr:uid="{00000000-0005-0000-0000-000081030000}"/>
+    <cellStyle name="Normal 23 5" xfId="895" xr:uid="{00000000-0005-0000-0000-000082030000}"/>
+    <cellStyle name="Normal 23 5 2" xfId="896" xr:uid="{00000000-0005-0000-0000-000083030000}"/>
+    <cellStyle name="Normal 23 6" xfId="897" xr:uid="{00000000-0005-0000-0000-000084030000}"/>
+    <cellStyle name="Normal 23 6 2" xfId="898" xr:uid="{00000000-0005-0000-0000-000085030000}"/>
+    <cellStyle name="Normal 23 7" xfId="899" xr:uid="{00000000-0005-0000-0000-000086030000}"/>
+    <cellStyle name="Normal 23 7 2" xfId="900" xr:uid="{00000000-0005-0000-0000-000087030000}"/>
+    <cellStyle name="Normal 23 8" xfId="901" xr:uid="{00000000-0005-0000-0000-000088030000}"/>
+    <cellStyle name="Normal 23 8 2" xfId="902" xr:uid="{00000000-0005-0000-0000-000089030000}"/>
+    <cellStyle name="Normal 23 9" xfId="903" xr:uid="{00000000-0005-0000-0000-00008A030000}"/>
+    <cellStyle name="Normal 23 9 2" xfId="904" xr:uid="{00000000-0005-0000-0000-00008B030000}"/>
+    <cellStyle name="Normal 230" xfId="905" xr:uid="{00000000-0005-0000-0000-00008C030000}"/>
+    <cellStyle name="Normal 231" xfId="906" xr:uid="{00000000-0005-0000-0000-00008D030000}"/>
+    <cellStyle name="Normal 232" xfId="907" xr:uid="{00000000-0005-0000-0000-00008E030000}"/>
+    <cellStyle name="Normal 233" xfId="908" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
+    <cellStyle name="Normal 234" xfId="909" xr:uid="{00000000-0005-0000-0000-000090030000}"/>
+    <cellStyle name="Normal 235" xfId="910" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
+    <cellStyle name="Normal 236" xfId="911" xr:uid="{00000000-0005-0000-0000-000092030000}"/>
+    <cellStyle name="Normal 237" xfId="912" xr:uid="{00000000-0005-0000-0000-000093030000}"/>
+    <cellStyle name="Normal 238" xfId="913" xr:uid="{00000000-0005-0000-0000-000094030000}"/>
+    <cellStyle name="Normal 239" xfId="914" xr:uid="{00000000-0005-0000-0000-000095030000}"/>
+    <cellStyle name="Normal 24" xfId="915" xr:uid="{00000000-0005-0000-0000-000096030000}"/>
+    <cellStyle name="Normal 240" xfId="916" xr:uid="{00000000-0005-0000-0000-000097030000}"/>
+    <cellStyle name="Normal 241" xfId="917" xr:uid="{00000000-0005-0000-0000-000098030000}"/>
+    <cellStyle name="Normal 242" xfId="918" xr:uid="{00000000-0005-0000-0000-000099030000}"/>
+    <cellStyle name="Normal 243" xfId="919" xr:uid="{00000000-0005-0000-0000-00009A030000}"/>
+    <cellStyle name="Normal 244" xfId="920" xr:uid="{00000000-0005-0000-0000-00009B030000}"/>
+    <cellStyle name="Normal 245" xfId="921" xr:uid="{00000000-0005-0000-0000-00009C030000}"/>
+    <cellStyle name="Normal 246" xfId="922" xr:uid="{00000000-0005-0000-0000-00009D030000}"/>
+    <cellStyle name="Normal 247" xfId="923" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
+    <cellStyle name="Normal 248" xfId="924" xr:uid="{00000000-0005-0000-0000-00009F030000}"/>
+    <cellStyle name="Normal 249" xfId="925" xr:uid="{00000000-0005-0000-0000-0000A0030000}"/>
+    <cellStyle name="Normal 25" xfId="926" xr:uid="{00000000-0005-0000-0000-0000A1030000}"/>
+    <cellStyle name="Normal 250" xfId="927" xr:uid="{00000000-0005-0000-0000-0000A2030000}"/>
+    <cellStyle name="Normal 251" xfId="928" xr:uid="{00000000-0005-0000-0000-0000A3030000}"/>
+    <cellStyle name="Normal 252" xfId="929" xr:uid="{00000000-0005-0000-0000-0000A4030000}"/>
+    <cellStyle name="Normal 253" xfId="930" xr:uid="{00000000-0005-0000-0000-0000A5030000}"/>
+    <cellStyle name="Normal 254" xfId="931" xr:uid="{00000000-0005-0000-0000-0000A6030000}"/>
+    <cellStyle name="Normal 255" xfId="932" xr:uid="{00000000-0005-0000-0000-0000A7030000}"/>
+    <cellStyle name="Normal 256" xfId="933" xr:uid="{00000000-0005-0000-0000-0000A8030000}"/>
+    <cellStyle name="Normal 257" xfId="934" xr:uid="{00000000-0005-0000-0000-0000A9030000}"/>
+    <cellStyle name="Normal 258" xfId="935" xr:uid="{00000000-0005-0000-0000-0000AA030000}"/>
+    <cellStyle name="Normal 259" xfId="936" xr:uid="{00000000-0005-0000-0000-0000AB030000}"/>
+    <cellStyle name="Normal 26" xfId="937" xr:uid="{00000000-0005-0000-0000-0000AC030000}"/>
+    <cellStyle name="Normal 260" xfId="938" xr:uid="{00000000-0005-0000-0000-0000AD030000}"/>
+    <cellStyle name="Normal 261" xfId="939" xr:uid="{00000000-0005-0000-0000-0000AE030000}"/>
+    <cellStyle name="Normal 262" xfId="940" xr:uid="{00000000-0005-0000-0000-0000AF030000}"/>
+    <cellStyle name="Normal 263" xfId="941" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
+    <cellStyle name="Normal 264" xfId="942" xr:uid="{00000000-0005-0000-0000-0000B1030000}"/>
+    <cellStyle name="Normal 265" xfId="943" xr:uid="{00000000-0005-0000-0000-0000B2030000}"/>
+    <cellStyle name="Normal 266" xfId="944" xr:uid="{00000000-0005-0000-0000-0000B3030000}"/>
+    <cellStyle name="Normal 267" xfId="945" xr:uid="{00000000-0005-0000-0000-0000B4030000}"/>
+    <cellStyle name="Normal 268" xfId="946" xr:uid="{00000000-0005-0000-0000-0000B5030000}"/>
+    <cellStyle name="Normal 269" xfId="947" xr:uid="{00000000-0005-0000-0000-0000B6030000}"/>
+    <cellStyle name="Normal 27" xfId="948" xr:uid="{00000000-0005-0000-0000-0000B7030000}"/>
+    <cellStyle name="Normal 270" xfId="949" xr:uid="{00000000-0005-0000-0000-0000B8030000}"/>
+    <cellStyle name="Normal 271" xfId="950" xr:uid="{00000000-0005-0000-0000-0000B9030000}"/>
+    <cellStyle name="Normal 272" xfId="951" xr:uid="{00000000-0005-0000-0000-0000BA030000}"/>
+    <cellStyle name="Normal 273" xfId="952" xr:uid="{00000000-0005-0000-0000-0000BB030000}"/>
+    <cellStyle name="Normal 274" xfId="953" xr:uid="{00000000-0005-0000-0000-0000BC030000}"/>
+    <cellStyle name="Normal 275" xfId="954" xr:uid="{00000000-0005-0000-0000-0000BD030000}"/>
+    <cellStyle name="Normal 276" xfId="955" xr:uid="{00000000-0005-0000-0000-0000BE030000}"/>
+    <cellStyle name="Normal 277" xfId="956" xr:uid="{00000000-0005-0000-0000-0000BF030000}"/>
+    <cellStyle name="Normal 278" xfId="957" xr:uid="{00000000-0005-0000-0000-0000C0030000}"/>
+    <cellStyle name="Normal 279" xfId="958" xr:uid="{00000000-0005-0000-0000-0000C1030000}"/>
+    <cellStyle name="Normal 28" xfId="959" xr:uid="{00000000-0005-0000-0000-0000C2030000}"/>
+    <cellStyle name="Normal 280" xfId="960" xr:uid="{00000000-0005-0000-0000-0000C3030000}"/>
+    <cellStyle name="Normal 281" xfId="961" xr:uid="{00000000-0005-0000-0000-0000C4030000}"/>
+    <cellStyle name="Normal 282" xfId="962" xr:uid="{00000000-0005-0000-0000-0000C5030000}"/>
+    <cellStyle name="Normal 283" xfId="963" xr:uid="{00000000-0005-0000-0000-0000C6030000}"/>
+    <cellStyle name="Normal 284" xfId="964" xr:uid="{00000000-0005-0000-0000-0000C7030000}"/>
+    <cellStyle name="Normal 285" xfId="965" xr:uid="{00000000-0005-0000-0000-0000C8030000}"/>
+    <cellStyle name="Normal 286" xfId="966" xr:uid="{00000000-0005-0000-0000-0000C9030000}"/>
+    <cellStyle name="Normal 287" xfId="967" xr:uid="{00000000-0005-0000-0000-0000CA030000}"/>
+    <cellStyle name="Normal 288" xfId="968" xr:uid="{00000000-0005-0000-0000-0000CB030000}"/>
+    <cellStyle name="Normal 289" xfId="969" xr:uid="{00000000-0005-0000-0000-0000CC030000}"/>
+    <cellStyle name="Normal 29" xfId="970" xr:uid="{00000000-0005-0000-0000-0000CD030000}"/>
+    <cellStyle name="Normal 290" xfId="971" xr:uid="{00000000-0005-0000-0000-0000CE030000}"/>
+    <cellStyle name="Normal 291" xfId="972" xr:uid="{00000000-0005-0000-0000-0000CF030000}"/>
+    <cellStyle name="Normal 292" xfId="973" xr:uid="{00000000-0005-0000-0000-0000D0030000}"/>
+    <cellStyle name="Normal 293" xfId="974" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
+    <cellStyle name="Normal 294" xfId="975" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
+    <cellStyle name="Normal 295" xfId="976" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
+    <cellStyle name="Normal 296" xfId="977" xr:uid="{00000000-0005-0000-0000-0000D4030000}"/>
+    <cellStyle name="Normal 297" xfId="978" xr:uid="{00000000-0005-0000-0000-0000D5030000}"/>
+    <cellStyle name="Normal 298" xfId="979" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
+    <cellStyle name="Normal 299" xfId="980" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
+    <cellStyle name="Normal 3" xfId="981" xr:uid="{00000000-0005-0000-0000-0000D8030000}"/>
+    <cellStyle name="Normal 30" xfId="982" xr:uid="{00000000-0005-0000-0000-0000D9030000}"/>
+    <cellStyle name="Normal 300" xfId="983" xr:uid="{00000000-0005-0000-0000-0000DA030000}"/>
+    <cellStyle name="Normal 301" xfId="984" xr:uid="{00000000-0005-0000-0000-0000DB030000}"/>
+    <cellStyle name="Normal 302" xfId="985" xr:uid="{00000000-0005-0000-0000-0000DC030000}"/>
+    <cellStyle name="Normal 303" xfId="986" xr:uid="{00000000-0005-0000-0000-0000DD030000}"/>
+    <cellStyle name="Normal 304" xfId="987" xr:uid="{00000000-0005-0000-0000-0000DE030000}"/>
+    <cellStyle name="Normal 305" xfId="988" xr:uid="{00000000-0005-0000-0000-0000DF030000}"/>
+    <cellStyle name="Normal 306" xfId="989" xr:uid="{00000000-0005-0000-0000-0000E0030000}"/>
+    <cellStyle name="Normal 307" xfId="990" xr:uid="{00000000-0005-0000-0000-0000E1030000}"/>
+    <cellStyle name="Normal 308" xfId="991" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
+    <cellStyle name="Normal 309" xfId="992" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
+    <cellStyle name="Normal 31" xfId="993" xr:uid="{00000000-0005-0000-0000-0000E4030000}"/>
+    <cellStyle name="Normal 310" xfId="994" xr:uid="{00000000-0005-0000-0000-0000E5030000}"/>
+    <cellStyle name="Normal 311" xfId="995" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
+    <cellStyle name="Normal 312" xfId="996" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
+    <cellStyle name="Normal 313" xfId="997" xr:uid="{00000000-0005-0000-0000-0000E8030000}"/>
+    <cellStyle name="Normal 314" xfId="998" xr:uid="{00000000-0005-0000-0000-0000E9030000}"/>
+    <cellStyle name="Normal 315" xfId="999" xr:uid="{00000000-0005-0000-0000-0000EA030000}"/>
+    <cellStyle name="Normal 316" xfId="1000" xr:uid="{00000000-0005-0000-0000-0000EB030000}"/>
+    <cellStyle name="Normal 317" xfId="1001" xr:uid="{00000000-0005-0000-0000-0000EC030000}"/>
+    <cellStyle name="Normal 318" xfId="1002" xr:uid="{00000000-0005-0000-0000-0000ED030000}"/>
+    <cellStyle name="Normal 319" xfId="1003" xr:uid="{00000000-0005-0000-0000-0000EE030000}"/>
+    <cellStyle name="Normal 32" xfId="1004" xr:uid="{00000000-0005-0000-0000-0000EF030000}"/>
+    <cellStyle name="Normal 320" xfId="1005" xr:uid="{00000000-0005-0000-0000-0000F0030000}"/>
+    <cellStyle name="Normal 321" xfId="1006" xr:uid="{00000000-0005-0000-0000-0000F1030000}"/>
+    <cellStyle name="Normal 322" xfId="1007" xr:uid="{00000000-0005-0000-0000-0000F2030000}"/>
+    <cellStyle name="Normal 323" xfId="1008" xr:uid="{00000000-0005-0000-0000-0000F3030000}"/>
+    <cellStyle name="Normal 324" xfId="1009" xr:uid="{00000000-0005-0000-0000-0000F4030000}"/>
+    <cellStyle name="Normal 325" xfId="1010" xr:uid="{00000000-0005-0000-0000-0000F5030000}"/>
+    <cellStyle name="Normal 326" xfId="1011" xr:uid="{00000000-0005-0000-0000-0000F6030000}"/>
+    <cellStyle name="Normal 327" xfId="1012" xr:uid="{00000000-0005-0000-0000-0000F7030000}"/>
+    <cellStyle name="Normal 328" xfId="1013" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
+    <cellStyle name="Normal 329" xfId="1014" xr:uid="{00000000-0005-0000-0000-0000F9030000}"/>
+    <cellStyle name="Normal 33" xfId="1015" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
+    <cellStyle name="Normal 330" xfId="1016" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
+    <cellStyle name="Normal 331" xfId="1017" xr:uid="{00000000-0005-0000-0000-0000FC030000}"/>
+    <cellStyle name="Normal 332" xfId="1018" xr:uid="{00000000-0005-0000-0000-0000FD030000}"/>
+    <cellStyle name="Normal 333" xfId="1019" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
+    <cellStyle name="Normal 334" xfId="1020" xr:uid="{00000000-0005-0000-0000-0000FF030000}"/>
+    <cellStyle name="Normal 335" xfId="1021" xr:uid="{00000000-0005-0000-0000-000000040000}"/>
+    <cellStyle name="Normal 336" xfId="1022" xr:uid="{00000000-0005-0000-0000-000001040000}"/>
+    <cellStyle name="Normal 337" xfId="1023" xr:uid="{00000000-0005-0000-0000-000002040000}"/>
+    <cellStyle name="Normal 338" xfId="1024" xr:uid="{00000000-0005-0000-0000-000003040000}"/>
+    <cellStyle name="Normal 339" xfId="1025" xr:uid="{00000000-0005-0000-0000-000004040000}"/>
+    <cellStyle name="Normal 34" xfId="1026" xr:uid="{00000000-0005-0000-0000-000005040000}"/>
+    <cellStyle name="Normal 340" xfId="1027" xr:uid="{00000000-0005-0000-0000-000006040000}"/>
+    <cellStyle name="Normal 341" xfId="1028" xr:uid="{00000000-0005-0000-0000-000007040000}"/>
+    <cellStyle name="Normal 342" xfId="1029" xr:uid="{00000000-0005-0000-0000-000008040000}"/>
+    <cellStyle name="Normal 343" xfId="1030" xr:uid="{00000000-0005-0000-0000-000009040000}"/>
+    <cellStyle name="Normal 344" xfId="1031" xr:uid="{00000000-0005-0000-0000-00000A040000}"/>
+    <cellStyle name="Normal 345" xfId="1032" xr:uid="{00000000-0005-0000-0000-00000B040000}"/>
+    <cellStyle name="Normal 346" xfId="1033" xr:uid="{00000000-0005-0000-0000-00000C040000}"/>
+    <cellStyle name="Normal 347" xfId="1034" xr:uid="{00000000-0005-0000-0000-00000D040000}"/>
+    <cellStyle name="Normal 348" xfId="1035" xr:uid="{00000000-0005-0000-0000-00000E040000}"/>
+    <cellStyle name="Normal 349" xfId="1036" xr:uid="{00000000-0005-0000-0000-00000F040000}"/>
+    <cellStyle name="Normal 35" xfId="1037" xr:uid="{00000000-0005-0000-0000-000010040000}"/>
+    <cellStyle name="Normal 350" xfId="1038" xr:uid="{00000000-0005-0000-0000-000011040000}"/>
+    <cellStyle name="Normal 351" xfId="1039" xr:uid="{00000000-0005-0000-0000-000012040000}"/>
+    <cellStyle name="Normal 352" xfId="1040" xr:uid="{00000000-0005-0000-0000-000013040000}"/>
+    <cellStyle name="Normal 353" xfId="1041" xr:uid="{00000000-0005-0000-0000-000014040000}"/>
+    <cellStyle name="Normal 354" xfId="1042" xr:uid="{00000000-0005-0000-0000-000015040000}"/>
+    <cellStyle name="Normal 355" xfId="1043" xr:uid="{00000000-0005-0000-0000-000016040000}"/>
+    <cellStyle name="Normal 356" xfId="1044" xr:uid="{00000000-0005-0000-0000-000017040000}"/>
+    <cellStyle name="Normal 357" xfId="1045" xr:uid="{00000000-0005-0000-0000-000018040000}"/>
+    <cellStyle name="Normal 358" xfId="1046" xr:uid="{00000000-0005-0000-0000-000019040000}"/>
+    <cellStyle name="Normal 359" xfId="1047" xr:uid="{00000000-0005-0000-0000-00001A040000}"/>
+    <cellStyle name="Normal 36" xfId="1048" xr:uid="{00000000-0005-0000-0000-00001B040000}"/>
+    <cellStyle name="Normal 360" xfId="1049" xr:uid="{00000000-0005-0000-0000-00001C040000}"/>
+    <cellStyle name="Normal 361" xfId="1050" xr:uid="{00000000-0005-0000-0000-00001D040000}"/>
+    <cellStyle name="Normal 362" xfId="1051" xr:uid="{00000000-0005-0000-0000-00001E040000}"/>
+    <cellStyle name="Normal 363" xfId="1052" xr:uid="{00000000-0005-0000-0000-00001F040000}"/>
+    <cellStyle name="Normal 364" xfId="1053" xr:uid="{00000000-0005-0000-0000-000020040000}"/>
+    <cellStyle name="Normal 365" xfId="1054" xr:uid="{00000000-0005-0000-0000-000021040000}"/>
+    <cellStyle name="Normal 366" xfId="1055" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
+    <cellStyle name="Normal 367" xfId="1056" xr:uid="{00000000-0005-0000-0000-000023040000}"/>
+    <cellStyle name="Normal 368" xfId="1057" xr:uid="{00000000-0005-0000-0000-000024040000}"/>
+    <cellStyle name="Normal 369" xfId="1058" xr:uid="{00000000-0005-0000-0000-000025040000}"/>
+    <cellStyle name="Normal 37" xfId="1059" xr:uid="{00000000-0005-0000-0000-000026040000}"/>
+    <cellStyle name="Normal 370" xfId="1060" xr:uid="{00000000-0005-0000-0000-000027040000}"/>
+    <cellStyle name="Normal 371" xfId="1061" xr:uid="{00000000-0005-0000-0000-000028040000}"/>
+    <cellStyle name="Normal 372" xfId="1062" xr:uid="{00000000-0005-0000-0000-000029040000}"/>
+    <cellStyle name="Normal 373" xfId="1063" xr:uid="{00000000-0005-0000-0000-00002A040000}"/>
+    <cellStyle name="Normal 374" xfId="1064" xr:uid="{00000000-0005-0000-0000-00002B040000}"/>
+    <cellStyle name="Normal 375" xfId="1065" xr:uid="{00000000-0005-0000-0000-00002C040000}"/>
+    <cellStyle name="Normal 376" xfId="1066" xr:uid="{00000000-0005-0000-0000-00002D040000}"/>
+    <cellStyle name="Normal 377" xfId="1067" xr:uid="{00000000-0005-0000-0000-00002E040000}"/>
+    <cellStyle name="Normal 378" xfId="1068" xr:uid="{00000000-0005-0000-0000-00002F040000}"/>
+    <cellStyle name="Normal 379" xfId="1069" xr:uid="{00000000-0005-0000-0000-000030040000}"/>
+    <cellStyle name="Normal 38" xfId="1070" xr:uid="{00000000-0005-0000-0000-000031040000}"/>
+    <cellStyle name="Normal 380" xfId="1071" xr:uid="{00000000-0005-0000-0000-000032040000}"/>
+    <cellStyle name="Normal 381" xfId="1072" xr:uid="{00000000-0005-0000-0000-000033040000}"/>
+    <cellStyle name="Normal 382" xfId="1073" xr:uid="{00000000-0005-0000-0000-000034040000}"/>
+    <cellStyle name="Normal 383" xfId="1074" xr:uid="{00000000-0005-0000-0000-000035040000}"/>
+    <cellStyle name="Normal 384" xfId="1075" xr:uid="{00000000-0005-0000-0000-000036040000}"/>
+    <cellStyle name="Normal 385" xfId="1076" xr:uid="{00000000-0005-0000-0000-000037040000}"/>
+    <cellStyle name="Normal 386" xfId="1077" xr:uid="{00000000-0005-0000-0000-000038040000}"/>
+    <cellStyle name="Normal 387" xfId="1078" xr:uid="{00000000-0005-0000-0000-000039040000}"/>
+    <cellStyle name="Normal 388" xfId="1079" xr:uid="{00000000-0005-0000-0000-00003A040000}"/>
+    <cellStyle name="Normal 389" xfId="1080" xr:uid="{00000000-0005-0000-0000-00003B040000}"/>
+    <cellStyle name="Normal 39" xfId="1081" xr:uid="{00000000-0005-0000-0000-00003C040000}"/>
+    <cellStyle name="Normal 390" xfId="1082" xr:uid="{00000000-0005-0000-0000-00003D040000}"/>
+    <cellStyle name="Normal 391" xfId="1083" xr:uid="{00000000-0005-0000-0000-00003E040000}"/>
+    <cellStyle name="Normal 392" xfId="1084" xr:uid="{00000000-0005-0000-0000-00003F040000}"/>
+    <cellStyle name="Normal 393" xfId="1085" xr:uid="{00000000-0005-0000-0000-000040040000}"/>
+    <cellStyle name="Normal 394" xfId="1086" xr:uid="{00000000-0005-0000-0000-000041040000}"/>
+    <cellStyle name="Normal 395" xfId="1087" xr:uid="{00000000-0005-0000-0000-000042040000}"/>
+    <cellStyle name="Normal 396" xfId="1088" xr:uid="{00000000-0005-0000-0000-000043040000}"/>
+    <cellStyle name="Normal 397" xfId="1089" xr:uid="{00000000-0005-0000-0000-000044040000}"/>
+    <cellStyle name="Normal 398" xfId="1090" xr:uid="{00000000-0005-0000-0000-000045040000}"/>
+    <cellStyle name="Normal 399" xfId="1091" xr:uid="{00000000-0005-0000-0000-000046040000}"/>
+    <cellStyle name="Normal 4" xfId="1092" xr:uid="{00000000-0005-0000-0000-000047040000}"/>
+    <cellStyle name="Normal 40" xfId="1093" xr:uid="{00000000-0005-0000-0000-000048040000}"/>
+    <cellStyle name="Normal 400" xfId="1094" xr:uid="{00000000-0005-0000-0000-000049040000}"/>
+    <cellStyle name="Normal 401" xfId="1095" xr:uid="{00000000-0005-0000-0000-00004A040000}"/>
+    <cellStyle name="Normal 401 2" xfId="1096" xr:uid="{00000000-0005-0000-0000-00004B040000}"/>
+    <cellStyle name="Normal 402" xfId="1097" xr:uid="{00000000-0005-0000-0000-00004C040000}"/>
+    <cellStyle name="Normal 403" xfId="1098" xr:uid="{00000000-0005-0000-0000-00004D040000}"/>
+    <cellStyle name="Normal 404" xfId="1099" xr:uid="{00000000-0005-0000-0000-00004E040000}"/>
+    <cellStyle name="Normal 405" xfId="1100" xr:uid="{00000000-0005-0000-0000-00004F040000}"/>
+    <cellStyle name="Normal 406" xfId="1101" xr:uid="{00000000-0005-0000-0000-000050040000}"/>
+    <cellStyle name="Normal 407" xfId="1102" xr:uid="{00000000-0005-0000-0000-000051040000}"/>
+    <cellStyle name="Normal 408" xfId="1103" xr:uid="{00000000-0005-0000-0000-000052040000}"/>
+    <cellStyle name="Normal 409" xfId="1104" xr:uid="{00000000-0005-0000-0000-000053040000}"/>
+    <cellStyle name="Normal 41" xfId="1105" xr:uid="{00000000-0005-0000-0000-000054040000}"/>
+    <cellStyle name="Normal 410" xfId="1106" xr:uid="{00000000-0005-0000-0000-000055040000}"/>
+    <cellStyle name="Normal 411" xfId="1107" xr:uid="{00000000-0005-0000-0000-000056040000}"/>
+    <cellStyle name="Normal 411 2" xfId="1108" xr:uid="{00000000-0005-0000-0000-000057040000}"/>
+    <cellStyle name="Normal 412" xfId="1109" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
+    <cellStyle name="Normal 413" xfId="1110" xr:uid="{00000000-0005-0000-0000-000059040000}"/>
+    <cellStyle name="Normal 414" xfId="1111" xr:uid="{00000000-0005-0000-0000-00005A040000}"/>
+    <cellStyle name="Normal 415" xfId="1112" xr:uid="{00000000-0005-0000-0000-00005B040000}"/>
+    <cellStyle name="Normal 416" xfId="1113" xr:uid="{00000000-0005-0000-0000-00005C040000}"/>
+    <cellStyle name="Normal 416 2" xfId="1114" xr:uid="{00000000-0005-0000-0000-00005D040000}"/>
+    <cellStyle name="Normal 417" xfId="1488" xr:uid="{00000000-0005-0000-0000-00005E040000}"/>
+    <cellStyle name="Normal 42" xfId="1115" xr:uid="{00000000-0005-0000-0000-00005F040000}"/>
+    <cellStyle name="Normal 43" xfId="1116" xr:uid="{00000000-0005-0000-0000-000060040000}"/>
+    <cellStyle name="Normal 44" xfId="1117" xr:uid="{00000000-0005-0000-0000-000061040000}"/>
+    <cellStyle name="Normal 45" xfId="1118" xr:uid="{00000000-0005-0000-0000-000062040000}"/>
+    <cellStyle name="Normal 46" xfId="1119" xr:uid="{00000000-0005-0000-0000-000063040000}"/>
+    <cellStyle name="Normal 47" xfId="1120" xr:uid="{00000000-0005-0000-0000-000064040000}"/>
+    <cellStyle name="Normal 48" xfId="1121" xr:uid="{00000000-0005-0000-0000-000065040000}"/>
+    <cellStyle name="Normal 49" xfId="1122" xr:uid="{00000000-0005-0000-0000-000066040000}"/>
+    <cellStyle name="Normal 5" xfId="1123" xr:uid="{00000000-0005-0000-0000-000067040000}"/>
+    <cellStyle name="Normal 5 10" xfId="1124" xr:uid="{00000000-0005-0000-0000-000068040000}"/>
+    <cellStyle name="Normal 5 10 2" xfId="1125" xr:uid="{00000000-0005-0000-0000-000069040000}"/>
+    <cellStyle name="Normal 5 11" xfId="1126" xr:uid="{00000000-0005-0000-0000-00006A040000}"/>
+    <cellStyle name="Normal 5 11 2" xfId="1127" xr:uid="{00000000-0005-0000-0000-00006B040000}"/>
+    <cellStyle name="Normal 5 12" xfId="1128" xr:uid="{00000000-0005-0000-0000-00006C040000}"/>
+    <cellStyle name="Normal 5 12 2" xfId="1129" xr:uid="{00000000-0005-0000-0000-00006D040000}"/>
+    <cellStyle name="Normal 5 13" xfId="1130" xr:uid="{00000000-0005-0000-0000-00006E040000}"/>
+    <cellStyle name="Normal 5 13 2" xfId="1131" xr:uid="{00000000-0005-0000-0000-00006F040000}"/>
+    <cellStyle name="Normal 5 14" xfId="1132" xr:uid="{00000000-0005-0000-0000-000070040000}"/>
+    <cellStyle name="Normal 5 14 2" xfId="1133" xr:uid="{00000000-0005-0000-0000-000071040000}"/>
+    <cellStyle name="Normal 5 15" xfId="1134" xr:uid="{00000000-0005-0000-0000-000072040000}"/>
+    <cellStyle name="Normal 5 15 2" xfId="1135" xr:uid="{00000000-0005-0000-0000-000073040000}"/>
+    <cellStyle name="Normal 5 16" xfId="1136" xr:uid="{00000000-0005-0000-0000-000074040000}"/>
+    <cellStyle name="Normal 5 16 2" xfId="1137" xr:uid="{00000000-0005-0000-0000-000075040000}"/>
+    <cellStyle name="Normal 5 17" xfId="1138" xr:uid="{00000000-0005-0000-0000-000076040000}"/>
+    <cellStyle name="Normal 5 17 2" xfId="1139" xr:uid="{00000000-0005-0000-0000-000077040000}"/>
+    <cellStyle name="Normal 5 18" xfId="1140" xr:uid="{00000000-0005-0000-0000-000078040000}"/>
+    <cellStyle name="Normal 5 18 2" xfId="1141" xr:uid="{00000000-0005-0000-0000-000079040000}"/>
+    <cellStyle name="Normal 5 19" xfId="1142" xr:uid="{00000000-0005-0000-0000-00007A040000}"/>
+    <cellStyle name="Normal 5 19 2" xfId="1143" xr:uid="{00000000-0005-0000-0000-00007B040000}"/>
+    <cellStyle name="Normal 5 2" xfId="1144" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
+    <cellStyle name="Normal 5 2 10" xfId="1145" xr:uid="{00000000-0005-0000-0000-00007D040000}"/>
+    <cellStyle name="Normal 5 2 10 2" xfId="1146" xr:uid="{00000000-0005-0000-0000-00007E040000}"/>
+    <cellStyle name="Normal 5 2 11" xfId="1147" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
+    <cellStyle name="Normal 5 2 11 2" xfId="1148" xr:uid="{00000000-0005-0000-0000-000080040000}"/>
+    <cellStyle name="Normal 5 2 12" xfId="1149" xr:uid="{00000000-0005-0000-0000-000081040000}"/>
+    <cellStyle name="Normal 5 2 12 2" xfId="1150" xr:uid="{00000000-0005-0000-0000-000082040000}"/>
+    <cellStyle name="Normal 5 2 13" xfId="1151" xr:uid="{00000000-0005-0000-0000-000083040000}"/>
+    <cellStyle name="Normal 5 2 13 2" xfId="1152" xr:uid="{00000000-0005-0000-0000-000084040000}"/>
+    <cellStyle name="Normal 5 2 14" xfId="1153" xr:uid="{00000000-0005-0000-0000-000085040000}"/>
+    <cellStyle name="Normal 5 2 14 2" xfId="1154" xr:uid="{00000000-0005-0000-0000-000086040000}"/>
+    <cellStyle name="Normal 5 2 15" xfId="1155" xr:uid="{00000000-0005-0000-0000-000087040000}"/>
+    <cellStyle name="Normal 5 2 15 2" xfId="1156" xr:uid="{00000000-0005-0000-0000-000088040000}"/>
+    <cellStyle name="Normal 5 2 16" xfId="1157" xr:uid="{00000000-0005-0000-0000-000089040000}"/>
+    <cellStyle name="Normal 5 2 16 2" xfId="1158" xr:uid="{00000000-0005-0000-0000-00008A040000}"/>
+    <cellStyle name="Normal 5 2 17" xfId="1159" xr:uid="{00000000-0005-0000-0000-00008B040000}"/>
+    <cellStyle name="Normal 5 2 17 2" xfId="1160" xr:uid="{00000000-0005-0000-0000-00008C040000}"/>
+    <cellStyle name="Normal 5 2 18" xfId="1161" xr:uid="{00000000-0005-0000-0000-00008D040000}"/>
+    <cellStyle name="Normal 5 2 18 2" xfId="1162" xr:uid="{00000000-0005-0000-0000-00008E040000}"/>
+    <cellStyle name="Normal 5 2 19" xfId="1163" xr:uid="{00000000-0005-0000-0000-00008F040000}"/>
+    <cellStyle name="Normal 5 2 19 2" xfId="1164" xr:uid="{00000000-0005-0000-0000-000090040000}"/>
+    <cellStyle name="Normal 5 2 2" xfId="1165" xr:uid="{00000000-0005-0000-0000-000091040000}"/>
+    <cellStyle name="Normal 5 2 2 2" xfId="1166" xr:uid="{00000000-0005-0000-0000-000092040000}"/>
+    <cellStyle name="Normal 5 2 20" xfId="1167" xr:uid="{00000000-0005-0000-0000-000093040000}"/>
+    <cellStyle name="Normal 5 2 20 2" xfId="1168" xr:uid="{00000000-0005-0000-0000-000094040000}"/>
+    <cellStyle name="Normal 5 2 21" xfId="1169" xr:uid="{00000000-0005-0000-0000-000095040000}"/>
+    <cellStyle name="Normal 5 2 21 2" xfId="1170" xr:uid="{00000000-0005-0000-0000-000096040000}"/>
+    <cellStyle name="Normal 5 2 22" xfId="1171" xr:uid="{00000000-0005-0000-0000-000097040000}"/>
+    <cellStyle name="Normal 5 2 22 2" xfId="1172" xr:uid="{00000000-0005-0000-0000-000098040000}"/>
+    <cellStyle name="Normal 5 2 23" xfId="1173" xr:uid="{00000000-0005-0000-0000-000099040000}"/>
+    <cellStyle name="Normal 5 2 3" xfId="1174" xr:uid="{00000000-0005-0000-0000-00009A040000}"/>
+    <cellStyle name="Normal 5 2 3 2" xfId="1175" xr:uid="{00000000-0005-0000-0000-00009B040000}"/>
+    <cellStyle name="Normal 5 2 4" xfId="1176" xr:uid="{00000000-0005-0000-0000-00009C040000}"/>
+    <cellStyle name="Normal 5 2 4 2" xfId="1177" xr:uid="{00000000-0005-0000-0000-00009D040000}"/>
+    <cellStyle name="Normal 5 2 5" xfId="1178" xr:uid="{00000000-0005-0000-0000-00009E040000}"/>
+    <cellStyle name="Normal 5 2 5 2" xfId="1179" xr:uid="{00000000-0005-0000-0000-00009F040000}"/>
+    <cellStyle name="Normal 5 2 6" xfId="1180" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
+    <cellStyle name="Normal 5 2 6 2" xfId="1181" xr:uid="{00000000-0005-0000-0000-0000A1040000}"/>
+    <cellStyle name="Normal 5 2 7" xfId="1182" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
+    <cellStyle name="Normal 5 2 7 2" xfId="1183" xr:uid="{00000000-0005-0000-0000-0000A3040000}"/>
+    <cellStyle name="Normal 5 2 8" xfId="1184" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
+    <cellStyle name="Normal 5 2 8 2" xfId="1185" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
+    <cellStyle name="Normal 5 2 9" xfId="1186" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
+    <cellStyle name="Normal 5 2 9 2" xfId="1187" xr:uid="{00000000-0005-0000-0000-0000A7040000}"/>
+    <cellStyle name="Normal 5 20" xfId="1188" xr:uid="{00000000-0005-0000-0000-0000A8040000}"/>
+    <cellStyle name="Normal 5 20 2" xfId="1189" xr:uid="{00000000-0005-0000-0000-0000A9040000}"/>
+    <cellStyle name="Normal 5 21" xfId="1190" xr:uid="{00000000-0005-0000-0000-0000AA040000}"/>
+    <cellStyle name="Normal 5 21 2" xfId="1191" xr:uid="{00000000-0005-0000-0000-0000AB040000}"/>
+    <cellStyle name="Normal 5 22" xfId="1192" xr:uid="{00000000-0005-0000-0000-0000AC040000}"/>
+    <cellStyle name="Normal 5 22 2" xfId="1193" xr:uid="{00000000-0005-0000-0000-0000AD040000}"/>
+    <cellStyle name="Normal 5 23" xfId="1194" xr:uid="{00000000-0005-0000-0000-0000AE040000}"/>
+    <cellStyle name="Normal 5 23 2" xfId="1195" xr:uid="{00000000-0005-0000-0000-0000AF040000}"/>
+    <cellStyle name="Normal 5 24" xfId="1196" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
+    <cellStyle name="Normal 5 3" xfId="1197" xr:uid="{00000000-0005-0000-0000-0000B1040000}"/>
+    <cellStyle name="Normal 5 3 2" xfId="1198" xr:uid="{00000000-0005-0000-0000-0000B2040000}"/>
+    <cellStyle name="Normal 5 4" xfId="1199" xr:uid="{00000000-0005-0000-0000-0000B3040000}"/>
+    <cellStyle name="Normal 5 4 2" xfId="1200" xr:uid="{00000000-0005-0000-0000-0000B4040000}"/>
+    <cellStyle name="Normal 5 5" xfId="1201" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
+    <cellStyle name="Normal 5 5 2" xfId="1202" xr:uid="{00000000-0005-0000-0000-0000B6040000}"/>
+    <cellStyle name="Normal 5 6" xfId="1203" xr:uid="{00000000-0005-0000-0000-0000B7040000}"/>
+    <cellStyle name="Normal 5 6 2" xfId="1204" xr:uid="{00000000-0005-0000-0000-0000B8040000}"/>
+    <cellStyle name="Normal 5 7" xfId="1205" xr:uid="{00000000-0005-0000-0000-0000B9040000}"/>
+    <cellStyle name="Normal 5 7 2" xfId="1206" xr:uid="{00000000-0005-0000-0000-0000BA040000}"/>
+    <cellStyle name="Normal 5 8" xfId="1207" xr:uid="{00000000-0005-0000-0000-0000BB040000}"/>
+    <cellStyle name="Normal 5 8 2" xfId="1208" xr:uid="{00000000-0005-0000-0000-0000BC040000}"/>
+    <cellStyle name="Normal 5 9" xfId="1209" xr:uid="{00000000-0005-0000-0000-0000BD040000}"/>
+    <cellStyle name="Normal 5 9 2" xfId="1210" xr:uid="{00000000-0005-0000-0000-0000BE040000}"/>
+    <cellStyle name="Normal 50" xfId="1211" xr:uid="{00000000-0005-0000-0000-0000BF040000}"/>
+    <cellStyle name="Normal 51" xfId="1212" xr:uid="{00000000-0005-0000-0000-0000C0040000}"/>
+    <cellStyle name="Normal 52" xfId="1213" xr:uid="{00000000-0005-0000-0000-0000C1040000}"/>
+    <cellStyle name="Normal 53" xfId="1214" xr:uid="{00000000-0005-0000-0000-0000C2040000}"/>
+    <cellStyle name="Normal 54" xfId="1215" xr:uid="{00000000-0005-0000-0000-0000C3040000}"/>
+    <cellStyle name="Normal 55" xfId="1216" xr:uid="{00000000-0005-0000-0000-0000C4040000}"/>
+    <cellStyle name="Normal 56" xfId="1217" xr:uid="{00000000-0005-0000-0000-0000C5040000}"/>
+    <cellStyle name="Normal 57" xfId="1218" xr:uid="{00000000-0005-0000-0000-0000C6040000}"/>
+    <cellStyle name="Normal 58" xfId="1219" xr:uid="{00000000-0005-0000-0000-0000C7040000}"/>
+    <cellStyle name="Normal 59" xfId="1220" xr:uid="{00000000-0005-0000-0000-0000C8040000}"/>
+    <cellStyle name="Normal 6" xfId="1221" xr:uid="{00000000-0005-0000-0000-0000C9040000}"/>
+    <cellStyle name="Normal 60" xfId="1222" xr:uid="{00000000-0005-0000-0000-0000CA040000}"/>
+    <cellStyle name="Normal 61" xfId="1223" xr:uid="{00000000-0005-0000-0000-0000CB040000}"/>
+    <cellStyle name="Normal 62" xfId="1224" xr:uid="{00000000-0005-0000-0000-0000CC040000}"/>
+    <cellStyle name="Normal 63" xfId="1225" xr:uid="{00000000-0005-0000-0000-0000CD040000}"/>
+    <cellStyle name="Normal 64" xfId="1226" xr:uid="{00000000-0005-0000-0000-0000CE040000}"/>
+    <cellStyle name="Normal 65" xfId="1227" xr:uid="{00000000-0005-0000-0000-0000CF040000}"/>
+    <cellStyle name="Normal 66" xfId="1228" xr:uid="{00000000-0005-0000-0000-0000D0040000}"/>
+    <cellStyle name="Normal 67" xfId="1229" xr:uid="{00000000-0005-0000-0000-0000D1040000}"/>
+    <cellStyle name="Normal 67 10" xfId="1230" xr:uid="{00000000-0005-0000-0000-0000D2040000}"/>
+    <cellStyle name="Normal 67 10 2" xfId="1231" xr:uid="{00000000-0005-0000-0000-0000D3040000}"/>
+    <cellStyle name="Normal 67 11" xfId="1232" xr:uid="{00000000-0005-0000-0000-0000D4040000}"/>
+    <cellStyle name="Normal 67 11 2" xfId="1233" xr:uid="{00000000-0005-0000-0000-0000D5040000}"/>
+    <cellStyle name="Normal 67 12" xfId="1234" xr:uid="{00000000-0005-0000-0000-0000D6040000}"/>
+    <cellStyle name="Normal 67 12 2" xfId="1235" xr:uid="{00000000-0005-0000-0000-0000D7040000}"/>
+    <cellStyle name="Normal 67 13" xfId="1236" xr:uid="{00000000-0005-0000-0000-0000D8040000}"/>
+    <cellStyle name="Normal 67 13 2" xfId="1237" xr:uid="{00000000-0005-0000-0000-0000D9040000}"/>
+    <cellStyle name="Normal 67 14" xfId="1238" xr:uid="{00000000-0005-0000-0000-0000DA040000}"/>
+    <cellStyle name="Normal 67 14 2" xfId="1239" xr:uid="{00000000-0005-0000-0000-0000DB040000}"/>
+    <cellStyle name="Normal 67 15" xfId="1240" xr:uid="{00000000-0005-0000-0000-0000DC040000}"/>
+    <cellStyle name="Normal 67 15 2" xfId="1241" xr:uid="{00000000-0005-0000-0000-0000DD040000}"/>
+    <cellStyle name="Normal 67 16" xfId="1242" xr:uid="{00000000-0005-0000-0000-0000DE040000}"/>
+    <cellStyle name="Normal 67 16 2" xfId="1243" xr:uid="{00000000-0005-0000-0000-0000DF040000}"/>
+    <cellStyle name="Normal 67 17" xfId="1244" xr:uid="{00000000-0005-0000-0000-0000E0040000}"/>
+    <cellStyle name="Normal 67 17 2" xfId="1245" xr:uid="{00000000-0005-0000-0000-0000E1040000}"/>
+    <cellStyle name="Normal 67 18" xfId="1246" xr:uid="{00000000-0005-0000-0000-0000E2040000}"/>
+    <cellStyle name="Normal 67 18 2" xfId="1247" xr:uid="{00000000-0005-0000-0000-0000E3040000}"/>
+    <cellStyle name="Normal 67 19" xfId="1248" xr:uid="{00000000-0005-0000-0000-0000E4040000}"/>
+    <cellStyle name="Normal 67 19 2" xfId="1249" xr:uid="{00000000-0005-0000-0000-0000E5040000}"/>
+    <cellStyle name="Normal 67 2" xfId="1250" xr:uid="{00000000-0005-0000-0000-0000E6040000}"/>
+    <cellStyle name="Normal 67 2 2" xfId="1251" xr:uid="{00000000-0005-0000-0000-0000E7040000}"/>
+    <cellStyle name="Normal 67 20" xfId="1252" xr:uid="{00000000-0005-0000-0000-0000E8040000}"/>
+    <cellStyle name="Normal 67 20 2" xfId="1253" xr:uid="{00000000-0005-0000-0000-0000E9040000}"/>
+    <cellStyle name="Normal 67 21" xfId="1254" xr:uid="{00000000-0005-0000-0000-0000EA040000}"/>
+    <cellStyle name="Normal 67 21 2" xfId="1255" xr:uid="{00000000-0005-0000-0000-0000EB040000}"/>
+    <cellStyle name="Normal 67 22" xfId="1256" xr:uid="{00000000-0005-0000-0000-0000EC040000}"/>
+    <cellStyle name="Normal 67 22 2" xfId="1257" xr:uid="{00000000-0005-0000-0000-0000ED040000}"/>
+    <cellStyle name="Normal 67 23" xfId="1258" xr:uid="{00000000-0005-0000-0000-0000EE040000}"/>
+    <cellStyle name="Normal 67 3" xfId="1259" xr:uid="{00000000-0005-0000-0000-0000EF040000}"/>
+    <cellStyle name="Normal 67 3 2" xfId="1260" xr:uid="{00000000-0005-0000-0000-0000F0040000}"/>
+    <cellStyle name="Normal 67 4" xfId="1261" xr:uid="{00000000-0005-0000-0000-0000F1040000}"/>
+    <cellStyle name="Normal 67 4 2" xfId="1262" xr:uid="{00000000-0005-0000-0000-0000F2040000}"/>
+    <cellStyle name="Normal 67 5" xfId="1263" xr:uid="{00000000-0005-0000-0000-0000F3040000}"/>
+    <cellStyle name="Normal 67 5 2" xfId="1264" xr:uid="{00000000-0005-0000-0000-0000F4040000}"/>
+    <cellStyle name="Normal 67 6" xfId="1265" xr:uid="{00000000-0005-0000-0000-0000F5040000}"/>
+    <cellStyle name="Normal 67 6 2" xfId="1266" xr:uid="{00000000-0005-0000-0000-0000F6040000}"/>
+    <cellStyle name="Normal 67 7" xfId="1267" xr:uid="{00000000-0005-0000-0000-0000F7040000}"/>
+    <cellStyle name="Normal 67 7 2" xfId="1268" xr:uid="{00000000-0005-0000-0000-0000F8040000}"/>
+    <cellStyle name="Normal 67 8" xfId="1269" xr:uid="{00000000-0005-0000-0000-0000F9040000}"/>
+    <cellStyle name="Normal 67 8 2" xfId="1270" xr:uid="{00000000-0005-0000-0000-0000FA040000}"/>
+    <cellStyle name="Normal 67 9" xfId="1271" xr:uid="{00000000-0005-0000-0000-0000FB040000}"/>
+    <cellStyle name="Normal 67 9 2" xfId="1272" xr:uid="{00000000-0005-0000-0000-0000FC040000}"/>
+    <cellStyle name="Normal 68" xfId="1273" xr:uid="{00000000-0005-0000-0000-0000FD040000}"/>
+    <cellStyle name="Normal 69" xfId="1274" xr:uid="{00000000-0005-0000-0000-0000FE040000}"/>
+    <cellStyle name="Normal 69 10" xfId="1275" xr:uid="{00000000-0005-0000-0000-0000FF040000}"/>
+    <cellStyle name="Normal 69 10 2" xfId="1276" xr:uid="{00000000-0005-0000-0000-000000050000}"/>
+    <cellStyle name="Normal 69 11" xfId="1277" xr:uid="{00000000-0005-0000-0000-000001050000}"/>
+    <cellStyle name="Normal 69 11 2" xfId="1278" xr:uid="{00000000-0005-0000-0000-000002050000}"/>
+    <cellStyle name="Normal 69 12" xfId="1279" xr:uid="{00000000-0005-0000-0000-000003050000}"/>
+    <cellStyle name="Normal 69 12 2" xfId="1280" xr:uid="{00000000-0005-0000-0000-000004050000}"/>
+    <cellStyle name="Normal 69 13" xfId="1281" xr:uid="{00000000-0005-0000-0000-000005050000}"/>
+    <cellStyle name="Normal 69 13 2" xfId="1282" xr:uid="{00000000-0005-0000-0000-000006050000}"/>
+    <cellStyle name="Normal 69 14" xfId="1283" xr:uid="{00000000-0005-0000-0000-000007050000}"/>
+    <cellStyle name="Normal 69 14 2" xfId="1284" xr:uid="{00000000-0005-0000-0000-000008050000}"/>
+    <cellStyle name="Normal 69 15" xfId="1285" xr:uid="{00000000-0005-0000-0000-000009050000}"/>
+    <cellStyle name="Normal 69 15 2" xfId="1286" xr:uid="{00000000-0005-0000-0000-00000A050000}"/>
+    <cellStyle name="Normal 69 16" xfId="1287" xr:uid="{00000000-0005-0000-0000-00000B050000}"/>
+    <cellStyle name="Normal 69 16 2" xfId="1288" xr:uid="{00000000-0005-0000-0000-00000C050000}"/>
+    <cellStyle name="Normal 69 17" xfId="1289" xr:uid="{00000000-0005-0000-0000-00000D050000}"/>
+    <cellStyle name="Normal 69 17 2" xfId="1290" xr:uid="{00000000-0005-0000-0000-00000E050000}"/>
+    <cellStyle name="Normal 69 18" xfId="1291" xr:uid="{00000000-0005-0000-0000-00000F050000}"/>
+    <cellStyle name="Normal 69 18 2" xfId="1292" xr:uid="{00000000-0005-0000-0000-000010050000}"/>
+    <cellStyle name="Normal 69 19" xfId="1293" xr:uid="{00000000-0005-0000-0000-000011050000}"/>
+    <cellStyle name="Normal 69 19 2" xfId="1294" xr:uid="{00000000-0005-0000-0000-000012050000}"/>
+    <cellStyle name="Normal 69 2" xfId="1295" xr:uid="{00000000-0005-0000-0000-000013050000}"/>
+    <cellStyle name="Normal 69 2 2" xfId="1296" xr:uid="{00000000-0005-0000-0000-000014050000}"/>
+    <cellStyle name="Normal 69 20" xfId="1297" xr:uid="{00000000-0005-0000-0000-000015050000}"/>
+    <cellStyle name="Normal 69 20 2" xfId="1298" xr:uid="{00000000-0005-0000-0000-000016050000}"/>
+    <cellStyle name="Normal 69 21" xfId="1299" xr:uid="{00000000-0005-0000-0000-000017050000}"/>
+    <cellStyle name="Normal 69 21 2" xfId="1300" xr:uid="{00000000-0005-0000-0000-000018050000}"/>
+    <cellStyle name="Normal 69 22" xfId="1301" xr:uid="{00000000-0005-0000-0000-000019050000}"/>
+    <cellStyle name="Normal 69 22 2" xfId="1302" xr:uid="{00000000-0005-0000-0000-00001A050000}"/>
+    <cellStyle name="Normal 69 23" xfId="1303" xr:uid="{00000000-0005-0000-0000-00001B050000}"/>
+    <cellStyle name="Normal 69 3" xfId="1304" xr:uid="{00000000-0005-0000-0000-00001C050000}"/>
+    <cellStyle name="Normal 69 3 2" xfId="1305" xr:uid="{00000000-0005-0000-0000-00001D050000}"/>
+    <cellStyle name="Normal 69 4" xfId="1306" xr:uid="{00000000-0005-0000-0000-00001E050000}"/>
+    <cellStyle name="Normal 69 4 2" xfId="1307" xr:uid="{00000000-0005-0000-0000-00001F050000}"/>
+    <cellStyle name="Normal 69 5" xfId="1308" xr:uid="{00000000-0005-0000-0000-000020050000}"/>
+    <cellStyle name="Normal 69 5 2" xfId="1309" xr:uid="{00000000-0005-0000-0000-000021050000}"/>
+    <cellStyle name="Normal 69 6" xfId="1310" xr:uid="{00000000-0005-0000-0000-000022050000}"/>
+    <cellStyle name="Normal 69 6 2" xfId="1311" xr:uid="{00000000-0005-0000-0000-000023050000}"/>
+    <cellStyle name="Normal 69 7" xfId="1312" xr:uid="{00000000-0005-0000-0000-000024050000}"/>
+    <cellStyle name="Normal 69 7 2" xfId="1313" xr:uid="{00000000-0005-0000-0000-000025050000}"/>
+    <cellStyle name="Normal 69 8" xfId="1314" xr:uid="{00000000-0005-0000-0000-000026050000}"/>
+    <cellStyle name="Normal 69 8 2" xfId="1315" xr:uid="{00000000-0005-0000-0000-000027050000}"/>
+    <cellStyle name="Normal 69 9" xfId="1316" xr:uid="{00000000-0005-0000-0000-000028050000}"/>
+    <cellStyle name="Normal 69 9 2" xfId="1317" xr:uid="{00000000-0005-0000-0000-000029050000}"/>
+    <cellStyle name="Normal 7" xfId="1318" xr:uid="{00000000-0005-0000-0000-00002A050000}"/>
+    <cellStyle name="Normal 70" xfId="1319" xr:uid="{00000000-0005-0000-0000-00002B050000}"/>
+    <cellStyle name="Normal 70 10" xfId="1320" xr:uid="{00000000-0005-0000-0000-00002C050000}"/>
+    <cellStyle name="Normal 70 10 2" xfId="1321" xr:uid="{00000000-0005-0000-0000-00002D050000}"/>
+    <cellStyle name="Normal 70 11" xfId="1322" xr:uid="{00000000-0005-0000-0000-00002E050000}"/>
+    <cellStyle name="Normal 70 11 2" xfId="1323" xr:uid="{00000000-0005-0000-0000-00002F050000}"/>
+    <cellStyle name="Normal 70 12" xfId="1324" xr:uid="{00000000-0005-0000-0000-000030050000}"/>
+    <cellStyle name="Normal 70 12 2" xfId="1325" xr:uid="{00000000-0005-0000-0000-000031050000}"/>
+    <cellStyle name="Normal 70 13" xfId="1326" xr:uid="{00000000-0005-0000-0000-000032050000}"/>
+    <cellStyle name="Normal 70 13 2" xfId="1327" xr:uid="{00000000-0005-0000-0000-000033050000}"/>
+    <cellStyle name="Normal 70 14" xfId="1328" xr:uid="{00000000-0005-0000-0000-000034050000}"/>
+    <cellStyle name="Normal 70 14 2" xfId="1329" xr:uid="{00000000-0005-0000-0000-000035050000}"/>
+    <cellStyle name="Normal 70 15" xfId="1330" xr:uid="{00000000-0005-0000-0000-000036050000}"/>
+    <cellStyle name="Normal 70 15 2" xfId="1331" xr:uid="{00000000-0005-0000-0000-000037050000}"/>
+    <cellStyle name="Normal 70 16" xfId="1332" xr:uid="{00000000-0005-0000-0000-000038050000}"/>
+    <cellStyle name="Normal 70 16 2" xfId="1333" xr:uid="{00000000-0005-0000-0000-000039050000}"/>
+    <cellStyle name="Normal 70 17" xfId="1334" xr:uid="{00000000-0005-0000-0000-00003A050000}"/>
+    <cellStyle name="Normal 70 17 2" xfId="1335" xr:uid="{00000000-0005-0000-0000-00003B050000}"/>
+    <cellStyle name="Normal 70 18" xfId="1336" xr:uid="{00000000-0005-0000-0000-00003C050000}"/>
+    <cellStyle name="Normal 70 18 2" xfId="1337" xr:uid="{00000000-0005-0000-0000-00003D050000}"/>
+    <cellStyle name="Normal 70 19" xfId="1338" xr:uid="{00000000-0005-0000-0000-00003E050000}"/>
+    <cellStyle name="Normal 70 19 2" xfId="1339" xr:uid="{00000000-0005-0000-0000-00003F050000}"/>
+    <cellStyle name="Normal 70 2" xfId="1340" xr:uid="{00000000-0005-0000-0000-000040050000}"/>
+    <cellStyle name="Normal 70 2 2" xfId="1341" xr:uid="{00000000-0005-0000-0000-000041050000}"/>
+    <cellStyle name="Normal 70 20" xfId="1342" xr:uid="{00000000-0005-0000-0000-000042050000}"/>
+    <cellStyle name="Normal 70 20 2" xfId="1343" xr:uid="{00000000-0005-0000-0000-000043050000}"/>
+    <cellStyle name="Normal 70 21" xfId="1344" xr:uid="{00000000-0005-0000-0000-000044050000}"/>
+    <cellStyle name="Normal 70 21 2" xfId="1345" xr:uid="{00000000-0005-0000-0000-000045050000}"/>
+    <cellStyle name="Normal 70 22" xfId="1346" xr:uid="{00000000-0005-0000-0000-000046050000}"/>
+    <cellStyle name="Normal 70 22 2" xfId="1347" xr:uid="{00000000-0005-0000-0000-000047050000}"/>
+    <cellStyle name="Normal 70 23" xfId="1348" xr:uid="{00000000-0005-0000-0000-000048050000}"/>
+    <cellStyle name="Normal 70 3" xfId="1349" xr:uid="{00000000-0005-0000-0000-000049050000}"/>
+    <cellStyle name="Normal 70 3 2" xfId="1350" xr:uid="{00000000-0005-0000-0000-00004A050000}"/>
+    <cellStyle name="Normal 70 4" xfId="1351" xr:uid="{00000000-0005-0000-0000-00004B050000}"/>
+    <cellStyle name="Normal 70 4 2" xfId="1352" xr:uid="{00000000-0005-0000-0000-00004C050000}"/>
+    <cellStyle name="Normal 70 5" xfId="1353" xr:uid="{00000000-0005-0000-0000-00004D050000}"/>
+    <cellStyle name="Normal 70 5 2" xfId="1354" xr:uid="{00000000-0005-0000-0000-00004E050000}"/>
+    <cellStyle name="Normal 70 6" xfId="1355" xr:uid="{00000000-0005-0000-0000-00004F050000}"/>
+    <cellStyle name="Normal 70 6 2" xfId="1356" xr:uid="{00000000-0005-0000-0000-000050050000}"/>
+    <cellStyle name="Normal 70 7" xfId="1357" xr:uid="{00000000-0005-0000-0000-000051050000}"/>
+    <cellStyle name="Normal 70 7 2" xfId="1358" xr:uid="{00000000-0005-0000-0000-000052050000}"/>
+    <cellStyle name="Normal 70 8" xfId="1359" xr:uid="{00000000-0005-0000-0000-000053050000}"/>
+    <cellStyle name="Normal 70 8 2" xfId="1360" xr:uid="{00000000-0005-0000-0000-000054050000}"/>
+    <cellStyle name="Normal 70 9" xfId="1361" xr:uid="{00000000-0005-0000-0000-000055050000}"/>
+    <cellStyle name="Normal 70 9 2" xfId="1362" xr:uid="{00000000-0005-0000-0000-000056050000}"/>
+    <cellStyle name="Normal 71" xfId="1363" xr:uid="{00000000-0005-0000-0000-000057050000}"/>
+    <cellStyle name="Normal 71 2" xfId="1364" xr:uid="{00000000-0005-0000-0000-000058050000}"/>
+    <cellStyle name="Normal 72" xfId="1365" xr:uid="{00000000-0005-0000-0000-000059050000}"/>
+    <cellStyle name="Normal 72 2" xfId="1366" xr:uid="{00000000-0005-0000-0000-00005A050000}"/>
+    <cellStyle name="Normal 73" xfId="1367" xr:uid="{00000000-0005-0000-0000-00005B050000}"/>
+    <cellStyle name="Normal 73 10" xfId="1368" xr:uid="{00000000-0005-0000-0000-00005C050000}"/>
+    <cellStyle name="Normal 73 11" xfId="1369" xr:uid="{00000000-0005-0000-0000-00005D050000}"/>
+    <cellStyle name="Normal 73 12" xfId="1370" xr:uid="{00000000-0005-0000-0000-00005E050000}"/>
+    <cellStyle name="Normal 73 13" xfId="1371" xr:uid="{00000000-0005-0000-0000-00005F050000}"/>
+    <cellStyle name="Normal 73 14" xfId="1372" xr:uid="{00000000-0005-0000-0000-000060050000}"/>
+    <cellStyle name="Normal 73 15" xfId="1373" xr:uid="{00000000-0005-0000-0000-000061050000}"/>
+    <cellStyle name="Normal 73 16" xfId="1374" xr:uid="{00000000-0005-0000-0000-000062050000}"/>
+    <cellStyle name="Normal 73 17" xfId="1375" xr:uid="{00000000-0005-0000-0000-000063050000}"/>
+    <cellStyle name="Normal 73 18" xfId="1376" xr:uid="{00000000-0005-0000-0000-000064050000}"/>
+    <cellStyle name="Normal 73 19" xfId="1377" xr:uid="{00000000-0005-0000-0000-000065050000}"/>
+    <cellStyle name="Normal 73 2" xfId="1378" xr:uid="{00000000-0005-0000-0000-000066050000}"/>
+    <cellStyle name="Normal 73 20" xfId="1379" xr:uid="{00000000-0005-0000-0000-000067050000}"/>
+    <cellStyle name="Normal 73 21" xfId="1380" xr:uid="{00000000-0005-0000-0000-000068050000}"/>
+    <cellStyle name="Normal 73 22" xfId="1381" xr:uid="{00000000-0005-0000-0000-000069050000}"/>
+    <cellStyle name="Normal 73 23" xfId="1382" xr:uid="{00000000-0005-0000-0000-00006A050000}"/>
+    <cellStyle name="Normal 73 3" xfId="1383" xr:uid="{00000000-0005-0000-0000-00006B050000}"/>
+    <cellStyle name="Normal 73 4" xfId="1384" xr:uid="{00000000-0005-0000-0000-00006C050000}"/>
+    <cellStyle name="Normal 73 5" xfId="1385" xr:uid="{00000000-0005-0000-0000-00006D050000}"/>
+    <cellStyle name="Normal 73 6" xfId="1386" xr:uid="{00000000-0005-0000-0000-00006E050000}"/>
+    <cellStyle name="Normal 73 7" xfId="1387" xr:uid="{00000000-0005-0000-0000-00006F050000}"/>
+    <cellStyle name="Normal 73 8" xfId="1388" xr:uid="{00000000-0005-0000-0000-000070050000}"/>
+    <cellStyle name="Normal 73 9" xfId="1389" xr:uid="{00000000-0005-0000-0000-000071050000}"/>
+    <cellStyle name="Normal 74" xfId="1390" xr:uid="{00000000-0005-0000-0000-000072050000}"/>
+    <cellStyle name="Normal 74 2" xfId="1391" xr:uid="{00000000-0005-0000-0000-000073050000}"/>
+    <cellStyle name="Normal 75" xfId="1392" xr:uid="{00000000-0005-0000-0000-000074050000}"/>
+    <cellStyle name="Normal 75 2" xfId="1393" xr:uid="{00000000-0005-0000-0000-000075050000}"/>
+    <cellStyle name="Normal 76" xfId="1394" xr:uid="{00000000-0005-0000-0000-000076050000}"/>
+    <cellStyle name="Normal 76 2" xfId="1395" xr:uid="{00000000-0005-0000-0000-000077050000}"/>
+    <cellStyle name="Normal 77" xfId="1396" xr:uid="{00000000-0005-0000-0000-000078050000}"/>
+    <cellStyle name="Normal 77 2" xfId="1397" xr:uid="{00000000-0005-0000-0000-000079050000}"/>
+    <cellStyle name="Normal 78" xfId="1398" xr:uid="{00000000-0005-0000-0000-00007A050000}"/>
+    <cellStyle name="Normal 78 2" xfId="1399" xr:uid="{00000000-0005-0000-0000-00007B050000}"/>
+    <cellStyle name="Normal 79" xfId="1400" xr:uid="{00000000-0005-0000-0000-00007C050000}"/>
+    <cellStyle name="Normal 79 2" xfId="1401" xr:uid="{00000000-0005-0000-0000-00007D050000}"/>
+    <cellStyle name="Normal 8" xfId="1402" xr:uid="{00000000-0005-0000-0000-00007E050000}"/>
+    <cellStyle name="Normal 80" xfId="1403" xr:uid="{00000000-0005-0000-0000-00007F050000}"/>
+    <cellStyle name="Normal 80 2" xfId="1404" xr:uid="{00000000-0005-0000-0000-000080050000}"/>
+    <cellStyle name="Normal 81" xfId="1405" xr:uid="{00000000-0005-0000-0000-000081050000}"/>
+    <cellStyle name="Normal 81 2" xfId="1406" xr:uid="{00000000-0005-0000-0000-000082050000}"/>
+    <cellStyle name="Normal 82" xfId="1407" xr:uid="{00000000-0005-0000-0000-000083050000}"/>
+    <cellStyle name="Normal 82 2" xfId="1408" xr:uid="{00000000-0005-0000-0000-000084050000}"/>
+    <cellStyle name="Normal 83" xfId="1409" xr:uid="{00000000-0005-0000-0000-000085050000}"/>
+    <cellStyle name="Normal 83 2" xfId="1410" xr:uid="{00000000-0005-0000-0000-000086050000}"/>
+    <cellStyle name="Normal 84" xfId="1411" xr:uid="{00000000-0005-0000-0000-000087050000}"/>
+    <cellStyle name="Normal 84 2" xfId="1412" xr:uid="{00000000-0005-0000-0000-000088050000}"/>
+    <cellStyle name="Normal 85" xfId="1413" xr:uid="{00000000-0005-0000-0000-000089050000}"/>
+    <cellStyle name="Normal 85 2" xfId="1414" xr:uid="{00000000-0005-0000-0000-00008A050000}"/>
+    <cellStyle name="Normal 86" xfId="1415" xr:uid="{00000000-0005-0000-0000-00008B050000}"/>
+    <cellStyle name="Normal 86 2" xfId="1416" xr:uid="{00000000-0005-0000-0000-00008C050000}"/>
+    <cellStyle name="Normal 87" xfId="1417" xr:uid="{00000000-0005-0000-0000-00008D050000}"/>
+    <cellStyle name="Normal 87 2" xfId="1418" xr:uid="{00000000-0005-0000-0000-00008E050000}"/>
+    <cellStyle name="Normal 88" xfId="1419" xr:uid="{00000000-0005-0000-0000-00008F050000}"/>
+    <cellStyle name="Normal 88 2" xfId="1420" xr:uid="{00000000-0005-0000-0000-000090050000}"/>
+    <cellStyle name="Normal 89" xfId="1421" xr:uid="{00000000-0005-0000-0000-000091050000}"/>
+    <cellStyle name="Normal 89 2" xfId="1422" xr:uid="{00000000-0005-0000-0000-000092050000}"/>
+    <cellStyle name="Normal 9" xfId="1423" xr:uid="{00000000-0005-0000-0000-000093050000}"/>
+    <cellStyle name="Normal 90" xfId="1424" xr:uid="{00000000-0005-0000-0000-000094050000}"/>
+    <cellStyle name="Normal 90 2" xfId="1425" xr:uid="{00000000-0005-0000-0000-000095050000}"/>
+    <cellStyle name="Normal 91" xfId="1426" xr:uid="{00000000-0005-0000-0000-000096050000}"/>
+    <cellStyle name="Normal 91 2" xfId="1427" xr:uid="{00000000-0005-0000-0000-000097050000}"/>
+    <cellStyle name="Normal 92" xfId="1428" xr:uid="{00000000-0005-0000-0000-000098050000}"/>
+    <cellStyle name="Normal 92 2" xfId="1429" xr:uid="{00000000-0005-0000-0000-000099050000}"/>
+    <cellStyle name="Normal 93" xfId="1430" xr:uid="{00000000-0005-0000-0000-00009A050000}"/>
+    <cellStyle name="Normal 93 2" xfId="1431" xr:uid="{00000000-0005-0000-0000-00009B050000}"/>
+    <cellStyle name="Normal 94" xfId="1432" xr:uid="{00000000-0005-0000-0000-00009C050000}"/>
+    <cellStyle name="Normal 94 2" xfId="1433" xr:uid="{00000000-0005-0000-0000-00009D050000}"/>
+    <cellStyle name="Normal 95" xfId="1434" xr:uid="{00000000-0005-0000-0000-00009E050000}"/>
+    <cellStyle name="Normal 96" xfId="1435" xr:uid="{00000000-0005-0000-0000-00009F050000}"/>
+    <cellStyle name="Normal 97" xfId="1436" xr:uid="{00000000-0005-0000-0000-0000A0050000}"/>
+    <cellStyle name="Normal 97 2" xfId="1437" xr:uid="{00000000-0005-0000-0000-0000A1050000}"/>
+    <cellStyle name="Normal 98" xfId="1438" xr:uid="{00000000-0005-0000-0000-0000A2050000}"/>
+    <cellStyle name="Normal 98 2" xfId="1439" xr:uid="{00000000-0005-0000-0000-0000A3050000}"/>
+    <cellStyle name="Normal 99" xfId="1440" xr:uid="{00000000-0005-0000-0000-0000A4050000}"/>
     <cellStyle name="Porcentaje" xfId="1491" builtinId="5"/>
-    <cellStyle name="Porcentaje 2" xfId="1441"/>
-    <cellStyle name="Porcentaje 2 10" xfId="1442"/>
-    <cellStyle name="Porcentaje 2 10 2" xfId="1443"/>
-    <cellStyle name="Porcentaje 2 11" xfId="1444"/>
-    <cellStyle name="Porcentaje 2 11 2" xfId="1445"/>
-    <cellStyle name="Porcentaje 2 12" xfId="1446"/>
-    <cellStyle name="Porcentaje 2 12 2" xfId="1447"/>
-    <cellStyle name="Porcentaje 2 13" xfId="1448"/>
-    <cellStyle name="Porcentaje 2 13 2" xfId="1449"/>
-    <cellStyle name="Porcentaje 2 14" xfId="1450"/>
-    <cellStyle name="Porcentaje 2 14 2" xfId="1451"/>
-    <cellStyle name="Porcentaje 2 15" xfId="1452"/>
-    <cellStyle name="Porcentaje 2 15 2" xfId="1453"/>
-    <cellStyle name="Porcentaje 2 16" xfId="1454"/>
-    <cellStyle name="Porcentaje 2 16 2" xfId="1455"/>
-    <cellStyle name="Porcentaje 2 17" xfId="1456"/>
-    <cellStyle name="Porcentaje 2 17 2" xfId="1457"/>
-    <cellStyle name="Porcentaje 2 18" xfId="1458"/>
-    <cellStyle name="Porcentaje 2 18 2" xfId="1459"/>
-    <cellStyle name="Porcentaje 2 19" xfId="1460"/>
-    <cellStyle name="Porcentaje 2 19 2" xfId="1461"/>
-    <cellStyle name="Porcentaje 2 2" xfId="1462"/>
-    <cellStyle name="Porcentaje 2 2 2" xfId="1463"/>
-    <cellStyle name="Porcentaje 2 20" xfId="1464"/>
-    <cellStyle name="Porcentaje 2 20 2" xfId="1465"/>
-    <cellStyle name="Porcentaje 2 21" xfId="1466"/>
-    <cellStyle name="Porcentaje 2 21 2" xfId="1467"/>
-    <cellStyle name="Porcentaje 2 22" xfId="1468"/>
-    <cellStyle name="Porcentaje 2 22 2" xfId="1469"/>
-    <cellStyle name="Porcentaje 2 23" xfId="1470"/>
-    <cellStyle name="Porcentaje 2 3" xfId="1471"/>
-    <cellStyle name="Porcentaje 2 3 2" xfId="1472"/>
-    <cellStyle name="Porcentaje 2 4" xfId="1473"/>
-    <cellStyle name="Porcentaje 2 4 2" xfId="1474"/>
-    <cellStyle name="Porcentaje 2 5" xfId="1475"/>
-    <cellStyle name="Porcentaje 2 5 2" xfId="1476"/>
-    <cellStyle name="Porcentaje 2 6" xfId="1477"/>
-    <cellStyle name="Porcentaje 2 6 2" xfId="1478"/>
-    <cellStyle name="Porcentaje 2 7" xfId="1479"/>
-    <cellStyle name="Porcentaje 2 7 2" xfId="1480"/>
-    <cellStyle name="Porcentaje 2 8" xfId="1481"/>
-    <cellStyle name="Porcentaje 2 8 2" xfId="1482"/>
-    <cellStyle name="Porcentaje 2 9" xfId="1483"/>
-    <cellStyle name="Porcentaje 2 9 2" xfId="1484"/>
-    <cellStyle name="Porcentual 2" xfId="1485"/>
-    <cellStyle name="Porcentual 3" xfId="1486"/>
+    <cellStyle name="Porcentaje 2" xfId="1441" xr:uid="{00000000-0005-0000-0000-0000A6050000}"/>
+    <cellStyle name="Porcentaje 2 10" xfId="1442" xr:uid="{00000000-0005-0000-0000-0000A7050000}"/>
+    <cellStyle name="Porcentaje 2 10 2" xfId="1443" xr:uid="{00000000-0005-0000-0000-0000A8050000}"/>
+    <cellStyle name="Porcentaje 2 11" xfId="1444" xr:uid="{00000000-0005-0000-0000-0000A9050000}"/>
+    <cellStyle name="Porcentaje 2 11 2" xfId="1445" xr:uid="{00000000-0005-0000-0000-0000AA050000}"/>
+    <cellStyle name="Porcentaje 2 12" xfId="1446" xr:uid="{00000000-0005-0000-0000-0000AB050000}"/>
+    <cellStyle name="Porcentaje 2 12 2" xfId="1447" xr:uid="{00000000-0005-0000-0000-0000AC050000}"/>
+    <cellStyle name="Porcentaje 2 13" xfId="1448" xr:uid="{00000000-0005-0000-0000-0000AD050000}"/>
+    <cellStyle name="Porcentaje 2 13 2" xfId="1449" xr:uid="{00000000-0005-0000-0000-0000AE050000}"/>
+    <cellStyle name="Porcentaje 2 14" xfId="1450" xr:uid="{00000000-0005-0000-0000-0000AF050000}"/>
+    <cellStyle name="Porcentaje 2 14 2" xfId="1451" xr:uid="{00000000-0005-0000-0000-0000B0050000}"/>
+    <cellStyle name="Porcentaje 2 15" xfId="1452" xr:uid="{00000000-0005-0000-0000-0000B1050000}"/>
+    <cellStyle name="Porcentaje 2 15 2" xfId="1453" xr:uid="{00000000-0005-0000-0000-0000B2050000}"/>
+    <cellStyle name="Porcentaje 2 16" xfId="1454" xr:uid="{00000000-0005-0000-0000-0000B3050000}"/>
+    <cellStyle name="Porcentaje 2 16 2" xfId="1455" xr:uid="{00000000-0005-0000-0000-0000B4050000}"/>
+    <cellStyle name="Porcentaje 2 17" xfId="1456" xr:uid="{00000000-0005-0000-0000-0000B5050000}"/>
+    <cellStyle name="Porcentaje 2 17 2" xfId="1457" xr:uid="{00000000-0005-0000-0000-0000B6050000}"/>
+    <cellStyle name="Porcentaje 2 18" xfId="1458" xr:uid="{00000000-0005-0000-0000-0000B7050000}"/>
+    <cellStyle name="Porcentaje 2 18 2" xfId="1459" xr:uid="{00000000-0005-0000-0000-0000B8050000}"/>
+    <cellStyle name="Porcentaje 2 19" xfId="1460" xr:uid="{00000000-0005-0000-0000-0000B9050000}"/>
+    <cellStyle name="Porcentaje 2 19 2" xfId="1461" xr:uid="{00000000-0005-0000-0000-0000BA050000}"/>
+    <cellStyle name="Porcentaje 2 2" xfId="1462" xr:uid="{00000000-0005-0000-0000-0000BB050000}"/>
+    <cellStyle name="Porcentaje 2 2 2" xfId="1463" xr:uid="{00000000-0005-0000-0000-0000BC050000}"/>
+    <cellStyle name="Porcentaje 2 20" xfId="1464" xr:uid="{00000000-0005-0000-0000-0000BD050000}"/>
+    <cellStyle name="Porcentaje 2 20 2" xfId="1465" xr:uid="{00000000-0005-0000-0000-0000BE050000}"/>
+    <cellStyle name="Porcentaje 2 21" xfId="1466" xr:uid="{00000000-0005-0000-0000-0000BF050000}"/>
+    <cellStyle name="Porcentaje 2 21 2" xfId="1467" xr:uid="{00000000-0005-0000-0000-0000C0050000}"/>
+    <cellStyle name="Porcentaje 2 22" xfId="1468" xr:uid="{00000000-0005-0000-0000-0000C1050000}"/>
+    <cellStyle name="Porcentaje 2 22 2" xfId="1469" xr:uid="{00000000-0005-0000-0000-0000C2050000}"/>
+    <cellStyle name="Porcentaje 2 23" xfId="1470" xr:uid="{00000000-0005-0000-0000-0000C3050000}"/>
+    <cellStyle name="Porcentaje 2 3" xfId="1471" xr:uid="{00000000-0005-0000-0000-0000C4050000}"/>
+    <cellStyle name="Porcentaje 2 3 2" xfId="1472" xr:uid="{00000000-0005-0000-0000-0000C5050000}"/>
+    <cellStyle name="Porcentaje 2 4" xfId="1473" xr:uid="{00000000-0005-0000-0000-0000C6050000}"/>
+    <cellStyle name="Porcentaje 2 4 2" xfId="1474" xr:uid="{00000000-0005-0000-0000-0000C7050000}"/>
+    <cellStyle name="Porcentaje 2 5" xfId="1475" xr:uid="{00000000-0005-0000-0000-0000C8050000}"/>
+    <cellStyle name="Porcentaje 2 5 2" xfId="1476" xr:uid="{00000000-0005-0000-0000-0000C9050000}"/>
+    <cellStyle name="Porcentaje 2 6" xfId="1477" xr:uid="{00000000-0005-0000-0000-0000CA050000}"/>
+    <cellStyle name="Porcentaje 2 6 2" xfId="1478" xr:uid="{00000000-0005-0000-0000-0000CB050000}"/>
+    <cellStyle name="Porcentaje 2 7" xfId="1479" xr:uid="{00000000-0005-0000-0000-0000CC050000}"/>
+    <cellStyle name="Porcentaje 2 7 2" xfId="1480" xr:uid="{00000000-0005-0000-0000-0000CD050000}"/>
+    <cellStyle name="Porcentaje 2 8" xfId="1481" xr:uid="{00000000-0005-0000-0000-0000CE050000}"/>
+    <cellStyle name="Porcentaje 2 8 2" xfId="1482" xr:uid="{00000000-0005-0000-0000-0000CF050000}"/>
+    <cellStyle name="Porcentaje 2 9" xfId="1483" xr:uid="{00000000-0005-0000-0000-0000D0050000}"/>
+    <cellStyle name="Porcentaje 2 9 2" xfId="1484" xr:uid="{00000000-0005-0000-0000-0000D1050000}"/>
+    <cellStyle name="Porcentual 2" xfId="1485" xr:uid="{00000000-0005-0000-0000-0000D2050000}"/>
+    <cellStyle name="Porcentual 3" xfId="1486" xr:uid="{00000000-0005-0000-0000-0000D3050000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5011,7 +5044,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FOR"/>
@@ -5044,7 +5077,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FOR"/>
@@ -5085,7 +5118,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IETU"/>
@@ -5436,9 +5469,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5476,9 +5509,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5513,7 +5546,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5548,7 +5581,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5721,7 +5754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:BK15"/>
   <sheetViews>
@@ -5730,7 +5763,7 @@
       <selection activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="F11" sqref="F11"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AF11" sqref="AF1:AF1048576"/>
+      <selection pane="bottomRight" activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6407,90 +6440,90 @@
       <c r="BK10" s="50"/>
     </row>
     <row r="11" spans="2:63" s="84" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="211" t="s">
+      <c r="B11" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="211" t="s">
+      <c r="C11" s="212" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="211" t="s">
+      <c r="D11" s="212" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="211" t="s">
+      <c r="E11" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="211" t="s">
+      <c r="F11" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="211" t="s">
+      <c r="G11" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="211" t="s">
+      <c r="H11" s="212" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="211" t="s">
+      <c r="I11" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="211" t="s">
+      <c r="J11" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="211" t="s">
+      <c r="K11" s="212" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="211" t="s">
+      <c r="L11" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="211" t="s">
+      <c r="M11" s="212" t="s">
         <v>56</v>
       </c>
       <c r="N11" s="214" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O11" s="214" t="s">
         <v>206</v>
       </c>
-      <c r="P11" s="211" t="s">
+      <c r="P11" s="212" t="s">
         <v>66</v>
       </c>
       <c r="Q11" s="128"/>
-      <c r="R11" s="211" t="s">
+      <c r="R11" s="212" t="s">
         <v>47</v>
       </c>
       <c r="S11" s="131"/>
       <c r="T11" s="131"/>
-      <c r="U11" s="211" t="s">
+      <c r="U11" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="V11" s="211" t="s">
+      <c r="V11" s="212" t="s">
         <v>191</v>
       </c>
-      <c r="W11" s="212" t="s">
+      <c r="W11" s="213" t="s">
         <v>194</v>
       </c>
       <c r="X11" s="197"/>
-      <c r="Y11" s="211" t="s">
-        <v>264</v>
+      <c r="Y11" s="212" t="s">
+        <v>260</v>
       </c>
       <c r="Z11" s="85"/>
-      <c r="AA11" s="211" t="s">
-        <v>263</v>
-      </c>
-      <c r="AB11" s="212" t="s">
+      <c r="AA11" s="212" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB11" s="213" t="s">
         <v>196</v>
       </c>
-      <c r="AC11" s="211" t="s">
+      <c r="AC11" s="212" t="s">
         <v>5</v>
       </c>
-      <c r="AD11" s="211" t="s">
+      <c r="AD11" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="AE11" s="213" t="s">
+      <c r="AE11" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="AF11" s="211" t="s">
+      <c r="AF11" s="212" t="s">
         <v>110</v>
       </c>
-      <c r="AG11" s="211" t="s">
+      <c r="AG11" s="212" t="s">
         <v>1</v>
       </c>
       <c r="AH11"/>
@@ -6523,25 +6556,25 @@
       <c r="BJ11" s="83"/>
     </row>
     <row r="12" spans="2:63" s="86" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="211"/>
-      <c r="C12" s="211"/>
-      <c r="D12" s="211"/>
-      <c r="E12" s="211"/>
-      <c r="F12" s="211"/>
-      <c r="G12" s="211"/>
-      <c r="H12" s="211"/>
-      <c r="I12" s="211"/>
-      <c r="J12" s="211"/>
-      <c r="K12" s="211"/>
-      <c r="L12" s="211"/>
-      <c r="M12" s="211"/>
+      <c r="B12" s="212"/>
+      <c r="C12" s="212"/>
+      <c r="D12" s="212"/>
+      <c r="E12" s="212"/>
+      <c r="F12" s="212"/>
+      <c r="G12" s="212"/>
+      <c r="H12" s="212"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="212"/>
+      <c r="K12" s="212"/>
+      <c r="L12" s="212"/>
+      <c r="M12" s="212"/>
       <c r="N12" s="214"/>
       <c r="O12" s="214"/>
-      <c r="P12" s="211"/>
+      <c r="P12" s="212"/>
       <c r="Q12" s="128" t="s">
         <v>202</v>
       </c>
-      <c r="R12" s="211" t="s">
+      <c r="R12" s="212" t="s">
         <v>57</v>
       </c>
       <c r="S12" s="131" t="s">
@@ -6550,21 +6583,21 @@
       <c r="T12" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="U12" s="211"/>
-      <c r="V12" s="211"/>
-      <c r="W12" s="212"/>
+      <c r="U12" s="212"/>
+      <c r="V12" s="212"/>
+      <c r="W12" s="213"/>
       <c r="X12" s="197" t="s">
         <v>195</v>
       </c>
-      <c r="Y12" s="211"/>
+      <c r="Y12" s="212"/>
       <c r="Z12" s="85"/>
-      <c r="AA12" s="211"/>
-      <c r="AB12" s="212"/>
-      <c r="AC12" s="211"/>
-      <c r="AD12" s="211"/>
-      <c r="AE12" s="213"/>
-      <c r="AF12" s="211"/>
-      <c r="AG12" s="211"/>
+      <c r="AA12" s="212"/>
+      <c r="AB12" s="213"/>
+      <c r="AC12" s="212"/>
+      <c r="AD12" s="212"/>
+      <c r="AE12" s="215"/>
+      <c r="AF12" s="212"/>
+      <c r="AG12" s="212"/>
       <c r="AH12"/>
       <c r="AI12" s="87"/>
       <c r="AJ12" s="88"/>
@@ -6695,11 +6728,13 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AG11:AG12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AE11:AE12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="Y11:Y12"/>
@@ -6715,24 +6750,22 @@
     <mergeCell ref="V11:V12"/>
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="O11:O12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AG11:AG12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:KJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="10" ySplit="8" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -6781,13 +6814,13 @@
   <sheetData>
     <row r="1" spans="1:296" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
-      <c r="B1" s="215" t="s">
+      <c r="B1" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
       <c r="G1" s="64"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -6889,13 +6922,13 @@
     </row>
     <row r="3" spans="1:296" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="66"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -6949,13 +6982,13 @@
     </row>
     <row r="4" spans="1:296" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="219" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
       <c r="G4" s="66"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -7309,7 +7342,7 @@
         <v>49</v>
       </c>
       <c r="O8" s="208" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P8" s="45" t="s">
         <v>30</v>
@@ -7438,7 +7471,7 @@
         <v>87</v>
       </c>
       <c r="BF8" s="210" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="BG8" s="200" t="s">
         <v>205</v>
@@ -9948,7 +9981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:CV59"/>
   <sheetViews>
@@ -10003,13 +10036,13 @@
   <sheetData>
     <row r="1" spans="1:100" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
-      <c r="B1" s="215" t="s">
+      <c r="B1" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -10103,13 +10136,13 @@
     </row>
     <row r="3" spans="1:100" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="30"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -10163,13 +10196,13 @@
     </row>
     <row r="4" spans="1:100" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="219" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
       <c r="G4" s="66"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -10583,7 +10616,7 @@
         <v>87</v>
       </c>
       <c r="AX8" s="210" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AY8" s="200" t="s">
         <v>205</v>
@@ -10640,154 +10673,154 @@
     </row>
     <row r="9" spans="1:100" s="78" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="E9" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="F9" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="G9" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="H9" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="I9" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="J9" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="K9" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="L9" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="M9" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="K9" s="49" t="s">
+      <c r="N9" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="O9" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="M9" s="49" t="s">
+      <c r="P9" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="Q9" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="O9" s="49" t="s">
+      <c r="R9" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="S9" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="Q9" s="49" t="s">
+      <c r="T9" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="U9" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="S9" s="49" t="s">
+      <c r="V9" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="W9" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="U9" s="49" t="s">
+      <c r="X9" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="V9" s="5" t="s">
+      <c r="Y9" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="W9" s="49" t="s">
+      <c r="Z9" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="X9" s="5" t="s">
+      <c r="AA9" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="Y9" s="49" t="s">
+      <c r="AB9" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="Z9" s="5" t="s">
+      <c r="AC9" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="AA9" s="49" t="s">
+      <c r="AD9" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="AB9" s="5" t="s">
+      <c r="AE9" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="AC9" s="49" t="s">
+      <c r="AF9" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="AD9" s="5" t="s">
+      <c r="AG9" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="AE9" s="49" t="s">
+      <c r="AH9" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AF9" s="5" t="s">
+      <c r="AI9" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="AG9" s="49" t="s">
+      <c r="AJ9" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="AH9" s="5" t="s">
+      <c r="AK9" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="AI9" s="49" t="s">
+      <c r="AL9" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="AJ9" s="5" t="s">
+      <c r="AM9" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="AK9" s="49" t="s">
+      <c r="AN9" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="AL9" s="5" t="s">
+      <c r="AO9" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="AM9" s="49" t="s">
+      <c r="AP9" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="AN9" s="5" t="s">
+      <c r="AQ9" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="AO9" s="49" t="s">
+      <c r="AR9" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="AP9" s="5" t="s">
+      <c r="AS9" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="AQ9" s="49" t="s">
+      <c r="AT9" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="AR9" s="5" t="s">
+      <c r="AU9" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="AS9" s="49" t="s">
+      <c r="AV9" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="AT9" s="5" t="s">
+      <c r="AW9" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="AU9" s="49" t="s">
+      <c r="AX9" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="AV9" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AW9" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="AX9" s="5" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:100" s="78" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -13175,12 +13208,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B4:M56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13224,7 +13257,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="93" t="s">
-        <v>191</v>
+        <v>266</v>
       </c>
       <c r="I5" s="92" t="s">
         <v>197</v>
@@ -13807,7 +13840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:H30"/>
   <sheetViews>
@@ -14339,11 +14372,11 @@
       <c r="C28" s="184" t="s">
         <v>177</v>
       </c>
-      <c r="E28" s="220" t="str">
+      <c r="E28" s="221" t="str">
         <f>+C28&amp;C4&amp;C3&amp;C4&amp;C25&amp;","&amp;C4&amp;C2&amp;C4&amp;C25&amp;")"</f>
         <v>hoja.Range("T" &amp; sep +9,"V" &amp; sep +9)</v>
       </c>
-      <c r="F28" s="220"/>
+      <c r="F28" s="221"/>
       <c r="G28" t="s">
         <v>174</v>
       </c>
@@ -14378,12 +14411,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14429,15 +14462,15 @@
       <c r="B3" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="222"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="223"/>
       <c r="E3" s="136"/>
       <c r="F3" s="135" t="s">
         <v>67</v>
       </c>
       <c r="G3" s="137"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="222"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="223"/>
       <c r="J3" s="152"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14466,17 +14499,17 @@
       </c>
       <c r="J4" s="152"/>
     </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="132"/>
-      <c r="B5" s="142" t="s">
-        <v>210</v>
+      <c r="B5" s="211" t="s">
+        <v>262</v>
       </c>
       <c r="C5" s="143"/>
       <c r="D5" s="143"/>
       <c r="E5" s="133"/>
       <c r="F5" s="142" t="str">
         <f>+B5</f>
-        <v>AGENCIA GROESSINGER SAPI DE CV</v>
+        <v>ASESORÍA Y CONSULTORÍA MACHT</v>
       </c>
       <c r="G5" s="142"/>
       <c r="H5" s="143"/>
@@ -14988,13 +15021,14 @@
     <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="132"/>
       <c r="B33" s="190" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="C33" s="190"/>
       <c r="D33" s="154"/>
       <c r="E33" s="152"/>
-      <c r="F33" s="190" t="s">
-        <v>208</v>
+      <c r="F33" s="190" t="str">
+        <f>+B33</f>
+        <v>TMM ALFA</v>
       </c>
       <c r="G33" s="190"/>
       <c r="H33" s="154"/>
@@ -15004,14 +15038,14 @@
     <row r="34" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="132"/>
       <c r="B34" s="206" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="C34" s="206"/>
       <c r="D34" s="207"/>
       <c r="E34" s="152"/>
       <c r="F34" s="206" t="str">
         <f>+B34</f>
-        <v>WORLD PERIDOT</v>
+        <v>TMM GAMMA</v>
       </c>
       <c r="G34" s="206"/>
       <c r="H34" s="207"/>
@@ -15136,14 +15170,14 @@
     <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="132"/>
       <c r="B39" s="142" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="C39" s="144"/>
       <c r="D39" s="144"/>
       <c r="E39" s="152"/>
       <c r="F39" s="142" t="str">
         <f>+B39</f>
-        <v>AGENCIA GROESSINGER SAPI DE CV</v>
+        <v>ASESORÍA Y CONSULTORÍA MACHT</v>
       </c>
       <c r="G39" s="147"/>
       <c r="H39" s="146"/>
@@ -15620,12 +15654,13 @@
     </row>
     <row r="67" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="190" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="C67" s="190"/>
       <c r="D67" s="154"/>
-      <c r="F67" s="190" t="s">
-        <v>208</v>
+      <c r="F67" s="190" t="str">
+        <f>+B67</f>
+        <v>TMM ALFA</v>
       </c>
       <c r="G67" s="190"/>
       <c r="H67" s="154"/>
@@ -15634,13 +15669,14 @@
     <row r="68" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="132"/>
       <c r="B68" s="206" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="C68" s="206"/>
       <c r="D68" s="207"/>
       <c r="E68" s="152"/>
-      <c r="F68" s="206" t="s">
-        <v>209</v>
+      <c r="F68" s="206" t="str">
+        <f>+B68</f>
+        <v>TMM GAMMA</v>
       </c>
       <c r="G68" s="206"/>
       <c r="H68" s="207"/>
@@ -15765,7 +15801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Hoja7"/>
   <dimension ref="B1:K34"/>
   <sheetViews>
@@ -15948,8 +15984,8 @@
       <c r="I34" s="169"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K1">
-    <sortState ref="B2:G2">
+  <autoFilter ref="B1:K1" xr:uid="{00000000-0009-0000-0000-000006000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G2">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
@@ -15958,7 +15994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Hoja8"/>
   <dimension ref="B1:G8"/>
   <sheetViews>
@@ -16008,7 +16044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Hoja9"/>
   <dimension ref="B1:G1"/>
   <sheetViews>
